--- a/1-Data-Codes/2-Final_Data/L_2007.xlsx
+++ b/1-Data-Codes/2-Final_Data/L_2007.xlsx
@@ -446,49 +446,49 @@
         </is>
       </c>
       <c r="B2">
-        <v>1808.26571152949</v>
+        <v>530.252559864434</v>
       </c>
       <c r="C2">
-        <v>32.2425182808141</v>
+        <v>51.366134785343</v>
       </c>
       <c r="D2">
-        <v>38.0875125397328</v>
+        <v>73.635035354645</v>
       </c>
       <c r="E2">
-        <v>42.9194791230357</v>
+        <v>79.22425142412141</v>
       </c>
       <c r="F2">
-        <v>17.4232196856531</v>
+        <v>27.2249345160092</v>
       </c>
       <c r="G2">
-        <v>9.31971926422413</v>
+        <v>17.8646971911983</v>
       </c>
       <c r="H2">
-        <v>12.1278037028047</v>
+        <v>24.1158890454614</v>
       </c>
       <c r="I2">
-        <v>16.0760256643601</v>
+        <v>22.0915021301538</v>
       </c>
       <c r="J2">
-        <v>48.4892120281832</v>
+        <v>78.54452497433471</v>
       </c>
       <c r="K2">
-        <v>20.4457591957456</v>
+        <v>27.5139725267019</v>
       </c>
       <c r="L2">
-        <v>24.7659104396283</v>
+        <v>38.5795584753024</v>
       </c>
       <c r="M2">
-        <v>44.6850465511948</v>
+        <v>56.3002241170236</v>
       </c>
       <c r="N2">
-        <v>28.2493435087146</v>
+        <v>30.3209506501542</v>
       </c>
       <c r="O2">
-        <v>1060.40553217077</v>
+        <v>2132.86847031306</v>
       </c>
       <c r="P2">
-        <v>27.7419299300589</v>
+        <v>37.2162252122686</v>
       </c>
     </row>
     <row r="3">
@@ -498,49 +498,49 @@
         </is>
       </c>
       <c r="B3">
-        <v>258.640732451628</v>
+        <v>90.2217620861578</v>
       </c>
       <c r="C3">
-        <v>8.49133065045138</v>
+        <v>3.83312831115581</v>
       </c>
       <c r="D3">
-        <v>0.255690601079209</v>
+        <v>0.15056989254077</v>
       </c>
       <c r="E3">
-        <v>1.15229142190969</v>
+        <v>1.0158364101422</v>
       </c>
       <c r="F3">
-        <v>12.4768896421521</v>
+        <v>14.3401041752356</v>
       </c>
       <c r="G3">
-        <v>0.0958302529408069</v>
+        <v>0.223858305067018</v>
       </c>
       <c r="H3">
-        <v>0.00987719650311733</v>
+        <v>0.0293929000897443</v>
       </c>
       <c r="I3">
-        <v>0.526038047605655</v>
+        <v>0.319039345531498</v>
       </c>
       <c r="J3">
-        <v>0.285587506504419</v>
+        <v>0.139633430499947</v>
       </c>
       <c r="K3">
-        <v>0.0199612831681629</v>
+        <v>0.0444104283851069</v>
       </c>
       <c r="L3">
-        <v>0.2512278850143</v>
+        <v>0.0397722207546673</v>
       </c>
       <c r="M3">
-        <v>0.334464193676725</v>
+        <v>0.341279605642149</v>
       </c>
       <c r="N3">
-        <v>0.373931100199942</v>
+        <v>0.873715266026078</v>
       </c>
       <c r="O3">
-        <v>240.692765403551</v>
+        <v>379.878308542322</v>
       </c>
       <c r="P3">
-        <v>4.60530744872836</v>
+        <v>11.4720209028457</v>
       </c>
     </row>
     <row r="4">
@@ -550,49 +550,49 @@
         </is>
       </c>
       <c r="B4">
-        <v>2004.53294726934</v>
+        <v>656.984436510118</v>
       </c>
       <c r="C4">
-        <v>18.7576611484329</v>
+        <v>16.3262882138268</v>
       </c>
       <c r="D4">
-        <v>2.70368038788601</v>
+        <v>4.27052761531007</v>
       </c>
       <c r="E4">
-        <v>14.3662794939538</v>
+        <v>16.8072976310193</v>
       </c>
       <c r="F4">
-        <v>16.2037062365485</v>
+        <v>9.099240434718681</v>
       </c>
       <c r="G4">
-        <v>8.34955972161057</v>
+        <v>7.85054882487787</v>
       </c>
       <c r="H4">
-        <v>11.5557779113633</v>
+        <v>10.159687857547</v>
       </c>
       <c r="I4">
-        <v>8.17331395802373</v>
+        <v>14.4952390602472</v>
       </c>
       <c r="J4">
-        <v>25.7363149588064</v>
+        <v>39.8476709453542</v>
       </c>
       <c r="K4">
-        <v>11.396382721489</v>
+        <v>10.5841133027059</v>
       </c>
       <c r="L4">
-        <v>74.3760958286589</v>
+        <v>83.7057284069132</v>
       </c>
       <c r="M4">
-        <v>54.9424438623764</v>
+        <v>53.9928952218397</v>
       </c>
       <c r="N4">
-        <v>30.9544645355875</v>
+        <v>39.1318838159487</v>
       </c>
       <c r="O4">
-        <v>1613.12297173908</v>
+        <v>2890.38118802254</v>
       </c>
       <c r="P4">
-        <v>28.0128118864292</v>
+        <v>39.5261568856535</v>
       </c>
     </row>
     <row r="5">
@@ -602,49 +602,49 @@
         </is>
       </c>
       <c r="B5">
-        <v>1116.0868396547</v>
+        <v>296.677418743735</v>
       </c>
       <c r="C5">
-        <v>60.899366964767</v>
+        <v>93.56248778910771</v>
       </c>
       <c r="D5">
-        <v>6.00094720914919</v>
+        <v>16.454253367586</v>
       </c>
       <c r="E5">
-        <v>32.3528404037421</v>
+        <v>48.8751804222776</v>
       </c>
       <c r="F5">
-        <v>5.18479900338637</v>
+        <v>6.63255703207653</v>
       </c>
       <c r="G5">
-        <v>11.6122627840785</v>
+        <v>9.497822152708929</v>
       </c>
       <c r="H5">
-        <v>12.9184619572595</v>
+        <v>19.0814417668944</v>
       </c>
       <c r="I5">
-        <v>7.12829558518464</v>
+        <v>11.3658965094896</v>
       </c>
       <c r="J5">
-        <v>17.2759371600022</v>
+        <v>34.7074579968386</v>
       </c>
       <c r="K5">
-        <v>17.8837578568188</v>
+        <v>23.0570127040897</v>
       </c>
       <c r="L5">
-        <v>12.6930320937665</v>
+        <v>20.0227108747147</v>
       </c>
       <c r="M5">
-        <v>18.604032344919</v>
+        <v>28.947290987542</v>
       </c>
       <c r="N5">
-        <v>13.3932866838194</v>
+        <v>22.6973140806157</v>
       </c>
       <c r="O5">
-        <v>577.643473063473</v>
+        <v>1239.25143635361</v>
       </c>
       <c r="P5">
-        <v>36.1491583340082</v>
+        <v>81.0683971267671</v>
       </c>
     </row>
     <row r="6">
@@ -654,49 +654,49 @@
         </is>
       </c>
       <c r="B6">
-        <v>10654.4662352673</v>
+        <v>4151.79869111547</v>
       </c>
       <c r="C6">
-        <v>153.881701160874</v>
+        <v>203.769802879357</v>
       </c>
       <c r="D6">
-        <v>126.288914193135</v>
+        <v>125.598078285384</v>
       </c>
       <c r="E6">
-        <v>180.490042894582</v>
+        <v>166.97263884191</v>
       </c>
       <c r="F6">
-        <v>37.3950588681064</v>
+        <v>31.2297022598965</v>
       </c>
       <c r="G6">
-        <v>94.6134471877343</v>
+        <v>101.338333196033</v>
       </c>
       <c r="H6">
-        <v>46.4444034541185</v>
+        <v>61.7113903073278</v>
       </c>
       <c r="I6">
-        <v>46.3974649128896</v>
+        <v>51.3687685779829</v>
       </c>
       <c r="J6">
-        <v>144.655004055139</v>
+        <v>178.051148621935</v>
       </c>
       <c r="K6">
-        <v>113.544251063943</v>
+        <v>95.1988302928885</v>
       </c>
       <c r="L6">
-        <v>552.318844687127</v>
+        <v>555.1227105823</v>
       </c>
       <c r="M6">
-        <v>232.60865415681</v>
+        <v>278.247685002353</v>
       </c>
       <c r="N6">
-        <v>212.214166272806</v>
+        <v>276.577085012983</v>
       </c>
       <c r="O6">
-        <v>9280.303345367551</v>
+        <v>15841.5551385109</v>
       </c>
       <c r="P6">
-        <v>231.119315415513</v>
+        <v>277.52400343946</v>
       </c>
     </row>
     <row r="7">
@@ -706,49 +706,49 @@
         </is>
       </c>
       <c r="B7">
-        <v>1284.2757887652</v>
+        <v>376.52451929577</v>
       </c>
       <c r="C7">
-        <v>18.9002441050491</v>
+        <v>40.5005951073552</v>
       </c>
       <c r="D7">
-        <v>5.8292190881229</v>
+        <v>3.28153671541064</v>
       </c>
       <c r="E7">
-        <v>22.2325086645282</v>
+        <v>22.4603438769893</v>
       </c>
       <c r="F7">
-        <v>26.705849920235</v>
+        <v>18.2136362837843</v>
       </c>
       <c r="G7">
-        <v>11.5332585361908</v>
+        <v>8.686685918764161</v>
       </c>
       <c r="H7">
-        <v>5.62575790878913</v>
+        <v>4.82318793368342</v>
       </c>
       <c r="I7">
-        <v>7.72763105934093</v>
+        <v>11.2669023230229</v>
       </c>
       <c r="J7">
-        <v>16.462248814073</v>
+        <v>15.9591861459486</v>
       </c>
       <c r="K7">
-        <v>14.7842944981765</v>
+        <v>12.192499024744</v>
       </c>
       <c r="L7">
-        <v>59.1390982590609</v>
+        <v>61.6171556694718</v>
       </c>
       <c r="M7">
-        <v>19.6273915545767</v>
+        <v>18.1826592927649</v>
       </c>
       <c r="N7">
-        <v>25.9037646804994</v>
+        <v>24.1605646550894</v>
       </c>
       <c r="O7">
-        <v>1357.55350887804</v>
+        <v>2298.85119280747</v>
       </c>
       <c r="P7">
-        <v>50.4480920909713</v>
+        <v>36.4064987361581</v>
       </c>
     </row>
     <row r="8">
@@ -758,49 +758,49 @@
         </is>
       </c>
       <c r="B8">
-        <v>1011.74812336819</v>
+        <v>304.273263674292</v>
       </c>
       <c r="C8">
-        <v>9.25358509714181</v>
+        <v>11.2254260691131</v>
       </c>
       <c r="D8">
-        <v>3.4930796800156</v>
+        <v>5.36758248252098</v>
       </c>
       <c r="E8">
-        <v>20.6655041615752</v>
+        <v>20.3056036557045</v>
       </c>
       <c r="F8">
-        <v>1.07566584100024</v>
+        <v>1.62538889855924</v>
       </c>
       <c r="G8">
-        <v>27.0422989905123</v>
+        <v>33.984882677285</v>
       </c>
       <c r="H8">
-        <v>5.64547246750944</v>
+        <v>10.2173861396657</v>
       </c>
       <c r="I8">
-        <v>2.12672908118661</v>
+        <v>2.46976453962433</v>
       </c>
       <c r="J8">
-        <v>45.4970216917972</v>
+        <v>56.9055341451231</v>
       </c>
       <c r="K8">
-        <v>24.3422725939146</v>
+        <v>19.9784640429346</v>
       </c>
       <c r="L8">
-        <v>36.9304399827328</v>
+        <v>41.1402370979152</v>
       </c>
       <c r="M8">
-        <v>58.4014691021025</v>
+        <v>62.2169174251829</v>
       </c>
       <c r="N8">
-        <v>20.8373777391706</v>
+        <v>22.6478225346238</v>
       </c>
       <c r="O8">
-        <v>1014.7516681539</v>
+        <v>1704.11250614771</v>
       </c>
       <c r="P8">
-        <v>4.45009055839792</v>
+        <v>6.63315423145393</v>
       </c>
     </row>
     <row r="9">
@@ -810,49 +810,49 @@
         </is>
       </c>
       <c r="B9">
-        <v>402.434232605026</v>
+        <v>73.3562640648932</v>
       </c>
       <c r="C9">
-        <v>6.76874506472579</v>
+        <v>14.7019602602533</v>
       </c>
       <c r="D9">
-        <v>1.03485002693455</v>
+        <v>1.66257576757747</v>
       </c>
       <c r="E9">
-        <v>3.70826938264138</v>
+        <v>7.31044697233071</v>
       </c>
       <c r="F9">
-        <v>1.76770595864983</v>
+        <v>1.50382257625529</v>
       </c>
       <c r="G9">
-        <v>21.5277538668105</v>
+        <v>28.1633059507524</v>
       </c>
       <c r="H9">
-        <v>1.96368316918851</v>
+        <v>2.07887288140569</v>
       </c>
       <c r="I9">
-        <v>1.41595681180752</v>
+        <v>3.04532230315811</v>
       </c>
       <c r="J9">
-        <v>3.07736883089293</v>
+        <v>5.12887516895436</v>
       </c>
       <c r="K9">
-        <v>1.76872681329004</v>
+        <v>3.74463785638904</v>
       </c>
       <c r="L9">
-        <v>2.92470049016211</v>
+        <v>4.59427923223584</v>
       </c>
       <c r="M9">
-        <v>5.34197258708424</v>
+        <v>11.4979965927702</v>
       </c>
       <c r="N9">
-        <v>5.99903839410606</v>
+        <v>6.76419639349066</v>
       </c>
       <c r="O9">
-        <v>276.087142095209</v>
+        <v>523.014258245286</v>
       </c>
       <c r="P9">
-        <v>5.11072581295373</v>
+        <v>9.014065164092189</v>
       </c>
     </row>
     <row r="10">
@@ -862,49 +862,49 @@
         </is>
       </c>
       <c r="B10">
-        <v>6760.31373462675</v>
+        <v>1840.00302634979</v>
       </c>
       <c r="C10">
-        <v>43.1685331033668</v>
+        <v>54.8854777196284</v>
       </c>
       <c r="D10">
-        <v>19.5270336889317</v>
+        <v>17.0428491338497</v>
       </c>
       <c r="E10">
-        <v>79.7633642360769</v>
+        <v>62.6791557460027</v>
       </c>
       <c r="F10">
-        <v>11.7540776439519</v>
+        <v>14.1306077281257</v>
       </c>
       <c r="G10">
-        <v>27.5455784069699</v>
+        <v>27.5179109565184</v>
       </c>
       <c r="H10">
-        <v>17.2700587569217</v>
+        <v>17.4270321996367</v>
       </c>
       <c r="I10">
-        <v>33.5242396504679</v>
+        <v>34.1253765987938</v>
       </c>
       <c r="J10">
-        <v>45.6422613092892</v>
+        <v>57.0086494086489</v>
       </c>
       <c r="K10">
-        <v>42.9688914980504</v>
+        <v>16.6982861170881</v>
       </c>
       <c r="L10">
-        <v>79.6176359969441</v>
+        <v>103.611498374934</v>
       </c>
       <c r="M10">
-        <v>83.1139868196239</v>
+        <v>105.198777660326</v>
       </c>
       <c r="N10">
-        <v>69.81769324650431</v>
+        <v>108.761025057214</v>
       </c>
       <c r="O10">
-        <v>5071.09896765742</v>
+        <v>9750.579310532499</v>
       </c>
       <c r="P10">
-        <v>60.194826797106</v>
+        <v>78.65929452981381</v>
       </c>
     </row>
     <row r="11">
@@ -914,49 +914,49 @@
         </is>
       </c>
       <c r="B11">
-        <v>2958.44876489073</v>
+        <v>875.810425569819</v>
       </c>
       <c r="C11">
-        <v>50.4551679741948</v>
+        <v>68.4999007690966</v>
       </c>
       <c r="D11">
-        <v>63.2293559741507</v>
+        <v>142.695881883872</v>
       </c>
       <c r="E11">
-        <v>93.1827970883338</v>
+        <v>100.403167426455</v>
       </c>
       <c r="F11">
-        <v>10.454571002434</v>
+        <v>8.051683598354879</v>
       </c>
       <c r="G11">
-        <v>28.7660594028714</v>
+        <v>30.5544362925336</v>
       </c>
       <c r="H11">
-        <v>30.5345722410994</v>
+        <v>27.7409867120023</v>
       </c>
       <c r="I11">
-        <v>18.3387359066178</v>
+        <v>17.8871176201839</v>
       </c>
       <c r="J11">
-        <v>35.4786625054655</v>
+        <v>74.0100235581574</v>
       </c>
       <c r="K11">
-        <v>47.9318259939201</v>
+        <v>29.1853432550143</v>
       </c>
       <c r="L11">
-        <v>47.5715861656108</v>
+        <v>60.6133919229006</v>
       </c>
       <c r="M11">
-        <v>65.3862047209637</v>
+        <v>61.0786704808513</v>
       </c>
       <c r="N11">
-        <v>59.6072358663093</v>
+        <v>57.0861053529663</v>
       </c>
       <c r="O11">
-        <v>2350.10474242473</v>
+        <v>4318.13166512939</v>
       </c>
       <c r="P11">
-        <v>30.3854918589458</v>
+        <v>32.9973258042093</v>
       </c>
     </row>
     <row r="12">
@@ -966,49 +966,49 @@
         </is>
       </c>
       <c r="B12">
-        <v>501.525832019485</v>
+        <v>125.703607479825</v>
       </c>
       <c r="C12">
-        <v>6.51684982594214</v>
+        <v>7.84285482568159</v>
       </c>
       <c r="D12">
-        <v>2.90854869703688</v>
+        <v>1.15625908633475</v>
       </c>
       <c r="E12">
-        <v>2.55076924616005</v>
+        <v>1.65056395067276</v>
       </c>
       <c r="F12">
-        <v>0.22602583893141</v>
+        <v>0.268290887408184</v>
       </c>
       <c r="G12">
-        <v>0.824662678590475</v>
+        <v>0.710546978524969</v>
       </c>
       <c r="H12">
-        <v>0.0517788027702516</v>
+        <v>0.296881757684635</v>
       </c>
       <c r="I12">
-        <v>0.866647853136072</v>
+        <v>1.57025977463903</v>
       </c>
       <c r="J12">
-        <v>0.615569090615363</v>
+        <v>0.787437305113701</v>
       </c>
       <c r="K12">
-        <v>0.420489389189575</v>
+        <v>0.156480577295903</v>
       </c>
       <c r="L12">
-        <v>0.9777876401325321</v>
+        <v>0.242871911540886</v>
       </c>
       <c r="M12">
-        <v>2.1409808770971</v>
+        <v>2.27581931623341</v>
       </c>
       <c r="N12">
-        <v>4.57692849019601</v>
+        <v>5.05334264914577</v>
       </c>
       <c r="O12">
-        <v>454.436772910185</v>
+        <v>781.1990031390481</v>
       </c>
       <c r="P12">
-        <v>11.3882225792815</v>
+        <v>24.2308339043054</v>
       </c>
     </row>
     <row r="13">
@@ -1018,49 +1018,49 @@
         </is>
       </c>
       <c r="B13">
-        <v>518.879580994933</v>
+        <v>124.809153026872</v>
       </c>
       <c r="C13">
-        <v>18.1713360305605</v>
+        <v>31.9810165512587</v>
       </c>
       <c r="D13">
-        <v>0.674899182877004</v>
+        <v>0.809141136172765</v>
       </c>
       <c r="E13">
-        <v>19.1433154533894</v>
+        <v>16.5567519431955</v>
       </c>
       <c r="F13">
-        <v>1.50247041509537</v>
+        <v>4.07696570883571</v>
       </c>
       <c r="G13">
-        <v>3.75739166756227</v>
+        <v>4.73268492897177</v>
       </c>
       <c r="H13">
-        <v>2.19493371326648</v>
+        <v>3.60338329107585</v>
       </c>
       <c r="I13">
-        <v>2.05371986385893</v>
+        <v>1.87537192687615</v>
       </c>
       <c r="J13">
-        <v>5.28145358454882</v>
+        <v>8.05767411815779</v>
       </c>
       <c r="K13">
-        <v>3.93135142107719</v>
+        <v>2.92590041439812</v>
       </c>
       <c r="L13">
-        <v>15.8011371238824</v>
+        <v>22.5107421247045</v>
       </c>
       <c r="M13">
-        <v>1.91068949728373</v>
+        <v>2.47080182221981</v>
       </c>
       <c r="N13">
-        <v>6.26222154462494</v>
+        <v>7.39941778109694</v>
       </c>
       <c r="O13">
-        <v>388.631888485017</v>
+        <v>711.337468642137</v>
       </c>
       <c r="P13">
-        <v>51.8191899245162</v>
+        <v>68.2469234827883</v>
       </c>
     </row>
     <row r="14">
@@ -1070,49 +1070,49 @@
         </is>
       </c>
       <c r="B14">
-        <v>3820.2187405061</v>
+        <v>1292.90538966645</v>
       </c>
       <c r="C14">
-        <v>96.7612245537821</v>
+        <v>111.424905901776</v>
       </c>
       <c r="D14">
-        <v>21.134693598474</v>
+        <v>13.1170757764192</v>
       </c>
       <c r="E14">
-        <v>126.291855732805</v>
+        <v>89.529019018185</v>
       </c>
       <c r="F14">
-        <v>31.8176967663201</v>
+        <v>22.1402291063753</v>
       </c>
       <c r="G14">
-        <v>65.08122792630761</v>
+        <v>75.0470122925442</v>
       </c>
       <c r="H14">
-        <v>65.51883438465261</v>
+        <v>69.15293121286101</v>
       </c>
       <c r="I14">
-        <v>15.0817642673642</v>
+        <v>23.966748000781</v>
       </c>
       <c r="J14">
-        <v>123.403784232392</v>
+        <v>150.538893365132</v>
       </c>
       <c r="K14">
-        <v>129.530747680537</v>
+        <v>146.245266219106</v>
       </c>
       <c r="L14">
-        <v>103.021685180324</v>
+        <v>117.466722357229</v>
       </c>
       <c r="M14">
-        <v>73.4527821586132</v>
+        <v>82.57492869019519</v>
       </c>
       <c r="N14">
-        <v>61.2750358793526</v>
+        <v>74.2433072553924</v>
       </c>
       <c r="O14">
-        <v>3464.87742848946</v>
+        <v>6014.55866241288</v>
       </c>
       <c r="P14">
-        <v>95.76362527866679</v>
+        <v>73.46746926979159</v>
       </c>
     </row>
     <row r="15">
@@ -1122,49 +1122,49 @@
         </is>
       </c>
       <c r="B15">
-        <v>2004.92618704683</v>
+        <v>574.743011334506</v>
       </c>
       <c r="C15">
-        <v>45.1884293745044</v>
+        <v>57.807394840682</v>
       </c>
       <c r="D15">
-        <v>7.01829271118369</v>
+        <v>8.30846134411318</v>
       </c>
       <c r="E15">
-        <v>62.378425243336</v>
+        <v>74.5581725720314</v>
       </c>
       <c r="F15">
-        <v>9.92339249331536</v>
+        <v>15.0959861412222</v>
       </c>
       <c r="G15">
-        <v>37.2497466558179</v>
+        <v>39.8374558884383</v>
       </c>
       <c r="H15">
-        <v>27.3937696816914</v>
+        <v>44.151924765511</v>
       </c>
       <c r="I15">
-        <v>25.7374173081891</v>
+        <v>44.2233648031527</v>
       </c>
       <c r="J15">
-        <v>138.121330556856</v>
+        <v>201.744494089347</v>
       </c>
       <c r="K15">
-        <v>43.9694979719255</v>
+        <v>46.8592693265121</v>
       </c>
       <c r="L15">
-        <v>45.6679789413035</v>
+        <v>50.6783576823939</v>
       </c>
       <c r="M15">
-        <v>197.921030541301</v>
+        <v>180.228226401614</v>
       </c>
       <c r="N15">
-        <v>53.2564197865742</v>
+        <v>82.9873298528083</v>
       </c>
       <c r="O15">
-        <v>1545.23299393354</v>
+        <v>2804.93130059553</v>
       </c>
       <c r="P15">
-        <v>36.0635289474283</v>
+        <v>53.9536274140142</v>
       </c>
     </row>
     <row r="16">
@@ -1174,49 +1174,49 @@
         </is>
       </c>
       <c r="B16">
-        <v>890.454413168199</v>
+        <v>177.487705956059</v>
       </c>
       <c r="C16">
-        <v>55.4941991727662</v>
+        <v>81.90293685379891</v>
       </c>
       <c r="D16">
-        <v>4.54302075112741</v>
+        <v>7.44186226958991</v>
       </c>
       <c r="E16">
-        <v>40.6697666347861</v>
+        <v>34.7407262167017</v>
       </c>
       <c r="F16">
-        <v>2.2006933453649</v>
+        <v>4.89322311031326</v>
       </c>
       <c r="G16">
-        <v>10.9958824071874</v>
+        <v>14.2000679852418</v>
       </c>
       <c r="H16">
-        <v>13.7370731737538</v>
+        <v>22.2707419013754</v>
       </c>
       <c r="I16">
-        <v>2.85198269255004</v>
+        <v>5.98437960359958</v>
       </c>
       <c r="J16">
-        <v>54.1293594947794</v>
+        <v>52.2683274240528</v>
       </c>
       <c r="K16">
-        <v>47.4543558723455</v>
+        <v>57.030652232945</v>
       </c>
       <c r="L16">
-        <v>23.4662632266225</v>
+        <v>35.9025451863571</v>
       </c>
       <c r="M16">
-        <v>34.5247946255321</v>
+        <v>25.7226327511573</v>
       </c>
       <c r="N16">
-        <v>17.1573093425215</v>
+        <v>27.2996433942116</v>
       </c>
       <c r="O16">
-        <v>883.303461805245</v>
+        <v>1484.72432249007</v>
       </c>
       <c r="P16">
-        <v>85.7707556807833</v>
+        <v>107.36827944313</v>
       </c>
     </row>
     <row r="17">
@@ -1226,49 +1226,49 @@
         </is>
       </c>
       <c r="B17">
-        <v>803.9256220747141</v>
+        <v>227.696695062214</v>
       </c>
       <c r="C17">
-        <v>23.6716132319325</v>
+        <v>28.8948429985943</v>
       </c>
       <c r="D17">
-        <v>5.47253345296647</v>
+        <v>2.83127064665308</v>
       </c>
       <c r="E17">
-        <v>28.7679058648808</v>
+        <v>23.6704707381716</v>
       </c>
       <c r="F17">
-        <v>18.1928796314562</v>
+        <v>16.7912537101867</v>
       </c>
       <c r="G17">
-        <v>8.06018543546779</v>
+        <v>11.3044619246659</v>
       </c>
       <c r="H17">
-        <v>9.45681760613491</v>
+        <v>14.7749642106973</v>
       </c>
       <c r="I17">
-        <v>9.76219053454512</v>
+        <v>7.58424778202792</v>
       </c>
       <c r="J17">
-        <v>17.8761032009637</v>
+        <v>19.4088810935654</v>
       </c>
       <c r="K17">
-        <v>20.0973435787891</v>
+        <v>17.7664741626105</v>
       </c>
       <c r="L17">
-        <v>9.072867612973191</v>
+        <v>10.8777083282629</v>
       </c>
       <c r="M17">
-        <v>63.9485215096056</v>
+        <v>85.3119894278026</v>
       </c>
       <c r="N17">
-        <v>12.2170042071227</v>
+        <v>12.1644058604925</v>
       </c>
       <c r="O17">
-        <v>800.8277819616631</v>
+        <v>1342.4968588175</v>
       </c>
       <c r="P17">
-        <v>62.5009359657195</v>
+        <v>57.2106353138636</v>
       </c>
     </row>
     <row r="18">
@@ -1278,49 +1278,49 @@
         </is>
       </c>
       <c r="B18">
-        <v>1888.03747139315</v>
+        <v>511.711846722</v>
       </c>
       <c r="C18">
-        <v>36.2954118307631</v>
+        <v>37.9349296659054</v>
       </c>
       <c r="D18">
-        <v>16.6327357637881</v>
+        <v>11.8918511774015</v>
       </c>
       <c r="E18">
-        <v>57.5207081011614</v>
+        <v>52.3967406256355</v>
       </c>
       <c r="F18">
-        <v>22.6368482885219</v>
+        <v>43.7044810138083</v>
       </c>
       <c r="G18">
-        <v>8.102608535705491</v>
+        <v>18.5267175383175</v>
       </c>
       <c r="H18">
-        <v>20.0812250786991</v>
+        <v>24.8665340583989</v>
       </c>
       <c r="I18">
-        <v>10.6763666281751</v>
+        <v>10.6615795834266</v>
       </c>
       <c r="J18">
-        <v>46.8145846070363</v>
+        <v>49.4873909358291</v>
       </c>
       <c r="K18">
-        <v>24.3062812370755</v>
+        <v>20.1922649454427</v>
       </c>
       <c r="L18">
-        <v>14.7816096514234</v>
+        <v>37.6281157262077</v>
       </c>
       <c r="M18">
-        <v>79.45529868430761</v>
+        <v>84.724995979131</v>
       </c>
       <c r="N18">
-        <v>17.1113070384465</v>
+        <v>29.0827880350557</v>
       </c>
       <c r="O18">
-        <v>861.559466210961</v>
+        <v>2064.44513203117</v>
       </c>
       <c r="P18">
-        <v>31.2629456581217</v>
+        <v>66.838824809803</v>
       </c>
     </row>
     <row r="19">
@@ -1330,49 +1330,49 @@
         </is>
       </c>
       <c r="B19">
-        <v>1682.61951055634</v>
+        <v>517.894602955705</v>
       </c>
       <c r="C19">
-        <v>12.7629901474003</v>
+        <v>29.8541218773984</v>
       </c>
       <c r="D19">
-        <v>8.6544198145906</v>
+        <v>8.60486988714502</v>
       </c>
       <c r="E19">
-        <v>42.8398225294188</v>
+        <v>40.5424752975518</v>
       </c>
       <c r="F19">
-        <v>54.8782528824324</v>
+        <v>77.77673596825539</v>
       </c>
       <c r="G19">
-        <v>30.0239969421509</v>
+        <v>36.3843743631725</v>
       </c>
       <c r="H19">
-        <v>4.40314419815821</v>
+        <v>7.57514116403175</v>
       </c>
       <c r="I19">
-        <v>12.1430642424878</v>
+        <v>9.331200993437321</v>
       </c>
       <c r="J19">
-        <v>25.5598766084811</v>
+        <v>22.7207798154169</v>
       </c>
       <c r="K19">
-        <v>14.0149869608648</v>
+        <v>9.232614168111111</v>
       </c>
       <c r="L19">
-        <v>6.5763647611247</v>
+        <v>2.56111378945772</v>
       </c>
       <c r="M19">
-        <v>35.7780720167063</v>
+        <v>52.4766343254522</v>
       </c>
       <c r="N19">
-        <v>2.66086361112242</v>
+        <v>3.80380866827592</v>
       </c>
       <c r="O19">
-        <v>1044.09135305602</v>
+        <v>2124.81642813153</v>
       </c>
       <c r="P19">
-        <v>34.8030641497824</v>
+        <v>54.0083630872992</v>
       </c>
     </row>
     <row r="20">
@@ -1382,49 +1382,49 @@
         </is>
       </c>
       <c r="B20">
-        <v>531.4510397047831</v>
+        <v>132.763253844896</v>
       </c>
       <c r="C20">
-        <v>6.3178541256495</v>
+        <v>10.1041065492235</v>
       </c>
       <c r="D20">
-        <v>6.01323218215934</v>
+        <v>12.4903436741591</v>
       </c>
       <c r="E20">
-        <v>34.620500901491</v>
+        <v>41.4351446438093</v>
       </c>
       <c r="F20">
-        <v>0.522036656105389</v>
+        <v>1.10331700140042</v>
       </c>
       <c r="G20">
-        <v>1.43263271838387</v>
+        <v>1.01035009432462</v>
       </c>
       <c r="H20">
-        <v>1.51296871084575</v>
+        <v>2.5491926278705</v>
       </c>
       <c r="I20">
-        <v>1.00463414258845</v>
+        <v>0.933110133346775</v>
       </c>
       <c r="J20">
-        <v>4.41814900263284</v>
+        <v>7.1279112855478</v>
       </c>
       <c r="K20">
-        <v>5.07966813314867</v>
+        <v>4.1736857202877</v>
       </c>
       <c r="L20">
-        <v>5.76006957103184</v>
+        <v>7.25979559006977</v>
       </c>
       <c r="M20">
-        <v>15.7720712380032</v>
+        <v>19.3810667594319</v>
       </c>
       <c r="N20">
-        <v>4.5874886430996</v>
+        <v>6.05905369755866</v>
       </c>
       <c r="O20">
-        <v>358.414644312319</v>
+        <v>707.4504150454731</v>
       </c>
       <c r="P20">
-        <v>14.283269089344</v>
+        <v>21.8642750219867</v>
       </c>
     </row>
     <row r="21">
@@ -1434,49 +1434,49 @@
         </is>
       </c>
       <c r="B21">
-        <v>1749.73724572694</v>
+        <v>433.415458252335</v>
       </c>
       <c r="C21">
-        <v>13.0697378554715</v>
+        <v>14.8978694478398</v>
       </c>
       <c r="D21">
-        <v>13.1919273444241</v>
+        <v>6.56034893436664</v>
       </c>
       <c r="E21">
-        <v>39.309153969985</v>
+        <v>28.2155934067278</v>
       </c>
       <c r="F21">
-        <v>2.40827928071185</v>
+        <v>0.923066076113075</v>
       </c>
       <c r="G21">
-        <v>16.6217262449559</v>
+        <v>15.2613771288216</v>
       </c>
       <c r="H21">
-        <v>7.74754867237338</v>
+        <v>8.51819392035341</v>
       </c>
       <c r="I21">
-        <v>5.47334696179896</v>
+        <v>5.06135119119533</v>
       </c>
       <c r="J21">
-        <v>15.3237808247864</v>
+        <v>15.7872061829512</v>
       </c>
       <c r="K21">
-        <v>8.075634549041469</v>
+        <v>3.25480228521167</v>
       </c>
       <c r="L21">
-        <v>35.3899602529084</v>
+        <v>32.7410390593384</v>
       </c>
       <c r="M21">
-        <v>24.5446851066168</v>
+        <v>27.698285373375</v>
       </c>
       <c r="N21">
-        <v>18.943255911496</v>
+        <v>13.5735938506635</v>
       </c>
       <c r="O21">
-        <v>1577.82208808579</v>
+        <v>2897.05057955049</v>
       </c>
       <c r="P21">
-        <v>11.6435658868563</v>
+        <v>16.3194343984622</v>
       </c>
     </row>
     <row r="22">
@@ -1486,49 +1486,49 @@
         </is>
       </c>
       <c r="B22">
-        <v>1820.20039215302</v>
+        <v>564.2289510770841</v>
       </c>
       <c r="C22">
-        <v>20.7542737875022</v>
+        <v>17.4875270622447</v>
       </c>
       <c r="D22">
-        <v>13.6404693965275</v>
+        <v>16.7439915179489</v>
       </c>
       <c r="E22">
-        <v>47.7917109965556</v>
+        <v>40.6031768640645</v>
       </c>
       <c r="F22">
-        <v>0.576321113765069</v>
+        <v>0.842292774437612</v>
       </c>
       <c r="G22">
-        <v>27.2668672675819</v>
+        <v>26.275963769388</v>
       </c>
       <c r="H22">
-        <v>19.202423783502</v>
+        <v>24.0184757975098</v>
       </c>
       <c r="I22">
-        <v>8.895851707273661</v>
+        <v>8.017795967482471</v>
       </c>
       <c r="J22">
-        <v>44.2657485624379</v>
+        <v>49.4896901068163</v>
       </c>
       <c r="K22">
-        <v>26.7916813269858</v>
+        <v>17.6913120021822</v>
       </c>
       <c r="L22">
-        <v>106.609103640119</v>
+        <v>118.650134749284</v>
       </c>
       <c r="M22">
-        <v>21.5983966945458</v>
+        <v>24.3991228063445</v>
       </c>
       <c r="N22">
-        <v>43.1731625285</v>
+        <v>61.8855713232935</v>
       </c>
       <c r="O22">
-        <v>1948.92523041868</v>
+        <v>3234.65844094756</v>
       </c>
       <c r="P22">
-        <v>11.9854510160317</v>
+        <v>13.6829928678687</v>
       </c>
     </row>
     <row r="23">
@@ -1538,49 +1538,49 @@
         </is>
       </c>
       <c r="B23">
-        <v>3439.17874540372</v>
+        <v>1105.58752744453</v>
       </c>
       <c r="C23">
-        <v>48.9612152913215</v>
+        <v>50.4949945963561</v>
       </c>
       <c r="D23">
-        <v>5.23101263328394</v>
+        <v>10.4581313616509</v>
       </c>
       <c r="E23">
-        <v>83.0481204957196</v>
+        <v>74.007942172412</v>
       </c>
       <c r="F23">
-        <v>7.37297795200515</v>
+        <v>2.39352984862294</v>
       </c>
       <c r="G23">
-        <v>51.4781662512391</v>
+        <v>65.67399334135079</v>
       </c>
       <c r="H23">
-        <v>62.0926094522706</v>
+        <v>100.163678948164</v>
       </c>
       <c r="I23">
-        <v>28.9218728974257</v>
+        <v>34.5614445238896</v>
       </c>
       <c r="J23">
-        <v>120.746385288772</v>
+        <v>161.47265867166</v>
       </c>
       <c r="K23">
-        <v>95.7704127251652</v>
+        <v>96.91776906974221</v>
       </c>
       <c r="L23">
-        <v>33.2901753535513</v>
+        <v>37.063789740671</v>
       </c>
       <c r="M23">
-        <v>464.717719094357</v>
+        <v>669.754435366193</v>
       </c>
       <c r="N23">
-        <v>73.2482992856241</v>
+        <v>111.746007451981</v>
       </c>
       <c r="O23">
-        <v>2269.97999807776</v>
+        <v>4245.30765283779</v>
       </c>
       <c r="P23">
-        <v>59.7466034244215</v>
+        <v>69.3483236096435</v>
       </c>
     </row>
     <row r="24">
@@ -1590,49 +1590,49 @@
         </is>
       </c>
       <c r="B24">
-        <v>1285.82341613046</v>
+        <v>340.858694610203</v>
       </c>
       <c r="C24">
-        <v>63.0611257680807</v>
+        <v>70.0272515661095</v>
       </c>
       <c r="D24">
-        <v>6.69554873361988</v>
+        <v>11.5993369620975</v>
       </c>
       <c r="E24">
-        <v>78.7950103669743</v>
+        <v>62.6672487984701</v>
       </c>
       <c r="F24">
-        <v>8.76792190783962</v>
+        <v>20.2571021455532</v>
       </c>
       <c r="G24">
-        <v>11.4113632980556</v>
+        <v>15.0849365808452</v>
       </c>
       <c r="H24">
-        <v>11.1433792914086</v>
+        <v>14.4076269437105</v>
       </c>
       <c r="I24">
-        <v>11.5049449857418</v>
+        <v>15.647503106265</v>
       </c>
       <c r="J24">
-        <v>58.5083896475557</v>
+        <v>65.3903827160926</v>
       </c>
       <c r="K24">
-        <v>52.5198744951203</v>
+        <v>46.797001279164</v>
       </c>
       <c r="L24">
-        <v>66.15606508898389</v>
+        <v>68.0979474311107</v>
       </c>
       <c r="M24">
-        <v>30.0384147387223</v>
+        <v>25.084695053413</v>
       </c>
       <c r="N24">
-        <v>41.1544466553342</v>
+        <v>66.628183433148</v>
       </c>
       <c r="O24">
-        <v>1497.30885373465</v>
+        <v>2425.52373088465</v>
       </c>
       <c r="P24">
-        <v>106.53075068391</v>
+        <v>96.7356954154006</v>
       </c>
     </row>
     <row r="25">
@@ -1642,49 +1642,49 @@
         </is>
       </c>
       <c r="B25">
-        <v>1358.42124276189</v>
+        <v>416.248309213817</v>
       </c>
       <c r="C25">
-        <v>14.3207902873225</v>
+        <v>43.3562151509044</v>
       </c>
       <c r="D25">
-        <v>12.9433629372913</v>
+        <v>17.2140787863115</v>
       </c>
       <c r="E25">
-        <v>26.2756860930527</v>
+        <v>42.8507190643893</v>
       </c>
       <c r="F25">
-        <v>6.42224809447961</v>
+        <v>24.6354476966434</v>
       </c>
       <c r="G25">
-        <v>17.9548192959684</v>
+        <v>18.3109380399176</v>
       </c>
       <c r="H25">
-        <v>5.12593677628789</v>
+        <v>10.9082767089074</v>
       </c>
       <c r="I25">
-        <v>1.966120311398</v>
+        <v>3.58677610598669</v>
       </c>
       <c r="J25">
-        <v>15.1612498842905</v>
+        <v>18.7594066878413</v>
       </c>
       <c r="K25">
-        <v>16.2616667293389</v>
+        <v>14.4635359379794</v>
       </c>
       <c r="L25">
-        <v>14.0386045702869</v>
+        <v>31.1851868713304</v>
       </c>
       <c r="M25">
-        <v>14.0728180290992</v>
+        <v>48.2661788487198</v>
       </c>
       <c r="N25">
-        <v>35.8822121134976</v>
+        <v>51.785692946368</v>
       </c>
       <c r="O25">
-        <v>564.728424532251</v>
+        <v>1271.81518818065</v>
       </c>
       <c r="P25">
-        <v>22.7675685399213</v>
+        <v>65.8944835779058</v>
       </c>
     </row>
     <row r="26">
@@ -1694,49 +1694,49 @@
         </is>
       </c>
       <c r="B26">
-        <v>2037.63074237988</v>
+        <v>491.727316119936</v>
       </c>
       <c r="C26">
-        <v>53.9091281875465</v>
+        <v>60.189773982104</v>
       </c>
       <c r="D26">
-        <v>14.2429088842291</v>
+        <v>16.4472803649982</v>
       </c>
       <c r="E26">
-        <v>37.2970907007871</v>
+        <v>45.4610184471764</v>
       </c>
       <c r="F26">
-        <v>13.7410535010403</v>
+        <v>10.2658859109034</v>
       </c>
       <c r="G26">
-        <v>21.2937454979705</v>
+        <v>43.9756929527525</v>
       </c>
       <c r="H26">
-        <v>10.4962394406172</v>
+        <v>23.6356149440336</v>
       </c>
       <c r="I26">
-        <v>7.76825831550271</v>
+        <v>11.7858666197266</v>
       </c>
       <c r="J26">
-        <v>61.2236912758089</v>
+        <v>55.1124212915417</v>
       </c>
       <c r="K26">
-        <v>43.9492325372537</v>
+        <v>28.7029087055791</v>
       </c>
       <c r="L26">
-        <v>40.0078962697326</v>
+        <v>45.5942278822728</v>
       </c>
       <c r="M26">
-        <v>53.7074375429443</v>
+        <v>85.2875666850144</v>
       </c>
       <c r="N26">
-        <v>21.473051332856</v>
+        <v>34.0012430227815</v>
       </c>
       <c r="O26">
-        <v>1358.34461075768</v>
+        <v>2807.68635194428</v>
       </c>
       <c r="P26">
-        <v>80.2130569020036</v>
+        <v>78.79070769957519</v>
       </c>
     </row>
     <row r="27">
@@ -1746,49 +1746,49 @@
         </is>
       </c>
       <c r="B27">
-        <v>384.752765590164</v>
+        <v>76.2036804495861</v>
       </c>
       <c r="C27">
-        <v>2.81150024292021</v>
+        <v>3.63906686118195</v>
       </c>
       <c r="D27">
-        <v>0.641614720584233</v>
+        <v>1.27397357757608</v>
       </c>
       <c r="E27">
-        <v>7.14841088942348</v>
+        <v>14.5046464026989</v>
       </c>
       <c r="F27">
-        <v>10.2069907668327</v>
+        <v>10.6932092496086</v>
       </c>
       <c r="G27">
-        <v>1.06432751268606</v>
+        <v>1.2294135516613</v>
       </c>
       <c r="H27">
-        <v>0.146124635513612</v>
+        <v>0.110113131225695</v>
       </c>
       <c r="I27">
-        <v>1.14858670375472</v>
+        <v>1.98430674073419</v>
       </c>
       <c r="J27">
-        <v>1.96928194390294</v>
+        <v>4.18158173569214</v>
       </c>
       <c r="K27">
-        <v>1.63330221304273</v>
+        <v>2.53094435465942</v>
       </c>
       <c r="L27">
-        <v>1.68188102530203</v>
+        <v>2.44739417324458</v>
       </c>
       <c r="M27">
-        <v>0.721956840735924</v>
+        <v>0.223615447533003</v>
       </c>
       <c r="N27">
-        <v>3.75538336509083</v>
+        <v>5.98258289259473</v>
       </c>
       <c r="O27">
-        <v>301.346699115217</v>
+        <v>562.7476934443751</v>
       </c>
       <c r="P27">
-        <v>47.7483069232796</v>
+        <v>58.9785365087418</v>
       </c>
     </row>
     <row r="28">
@@ -1798,49 +1798,49 @@
         </is>
       </c>
       <c r="B28">
-        <v>504.571703996477</v>
+        <v>113.409206002915</v>
       </c>
       <c r="C28">
-        <v>34.5560550695302</v>
+        <v>45.0450009533638</v>
       </c>
       <c r="D28">
-        <v>1.0461686314684</v>
+        <v>1.11937267548753</v>
       </c>
       <c r="E28">
-        <v>15.5677753836075</v>
+        <v>12.146919483889</v>
       </c>
       <c r="F28">
-        <v>2.77825213520763</v>
+        <v>1.83594355238225</v>
       </c>
       <c r="G28">
-        <v>5.5625643558191</v>
+        <v>6.18358067533597</v>
       </c>
       <c r="H28">
-        <v>4.37279313835316</v>
+        <v>6.73076384013287</v>
       </c>
       <c r="I28">
-        <v>4.48480971669301</v>
+        <v>5.5888948262439</v>
       </c>
       <c r="J28">
-        <v>10.5706859993096</v>
+        <v>18.9180291213608</v>
       </c>
       <c r="K28">
-        <v>16.4268252371206</v>
+        <v>17.4586604182512</v>
       </c>
       <c r="L28">
-        <v>8.39552936648459</v>
+        <v>12.1847549187327</v>
       </c>
       <c r="M28">
-        <v>9.87531694653299</v>
+        <v>9.16866438785722</v>
       </c>
       <c r="N28">
-        <v>9.40393720983398</v>
+        <v>9.742631029917931</v>
       </c>
       <c r="O28">
-        <v>546.617981869308</v>
+        <v>895.165495830433</v>
       </c>
       <c r="P28">
-        <v>91.1920592314071</v>
+        <v>92.07004557953</v>
       </c>
     </row>
     <row r="29">
@@ -1850,49 +1850,49 @@
         </is>
       </c>
       <c r="B29">
-        <v>827.835449659818</v>
+        <v>216.386489168845</v>
       </c>
       <c r="C29">
-        <v>2.30873515737483</v>
+        <v>1.18760871061305</v>
       </c>
       <c r="D29">
-        <v>1.14622402409717</v>
+        <v>1.6371370497167</v>
       </c>
       <c r="E29">
-        <v>6.18182638117397</v>
+        <v>4.35662331995067</v>
       </c>
       <c r="F29">
-        <v>12.6254242488922</v>
+        <v>21.1886341750103</v>
       </c>
       <c r="G29">
-        <v>2.62018368721031</v>
+        <v>1.53720137682764</v>
       </c>
       <c r="H29">
-        <v>2.04259480673566</v>
+        <v>1.89908754833646</v>
       </c>
       <c r="I29">
-        <v>5.28787723006263</v>
+        <v>4.26897099713739</v>
       </c>
       <c r="J29">
-        <v>9.156071723737821</v>
+        <v>5.89715407937246</v>
       </c>
       <c r="K29">
-        <v>2.97565285729099</v>
+        <v>2.24443915455074</v>
       </c>
       <c r="L29">
-        <v>9.69727794142616</v>
+        <v>6.09849077099693</v>
       </c>
       <c r="M29">
-        <v>2.0409453770341</v>
+        <v>2.14463689620206</v>
       </c>
       <c r="N29">
-        <v>8.179246833235821</v>
+        <v>9.846115913799849</v>
       </c>
       <c r="O29">
-        <v>777.721397356444</v>
+        <v>1364.74906937763</v>
       </c>
       <c r="P29">
-        <v>7.43290035387549</v>
+        <v>5.61788881277124</v>
       </c>
     </row>
     <row r="30">
@@ -1902,49 +1902,49 @@
         </is>
       </c>
       <c r="B30">
-        <v>440.427869661992</v>
+        <v>99.56254307903291</v>
       </c>
       <c r="C30">
-        <v>2.99457839706689</v>
+        <v>3.26610928396746</v>
       </c>
       <c r="D30">
-        <v>2.8027722017168</v>
+        <v>4.38820372201434</v>
       </c>
       <c r="E30">
-        <v>11.2922612639763</v>
+        <v>12.4926827443323</v>
       </c>
       <c r="F30">
-        <v>0.508473422195312</v>
+        <v>0.203709278962741</v>
       </c>
       <c r="G30">
-        <v>3.34117125351259</v>
+        <v>6.74216019602849</v>
       </c>
       <c r="H30">
-        <v>4.62566644872284</v>
+        <v>7.14999516843995</v>
       </c>
       <c r="I30">
-        <v>0.944770817036128</v>
+        <v>1.93457950403414</v>
       </c>
       <c r="J30">
-        <v>19.2153611375241</v>
+        <v>23.2158585307517</v>
       </c>
       <c r="K30">
-        <v>9.125753640212579</v>
+        <v>10.1640465839781</v>
       </c>
       <c r="L30">
-        <v>23.9520480299681</v>
+        <v>46.8887298183571</v>
       </c>
       <c r="M30">
-        <v>6.14998012919429</v>
+        <v>9.420614785040719</v>
       </c>
       <c r="N30">
-        <v>8.67181838109555</v>
+        <v>12.5410396019799</v>
       </c>
       <c r="O30">
-        <v>422.274072774721</v>
+        <v>697.0854126532011</v>
       </c>
       <c r="P30">
-        <v>5.50693523114327</v>
+        <v>5.08170475487003</v>
       </c>
     </row>
     <row r="31">
@@ -1954,49 +1954,49 @@
         </is>
       </c>
       <c r="B31">
-        <v>2776.28361459762</v>
+        <v>873.609791484935</v>
       </c>
       <c r="C31">
-        <v>32.3665775821826</v>
+        <v>45.2290455097776</v>
       </c>
       <c r="D31">
-        <v>16.1786924516007</v>
+        <v>22.7057486337355</v>
       </c>
       <c r="E31">
-        <v>47.1400145694153</v>
+        <v>41.2819733841409</v>
       </c>
       <c r="F31">
-        <v>22.1592105036568</v>
+        <v>8.80355822208343</v>
       </c>
       <c r="G31">
-        <v>126.058295797394</v>
+        <v>142.459653148546</v>
       </c>
       <c r="H31">
-        <v>25.9517431194002</v>
+        <v>18.9830141241658</v>
       </c>
       <c r="I31">
-        <v>19.5495273811296</v>
+        <v>27.152949322464</v>
       </c>
       <c r="J31">
-        <v>46.8761370375534</v>
+        <v>39.1259399226843</v>
       </c>
       <c r="K31">
-        <v>26.5097038622964</v>
+        <v>10.7904101196142</v>
       </c>
       <c r="L31">
-        <v>79.00010160075399</v>
+        <v>88.48676532767721</v>
       </c>
       <c r="M31">
-        <v>15.6332025641148</v>
+        <v>19.3551376254576</v>
       </c>
       <c r="N31">
-        <v>40.3265560404528</v>
+        <v>52.560349203647</v>
       </c>
       <c r="O31">
-        <v>2368.4790191167</v>
+        <v>4275.31844154663</v>
       </c>
       <c r="P31">
-        <v>16.745568332409</v>
+        <v>15.9192228234185</v>
       </c>
     </row>
     <row r="32">
@@ -2006,49 +2006,49 @@
         </is>
       </c>
       <c r="B32">
-        <v>729.6163933280681</v>
+        <v>225.706350019478</v>
       </c>
       <c r="C32">
-        <v>9.86517565517484</v>
+        <v>5.39862208450384</v>
       </c>
       <c r="D32">
-        <v>1.38226206303212</v>
+        <v>1.27711142355517</v>
       </c>
       <c r="E32">
-        <v>4.01741847347364</v>
+        <v>4.94442289516944</v>
       </c>
       <c r="F32">
-        <v>27.2110509474658</v>
+        <v>27.9669774213636</v>
       </c>
       <c r="G32">
-        <v>1.39088991255404</v>
+        <v>1.43972972810346</v>
       </c>
       <c r="H32">
-        <v>0.0355113806051258</v>
+        <v>0.0473907239079307</v>
       </c>
       <c r="I32">
-        <v>3.59521413074805</v>
+        <v>5.00230170799093</v>
       </c>
       <c r="J32">
-        <v>4.16798272012368</v>
+        <v>7.09935564080603</v>
       </c>
       <c r="K32">
-        <v>1.52886758508598</v>
+        <v>4.43244369007746</v>
       </c>
       <c r="L32">
-        <v>8.325710456526391</v>
+        <v>10.3090453700586</v>
       </c>
       <c r="M32">
-        <v>8.58638715990266</v>
+        <v>7.98121774045263</v>
       </c>
       <c r="N32">
-        <v>6.54043018487364</v>
+        <v>10.2269095837888</v>
       </c>
       <c r="O32">
-        <v>523.459285101122</v>
+        <v>990.066423161024</v>
       </c>
       <c r="P32">
-        <v>19.9661734737209</v>
+        <v>33.8914859405831</v>
       </c>
     </row>
     <row r="33">
@@ -2058,49 +2058,49 @@
         </is>
       </c>
       <c r="B33">
-        <v>6209.78244694581</v>
+        <v>2078.50649528874</v>
       </c>
       <c r="C33">
-        <v>64.809083241818</v>
+        <v>80.7295345603423</v>
       </c>
       <c r="D33">
-        <v>75.82738475992061</v>
+        <v>69.11851708268161</v>
       </c>
       <c r="E33">
-        <v>111.935497535272</v>
+        <v>83.765530119719</v>
       </c>
       <c r="F33">
-        <v>12.5764109389808</v>
+        <v>12.8596225329649</v>
       </c>
       <c r="G33">
-        <v>68.1821976952554</v>
+        <v>77.63232180906979</v>
       </c>
       <c r="H33">
-        <v>25.9724078205374</v>
+        <v>41.8648781626566</v>
       </c>
       <c r="I33">
-        <v>25.3100810950731</v>
+        <v>28.2744119860953</v>
       </c>
       <c r="J33">
-        <v>85.8377504854859</v>
+        <v>118.614346077179</v>
       </c>
       <c r="K33">
-        <v>115.406521399027</v>
+        <v>82.0403419559207</v>
       </c>
       <c r="L33">
-        <v>141.017370928027</v>
+        <v>163.918296664074</v>
       </c>
       <c r="M33">
-        <v>92.79055422689871</v>
+        <v>79.4770186994926</v>
       </c>
       <c r="N33">
-        <v>93.1276698343089</v>
+        <v>147.60265141155</v>
       </c>
       <c r="O33">
-        <v>5184.58532838613</v>
+        <v>9422.058157180019</v>
       </c>
       <c r="P33">
-        <v>83.45819017322241</v>
+        <v>67.2400518470176</v>
       </c>
     </row>
     <row r="34">
@@ -2110,49 +2110,49 @@
         </is>
       </c>
       <c r="B34">
-        <v>3057.40646035441</v>
+        <v>859.51014528027</v>
       </c>
       <c r="C34">
-        <v>50.9054616559362</v>
+        <v>100.003576496428</v>
       </c>
       <c r="D34">
-        <v>118.65374709241</v>
+        <v>199.617410541209</v>
       </c>
       <c r="E34">
-        <v>85.27463540653039</v>
+        <v>75.7878674283493</v>
       </c>
       <c r="F34">
-        <v>4.92507606571326</v>
+        <v>0.605713911918682</v>
       </c>
       <c r="G34">
-        <v>44.0285687379528</v>
+        <v>72.56981456969911</v>
       </c>
       <c r="H34">
-        <v>25.7241874021711</v>
+        <v>51.1319078295336</v>
       </c>
       <c r="I34">
-        <v>22.4938446306289</v>
+        <v>29.8762705615939</v>
       </c>
       <c r="J34">
-        <v>36.271937194202</v>
+        <v>44.0276955951904</v>
       </c>
       <c r="K34">
-        <v>38.5038566622423</v>
+        <v>46.4812995698513</v>
       </c>
       <c r="L34">
-        <v>71.4856585343709</v>
+        <v>107.478728815899</v>
       </c>
       <c r="M34">
-        <v>29.621229707792</v>
+        <v>55.8319768494088</v>
       </c>
       <c r="N34">
-        <v>93.86733656835681</v>
+        <v>156.99580861272</v>
       </c>
       <c r="O34">
-        <v>2197.50430457186</v>
+        <v>4061.30007638895</v>
       </c>
       <c r="P34">
-        <v>46.8909188418215</v>
+        <v>85.25930523091201</v>
       </c>
     </row>
     <row r="35">
@@ -2162,49 +2162,49 @@
         </is>
       </c>
       <c r="B35">
-        <v>217.427385574038</v>
+        <v>47.053522193301</v>
       </c>
       <c r="C35">
-        <v>6.63932310057402</v>
+        <v>9.45203227570109</v>
       </c>
       <c r="D35">
-        <v>1.28514542486016</v>
+        <v>0.921010389141051</v>
       </c>
       <c r="E35">
-        <v>2.8280365984898</v>
+        <v>3.56956329423234</v>
       </c>
       <c r="F35">
-        <v>8.47290938140249</v>
+        <v>6.70637329222792</v>
       </c>
       <c r="G35">
-        <v>0.707015553597648</v>
+        <v>0.504262081479703</v>
       </c>
       <c r="H35">
-        <v>0.0462272464911231</v>
+        <v>0.449881147789228</v>
       </c>
       <c r="I35">
-        <v>0.5851024259989001</v>
+        <v>0.742158529084859</v>
       </c>
       <c r="J35">
-        <v>1.82185346196372</v>
+        <v>1.91580450863475</v>
       </c>
       <c r="K35">
-        <v>5.12941426337655</v>
+        <v>5.8840839513805</v>
       </c>
       <c r="L35">
-        <v>3.49537464411395</v>
+        <v>2.49928960819939</v>
       </c>
       <c r="M35">
-        <v>3.55094785120536</v>
+        <v>2.5869404103091</v>
       </c>
       <c r="N35">
-        <v>2.57098585504967</v>
+        <v>3.0180080419779</v>
       </c>
       <c r="O35">
-        <v>219.980670793461</v>
+        <v>359.998481717998</v>
       </c>
       <c r="P35">
-        <v>46.4520924682165</v>
+        <v>61.6376352118837</v>
       </c>
     </row>
     <row r="36">
@@ -2214,49 +2214,49 @@
         </is>
       </c>
       <c r="B36">
-        <v>3817.48785572069</v>
+        <v>1097.84253972186</v>
       </c>
       <c r="C36">
-        <v>73.9332220302326</v>
+        <v>85.50102323580511</v>
       </c>
       <c r="D36">
-        <v>29.7143268358757</v>
+        <v>20.9101181111856</v>
       </c>
       <c r="E36">
-        <v>113.501376518958</v>
+        <v>123.899868880105</v>
       </c>
       <c r="F36">
-        <v>18.2593816120161</v>
+        <v>26.1751809893335</v>
       </c>
       <c r="G36">
-        <v>80.75714268554719</v>
+        <v>91.23896778024169</v>
       </c>
       <c r="H36">
-        <v>84.86511050419369</v>
+        <v>117.318630487227</v>
       </c>
       <c r="I36">
-        <v>46.6194913994255</v>
+        <v>61.6508902846397</v>
       </c>
       <c r="J36">
-        <v>205.588467141704</v>
+        <v>256.403485110235</v>
       </c>
       <c r="K36">
-        <v>113.438393158662</v>
+        <v>86.6719852648458</v>
       </c>
       <c r="L36">
-        <v>75.3731276873887</v>
+        <v>105.908683478568</v>
       </c>
       <c r="M36">
-        <v>234.427458833855</v>
+        <v>280.150149799549</v>
       </c>
       <c r="N36">
-        <v>75.85340560291471</v>
+        <v>109.295721577811</v>
       </c>
       <c r="O36">
-        <v>2864.87793449297</v>
+        <v>5363.43257447463</v>
       </c>
       <c r="P36">
-        <v>36.7660266274375</v>
+        <v>58.5810002306972</v>
       </c>
     </row>
     <row r="37">
@@ -2266,49 +2266,49 @@
         </is>
       </c>
       <c r="B37">
-        <v>1284.471478214</v>
+        <v>356.351389210349</v>
       </c>
       <c r="C37">
-        <v>17.5899011243749</v>
+        <v>24.790941140485</v>
       </c>
       <c r="D37">
-        <v>8.861748426037879</v>
+        <v>5.83666759744641</v>
       </c>
       <c r="E37">
-        <v>9.75614766353641</v>
+        <v>17.9297313365103</v>
       </c>
       <c r="F37">
-        <v>45.760284791741</v>
+        <v>51.8927038872927</v>
       </c>
       <c r="G37">
-        <v>10.4357091767721</v>
+        <v>6.45602686061664</v>
       </c>
       <c r="H37">
-        <v>14.0505541526264</v>
+        <v>25.5490066531524</v>
       </c>
       <c r="I37">
-        <v>8.46787887050642</v>
+        <v>9.321379148927919</v>
       </c>
       <c r="J37">
-        <v>30.2333656771657</v>
+        <v>37.2336249044638</v>
       </c>
       <c r="K37">
-        <v>44.0986930372288</v>
+        <v>44.7998117124845</v>
       </c>
       <c r="L37">
-        <v>15.3897615231186</v>
+        <v>23.9520889004277</v>
       </c>
       <c r="M37">
-        <v>22.2919887585118</v>
+        <v>33.4530800268183</v>
       </c>
       <c r="N37">
-        <v>10.1044459920721</v>
+        <v>19.9790027588952</v>
       </c>
       <c r="O37">
-        <v>851.0399989823141</v>
+        <v>1682.52928923014</v>
       </c>
       <c r="P37">
-        <v>23.3191984251013</v>
+        <v>51.0283075688392</v>
       </c>
     </row>
     <row r="38">
@@ -2318,49 +2318,49 @@
         </is>
       </c>
       <c r="B38">
-        <v>1232.64449080666</v>
+        <v>345.794921112076</v>
       </c>
       <c r="C38">
-        <v>17.399274695228</v>
+        <v>32.6153978420117</v>
       </c>
       <c r="D38">
-        <v>13.5520841890649</v>
+        <v>14.9381729920449</v>
       </c>
       <c r="E38">
-        <v>60.5042743280052</v>
+        <v>57.527801205094</v>
       </c>
       <c r="F38">
-        <v>3.39194430043313</v>
+        <v>1.42906827238687</v>
       </c>
       <c r="G38">
-        <v>7.57719850283852</v>
+        <v>8.24142150836696</v>
       </c>
       <c r="H38">
-        <v>5.7486984296076</v>
+        <v>7.19019436895167</v>
       </c>
       <c r="I38">
-        <v>2.65774301075302</v>
+        <v>3.5107395478954</v>
       </c>
       <c r="J38">
-        <v>36.7128492949836</v>
+        <v>46.6198622380121</v>
       </c>
       <c r="K38">
-        <v>25.7641676481744</v>
+        <v>18.1152136681408</v>
       </c>
       <c r="L38">
-        <v>66.3151816562867</v>
+        <v>86.71231306559871</v>
       </c>
       <c r="M38">
-        <v>24.8731240466389</v>
+        <v>24.2929390633628</v>
       </c>
       <c r="N38">
-        <v>17.5205861974176</v>
+        <v>22.53717404845</v>
       </c>
       <c r="O38">
-        <v>1021.19171870302</v>
+        <v>1826.02073528566</v>
       </c>
       <c r="P38">
-        <v>60.2274108256436</v>
+        <v>90.5123923197467</v>
       </c>
     </row>
     <row r="39">
@@ -2370,49 +2370,49 @@
         </is>
       </c>
       <c r="B39">
-        <v>4279.1557639975</v>
+        <v>1211.5862807127</v>
       </c>
       <c r="C39">
-        <v>81.2526417027813</v>
+        <v>108.727550354344</v>
       </c>
       <c r="D39">
-        <v>60.8020730492002</v>
+        <v>73.3832169835037</v>
       </c>
       <c r="E39">
-        <v>107.441124968865</v>
+        <v>109.073355022264</v>
       </c>
       <c r="F39">
-        <v>28.9312431670402</v>
+        <v>30.9759982434395</v>
       </c>
       <c r="G39">
-        <v>71.1624122380002</v>
+        <v>107.309890682542</v>
       </c>
       <c r="H39">
-        <v>42.8523996377008</v>
+        <v>54.2300039221648</v>
       </c>
       <c r="I39">
-        <v>51.6364561239199</v>
+        <v>55.5425305133378</v>
       </c>
       <c r="J39">
-        <v>196.304931390008</v>
+        <v>209.645378505348</v>
       </c>
       <c r="K39">
-        <v>71.95993738411571</v>
+        <v>98.29358668998449</v>
       </c>
       <c r="L39">
-        <v>89.097366186698</v>
+        <v>104.085081911112</v>
       </c>
       <c r="M39">
-        <v>64.91202831569321</v>
+        <v>88.9306100074262</v>
       </c>
       <c r="N39">
-        <v>84.89794164642891</v>
+        <v>120.270912047158</v>
       </c>
       <c r="O39">
-        <v>3370.11657849069</v>
+        <v>6206.30582437875</v>
       </c>
       <c r="P39">
-        <v>61.2157641273762</v>
+        <v>76.26399921503619</v>
       </c>
     </row>
     <row r="40">
@@ -2422,49 +2422,49 @@
         </is>
       </c>
       <c r="B40">
-        <v>425.101732419599</v>
+        <v>93.6330965366752</v>
       </c>
       <c r="C40">
-        <v>1.54386850437697</v>
+        <v>4.09252437045303</v>
       </c>
       <c r="D40">
-        <v>3.96103092652031</v>
+        <v>11.5893605361993</v>
       </c>
       <c r="E40">
-        <v>5.6555634307143</v>
+        <v>9.16263396583043</v>
       </c>
       <c r="F40">
-        <v>0.119127391906549</v>
+        <v>0.131109116968655</v>
       </c>
       <c r="G40">
-        <v>4.34218494461549</v>
+        <v>6.20293108935589</v>
       </c>
       <c r="H40">
-        <v>3.32573645288858</v>
+        <v>6.06017055734645</v>
       </c>
       <c r="I40">
-        <v>1.15887881165761</v>
+        <v>2.07818966184609</v>
       </c>
       <c r="J40">
-        <v>12.7922082379136</v>
+        <v>18.1593929722739</v>
       </c>
       <c r="K40">
-        <v>5.95322682117066</v>
+        <v>4.82159133553325</v>
       </c>
       <c r="L40">
-        <v>9.86672961321085</v>
+        <v>18.8945555283404</v>
       </c>
       <c r="M40">
-        <v>6.69268654093508</v>
+        <v>8.07180331200224</v>
       </c>
       <c r="N40">
-        <v>15.7368092188912</v>
+        <v>32.9756355511148</v>
       </c>
       <c r="O40">
-        <v>337.170875130589</v>
+        <v>589.449611593679</v>
       </c>
       <c r="P40">
-        <v>1.10679647767197</v>
+        <v>2.46463357387253</v>
       </c>
     </row>
     <row r="41">
@@ -2474,49 +2474,49 @@
         </is>
       </c>
       <c r="B41">
-        <v>1672.99921885739</v>
+        <v>455.42324249103</v>
       </c>
       <c r="C41">
-        <v>13.1691686227937</v>
+        <v>16.2494592282055</v>
       </c>
       <c r="D41">
-        <v>42.87948717981</v>
+        <v>96.29213886573319</v>
       </c>
       <c r="E41">
-        <v>39.957392053113</v>
+        <v>57.9373969870158</v>
       </c>
       <c r="F41">
-        <v>1.3266356295078</v>
+        <v>2.04115512587413</v>
       </c>
       <c r="G41">
-        <v>25.2968993651942</v>
+        <v>41.4635221619735</v>
       </c>
       <c r="H41">
-        <v>40.1467939721882</v>
+        <v>51.7666557174091</v>
       </c>
       <c r="I41">
-        <v>7.51229371699665</v>
+        <v>10.5023138626563</v>
       </c>
       <c r="J41">
-        <v>30.443629033237</v>
+        <v>63.116877791667</v>
       </c>
       <c r="K41">
-        <v>22.2799210348663</v>
+        <v>28.5220178173868</v>
       </c>
       <c r="L41">
-        <v>25.6379158476831</v>
+        <v>36.0255189110658</v>
       </c>
       <c r="M41">
-        <v>27.7234988418431</v>
+        <v>51.0393929771369</v>
       </c>
       <c r="N41">
-        <v>22.2858126258325</v>
+        <v>26.4971028024159</v>
       </c>
       <c r="O41">
-        <v>970.665265967957</v>
+        <v>2000.169235195</v>
       </c>
       <c r="P41">
-        <v>19.2170831681063</v>
+        <v>23.6655933348562</v>
       </c>
     </row>
     <row r="42">
@@ -2526,49 +2526,49 @@
         </is>
       </c>
       <c r="B42">
-        <v>282.106913376554</v>
+        <v>52.3370629644245</v>
       </c>
       <c r="C42">
-        <v>9.780934739360101</v>
+        <v>12.2791978741352</v>
       </c>
       <c r="D42">
-        <v>0.776702982544648</v>
+        <v>0.390919682460454</v>
       </c>
       <c r="E42">
-        <v>7.46729379634902</v>
+        <v>10.2724746555336</v>
       </c>
       <c r="F42">
-        <v>3.27181124841189</v>
+        <v>3.52028398807514</v>
       </c>
       <c r="G42">
-        <v>0.851962634443428</v>
+        <v>1.28642693850865</v>
       </c>
       <c r="H42">
-        <v>1.91262924344905</v>
+        <v>2.23016919399614</v>
       </c>
       <c r="I42">
-        <v>4.77979259833668</v>
+        <v>3.33653348259058</v>
       </c>
       <c r="J42">
-        <v>6.88290812743202</v>
+        <v>6.20257197630188</v>
       </c>
       <c r="K42">
-        <v>6.08686172748215</v>
+        <v>5.44218320268842</v>
       </c>
       <c r="L42">
-        <v>5.07981466803798</v>
+        <v>8.04928753836893</v>
       </c>
       <c r="M42">
-        <v>3.66028179725381</v>
+        <v>3.60920768432126</v>
       </c>
       <c r="N42">
-        <v>12.0200426668454</v>
+        <v>10.2206695506291</v>
       </c>
       <c r="O42">
-        <v>291.144347900486</v>
+        <v>468.018983741609</v>
       </c>
       <c r="P42">
-        <v>43.5616793265031</v>
+        <v>61.3180889016759</v>
       </c>
     </row>
     <row r="43">
@@ -2578,49 +2578,49 @@
         </is>
       </c>
       <c r="B43">
-        <v>2246.73913147773</v>
+        <v>658.815772871922</v>
       </c>
       <c r="C43">
-        <v>45.5984284487085</v>
+        <v>61.5591419492443</v>
       </c>
       <c r="D43">
-        <v>12.5935302065086</v>
+        <v>26.1696280041503</v>
       </c>
       <c r="E43">
-        <v>56.4273420736787</v>
+        <v>68.55935583677589</v>
       </c>
       <c r="F43">
-        <v>3.67862601987692</v>
+        <v>9.444014809405569</v>
       </c>
       <c r="G43">
-        <v>37.7441959094594</v>
+        <v>45.5132365998215</v>
       </c>
       <c r="H43">
-        <v>30.6779994905926</v>
+        <v>32.568376799515</v>
       </c>
       <c r="I43">
-        <v>13.3074050972638</v>
+        <v>23.436473378886</v>
       </c>
       <c r="J43">
-        <v>53.4438709844966</v>
+        <v>62.3185953368455</v>
       </c>
       <c r="K43">
-        <v>41.9074542404641</v>
+        <v>39.5824302522902</v>
       </c>
       <c r="L43">
-        <v>27.6037653012835</v>
+        <v>47.8181353065412</v>
       </c>
       <c r="M43">
-        <v>98.47423330541101</v>
+        <v>107.386186362438</v>
       </c>
       <c r="N43">
-        <v>37.6128785395399</v>
+        <v>54.5823001531134</v>
       </c>
       <c r="O43">
-        <v>1470.19988348337</v>
+        <v>2901.90655584215</v>
       </c>
       <c r="P43">
-        <v>27.2337133776602</v>
+        <v>56.4282782586119</v>
       </c>
     </row>
     <row r="44">
@@ -2630,49 +2630,49 @@
         </is>
       </c>
       <c r="B44">
-        <v>6902.6930719144</v>
+        <v>2526.98385758244</v>
       </c>
       <c r="C44">
-        <v>83.4340730439548</v>
+        <v>138.558568433765</v>
       </c>
       <c r="D44">
-        <v>55.6811629577153</v>
+        <v>51.3137025026832</v>
       </c>
       <c r="E44">
-        <v>103.033798701367</v>
+        <v>107.574243265209</v>
       </c>
       <c r="F44">
-        <v>231.588381317639</v>
+        <v>282.753516484348</v>
       </c>
       <c r="G44">
-        <v>96.3756538734896</v>
+        <v>120.318089336092</v>
       </c>
       <c r="H44">
-        <v>45.8529526690901</v>
+        <v>45.3505822619391</v>
       </c>
       <c r="I44">
-        <v>48.7072309977104</v>
+        <v>53.3216340943563</v>
       </c>
       <c r="J44">
-        <v>135.033198526544</v>
+        <v>135.742901729198</v>
       </c>
       <c r="K44">
-        <v>91.4568801279125</v>
+        <v>73.6485062745827</v>
       </c>
       <c r="L44">
-        <v>206.393462955036</v>
+        <v>226.441343017629</v>
       </c>
       <c r="M44">
-        <v>148.019438860087</v>
+        <v>128.218970571671</v>
       </c>
       <c r="N44">
-        <v>105.191259364798</v>
+        <v>125.255629906885</v>
       </c>
       <c r="O44">
-        <v>5871.93115597951</v>
+        <v>10105.9062959926</v>
       </c>
       <c r="P44">
-        <v>94.2343072992343</v>
+        <v>223.703007939615</v>
       </c>
     </row>
     <row r="45">
@@ -2682,49 +2682,49 @@
         </is>
       </c>
       <c r="B45">
-        <v>668.072981573953</v>
+        <v>260.651052494133</v>
       </c>
       <c r="C45">
-        <v>14.2407137799669</v>
+        <v>20.9824568574798</v>
       </c>
       <c r="D45">
-        <v>4.29501234089668</v>
+        <v>4.31952407955594</v>
       </c>
       <c r="E45">
-        <v>21.2479002032934</v>
+        <v>13.7741575232837</v>
       </c>
       <c r="F45">
-        <v>14.9559198070948</v>
+        <v>23.72692384377</v>
       </c>
       <c r="G45">
-        <v>15.9637607972441</v>
+        <v>13.7796225312271</v>
       </c>
       <c r="H45">
-        <v>1.56250624393311</v>
+        <v>2.61439443089022</v>
       </c>
       <c r="I45">
-        <v>5.93489020674402</v>
+        <v>3.84361716185862</v>
       </c>
       <c r="J45">
-        <v>13.4465752747277</v>
+        <v>16.561006759903</v>
       </c>
       <c r="K45">
-        <v>8.257263283514231</v>
+        <v>5.39150129517295</v>
       </c>
       <c r="L45">
-        <v>18.4547746229879</v>
+        <v>19.813934340013</v>
       </c>
       <c r="M45">
-        <v>21.6536994391092</v>
+        <v>22.9526605759941</v>
       </c>
       <c r="N45">
-        <v>20.0144440758473</v>
+        <v>27.9330203981875</v>
       </c>
       <c r="O45">
-        <v>663.4201245659669</v>
+        <v>1049.58387862406</v>
       </c>
       <c r="P45">
-        <v>9.719810732317409</v>
+        <v>19.6121598422304</v>
       </c>
     </row>
     <row r="46">
@@ -2734,49 +2734,49 @@
         </is>
       </c>
       <c r="B46">
-        <v>230.200010641738</v>
+        <v>45.0374736658843</v>
       </c>
       <c r="C46">
-        <v>4.519429273088</v>
+        <v>6.36740513344287</v>
       </c>
       <c r="D46">
-        <v>1.12956541895104</v>
+        <v>1.2313744246458</v>
       </c>
       <c r="E46">
-        <v>7.93943091799742</v>
+        <v>7.9302065037056</v>
       </c>
       <c r="F46">
-        <v>1.01442006020716</v>
+        <v>1.49143429788592</v>
       </c>
       <c r="G46">
-        <v>1.52001906729893</v>
+        <v>2.03949829415597</v>
       </c>
       <c r="H46">
-        <v>3.40478391597389</v>
+        <v>3.00516958753604</v>
       </c>
       <c r="I46">
-        <v>2.0137489862013</v>
+        <v>1.99748043786137</v>
       </c>
       <c r="J46">
-        <v>5.60442626644729</v>
+        <v>6.79451581896022</v>
       </c>
       <c r="K46">
-        <v>4.15290302361988</v>
+        <v>4.13323536616872</v>
       </c>
       <c r="L46">
-        <v>14.4012812027252</v>
+        <v>16.3424733248195</v>
       </c>
       <c r="M46">
-        <v>4.66712022060509</v>
+        <v>5.94593722594165</v>
       </c>
       <c r="N46">
-        <v>5.28737806560292</v>
+        <v>6.867926236552</v>
       </c>
       <c r="O46">
-        <v>236.948438594996</v>
+        <v>386.842170550685</v>
       </c>
       <c r="P46">
-        <v>13.5993541267598</v>
+        <v>15.3085447714669</v>
       </c>
     </row>
     <row r="47">
@@ -2786,49 +2786,49 @@
         </is>
       </c>
       <c r="B47">
-        <v>2319.86260630977</v>
+        <v>651.9088752829611</v>
       </c>
       <c r="C47">
-        <v>39.3455631055746</v>
+        <v>63.1882090495089</v>
       </c>
       <c r="D47">
-        <v>32.8283198963186</v>
+        <v>36.5247609673351</v>
       </c>
       <c r="E47">
-        <v>60.2105625306792</v>
+        <v>57.751924979305</v>
       </c>
       <c r="F47">
-        <v>22.0886747560621</v>
+        <v>16.2981488501169</v>
       </c>
       <c r="G47">
-        <v>13.8822952771504</v>
+        <v>18.5865013208223</v>
       </c>
       <c r="H47">
-        <v>21.7188954306333</v>
+        <v>17.4332001633914</v>
       </c>
       <c r="I47">
-        <v>15.3167494487381</v>
+        <v>11.8564345579662</v>
       </c>
       <c r="J47">
-        <v>30.2874340228528</v>
+        <v>36.8749021721204</v>
       </c>
       <c r="K47">
-        <v>22.3525325833547</v>
+        <v>11.1862225444995</v>
       </c>
       <c r="L47">
-        <v>32.5313827983729</v>
+        <v>45.5831937474784</v>
       </c>
       <c r="M47">
-        <v>68.66679699788161</v>
+        <v>70.0643062170997</v>
       </c>
       <c r="N47">
-        <v>41.290191002182</v>
+        <v>28.705124365717</v>
       </c>
       <c r="O47">
-        <v>2069.35471893398</v>
+        <v>3703.49609757024</v>
       </c>
       <c r="P47">
-        <v>25.9174823967148</v>
+        <v>54.9956798199382</v>
       </c>
     </row>
     <row r="48">
@@ -2838,49 +2838,49 @@
         </is>
       </c>
       <c r="B48">
-        <v>2111.37884689383</v>
+        <v>664.023884371328</v>
       </c>
       <c r="C48">
-        <v>29.1614379402716</v>
+        <v>28.9249123964272</v>
       </c>
       <c r="D48">
-        <v>8.94373405727328</v>
+        <v>9.28871385407431</v>
       </c>
       <c r="E48">
-        <v>36.6292572178609</v>
+        <v>57.7809147471083</v>
       </c>
       <c r="F48">
-        <v>3.02821366777366</v>
+        <v>6.99207930022868</v>
       </c>
       <c r="G48">
-        <v>4.6176015479605</v>
+        <v>3.99451643788185</v>
       </c>
       <c r="H48">
-        <v>5.37158435135824</v>
+        <v>6.12771756162436</v>
       </c>
       <c r="I48">
-        <v>9.4844277560702</v>
+        <v>13.6801000101665</v>
       </c>
       <c r="J48">
-        <v>16.5955601173134</v>
+        <v>37.220244490979</v>
       </c>
       <c r="K48">
-        <v>21.0724203929537</v>
+        <v>12.9735079826133</v>
       </c>
       <c r="L48">
-        <v>34.5019648091015</v>
+        <v>48.035275448219</v>
       </c>
       <c r="M48">
-        <v>127.625140354736</v>
+        <v>142.73651038508</v>
       </c>
       <c r="N48">
-        <v>27.0014646089273</v>
+        <v>34.061818262503</v>
       </c>
       <c r="O48">
-        <v>1727.70470055763</v>
+        <v>3059.46573504861</v>
       </c>
       <c r="P48">
-        <v>56.3999477234081</v>
+        <v>104.863654477618</v>
       </c>
     </row>
     <row r="49">
@@ -2890,49 +2890,49 @@
         </is>
       </c>
       <c r="B49">
-        <v>1052.07422873121</v>
+        <v>333.119052013386</v>
       </c>
       <c r="C49">
-        <v>4.04999367516851</v>
+        <v>8.12747510380539</v>
       </c>
       <c r="D49">
-        <v>0.705009197355565</v>
+        <v>0.921039534789086</v>
       </c>
       <c r="E49">
-        <v>8.86526097750334</v>
+        <v>20.9795720418115</v>
       </c>
       <c r="F49">
-        <v>22.6925929259081</v>
+        <v>48.1994603757351</v>
       </c>
       <c r="G49">
-        <v>15.113284448937</v>
+        <v>22.0173335394754</v>
       </c>
       <c r="H49">
-        <v>6.92126228199895</v>
+        <v>9.20427415895268</v>
       </c>
       <c r="I49">
-        <v>1.61294385076403</v>
+        <v>6.306118039525</v>
       </c>
       <c r="J49">
-        <v>17.991596805725</v>
+        <v>31.4186261240465</v>
       </c>
       <c r="K49">
-        <v>5.53754203489614</v>
+        <v>8.87483736139294</v>
       </c>
       <c r="L49">
-        <v>2.32397309111165</v>
+        <v>2.93465955822488</v>
       </c>
       <c r="M49">
-        <v>3.26379170990994</v>
+        <v>5.22008541068517</v>
       </c>
       <c r="N49">
-        <v>3.30869278903369</v>
+        <v>3.74614957951765</v>
       </c>
       <c r="O49">
-        <v>368.523548675995</v>
+        <v>957.384182411015</v>
       </c>
       <c r="P49">
-        <v>11.2142975932333</v>
+        <v>19.7292535782401</v>
       </c>
     </row>
     <row r="50">
@@ -2942,49 +2942,49 @@
         </is>
       </c>
       <c r="B50">
-        <v>1675.23921573391</v>
+        <v>390.826081750628</v>
       </c>
       <c r="C50">
-        <v>78.5487976216796</v>
+        <v>83.032977177487</v>
       </c>
       <c r="D50">
-        <v>9.714786593433759</v>
+        <v>11.6629813425678</v>
       </c>
       <c r="E50">
-        <v>147.730706168129</v>
+        <v>149.573214843015</v>
       </c>
       <c r="F50">
-        <v>11.5491441263701</v>
+        <v>4.90067955460752</v>
       </c>
       <c r="G50">
-        <v>18.1997636348414</v>
+        <v>27.5712530723358</v>
       </c>
       <c r="H50">
-        <v>44.888291779937</v>
+        <v>51.889584365402</v>
       </c>
       <c r="I50">
-        <v>14.6501037553235</v>
+        <v>21.7494655763896</v>
       </c>
       <c r="J50">
-        <v>84.9801951830588</v>
+        <v>130.673120227737</v>
       </c>
       <c r="K50">
-        <v>75.19665433633971</v>
+        <v>74.3597199535115</v>
       </c>
       <c r="L50">
-        <v>42.8959858319085</v>
+        <v>75.0296522858866</v>
       </c>
       <c r="M50">
-        <v>44.7875392570756</v>
+        <v>43.279897380498</v>
       </c>
       <c r="N50">
-        <v>58.0279847134664</v>
+        <v>73.56234365964811</v>
       </c>
       <c r="O50">
-        <v>1356.27358832338</v>
+        <v>2546.35734941309</v>
       </c>
       <c r="P50">
-        <v>114.361053778202</v>
+        <v>99.24853095941541</v>
       </c>
     </row>
     <row r="51">
@@ -2994,49 +2994,49 @@
         </is>
       </c>
       <c r="B51">
-        <v>232.969071793726</v>
+        <v>55.2605959085942</v>
       </c>
       <c r="C51">
-        <v>0.353431690030355</v>
+        <v>0.938548920420025</v>
       </c>
       <c r="D51">
-        <v>0.557941289400959</v>
+        <v>0.226762237568546</v>
       </c>
       <c r="E51">
-        <v>0.908351559397991</v>
+        <v>2.5218782819841</v>
       </c>
       <c r="F51">
-        <v>34.1206010125073</v>
+        <v>48.1570441028081</v>
       </c>
       <c r="G51">
-        <v>7.35548470648413</v>
+        <v>4.26312328252448</v>
       </c>
       <c r="H51">
-        <v>0.279353513143112</v>
+        <v>0.334041413413423</v>
       </c>
       <c r="I51">
-        <v>0.216345219288176</v>
+        <v>0.607476370482647</v>
       </c>
       <c r="J51">
-        <v>2.46234846604853</v>
+        <v>2.07625969952544</v>
       </c>
       <c r="K51">
-        <v>1.0624079182817</v>
+        <v>0.752805720346129</v>
       </c>
       <c r="L51">
-        <v>0.34626746491998</v>
+        <v>0.348680931044719</v>
       </c>
       <c r="M51">
-        <v>0.545670944062311</v>
+        <v>0.355273291727706</v>
       </c>
       <c r="N51">
-        <v>2.03906390334726</v>
+        <v>1.3951466315003</v>
       </c>
       <c r="O51">
-        <v>232.452775193562</v>
+        <v>355.745416537265</v>
       </c>
       <c r="P51">
-        <v>8.009137203364711</v>
+        <v>22.111552976565</v>
       </c>
     </row>
     <row r="52">

--- a/1-Data-Codes/2-Final_Data/L_2007.xlsx
+++ b/1-Data-Codes/2-Final_Data/L_2007.xlsx
@@ -446,49 +446,49 @@
         </is>
       </c>
       <c r="B2">
-        <v>530.252559864434</v>
+        <v>391.15184007825</v>
       </c>
       <c r="C2">
-        <v>51.366134785343</v>
+        <v>47.6503685881347</v>
       </c>
       <c r="D2">
-        <v>73.635035354645</v>
+        <v>69.4689995061061</v>
       </c>
       <c r="E2">
-        <v>79.22425142412141</v>
+        <v>94.32472991211451</v>
       </c>
       <c r="F2">
-        <v>27.2249345160092</v>
+        <v>30.4348437230216</v>
       </c>
       <c r="G2">
-        <v>17.8646971911983</v>
+        <v>23.5798954743697</v>
       </c>
       <c r="H2">
-        <v>24.1158890454614</v>
+        <v>35.6027770839898</v>
       </c>
       <c r="I2">
-        <v>22.0915021301538</v>
+        <v>27.6724633009792</v>
       </c>
       <c r="J2">
-        <v>78.54452497433471</v>
+        <v>87.6587287852535</v>
       </c>
       <c r="K2">
-        <v>27.5139725267019</v>
+        <v>28.3719828410157</v>
       </c>
       <c r="L2">
-        <v>38.5795584753024</v>
+        <v>36.9651551333367</v>
       </c>
       <c r="M2">
-        <v>56.3002241170236</v>
+        <v>63.3763179413579</v>
       </c>
       <c r="N2">
-        <v>30.3209506501542</v>
+        <v>29.0974293416234</v>
       </c>
       <c r="O2">
-        <v>2132.86847031306</v>
+        <v>2203.27074116547</v>
       </c>
       <c r="P2">
-        <v>37.2162252122686</v>
+        <v>37.577774155817</v>
       </c>
     </row>
     <row r="3">
@@ -498,49 +498,49 @@
         </is>
       </c>
       <c r="B3">
-        <v>90.2217620861578</v>
+        <v>86.0788756777532</v>
       </c>
       <c r="C3">
-        <v>3.83312831115581</v>
+        <v>3.27531470804357</v>
       </c>
       <c r="D3">
-        <v>0.15056989254077</v>
+        <v>0.18629948396659</v>
       </c>
       <c r="E3">
-        <v>1.0158364101422</v>
+        <v>0.992117689889467</v>
       </c>
       <c r="F3">
-        <v>14.3401041752356</v>
+        <v>16.8503290300585</v>
       </c>
       <c r="G3">
-        <v>0.223858305067018</v>
+        <v>0.213723262385131</v>
       </c>
       <c r="H3">
-        <v>0.0293929000897443</v>
+        <v>0.0370664682391465</v>
       </c>
       <c r="I3">
-        <v>0.319039345531498</v>
+        <v>0.298920428831701</v>
       </c>
       <c r="J3">
-        <v>0.139633430499947</v>
+        <v>0.157529052032121</v>
       </c>
       <c r="K3">
-        <v>0.0444104283851069</v>
+        <v>0.07997753829318061</v>
       </c>
       <c r="L3">
-        <v>0.0397722207546673</v>
+        <v>0.0453457144718539</v>
       </c>
       <c r="M3">
-        <v>0.341279605642149</v>
+        <v>0.382387698947798</v>
       </c>
       <c r="N3">
-        <v>0.873715266026078</v>
+        <v>0.983881189345473</v>
       </c>
       <c r="O3">
-        <v>379.878308542322</v>
+        <v>419.322429193307</v>
       </c>
       <c r="P3">
-        <v>11.4720209028457</v>
+        <v>10.8291613702172</v>
       </c>
     </row>
     <row r="4">
@@ -550,49 +550,49 @@
         </is>
       </c>
       <c r="B4">
-        <v>656.984436510118</v>
+        <v>514.20041434335</v>
       </c>
       <c r="C4">
-        <v>16.3262882138268</v>
+        <v>16.4788416588901</v>
       </c>
       <c r="D4">
-        <v>4.27052761531007</v>
+        <v>6.07275761036186</v>
       </c>
       <c r="E4">
-        <v>16.8072976310193</v>
+        <v>12.8860028511257</v>
       </c>
       <c r="F4">
-        <v>9.099240434718681</v>
+        <v>6.50173095497949</v>
       </c>
       <c r="G4">
-        <v>7.85054882487787</v>
+        <v>9.926076171078609</v>
       </c>
       <c r="H4">
-        <v>10.159687857547</v>
+        <v>11.2681248681047</v>
       </c>
       <c r="I4">
-        <v>14.4952390602472</v>
+        <v>15.3524180310285</v>
       </c>
       <c r="J4">
-        <v>39.8476709453542</v>
+        <v>41.6525056293263</v>
       </c>
       <c r="K4">
-        <v>10.5841133027059</v>
+        <v>10.7911128781141</v>
       </c>
       <c r="L4">
-        <v>83.7057284069132</v>
+        <v>104.190641158641</v>
       </c>
       <c r="M4">
-        <v>53.9928952218397</v>
+        <v>60.1638982442512</v>
       </c>
       <c r="N4">
-        <v>39.1318838159487</v>
+        <v>41.9496742756816</v>
       </c>
       <c r="O4">
-        <v>2890.38118802254</v>
+        <v>2947.68992634202</v>
       </c>
       <c r="P4">
-        <v>39.5261568856535</v>
+        <v>33.0138939821174</v>
       </c>
     </row>
     <row r="5">
@@ -602,49 +602,49 @@
         </is>
       </c>
       <c r="B5">
-        <v>296.677418743735</v>
+        <v>237.525052507431</v>
       </c>
       <c r="C5">
-        <v>93.56248778910771</v>
+        <v>89.4592775789873</v>
       </c>
       <c r="D5">
-        <v>16.454253367586</v>
+        <v>18.0718145211837</v>
       </c>
       <c r="E5">
-        <v>48.8751804222776</v>
+        <v>44.5234885130874</v>
       </c>
       <c r="F5">
-        <v>6.63255703207653</v>
+        <v>4.95846614372472</v>
       </c>
       <c r="G5">
-        <v>9.497822152708929</v>
+        <v>9.380950876949649</v>
       </c>
       <c r="H5">
-        <v>19.0814417668944</v>
+        <v>19.4089668477189</v>
       </c>
       <c r="I5">
-        <v>11.3658965094896</v>
+        <v>12.1518729416716</v>
       </c>
       <c r="J5">
-        <v>34.7074579968386</v>
+        <v>41.2811965164001</v>
       </c>
       <c r="K5">
-        <v>23.0570127040897</v>
+        <v>27.4860575256343</v>
       </c>
       <c r="L5">
-        <v>20.0227108747147</v>
+        <v>24.2375470399685</v>
       </c>
       <c r="M5">
-        <v>28.947290987542</v>
+        <v>25.5084829746887</v>
       </c>
       <c r="N5">
-        <v>22.6973140806157</v>
+        <v>21.9689377252821</v>
       </c>
       <c r="O5">
-        <v>1239.25143635361</v>
+        <v>1306.95617793415</v>
       </c>
       <c r="P5">
-        <v>81.0683971267671</v>
+        <v>67.06899362069839</v>
       </c>
     </row>
     <row r="6">
@@ -654,49 +654,49 @@
         </is>
       </c>
       <c r="B6">
-        <v>4151.79869111547</v>
+        <v>3365.63830392411</v>
       </c>
       <c r="C6">
-        <v>203.769802879357</v>
+        <v>182.117805054863</v>
       </c>
       <c r="D6">
-        <v>125.598078285384</v>
+        <v>155.417659097192</v>
       </c>
       <c r="E6">
-        <v>166.97263884191</v>
+        <v>145.951525091648</v>
       </c>
       <c r="F6">
-        <v>31.2297022598965</v>
+        <v>33.3739879459347</v>
       </c>
       <c r="G6">
-        <v>101.338333196033</v>
+        <v>123.604516347579</v>
       </c>
       <c r="H6">
-        <v>61.7113903073278</v>
+        <v>71.34964953256529</v>
       </c>
       <c r="I6">
-        <v>51.3687685779829</v>
+        <v>57.3530829217419</v>
       </c>
       <c r="J6">
-        <v>178.051148621935</v>
+        <v>195.923839018969</v>
       </c>
       <c r="K6">
-        <v>95.1988302928885</v>
+        <v>114.327821461547</v>
       </c>
       <c r="L6">
-        <v>555.1227105823</v>
+        <v>564.565407526979</v>
       </c>
       <c r="M6">
-        <v>278.247685002353</v>
+        <v>347.875646111111</v>
       </c>
       <c r="N6">
-        <v>276.577085012983</v>
+        <v>309.502766595806</v>
       </c>
       <c r="O6">
-        <v>15841.5551385109</v>
+        <v>16263.7898306067</v>
       </c>
       <c r="P6">
-        <v>277.52400343946</v>
+        <v>217.072570565434</v>
       </c>
     </row>
     <row r="7">
@@ -706,49 +706,49 @@
         </is>
       </c>
       <c r="B7">
-        <v>376.52451929577</v>
+        <v>323.610544305608</v>
       </c>
       <c r="C7">
-        <v>40.5005951073552</v>
+        <v>45.8536705828887</v>
       </c>
       <c r="D7">
-        <v>3.28153671541064</v>
+        <v>3.18627682076606</v>
       </c>
       <c r="E7">
-        <v>22.4603438769893</v>
+        <v>18.7361268083253</v>
       </c>
       <c r="F7">
-        <v>18.2136362837843</v>
+        <v>16.4170733791652</v>
       </c>
       <c r="G7">
-        <v>8.686685918764161</v>
+        <v>10.0291164843808</v>
       </c>
       <c r="H7">
-        <v>4.82318793368342</v>
+        <v>5.96772440955636</v>
       </c>
       <c r="I7">
-        <v>11.2669023230229</v>
+        <v>10.5237670306427</v>
       </c>
       <c r="J7">
-        <v>15.9591861459486</v>
+        <v>17.044489794034</v>
       </c>
       <c r="K7">
-        <v>12.192499024744</v>
+        <v>14.0679073006766</v>
       </c>
       <c r="L7">
-        <v>61.6171556694718</v>
+        <v>66.4334895047699</v>
       </c>
       <c r="M7">
-        <v>18.1826592927649</v>
+        <v>22.1687819867357</v>
       </c>
       <c r="N7">
-        <v>24.1605646550894</v>
+        <v>26.2019238288861</v>
       </c>
       <c r="O7">
-        <v>2298.85119280747</v>
+        <v>2355.82965168385</v>
       </c>
       <c r="P7">
-        <v>36.4064987361581</v>
+        <v>24.5789962820121</v>
       </c>
     </row>
     <row r="8">
@@ -758,49 +758,49 @@
         </is>
       </c>
       <c r="B8">
-        <v>304.273263674292</v>
+        <v>234.483508898774</v>
       </c>
       <c r="C8">
-        <v>11.2254260691131</v>
+        <v>13.403157330227</v>
       </c>
       <c r="D8">
-        <v>5.36758248252098</v>
+        <v>4.41445546270115</v>
       </c>
       <c r="E8">
-        <v>20.3056036557045</v>
+        <v>15.6751289911132</v>
       </c>
       <c r="F8">
-        <v>1.62538889855924</v>
+        <v>1.1915966168839</v>
       </c>
       <c r="G8">
-        <v>33.984882677285</v>
+        <v>36.847317750499</v>
       </c>
       <c r="H8">
-        <v>10.2173861396657</v>
+        <v>13.3999141945667</v>
       </c>
       <c r="I8">
-        <v>2.46976453962433</v>
+        <v>1.78296129129618</v>
       </c>
       <c r="J8">
-        <v>56.9055341451231</v>
+        <v>58.213002933662</v>
       </c>
       <c r="K8">
-        <v>19.9784640429346</v>
+        <v>28.3672594425287</v>
       </c>
       <c r="L8">
-        <v>41.1402370979152</v>
+        <v>48.8710192495182</v>
       </c>
       <c r="M8">
-        <v>62.2169174251829</v>
+        <v>79.62002836644579</v>
       </c>
       <c r="N8">
-        <v>22.6478225346238</v>
+        <v>28.5836942353541</v>
       </c>
       <c r="O8">
-        <v>1704.11250614771</v>
+        <v>1747.93128378312</v>
       </c>
       <c r="P8">
-        <v>6.63315423145393</v>
+        <v>5.28878280204492</v>
       </c>
     </row>
     <row r="9">
@@ -810,49 +810,49 @@
         </is>
       </c>
       <c r="B9">
-        <v>73.3562640648932</v>
+        <v>63.4027692596752</v>
       </c>
       <c r="C9">
-        <v>14.7019602602533</v>
+        <v>13.2724863868696</v>
       </c>
       <c r="D9">
-        <v>1.66257576757747</v>
+        <v>1.69078105900315</v>
       </c>
       <c r="E9">
-        <v>7.31044697233071</v>
+        <v>6.40874080977281</v>
       </c>
       <c r="F9">
-        <v>1.50382257625529</v>
+        <v>2.02623978502266</v>
       </c>
       <c r="G9">
-        <v>28.1633059507524</v>
+        <v>34.980247501761</v>
       </c>
       <c r="H9">
-        <v>2.07887288140569</v>
+        <v>2.39622665482826</v>
       </c>
       <c r="I9">
-        <v>3.04532230315811</v>
+        <v>2.68266349203631</v>
       </c>
       <c r="J9">
-        <v>5.12887516895436</v>
+        <v>5.57773404824823</v>
       </c>
       <c r="K9">
-        <v>3.74463785638904</v>
+        <v>5.48764249495018</v>
       </c>
       <c r="L9">
-        <v>4.59427923223584</v>
+        <v>5.75858801549359</v>
       </c>
       <c r="M9">
-        <v>11.4979965927702</v>
+        <v>11.2327308556131</v>
       </c>
       <c r="N9">
-        <v>6.76419639349066</v>
+        <v>8.31172531194964</v>
       </c>
       <c r="O9">
-        <v>523.014258245286</v>
+        <v>568.59891648441</v>
       </c>
       <c r="P9">
-        <v>9.014065164092189</v>
+        <v>9.29158591478706</v>
       </c>
     </row>
     <row r="10">
@@ -862,49 +862,49 @@
         </is>
       </c>
       <c r="B10">
-        <v>1840.00302634979</v>
+        <v>1393.08795426846</v>
       </c>
       <c r="C10">
-        <v>54.8854777196284</v>
+        <v>52.6661301627511</v>
       </c>
       <c r="D10">
-        <v>17.0428491338497</v>
+        <v>18.3727338369141</v>
       </c>
       <c r="E10">
-        <v>62.6791557460027</v>
+        <v>51.9545965045651</v>
       </c>
       <c r="F10">
-        <v>14.1306077281257</v>
+        <v>13.0953690146321</v>
       </c>
       <c r="G10">
-        <v>27.5179109565184</v>
+        <v>29.2728368971099</v>
       </c>
       <c r="H10">
-        <v>17.4270321996367</v>
+        <v>17.0806723336009</v>
       </c>
       <c r="I10">
-        <v>34.1253765987938</v>
+        <v>36.5593861453084</v>
       </c>
       <c r="J10">
-        <v>57.0086494086489</v>
+        <v>57.4094457341917</v>
       </c>
       <c r="K10">
-        <v>16.6982861170881</v>
+        <v>21.3212858374139</v>
       </c>
       <c r="L10">
-        <v>103.611498374934</v>
+        <v>116.613342103353</v>
       </c>
       <c r="M10">
-        <v>105.198777660326</v>
+        <v>118.790432899188</v>
       </c>
       <c r="N10">
-        <v>108.761025057214</v>
+        <v>117.079879394421</v>
       </c>
       <c r="O10">
-        <v>9750.579310532499</v>
+        <v>10108.2873380849</v>
       </c>
       <c r="P10">
-        <v>78.65929452981381</v>
+        <v>64.41212392411831</v>
       </c>
     </row>
     <row r="11">
@@ -914,49 +914,49 @@
         </is>
       </c>
       <c r="B11">
-        <v>875.810425569819</v>
+        <v>695.931586274092</v>
       </c>
       <c r="C11">
-        <v>68.4999007690966</v>
+        <v>67.572949823857</v>
       </c>
       <c r="D11">
-        <v>142.695881883872</v>
+        <v>154.944528117787</v>
       </c>
       <c r="E11">
-        <v>100.403167426455</v>
+        <v>108.920333669971</v>
       </c>
       <c r="F11">
-        <v>8.051683598354879</v>
+        <v>6.81220616424354</v>
       </c>
       <c r="G11">
-        <v>30.5544362925336</v>
+        <v>35.0611764990306</v>
       </c>
       <c r="H11">
-        <v>27.7409867120023</v>
+        <v>25.0247666478728</v>
       </c>
       <c r="I11">
-        <v>17.8871176201839</v>
+        <v>20.2997320786899</v>
       </c>
       <c r="J11">
-        <v>74.0100235581574</v>
+        <v>68.5102102472446</v>
       </c>
       <c r="K11">
-        <v>29.1853432550143</v>
+        <v>34.2334962754806</v>
       </c>
       <c r="L11">
-        <v>60.6133919229006</v>
+        <v>66.9906082952612</v>
       </c>
       <c r="M11">
-        <v>61.0786704808513</v>
+        <v>58.1114419091065</v>
       </c>
       <c r="N11">
-        <v>57.0861053529663</v>
+        <v>55.6132600750484</v>
       </c>
       <c r="O11">
-        <v>4318.13166512939</v>
+        <v>4467.14430149146</v>
       </c>
       <c r="P11">
-        <v>32.9973258042093</v>
+        <v>27.539683713772</v>
       </c>
     </row>
     <row r="12">
@@ -966,49 +966,49 @@
         </is>
       </c>
       <c r="B12">
-        <v>125.703607479825</v>
+        <v>106.878908567577</v>
       </c>
       <c r="C12">
-        <v>7.84285482568159</v>
+        <v>10.4988230217892</v>
       </c>
       <c r="D12">
-        <v>1.15625908633475</v>
+        <v>1.2976967070812</v>
       </c>
       <c r="E12">
-        <v>1.65056395067276</v>
+        <v>1.60170753145447</v>
       </c>
       <c r="F12">
-        <v>0.268290887408184</v>
+        <v>0.355852226337713</v>
       </c>
       <c r="G12">
-        <v>0.710546978524969</v>
+        <v>0.643399125170537</v>
       </c>
       <c r="H12">
-        <v>0.296881757684635</v>
+        <v>0.277917970398525</v>
       </c>
       <c r="I12">
-        <v>1.57025977463903</v>
+        <v>1.80466965844717</v>
       </c>
       <c r="J12">
-        <v>0.787437305113701</v>
+        <v>0.956419237194195</v>
       </c>
       <c r="K12">
-        <v>0.156480577295903</v>
+        <v>0.178561470684752</v>
       </c>
       <c r="L12">
-        <v>0.242871911540886</v>
+        <v>0.272422893548012</v>
       </c>
       <c r="M12">
-        <v>2.27581931623341</v>
+        <v>2.87905128145862</v>
       </c>
       <c r="N12">
-        <v>5.05334264914577</v>
+        <v>5.77700296835323</v>
       </c>
       <c r="O12">
-        <v>781.1990031390481</v>
+        <v>842.448237008172</v>
       </c>
       <c r="P12">
-        <v>24.2308339043054</v>
+        <v>21.7755109425555</v>
       </c>
     </row>
     <row r="13">
@@ -1018,49 +1018,49 @@
         </is>
       </c>
       <c r="B13">
-        <v>124.809153026872</v>
+        <v>109.237032214191</v>
       </c>
       <c r="C13">
-        <v>31.9810165512587</v>
+        <v>32.7701848471381</v>
       </c>
       <c r="D13">
-        <v>0.809141136172765</v>
+        <v>0.732238499429466</v>
       </c>
       <c r="E13">
-        <v>16.5567519431955</v>
+        <v>16.3031739667194</v>
       </c>
       <c r="F13">
-        <v>4.07696570883571</v>
+        <v>4.49817869356194</v>
       </c>
       <c r="G13">
-        <v>4.73268492897177</v>
+        <v>6.09356986779102</v>
       </c>
       <c r="H13">
-        <v>3.60338329107585</v>
+        <v>3.80518008754504</v>
       </c>
       <c r="I13">
-        <v>1.87537192687615</v>
+        <v>1.85122629438189</v>
       </c>
       <c r="J13">
-        <v>8.05767411815779</v>
+        <v>8.337693744739021</v>
       </c>
       <c r="K13">
-        <v>2.92590041439812</v>
+        <v>3.70252121810353</v>
       </c>
       <c r="L13">
-        <v>22.5107421247045</v>
+        <v>28.7182605608798</v>
       </c>
       <c r="M13">
-        <v>2.47080182221981</v>
+        <v>3.29328115145275</v>
       </c>
       <c r="N13">
-        <v>7.39941778109694</v>
+        <v>8.204139494733161</v>
       </c>
       <c r="O13">
-        <v>711.337468642137</v>
+        <v>739.5749952128371</v>
       </c>
       <c r="P13">
-        <v>68.2469234827883</v>
+        <v>62.6165065861246</v>
       </c>
     </row>
     <row r="14">
@@ -1070,49 +1070,49 @@
         </is>
       </c>
       <c r="B14">
-        <v>1292.90538966645</v>
+        <v>1050.23685641537</v>
       </c>
       <c r="C14">
-        <v>111.424905901776</v>
+        <v>113.235596665843</v>
       </c>
       <c r="D14">
-        <v>13.1170757764192</v>
+        <v>12.7654334494809</v>
       </c>
       <c r="E14">
-        <v>89.529019018185</v>
+        <v>65.750242379687</v>
       </c>
       <c r="F14">
-        <v>22.1402291063753</v>
+        <v>17.1396413528047</v>
       </c>
       <c r="G14">
-        <v>75.0470122925442</v>
+        <v>94.3462243605709</v>
       </c>
       <c r="H14">
-        <v>69.15293121286101</v>
+        <v>70.0895331456814</v>
       </c>
       <c r="I14">
-        <v>23.966748000781</v>
+        <v>26.0755133779422</v>
       </c>
       <c r="J14">
-        <v>150.538893365132</v>
+        <v>140.412866735231</v>
       </c>
       <c r="K14">
-        <v>146.245266219106</v>
+        <v>174.092594843565</v>
       </c>
       <c r="L14">
-        <v>117.466722357229</v>
+        <v>133.674044424154</v>
       </c>
       <c r="M14">
-        <v>82.57492869019519</v>
+        <v>80.50318702733181</v>
       </c>
       <c r="N14">
-        <v>74.2433072553924</v>
+        <v>77.1720396941966</v>
       </c>
       <c r="O14">
-        <v>6014.55866241288</v>
+        <v>6224.6492019185</v>
       </c>
       <c r="P14">
-        <v>73.46746926979159</v>
+        <v>48.9964107635018</v>
       </c>
     </row>
     <row r="15">
@@ -1122,49 +1122,49 @@
         </is>
       </c>
       <c r="B15">
-        <v>574.743011334506</v>
+        <v>479.688579073777</v>
       </c>
       <c r="C15">
-        <v>57.807394840682</v>
+        <v>48.4588216556758</v>
       </c>
       <c r="D15">
-        <v>8.30846134411318</v>
+        <v>10.1013685288514</v>
       </c>
       <c r="E15">
-        <v>74.5581725720314</v>
+        <v>73.0989986052374</v>
       </c>
       <c r="F15">
-        <v>15.0959861412222</v>
+        <v>14.7453130751661</v>
       </c>
       <c r="G15">
-        <v>39.8374558884383</v>
+        <v>47.6774829136814</v>
       </c>
       <c r="H15">
-        <v>44.151924765511</v>
+        <v>48.0121629625435</v>
       </c>
       <c r="I15">
-        <v>44.2233648031527</v>
+        <v>57.6931143901687</v>
       </c>
       <c r="J15">
-        <v>201.744494089347</v>
+        <v>236.926123630439</v>
       </c>
       <c r="K15">
-        <v>46.8592693265121</v>
+        <v>61.9304212928767</v>
       </c>
       <c r="L15">
-        <v>50.6783576823939</v>
+        <v>53.4083598802312</v>
       </c>
       <c r="M15">
-        <v>180.228226401614</v>
+        <v>158.084988824911</v>
       </c>
       <c r="N15">
-        <v>82.9873298528083</v>
+        <v>97.19422534954209</v>
       </c>
       <c r="O15">
-        <v>2804.93130059553</v>
+        <v>2856.54267856104</v>
       </c>
       <c r="P15">
-        <v>53.9536274140142</v>
+        <v>48.4178322928274</v>
       </c>
     </row>
     <row r="16">
@@ -1174,49 +1174,49 @@
         </is>
       </c>
       <c r="B16">
-        <v>177.487705956059</v>
+        <v>151.165606034126</v>
       </c>
       <c r="C16">
-        <v>81.90293685379891</v>
+        <v>82.5756247036944</v>
       </c>
       <c r="D16">
-        <v>7.44186226958991</v>
+        <v>12.8724983462758</v>
       </c>
       <c r="E16">
-        <v>34.7407262167017</v>
+        <v>29.0159374560761</v>
       </c>
       <c r="F16">
-        <v>4.89322311031326</v>
+        <v>4.89256124005436</v>
       </c>
       <c r="G16">
-        <v>14.2000679852418</v>
+        <v>16.8085083597937</v>
       </c>
       <c r="H16">
-        <v>22.2707419013754</v>
+        <v>21.1747526457831</v>
       </c>
       <c r="I16">
-        <v>5.98437960359958</v>
+        <v>6.86362373361158</v>
       </c>
       <c r="J16">
-        <v>52.2683274240528</v>
+        <v>54.0773523025778</v>
       </c>
       <c r="K16">
-        <v>57.030652232945</v>
+        <v>62.7890971708849</v>
       </c>
       <c r="L16">
-        <v>35.9025451863571</v>
+        <v>35.1694482270203</v>
       </c>
       <c r="M16">
-        <v>25.7226327511573</v>
+        <v>18.1203673159306</v>
       </c>
       <c r="N16">
-        <v>27.2996433942116</v>
+        <v>31.879686527261</v>
       </c>
       <c r="O16">
-        <v>1484.72432249007</v>
+        <v>1559.11182677969</v>
       </c>
       <c r="P16">
-        <v>107.36827944313</v>
+        <v>105.309203226255</v>
       </c>
     </row>
     <row r="17">
@@ -1226,49 +1226,49 @@
         </is>
       </c>
       <c r="B17">
-        <v>227.696695062214</v>
+        <v>183.969089390097</v>
       </c>
       <c r="C17">
-        <v>28.8948429985943</v>
+        <v>25.516540002737</v>
       </c>
       <c r="D17">
-        <v>2.83127064665308</v>
+        <v>3.87591162134785</v>
       </c>
       <c r="E17">
-        <v>23.6704707381716</v>
+        <v>17.8401000992489</v>
       </c>
       <c r="F17">
-        <v>16.7912537101867</v>
+        <v>16.4722171594678</v>
       </c>
       <c r="G17">
-        <v>11.3044619246659</v>
+        <v>13.8390411009585</v>
       </c>
       <c r="H17">
-        <v>14.7749642106973</v>
+        <v>12.394347352619</v>
       </c>
       <c r="I17">
-        <v>7.58424778202792</v>
+        <v>8.785032084304291</v>
       </c>
       <c r="J17">
-        <v>19.4088810935654</v>
+        <v>19.9850222931801</v>
       </c>
       <c r="K17">
-        <v>17.7664741626105</v>
+        <v>22.0708936044466</v>
       </c>
       <c r="L17">
-        <v>10.8777083282629</v>
+        <v>12.2007202651164</v>
       </c>
       <c r="M17">
-        <v>85.3119894278026</v>
+        <v>92.90073409845419</v>
       </c>
       <c r="N17">
-        <v>12.1644058604925</v>
+        <v>13.2201418686553</v>
       </c>
       <c r="O17">
-        <v>1342.4968588175</v>
+        <v>1419.49040921962</v>
       </c>
       <c r="P17">
-        <v>57.2106353138636</v>
+        <v>51.8961140099284</v>
       </c>
     </row>
     <row r="18">
@@ -1278,49 +1278,49 @@
         </is>
       </c>
       <c r="B18">
-        <v>511.711846722</v>
+        <v>405.376938904483</v>
       </c>
       <c r="C18">
-        <v>37.9349296659054</v>
+        <v>39.7916850266926</v>
       </c>
       <c r="D18">
-        <v>11.8918511774015</v>
+        <v>10.3741157089048</v>
       </c>
       <c r="E18">
-        <v>52.3967406256355</v>
+        <v>45.6872674934841</v>
       </c>
       <c r="F18">
-        <v>43.7044810138083</v>
+        <v>46.5259168361667</v>
       </c>
       <c r="G18">
-        <v>18.5267175383175</v>
+        <v>29.7711165310426</v>
       </c>
       <c r="H18">
-        <v>24.8665340583989</v>
+        <v>25.1630634826512</v>
       </c>
       <c r="I18">
-        <v>10.6615795834266</v>
+        <v>11.4754285823261</v>
       </c>
       <c r="J18">
-        <v>49.4873909358291</v>
+        <v>44.6547617843307</v>
       </c>
       <c r="K18">
-        <v>20.1922649454427</v>
+        <v>23.4719036796931</v>
       </c>
       <c r="L18">
-        <v>37.6281157262077</v>
+        <v>45.2518833328112</v>
       </c>
       <c r="M18">
-        <v>84.724995979131</v>
+        <v>81.3417661616481</v>
       </c>
       <c r="N18">
-        <v>29.0827880350557</v>
+        <v>28.2281431472024</v>
       </c>
       <c r="O18">
-        <v>2064.44513203117</v>
+        <v>2196.36924491831</v>
       </c>
       <c r="P18">
-        <v>66.838824809803</v>
+        <v>61.0980640346935</v>
       </c>
     </row>
     <row r="19">
@@ -1330,49 +1330,49 @@
         </is>
       </c>
       <c r="B19">
-        <v>517.894602955705</v>
+        <v>420.699668484109</v>
       </c>
       <c r="C19">
-        <v>29.8541218773984</v>
+        <v>30.6026753619137</v>
       </c>
       <c r="D19">
-        <v>8.60486988714502</v>
+        <v>8.25790083326136</v>
       </c>
       <c r="E19">
-        <v>40.5424752975518</v>
+        <v>31.5288054252989</v>
       </c>
       <c r="F19">
-        <v>77.77673596825539</v>
+        <v>90.39676020802651</v>
       </c>
       <c r="G19">
-        <v>36.3843743631725</v>
+        <v>43.0548387154987</v>
       </c>
       <c r="H19">
-        <v>7.57514116403175</v>
+        <v>6.93190335263835</v>
       </c>
       <c r="I19">
-        <v>9.331200993437321</v>
+        <v>10.2503285257799</v>
       </c>
       <c r="J19">
-        <v>22.7207798154169</v>
+        <v>17.7424329249598</v>
       </c>
       <c r="K19">
-        <v>9.232614168111111</v>
+        <v>10.445469773507</v>
       </c>
       <c r="L19">
-        <v>2.56111378945772</v>
+        <v>3.01896692866323</v>
       </c>
       <c r="M19">
-        <v>52.4766343254522</v>
+        <v>46.6379211028316</v>
       </c>
       <c r="N19">
-        <v>3.80380866827592</v>
+        <v>3.86261870074504</v>
       </c>
       <c r="O19">
-        <v>2124.81642813153</v>
+        <v>2230.32451874718</v>
       </c>
       <c r="P19">
-        <v>54.0083630872992</v>
+        <v>44.837692583631</v>
       </c>
     </row>
     <row r="20">
@@ -1382,49 +1382,49 @@
         </is>
       </c>
       <c r="B20">
-        <v>132.763253844896</v>
+        <v>110.440961826669</v>
       </c>
       <c r="C20">
-        <v>10.1041065492235</v>
+        <v>10.1936102669381</v>
       </c>
       <c r="D20">
-        <v>12.4903436741591</v>
+        <v>13.5982494276508</v>
       </c>
       <c r="E20">
-        <v>41.4351446438093</v>
+        <v>40.2362828673888</v>
       </c>
       <c r="F20">
-        <v>1.10331700140042</v>
+        <v>0.933073550486222</v>
       </c>
       <c r="G20">
-        <v>1.01035009432462</v>
+        <v>1.0712437305826</v>
       </c>
       <c r="H20">
-        <v>2.5491926278705</v>
+        <v>4.05286565756568</v>
       </c>
       <c r="I20">
-        <v>0.933110133346775</v>
+        <v>0.794003752425093</v>
       </c>
       <c r="J20">
-        <v>7.1279112855478</v>
+        <v>6.3764645665879</v>
       </c>
       <c r="K20">
-        <v>4.1736857202877</v>
+        <v>5.37083174922592</v>
       </c>
       <c r="L20">
-        <v>7.25979559006977</v>
+        <v>7.67718707721519</v>
       </c>
       <c r="M20">
-        <v>19.3810667594319</v>
+        <v>27.6412731907011</v>
       </c>
       <c r="N20">
-        <v>6.05905369755866</v>
+        <v>6.05307296811909</v>
       </c>
       <c r="O20">
-        <v>707.4504150454731</v>
+        <v>745.033059820644</v>
       </c>
       <c r="P20">
-        <v>21.8642750219867</v>
+        <v>19.2308798680008</v>
       </c>
     </row>
     <row r="21">
@@ -1434,49 +1434,49 @@
         </is>
       </c>
       <c r="B21">
-        <v>433.415458252335</v>
+        <v>360.471934884793</v>
       </c>
       <c r="C21">
-        <v>14.8978694478398</v>
+        <v>15.7546099706413</v>
       </c>
       <c r="D21">
-        <v>6.56034893436664</v>
+        <v>6.29937218586113</v>
       </c>
       <c r="E21">
-        <v>28.2155934067278</v>
+        <v>22.6178788509806</v>
       </c>
       <c r="F21">
-        <v>0.923066076113075</v>
+        <v>0.778897810533589</v>
       </c>
       <c r="G21">
-        <v>15.2613771288216</v>
+        <v>16.5339485474989</v>
       </c>
       <c r="H21">
-        <v>8.51819392035341</v>
+        <v>8.553015053965771</v>
       </c>
       <c r="I21">
-        <v>5.06135119119533</v>
+        <v>5.38026061796266</v>
       </c>
       <c r="J21">
-        <v>15.7872061829512</v>
+        <v>13.7093750180071</v>
       </c>
       <c r="K21">
-        <v>3.25480228521167</v>
+        <v>5.27975654223077</v>
       </c>
       <c r="L21">
-        <v>32.7410390593384</v>
+        <v>32.3965747454795</v>
       </c>
       <c r="M21">
-        <v>27.698285373375</v>
+        <v>27.9382242329564</v>
       </c>
       <c r="N21">
-        <v>13.5735938506635</v>
+        <v>13.5449813684235</v>
       </c>
       <c r="O21">
-        <v>2897.05057955049</v>
+        <v>2988.3737960233</v>
       </c>
       <c r="P21">
-        <v>16.3194343984622</v>
+        <v>17.1642810805677</v>
       </c>
     </row>
     <row r="22">
@@ -1486,49 +1486,49 @@
         </is>
       </c>
       <c r="B22">
-        <v>564.2289510770841</v>
+        <v>453.784967937982</v>
       </c>
       <c r="C22">
-        <v>17.4875270622447</v>
+        <v>17.0253809144161</v>
       </c>
       <c r="D22">
-        <v>16.7439915179489</v>
+        <v>18.2635090106475</v>
       </c>
       <c r="E22">
-        <v>40.6031768640645</v>
+        <v>30.4095668306318</v>
       </c>
       <c r="F22">
-        <v>0.842292774437612</v>
+        <v>0.944891846586332</v>
       </c>
       <c r="G22">
-        <v>26.275963769388</v>
+        <v>28.7132808214547</v>
       </c>
       <c r="H22">
-        <v>24.0184757975098</v>
+        <v>30.7050767219498</v>
       </c>
       <c r="I22">
-        <v>8.017795967482471</v>
+        <v>6.51320510111305</v>
       </c>
       <c r="J22">
-        <v>49.4896901068163</v>
+        <v>50.3195554840417</v>
       </c>
       <c r="K22">
-        <v>17.6913120021822</v>
+        <v>24.6013320099254</v>
       </c>
       <c r="L22">
-        <v>118.650134749284</v>
+        <v>121.831042283011</v>
       </c>
       <c r="M22">
-        <v>24.3991228063445</v>
+        <v>25.3329710615187</v>
       </c>
       <c r="N22">
-        <v>61.8855713232935</v>
+        <v>83.0051347852839</v>
       </c>
       <c r="O22">
-        <v>3234.65844094756</v>
+        <v>3327.0298531531</v>
       </c>
       <c r="P22">
-        <v>13.6829928678687</v>
+        <v>12.0161758538562</v>
       </c>
     </row>
     <row r="23">
@@ -1538,49 +1538,49 @@
         </is>
       </c>
       <c r="B23">
-        <v>1105.58752744453</v>
+        <v>894.430961482057</v>
       </c>
       <c r="C23">
-        <v>50.4949945963561</v>
+        <v>49.868684335301</v>
       </c>
       <c r="D23">
-        <v>10.4581313616509</v>
+        <v>12.2420255467152</v>
       </c>
       <c r="E23">
-        <v>74.007942172412</v>
+        <v>57.3439246828947</v>
       </c>
       <c r="F23">
-        <v>2.39352984862294</v>
+        <v>1.57428111704554</v>
       </c>
       <c r="G23">
-        <v>65.67399334135079</v>
+        <v>81.4586461948842</v>
       </c>
       <c r="H23">
-        <v>100.163678948164</v>
+        <v>95.76775644689501</v>
       </c>
       <c r="I23">
-        <v>34.5614445238896</v>
+        <v>35.0727157369342</v>
       </c>
       <c r="J23">
-        <v>161.47265867166</v>
+        <v>163.719083605308</v>
       </c>
       <c r="K23">
-        <v>96.91776906974221</v>
+        <v>118.365625090933</v>
       </c>
       <c r="L23">
-        <v>37.063789740671</v>
+        <v>43.630932148264</v>
       </c>
       <c r="M23">
-        <v>669.754435366193</v>
+        <v>720.982192305379</v>
       </c>
       <c r="N23">
-        <v>111.746007451981</v>
+        <v>120.926925837874</v>
       </c>
       <c r="O23">
-        <v>4245.30765283779</v>
+        <v>4400.2042892105</v>
       </c>
       <c r="P23">
-        <v>69.3483236096435</v>
+        <v>49.7175139209796</v>
       </c>
     </row>
     <row r="24">
@@ -1590,49 +1590,49 @@
         </is>
       </c>
       <c r="B24">
-        <v>340.858694610203</v>
+        <v>288.815836206603</v>
       </c>
       <c r="C24">
-        <v>70.0272515661095</v>
+        <v>51.7435058885801</v>
       </c>
       <c r="D24">
-        <v>11.5993369620975</v>
+        <v>13.1220301547551</v>
       </c>
       <c r="E24">
-        <v>62.6672487984701</v>
+        <v>48.7104618864366</v>
       </c>
       <c r="F24">
-        <v>20.2571021455532</v>
+        <v>16.107315663228</v>
       </c>
       <c r="G24">
-        <v>15.0849365808452</v>
+        <v>22.2956469555936</v>
       </c>
       <c r="H24">
-        <v>14.4076269437105</v>
+        <v>15.6405428135417</v>
       </c>
       <c r="I24">
-        <v>15.647503106265</v>
+        <v>14.6290523220796</v>
       </c>
       <c r="J24">
-        <v>65.3903827160926</v>
+        <v>57.884285066007</v>
       </c>
       <c r="K24">
-        <v>46.797001279164</v>
+        <v>66.2482471092316</v>
       </c>
       <c r="L24">
-        <v>68.0979474311107</v>
+        <v>65.7537399948866</v>
       </c>
       <c r="M24">
-        <v>25.084695053413</v>
+        <v>19.4511163718879</v>
       </c>
       <c r="N24">
-        <v>66.628183433148</v>
+        <v>80.51593023039111</v>
       </c>
       <c r="O24">
-        <v>2425.52373088465</v>
+        <v>2515.65863266445</v>
       </c>
       <c r="P24">
-        <v>96.7356954154006</v>
+        <v>77.8671870637756</v>
       </c>
     </row>
     <row r="25">
@@ -1642,49 +1642,49 @@
         </is>
       </c>
       <c r="B25">
-        <v>416.248309213817</v>
+        <v>337.885146561103</v>
       </c>
       <c r="C25">
-        <v>43.3562151509044</v>
+        <v>46.2478034713401</v>
       </c>
       <c r="D25">
-        <v>17.2140787863115</v>
+        <v>16.2040704517872</v>
       </c>
       <c r="E25">
-        <v>42.8507190643893</v>
+        <v>48.6832522878914</v>
       </c>
       <c r="F25">
-        <v>24.6354476966434</v>
+        <v>35.1318202694617</v>
       </c>
       <c r="G25">
-        <v>18.3109380399176</v>
+        <v>19.669519107602</v>
       </c>
       <c r="H25">
-        <v>10.9082767089074</v>
+        <v>13.7916398225119</v>
       </c>
       <c r="I25">
-        <v>3.58677610598669</v>
+        <v>4.11852881037113</v>
       </c>
       <c r="J25">
-        <v>18.7594066878413</v>
+        <v>17.7164838872578</v>
       </c>
       <c r="K25">
-        <v>14.4635359379794</v>
+        <v>15.2373430017777</v>
       </c>
       <c r="L25">
-        <v>31.1851868713304</v>
+        <v>32.6409974233962</v>
       </c>
       <c r="M25">
-        <v>48.2661788487198</v>
+        <v>46.111346157695</v>
       </c>
       <c r="N25">
-        <v>51.785692946368</v>
+        <v>43.4109200745911</v>
       </c>
       <c r="O25">
-        <v>1271.81518818065</v>
+        <v>1367.77675251615</v>
       </c>
       <c r="P25">
-        <v>65.8944835779058</v>
+        <v>60.7715379129424</v>
       </c>
     </row>
     <row r="26">
@@ -1694,49 +1694,49 @@
         </is>
       </c>
       <c r="B26">
-        <v>491.727316119936</v>
+        <v>387.620358766333</v>
       </c>
       <c r="C26">
-        <v>60.189773982104</v>
+        <v>57.2070197337464</v>
       </c>
       <c r="D26">
-        <v>16.4472803649982</v>
+        <v>13.9823034689899</v>
       </c>
       <c r="E26">
-        <v>45.4610184471764</v>
+        <v>38.046933343124</v>
       </c>
       <c r="F26">
-        <v>10.2658859109034</v>
+        <v>8.347999223469589</v>
       </c>
       <c r="G26">
-        <v>43.9756929527525</v>
+        <v>54.2707595651671</v>
       </c>
       <c r="H26">
-        <v>23.6356149440336</v>
+        <v>18.5785991456075</v>
       </c>
       <c r="I26">
-        <v>11.7858666197266</v>
+        <v>12.6947306013641</v>
       </c>
       <c r="J26">
-        <v>55.1124212915417</v>
+        <v>55.8201176082302</v>
       </c>
       <c r="K26">
-        <v>28.7029087055791</v>
+        <v>30.6758324336289</v>
       </c>
       <c r="L26">
-        <v>45.5942278822728</v>
+        <v>40.7364599896536</v>
       </c>
       <c r="M26">
-        <v>85.2875666850144</v>
+        <v>83.0681290238911</v>
       </c>
       <c r="N26">
-        <v>34.0012430227815</v>
+        <v>35.8336785124635</v>
       </c>
       <c r="O26">
-        <v>2807.68635194428</v>
+        <v>2965.47006577744</v>
       </c>
       <c r="P26">
-        <v>78.79070769957519</v>
+        <v>56.3698996588736</v>
       </c>
     </row>
     <row r="27">
@@ -1746,49 +1746,49 @@
         </is>
       </c>
       <c r="B27">
-        <v>76.2036804495861</v>
+        <v>68.0603452483639</v>
       </c>
       <c r="C27">
-        <v>3.63906686118195</v>
+        <v>3.76714694511805</v>
       </c>
       <c r="D27">
-        <v>1.27397357757608</v>
+        <v>1.40769489040603</v>
       </c>
       <c r="E27">
-        <v>14.5046464026989</v>
+        <v>16.0256239488814</v>
       </c>
       <c r="F27">
-        <v>10.6932092496086</v>
+        <v>11.1415231141087</v>
       </c>
       <c r="G27">
-        <v>1.2294135516613</v>
+        <v>1.13056401496244</v>
       </c>
       <c r="H27">
-        <v>0.110113131225695</v>
+        <v>0.129211481543406</v>
       </c>
       <c r="I27">
-        <v>1.98430674073419</v>
+        <v>2.79866294696894</v>
       </c>
       <c r="J27">
-        <v>4.18158173569214</v>
+        <v>3.96372457563972</v>
       </c>
       <c r="K27">
-        <v>2.53094435465942</v>
+        <v>2.58269754419301</v>
       </c>
       <c r="L27">
-        <v>2.44739417324458</v>
+        <v>3.33870221949358</v>
       </c>
       <c r="M27">
-        <v>0.223615447533003</v>
+        <v>0.243104382852555</v>
       </c>
       <c r="N27">
-        <v>5.98258289259473</v>
+        <v>6.41011952236492</v>
       </c>
       <c r="O27">
-        <v>562.7476934443751</v>
+        <v>602.179129570813</v>
       </c>
       <c r="P27">
-        <v>58.9785365087418</v>
+        <v>56.2528571245094</v>
       </c>
     </row>
     <row r="28">
@@ -1798,49 +1798,49 @@
         </is>
       </c>
       <c r="B28">
-        <v>113.409206002915</v>
+        <v>91.2544008801618</v>
       </c>
       <c r="C28">
-        <v>45.0450009533638</v>
+        <v>39.2194199783152</v>
       </c>
       <c r="D28">
-        <v>1.11937267548753</v>
+        <v>1.50877220064613</v>
       </c>
       <c r="E28">
-        <v>12.146919483889</v>
+        <v>9.41844742848941</v>
       </c>
       <c r="F28">
-        <v>1.83594355238225</v>
+        <v>2.28090439649628</v>
       </c>
       <c r="G28">
-        <v>6.18358067533597</v>
+        <v>7.71522372586997</v>
       </c>
       <c r="H28">
-        <v>6.73076384013287</v>
+        <v>8.963282700222401</v>
       </c>
       <c r="I28">
-        <v>5.5888948262439</v>
+        <v>5.75616229271851</v>
       </c>
       <c r="J28">
-        <v>18.9180291213608</v>
+        <v>19.323998371638</v>
       </c>
       <c r="K28">
-        <v>17.4586604182512</v>
+        <v>17.9229569640779</v>
       </c>
       <c r="L28">
-        <v>12.1847549187327</v>
+        <v>12.9651748270463</v>
       </c>
       <c r="M28">
-        <v>9.16866438785722</v>
+        <v>8.33493289386173</v>
       </c>
       <c r="N28">
-        <v>9.742631029917931</v>
+        <v>10.5638530820136</v>
       </c>
       <c r="O28">
-        <v>895.165495830433</v>
+        <v>964.2216962814221</v>
       </c>
       <c r="P28">
-        <v>92.07004557953</v>
+        <v>88.615071689715</v>
       </c>
     </row>
     <row r="29">
@@ -1850,49 +1850,49 @@
         </is>
       </c>
       <c r="B29">
-        <v>216.386489168845</v>
+        <v>183.468507068899</v>
       </c>
       <c r="C29">
-        <v>1.18760871061305</v>
+        <v>1.15859429666261</v>
       </c>
       <c r="D29">
-        <v>1.6371370497167</v>
+        <v>2.43933313487087</v>
       </c>
       <c r="E29">
-        <v>4.35662331995067</v>
+        <v>3.50388260426713</v>
       </c>
       <c r="F29">
-        <v>21.1886341750103</v>
+        <v>23.0607903845917</v>
       </c>
       <c r="G29">
-        <v>1.53720137682764</v>
+        <v>2.00438696873793</v>
       </c>
       <c r="H29">
-        <v>1.89908754833646</v>
+        <v>2.13526875179808</v>
       </c>
       <c r="I29">
-        <v>4.26897099713739</v>
+        <v>5.59648451255364</v>
       </c>
       <c r="J29">
-        <v>5.89715407937246</v>
+        <v>6.00198397237639</v>
       </c>
       <c r="K29">
-        <v>2.24443915455074</v>
+        <v>2.75666195086755</v>
       </c>
       <c r="L29">
-        <v>6.09849077099693</v>
+        <v>5.83713847896546</v>
       </c>
       <c r="M29">
-        <v>2.14463689620206</v>
+        <v>2.24454371104592</v>
       </c>
       <c r="N29">
-        <v>9.846115913799849</v>
+        <v>10.1835398771895</v>
       </c>
       <c r="O29">
-        <v>1364.74906937763</v>
+        <v>1431.00415152513</v>
       </c>
       <c r="P29">
-        <v>5.61788881277124</v>
+        <v>4.59404058433835</v>
       </c>
     </row>
     <row r="30">
@@ -1902,49 +1902,49 @@
         </is>
       </c>
       <c r="B30">
-        <v>99.56254307903291</v>
+        <v>82.4994023068202</v>
       </c>
       <c r="C30">
-        <v>3.26610928396746</v>
+        <v>3.675443928838</v>
       </c>
       <c r="D30">
-        <v>4.38820372201434</v>
+        <v>5.25836008835108</v>
       </c>
       <c r="E30">
-        <v>12.4926827443323</v>
+        <v>10.2716113862001</v>
       </c>
       <c r="F30">
-        <v>0.203709278962741</v>
+        <v>0.184088933396994</v>
       </c>
       <c r="G30">
-        <v>6.74216019602849</v>
+        <v>7.42558457709204</v>
       </c>
       <c r="H30">
-        <v>7.14999516843995</v>
+        <v>8.93420476477243</v>
       </c>
       <c r="I30">
-        <v>1.93457950403414</v>
+        <v>2.2296480585624</v>
       </c>
       <c r="J30">
-        <v>23.2158585307517</v>
+        <v>21.6178703282102</v>
       </c>
       <c r="K30">
-        <v>10.1640465839781</v>
+        <v>14.619298731717</v>
       </c>
       <c r="L30">
-        <v>46.8887298183571</v>
+        <v>53.2608455996022</v>
       </c>
       <c r="M30">
-        <v>9.420614785040719</v>
+        <v>10.882486168205</v>
       </c>
       <c r="N30">
-        <v>12.5410396019799</v>
+        <v>13.3766000578873</v>
       </c>
       <c r="O30">
-        <v>697.0854126532011</v>
+        <v>733.892168811068</v>
       </c>
       <c r="P30">
-        <v>5.08170475487003</v>
+        <v>4.92145317304243</v>
       </c>
     </row>
     <row r="31">
@@ -1954,49 +1954,49 @@
         </is>
       </c>
       <c r="B31">
-        <v>873.609791484935</v>
+        <v>709.961930121851</v>
       </c>
       <c r="C31">
-        <v>45.2290455097776</v>
+        <v>50.3364986335423</v>
       </c>
       <c r="D31">
-        <v>22.7057486337355</v>
+        <v>23.4616060894183</v>
       </c>
       <c r="E31">
-        <v>41.2819733841409</v>
+        <v>31.7048175313557</v>
       </c>
       <c r="F31">
-        <v>8.80355822208343</v>
+        <v>9.16019845957781</v>
       </c>
       <c r="G31">
-        <v>142.459653148546</v>
+        <v>152.378577370883</v>
       </c>
       <c r="H31">
-        <v>18.9830141241658</v>
+        <v>19.6713963640767</v>
       </c>
       <c r="I31">
-        <v>27.152949322464</v>
+        <v>33.2489544504182</v>
       </c>
       <c r="J31">
-        <v>39.1259399226843</v>
+        <v>37.6137461414666</v>
       </c>
       <c r="K31">
-        <v>10.7904101196142</v>
+        <v>14.7085493189698</v>
       </c>
       <c r="L31">
-        <v>88.48676532767721</v>
+        <v>88.1291651986617</v>
       </c>
       <c r="M31">
-        <v>19.3551376254576</v>
+        <v>18.7848661216784</v>
       </c>
       <c r="N31">
-        <v>52.560349203647</v>
+        <v>56.2793202724921</v>
       </c>
       <c r="O31">
-        <v>4275.31844154663</v>
+        <v>4402.45155776315</v>
       </c>
       <c r="P31">
-        <v>15.9192228234185</v>
+        <v>13.0196927405392</v>
       </c>
     </row>
     <row r="32">
@@ -2006,49 +2006,49 @@
         </is>
       </c>
       <c r="B32">
-        <v>225.706350019478</v>
+        <v>190.385959933827</v>
       </c>
       <c r="C32">
-        <v>5.39862208450384</v>
+        <v>4.978413531932</v>
       </c>
       <c r="D32">
-        <v>1.27711142355517</v>
+        <v>1.4555472634359</v>
       </c>
       <c r="E32">
-        <v>4.94442289516944</v>
+        <v>3.73466364293612</v>
       </c>
       <c r="F32">
-        <v>27.9669774213636</v>
+        <v>36.5615712003311</v>
       </c>
       <c r="G32">
-        <v>1.43972972810346</v>
+        <v>1.86601236907678</v>
       </c>
       <c r="H32">
-        <v>0.0473907239079307</v>
+        <v>0.144598071619362</v>
       </c>
       <c r="I32">
-        <v>5.00230170799093</v>
+        <v>4.99836180373884</v>
       </c>
       <c r="J32">
-        <v>7.09935564080603</v>
+        <v>6.90180939040129</v>
       </c>
       <c r="K32">
-        <v>4.43244369007746</v>
+        <v>6.33917379228182</v>
       </c>
       <c r="L32">
-        <v>10.3090453700586</v>
+        <v>11.7401914893564</v>
       </c>
       <c r="M32">
-        <v>7.98121774045263</v>
+        <v>7.67152760946739</v>
       </c>
       <c r="N32">
-        <v>10.2269095837888</v>
+        <v>10.5843538314221</v>
       </c>
       <c r="O32">
-        <v>990.066423161024</v>
+        <v>1016.81026249047</v>
       </c>
       <c r="P32">
-        <v>33.8914859405831</v>
+        <v>31.8511622270246</v>
       </c>
     </row>
     <row r="33">
@@ -2058,49 +2058,49 @@
         </is>
       </c>
       <c r="B33">
-        <v>2078.50649528874</v>
+        <v>1676.57542449198</v>
       </c>
       <c r="C33">
-        <v>80.7295345603423</v>
+        <v>78.7292671642748</v>
       </c>
       <c r="D33">
-        <v>69.11851708268161</v>
+        <v>72.9064708618187</v>
       </c>
       <c r="E33">
-        <v>83.765530119719</v>
+        <v>62.6634731248071</v>
       </c>
       <c r="F33">
-        <v>12.8596225329649</v>
+        <v>11.8638979807258</v>
       </c>
       <c r="G33">
-        <v>77.63232180906979</v>
+        <v>71.16944920193269</v>
       </c>
       <c r="H33">
-        <v>41.8648781626566</v>
+        <v>41.8310966518786</v>
       </c>
       <c r="I33">
-        <v>28.2744119860953</v>
+        <v>28.5840654879723</v>
       </c>
       <c r="J33">
-        <v>118.614346077179</v>
+        <v>120.481889613867</v>
       </c>
       <c r="K33">
-        <v>82.0403419559207</v>
+        <v>89.6878321247985</v>
       </c>
       <c r="L33">
-        <v>163.918296664074</v>
+        <v>172.738992258543</v>
       </c>
       <c r="M33">
-        <v>79.4770186994926</v>
+        <v>84.7906706279331</v>
       </c>
       <c r="N33">
-        <v>147.60265141155</v>
+        <v>164.269066801513</v>
       </c>
       <c r="O33">
-        <v>9422.058157180019</v>
+        <v>9740.37529484794</v>
       </c>
       <c r="P33">
-        <v>67.2400518470176</v>
+        <v>52.7327967489287</v>
       </c>
     </row>
     <row r="34">
@@ -2110,49 +2110,49 @@
         </is>
       </c>
       <c r="B34">
-        <v>859.51014528027</v>
+        <v>678.910355228237</v>
       </c>
       <c r="C34">
-        <v>100.003576496428</v>
+        <v>99.5775348327153</v>
       </c>
       <c r="D34">
-        <v>199.617410541209</v>
+        <v>211.684421480336</v>
       </c>
       <c r="E34">
-        <v>75.7878674283493</v>
+        <v>68.32937937884471</v>
       </c>
       <c r="F34">
-        <v>0.605713911918682</v>
+        <v>0.60795336510078</v>
       </c>
       <c r="G34">
-        <v>72.56981456969911</v>
+        <v>81.2031518210738</v>
       </c>
       <c r="H34">
-        <v>51.1319078295336</v>
+        <v>61.0135629757347</v>
       </c>
       <c r="I34">
-        <v>29.8762705615939</v>
+        <v>32.2099247194291</v>
       </c>
       <c r="J34">
-        <v>44.0276955951904</v>
+        <v>48.3613987108555</v>
       </c>
       <c r="K34">
-        <v>46.4812995698513</v>
+        <v>70.46176466045949</v>
       </c>
       <c r="L34">
-        <v>107.478728815899</v>
+        <v>130.928810318581</v>
       </c>
       <c r="M34">
-        <v>55.8319768494088</v>
+        <v>55.9452229280343</v>
       </c>
       <c r="N34">
-        <v>156.99580861272</v>
+        <v>164.893918202282</v>
       </c>
       <c r="O34">
-        <v>4061.30007638895</v>
+        <v>4174.14856649686</v>
       </c>
       <c r="P34">
-        <v>85.25930523091201</v>
+        <v>79.2794822806262</v>
       </c>
     </row>
     <row r="35">
@@ -2162,49 +2162,49 @@
         </is>
       </c>
       <c r="B35">
-        <v>47.053522193301</v>
+        <v>39.5012926231378</v>
       </c>
       <c r="C35">
-        <v>9.45203227570109</v>
+        <v>8.41635518008839</v>
       </c>
       <c r="D35">
-        <v>0.921010389141051</v>
+        <v>0.906799448790246</v>
       </c>
       <c r="E35">
-        <v>3.56956329423234</v>
+        <v>4.03698223417337</v>
       </c>
       <c r="F35">
-        <v>6.70637329222792</v>
+        <v>6.55345473270125</v>
       </c>
       <c r="G35">
-        <v>0.504262081479703</v>
+        <v>0.450546303246278</v>
       </c>
       <c r="H35">
-        <v>0.449881147789228</v>
+        <v>0.636635825585862</v>
       </c>
       <c r="I35">
-        <v>0.742158529084859</v>
+        <v>0.929142591007683</v>
       </c>
       <c r="J35">
-        <v>1.91580450863475</v>
+        <v>1.77241195689654</v>
       </c>
       <c r="K35">
-        <v>5.8840839513805</v>
+        <v>7.42370391693804</v>
       </c>
       <c r="L35">
-        <v>2.49928960819939</v>
+        <v>2.67883460640835</v>
       </c>
       <c r="M35">
-        <v>2.5869404103091</v>
+        <v>2.73030079278479</v>
       </c>
       <c r="N35">
-        <v>3.0180080419779</v>
+        <v>3.02979201485946</v>
       </c>
       <c r="O35">
-        <v>359.998481717998</v>
+        <v>394.343369863819</v>
       </c>
       <c r="P35">
-        <v>61.6376352118837</v>
+        <v>54.8253826185983</v>
       </c>
     </row>
     <row r="36">
@@ -2214,49 +2214,49 @@
         </is>
       </c>
       <c r="B36">
-        <v>1097.84253972186</v>
+        <v>860.167494295279</v>
       </c>
       <c r="C36">
-        <v>85.50102323580511</v>
+        <v>83.2757460607609</v>
       </c>
       <c r="D36">
-        <v>20.9101181111856</v>
+        <v>21.1028910800527</v>
       </c>
       <c r="E36">
-        <v>123.899868880105</v>
+        <v>95.2513832451958</v>
       </c>
       <c r="F36">
-        <v>26.1751809893335</v>
+        <v>36.9544077575786</v>
       </c>
       <c r="G36">
-        <v>91.23896778024169</v>
+        <v>116.549312153801</v>
       </c>
       <c r="H36">
-        <v>117.318630487227</v>
+        <v>124.324016421764</v>
       </c>
       <c r="I36">
-        <v>61.6508902846397</v>
+        <v>54.6540767767619</v>
       </c>
       <c r="J36">
-        <v>256.403485110235</v>
+        <v>254.634995941457</v>
       </c>
       <c r="K36">
-        <v>86.6719852648458</v>
+        <v>113.696064573017</v>
       </c>
       <c r="L36">
-        <v>105.908683478568</v>
+        <v>114.357631290602</v>
       </c>
       <c r="M36">
-        <v>280.150149799549</v>
+        <v>267.662885096568</v>
       </c>
       <c r="N36">
-        <v>109.295721577811</v>
+        <v>118.437162231212</v>
       </c>
       <c r="O36">
-        <v>5363.43257447463</v>
+        <v>5583.63944094106</v>
       </c>
       <c r="P36">
-        <v>58.5810002306972</v>
+        <v>51.307598140617</v>
       </c>
     </row>
     <row r="37">
@@ -2266,49 +2266,49 @@
         </is>
       </c>
       <c r="B37">
-        <v>356.351389210349</v>
+        <v>277.567789750571</v>
       </c>
       <c r="C37">
-        <v>24.790941140485</v>
+        <v>22.3339626264913</v>
       </c>
       <c r="D37">
-        <v>5.83666759744641</v>
+        <v>6.33948264818888</v>
       </c>
       <c r="E37">
-        <v>17.9297313365103</v>
+        <v>16.5559761600634</v>
       </c>
       <c r="F37">
-        <v>51.8927038872927</v>
+        <v>53.3834178800444</v>
       </c>
       <c r="G37">
-        <v>6.45602686061664</v>
+        <v>7.6350023050243</v>
       </c>
       <c r="H37">
-        <v>25.5490066531524</v>
+        <v>27.2687973351764</v>
       </c>
       <c r="I37">
-        <v>9.321379148927919</v>
+        <v>12.1231141689043</v>
       </c>
       <c r="J37">
-        <v>37.2336249044638</v>
+        <v>38.3129418376836</v>
       </c>
       <c r="K37">
-        <v>44.7998117124845</v>
+        <v>52.02950024111</v>
       </c>
       <c r="L37">
-        <v>23.9520889004277</v>
+        <v>26.1824000800926</v>
       </c>
       <c r="M37">
-        <v>33.4530800268183</v>
+        <v>32.4756311683936</v>
       </c>
       <c r="N37">
-        <v>19.9790027588952</v>
+        <v>23.1752022096736</v>
       </c>
       <c r="O37">
-        <v>1682.52928923014</v>
+        <v>1727.09786811932</v>
       </c>
       <c r="P37">
-        <v>51.0283075688392</v>
+        <v>50.0419954259735</v>
       </c>
     </row>
     <row r="38">
@@ -2318,49 +2318,49 @@
         </is>
       </c>
       <c r="B38">
-        <v>345.794921112076</v>
+        <v>292.656853920393</v>
       </c>
       <c r="C38">
-        <v>32.6153978420117</v>
+        <v>30.5699863915821</v>
       </c>
       <c r="D38">
-        <v>14.9381729920449</v>
+        <v>18.8444333653622</v>
       </c>
       <c r="E38">
-        <v>57.527801205094</v>
+        <v>51.7172963808299</v>
       </c>
       <c r="F38">
-        <v>1.42906827238687</v>
+        <v>1.2826168081679</v>
       </c>
       <c r="G38">
-        <v>8.24142150836696</v>
+        <v>9.445116137308361</v>
       </c>
       <c r="H38">
-        <v>7.19019436895167</v>
+        <v>8.47605773661247</v>
       </c>
       <c r="I38">
-        <v>3.5107395478954</v>
+        <v>3.6113447707363</v>
       </c>
       <c r="J38">
-        <v>46.6198622380121</v>
+        <v>48.4569650337706</v>
       </c>
       <c r="K38">
-        <v>18.1152136681408</v>
+        <v>20.6230352918783</v>
       </c>
       <c r="L38">
-        <v>86.71231306559871</v>
+        <v>96.8131326738086</v>
       </c>
       <c r="M38">
-        <v>24.2929390633628</v>
+        <v>27.0144990151018</v>
       </c>
       <c r="N38">
-        <v>22.53717404845</v>
+        <v>25.0708440871366</v>
       </c>
       <c r="O38">
-        <v>1826.02073528566</v>
+        <v>1858.52932645331</v>
       </c>
       <c r="P38">
-        <v>90.5123923197467</v>
+        <v>77.8521237502509</v>
       </c>
     </row>
     <row r="39">
@@ -2370,49 +2370,49 @@
         </is>
       </c>
       <c r="B39">
-        <v>1211.5862807127</v>
+        <v>951.624444761831</v>
       </c>
       <c r="C39">
-        <v>108.727550354344</v>
+        <v>124.989795514391</v>
       </c>
       <c r="D39">
-        <v>73.3832169835037</v>
+        <v>64.1706779662139</v>
       </c>
       <c r="E39">
-        <v>109.073355022264</v>
+        <v>81.9286144712803</v>
       </c>
       <c r="F39">
-        <v>30.9759982434395</v>
+        <v>24.2040488892594</v>
       </c>
       <c r="G39">
-        <v>107.309890682542</v>
+        <v>133.630313821359</v>
       </c>
       <c r="H39">
-        <v>54.2300039221648</v>
+        <v>49.2319391537784</v>
       </c>
       <c r="I39">
-        <v>55.5425305133378</v>
+        <v>55.6278227908322</v>
       </c>
       <c r="J39">
-        <v>209.645378505348</v>
+        <v>192.926854037234</v>
       </c>
       <c r="K39">
-        <v>98.29358668998449</v>
+        <v>127.842469676926</v>
       </c>
       <c r="L39">
-        <v>104.085081911112</v>
+        <v>114.317788569306</v>
       </c>
       <c r="M39">
-        <v>88.9306100074262</v>
+        <v>92.4936157062932</v>
       </c>
       <c r="N39">
-        <v>120.270912047158</v>
+        <v>127.629302480185</v>
       </c>
       <c r="O39">
-        <v>6206.30582437875</v>
+        <v>6446.61055697964</v>
       </c>
       <c r="P39">
-        <v>76.26399921503619</v>
+        <v>60.0852468268615</v>
       </c>
     </row>
     <row r="40">
@@ -2422,49 +2422,49 @@
         </is>
       </c>
       <c r="B40">
-        <v>93.6330965366752</v>
+        <v>80.4299417644</v>
       </c>
       <c r="C40">
-        <v>4.09252437045303</v>
+        <v>3.88520950564977</v>
       </c>
       <c r="D40">
-        <v>11.5893605361993</v>
+        <v>11.6972930261425</v>
       </c>
       <c r="E40">
-        <v>9.16263396583043</v>
+        <v>7.46335116263246</v>
       </c>
       <c r="F40">
-        <v>0.131109116968655</v>
+        <v>0.243524696013677</v>
       </c>
       <c r="G40">
-        <v>6.20293108935589</v>
+        <v>7.49864606699014</v>
       </c>
       <c r="H40">
-        <v>6.06017055734645</v>
+        <v>8.41493957238222</v>
       </c>
       <c r="I40">
-        <v>2.07818966184609</v>
+        <v>1.80154347827629</v>
       </c>
       <c r="J40">
-        <v>18.1593929722739</v>
+        <v>18.1915055111591</v>
       </c>
       <c r="K40">
-        <v>4.82159133553325</v>
+        <v>9.12945520898062</v>
       </c>
       <c r="L40">
-        <v>18.8945555283404</v>
+        <v>18.6374068486552</v>
       </c>
       <c r="M40">
-        <v>8.07180331200224</v>
+        <v>9.220435598716289</v>
       </c>
       <c r="N40">
-        <v>32.9756355511148</v>
+        <v>36.7371326672498</v>
       </c>
       <c r="O40">
-        <v>589.449611593679</v>
+        <v>627.303103843591</v>
       </c>
       <c r="P40">
-        <v>2.46463357387253</v>
+        <v>2.30499749912246</v>
       </c>
     </row>
     <row r="41">
@@ -2474,49 +2474,49 @@
         </is>
       </c>
       <c r="B41">
-        <v>455.42324249103</v>
+        <v>367.999150689146</v>
       </c>
       <c r="C41">
-        <v>16.2494592282055</v>
+        <v>12.7075450915607</v>
       </c>
       <c r="D41">
-        <v>96.29213886573319</v>
+        <v>103.319307675386</v>
       </c>
       <c r="E41">
-        <v>57.9373969870158</v>
+        <v>56.1994024529983</v>
       </c>
       <c r="F41">
-        <v>2.04115512587413</v>
+        <v>2.0347469521546</v>
       </c>
       <c r="G41">
-        <v>41.4635221619735</v>
+        <v>59.6812606062693</v>
       </c>
       <c r="H41">
-        <v>51.7666557174091</v>
+        <v>62.489184582669</v>
       </c>
       <c r="I41">
-        <v>10.5023138626563</v>
+        <v>12.2954759028611</v>
       </c>
       <c r="J41">
-        <v>63.116877791667</v>
+        <v>71.3846456643999</v>
       </c>
       <c r="K41">
-        <v>28.5220178173868</v>
+        <v>38.7519755723499</v>
       </c>
       <c r="L41">
-        <v>36.0255189110658</v>
+        <v>36.6296667621322</v>
       </c>
       <c r="M41">
-        <v>51.0393929771369</v>
+        <v>53.6014353250745</v>
       </c>
       <c r="N41">
-        <v>26.4971028024159</v>
+        <v>27.340338711616</v>
       </c>
       <c r="O41">
-        <v>2000.169235195</v>
+        <v>2034.26221502066</v>
       </c>
       <c r="P41">
-        <v>23.6655933348562</v>
+        <v>22.044108442904</v>
       </c>
     </row>
     <row r="42">
@@ -2526,49 +2526,49 @@
         </is>
       </c>
       <c r="B42">
-        <v>52.3370629644245</v>
+        <v>46.9907568801762</v>
       </c>
       <c r="C42">
-        <v>12.2791978741352</v>
+        <v>12.6526786419721</v>
       </c>
       <c r="D42">
-        <v>0.390919682460454</v>
+        <v>0.50576352271537</v>
       </c>
       <c r="E42">
-        <v>10.2724746555336</v>
+        <v>9.655865032964771</v>
       </c>
       <c r="F42">
-        <v>3.52028398807514</v>
+        <v>3.57888415663814</v>
       </c>
       <c r="G42">
-        <v>1.28642693850865</v>
+        <v>1.60460795908921</v>
       </c>
       <c r="H42">
-        <v>2.23016919399614</v>
+        <v>2.38042496809899</v>
       </c>
       <c r="I42">
-        <v>3.33653348259058</v>
+        <v>2.54314137477799</v>
       </c>
       <c r="J42">
-        <v>6.20257197630188</v>
+        <v>6.67215968977991</v>
       </c>
       <c r="K42">
-        <v>5.44218320268842</v>
+        <v>7.78905554460848</v>
       </c>
       <c r="L42">
-        <v>8.04928753836893</v>
+        <v>10.2795339658755</v>
       </c>
       <c r="M42">
-        <v>3.60920768432126</v>
+        <v>4.22930758107403</v>
       </c>
       <c r="N42">
-        <v>10.2206695506291</v>
+        <v>11.7371987604067</v>
       </c>
       <c r="O42">
-        <v>468.018983741609</v>
+        <v>523.343314303707</v>
       </c>
       <c r="P42">
-        <v>61.3180889016759</v>
+        <v>56.0856465989531</v>
       </c>
     </row>
     <row r="43">
@@ -2578,49 +2578,49 @@
         </is>
       </c>
       <c r="B43">
-        <v>658.815772871922</v>
+        <v>504.320921083542</v>
       </c>
       <c r="C43">
-        <v>61.5591419492443</v>
+        <v>54.4780066622489</v>
       </c>
       <c r="D43">
-        <v>26.1696280041503</v>
+        <v>29.5445422882631</v>
       </c>
       <c r="E43">
-        <v>68.55935583677589</v>
+        <v>51.886034563656</v>
       </c>
       <c r="F43">
-        <v>9.444014809405569</v>
+        <v>13.41392273237</v>
       </c>
       <c r="G43">
-        <v>45.5132365998215</v>
+        <v>53.5330785640308</v>
       </c>
       <c r="H43">
-        <v>32.568376799515</v>
+        <v>30.3999310849086</v>
       </c>
       <c r="I43">
-        <v>23.436473378886</v>
+        <v>33.7997673570078</v>
       </c>
       <c r="J43">
-        <v>62.3185953368455</v>
+        <v>57.6817437615216</v>
       </c>
       <c r="K43">
-        <v>39.5824302522902</v>
+        <v>56.5999286942967</v>
       </c>
       <c r="L43">
-        <v>47.8181353065412</v>
+        <v>49.5129566001669</v>
       </c>
       <c r="M43">
-        <v>107.386186362438</v>
+        <v>101.760341632713</v>
       </c>
       <c r="N43">
-        <v>54.5823001531134</v>
+        <v>67.4759293607603</v>
       </c>
       <c r="O43">
-        <v>2901.90655584215</v>
+        <v>3016.27582760156</v>
       </c>
       <c r="P43">
-        <v>56.4282782586119</v>
+        <v>58.9064349966093</v>
       </c>
     </row>
     <row r="44">
@@ -2630,49 +2630,49 @@
         </is>
       </c>
       <c r="B44">
-        <v>2526.98385758244</v>
+        <v>2019.85886888662</v>
       </c>
       <c r="C44">
-        <v>138.558568433765</v>
+        <v>165.821387009007</v>
       </c>
       <c r="D44">
-        <v>51.3137025026832</v>
+        <v>54.0372624964697</v>
       </c>
       <c r="E44">
-        <v>107.574243265209</v>
+        <v>93.7916447662103</v>
       </c>
       <c r="F44">
-        <v>282.753516484348</v>
+        <v>320.035664034155</v>
       </c>
       <c r="G44">
-        <v>120.318089336092</v>
+        <v>151.502517342151</v>
       </c>
       <c r="H44">
-        <v>45.3505822619391</v>
+        <v>45.6834429450192</v>
       </c>
       <c r="I44">
-        <v>53.3216340943563</v>
+        <v>60.7967901433027</v>
       </c>
       <c r="J44">
-        <v>135.742901729198</v>
+        <v>141.790729985102</v>
       </c>
       <c r="K44">
-        <v>73.6485062745827</v>
+        <v>91.451194643413</v>
       </c>
       <c r="L44">
-        <v>226.441343017629</v>
+        <v>246.731401114046</v>
       </c>
       <c r="M44">
-        <v>128.218970571671</v>
+        <v>127.834139880153</v>
       </c>
       <c r="N44">
-        <v>125.255629906885</v>
+        <v>122.804708045133</v>
       </c>
       <c r="O44">
-        <v>10105.9062959926</v>
+        <v>10290.8837695492</v>
       </c>
       <c r="P44">
-        <v>223.703007939615</v>
+        <v>238.980749223104</v>
       </c>
     </row>
     <row r="45">
@@ -2682,49 +2682,49 @@
         </is>
       </c>
       <c r="B45">
-        <v>260.651052494133</v>
+        <v>216.632023796615</v>
       </c>
       <c r="C45">
-        <v>20.9824568574798</v>
+        <v>18.720487103971</v>
       </c>
       <c r="D45">
-        <v>4.31952407955594</v>
+        <v>4.85365637258972</v>
       </c>
       <c r="E45">
-        <v>13.7741575232837</v>
+        <v>10.1700600372768</v>
       </c>
       <c r="F45">
-        <v>23.72692384377</v>
+        <v>26.5815034735917</v>
       </c>
       <c r="G45">
-        <v>13.7796225312271</v>
+        <v>14.239327380108</v>
       </c>
       <c r="H45">
-        <v>2.61439443089022</v>
+        <v>3.63749607771204</v>
       </c>
       <c r="I45">
-        <v>3.84361716185862</v>
+        <v>3.69809542685647</v>
       </c>
       <c r="J45">
-        <v>16.561006759903</v>
+        <v>16.9157548701761</v>
       </c>
       <c r="K45">
-        <v>5.39150129517295</v>
+        <v>7.60408449008963</v>
       </c>
       <c r="L45">
-        <v>19.813934340013</v>
+        <v>21.6734003360106</v>
       </c>
       <c r="M45">
-        <v>22.9526605759941</v>
+        <v>23.912366606428</v>
       </c>
       <c r="N45">
-        <v>27.9330203981875</v>
+        <v>29.0690879375362</v>
       </c>
       <c r="O45">
-        <v>1049.58387862406</v>
+        <v>1089.47102648124</v>
       </c>
       <c r="P45">
-        <v>19.6121598422304</v>
+        <v>16.1284812176925</v>
       </c>
     </row>
     <row r="46">
@@ -2734,49 +2734,49 @@
         </is>
       </c>
       <c r="B46">
-        <v>45.0374736658843</v>
+        <v>41.0903252026519</v>
       </c>
       <c r="C46">
-        <v>6.36740513344287</v>
+        <v>6.38632601244976</v>
       </c>
       <c r="D46">
-        <v>1.2313744246458</v>
+        <v>1.32598125583327</v>
       </c>
       <c r="E46">
-        <v>7.9302065037056</v>
+        <v>7.26016410562222</v>
       </c>
       <c r="F46">
-        <v>1.49143429788592</v>
+        <v>1.45808792702313</v>
       </c>
       <c r="G46">
-        <v>2.03949829415597</v>
+        <v>2.17399073467312</v>
       </c>
       <c r="H46">
-        <v>3.00516958753604</v>
+        <v>4.28283814041838</v>
       </c>
       <c r="I46">
-        <v>1.99748043786137</v>
+        <v>2.23231074411405</v>
       </c>
       <c r="J46">
-        <v>6.79451581896022</v>
+        <v>6.79023758382121</v>
       </c>
       <c r="K46">
-        <v>4.13323536616872</v>
+        <v>5.08223460607406</v>
       </c>
       <c r="L46">
-        <v>16.3424733248195</v>
+        <v>20.5459723753317</v>
       </c>
       <c r="M46">
-        <v>5.94593722594165</v>
+        <v>6.51893449144712</v>
       </c>
       <c r="N46">
-        <v>6.867926236552</v>
+        <v>7.43031235271891</v>
       </c>
       <c r="O46">
-        <v>386.842170550685</v>
+        <v>420.553389674693</v>
       </c>
       <c r="P46">
-        <v>15.3085447714669</v>
+        <v>13.0401971591326</v>
       </c>
     </row>
     <row r="47">
@@ -2786,49 +2786,49 @@
         </is>
       </c>
       <c r="B47">
-        <v>651.9088752829611</v>
+        <v>508.445137339361</v>
       </c>
       <c r="C47">
-        <v>63.1882090495089</v>
+        <v>67.6608863824528</v>
       </c>
       <c r="D47">
-        <v>36.5247609673351</v>
+        <v>32.3034530663893</v>
       </c>
       <c r="E47">
-        <v>57.751924979305</v>
+        <v>45.3959387394826</v>
       </c>
       <c r="F47">
-        <v>16.2981488501169</v>
+        <v>14.4507205890221</v>
       </c>
       <c r="G47">
-        <v>18.5865013208223</v>
+        <v>23.0678893024134</v>
       </c>
       <c r="H47">
-        <v>17.4332001633914</v>
+        <v>18.708855713479</v>
       </c>
       <c r="I47">
-        <v>11.8564345579662</v>
+        <v>13.7731150171342</v>
       </c>
       <c r="J47">
-        <v>36.8749021721204</v>
+        <v>49.8556494495384</v>
       </c>
       <c r="K47">
-        <v>11.1862225444995</v>
+        <v>11.7730213722073</v>
       </c>
       <c r="L47">
-        <v>45.5831937474784</v>
+        <v>52.4863465647959</v>
       </c>
       <c r="M47">
-        <v>70.0643062170997</v>
+        <v>74.5426047659906</v>
       </c>
       <c r="N47">
-        <v>28.705124365717</v>
+        <v>27.965723339086</v>
       </c>
       <c r="O47">
-        <v>3703.49609757024</v>
+        <v>3845.07298122684</v>
       </c>
       <c r="P47">
-        <v>54.9956798199382</v>
+        <v>44.4250625007206</v>
       </c>
     </row>
     <row r="48">
@@ -2838,49 +2838,49 @@
         </is>
       </c>
       <c r="B48">
-        <v>664.023884371328</v>
+        <v>545.203306013843</v>
       </c>
       <c r="C48">
-        <v>28.9249123964272</v>
+        <v>21.7594302030658</v>
       </c>
       <c r="D48">
-        <v>9.28871385407431</v>
+        <v>12.0171992404417</v>
       </c>
       <c r="E48">
-        <v>57.7809147471083</v>
+        <v>61.5775546925598</v>
       </c>
       <c r="F48">
-        <v>6.99207930022868</v>
+        <v>9.253530449406719</v>
       </c>
       <c r="G48">
-        <v>3.99451643788185</v>
+        <v>5.4001246935215</v>
       </c>
       <c r="H48">
-        <v>6.12771756162436</v>
+        <v>5.94510711144787</v>
       </c>
       <c r="I48">
-        <v>13.6801000101665</v>
+        <v>18.125416795674</v>
       </c>
       <c r="J48">
-        <v>37.220244490979</v>
+        <v>33.5637515798651</v>
       </c>
       <c r="K48">
-        <v>12.9735079826133</v>
+        <v>16.0964934646113</v>
       </c>
       <c r="L48">
-        <v>48.035275448219</v>
+        <v>47.4657683567481</v>
       </c>
       <c r="M48">
-        <v>142.73651038508</v>
+        <v>177.448201085838</v>
       </c>
       <c r="N48">
-        <v>34.061818262503</v>
+        <v>30.4795170487825</v>
       </c>
       <c r="O48">
-        <v>3059.46573504861</v>
+        <v>3133.91816134233</v>
       </c>
       <c r="P48">
-        <v>104.863654477618</v>
+        <v>88.9524980398958</v>
       </c>
     </row>
     <row r="49">
@@ -2890,49 +2890,49 @@
         </is>
       </c>
       <c r="B49">
-        <v>333.119052013386</v>
+        <v>254.412437906208</v>
       </c>
       <c r="C49">
-        <v>8.12747510380539</v>
+        <v>7.64054873566316</v>
       </c>
       <c r="D49">
-        <v>0.921039534789086</v>
+        <v>1.61451439813692</v>
       </c>
       <c r="E49">
-        <v>20.9795720418115</v>
+        <v>21.2671696159207</v>
       </c>
       <c r="F49">
-        <v>48.1994603757351</v>
+        <v>55.9660206927161</v>
       </c>
       <c r="G49">
-        <v>22.0173335394754</v>
+        <v>27.7720003635725</v>
       </c>
       <c r="H49">
-        <v>9.20427415895268</v>
+        <v>8.279703587333911</v>
       </c>
       <c r="I49">
-        <v>6.306118039525</v>
+        <v>6.95905116211938</v>
       </c>
       <c r="J49">
-        <v>31.4186261240465</v>
+        <v>34.1860760481373</v>
       </c>
       <c r="K49">
-        <v>8.87483736139294</v>
+        <v>10.4368893711482</v>
       </c>
       <c r="L49">
-        <v>2.93465955822488</v>
+        <v>3.65071650038934</v>
       </c>
       <c r="M49">
-        <v>5.22008541068517</v>
+        <v>5.61274021343345</v>
       </c>
       <c r="N49">
-        <v>3.74614957951765</v>
+        <v>3.82752299842596</v>
       </c>
       <c r="O49">
-        <v>957.384182411015</v>
+        <v>1021.6924162455</v>
       </c>
       <c r="P49">
-        <v>19.7292535782401</v>
+        <v>16.3561668499145</v>
       </c>
     </row>
     <row r="50">
@@ -2942,49 +2942,49 @@
         </is>
       </c>
       <c r="B50">
-        <v>390.826081750628</v>
+        <v>332.290330053567</v>
       </c>
       <c r="C50">
-        <v>83.032977177487</v>
+        <v>84.47077404930771</v>
       </c>
       <c r="D50">
-        <v>11.6629813425678</v>
+        <v>12.4486512927519</v>
       </c>
       <c r="E50">
-        <v>149.573214843015</v>
+        <v>124.391214321415</v>
       </c>
       <c r="F50">
-        <v>4.90067955460752</v>
+        <v>3.52192783463591</v>
       </c>
       <c r="G50">
-        <v>27.5712530723358</v>
+        <v>38.4171117616513</v>
       </c>
       <c r="H50">
-        <v>51.889584365402</v>
+        <v>45.9425038664005</v>
       </c>
       <c r="I50">
-        <v>21.7494655763896</v>
+        <v>20.6244677033483</v>
       </c>
       <c r="J50">
-        <v>130.673120227737</v>
+        <v>124.174635340014</v>
       </c>
       <c r="K50">
-        <v>74.3597199535115</v>
+        <v>85.1511462539787</v>
       </c>
       <c r="L50">
-        <v>75.0296522858866</v>
+        <v>91.3959337069544</v>
       </c>
       <c r="M50">
-        <v>43.279897380498</v>
+        <v>33.7836686442469</v>
       </c>
       <c r="N50">
-        <v>73.56234365964811</v>
+        <v>81.62934676199239</v>
       </c>
       <c r="O50">
-        <v>2546.35734941309</v>
+        <v>2661.12233643743</v>
       </c>
       <c r="P50">
-        <v>99.24853095941541</v>
+        <v>69.23221983468299</v>
       </c>
     </row>
     <row r="51">
@@ -2994,49 +2994,49 @@
         </is>
       </c>
       <c r="B51">
-        <v>55.2605959085942</v>
+        <v>50.3210259933871</v>
       </c>
       <c r="C51">
-        <v>0.938548920420025</v>
+        <v>1.02378627304775</v>
       </c>
       <c r="D51">
-        <v>0.226762237568546</v>
+        <v>0.255607394443341</v>
       </c>
       <c r="E51">
-        <v>2.5218782819841</v>
+        <v>2.25974776055695</v>
       </c>
       <c r="F51">
-        <v>48.1570441028081</v>
+        <v>55.7819968107485</v>
       </c>
       <c r="G51">
-        <v>4.26312328252448</v>
+        <v>3.98286259703196</v>
       </c>
       <c r="H51">
-        <v>0.334041413413423</v>
+        <v>0.367243738810063</v>
       </c>
       <c r="I51">
-        <v>0.607476370482647</v>
+        <v>0.695901701556</v>
       </c>
       <c r="J51">
-        <v>2.07625969952544</v>
+        <v>2.6387790395488</v>
       </c>
       <c r="K51">
-        <v>0.752805720346129</v>
+        <v>1.07439355797119</v>
       </c>
       <c r="L51">
-        <v>0.348680931044719</v>
+        <v>0.399845859428363</v>
       </c>
       <c r="M51">
-        <v>0.355273291727706</v>
+        <v>0.422322466768714</v>
       </c>
       <c r="N51">
-        <v>1.3951466315003</v>
+        <v>1.46050646512529</v>
       </c>
       <c r="O51">
-        <v>355.745416537265</v>
+        <v>399.319549126546</v>
       </c>
       <c r="P51">
-        <v>22.111552976565</v>
+        <v>22.9702415868967</v>
       </c>
     </row>
     <row r="52">

--- a/1-Data-Codes/2-Final_Data/L_2007.xlsx
+++ b/1-Data-Codes/2-Final_Data/L_2007.xlsx
@@ -446,49 +446,49 @@
         </is>
       </c>
       <c r="B2">
-        <v>391.15184007825</v>
+        <v>931.479073216158</v>
       </c>
       <c r="C2">
-        <v>47.6503685881347</v>
+        <v>38.1893020453717</v>
       </c>
       <c r="D2">
-        <v>69.4689995061061</v>
+        <v>56.8147571654472</v>
       </c>
       <c r="E2">
-        <v>94.32472991211451</v>
+        <v>66.7081284777485</v>
       </c>
       <c r="F2">
-        <v>30.4348437230216</v>
+        <v>21.8979256231619</v>
       </c>
       <c r="G2">
-        <v>23.5798954743697</v>
+        <v>18.7639698282113</v>
       </c>
       <c r="H2">
-        <v>35.6027770839898</v>
+        <v>30.0448793889149</v>
       </c>
       <c r="I2">
-        <v>27.6724633009792</v>
+        <v>22.8003565968986</v>
       </c>
       <c r="J2">
-        <v>87.6587287852535</v>
+        <v>68.0937126968587</v>
       </c>
       <c r="K2">
-        <v>28.3719828410157</v>
+        <v>22.6675074372981</v>
       </c>
       <c r="L2">
-        <v>36.9651551333367</v>
+        <v>32.831203534018</v>
       </c>
       <c r="M2">
-        <v>63.3763179413579</v>
+        <v>50.0086869756226</v>
       </c>
       <c r="N2">
-        <v>29.0974293416234</v>
+        <v>23.1979620555359</v>
       </c>
       <c r="O2">
-        <v>2203.27074116547</v>
+        <v>1792.41962791807</v>
       </c>
       <c r="P2">
-        <v>37.577774155817</v>
+        <v>32.5829248014842</v>
       </c>
     </row>
     <row r="3">
@@ -498,49 +498,49 @@
         </is>
       </c>
       <c r="B3">
-        <v>86.0788756777532</v>
+        <v>137.958338264283</v>
       </c>
       <c r="C3">
-        <v>3.27531470804357</v>
+        <v>2.77412344730212</v>
       </c>
       <c r="D3">
-        <v>0.18629948396659</v>
+        <v>0.163313584825761</v>
       </c>
       <c r="E3">
-        <v>0.992117689889467</v>
+        <v>0.8275335704150451</v>
       </c>
       <c r="F3">
-        <v>16.8503290300585</v>
+        <v>14.5746439322621</v>
       </c>
       <c r="G3">
-        <v>0.213723262385131</v>
+        <v>0.188310493336615</v>
       </c>
       <c r="H3">
-        <v>0.0370664682391465</v>
+        <v>0.0938502068761852</v>
       </c>
       <c r="I3">
-        <v>0.298920428831701</v>
+        <v>0.263029849304305</v>
       </c>
       <c r="J3">
-        <v>0.157529052032121</v>
+        <v>0.258462995541885</v>
       </c>
       <c r="K3">
-        <v>0.07997753829318061</v>
+        <v>0.0702157263967243</v>
       </c>
       <c r="L3">
-        <v>0.0453457144718539</v>
+        <v>0.0398006651518407</v>
       </c>
       <c r="M3">
-        <v>0.382387698947798</v>
+        <v>0.346037007745166</v>
       </c>
       <c r="N3">
-        <v>0.983881189345473</v>
+        <v>0.999619382337953</v>
       </c>
       <c r="O3">
-        <v>419.322429193307</v>
+        <v>370.809298391073</v>
       </c>
       <c r="P3">
-        <v>10.8291613702172</v>
+        <v>9.52017229861119</v>
       </c>
     </row>
     <row r="4">
@@ -550,49 +550,49 @@
         </is>
       </c>
       <c r="B4">
-        <v>514.20041434335</v>
+        <v>995.397705913456</v>
       </c>
       <c r="C4">
-        <v>16.4788416588901</v>
+        <v>14.2691639430491</v>
       </c>
       <c r="D4">
-        <v>6.07275761036186</v>
+        <v>5.17326734479645</v>
       </c>
       <c r="E4">
-        <v>12.8860028511257</v>
+        <v>11.1398485096353</v>
       </c>
       <c r="F4">
-        <v>6.50173095497949</v>
+        <v>5.62361719127633</v>
       </c>
       <c r="G4">
-        <v>9.926076171078609</v>
+        <v>8.382888528222701</v>
       </c>
       <c r="H4">
-        <v>11.2681248681047</v>
+        <v>9.205760393091859</v>
       </c>
       <c r="I4">
-        <v>15.3524180310285</v>
+        <v>14.1378894010933</v>
       </c>
       <c r="J4">
-        <v>41.6525056293263</v>
+        <v>33.9429642164824</v>
       </c>
       <c r="K4">
-        <v>10.7911128781141</v>
+        <v>9.378466850050391</v>
       </c>
       <c r="L4">
-        <v>104.190641158641</v>
+        <v>84.95849712767119</v>
       </c>
       <c r="M4">
-        <v>60.1638982442512</v>
+        <v>49.6951421024309</v>
       </c>
       <c r="N4">
-        <v>41.9496742756816</v>
+        <v>36.3106945704082</v>
       </c>
       <c r="O4">
-        <v>2947.68992634202</v>
+        <v>2535.12267813091</v>
       </c>
       <c r="P4">
-        <v>33.0138939821174</v>
+        <v>27.1536624232292</v>
       </c>
     </row>
     <row r="5">
@@ -602,49 +602,49 @@
         </is>
       </c>
       <c r="B5">
-        <v>237.525052507431</v>
+        <v>583.093147594543</v>
       </c>
       <c r="C5">
-        <v>89.4592775789873</v>
+        <v>72.336942824223</v>
       </c>
       <c r="D5">
-        <v>18.0718145211837</v>
+        <v>12.8987122802055</v>
       </c>
       <c r="E5">
-        <v>44.5234885130874</v>
+        <v>34.5505937966483</v>
       </c>
       <c r="F5">
-        <v>4.95846614372472</v>
+        <v>5.05519496809654</v>
       </c>
       <c r="G5">
-        <v>9.380950876949649</v>
+        <v>7.58605881637507</v>
       </c>
       <c r="H5">
-        <v>19.4089668477189</v>
+        <v>15.828316809793</v>
       </c>
       <c r="I5">
-        <v>12.1518729416716</v>
+        <v>9.18859535569438</v>
       </c>
       <c r="J5">
-        <v>41.2811965164001</v>
+        <v>32.1236819584099</v>
       </c>
       <c r="K5">
-        <v>27.4860575256343</v>
+        <v>22.1073034770626</v>
       </c>
       <c r="L5">
-        <v>24.2375470399685</v>
+        <v>20.2401837788932</v>
       </c>
       <c r="M5">
-        <v>25.5084829746887</v>
+        <v>18.3890772544029</v>
       </c>
       <c r="N5">
-        <v>21.9689377252821</v>
+        <v>18.0797778703196</v>
       </c>
       <c r="O5">
-        <v>1306.95617793415</v>
+        <v>1044.27688232357</v>
       </c>
       <c r="P5">
-        <v>67.06899362069839</v>
+        <v>56.1952200770649</v>
       </c>
     </row>
     <row r="6">
@@ -654,49 +654,49 @@
         </is>
       </c>
       <c r="B6">
-        <v>3365.63830392411</v>
+        <v>5535.02556093534</v>
       </c>
       <c r="C6">
-        <v>182.117805054863</v>
+        <v>163.944465858673</v>
       </c>
       <c r="D6">
-        <v>155.417659097192</v>
+        <v>136.653920262299</v>
       </c>
       <c r="E6">
-        <v>145.951525091648</v>
+        <v>127.09409305603</v>
       </c>
       <c r="F6">
-        <v>33.3739879459347</v>
+        <v>30.4505661391645</v>
       </c>
       <c r="G6">
-        <v>123.604516347579</v>
+        <v>109.883733702453</v>
       </c>
       <c r="H6">
-        <v>71.34964953256529</v>
+        <v>61.4795157191535</v>
       </c>
       <c r="I6">
-        <v>57.3530829217419</v>
+        <v>50.7078835636216</v>
       </c>
       <c r="J6">
-        <v>195.923839018969</v>
+        <v>173.271048565458</v>
       </c>
       <c r="K6">
-        <v>114.327821461547</v>
+        <v>101.50114716374</v>
       </c>
       <c r="L6">
-        <v>564.565407526979</v>
+        <v>490.984395528126</v>
       </c>
       <c r="M6">
-        <v>347.875646111111</v>
+        <v>305.420962101214</v>
       </c>
       <c r="N6">
-        <v>309.502766595806</v>
+        <v>272.505674849885</v>
       </c>
       <c r="O6">
-        <v>16263.7898306067</v>
+        <v>14388.450927475</v>
       </c>
       <c r="P6">
-        <v>217.072570565434</v>
+        <v>194.591714041195</v>
       </c>
     </row>
     <row r="7">
@@ -706,49 +706,49 @@
         </is>
       </c>
       <c r="B7">
-        <v>323.610544305608</v>
+        <v>590.6621420676941</v>
       </c>
       <c r="C7">
-        <v>45.8536705828887</v>
+        <v>41.3755748806645</v>
       </c>
       <c r="D7">
-        <v>3.18627682076606</v>
+        <v>2.90930137252353</v>
       </c>
       <c r="E7">
-        <v>18.7361268083253</v>
+        <v>17.0766262210111</v>
       </c>
       <c r="F7">
-        <v>16.4170733791652</v>
+        <v>13.4953625328047</v>
       </c>
       <c r="G7">
-        <v>10.0291164843808</v>
+        <v>8.453113883631749</v>
       </c>
       <c r="H7">
-        <v>5.96772440955636</v>
+        <v>5.36289002015338</v>
       </c>
       <c r="I7">
-        <v>10.5237670306427</v>
+        <v>9.639210433261219</v>
       </c>
       <c r="J7">
-        <v>17.044489794034</v>
+        <v>15.818494683743</v>
       </c>
       <c r="K7">
-        <v>14.0679073006766</v>
+        <v>13.4792091350545</v>
       </c>
       <c r="L7">
-        <v>66.4334895047699</v>
+        <v>59.0540888841109</v>
       </c>
       <c r="M7">
-        <v>22.1687819867357</v>
+        <v>18.8913305194389</v>
       </c>
       <c r="N7">
-        <v>26.2019238288861</v>
+        <v>21.7759181965166</v>
       </c>
       <c r="O7">
-        <v>2355.82965168385</v>
+        <v>2118.11005921783</v>
       </c>
       <c r="P7">
-        <v>24.5789962820121</v>
+        <v>21.2394986741712</v>
       </c>
     </row>
     <row r="8">
@@ -758,49 +758,49 @@
         </is>
       </c>
       <c r="B8">
-        <v>234.483508898774</v>
+        <v>449.127156228101</v>
       </c>
       <c r="C8">
-        <v>13.403157330227</v>
+        <v>12.0442305546657</v>
       </c>
       <c r="D8">
-        <v>4.41445546270115</v>
+        <v>4.47416134419173</v>
       </c>
       <c r="E8">
-        <v>15.6751289911132</v>
+        <v>14.1014793024601</v>
       </c>
       <c r="F8">
-        <v>1.1915966168839</v>
+        <v>1.12590525170493</v>
       </c>
       <c r="G8">
-        <v>36.847317750499</v>
+        <v>32.7510516797636</v>
       </c>
       <c r="H8">
-        <v>13.3999141945667</v>
+        <v>12.065627674173</v>
       </c>
       <c r="I8">
-        <v>1.78296129129618</v>
+        <v>1.61073725033727</v>
       </c>
       <c r="J8">
-        <v>58.213002933662</v>
+        <v>52.4535340167393</v>
       </c>
       <c r="K8">
-        <v>28.3672594425287</v>
+        <v>23.8994872177768</v>
       </c>
       <c r="L8">
-        <v>48.8710192495182</v>
+        <v>43.2236010665235</v>
       </c>
       <c r="M8">
-        <v>79.62002836644579</v>
+        <v>69.0202302813526</v>
       </c>
       <c r="N8">
-        <v>28.5836942353541</v>
+        <v>24.9502483820733</v>
       </c>
       <c r="O8">
-        <v>1747.93128378312</v>
+        <v>1567.87935334814</v>
       </c>
       <c r="P8">
-        <v>5.28878280204492</v>
+        <v>5.22107750895556</v>
       </c>
     </row>
     <row r="9">
@@ -810,49 +810,49 @@
         </is>
       </c>
       <c r="B9">
-        <v>63.4027692596752</v>
+        <v>158.314202583385</v>
       </c>
       <c r="C9">
-        <v>13.2724863868696</v>
+        <v>11.1606542363752</v>
       </c>
       <c r="D9">
-        <v>1.69078105900315</v>
+        <v>1.17281256942513</v>
       </c>
       <c r="E9">
-        <v>6.40874080977281</v>
+        <v>5.58230815254267</v>
       </c>
       <c r="F9">
-        <v>2.02623978502266</v>
+        <v>1.62338132309982</v>
       </c>
       <c r="G9">
-        <v>34.980247501761</v>
+        <v>28.7360357364901</v>
       </c>
       <c r="H9">
-        <v>2.39622665482826</v>
+        <v>2.06367496987629</v>
       </c>
       <c r="I9">
-        <v>2.68266349203631</v>
+        <v>2.35545912284244</v>
       </c>
       <c r="J9">
-        <v>5.57773404824823</v>
+        <v>4.520792051903</v>
       </c>
       <c r="K9">
-        <v>5.48764249495018</v>
+        <v>4.28531915758544</v>
       </c>
       <c r="L9">
-        <v>5.75858801549359</v>
+        <v>4.76516205156902</v>
       </c>
       <c r="M9">
-        <v>11.2327308556131</v>
+        <v>9.01269016202666</v>
       </c>
       <c r="N9">
-        <v>8.31172531194964</v>
+        <v>7.11569719573939</v>
       </c>
       <c r="O9">
-        <v>568.59891648441</v>
+        <v>492.832425964527</v>
       </c>
       <c r="P9">
-        <v>9.29158591478706</v>
+        <v>8.02618705864503</v>
       </c>
     </row>
     <row r="10">
@@ -862,49 +862,49 @@
         </is>
       </c>
       <c r="B10">
-        <v>1393.08795426846</v>
+        <v>2924.85998467963</v>
       </c>
       <c r="C10">
-        <v>52.6661301627511</v>
+        <v>48.071897175212</v>
       </c>
       <c r="D10">
-        <v>18.3727338369141</v>
+        <v>15.6704050340616</v>
       </c>
       <c r="E10">
-        <v>51.9545965045651</v>
+        <v>44.8271284766105</v>
       </c>
       <c r="F10">
-        <v>13.0953690146321</v>
+        <v>11.3389751677041</v>
       </c>
       <c r="G10">
-        <v>29.2728368971099</v>
+        <v>25.6429274734343</v>
       </c>
       <c r="H10">
-        <v>17.0806723336009</v>
+        <v>15.1299070707446</v>
       </c>
       <c r="I10">
-        <v>36.5593861453084</v>
+        <v>32.1290276224008</v>
       </c>
       <c r="J10">
-        <v>57.4094457341917</v>
+        <v>47.3119575472819</v>
       </c>
       <c r="K10">
-        <v>21.3212858374139</v>
+        <v>18.1424376669803</v>
       </c>
       <c r="L10">
-        <v>116.613342103353</v>
+        <v>98.0495868747357</v>
       </c>
       <c r="M10">
-        <v>118.790432899188</v>
+        <v>99.7420639275079</v>
       </c>
       <c r="N10">
-        <v>117.079879394421</v>
+        <v>101.866950987766</v>
       </c>
       <c r="O10">
-        <v>10108.2873380849</v>
+        <v>8682.83211092206</v>
       </c>
       <c r="P10">
-        <v>64.41212392411831</v>
+        <v>60.9651142507558</v>
       </c>
     </row>
     <row r="11">
@@ -914,49 +914,49 @@
         </is>
       </c>
       <c r="B11">
-        <v>695.931586274092</v>
+        <v>1444.73851987216</v>
       </c>
       <c r="C11">
-        <v>67.572949823857</v>
+        <v>58.5982480853034</v>
       </c>
       <c r="D11">
-        <v>154.944528117787</v>
+        <v>130.537436930369</v>
       </c>
       <c r="E11">
-        <v>108.920333669971</v>
+        <v>90.28315434671031</v>
       </c>
       <c r="F11">
-        <v>6.81220616424354</v>
+        <v>5.87775056373055</v>
       </c>
       <c r="G11">
-        <v>35.0611764990306</v>
+        <v>29.0584495954339</v>
       </c>
       <c r="H11">
-        <v>25.0247666478728</v>
+        <v>21.7588411475649</v>
       </c>
       <c r="I11">
-        <v>20.2997320786899</v>
+        <v>17.4927287895015</v>
       </c>
       <c r="J11">
-        <v>68.5102102472446</v>
+        <v>58.0031402700134</v>
       </c>
       <c r="K11">
-        <v>34.2334962754806</v>
+        <v>28.69189574932</v>
       </c>
       <c r="L11">
-        <v>66.9906082952612</v>
+        <v>54.1473495750597</v>
       </c>
       <c r="M11">
-        <v>58.1114419091065</v>
+        <v>47.4259550814417</v>
       </c>
       <c r="N11">
-        <v>55.6132600750484</v>
+        <v>47.5871531185382</v>
       </c>
       <c r="O11">
-        <v>4467.14430149146</v>
+        <v>3834.23257391095</v>
       </c>
       <c r="P11">
-        <v>27.539683713772</v>
+        <v>22.7556017523912</v>
       </c>
     </row>
     <row r="12">
@@ -966,49 +966,49 @@
         </is>
       </c>
       <c r="B12">
-        <v>106.878908567577</v>
+        <v>214.910582550626</v>
       </c>
       <c r="C12">
-        <v>10.4988230217892</v>
+        <v>8.902804712207351</v>
       </c>
       <c r="D12">
-        <v>1.2976967070812</v>
+        <v>1.0142958213099</v>
       </c>
       <c r="E12">
-        <v>1.60170753145447</v>
+        <v>1.6616748682142</v>
       </c>
       <c r="F12">
-        <v>0.355852226337713</v>
+        <v>0.315662383398388</v>
       </c>
       <c r="G12">
-        <v>0.643399125170537</v>
+        <v>0.572841393150436</v>
       </c>
       <c r="H12">
-        <v>0.277917970398525</v>
+        <v>0.245334975334656</v>
       </c>
       <c r="I12">
-        <v>1.80466965844717</v>
+        <v>1.60543702620145</v>
       </c>
       <c r="J12">
-        <v>0.956419237194195</v>
+        <v>0.841987933232032</v>
       </c>
       <c r="K12">
-        <v>0.178561470684752</v>
+        <v>0.14746153908401</v>
       </c>
       <c r="L12">
-        <v>0.272422893548012</v>
+        <v>0.239184103225617</v>
       </c>
       <c r="M12">
-        <v>2.87905128145862</v>
+        <v>2.50690903162864</v>
       </c>
       <c r="N12">
-        <v>5.77700296835323</v>
+        <v>5.12777296737168</v>
       </c>
       <c r="O12">
-        <v>842.448237008172</v>
+        <v>742.390009400053</v>
       </c>
       <c r="P12">
-        <v>21.7755109425555</v>
+        <v>17.7917696845229</v>
       </c>
     </row>
     <row r="13">
@@ -1018,49 +1018,49 @@
         </is>
       </c>
       <c r="B13">
-        <v>109.237032214191</v>
+        <v>213.146673225873</v>
       </c>
       <c r="C13">
-        <v>32.7701848471381</v>
+        <v>27.9107883617751</v>
       </c>
       <c r="D13">
-        <v>0.732238499429466</v>
+        <v>0.643440016301236</v>
       </c>
       <c r="E13">
-        <v>16.3031739667194</v>
+        <v>14.7469958393843</v>
       </c>
       <c r="F13">
-        <v>4.49817869356194</v>
+        <v>3.95920547918789</v>
       </c>
       <c r="G13">
-        <v>6.09356986779102</v>
+        <v>5.39312411390865</v>
       </c>
       <c r="H13">
-        <v>3.80518008754504</v>
+        <v>2.83916283177703</v>
       </c>
       <c r="I13">
-        <v>1.85122629438189</v>
+        <v>1.64671116205267</v>
       </c>
       <c r="J13">
-        <v>8.337693744739021</v>
+        <v>7.37571461469084</v>
       </c>
       <c r="K13">
-        <v>3.70252121810353</v>
+        <v>3.25580273183397</v>
       </c>
       <c r="L13">
-        <v>28.7182605608798</v>
+        <v>25.108163993837</v>
       </c>
       <c r="M13">
-        <v>3.29328115145275</v>
+        <v>3.45719646685087</v>
       </c>
       <c r="N13">
-        <v>8.204139494733161</v>
+        <v>6.84263567738286</v>
       </c>
       <c r="O13">
-        <v>739.5749952128371</v>
+        <v>658.56951312197</v>
       </c>
       <c r="P13">
-        <v>62.6165065861246</v>
+        <v>54.4826756321626</v>
       </c>
     </row>
     <row r="14">
@@ -1070,49 +1070,49 @@
         </is>
       </c>
       <c r="B14">
-        <v>1050.23685641537</v>
+        <v>1835.25520844574</v>
       </c>
       <c r="C14">
-        <v>113.235596665843</v>
+        <v>98.8014630666508</v>
       </c>
       <c r="D14">
-        <v>12.7654334494809</v>
+        <v>11.4441766904849</v>
       </c>
       <c r="E14">
-        <v>65.750242379687</v>
+        <v>58.9899049896765</v>
       </c>
       <c r="F14">
-        <v>17.1396413528047</v>
+        <v>14.5496663914616</v>
       </c>
       <c r="G14">
-        <v>94.3462243605709</v>
+        <v>80.8523812864632</v>
       </c>
       <c r="H14">
-        <v>70.0895331456814</v>
+        <v>61.9409819851994</v>
       </c>
       <c r="I14">
-        <v>26.0755133779422</v>
+        <v>23.2650033167308</v>
       </c>
       <c r="J14">
-        <v>140.412866735231</v>
+        <v>123.344304581556</v>
       </c>
       <c r="K14">
-        <v>174.092594843565</v>
+        <v>150.953822478859</v>
       </c>
       <c r="L14">
-        <v>133.674044424154</v>
+        <v>121.61631898833</v>
       </c>
       <c r="M14">
-        <v>80.50318702733181</v>
+        <v>70.7741756076086</v>
       </c>
       <c r="N14">
-        <v>77.1720396941966</v>
+        <v>69.99592134521051</v>
       </c>
       <c r="O14">
-        <v>6224.6492019185</v>
+        <v>5561.52560706066</v>
       </c>
       <c r="P14">
-        <v>48.9964107635018</v>
+        <v>42.7177972338216</v>
       </c>
     </row>
     <row r="15">
@@ -1122,49 +1122,49 @@
         </is>
       </c>
       <c r="B15">
-        <v>479.688579073777</v>
+        <v>940.5866740119531</v>
       </c>
       <c r="C15">
-        <v>48.4588216556758</v>
+        <v>43.1074616573029</v>
       </c>
       <c r="D15">
-        <v>10.1013685288514</v>
+        <v>9.344351901970111</v>
       </c>
       <c r="E15">
-        <v>73.0989986052374</v>
+        <v>64.89367732475409</v>
       </c>
       <c r="F15">
-        <v>14.7453130751661</v>
+        <v>13.0288495139781</v>
       </c>
       <c r="G15">
-        <v>47.6774829136814</v>
+        <v>43.5263615258386</v>
       </c>
       <c r="H15">
-        <v>48.0121629625435</v>
+        <v>40.2291126313702</v>
       </c>
       <c r="I15">
-        <v>57.6931143901687</v>
+        <v>48.1845606961413</v>
       </c>
       <c r="J15">
-        <v>236.926123630439</v>
+        <v>201.764812268588</v>
       </c>
       <c r="K15">
-        <v>61.9304212928767</v>
+        <v>48.1365616209767</v>
       </c>
       <c r="L15">
-        <v>53.4083598802312</v>
+        <v>44.5772789875609</v>
       </c>
       <c r="M15">
-        <v>158.084988824911</v>
+        <v>136.023538450218</v>
       </c>
       <c r="N15">
-        <v>97.19422534954209</v>
+        <v>85.0968905235452</v>
       </c>
       <c r="O15">
-        <v>2856.54267856104</v>
+        <v>2523.89470910435</v>
       </c>
       <c r="P15">
-        <v>48.4178322928274</v>
+        <v>44.7908269168201</v>
       </c>
     </row>
     <row r="16">
@@ -1174,49 +1174,49 @@
         </is>
       </c>
       <c r="B16">
-        <v>151.165606034126</v>
+        <v>337.628876879945</v>
       </c>
       <c r="C16">
-        <v>82.5756247036944</v>
+        <v>75.3121753097474</v>
       </c>
       <c r="D16">
-        <v>12.8724983462758</v>
+        <v>10.823856993844</v>
       </c>
       <c r="E16">
-        <v>29.0159374560761</v>
+        <v>27.1114131128521</v>
       </c>
       <c r="F16">
-        <v>4.89256124005436</v>
+        <v>4.48188204815051</v>
       </c>
       <c r="G16">
-        <v>16.8085083597937</v>
+        <v>14.5628558565309</v>
       </c>
       <c r="H16">
-        <v>21.1747526457831</v>
+        <v>19.1856422730144</v>
       </c>
       <c r="I16">
-        <v>6.86362373361158</v>
+        <v>6.19612607659094</v>
       </c>
       <c r="J16">
-        <v>54.0773523025778</v>
+        <v>49.8720148668057</v>
       </c>
       <c r="K16">
-        <v>62.7890971708849</v>
+        <v>55.48930991662</v>
       </c>
       <c r="L16">
-        <v>35.1694482270203</v>
+        <v>32.5188779770196</v>
       </c>
       <c r="M16">
-        <v>18.1203673159306</v>
+        <v>16.5594356526022</v>
       </c>
       <c r="N16">
-        <v>31.879686527261</v>
+        <v>29.3055315478412</v>
       </c>
       <c r="O16">
-        <v>1559.11182677969</v>
+        <v>1424.55819400574</v>
       </c>
       <c r="P16">
-        <v>105.309203226255</v>
+        <v>84.03469286266891</v>
       </c>
     </row>
     <row r="17">
@@ -1226,49 +1226,49 @@
         </is>
       </c>
       <c r="B17">
-        <v>183.969089390097</v>
+        <v>361.69577626944</v>
       </c>
       <c r="C17">
-        <v>25.516540002737</v>
+        <v>22.2027449408834</v>
       </c>
       <c r="D17">
-        <v>3.87591162134785</v>
+        <v>3.74962282344065</v>
       </c>
       <c r="E17">
-        <v>17.8401000992489</v>
+        <v>16.3707724418573</v>
       </c>
       <c r="F17">
-        <v>16.4722171594678</v>
+        <v>13.5796191902199</v>
       </c>
       <c r="G17">
-        <v>13.8390411009585</v>
+        <v>13.1773483623644</v>
       </c>
       <c r="H17">
-        <v>12.394347352619</v>
+        <v>11.8183241103395</v>
       </c>
       <c r="I17">
-        <v>8.785032084304291</v>
+        <v>7.88943061573642</v>
       </c>
       <c r="J17">
-        <v>19.9850222931801</v>
+        <v>16.8356908189593</v>
       </c>
       <c r="K17">
-        <v>22.0708936044466</v>
+        <v>19.6993639405826</v>
       </c>
       <c r="L17">
-        <v>12.2007202651164</v>
+        <v>10.9589442893098</v>
       </c>
       <c r="M17">
-        <v>92.90073409845419</v>
+        <v>81.5403153405894</v>
       </c>
       <c r="N17">
-        <v>13.2201418686553</v>
+        <v>11.6449930104625</v>
       </c>
       <c r="O17">
-        <v>1419.49040921962</v>
+        <v>1277.42159124256</v>
       </c>
       <c r="P17">
-        <v>51.8961140099284</v>
+        <v>43.423012320678</v>
       </c>
     </row>
     <row r="18">
@@ -1278,49 +1278,49 @@
         </is>
       </c>
       <c r="B18">
-        <v>405.376938904483</v>
+        <v>958.950507594745</v>
       </c>
       <c r="C18">
-        <v>39.7916850266926</v>
+        <v>31.973230790623</v>
       </c>
       <c r="D18">
-        <v>10.3741157089048</v>
+        <v>8.84054462109107</v>
       </c>
       <c r="E18">
-        <v>45.6872674934841</v>
+        <v>35.0942647688616</v>
       </c>
       <c r="F18">
-        <v>46.5259168361667</v>
+        <v>34.918304284431</v>
       </c>
       <c r="G18">
-        <v>29.7711165310426</v>
+        <v>22.5312721751866</v>
       </c>
       <c r="H18">
-        <v>25.1630634826512</v>
+        <v>20.62229824173</v>
       </c>
       <c r="I18">
-        <v>11.4754285823261</v>
+        <v>9.295955717606111</v>
       </c>
       <c r="J18">
-        <v>44.6547617843307</v>
+        <v>34.4868641642843</v>
       </c>
       <c r="K18">
-        <v>23.4719036796931</v>
+        <v>18.9351140218644</v>
       </c>
       <c r="L18">
-        <v>45.2518833328112</v>
+        <v>35.9312193273876</v>
       </c>
       <c r="M18">
-        <v>81.3417661616481</v>
+        <v>65.5705132456154</v>
       </c>
       <c r="N18">
-        <v>28.2281431472024</v>
+        <v>21.9769458780004</v>
       </c>
       <c r="O18">
-        <v>2196.36924491831</v>
+        <v>1751.35420667846</v>
       </c>
       <c r="P18">
-        <v>61.0980640346935</v>
+        <v>49.6696259462932</v>
       </c>
     </row>
     <row r="19">
@@ -1330,49 +1330,49 @@
         </is>
       </c>
       <c r="B19">
-        <v>420.699668484109</v>
+        <v>874.73004368969</v>
       </c>
       <c r="C19">
-        <v>30.6026753619137</v>
+        <v>26.7588712134027</v>
       </c>
       <c r="D19">
-        <v>8.25790083326136</v>
+        <v>6.91023108054231</v>
       </c>
       <c r="E19">
-        <v>31.5288054252989</v>
+        <v>24.9185861204001</v>
       </c>
       <c r="F19">
-        <v>90.39676020802651</v>
+        <v>76.3605657500519</v>
       </c>
       <c r="G19">
-        <v>43.0548387154987</v>
+        <v>35.9655380645083</v>
       </c>
       <c r="H19">
-        <v>6.93190335263835</v>
+        <v>6.97839824359041</v>
       </c>
       <c r="I19">
-        <v>10.2503285257799</v>
+        <v>8.521485871433759</v>
       </c>
       <c r="J19">
-        <v>17.7424329249598</v>
+        <v>15.3886131451673</v>
       </c>
       <c r="K19">
-        <v>10.445469773507</v>
+        <v>8.70470315404757</v>
       </c>
       <c r="L19">
-        <v>3.01896692866323</v>
+        <v>2.3021923697579</v>
       </c>
       <c r="M19">
-        <v>46.6379211028316</v>
+        <v>38.154760642398</v>
       </c>
       <c r="N19">
-        <v>3.86261870074504</v>
+        <v>3.18572488447048</v>
       </c>
       <c r="O19">
-        <v>2230.32451874718</v>
+        <v>1837.28065536</v>
       </c>
       <c r="P19">
-        <v>44.837692583631</v>
+        <v>38.3153008515962</v>
       </c>
     </row>
     <row r="20">
@@ -1382,49 +1382,49 @@
         </is>
       </c>
       <c r="B20">
-        <v>110.440961826669</v>
+        <v>243.985380435354</v>
       </c>
       <c r="C20">
-        <v>10.1936102669381</v>
+        <v>8.306055361367241</v>
       </c>
       <c r="D20">
-        <v>13.5982494276508</v>
+        <v>10.6336959399965</v>
       </c>
       <c r="E20">
-        <v>40.2362828673888</v>
+        <v>31.3991828053143</v>
       </c>
       <c r="F20">
-        <v>0.933073550486222</v>
+        <v>0.697343211818455</v>
       </c>
       <c r="G20">
-        <v>1.0712437305826</v>
+        <v>0.916952733311236</v>
       </c>
       <c r="H20">
-        <v>4.05286565756568</v>
+        <v>3.20015578916449</v>
       </c>
       <c r="I20">
-        <v>0.794003752425093</v>
+        <v>0.901648241369064</v>
       </c>
       <c r="J20">
-        <v>6.3764645665879</v>
+        <v>5.90996426207347</v>
       </c>
       <c r="K20">
-        <v>5.37083174922592</v>
+        <v>4.8202458087481</v>
       </c>
       <c r="L20">
-        <v>7.67718707721519</v>
+        <v>6.14391403206243</v>
       </c>
       <c r="M20">
-        <v>27.6412731907011</v>
+        <v>22.6538672522243</v>
       </c>
       <c r="N20">
-        <v>6.05307296811909</v>
+        <v>4.93923392474204</v>
       </c>
       <c r="O20">
-        <v>745.033059820644</v>
+        <v>638.088352905332</v>
       </c>
       <c r="P20">
-        <v>19.2308798680008</v>
+        <v>16.3534280188844</v>
       </c>
     </row>
     <row r="21">
@@ -1434,49 +1434,49 @@
         </is>
       </c>
       <c r="B21">
-        <v>360.471934884793</v>
+        <v>732.600224102545</v>
       </c>
       <c r="C21">
-        <v>15.7546099706413</v>
+        <v>13.6526983410812</v>
       </c>
       <c r="D21">
-        <v>6.29937218586113</v>
+        <v>5.5516484738906</v>
       </c>
       <c r="E21">
-        <v>22.6178788509806</v>
+        <v>19.1680071985563</v>
       </c>
       <c r="F21">
-        <v>0.778897810533589</v>
+        <v>0.6998808203228289</v>
       </c>
       <c r="G21">
-        <v>16.5339485474989</v>
+        <v>14.6573485576217</v>
       </c>
       <c r="H21">
-        <v>8.553015053965771</v>
+        <v>7.60061983057987</v>
       </c>
       <c r="I21">
-        <v>5.38026061796266</v>
+        <v>5.36429944219781</v>
       </c>
       <c r="J21">
-        <v>13.7093750180071</v>
+        <v>12.0939218566431</v>
       </c>
       <c r="K21">
-        <v>5.27975654223077</v>
+        <v>3.4468819748635</v>
       </c>
       <c r="L21">
-        <v>32.3965747454795</v>
+        <v>28.3942511953904</v>
       </c>
       <c r="M21">
-        <v>27.9382242329564</v>
+        <v>24.7926450084581</v>
       </c>
       <c r="N21">
-        <v>13.5449813684235</v>
+        <v>12.0756167588568</v>
       </c>
       <c r="O21">
-        <v>2988.3737960233</v>
+        <v>2640.28408622376</v>
       </c>
       <c r="P21">
-        <v>17.1642810805677</v>
+        <v>14.0004532563912</v>
       </c>
     </row>
     <row r="22">
@@ -1486,49 +1486,49 @@
         </is>
       </c>
       <c r="B22">
-        <v>453.784967937982</v>
+        <v>883.422047598797</v>
       </c>
       <c r="C22">
-        <v>17.0253809144161</v>
+        <v>15.1342770189737</v>
       </c>
       <c r="D22">
-        <v>18.2635090106475</v>
+        <v>15.0940230831106</v>
       </c>
       <c r="E22">
-        <v>30.4095668306318</v>
+        <v>28.6888087559676</v>
       </c>
       <c r="F22">
-        <v>0.944891846586332</v>
+        <v>0.835837743561817</v>
       </c>
       <c r="G22">
-        <v>28.7132808214547</v>
+        <v>23.6334789874023</v>
       </c>
       <c r="H22">
-        <v>30.7050767219498</v>
+        <v>23.3068719149314</v>
       </c>
       <c r="I22">
-        <v>6.51320510111305</v>
+        <v>5.29735772108066</v>
       </c>
       <c r="J22">
-        <v>50.3195554840417</v>
+        <v>43.5082891647301</v>
       </c>
       <c r="K22">
-        <v>24.6013320099254</v>
+        <v>21.2589728203768</v>
       </c>
       <c r="L22">
-        <v>121.831042283011</v>
+        <v>106.425213700993</v>
       </c>
       <c r="M22">
-        <v>25.3329710615187</v>
+        <v>23.3936986392102</v>
       </c>
       <c r="N22">
-        <v>83.0051347852839</v>
+        <v>72.06148932419519</v>
       </c>
       <c r="O22">
-        <v>3327.0298531531</v>
+        <v>2954.85967206768</v>
       </c>
       <c r="P22">
-        <v>12.0161758538562</v>
+        <v>11.9497912053408</v>
       </c>
     </row>
     <row r="23">
@@ -1538,49 +1538,49 @@
         </is>
       </c>
       <c r="B23">
-        <v>894.430961482057</v>
+        <v>1708.24052600796</v>
       </c>
       <c r="C23">
-        <v>49.868684335301</v>
+        <v>46.2080542898885</v>
       </c>
       <c r="D23">
-        <v>12.2420255467152</v>
+        <v>10.6558646798316</v>
       </c>
       <c r="E23">
-        <v>57.3439246828947</v>
+        <v>50.9720420666054</v>
       </c>
       <c r="F23">
-        <v>1.57428111704554</v>
+        <v>1.26371573423097</v>
       </c>
       <c r="G23">
-        <v>81.4586461948842</v>
+        <v>70.7905586866739</v>
       </c>
       <c r="H23">
-        <v>95.76775644689501</v>
+        <v>81.8959709736082</v>
       </c>
       <c r="I23">
-        <v>35.0727157369342</v>
+        <v>28.912992091421</v>
       </c>
       <c r="J23">
-        <v>163.719083605308</v>
+        <v>140.770547836917</v>
       </c>
       <c r="K23">
-        <v>118.365625090933</v>
+        <v>103.178664018461</v>
       </c>
       <c r="L23">
-        <v>43.630932148264</v>
+        <v>37.149974646277</v>
       </c>
       <c r="M23">
-        <v>720.982192305379</v>
+        <v>607.642740611829</v>
       </c>
       <c r="N23">
-        <v>120.926925837874</v>
+        <v>102.579447235408</v>
       </c>
       <c r="O23">
-        <v>4400.2042892105</v>
+        <v>3807.7586501261</v>
       </c>
       <c r="P23">
-        <v>49.7175139209796</v>
+        <v>43.7948374353384</v>
       </c>
     </row>
     <row r="24">
@@ -1590,49 +1590,49 @@
         </is>
       </c>
       <c r="B24">
-        <v>288.815836206603</v>
+        <v>544.909378690204</v>
       </c>
       <c r="C24">
-        <v>51.7435058885801</v>
+        <v>48.9210675686775</v>
       </c>
       <c r="D24">
-        <v>13.1220301547551</v>
+        <v>10.0524534988243</v>
       </c>
       <c r="E24">
-        <v>48.7104618864366</v>
+        <v>43.6008873998878</v>
       </c>
       <c r="F24">
-        <v>16.107315663228</v>
+        <v>14.9763577696564</v>
       </c>
       <c r="G24">
-        <v>22.2956469555936</v>
+        <v>20.5100668050239</v>
       </c>
       <c r="H24">
-        <v>15.6405428135417</v>
+        <v>14.5679340550541</v>
       </c>
       <c r="I24">
-        <v>14.6290523220796</v>
+        <v>13.354527872737</v>
       </c>
       <c r="J24">
-        <v>57.884285066007</v>
+        <v>52.2609938734702</v>
       </c>
       <c r="K24">
-        <v>66.2482471092316</v>
+        <v>60.3941319906248</v>
       </c>
       <c r="L24">
-        <v>65.7537399948866</v>
+        <v>59.0679680927605</v>
       </c>
       <c r="M24">
-        <v>19.4511163718879</v>
+        <v>18.3694213967489</v>
       </c>
       <c r="N24">
-        <v>80.51593023039111</v>
+        <v>73.6177152090486</v>
       </c>
       <c r="O24">
-        <v>2515.65863266445</v>
+        <v>2307.87937308432</v>
       </c>
       <c r="P24">
-        <v>77.8671870637756</v>
+        <v>68.1877749213306</v>
       </c>
     </row>
     <row r="25">
@@ -1642,49 +1642,49 @@
         </is>
       </c>
       <c r="B25">
-        <v>337.885146561103</v>
+        <v>690.537951458836</v>
       </c>
       <c r="C25">
-        <v>46.2478034713401</v>
+        <v>35.2681674404231</v>
       </c>
       <c r="D25">
-        <v>16.2040704517872</v>
+        <v>11.9016199488755</v>
       </c>
       <c r="E25">
-        <v>48.6832522878914</v>
+        <v>38.3931330796753</v>
       </c>
       <c r="F25">
-        <v>35.1318202694617</v>
+        <v>28.6541066313796</v>
       </c>
       <c r="G25">
-        <v>19.669519107602</v>
+        <v>15.596141275671</v>
       </c>
       <c r="H25">
-        <v>13.7916398225119</v>
+        <v>10.4380631358583</v>
       </c>
       <c r="I25">
-        <v>4.11852881037113</v>
+        <v>3.32800135384278</v>
       </c>
       <c r="J25">
-        <v>17.7164838872578</v>
+        <v>14.3256502111474</v>
       </c>
       <c r="K25">
-        <v>15.2373430017777</v>
+        <v>12.640692876729</v>
       </c>
       <c r="L25">
-        <v>32.6409974233962</v>
+        <v>22.9613382901737</v>
       </c>
       <c r="M25">
-        <v>46.111346157695</v>
+        <v>38.6522960671626</v>
       </c>
       <c r="N25">
-        <v>43.4109200745911</v>
+        <v>35.6141763773091</v>
       </c>
       <c r="O25">
-        <v>1367.77675251615</v>
+        <v>1096.79331160911</v>
       </c>
       <c r="P25">
-        <v>60.7715379129424</v>
+        <v>53.112327569081</v>
       </c>
     </row>
     <row r="26">
@@ -1694,49 +1694,49 @@
         </is>
       </c>
       <c r="B26">
-        <v>387.620358766333</v>
+        <v>855.322706415167</v>
       </c>
       <c r="C26">
-        <v>57.2070197337464</v>
+        <v>50.2154113785963</v>
       </c>
       <c r="D26">
-        <v>13.9823034689899</v>
+        <v>11.2573293054474</v>
       </c>
       <c r="E26">
-        <v>38.046933343124</v>
+        <v>31.5449376354247</v>
       </c>
       <c r="F26">
-        <v>8.347999223469589</v>
+        <v>6.48423656207591</v>
       </c>
       <c r="G26">
-        <v>54.2707595651671</v>
+        <v>47.3585717187545</v>
       </c>
       <c r="H26">
-        <v>18.5785991456075</v>
+        <v>16.2801986774205</v>
       </c>
       <c r="I26">
-        <v>12.6947306013641</v>
+        <v>10.3707481108381</v>
       </c>
       <c r="J26">
-        <v>55.8201176082302</v>
+        <v>48.0047296925495</v>
       </c>
       <c r="K26">
-        <v>30.6758324336289</v>
+        <v>26.6727322579468</v>
       </c>
       <c r="L26">
-        <v>40.7364599896536</v>
+        <v>34.4918184044514</v>
       </c>
       <c r="M26">
-        <v>83.0681290238911</v>
+        <v>71.8838905477018</v>
       </c>
       <c r="N26">
-        <v>35.8336785124635</v>
+        <v>31.820937300985</v>
       </c>
       <c r="O26">
-        <v>2965.47006577744</v>
+        <v>2568.02447615986</v>
       </c>
       <c r="P26">
-        <v>56.3698996588736</v>
+        <v>50.1604883038222</v>
       </c>
     </row>
     <row r="27">
@@ -1746,49 +1746,49 @@
         </is>
       </c>
       <c r="B27">
-        <v>68.0603452483639</v>
+        <v>178.633350066174</v>
       </c>
       <c r="C27">
-        <v>3.76714694511805</v>
+        <v>3.18365788251329</v>
       </c>
       <c r="D27">
-        <v>1.40769489040603</v>
+        <v>1.19503443713375</v>
       </c>
       <c r="E27">
-        <v>16.0256239488814</v>
+        <v>12.933699425218</v>
       </c>
       <c r="F27">
-        <v>11.1415231141087</v>
+        <v>8.85394295619737</v>
       </c>
       <c r="G27">
-        <v>1.13056401496244</v>
+        <v>1.17708896620692</v>
       </c>
       <c r="H27">
-        <v>0.129211481543406</v>
+        <v>0.108687476203124</v>
       </c>
       <c r="I27">
-        <v>2.79866294696894</v>
+        <v>2.81404521771124</v>
       </c>
       <c r="J27">
-        <v>3.96372457563972</v>
+        <v>2.70899688095268</v>
       </c>
       <c r="K27">
-        <v>2.58269754419301</v>
+        <v>2.31363284077686</v>
       </c>
       <c r="L27">
-        <v>3.33870221949358</v>
+        <v>2.83197009873928</v>
       </c>
       <c r="M27">
-        <v>0.243104382852555</v>
+        <v>0.197899053543262</v>
       </c>
       <c r="N27">
-        <v>6.41011952236492</v>
+        <v>5.52154465270492</v>
       </c>
       <c r="O27">
-        <v>602.179129570813</v>
+        <v>508.077454667677</v>
       </c>
       <c r="P27">
-        <v>56.2528571245094</v>
+        <v>50.0105928697402</v>
       </c>
     </row>
     <row r="28">
@@ -1798,49 +1798,49 @@
         </is>
       </c>
       <c r="B28">
-        <v>91.2544008801618</v>
+        <v>192.513600386345</v>
       </c>
       <c r="C28">
-        <v>39.2194199783152</v>
+        <v>35.3238103238468</v>
       </c>
       <c r="D28">
-        <v>1.50877220064613</v>
+        <v>1.3988862620328</v>
       </c>
       <c r="E28">
-        <v>9.41844742848941</v>
+        <v>8.588499499189499</v>
       </c>
       <c r="F28">
-        <v>2.28090439649628</v>
+        <v>2.34965943948363</v>
       </c>
       <c r="G28">
-        <v>7.71522372586997</v>
+        <v>6.68737200086972</v>
       </c>
       <c r="H28">
-        <v>8.963282700222401</v>
+        <v>7.58908571488359</v>
       </c>
       <c r="I28">
-        <v>5.75616229271851</v>
+        <v>4.66220838242705</v>
       </c>
       <c r="J28">
-        <v>19.323998371638</v>
+        <v>17.3526359728116</v>
       </c>
       <c r="K28">
-        <v>17.9229569640779</v>
+        <v>16.4237598681434</v>
       </c>
       <c r="L28">
-        <v>12.9651748270463</v>
+        <v>11.3826819577994</v>
       </c>
       <c r="M28">
-        <v>8.33493289386173</v>
+        <v>7.62766444696563</v>
       </c>
       <c r="N28">
-        <v>10.5638530820136</v>
+        <v>9.66423055820745</v>
       </c>
       <c r="O28">
-        <v>964.2216962814221</v>
+        <v>887.625449520887</v>
       </c>
       <c r="P28">
-        <v>88.615071689715</v>
+        <v>76.1604684497084</v>
       </c>
     </row>
     <row r="29">
@@ -1850,49 +1850,49 @@
         </is>
       </c>
       <c r="B29">
-        <v>183.468507068899</v>
+        <v>386.413093702053</v>
       </c>
       <c r="C29">
-        <v>1.15859429666261</v>
+        <v>1.01126238902488</v>
       </c>
       <c r="D29">
-        <v>2.43933313487087</v>
+        <v>2.1175067272816</v>
       </c>
       <c r="E29">
-        <v>3.50388260426713</v>
+        <v>3.06389515377687</v>
       </c>
       <c r="F29">
-        <v>23.0607903845917</v>
+        <v>18.706719519195</v>
       </c>
       <c r="G29">
-        <v>2.00438696873793</v>
+        <v>1.65209678137776</v>
       </c>
       <c r="H29">
-        <v>2.13526875179808</v>
+        <v>1.58751865419972</v>
       </c>
       <c r="I29">
-        <v>5.59648451255364</v>
+        <v>4.83442103759518</v>
       </c>
       <c r="J29">
-        <v>6.00198397237639</v>
+        <v>5.20312490626031</v>
       </c>
       <c r="K29">
-        <v>2.75666195086755</v>
+        <v>2.46437354857479</v>
       </c>
       <c r="L29">
-        <v>5.83713847896546</v>
+        <v>4.92633424488906</v>
       </c>
       <c r="M29">
-        <v>2.24454371104592</v>
+        <v>1.94667024959287</v>
       </c>
       <c r="N29">
-        <v>10.1835398771895</v>
+        <v>9.034956347379151</v>
       </c>
       <c r="O29">
-        <v>1431.00415152513</v>
+        <v>1240.83545618546</v>
       </c>
       <c r="P29">
-        <v>4.59404058433835</v>
+        <v>4.34115778676912</v>
       </c>
     </row>
     <row r="30">
@@ -1902,49 +1902,49 @@
         </is>
       </c>
       <c r="B30">
-        <v>82.4994023068202</v>
+        <v>166.360431233898</v>
       </c>
       <c r="C30">
-        <v>3.675443928838</v>
+        <v>3.42821675509527</v>
       </c>
       <c r="D30">
-        <v>5.25836008835108</v>
+        <v>4.94939584563345</v>
       </c>
       <c r="E30">
-        <v>10.2716113862001</v>
+        <v>9.28973406149513</v>
       </c>
       <c r="F30">
-        <v>0.184088933396994</v>
+        <v>0.168805929837578</v>
       </c>
       <c r="G30">
-        <v>7.42558457709204</v>
+        <v>6.76080780087013</v>
       </c>
       <c r="H30">
-        <v>8.93420476477243</v>
+        <v>7.83124799355893</v>
       </c>
       <c r="I30">
-        <v>2.2296480585624</v>
+        <v>1.99166306691283</v>
       </c>
       <c r="J30">
-        <v>21.6178703282102</v>
+        <v>19.0581537306453</v>
       </c>
       <c r="K30">
-        <v>14.619298731717</v>
+        <v>13.1809100975344</v>
       </c>
       <c r="L30">
-        <v>53.2608455996022</v>
+        <v>47.5486450113222</v>
       </c>
       <c r="M30">
-        <v>10.882486168205</v>
+        <v>9.815616026958679</v>
       </c>
       <c r="N30">
-        <v>13.3766000578873</v>
+        <v>12.0681094334578</v>
       </c>
       <c r="O30">
-        <v>733.892168811068</v>
+        <v>663.698187942099</v>
       </c>
       <c r="P30">
-        <v>4.92145317304243</v>
+        <v>4.69592979499592</v>
       </c>
     </row>
     <row r="31">
@@ -1954,49 +1954,49 @@
         </is>
       </c>
       <c r="B31">
-        <v>709.961930121851</v>
+        <v>1261.01732675725</v>
       </c>
       <c r="C31">
-        <v>50.3364986335423</v>
+        <v>44.8361564457867</v>
       </c>
       <c r="D31">
-        <v>23.4616060894183</v>
+        <v>23.548140172363</v>
       </c>
       <c r="E31">
-        <v>31.7048175313557</v>
+        <v>29.8362941145776</v>
       </c>
       <c r="F31">
-        <v>9.16019845957781</v>
+        <v>9.062234444201771</v>
       </c>
       <c r="G31">
-        <v>152.378577370883</v>
+        <v>129.060836123744</v>
       </c>
       <c r="H31">
-        <v>19.6713963640767</v>
+        <v>16.8763263669241</v>
       </c>
       <c r="I31">
-        <v>33.2489544504182</v>
+        <v>27.8296982150228</v>
       </c>
       <c r="J31">
-        <v>37.6137461414666</v>
+        <v>32.4048327530992</v>
       </c>
       <c r="K31">
-        <v>14.7085493189698</v>
+        <v>13.577517767983</v>
       </c>
       <c r="L31">
-        <v>88.1291651986617</v>
+        <v>80.46461691533101</v>
       </c>
       <c r="M31">
-        <v>18.7848661216784</v>
+        <v>16.7075097652198</v>
       </c>
       <c r="N31">
-        <v>56.2793202724921</v>
+        <v>49.6905424079536</v>
       </c>
       <c r="O31">
-        <v>4402.45155776315</v>
+        <v>3909.50759710216</v>
       </c>
       <c r="P31">
-        <v>13.0196927405392</v>
+        <v>12.6963399508463</v>
       </c>
     </row>
     <row r="32">
@@ -2006,49 +2006,49 @@
         </is>
       </c>
       <c r="B32">
-        <v>190.385959933827</v>
+        <v>363.455822103772</v>
       </c>
       <c r="C32">
-        <v>4.978413531932</v>
+        <v>4.76069915274793</v>
       </c>
       <c r="D32">
-        <v>1.4555472634359</v>
+        <v>1.29685222036459</v>
       </c>
       <c r="E32">
-        <v>3.73466364293612</v>
+        <v>3.60311435932449</v>
       </c>
       <c r="F32">
-        <v>36.5615712003311</v>
+        <v>30.3112385195152</v>
       </c>
       <c r="G32">
-        <v>1.86601236907678</v>
+        <v>1.55853943998692</v>
       </c>
       <c r="H32">
-        <v>0.144598071619362</v>
+        <v>0.118676772109894</v>
       </c>
       <c r="I32">
-        <v>4.99836180373884</v>
+        <v>4.27625749996623</v>
       </c>
       <c r="J32">
-        <v>6.90180939040129</v>
+        <v>5.12769681380164</v>
       </c>
       <c r="K32">
-        <v>6.33917379228182</v>
+        <v>5.34607030004461</v>
       </c>
       <c r="L32">
-        <v>11.7401914893564</v>
+        <v>10.7381188675397</v>
       </c>
       <c r="M32">
-        <v>7.67152760946739</v>
+        <v>6.5228974619349</v>
       </c>
       <c r="N32">
-        <v>10.5843538314221</v>
+        <v>10.532616540116</v>
       </c>
       <c r="O32">
-        <v>1016.81026249047</v>
+        <v>864.569751610832</v>
       </c>
       <c r="P32">
-        <v>31.8511622270246</v>
+        <v>26.1892827654608</v>
       </c>
     </row>
     <row r="33">
@@ -2058,49 +2058,49 @@
         </is>
       </c>
       <c r="B33">
-        <v>1676.57542449198</v>
+        <v>3220.5950529878</v>
       </c>
       <c r="C33">
-        <v>78.7292671642748</v>
+        <v>67.1364363160739</v>
       </c>
       <c r="D33">
-        <v>72.9064708618187</v>
+        <v>63.8711098384386</v>
       </c>
       <c r="E33">
-        <v>62.6634731248071</v>
+        <v>53.2510676811822</v>
       </c>
       <c r="F33">
-        <v>11.8638979807258</v>
+        <v>10.2813625812663</v>
       </c>
       <c r="G33">
-        <v>71.16944920193269</v>
+        <v>60.8516679403663</v>
       </c>
       <c r="H33">
-        <v>41.8310966518786</v>
+        <v>34.6836276067491</v>
       </c>
       <c r="I33">
-        <v>28.5840654879723</v>
+        <v>23.0688238450421</v>
       </c>
       <c r="J33">
-        <v>120.481889613867</v>
+        <v>97.04383492176071</v>
       </c>
       <c r="K33">
-        <v>89.6878321247985</v>
+        <v>71.5951187612191</v>
       </c>
       <c r="L33">
-        <v>172.738992258543</v>
+        <v>139.743777165236</v>
       </c>
       <c r="M33">
-        <v>84.7906706279331</v>
+        <v>72.0881057206666</v>
       </c>
       <c r="N33">
-        <v>164.269066801513</v>
+        <v>138.242735661033</v>
       </c>
       <c r="O33">
-        <v>9740.37529484794</v>
+        <v>8378.87392618876</v>
       </c>
       <c r="P33">
-        <v>52.7327967489287</v>
+        <v>45.4729484461772</v>
       </c>
     </row>
     <row r="34">
@@ -2110,49 +2110,49 @@
         </is>
       </c>
       <c r="B34">
-        <v>678.910355228237</v>
+        <v>1495.56475235072</v>
       </c>
       <c r="C34">
-        <v>99.5775348327153</v>
+        <v>79.191130301161</v>
       </c>
       <c r="D34">
-        <v>211.684421480336</v>
+        <v>180.371381513798</v>
       </c>
       <c r="E34">
-        <v>68.32937937884471</v>
+        <v>59.1053934284485</v>
       </c>
       <c r="F34">
-        <v>0.60795336510078</v>
+        <v>0.515283765875728</v>
       </c>
       <c r="G34">
-        <v>81.2031518210738</v>
+        <v>67.90286027448779</v>
       </c>
       <c r="H34">
-        <v>61.0135629757347</v>
+        <v>50.4224994178387</v>
       </c>
       <c r="I34">
-        <v>32.2099247194291</v>
+        <v>26.9809987961364</v>
       </c>
       <c r="J34">
-        <v>48.3613987108555</v>
+        <v>38.7424376872703</v>
       </c>
       <c r="K34">
-        <v>70.46176466045949</v>
+        <v>59.1915373073615</v>
       </c>
       <c r="L34">
-        <v>130.928810318581</v>
+        <v>109.363979478359</v>
       </c>
       <c r="M34">
-        <v>55.9452229280343</v>
+        <v>48.9555698671376</v>
       </c>
       <c r="N34">
-        <v>164.893918202282</v>
+        <v>132.781138005264</v>
       </c>
       <c r="O34">
-        <v>4174.14856649686</v>
+        <v>3543.1442912327</v>
       </c>
       <c r="P34">
-        <v>79.2794822806262</v>
+        <v>62.1744371749068</v>
       </c>
     </row>
     <row r="35">
@@ -2162,49 +2162,49 @@
         </is>
       </c>
       <c r="B35">
-        <v>39.5012926231378</v>
+        <v>84.1582649158937</v>
       </c>
       <c r="C35">
-        <v>8.41635518008839</v>
+        <v>7.70757251385287</v>
       </c>
       <c r="D35">
-        <v>0.906799448790246</v>
+        <v>0.796774774595697</v>
       </c>
       <c r="E35">
-        <v>4.03698223417337</v>
+        <v>3.68174562437595</v>
       </c>
       <c r="F35">
-        <v>6.55345473270125</v>
+        <v>5.9870945904719</v>
       </c>
       <c r="G35">
-        <v>0.450546303246278</v>
+        <v>0.411934574627904</v>
       </c>
       <c r="H35">
-        <v>0.636635825585862</v>
+        <v>0.576354820620275</v>
       </c>
       <c r="I35">
-        <v>0.929142591007683</v>
+        <v>0.8508115988637121</v>
       </c>
       <c r="J35">
-        <v>1.77241195689654</v>
+        <v>1.64314219787442</v>
       </c>
       <c r="K35">
-        <v>7.42370391693804</v>
+        <v>6.70115638715926</v>
       </c>
       <c r="L35">
-        <v>2.67883460640835</v>
+        <v>2.46132741851538</v>
       </c>
       <c r="M35">
-        <v>2.73030079278479</v>
+        <v>2.4794044195915</v>
       </c>
       <c r="N35">
-        <v>3.02979201485946</v>
+        <v>2.77320988518893</v>
       </c>
       <c r="O35">
-        <v>394.343369863819</v>
+        <v>358.949501832204</v>
       </c>
       <c r="P35">
-        <v>54.8253826185983</v>
+        <v>47.9015506795889</v>
       </c>
     </row>
     <row r="36">
@@ -2214,49 +2214,49 @@
         </is>
       </c>
       <c r="B36">
-        <v>860.167494295279</v>
+        <v>1810.17236558118</v>
       </c>
       <c r="C36">
-        <v>83.2757460607609</v>
+        <v>70.6011331250913</v>
       </c>
       <c r="D36">
-        <v>21.1028910800527</v>
+        <v>17.7483141230705</v>
       </c>
       <c r="E36">
-        <v>95.2513832451958</v>
+        <v>79.9370735065048</v>
       </c>
       <c r="F36">
-        <v>36.9544077575786</v>
+        <v>33.460461761112</v>
       </c>
       <c r="G36">
-        <v>116.549312153801</v>
+        <v>96.1677759236136</v>
       </c>
       <c r="H36">
-        <v>124.324016421764</v>
+        <v>98.2861281356126</v>
       </c>
       <c r="I36">
-        <v>54.6540767767619</v>
+        <v>46.7487004068908</v>
       </c>
       <c r="J36">
-        <v>254.634995941457</v>
+        <v>213.975170626267</v>
       </c>
       <c r="K36">
-        <v>113.696064573017</v>
+        <v>95.3844043648743</v>
       </c>
       <c r="L36">
-        <v>114.357631290602</v>
+        <v>97.4366078076642</v>
       </c>
       <c r="M36">
-        <v>267.662885096568</v>
+        <v>221.0461455593</v>
       </c>
       <c r="N36">
-        <v>118.437162231212</v>
+        <v>101.328709026623</v>
       </c>
       <c r="O36">
-        <v>5583.63944094106</v>
+        <v>4858.52874104997</v>
       </c>
       <c r="P36">
-        <v>51.307598140617</v>
+        <v>50.6254359989744</v>
       </c>
     </row>
     <row r="37">
@@ -2266,49 +2266,49 @@
         </is>
       </c>
       <c r="B37">
-        <v>277.567789750571</v>
+        <v>611.749025278867</v>
       </c>
       <c r="C37">
-        <v>22.3339626264913</v>
+        <v>18.737002392557</v>
       </c>
       <c r="D37">
-        <v>6.33948264818888</v>
+        <v>4.89680880722254</v>
       </c>
       <c r="E37">
-        <v>16.5559761600634</v>
+        <v>14.8792625470816</v>
       </c>
       <c r="F37">
-        <v>53.3834178800444</v>
+        <v>44.7132798178109</v>
       </c>
       <c r="G37">
-        <v>7.6350023050243</v>
+        <v>6.43492649246568</v>
       </c>
       <c r="H37">
-        <v>27.2687973351764</v>
+        <v>23.875807509981</v>
       </c>
       <c r="I37">
-        <v>12.1231141689043</v>
+        <v>9.932835582196599</v>
       </c>
       <c r="J37">
-        <v>38.3129418376836</v>
+        <v>31.6518527074759</v>
       </c>
       <c r="K37">
-        <v>52.02950024111</v>
+        <v>37.9130372529365</v>
       </c>
       <c r="L37">
-        <v>26.1824000800926</v>
+        <v>22.551948956849</v>
       </c>
       <c r="M37">
-        <v>32.4756311683936</v>
+        <v>25.3073078918654</v>
       </c>
       <c r="N37">
-        <v>23.1752022096736</v>
+        <v>16.9421955724346</v>
       </c>
       <c r="O37">
-        <v>1727.09786811932</v>
+        <v>1458.67266540474</v>
       </c>
       <c r="P37">
-        <v>50.0419954259735</v>
+        <v>47.2151735736053</v>
       </c>
     </row>
     <row r="38">
@@ -2318,49 +2318,49 @@
         </is>
       </c>
       <c r="B38">
-        <v>292.656853920393</v>
+        <v>611.747615707626</v>
       </c>
       <c r="C38">
-        <v>30.5699863915821</v>
+        <v>25.9574340074127</v>
       </c>
       <c r="D38">
-        <v>18.8444333653622</v>
+        <v>13.92771160463</v>
       </c>
       <c r="E38">
-        <v>51.7172963808299</v>
+        <v>44.0551597575857</v>
       </c>
       <c r="F38">
-        <v>1.2826168081679</v>
+        <v>1.12179202396364</v>
       </c>
       <c r="G38">
-        <v>9.445116137308361</v>
+        <v>7.33688652055746</v>
       </c>
       <c r="H38">
-        <v>8.47605773661247</v>
+        <v>7.26029824208023</v>
       </c>
       <c r="I38">
-        <v>3.6113447707363</v>
+        <v>3.12833804393587</v>
       </c>
       <c r="J38">
-        <v>48.4569650337706</v>
+        <v>39.2819604930268</v>
       </c>
       <c r="K38">
-        <v>20.6230352918783</v>
+        <v>17.6426797074809</v>
       </c>
       <c r="L38">
-        <v>96.8131326738086</v>
+        <v>83.3371001120078</v>
       </c>
       <c r="M38">
-        <v>27.0144990151018</v>
+        <v>21.0598105776208</v>
       </c>
       <c r="N38">
-        <v>25.0708440871366</v>
+        <v>21.4805822589702</v>
       </c>
       <c r="O38">
-        <v>1858.52932645331</v>
+        <v>1611.45954930641</v>
       </c>
       <c r="P38">
-        <v>77.8521237502509</v>
+        <v>64.0990614748073</v>
       </c>
     </row>
     <row r="39">
@@ -2370,49 +2370,49 @@
         </is>
       </c>
       <c r="B39">
-        <v>951.624444761831</v>
+        <v>1964.88134889606</v>
       </c>
       <c r="C39">
-        <v>124.989795514391</v>
+        <v>110.006784056922</v>
       </c>
       <c r="D39">
-        <v>64.1706779662139</v>
+        <v>47.4726749936803</v>
       </c>
       <c r="E39">
-        <v>81.9286144712803</v>
+        <v>71.1255182267398</v>
       </c>
       <c r="F39">
-        <v>24.2040488892594</v>
+        <v>20.5764570846402</v>
       </c>
       <c r="G39">
-        <v>133.630313821359</v>
+        <v>111.594971957292</v>
       </c>
       <c r="H39">
-        <v>49.2319391537784</v>
+        <v>43.9250286860409</v>
       </c>
       <c r="I39">
-        <v>55.6278227908322</v>
+        <v>49.9672679987375</v>
       </c>
       <c r="J39">
-        <v>192.926854037234</v>
+        <v>168.932263859162</v>
       </c>
       <c r="K39">
-        <v>127.842469676926</v>
+        <v>103.116020087386</v>
       </c>
       <c r="L39">
-        <v>114.317788569306</v>
+        <v>93.57433056663631</v>
       </c>
       <c r="M39">
-        <v>92.4936157062932</v>
+        <v>77.86425605689711</v>
       </c>
       <c r="N39">
-        <v>127.629302480185</v>
+        <v>108.511614569889</v>
       </c>
       <c r="O39">
-        <v>6446.61055697964</v>
+        <v>5624.03789665076</v>
       </c>
       <c r="P39">
-        <v>60.0852468268615</v>
+        <v>50.0984304811876</v>
       </c>
     </row>
     <row r="40">
@@ -2422,49 +2422,49 @@
         </is>
       </c>
       <c r="B40">
-        <v>80.4299417644</v>
+        <v>176.328317663087</v>
       </c>
       <c r="C40">
-        <v>3.88520950564977</v>
+        <v>3.07555124711872</v>
       </c>
       <c r="D40">
-        <v>11.6972930261425</v>
+        <v>10.1949885548351</v>
       </c>
       <c r="E40">
-        <v>7.46335116263246</v>
+        <v>6.3772693047207</v>
       </c>
       <c r="F40">
-        <v>0.243524696013677</v>
+        <v>0.210594350825109</v>
       </c>
       <c r="G40">
-        <v>7.49864606699014</v>
+        <v>6.29936778905567</v>
       </c>
       <c r="H40">
-        <v>8.41493957238222</v>
+        <v>7.03956427796837</v>
       </c>
       <c r="I40">
-        <v>1.80154347827629</v>
+        <v>1.57559216200794</v>
       </c>
       <c r="J40">
-        <v>18.1915055111591</v>
+        <v>15.1783383852843</v>
       </c>
       <c r="K40">
-        <v>9.12945520898062</v>
+        <v>8.07806309896008</v>
       </c>
       <c r="L40">
-        <v>18.6374068486552</v>
+        <v>16.0477464944468</v>
       </c>
       <c r="M40">
-        <v>9.220435598716289</v>
+        <v>7.89728211923071</v>
       </c>
       <c r="N40">
-        <v>36.7371326672498</v>
+        <v>32.3220438370692</v>
       </c>
       <c r="O40">
-        <v>627.303103843591</v>
+        <v>550.092689239112</v>
       </c>
       <c r="P40">
-        <v>2.30499749912246</v>
+        <v>2.02720843357335</v>
       </c>
     </row>
     <row r="41">
@@ -2474,49 +2474,49 @@
         </is>
       </c>
       <c r="B41">
-        <v>367.999150689146</v>
+        <v>823.489140954762</v>
       </c>
       <c r="C41">
-        <v>12.7075450915607</v>
+        <v>11.4648151675347</v>
       </c>
       <c r="D41">
-        <v>103.319307675386</v>
+        <v>85.59785949333001</v>
       </c>
       <c r="E41">
-        <v>56.1994024529983</v>
+        <v>45.6678302971891</v>
       </c>
       <c r="F41">
-        <v>2.0347469521546</v>
+        <v>1.64556750492897</v>
       </c>
       <c r="G41">
-        <v>59.6812606062693</v>
+        <v>46.5895706929337</v>
       </c>
       <c r="H41">
-        <v>62.489184582669</v>
+        <v>51.6258445892826</v>
       </c>
       <c r="I41">
-        <v>12.2954759028611</v>
+        <v>10.3961773486871</v>
       </c>
       <c r="J41">
-        <v>71.3846456643999</v>
+        <v>58.3752324299375</v>
       </c>
       <c r="K41">
-        <v>38.7519755723499</v>
+        <v>30.515661897798</v>
       </c>
       <c r="L41">
-        <v>36.6296667621322</v>
+        <v>30.3429898588497</v>
       </c>
       <c r="M41">
-        <v>53.6014353250745</v>
+        <v>42.7594665968895</v>
       </c>
       <c r="N41">
-        <v>27.340338711616</v>
+        <v>21.3572952686652</v>
       </c>
       <c r="O41">
-        <v>2034.26221502066</v>
+        <v>1685.10689457229</v>
       </c>
       <c r="P41">
-        <v>22.044108442904</v>
+        <v>16.6689864325765</v>
       </c>
     </row>
     <row r="42">
@@ -2526,49 +2526,49 @@
         </is>
       </c>
       <c r="B42">
-        <v>46.9907568801762</v>
+        <v>99.94605671376181</v>
       </c>
       <c r="C42">
-        <v>12.6526786419721</v>
+        <v>11.9433875734622</v>
       </c>
       <c r="D42">
-        <v>0.50576352271537</v>
+        <v>0.456685835983489</v>
       </c>
       <c r="E42">
-        <v>9.655865032964771</v>
+        <v>9.00453078248259</v>
       </c>
       <c r="F42">
-        <v>3.57888415663814</v>
+        <v>3.46870500914057</v>
       </c>
       <c r="G42">
-        <v>1.60460795908921</v>
+        <v>1.40040871715217</v>
       </c>
       <c r="H42">
-        <v>2.38042496809899</v>
+        <v>2.17380663823681</v>
       </c>
       <c r="I42">
-        <v>2.54314137477799</v>
+        <v>2.40560942245759</v>
       </c>
       <c r="J42">
-        <v>6.67215968977991</v>
+        <v>5.89198948572896</v>
       </c>
       <c r="K42">
-        <v>7.78905554460848</v>
+        <v>6.66624866222868</v>
       </c>
       <c r="L42">
-        <v>10.2795339658755</v>
+        <v>9.152521175379629</v>
       </c>
       <c r="M42">
-        <v>4.22930758107403</v>
+        <v>3.85527170620314</v>
       </c>
       <c r="N42">
-        <v>11.7371987604067</v>
+        <v>10.5809970906839</v>
       </c>
       <c r="O42">
-        <v>523.343314303707</v>
+        <v>479.823940160441</v>
       </c>
       <c r="P42">
-        <v>56.0856465989531</v>
+        <v>51.8690047031948</v>
       </c>
     </row>
     <row r="43">
@@ -2578,49 +2578,49 @@
         </is>
       </c>
       <c r="B43">
-        <v>504.320921083542</v>
+        <v>1149.68298853553</v>
       </c>
       <c r="C43">
-        <v>54.4780066622489</v>
+        <v>44.2924499618241</v>
       </c>
       <c r="D43">
-        <v>29.5445422882631</v>
+        <v>23.2725195176596</v>
       </c>
       <c r="E43">
-        <v>51.886034563656</v>
+        <v>41.3641008718826</v>
       </c>
       <c r="F43">
-        <v>13.41392273237</v>
+        <v>9.5531622490376</v>
       </c>
       <c r="G43">
-        <v>53.5330785640308</v>
+        <v>42.6410741691819</v>
       </c>
       <c r="H43">
-        <v>30.3999310849086</v>
+        <v>25.3326450487549</v>
       </c>
       <c r="I43">
-        <v>33.7997673570078</v>
+        <v>28.2233592025437</v>
       </c>
       <c r="J43">
-        <v>57.6817437615216</v>
+        <v>47.5667731710421</v>
       </c>
       <c r="K43">
-        <v>56.5999286942967</v>
+        <v>47.071711786265</v>
       </c>
       <c r="L43">
-        <v>49.5129566001669</v>
+        <v>40.0270422457463</v>
       </c>
       <c r="M43">
-        <v>101.760341632713</v>
+        <v>84.68573092963381</v>
       </c>
       <c r="N43">
-        <v>67.4759293607603</v>
+        <v>57.8176966580034</v>
       </c>
       <c r="O43">
-        <v>3016.27582760156</v>
+        <v>2503.70546259826</v>
       </c>
       <c r="P43">
-        <v>58.9064349966093</v>
+        <v>40.731021065455</v>
       </c>
     </row>
     <row r="44">
@@ -2630,49 +2630,49 @@
         </is>
       </c>
       <c r="B44">
-        <v>2019.85886888662</v>
+        <v>3459.23851617894</v>
       </c>
       <c r="C44">
-        <v>165.821387009007</v>
+        <v>146.011431956941</v>
       </c>
       <c r="D44">
-        <v>54.0372624964697</v>
+        <v>47.4173072887292</v>
       </c>
       <c r="E44">
-        <v>93.7916447662103</v>
+        <v>80.9914591471005</v>
       </c>
       <c r="F44">
-        <v>320.035664034155</v>
+        <v>277.198944654575</v>
       </c>
       <c r="G44">
-        <v>151.502517342151</v>
+        <v>129.679678290879</v>
       </c>
       <c r="H44">
-        <v>45.6834429450192</v>
+        <v>38.8264652683426</v>
       </c>
       <c r="I44">
-        <v>60.7967901433027</v>
+        <v>53.3478761494783</v>
       </c>
       <c r="J44">
-        <v>141.790729985102</v>
+        <v>124.829036161954</v>
       </c>
       <c r="K44">
-        <v>91.451194643413</v>
+        <v>79.14499999691969</v>
       </c>
       <c r="L44">
-        <v>246.731401114046</v>
+        <v>216.082243535669</v>
       </c>
       <c r="M44">
-        <v>127.834139880153</v>
+        <v>113.041764105024</v>
       </c>
       <c r="N44">
-        <v>122.804708045133</v>
+        <v>112.334584270296</v>
       </c>
       <c r="O44">
-        <v>10290.8837695492</v>
+        <v>9084.856883224311</v>
       </c>
       <c r="P44">
-        <v>238.980749223104</v>
+        <v>205.286702962171</v>
       </c>
     </row>
     <row r="45">
@@ -2682,49 +2682,49 @@
         </is>
       </c>
       <c r="B45">
-        <v>216.632023796615</v>
+        <v>341.892577115633</v>
       </c>
       <c r="C45">
-        <v>18.720487103971</v>
+        <v>17.2384075174314</v>
       </c>
       <c r="D45">
-        <v>4.85365637258972</v>
+        <v>4.4102923593938</v>
       </c>
       <c r="E45">
-        <v>10.1700600372768</v>
+        <v>10.3594924075704</v>
       </c>
       <c r="F45">
-        <v>26.5815034735917</v>
+        <v>23.499762261997</v>
       </c>
       <c r="G45">
-        <v>14.239327380108</v>
+        <v>12.9305027051682</v>
       </c>
       <c r="H45">
-        <v>3.63749607771204</v>
+        <v>3.05471001454759</v>
       </c>
       <c r="I45">
-        <v>3.69809542685647</v>
+        <v>3.32855813579779</v>
       </c>
       <c r="J45">
-        <v>16.9157548701761</v>
+        <v>15.3342361712449</v>
       </c>
       <c r="K45">
-        <v>7.60408449008963</v>
+        <v>6.9011050357451</v>
       </c>
       <c r="L45">
-        <v>21.6734003360106</v>
+        <v>19.3858049849631</v>
       </c>
       <c r="M45">
-        <v>23.912366606428</v>
+        <v>20.9781924576563</v>
       </c>
       <c r="N45">
-        <v>29.0690879375362</v>
+        <v>25.5205059175798</v>
       </c>
       <c r="O45">
-        <v>1089.47102648124</v>
+        <v>982.815376996938</v>
       </c>
       <c r="P45">
-        <v>16.1284812176925</v>
+        <v>13.23136433356</v>
       </c>
     </row>
     <row r="46">
@@ -2734,49 +2734,49 @@
         </is>
       </c>
       <c r="B46">
-        <v>41.0903252026519</v>
+        <v>94.41038757703799</v>
       </c>
       <c r="C46">
-        <v>6.38632601244976</v>
+        <v>5.73267300662826</v>
       </c>
       <c r="D46">
-        <v>1.32598125583327</v>
+        <v>1.2707277226509</v>
       </c>
       <c r="E46">
-        <v>7.26016410562222</v>
+        <v>6.58070890479373</v>
       </c>
       <c r="F46">
-        <v>1.45808792702313</v>
+        <v>1.34690092301583</v>
       </c>
       <c r="G46">
-        <v>2.17399073467312</v>
+        <v>1.97114049321451</v>
       </c>
       <c r="H46">
-        <v>4.28283814041838</v>
+        <v>3.82019186093065</v>
       </c>
       <c r="I46">
-        <v>2.23231074411405</v>
+        <v>1.95392146696874</v>
       </c>
       <c r="J46">
-        <v>6.79023758382121</v>
+        <v>6.28325146357257</v>
       </c>
       <c r="K46">
-        <v>5.08223460607406</v>
+        <v>3.9808095249015</v>
       </c>
       <c r="L46">
-        <v>20.5459723753317</v>
+        <v>17.5446002190373</v>
       </c>
       <c r="M46">
-        <v>6.51893449144712</v>
+        <v>5.19180688562915</v>
       </c>
       <c r="N46">
-        <v>7.43031235271891</v>
+        <v>6.69477370351116</v>
       </c>
       <c r="O46">
-        <v>420.553389674693</v>
+        <v>376.414323381479</v>
       </c>
       <c r="P46">
-        <v>13.0401971591326</v>
+        <v>11.9202526177069</v>
       </c>
     </row>
     <row r="47">
@@ -2786,49 +2786,49 @@
         </is>
       </c>
       <c r="B47">
-        <v>508.445137339361</v>
+        <v>1047.67278989643</v>
       </c>
       <c r="C47">
-        <v>67.6608863824528</v>
+        <v>56.5529998401988</v>
       </c>
       <c r="D47">
-        <v>32.3034530663893</v>
+        <v>27.870048181852</v>
       </c>
       <c r="E47">
-        <v>45.3959387394826</v>
+        <v>40.0400173930973</v>
       </c>
       <c r="F47">
-        <v>14.4507205890221</v>
+        <v>12.2354117641419</v>
       </c>
       <c r="G47">
-        <v>23.0678893024134</v>
+        <v>18.1321952241932</v>
       </c>
       <c r="H47">
-        <v>18.708855713479</v>
+        <v>15.0685134959454</v>
       </c>
       <c r="I47">
-        <v>13.7731150171342</v>
+        <v>11.9834967866452</v>
       </c>
       <c r="J47">
-        <v>49.8556494495384</v>
+        <v>42.5501464710569</v>
       </c>
       <c r="K47">
-        <v>11.7730213722073</v>
+        <v>9.06642080553188</v>
       </c>
       <c r="L47">
-        <v>52.4863465647959</v>
+        <v>44.0138170977506</v>
       </c>
       <c r="M47">
-        <v>74.5426047659906</v>
+        <v>66.57982223971359</v>
       </c>
       <c r="N47">
-        <v>27.965723339086</v>
+        <v>24.3174479287886</v>
       </c>
       <c r="O47">
-        <v>3845.07298122684</v>
+        <v>3373.76752730124</v>
       </c>
       <c r="P47">
-        <v>44.4250625007206</v>
+        <v>40.3897747156529</v>
       </c>
     </row>
     <row r="48">
@@ -2838,49 +2838,49 @@
         </is>
       </c>
       <c r="B48">
-        <v>545.203306013843</v>
+        <v>1041.28595197497</v>
       </c>
       <c r="C48">
-        <v>21.7594302030658</v>
+        <v>18.9050901172114</v>
       </c>
       <c r="D48">
-        <v>12.0171992404417</v>
+        <v>9.19108459573182</v>
       </c>
       <c r="E48">
-        <v>61.5775546925598</v>
+        <v>52.6170264194221</v>
       </c>
       <c r="F48">
-        <v>9.253530449406719</v>
+        <v>8.109241255868479</v>
       </c>
       <c r="G48">
-        <v>5.4001246935215</v>
+        <v>4.69376422172492</v>
       </c>
       <c r="H48">
-        <v>5.94510711144787</v>
+        <v>4.91101406589858</v>
       </c>
       <c r="I48">
-        <v>18.125416795674</v>
+        <v>15.3671282070663</v>
       </c>
       <c r="J48">
-        <v>33.5637515798651</v>
+        <v>29.0308345978136</v>
       </c>
       <c r="K48">
-        <v>16.0964934646113</v>
+        <v>11.3170171870765</v>
       </c>
       <c r="L48">
-        <v>47.4657683567481</v>
+        <v>40.7753584060118</v>
       </c>
       <c r="M48">
-        <v>177.448201085838</v>
+        <v>154.528592812702</v>
       </c>
       <c r="N48">
-        <v>30.4795170487825</v>
+        <v>27.617421822275</v>
       </c>
       <c r="O48">
-        <v>3133.91816134233</v>
+        <v>2711.36789773209</v>
       </c>
       <c r="P48">
-        <v>88.9524980398958</v>
+        <v>78.9195423119758</v>
       </c>
     </row>
     <row r="49">
@@ -2890,49 +2890,49 @@
         </is>
       </c>
       <c r="B49">
-        <v>254.412437906208</v>
+        <v>545.681108400892</v>
       </c>
       <c r="C49">
-        <v>7.64054873566316</v>
+        <v>5.17975758450652</v>
       </c>
       <c r="D49">
-        <v>1.61451439813692</v>
+        <v>0.769310404213036</v>
       </c>
       <c r="E49">
-        <v>21.2671696159207</v>
+        <v>16.8517069025564</v>
       </c>
       <c r="F49">
-        <v>55.9660206927161</v>
+        <v>41.6849599016742</v>
       </c>
       <c r="G49">
-        <v>27.7720003635725</v>
+        <v>20.8543380755869</v>
       </c>
       <c r="H49">
-        <v>8.279703587333911</v>
+        <v>6.75796098116198</v>
       </c>
       <c r="I49">
-        <v>6.95905116211938</v>
+        <v>5.93345793375046</v>
       </c>
       <c r="J49">
-        <v>34.1860760481373</v>
+        <v>26.5917751813031</v>
       </c>
       <c r="K49">
-        <v>10.4368893711482</v>
+        <v>7.60218290009385</v>
       </c>
       <c r="L49">
-        <v>3.65071650038934</v>
+        <v>2.81942550337546</v>
       </c>
       <c r="M49">
-        <v>5.61274021343345</v>
+        <v>4.42955864103365</v>
       </c>
       <c r="N49">
-        <v>3.82752299842596</v>
+        <v>2.81922029786308</v>
       </c>
       <c r="O49">
-        <v>1021.6924162455</v>
+        <v>786.621345608027</v>
       </c>
       <c r="P49">
-        <v>16.3561668499145</v>
+        <v>11.4578717030751</v>
       </c>
     </row>
     <row r="50">
@@ -2942,49 +2942,49 @@
         </is>
       </c>
       <c r="B50">
-        <v>332.290330053567</v>
+        <v>729.055334608216</v>
       </c>
       <c r="C50">
-        <v>84.47077404930771</v>
+        <v>74.39882830101121</v>
       </c>
       <c r="D50">
-        <v>12.4486512927519</v>
+        <v>10.9941953595372</v>
       </c>
       <c r="E50">
-        <v>124.391214321415</v>
+        <v>108.577009795515</v>
       </c>
       <c r="F50">
-        <v>3.52192783463591</v>
+        <v>3.14307640175959</v>
       </c>
       <c r="G50">
-        <v>38.4171117616513</v>
+        <v>33.2050921796445</v>
       </c>
       <c r="H50">
-        <v>45.9425038664005</v>
+        <v>42.5629323409158</v>
       </c>
       <c r="I50">
-        <v>20.6244677033483</v>
+        <v>17.0758752905601</v>
       </c>
       <c r="J50">
-        <v>124.174635340014</v>
+        <v>106.326056242586</v>
       </c>
       <c r="K50">
-        <v>85.1511462539787</v>
+        <v>72.8083109956381</v>
       </c>
       <c r="L50">
-        <v>91.3959337069544</v>
+        <v>80.56275427592929</v>
       </c>
       <c r="M50">
-        <v>33.7836686442469</v>
+        <v>27.8120183841286</v>
       </c>
       <c r="N50">
-        <v>81.62934676199239</v>
+        <v>68.5835273126021</v>
       </c>
       <c r="O50">
-        <v>2661.12233643743</v>
+        <v>2365.53914263053</v>
       </c>
       <c r="P50">
-        <v>69.23221983468299</v>
+        <v>64.75902135627329</v>
       </c>
     </row>
     <row r="51">
@@ -2994,49 +2994,49 @@
         </is>
       </c>
       <c r="B51">
-        <v>50.3210259933871</v>
+        <v>106.572309161407</v>
       </c>
       <c r="C51">
-        <v>1.02378627304775</v>
+        <v>0.93418267295202</v>
       </c>
       <c r="D51">
-        <v>0.255607394443341</v>
+        <v>0.253608623499501</v>
       </c>
       <c r="E51">
-        <v>2.25974776055695</v>
+        <v>2.12544062609268</v>
       </c>
       <c r="F51">
-        <v>55.7819968107485</v>
+        <v>48.7952862452603</v>
       </c>
       <c r="G51">
-        <v>3.98286259703196</v>
+        <v>3.54590579309496</v>
       </c>
       <c r="H51">
-        <v>0.367243738810063</v>
+        <v>0.321299356042022</v>
       </c>
       <c r="I51">
-        <v>0.695901701556</v>
+        <v>0.58137414832385</v>
       </c>
       <c r="J51">
-        <v>2.6387790395488</v>
+        <v>2.32798794785345</v>
       </c>
       <c r="K51">
-        <v>1.07439355797119</v>
+        <v>0.949350762917324</v>
       </c>
       <c r="L51">
-        <v>0.399845859428363</v>
+        <v>0.345115008632297</v>
       </c>
       <c r="M51">
-        <v>0.422322466768714</v>
+        <v>0.476174018504897</v>
       </c>
       <c r="N51">
-        <v>1.46050646512529</v>
+        <v>1.32685863338529</v>
       </c>
       <c r="O51">
-        <v>399.319549126546</v>
+        <v>353.691615334288</v>
       </c>
       <c r="P51">
-        <v>22.9702415868967</v>
+        <v>19.1926081555126</v>
       </c>
     </row>
     <row r="52">

--- a/1-Data-Codes/2-Final_Data/L_2007.xlsx
+++ b/1-Data-Codes/2-Final_Data/L_2007.xlsx
@@ -446,49 +446,49 @@
         </is>
       </c>
       <c r="B2">
-        <v>931.479073216158</v>
+        <v>1265.76543457678</v>
       </c>
       <c r="C2">
-        <v>38.1893020453717</v>
+        <v>20.485678964487</v>
       </c>
       <c r="D2">
-        <v>56.8147571654472</v>
+        <v>24.3628893236515</v>
       </c>
       <c r="E2">
-        <v>66.7081284777485</v>
+        <v>45.502794440216</v>
       </c>
       <c r="F2">
-        <v>21.8979256231619</v>
+        <v>23.9523734185429</v>
       </c>
       <c r="G2">
-        <v>18.7639698282113</v>
+        <v>23.031122969438</v>
       </c>
       <c r="H2">
-        <v>30.0448793889149</v>
+        <v>9.32226705451933</v>
       </c>
       <c r="I2">
-        <v>22.8003565968986</v>
+        <v>13.1152015947637</v>
       </c>
       <c r="J2">
-        <v>68.0937126968587</v>
+        <v>65.6358860501161</v>
       </c>
       <c r="K2">
-        <v>22.6675074372981</v>
+        <v>14.313819558274</v>
       </c>
       <c r="L2">
-        <v>32.831203534018</v>
+        <v>50.4485195327273</v>
       </c>
       <c r="M2">
-        <v>50.0086869756226</v>
+        <v>66.5930817637459</v>
       </c>
       <c r="N2">
-        <v>23.1979620555359</v>
+        <v>23.434106446816</v>
       </c>
       <c r="O2">
-        <v>1792.41962791807</v>
+        <v>1540.4130080887</v>
       </c>
       <c r="P2">
-        <v>32.5829248014842</v>
+        <v>22.8934787623037</v>
       </c>
     </row>
     <row r="3">
@@ -498,49 +498,49 @@
         </is>
       </c>
       <c r="B3">
-        <v>137.958338264283</v>
+        <v>155.271454914056</v>
       </c>
       <c r="C3">
-        <v>2.77412344730212</v>
+        <v>1.00128284611016</v>
       </c>
       <c r="D3">
-        <v>0.163313584825761</v>
+        <v>0.333082262861973</v>
       </c>
       <c r="E3">
-        <v>0.8275335704150451</v>
+        <v>1.43492376708635</v>
       </c>
       <c r="F3">
-        <v>14.5746439322621</v>
+        <v>14.2130143143445</v>
       </c>
       <c r="G3">
-        <v>0.188310493336615</v>
+        <v>0.591645110071729</v>
       </c>
       <c r="H3">
-        <v>0.0938502068761852</v>
+        <v>0.3043347277141</v>
       </c>
       <c r="I3">
-        <v>0.263029849304305</v>
+        <v>0.6133932042486791</v>
       </c>
       <c r="J3">
-        <v>0.258462995541885</v>
+        <v>0.361874620430807</v>
       </c>
       <c r="K3">
-        <v>0.0702157263967243</v>
+        <v>0.250835072087785</v>
       </c>
       <c r="L3">
-        <v>0.0398006651518407</v>
+        <v>0.40912656777255</v>
       </c>
       <c r="M3">
-        <v>0.346037007745166</v>
+        <v>0.393778573395612</v>
       </c>
       <c r="N3">
-        <v>0.999619382337953</v>
+        <v>1.93399155191986</v>
       </c>
       <c r="O3">
-        <v>370.809298391073</v>
+        <v>352.019591639316</v>
       </c>
       <c r="P3">
-        <v>9.52017229861119</v>
+        <v>12.6197075519741</v>
       </c>
     </row>
     <row r="4">
@@ -550,49 +550,49 @@
         </is>
       </c>
       <c r="B4">
-        <v>995.397705913456</v>
+        <v>1290.73071331567</v>
       </c>
       <c r="C4">
-        <v>14.2691639430491</v>
+        <v>15.505147888339</v>
       </c>
       <c r="D4">
-        <v>5.17326734479645</v>
+        <v>1.82427780112829</v>
       </c>
       <c r="E4">
-        <v>11.1398485096353</v>
+        <v>18.7774960709439</v>
       </c>
       <c r="F4">
-        <v>5.62361719127633</v>
+        <v>12.3676701295849</v>
       </c>
       <c r="G4">
-        <v>8.382888528222701</v>
+        <v>7.52971219485211</v>
       </c>
       <c r="H4">
-        <v>9.205760393091859</v>
+        <v>2.42770768648976</v>
       </c>
       <c r="I4">
-        <v>14.1378894010933</v>
+        <v>6.13436982770573</v>
       </c>
       <c r="J4">
-        <v>33.9429642164824</v>
+        <v>31.934500050686</v>
       </c>
       <c r="K4">
-        <v>9.378466850050391</v>
+        <v>3.64978263231949</v>
       </c>
       <c r="L4">
-        <v>84.95849712767119</v>
+        <v>64.63799496552291</v>
       </c>
       <c r="M4">
-        <v>49.6951421024309</v>
+        <v>43.625670061964</v>
       </c>
       <c r="N4">
-        <v>36.3106945704082</v>
+        <v>31.5467788532988</v>
       </c>
       <c r="O4">
-        <v>2535.12267813091</v>
+        <v>2322.5410781276</v>
       </c>
       <c r="P4">
-        <v>27.1536624232292</v>
+        <v>11.0618949525818</v>
       </c>
     </row>
     <row r="5">
@@ -602,49 +602,49 @@
         </is>
       </c>
       <c r="B5">
-        <v>583.093147594543</v>
+        <v>671.250572359112</v>
       </c>
       <c r="C5">
-        <v>72.336942824223</v>
+        <v>49.9822732814904</v>
       </c>
       <c r="D5">
-        <v>12.8987122802055</v>
+        <v>9.560610502833329</v>
       </c>
       <c r="E5">
-        <v>34.5505937966483</v>
+        <v>20.6671013607793</v>
       </c>
       <c r="F5">
-        <v>5.05519496809654</v>
+        <v>6.20452386868788</v>
       </c>
       <c r="G5">
-        <v>7.58605881637507</v>
+        <v>7.433237849981</v>
       </c>
       <c r="H5">
-        <v>15.828316809793</v>
+        <v>9.677249368242849</v>
       </c>
       <c r="I5">
-        <v>9.18859535569438</v>
+        <v>6.74209637593215</v>
       </c>
       <c r="J5">
-        <v>32.1236819584099</v>
+        <v>24.9492598871146</v>
       </c>
       <c r="K5">
-        <v>22.1073034770626</v>
+        <v>3.98844554697924</v>
       </c>
       <c r="L5">
-        <v>20.2401837788932</v>
+        <v>10.2529846930961</v>
       </c>
       <c r="M5">
-        <v>18.3890772544029</v>
+        <v>18.0659108544006</v>
       </c>
       <c r="N5">
-        <v>18.0797778703196</v>
+        <v>29.8806241085948</v>
       </c>
       <c r="O5">
-        <v>1044.27688232357</v>
+        <v>1027.9771814947</v>
       </c>
       <c r="P5">
-        <v>56.1952200770649</v>
+        <v>52.0814936838429</v>
       </c>
     </row>
     <row r="6">
@@ -654,49 +654,49 @@
         </is>
       </c>
       <c r="B6">
-        <v>5535.02556093534</v>
+        <v>6775.67032699491</v>
       </c>
       <c r="C6">
-        <v>163.944465858673</v>
+        <v>191.787397710106</v>
       </c>
       <c r="D6">
-        <v>136.653920262299</v>
+        <v>33.9164475019872</v>
       </c>
       <c r="E6">
-        <v>127.09409305603</v>
+        <v>156.351114680799</v>
       </c>
       <c r="F6">
-        <v>30.4505661391645</v>
+        <v>44.1578812128404</v>
       </c>
       <c r="G6">
-        <v>109.883733702453</v>
+        <v>101.793504908618</v>
       </c>
       <c r="H6">
-        <v>61.4795157191535</v>
+        <v>50.6932024794887</v>
       </c>
       <c r="I6">
-        <v>50.7078835636216</v>
+        <v>33.20245819584</v>
       </c>
       <c r="J6">
-        <v>173.271048565458</v>
+        <v>153.947443751093</v>
       </c>
       <c r="K6">
-        <v>101.50114716374</v>
+        <v>34.8524465946286</v>
       </c>
       <c r="L6">
-        <v>490.984395528126</v>
+        <v>421.427683243543</v>
       </c>
       <c r="M6">
-        <v>305.420962101214</v>
+        <v>241.312750272902</v>
       </c>
       <c r="N6">
-        <v>272.505674849885</v>
+        <v>296.473691092381</v>
       </c>
       <c r="O6">
-        <v>14388.450927475</v>
+        <v>13371.5125874983</v>
       </c>
       <c r="P6">
-        <v>194.591714041195</v>
+        <v>263.566907952224</v>
       </c>
     </row>
     <row r="7">
@@ -706,49 +706,49 @@
         </is>
       </c>
       <c r="B7">
-        <v>590.6621420676941</v>
+        <v>720.406300299335</v>
       </c>
       <c r="C7">
-        <v>41.3755748806645</v>
+        <v>44.5506798425298</v>
       </c>
       <c r="D7">
-        <v>2.90930137252353</v>
+        <v>4.22103628511299</v>
       </c>
       <c r="E7">
-        <v>17.0766262210111</v>
+        <v>16.2369790436107</v>
       </c>
       <c r="F7">
-        <v>13.4953625328047</v>
+        <v>23.2567293584975</v>
       </c>
       <c r="G7">
-        <v>8.453113883631749</v>
+        <v>12.2433599786826</v>
       </c>
       <c r="H7">
-        <v>5.36289002015338</v>
+        <v>2.4411796350358</v>
       </c>
       <c r="I7">
-        <v>9.639210433261219</v>
+        <v>9.78171251007714</v>
       </c>
       <c r="J7">
-        <v>15.818494683743</v>
+        <v>18.0977198124665</v>
       </c>
       <c r="K7">
-        <v>13.4792091350545</v>
+        <v>7.43630692883593</v>
       </c>
       <c r="L7">
-        <v>59.0540888841109</v>
+        <v>43.0706614234598</v>
       </c>
       <c r="M7">
-        <v>18.8913305194389</v>
+        <v>21.1976873434862</v>
       </c>
       <c r="N7">
-        <v>21.7759181965166</v>
+        <v>23.1453281787142</v>
       </c>
       <c r="O7">
-        <v>2118.11005921783</v>
+        <v>1989.90804615205</v>
       </c>
       <c r="P7">
-        <v>21.2394986741712</v>
+        <v>30.1206462617159</v>
       </c>
     </row>
     <row r="8">
@@ -758,49 +758,49 @@
         </is>
       </c>
       <c r="B8">
-        <v>449.127156228101</v>
+        <v>582.410827524439</v>
       </c>
       <c r="C8">
-        <v>12.0442305546657</v>
+        <v>12.1110271928086</v>
       </c>
       <c r="D8">
-        <v>4.47416134419173</v>
+        <v>2.81429952966235</v>
       </c>
       <c r="E8">
-        <v>14.1014793024601</v>
+        <v>20.0037216748823</v>
       </c>
       <c r="F8">
-        <v>1.12590525170493</v>
+        <v>2.98860750154126</v>
       </c>
       <c r="G8">
-        <v>32.7510516797636</v>
+        <v>22.1993497272034</v>
       </c>
       <c r="H8">
-        <v>12.065627674173</v>
+        <v>8.455671512928751</v>
       </c>
       <c r="I8">
-        <v>1.61073725033727</v>
+        <v>7.9478691825258</v>
       </c>
       <c r="J8">
-        <v>52.4535340167393</v>
+        <v>42.861925476022</v>
       </c>
       <c r="K8">
-        <v>23.8994872177768</v>
+        <v>8.193244835088411</v>
       </c>
       <c r="L8">
-        <v>43.2236010665235</v>
+        <v>35.5562146586161</v>
       </c>
       <c r="M8">
-        <v>69.0202302813526</v>
+        <v>53.3585017996836</v>
       </c>
       <c r="N8">
-        <v>24.9502483820733</v>
+        <v>32.9267967676437</v>
       </c>
       <c r="O8">
-        <v>1567.87935334814</v>
+        <v>1457.77042434556</v>
       </c>
       <c r="P8">
-        <v>5.22107750895556</v>
+        <v>10.197895879109</v>
       </c>
     </row>
     <row r="9">
@@ -810,49 +810,49 @@
         </is>
       </c>
       <c r="B9">
-        <v>158.314202583385</v>
+        <v>203.956632408856</v>
       </c>
       <c r="C9">
-        <v>11.1606542363752</v>
+        <v>9.270098295169699</v>
       </c>
       <c r="D9">
-        <v>1.17281256942513</v>
+        <v>2.14796139719998</v>
       </c>
       <c r="E9">
-        <v>5.58230815254267</v>
+        <v>4.56194722823501</v>
       </c>
       <c r="F9">
-        <v>1.62338132309982</v>
+        <v>1.18775567433992</v>
       </c>
       <c r="G9">
-        <v>28.7360357364901</v>
+        <v>24.421670808335</v>
       </c>
       <c r="H9">
-        <v>2.06367496987629</v>
+        <v>2.72330319982787</v>
       </c>
       <c r="I9">
-        <v>2.35545912284244</v>
+        <v>1.99312354190026</v>
       </c>
       <c r="J9">
-        <v>4.520792051903</v>
+        <v>3.83252414773688</v>
       </c>
       <c r="K9">
-        <v>4.28531915758544</v>
+        <v>0.614346947384164</v>
       </c>
       <c r="L9">
-        <v>4.76516205156902</v>
+        <v>2.89275479005664</v>
       </c>
       <c r="M9">
-        <v>9.01269016202666</v>
+        <v>6.71224177062591</v>
       </c>
       <c r="N9">
-        <v>7.11569719573939</v>
+        <v>2.67067756740815</v>
       </c>
       <c r="O9">
-        <v>492.832425964527</v>
+        <v>467.684693806205</v>
       </c>
       <c r="P9">
-        <v>8.02618705864503</v>
+        <v>6.25610456518101</v>
       </c>
     </row>
     <row r="10">
@@ -862,49 +862,49 @@
         </is>
       </c>
       <c r="B10">
-        <v>2924.85998467963</v>
+        <v>3769.43908058064</v>
       </c>
       <c r="C10">
-        <v>48.071897175212</v>
+        <v>49.597223131364</v>
       </c>
       <c r="D10">
-        <v>15.6704050340616</v>
+        <v>9.71387870399567</v>
       </c>
       <c r="E10">
-        <v>44.8271284766105</v>
+        <v>69.2101569986972</v>
       </c>
       <c r="F10">
-        <v>11.3389751677041</v>
+        <v>10.5746201965181</v>
       </c>
       <c r="G10">
-        <v>25.6429274734343</v>
+        <v>39.5792615592233</v>
       </c>
       <c r="H10">
-        <v>15.1299070707446</v>
+        <v>12.7407202630328</v>
       </c>
       <c r="I10">
-        <v>32.1290276224008</v>
+        <v>19.2316766044715</v>
       </c>
       <c r="J10">
-        <v>47.3119575472819</v>
+        <v>53.2801326879766</v>
       </c>
       <c r="K10">
-        <v>18.1424376669803</v>
+        <v>7.04026570526554</v>
       </c>
       <c r="L10">
-        <v>98.0495868747357</v>
+        <v>61.6768232494201</v>
       </c>
       <c r="M10">
-        <v>99.7420639275079</v>
+        <v>85.5474350692687</v>
       </c>
       <c r="N10">
-        <v>101.866950987766</v>
+        <v>95.46049971499809</v>
       </c>
       <c r="O10">
-        <v>8682.83211092206</v>
+        <v>7969.43225405408</v>
       </c>
       <c r="P10">
-        <v>60.9651142507558</v>
+        <v>60.3473920824761</v>
       </c>
     </row>
     <row r="11">
@@ -914,49 +914,49 @@
         </is>
       </c>
       <c r="B11">
-        <v>1444.73851987216</v>
+        <v>1884.23110779111</v>
       </c>
       <c r="C11">
-        <v>58.5982480853034</v>
+        <v>69.1322960104997</v>
       </c>
       <c r="D11">
-        <v>130.537436930369</v>
+        <v>106.38766422196</v>
       </c>
       <c r="E11">
-        <v>90.28315434671031</v>
+        <v>84.8997683634117</v>
       </c>
       <c r="F11">
-        <v>5.87775056373055</v>
+        <v>14.8641582628207</v>
       </c>
       <c r="G11">
-        <v>29.0584495954339</v>
+        <v>25.8125337336105</v>
       </c>
       <c r="H11">
-        <v>21.7588411475649</v>
+        <v>24.2518155526878</v>
       </c>
       <c r="I11">
-        <v>17.4927287895015</v>
+        <v>11.9702846741132</v>
       </c>
       <c r="J11">
-        <v>58.0031402700134</v>
+        <v>42.1179275799232</v>
       </c>
       <c r="K11">
-        <v>28.69189574932</v>
+        <v>6.07602437934783</v>
       </c>
       <c r="L11">
-        <v>54.1473495750597</v>
+        <v>43.9808581389092</v>
       </c>
       <c r="M11">
-        <v>47.4259550814417</v>
+        <v>56.832583362372</v>
       </c>
       <c r="N11">
-        <v>47.5871531185382</v>
+        <v>60.5768753910652</v>
       </c>
       <c r="O11">
-        <v>3834.23257391095</v>
+        <v>3403.66670406604</v>
       </c>
       <c r="P11">
-        <v>22.7556017523912</v>
+        <v>52.9015389687884</v>
       </c>
     </row>
     <row r="12">
@@ -966,49 +966,49 @@
         </is>
       </c>
       <c r="B12">
-        <v>214.910582550626</v>
+        <v>260.197778538596</v>
       </c>
       <c r="C12">
-        <v>8.902804712207351</v>
+        <v>8.15079487533478</v>
       </c>
       <c r="D12">
-        <v>1.0142958213099</v>
+        <v>0.784388701328178</v>
       </c>
       <c r="E12">
-        <v>1.6616748682142</v>
+        <v>3.44940129646293</v>
       </c>
       <c r="F12">
-        <v>0.315662383398388</v>
+        <v>0.828761339953886</v>
       </c>
       <c r="G12">
-        <v>0.572841393150436</v>
+        <v>0.317356510756271</v>
       </c>
       <c r="H12">
-        <v>0.245334975334656</v>
+        <v>0.113564887500284</v>
       </c>
       <c r="I12">
-        <v>1.60543702620145</v>
+        <v>1.00354300398949</v>
       </c>
       <c r="J12">
-        <v>0.841987933232032</v>
+        <v>2.3870741714555</v>
       </c>
       <c r="K12">
-        <v>0.14746153908401</v>
+        <v>0.361721557694435</v>
       </c>
       <c r="L12">
-        <v>0.239184103225617</v>
+        <v>0.0129729452930507</v>
       </c>
       <c r="M12">
-        <v>2.50690903162864</v>
+        <v>2.37731042369895</v>
       </c>
       <c r="N12">
-        <v>5.12777296737168</v>
+        <v>5.88070586187848</v>
       </c>
       <c r="O12">
-        <v>742.390009400053</v>
+        <v>698.816632352786</v>
       </c>
       <c r="P12">
-        <v>17.7917696845229</v>
+        <v>19.5087107569163</v>
       </c>
     </row>
     <row r="13">
@@ -1018,49 +1018,49 @@
         </is>
       </c>
       <c r="B13">
-        <v>213.146673225873</v>
+        <v>255.805694289137</v>
       </c>
       <c r="C13">
-        <v>27.9107883617751</v>
+        <v>24.1272995741493</v>
       </c>
       <c r="D13">
-        <v>0.643440016301236</v>
+        <v>0.511295381089331</v>
       </c>
       <c r="E13">
-        <v>14.7469958393843</v>
+        <v>12.2445653924442</v>
       </c>
       <c r="F13">
-        <v>3.95920547918789</v>
+        <v>3.53100182053089</v>
       </c>
       <c r="G13">
-        <v>5.39312411390865</v>
+        <v>7.58163110455838</v>
       </c>
       <c r="H13">
-        <v>2.83916283177703</v>
+        <v>2.86714087556256</v>
       </c>
       <c r="I13">
-        <v>1.64671116205267</v>
+        <v>2.39028768625532</v>
       </c>
       <c r="J13">
-        <v>7.37571461469084</v>
+        <v>6.03133936388588</v>
       </c>
       <c r="K13">
-        <v>3.25580273183397</v>
+        <v>4.97570766381824</v>
       </c>
       <c r="L13">
-        <v>25.108163993837</v>
+        <v>18.9897683731415</v>
       </c>
       <c r="M13">
-        <v>3.45719646685087</v>
+        <v>3.13955464192467</v>
       </c>
       <c r="N13">
-        <v>6.84263567738286</v>
+        <v>3.00504892592516</v>
       </c>
       <c r="O13">
-        <v>658.56951312197</v>
+        <v>635.3374164649511</v>
       </c>
       <c r="P13">
-        <v>54.4826756321626</v>
+        <v>47.3282324705984</v>
       </c>
     </row>
     <row r="14">
@@ -1070,49 +1070,49 @@
         </is>
       </c>
       <c r="B14">
-        <v>1835.25520844574</v>
+        <v>2294.6801584732</v>
       </c>
       <c r="C14">
-        <v>98.8014630666508</v>
+        <v>124.867821133153</v>
       </c>
       <c r="D14">
-        <v>11.4441766904849</v>
+        <v>9.11810704123014</v>
       </c>
       <c r="E14">
-        <v>58.9899049896765</v>
+        <v>79.7700871462424</v>
       </c>
       <c r="F14">
-        <v>14.5496663914616</v>
+        <v>15.6535987887767</v>
       </c>
       <c r="G14">
-        <v>80.8523812864632</v>
+        <v>89.77817769762341</v>
       </c>
       <c r="H14">
-        <v>61.9409819851994</v>
+        <v>47.0187947636024</v>
       </c>
       <c r="I14">
-        <v>23.2650033167308</v>
+        <v>24.7172329104701</v>
       </c>
       <c r="J14">
-        <v>123.344304581556</v>
+        <v>139.088146434247</v>
       </c>
       <c r="K14">
-        <v>150.953822478859</v>
+        <v>62.9065761508369</v>
       </c>
       <c r="L14">
-        <v>121.61631898833</v>
+        <v>92.30435408545409</v>
       </c>
       <c r="M14">
-        <v>70.7741756076086</v>
+        <v>82.6536981032922</v>
       </c>
       <c r="N14">
-        <v>69.99592134521051</v>
+        <v>64.61650964934459</v>
       </c>
       <c r="O14">
-        <v>5561.52560706066</v>
+        <v>5123.12832239356</v>
       </c>
       <c r="P14">
-        <v>42.7177972338216</v>
+        <v>56.7082057533177</v>
       </c>
     </row>
     <row r="15">
@@ -1122,49 +1122,49 @@
         </is>
       </c>
       <c r="B15">
-        <v>940.5866740119531</v>
+        <v>1192.86612813189</v>
       </c>
       <c r="C15">
-        <v>43.1074616573029</v>
+        <v>61.6950432010136</v>
       </c>
       <c r="D15">
-        <v>9.344351901970111</v>
+        <v>6.18826415827065</v>
       </c>
       <c r="E15">
-        <v>64.89367732475409</v>
+        <v>62.1185572784156</v>
       </c>
       <c r="F15">
-        <v>13.0288495139781</v>
+        <v>18.1711469202405</v>
       </c>
       <c r="G15">
-        <v>43.5263615258386</v>
+        <v>60.6538678737218</v>
       </c>
       <c r="H15">
-        <v>40.2291126313702</v>
+        <v>38.05149013756</v>
       </c>
       <c r="I15">
-        <v>48.1845606961413</v>
+        <v>24.3052451479369</v>
       </c>
       <c r="J15">
-        <v>201.764812268588</v>
+        <v>136.780264312015</v>
       </c>
       <c r="K15">
-        <v>48.1365616209767</v>
+        <v>36.8303810747481</v>
       </c>
       <c r="L15">
-        <v>44.5772789875609</v>
+        <v>41.1071434451498</v>
       </c>
       <c r="M15">
-        <v>136.023538450218</v>
+        <v>155.836438692416</v>
       </c>
       <c r="N15">
-        <v>85.0968905235452</v>
+        <v>87.32459025056519</v>
       </c>
       <c r="O15">
-        <v>2523.89470910435</v>
+        <v>2295.47675939913</v>
       </c>
       <c r="P15">
-        <v>44.7908269168201</v>
+        <v>49.0059840922559</v>
       </c>
     </row>
     <row r="16">
@@ -1174,49 +1174,49 @@
         </is>
       </c>
       <c r="B16">
-        <v>337.628876879945</v>
+        <v>437.527615233897</v>
       </c>
       <c r="C16">
-        <v>75.3121753097474</v>
+        <v>73.28451526323489</v>
       </c>
       <c r="D16">
-        <v>10.823856993844</v>
+        <v>4.2974471857524</v>
       </c>
       <c r="E16">
-        <v>27.1114131128521</v>
+        <v>32.2782022481387</v>
       </c>
       <c r="F16">
-        <v>4.48188204815051</v>
+        <v>2.93552663894073</v>
       </c>
       <c r="G16">
-        <v>14.5628558565309</v>
+        <v>14.7980876716617</v>
       </c>
       <c r="H16">
-        <v>19.1856422730144</v>
+        <v>15.6322455375898</v>
       </c>
       <c r="I16">
-        <v>6.19612607659094</v>
+        <v>4.1549294127971</v>
       </c>
       <c r="J16">
-        <v>49.8720148668057</v>
+        <v>42.9551768417529</v>
       </c>
       <c r="K16">
-        <v>55.48930991662</v>
+        <v>41.7677058332809</v>
       </c>
       <c r="L16">
-        <v>32.5188779770196</v>
+        <v>16.8917876604362</v>
       </c>
       <c r="M16">
-        <v>16.5594356526022</v>
+        <v>26.5013780081233</v>
       </c>
       <c r="N16">
-        <v>29.3055315478412</v>
+        <v>32.4239894890072</v>
       </c>
       <c r="O16">
-        <v>1424.55819400574</v>
+        <v>1330.40820024508</v>
       </c>
       <c r="P16">
-        <v>84.03469286266891</v>
+        <v>94.6239813519643</v>
       </c>
     </row>
     <row r="17">
@@ -1226,49 +1226,49 @@
         </is>
       </c>
       <c r="B17">
-        <v>361.69577626944</v>
+        <v>466.147242787723</v>
       </c>
       <c r="C17">
-        <v>22.2027449408834</v>
+        <v>24.316873176782</v>
       </c>
       <c r="D17">
-        <v>3.74962282344065</v>
+        <v>1.92726116902804</v>
       </c>
       <c r="E17">
-        <v>16.3707724418573</v>
+        <v>18.3822286854733</v>
       </c>
       <c r="F17">
-        <v>13.5796191902199</v>
+        <v>14.9972172396477</v>
       </c>
       <c r="G17">
-        <v>13.1773483623644</v>
+        <v>16.0661708448642</v>
       </c>
       <c r="H17">
-        <v>11.8183241103395</v>
+        <v>13.264885216513</v>
       </c>
       <c r="I17">
-        <v>7.88943061573642</v>
+        <v>5.60844886797949</v>
       </c>
       <c r="J17">
-        <v>16.8356908189593</v>
+        <v>18.8192444133998</v>
       </c>
       <c r="K17">
-        <v>19.6993639405826</v>
+        <v>9.603565231755489</v>
       </c>
       <c r="L17">
-        <v>10.9589442893098</v>
+        <v>11.5189488418922</v>
       </c>
       <c r="M17">
-        <v>81.5403153405894</v>
+        <v>67.6014741352374</v>
       </c>
       <c r="N17">
-        <v>11.6449930104625</v>
+        <v>10.4560617130554</v>
       </c>
       <c r="O17">
-        <v>1277.42159124256</v>
+        <v>1174.15866069996</v>
       </c>
       <c r="P17">
-        <v>43.423012320678</v>
+        <v>47.4315333672609</v>
       </c>
     </row>
     <row r="18">
@@ -1278,49 +1278,49 @@
         </is>
       </c>
       <c r="B18">
-        <v>958.950507594745</v>
+        <v>1117.11357315482</v>
       </c>
       <c r="C18">
-        <v>31.973230790623</v>
+        <v>32.1825833386843</v>
       </c>
       <c r="D18">
-        <v>8.84054462109107</v>
+        <v>4.54880870590581</v>
       </c>
       <c r="E18">
-        <v>35.0942647688616</v>
+        <v>31.1227030135314</v>
       </c>
       <c r="F18">
-        <v>34.918304284431</v>
+        <v>41.6442636041115</v>
       </c>
       <c r="G18">
-        <v>22.5312721751866</v>
+        <v>12.3865203657998</v>
       </c>
       <c r="H18">
-        <v>20.62229824173</v>
+        <v>9.06636169473388</v>
       </c>
       <c r="I18">
-        <v>9.295955717606111</v>
+        <v>7.4235374968909</v>
       </c>
       <c r="J18">
-        <v>34.4868641642843</v>
+        <v>20.7175588932217</v>
       </c>
       <c r="K18">
-        <v>18.9351140218644</v>
+        <v>6.43842373969222</v>
       </c>
       <c r="L18">
-        <v>35.9312193273876</v>
+        <v>28.1685085608532</v>
       </c>
       <c r="M18">
-        <v>65.5705132456154</v>
+        <v>60.2858983532392</v>
       </c>
       <c r="N18">
-        <v>21.9769458780004</v>
+        <v>24.8920088930893</v>
       </c>
       <c r="O18">
-        <v>1751.35420667846</v>
+        <v>1654.2742467984</v>
       </c>
       <c r="P18">
-        <v>49.6696259462932</v>
+        <v>58.4801804737413</v>
       </c>
     </row>
     <row r="19">
@@ -1330,49 +1330,49 @@
         </is>
       </c>
       <c r="B19">
-        <v>874.73004368969</v>
+        <v>1000.51141190322</v>
       </c>
       <c r="C19">
-        <v>26.7588712134027</v>
+        <v>35.6494278520506</v>
       </c>
       <c r="D19">
-        <v>6.91023108054231</v>
+        <v>5.98476102424756</v>
       </c>
       <c r="E19">
-        <v>24.9185861204001</v>
+        <v>31.1278738998565</v>
       </c>
       <c r="F19">
-        <v>76.3605657500519</v>
+        <v>82.04272642536721</v>
       </c>
       <c r="G19">
-        <v>35.9655380645083</v>
+        <v>47.8094594144158</v>
       </c>
       <c r="H19">
-        <v>6.97839824359041</v>
+        <v>9.93265430119645</v>
       </c>
       <c r="I19">
-        <v>8.521485871433759</v>
+        <v>6.07657108395361</v>
       </c>
       <c r="J19">
-        <v>15.3886131451673</v>
+        <v>21.7831846520824</v>
       </c>
       <c r="K19">
-        <v>8.70470315404757</v>
+        <v>7.20708023177697</v>
       </c>
       <c r="L19">
-        <v>2.3021923697579</v>
+        <v>4.87009386438384</v>
       </c>
       <c r="M19">
-        <v>38.154760642398</v>
+        <v>13.8311002269125</v>
       </c>
       <c r="N19">
-        <v>3.18572488447048</v>
+        <v>16.4915935776502</v>
       </c>
       <c r="O19">
-        <v>1837.28065536</v>
+        <v>1697.38934480984</v>
       </c>
       <c r="P19">
-        <v>38.3153008515962</v>
+        <v>36.8749419151007</v>
       </c>
     </row>
     <row r="20">
@@ -1382,49 +1382,49 @@
         </is>
       </c>
       <c r="B20">
-        <v>243.985380435354</v>
+        <v>277.146887976781</v>
       </c>
       <c r="C20">
-        <v>8.306055361367241</v>
+        <v>8.832952923067721</v>
       </c>
       <c r="D20">
-        <v>10.6336959399965</v>
+        <v>6.64053781380457</v>
       </c>
       <c r="E20">
-        <v>31.3991828053143</v>
+        <v>28.2684585742615</v>
       </c>
       <c r="F20">
-        <v>0.697343211818455</v>
+        <v>0.920392320382377</v>
       </c>
       <c r="G20">
-        <v>0.916952733311236</v>
+        <v>4.36259383278657</v>
       </c>
       <c r="H20">
-        <v>3.20015578916449</v>
+        <v>1.64417137672921</v>
       </c>
       <c r="I20">
-        <v>0.901648241369064</v>
+        <v>2.94654276417696</v>
       </c>
       <c r="J20">
-        <v>5.90996426207347</v>
+        <v>5.59675671037241</v>
       </c>
       <c r="K20">
-        <v>4.8202458087481</v>
+        <v>0.925650183885673</v>
       </c>
       <c r="L20">
-        <v>6.14391403206243</v>
+        <v>6.84133798275222</v>
       </c>
       <c r="M20">
-        <v>22.6538672522243</v>
+        <v>17.0019285507838</v>
       </c>
       <c r="N20">
-        <v>4.93923392474204</v>
+        <v>7.5896826629979</v>
       </c>
       <c r="O20">
-        <v>638.088352905332</v>
+        <v>609.2777263891639</v>
       </c>
       <c r="P20">
-        <v>16.3534280188844</v>
+        <v>21.765226209006</v>
       </c>
     </row>
     <row r="21">
@@ -1434,49 +1434,49 @@
         </is>
       </c>
       <c r="B21">
-        <v>732.600224102545</v>
+        <v>955.270233684131</v>
       </c>
       <c r="C21">
-        <v>13.6526983410812</v>
+        <v>16.8246810327979</v>
       </c>
       <c r="D21">
-        <v>5.5516484738906</v>
+        <v>1.22922751464888</v>
       </c>
       <c r="E21">
-        <v>19.1680071985563</v>
+        <v>19.0632034262564</v>
       </c>
       <c r="F21">
-        <v>0.6998808203228289</v>
+        <v>2.10796757657589</v>
       </c>
       <c r="G21">
-        <v>14.6573485576217</v>
+        <v>13.9612026643368</v>
       </c>
       <c r="H21">
-        <v>7.60061983057987</v>
+        <v>3.98652160976545</v>
       </c>
       <c r="I21">
-        <v>5.36429944219781</v>
+        <v>11.1261569962366</v>
       </c>
       <c r="J21">
-        <v>12.0939218566431</v>
+        <v>13.0540685102973</v>
       </c>
       <c r="K21">
-        <v>3.4468819748635</v>
+        <v>3.36891924291608</v>
       </c>
       <c r="L21">
-        <v>28.3942511953904</v>
+        <v>24.1969799308873</v>
       </c>
       <c r="M21">
-        <v>24.7926450084581</v>
+        <v>21.3775175623912</v>
       </c>
       <c r="N21">
-        <v>12.0756167588568</v>
+        <v>17.4051019975828</v>
       </c>
       <c r="O21">
-        <v>2640.28408622376</v>
+        <v>2407.37019481786</v>
       </c>
       <c r="P21">
-        <v>14.0004532563912</v>
+        <v>21.6564864977094</v>
       </c>
     </row>
     <row r="22">
@@ -1486,49 +1486,49 @@
         </is>
       </c>
       <c r="B22">
-        <v>883.422047598797</v>
+        <v>1140.36310550948</v>
       </c>
       <c r="C22">
-        <v>15.1342770189737</v>
+        <v>25.8337829051881</v>
       </c>
       <c r="D22">
-        <v>15.0940230831106</v>
+        <v>6.94607979555555</v>
       </c>
       <c r="E22">
-        <v>28.6888087559676</v>
+        <v>33.8359529711158</v>
       </c>
       <c r="F22">
-        <v>0.835837743561817</v>
+        <v>3.32706811403146</v>
       </c>
       <c r="G22">
-        <v>23.6334789874023</v>
+        <v>26.3187421389437</v>
       </c>
       <c r="H22">
-        <v>23.3068719149314</v>
+        <v>10.8143146698156</v>
       </c>
       <c r="I22">
-        <v>5.29735772108066</v>
+        <v>7.08022012172552</v>
       </c>
       <c r="J22">
-        <v>43.5082891647301</v>
+        <v>37.9847091216664</v>
       </c>
       <c r="K22">
-        <v>21.2589728203768</v>
+        <v>3.10137520993159</v>
       </c>
       <c r="L22">
-        <v>106.425213700993</v>
+        <v>86.2157283237335</v>
       </c>
       <c r="M22">
-        <v>23.3936986392102</v>
+        <v>22.2442070172904</v>
       </c>
       <c r="N22">
-        <v>72.06148932419519</v>
+        <v>59.2232501587033</v>
       </c>
       <c r="O22">
-        <v>2954.85967206768</v>
+        <v>2745.62121481747</v>
       </c>
       <c r="P22">
-        <v>11.9497912053408</v>
+        <v>14.1937970689104</v>
       </c>
     </row>
     <row r="23">
@@ -1538,49 +1538,49 @@
         </is>
       </c>
       <c r="B23">
-        <v>1708.24052600796</v>
+        <v>2282.51251501687</v>
       </c>
       <c r="C23">
-        <v>46.2080542898885</v>
+        <v>39.6528206350222</v>
       </c>
       <c r="D23">
-        <v>10.6558646798316</v>
+        <v>5.82413196395576</v>
       </c>
       <c r="E23">
-        <v>50.9720420666054</v>
+        <v>51.6144207797095</v>
       </c>
       <c r="F23">
-        <v>1.26371573423097</v>
+        <v>5.92068713230005</v>
       </c>
       <c r="G23">
-        <v>70.7905586866739</v>
+        <v>55.5093188716753</v>
       </c>
       <c r="H23">
-        <v>81.8959709736082</v>
+        <v>57.6219826571348</v>
       </c>
       <c r="I23">
-        <v>28.912992091421</v>
+        <v>24.4481508333791</v>
       </c>
       <c r="J23">
-        <v>140.770547836917</v>
+        <v>89.1605984821271</v>
       </c>
       <c r="K23">
-        <v>103.178664018461</v>
+        <v>69.74857032166361</v>
       </c>
       <c r="L23">
-        <v>37.149974646277</v>
+        <v>38.3697045771751</v>
       </c>
       <c r="M23">
-        <v>607.642740611829</v>
+        <v>495.646301801852</v>
       </c>
       <c r="N23">
-        <v>102.579447235408</v>
+        <v>98.31943309118439</v>
       </c>
       <c r="O23">
-        <v>3807.7586501261</v>
+        <v>3442.13603193282</v>
       </c>
       <c r="P23">
-        <v>43.7948374353384</v>
+        <v>60.0366880270284</v>
       </c>
     </row>
     <row r="24">
@@ -1590,49 +1590,49 @@
         </is>
       </c>
       <c r="B24">
-        <v>544.909378690204</v>
+        <v>744.745495164164</v>
       </c>
       <c r="C24">
-        <v>48.9210675686775</v>
+        <v>46.2012673071692</v>
       </c>
       <c r="D24">
-        <v>10.0524534988243</v>
+        <v>9.393879524711879</v>
       </c>
       <c r="E24">
-        <v>43.6008873998878</v>
+        <v>58.3914875462267</v>
       </c>
       <c r="F24">
-        <v>14.9763577696564</v>
+        <v>9.740951584543129</v>
       </c>
       <c r="G24">
-        <v>20.5100668050239</v>
+        <v>26.2944347665277</v>
       </c>
       <c r="H24">
-        <v>14.5679340550541</v>
+        <v>18.9362719163016</v>
       </c>
       <c r="I24">
-        <v>13.354527872737</v>
+        <v>14.9641757155087</v>
       </c>
       <c r="J24">
-        <v>52.2609938734702</v>
+        <v>44.22424799717</v>
       </c>
       <c r="K24">
-        <v>60.3941319906248</v>
+        <v>18.3368902217539</v>
       </c>
       <c r="L24">
-        <v>59.0679680927605</v>
+        <v>58.1356620691285</v>
       </c>
       <c r="M24">
-        <v>18.3694213967489</v>
+        <v>17.288494607154</v>
       </c>
       <c r="N24">
-        <v>73.6177152090486</v>
+        <v>68.73969027431259</v>
       </c>
       <c r="O24">
-        <v>2307.87937308432</v>
+        <v>2129.00986151132</v>
       </c>
       <c r="P24">
-        <v>68.1877749213306</v>
+        <v>67.9201051733359</v>
       </c>
     </row>
     <row r="25">
@@ -1642,49 +1642,49 @@
         </is>
       </c>
       <c r="B25">
-        <v>690.537951458836</v>
+        <v>811.965871306986</v>
       </c>
       <c r="C25">
-        <v>35.2681674404231</v>
+        <v>34.5425740357825</v>
       </c>
       <c r="D25">
-        <v>11.9016199488755</v>
+        <v>12.4283030275952</v>
       </c>
       <c r="E25">
-        <v>38.3931330796753</v>
+        <v>40.3883866941128</v>
       </c>
       <c r="F25">
-        <v>28.6541066313796</v>
+        <v>20.4223679736567</v>
       </c>
       <c r="G25">
-        <v>15.596141275671</v>
+        <v>8.066386131570489</v>
       </c>
       <c r="H25">
-        <v>10.4380631358583</v>
+        <v>9.502884571183831</v>
       </c>
       <c r="I25">
-        <v>3.32800135384278</v>
+        <v>1.83935389649158</v>
       </c>
       <c r="J25">
-        <v>14.3256502111474</v>
+        <v>10.9572285218653</v>
       </c>
       <c r="K25">
-        <v>12.640692876729</v>
+        <v>7.85220883008611</v>
       </c>
       <c r="L25">
-        <v>22.9613382901737</v>
+        <v>7.94079680046557</v>
       </c>
       <c r="M25">
-        <v>38.6522960671626</v>
+        <v>35.1718615706164</v>
       </c>
       <c r="N25">
-        <v>35.6141763773091</v>
+        <v>45.8170259013108</v>
       </c>
       <c r="O25">
-        <v>1096.79331160911</v>
+        <v>1006.69329146731</v>
       </c>
       <c r="P25">
-        <v>53.112327569081</v>
+        <v>56.6476413094002</v>
       </c>
     </row>
     <row r="26">
@@ -1694,49 +1694,49 @@
         </is>
       </c>
       <c r="B26">
-        <v>855.322706415167</v>
+        <v>1056.58915829702</v>
       </c>
       <c r="C26">
-        <v>50.2154113785963</v>
+        <v>54.9855331281332</v>
       </c>
       <c r="D26">
-        <v>11.2573293054474</v>
+        <v>3.99683546084664</v>
       </c>
       <c r="E26">
-        <v>31.5449376354247</v>
+        <v>53.3144971269441</v>
       </c>
       <c r="F26">
-        <v>6.48423656207591</v>
+        <v>6.64435796399315</v>
       </c>
       <c r="G26">
-        <v>47.3585717187545</v>
+        <v>38.9572219384995</v>
       </c>
       <c r="H26">
-        <v>16.2801986774205</v>
+        <v>11.6878109761965</v>
       </c>
       <c r="I26">
-        <v>10.3707481108381</v>
+        <v>17.2834307102271</v>
       </c>
       <c r="J26">
-        <v>48.0047296925495</v>
+        <v>41.6845824714662</v>
       </c>
       <c r="K26">
-        <v>26.6727322579468</v>
+        <v>8.93942799003848</v>
       </c>
       <c r="L26">
-        <v>34.4918184044514</v>
+        <v>33.228635764097</v>
       </c>
       <c r="M26">
-        <v>71.8838905477018</v>
+        <v>49.8331958870926</v>
       </c>
       <c r="N26">
-        <v>31.820937300985</v>
+        <v>32.8697864063721</v>
       </c>
       <c r="O26">
-        <v>2568.02447615986</v>
+        <v>2391.50370061687</v>
       </c>
       <c r="P26">
-        <v>50.1604883038222</v>
+        <v>53.5147606185058</v>
       </c>
     </row>
     <row r="27">
@@ -1746,49 +1746,49 @@
         </is>
       </c>
       <c r="B27">
-        <v>178.633350066174</v>
+        <v>212.206714554988</v>
       </c>
       <c r="C27">
-        <v>3.18365788251329</v>
+        <v>2.61483724362136</v>
       </c>
       <c r="D27">
-        <v>1.19503443713375</v>
+        <v>0.710703459729871</v>
       </c>
       <c r="E27">
-        <v>12.933699425218</v>
+        <v>11.1814101910107</v>
       </c>
       <c r="F27">
-        <v>8.85394295619737</v>
+        <v>8.25601358550297</v>
       </c>
       <c r="G27">
-        <v>1.17708896620692</v>
+        <v>0.97288760219298</v>
       </c>
       <c r="H27">
-        <v>0.108687476203124</v>
+        <v>0.106400656239629</v>
       </c>
       <c r="I27">
-        <v>2.81404521771124</v>
+        <v>2.62290208961366</v>
       </c>
       <c r="J27">
-        <v>2.70899688095268</v>
+        <v>4.78395745321761</v>
       </c>
       <c r="K27">
-        <v>2.31363284077686</v>
+        <v>0.882815828652902</v>
       </c>
       <c r="L27">
-        <v>2.83197009873928</v>
+        <v>2.18259537692499</v>
       </c>
       <c r="M27">
-        <v>0.197899053543262</v>
+        <v>0.191264411855109</v>
       </c>
       <c r="N27">
-        <v>5.52154465270492</v>
+        <v>4.35797480736636</v>
       </c>
       <c r="O27">
-        <v>508.077454667677</v>
+        <v>481.174227535505</v>
       </c>
       <c r="P27">
-        <v>50.0105928697402</v>
+        <v>52.0520250218147</v>
       </c>
     </row>
     <row r="28">
@@ -1798,49 +1798,49 @@
         </is>
       </c>
       <c r="B28">
-        <v>192.513600386345</v>
+        <v>240.693742844547</v>
       </c>
       <c r="C28">
-        <v>35.3238103238468</v>
+        <v>38.8278074413822</v>
       </c>
       <c r="D28">
-        <v>1.3988862620328</v>
+        <v>1.96313638740666</v>
       </c>
       <c r="E28">
-        <v>8.588499499189499</v>
+        <v>4.95409817742588</v>
       </c>
       <c r="F28">
-        <v>2.34965943948363</v>
+        <v>0.487754553356702</v>
       </c>
       <c r="G28">
-        <v>6.68737200086972</v>
+        <v>5.88093370717926</v>
       </c>
       <c r="H28">
-        <v>7.58908571488359</v>
+        <v>6.3042312641749</v>
       </c>
       <c r="I28">
-        <v>4.66220838242705</v>
+        <v>4.19524218369022</v>
       </c>
       <c r="J28">
-        <v>17.3526359728116</v>
+        <v>17.6340915671677</v>
       </c>
       <c r="K28">
-        <v>16.4237598681434</v>
+        <v>12.6810065319201</v>
       </c>
       <c r="L28">
-        <v>11.3826819577994</v>
+        <v>10.0129261125289</v>
       </c>
       <c r="M28">
-        <v>7.62766444696563</v>
+        <v>11.3593241647589</v>
       </c>
       <c r="N28">
-        <v>9.66423055820745</v>
+        <v>12.407608267615</v>
       </c>
       <c r="O28">
-        <v>887.625449520887</v>
+        <v>838.798386603218</v>
       </c>
       <c r="P28">
-        <v>76.1604684497084</v>
+        <v>72.48221141246241</v>
       </c>
     </row>
     <row r="29">
@@ -1850,49 +1850,49 @@
         </is>
       </c>
       <c r="B29">
-        <v>386.413093702053</v>
+        <v>452.857404298068</v>
       </c>
       <c r="C29">
-        <v>1.01126238902488</v>
+        <v>3.96231430979147</v>
       </c>
       <c r="D29">
-        <v>2.1175067272816</v>
+        <v>1.89601561248478</v>
       </c>
       <c r="E29">
-        <v>3.06389515377687</v>
+        <v>7.14475082386297</v>
       </c>
       <c r="F29">
-        <v>18.706719519195</v>
+        <v>23.9666561401199</v>
       </c>
       <c r="G29">
-        <v>1.65209678137776</v>
+        <v>3.06338720357916</v>
       </c>
       <c r="H29">
-        <v>1.58751865419972</v>
+        <v>0.6923700694720351</v>
       </c>
       <c r="I29">
-        <v>4.83442103759518</v>
+        <v>2.28903767422135</v>
       </c>
       <c r="J29">
-        <v>5.20312490626031</v>
+        <v>3.94511820087479</v>
       </c>
       <c r="K29">
-        <v>2.46437354857479</v>
+        <v>2.64570476673868</v>
       </c>
       <c r="L29">
-        <v>4.92633424488906</v>
+        <v>3.27484730796939</v>
       </c>
       <c r="M29">
-        <v>1.94667024959287</v>
+        <v>4.12142855189748</v>
       </c>
       <c r="N29">
-        <v>9.034956347379151</v>
+        <v>12.4178701364686</v>
       </c>
       <c r="O29">
-        <v>1240.83545618546</v>
+        <v>1171.46770870061</v>
       </c>
       <c r="P29">
-        <v>4.34115778676912</v>
+        <v>5.65858337766762</v>
       </c>
     </row>
     <row r="30">
@@ -1902,49 +1902,49 @@
         </is>
       </c>
       <c r="B30">
-        <v>166.360431233898</v>
+        <v>206.244585025134</v>
       </c>
       <c r="C30">
-        <v>3.42821675509527</v>
+        <v>5.50820070470459</v>
       </c>
       <c r="D30">
-        <v>4.94939584563345</v>
+        <v>5.39187833462804</v>
       </c>
       <c r="E30">
-        <v>9.28973406149513</v>
+        <v>10.0356666571746</v>
       </c>
       <c r="F30">
-        <v>0.168805929837578</v>
+        <v>0.298657289624333</v>
       </c>
       <c r="G30">
-        <v>6.76080780087013</v>
+        <v>5.70479502151906</v>
       </c>
       <c r="H30">
-        <v>7.83124799355893</v>
+        <v>2.69342462168698</v>
       </c>
       <c r="I30">
-        <v>1.99166306691283</v>
+        <v>2.48404487841784</v>
       </c>
       <c r="J30">
-        <v>19.0581537306453</v>
+        <v>20.3078616445866</v>
       </c>
       <c r="K30">
-        <v>13.1809100975344</v>
+        <v>3.84882099523447</v>
       </c>
       <c r="L30">
-        <v>47.5486450113222</v>
+        <v>42.4314611594108</v>
       </c>
       <c r="M30">
-        <v>9.815616026958679</v>
+        <v>9.298670600931841</v>
       </c>
       <c r="N30">
-        <v>12.0681094334578</v>
+        <v>18.1443663988259</v>
       </c>
       <c r="O30">
-        <v>663.698187942099</v>
+        <v>625.188305523718</v>
       </c>
       <c r="P30">
-        <v>4.69592979499592</v>
+        <v>5.56997353542154</v>
       </c>
     </row>
     <row r="31">
@@ -1954,49 +1954,49 @@
         </is>
       </c>
       <c r="B31">
-        <v>1261.01732675725</v>
+        <v>1475.98166301798</v>
       </c>
       <c r="C31">
-        <v>44.8361564457867</v>
+        <v>54.8416118618261</v>
       </c>
       <c r="D31">
-        <v>23.548140172363</v>
+        <v>7.44317410029832</v>
       </c>
       <c r="E31">
-        <v>29.8362941145776</v>
+        <v>26.0135013264423</v>
       </c>
       <c r="F31">
-        <v>9.062234444201771</v>
+        <v>2.97370736806638</v>
       </c>
       <c r="G31">
-        <v>129.060836123744</v>
+        <v>121.796737026319</v>
       </c>
       <c r="H31">
-        <v>16.8763263669241</v>
+        <v>13.3795386192784</v>
       </c>
       <c r="I31">
-        <v>27.8296982150228</v>
+        <v>8.280832597832379</v>
       </c>
       <c r="J31">
-        <v>32.4048327530992</v>
+        <v>21.5687319725147</v>
       </c>
       <c r="K31">
-        <v>13.577517767983</v>
+        <v>6.09598890258057</v>
       </c>
       <c r="L31">
-        <v>80.46461691533101</v>
+        <v>63.452494590502</v>
       </c>
       <c r="M31">
-        <v>16.7075097652198</v>
+        <v>17.936431598738</v>
       </c>
       <c r="N31">
-        <v>49.6905424079536</v>
+        <v>78.5508779432347</v>
       </c>
       <c r="O31">
-        <v>3909.50759710216</v>
+        <v>3741.89790052225</v>
       </c>
       <c r="P31">
-        <v>12.6963399508463</v>
+        <v>18.1717092361807</v>
       </c>
     </row>
     <row r="32">
@@ -2006,49 +2006,49 @@
         </is>
       </c>
       <c r="B32">
-        <v>363.455822103772</v>
+        <v>453.726594920367</v>
       </c>
       <c r="C32">
-        <v>4.76069915274793</v>
+        <v>2.76656230468383</v>
       </c>
       <c r="D32">
-        <v>1.29685222036459</v>
+        <v>0.642707268622236</v>
       </c>
       <c r="E32">
-        <v>3.60311435932449</v>
+        <v>2.71343415336502</v>
       </c>
       <c r="F32">
-        <v>30.3112385195152</v>
+        <v>24.3787487764142</v>
       </c>
       <c r="G32">
-        <v>1.55853943998692</v>
+        <v>3.05960040453544</v>
       </c>
       <c r="H32">
-        <v>0.118676772109894</v>
+        <v>0.514870204744929</v>
       </c>
       <c r="I32">
-        <v>4.27625749996623</v>
+        <v>1.69055230836407</v>
       </c>
       <c r="J32">
-        <v>5.12769681380164</v>
+        <v>6.14839851192977</v>
       </c>
       <c r="K32">
-        <v>5.34607030004461</v>
+        <v>1.68288436516867</v>
       </c>
       <c r="L32">
-        <v>10.7381188675397</v>
+        <v>6.15545701936107</v>
       </c>
       <c r="M32">
-        <v>6.5228974619349</v>
+        <v>11.697054868691</v>
       </c>
       <c r="N32">
-        <v>10.532616540116</v>
+        <v>16.3832016347378</v>
       </c>
       <c r="O32">
-        <v>864.569751610832</v>
+        <v>793.763038892634</v>
       </c>
       <c r="P32">
-        <v>26.1892827654608</v>
+        <v>20.7062761633513</v>
       </c>
     </row>
     <row r="33">
@@ -2058,49 +2058,49 @@
         </is>
       </c>
       <c r="B33">
-        <v>3220.5950529878</v>
+        <v>3891.03219058409</v>
       </c>
       <c r="C33">
-        <v>67.1364363160739</v>
+        <v>76.36252814959219</v>
       </c>
       <c r="D33">
-        <v>63.8711098384386</v>
+        <v>11.2671030686607</v>
       </c>
       <c r="E33">
-        <v>53.2510676811822</v>
+        <v>70.7557200824416</v>
       </c>
       <c r="F33">
-        <v>10.2813625812663</v>
+        <v>10.644694402376</v>
       </c>
       <c r="G33">
-        <v>60.8516679403663</v>
+        <v>74.1299233885869</v>
       </c>
       <c r="H33">
-        <v>34.6836276067491</v>
+        <v>35.5552580302042</v>
       </c>
       <c r="I33">
-        <v>23.0688238450421</v>
+        <v>19.9221502961203</v>
       </c>
       <c r="J33">
-        <v>97.04383492176071</v>
+        <v>88.3064930840312</v>
       </c>
       <c r="K33">
-        <v>71.5951187612191</v>
+        <v>49.7426846943231</v>
       </c>
       <c r="L33">
-        <v>139.743777165236</v>
+        <v>94.9682922140573</v>
       </c>
       <c r="M33">
-        <v>72.0881057206666</v>
+        <v>57.9790509132021</v>
       </c>
       <c r="N33">
-        <v>138.242735661033</v>
+        <v>116.275418844075</v>
       </c>
       <c r="O33">
-        <v>8378.87392618876</v>
+        <v>7854.73662332511</v>
       </c>
       <c r="P33">
-        <v>45.4729484461772</v>
+        <v>59.8950451838469</v>
       </c>
     </row>
     <row r="34">
@@ -2110,49 +2110,49 @@
         </is>
       </c>
       <c r="B34">
-        <v>1495.56475235072</v>
+        <v>1848.64991634597</v>
       </c>
       <c r="C34">
-        <v>79.191130301161</v>
+        <v>60.6166514435043</v>
       </c>
       <c r="D34">
-        <v>180.371381513798</v>
+        <v>64.40445607018761</v>
       </c>
       <c r="E34">
-        <v>59.1053934284485</v>
+        <v>59.0612519728806</v>
       </c>
       <c r="F34">
-        <v>0.515283765875728</v>
+        <v>2.23651817911659</v>
       </c>
       <c r="G34">
-        <v>67.90286027448779</v>
+        <v>49.4382212159402</v>
       </c>
       <c r="H34">
-        <v>50.4224994178387</v>
+        <v>38.9124533330553</v>
       </c>
       <c r="I34">
-        <v>26.9809987961364</v>
+        <v>20.482147822419</v>
       </c>
       <c r="J34">
-        <v>38.7424376872703</v>
+        <v>51.535847250086</v>
       </c>
       <c r="K34">
-        <v>59.1915373073615</v>
+        <v>11.1609712945938</v>
       </c>
       <c r="L34">
-        <v>109.363979478359</v>
+        <v>93.6728298184694</v>
       </c>
       <c r="M34">
-        <v>48.9555698671376</v>
+        <v>37.4426773543074</v>
       </c>
       <c r="N34">
-        <v>132.781138005264</v>
+        <v>115.195908416522</v>
       </c>
       <c r="O34">
-        <v>3543.1442912327</v>
+        <v>3406.25956442068</v>
       </c>
       <c r="P34">
-        <v>62.1744371749068</v>
+        <v>65.5853140334298</v>
       </c>
     </row>
     <row r="35">
@@ -2162,49 +2162,49 @@
         </is>
       </c>
       <c r="B35">
-        <v>84.1582649158937</v>
+        <v>94.3901164159242</v>
       </c>
       <c r="C35">
-        <v>7.70757251385287</v>
+        <v>8.12802116695063</v>
       </c>
       <c r="D35">
-        <v>0.796774774595697</v>
+        <v>0.67980885383562</v>
       </c>
       <c r="E35">
-        <v>3.68174562437595</v>
+        <v>3.27150948902208</v>
       </c>
       <c r="F35">
-        <v>5.9870945904719</v>
+        <v>5.10344675723315</v>
       </c>
       <c r="G35">
-        <v>0.411934574627904</v>
+        <v>0.401227057411739</v>
       </c>
       <c r="H35">
-        <v>0.576354820620275</v>
+        <v>1.42899601449101</v>
       </c>
       <c r="I35">
-        <v>0.8508115988637121</v>
+        <v>1.69129147331909</v>
       </c>
       <c r="J35">
-        <v>1.64314219787442</v>
+        <v>1.87036487716526</v>
       </c>
       <c r="K35">
-        <v>6.70115638715926</v>
+        <v>3.83176376870949</v>
       </c>
       <c r="L35">
-        <v>2.46132741851538</v>
+        <v>3.39499575452481</v>
       </c>
       <c r="M35">
-        <v>2.4794044195915</v>
+        <v>4.48351322459431</v>
       </c>
       <c r="N35">
-        <v>2.77320988518893</v>
+        <v>3.04412179766477</v>
       </c>
       <c r="O35">
-        <v>358.949501832204</v>
+        <v>338.043353723394</v>
       </c>
       <c r="P35">
-        <v>47.9015506795889</v>
+        <v>53.6237036094185</v>
       </c>
     </row>
     <row r="36">
@@ -2214,49 +2214,49 @@
         </is>
       </c>
       <c r="B36">
-        <v>1810.17236558118</v>
+        <v>2370.24512576898</v>
       </c>
       <c r="C36">
-        <v>70.6011331250913</v>
+        <v>84.5169578188433</v>
       </c>
       <c r="D36">
-        <v>17.7483141230705</v>
+        <v>7.13113813635574</v>
       </c>
       <c r="E36">
-        <v>79.9370735065048</v>
+        <v>139.813261649856</v>
       </c>
       <c r="F36">
-        <v>33.460461761112</v>
+        <v>22.1795761802086</v>
       </c>
       <c r="G36">
-        <v>96.1677759236136</v>
+        <v>103.598134208296</v>
       </c>
       <c r="H36">
-        <v>98.2861281356126</v>
+        <v>75.4852535546885</v>
       </c>
       <c r="I36">
-        <v>46.7487004068908</v>
+        <v>36.351697334845</v>
       </c>
       <c r="J36">
-        <v>213.975170626267</v>
+        <v>229.400688398456</v>
       </c>
       <c r="K36">
-        <v>95.3844043648743</v>
+        <v>60.5090679981117</v>
       </c>
       <c r="L36">
-        <v>97.4366078076642</v>
+        <v>65.204415454325</v>
       </c>
       <c r="M36">
-        <v>221.0461455593</v>
+        <v>168.617345901667</v>
       </c>
       <c r="N36">
-        <v>101.328709026623</v>
+        <v>114.695867431933</v>
       </c>
       <c r="O36">
-        <v>4858.52874104997</v>
+        <v>4325.05195423719</v>
       </c>
       <c r="P36">
-        <v>50.6254359989744</v>
+        <v>71.9207517668665</v>
       </c>
     </row>
     <row r="37">
@@ -2266,49 +2266,49 @@
         </is>
       </c>
       <c r="B37">
-        <v>611.749025278867</v>
+        <v>779.356475809735</v>
       </c>
       <c r="C37">
-        <v>18.737002392557</v>
+        <v>15.6130554486274</v>
       </c>
       <c r="D37">
-        <v>4.89680880722254</v>
+        <v>2.01365056484831</v>
       </c>
       <c r="E37">
-        <v>14.8792625470816</v>
+        <v>19.2836374940996</v>
       </c>
       <c r="F37">
-        <v>44.7132798178109</v>
+        <v>45.785061670789</v>
       </c>
       <c r="G37">
-        <v>6.43492649246568</v>
+        <v>5.54128899417516</v>
       </c>
       <c r="H37">
-        <v>23.875807509981</v>
+        <v>22.8540557768471</v>
       </c>
       <c r="I37">
-        <v>9.932835582196599</v>
+        <v>5.26615372213555</v>
       </c>
       <c r="J37">
-        <v>31.6518527074759</v>
+        <v>26.4199359346531</v>
       </c>
       <c r="K37">
-        <v>37.9130372529365</v>
+        <v>6.50714367736976</v>
       </c>
       <c r="L37">
-        <v>22.551948956849</v>
+        <v>19.707244446805</v>
       </c>
       <c r="M37">
-        <v>25.3073078918654</v>
+        <v>24.6779322626565</v>
       </c>
       <c r="N37">
-        <v>16.9421955724346</v>
+        <v>20.6569429890398</v>
       </c>
       <c r="O37">
-        <v>1458.67266540474</v>
+        <v>1324.97988209209</v>
       </c>
       <c r="P37">
-        <v>47.2151735736053</v>
+        <v>57.9778456931616</v>
       </c>
     </row>
     <row r="38">
@@ -2318,49 +2318,49 @@
         </is>
       </c>
       <c r="B38">
-        <v>611.747615707626</v>
+        <v>765.668956858511</v>
       </c>
       <c r="C38">
-        <v>25.9574340074127</v>
+        <v>21.0679980976294</v>
       </c>
       <c r="D38">
-        <v>13.92771160463</v>
+        <v>3.19673715293229</v>
       </c>
       <c r="E38">
-        <v>44.0551597575857</v>
+        <v>42.9700564218449</v>
       </c>
       <c r="F38">
-        <v>1.12179202396364</v>
+        <v>1.05339157580213</v>
       </c>
       <c r="G38">
-        <v>7.33688652055746</v>
+        <v>7.5914683269676</v>
       </c>
       <c r="H38">
-        <v>7.26029824208023</v>
+        <v>2.22571828667554</v>
       </c>
       <c r="I38">
-        <v>3.12833804393587</v>
+        <v>4.8889675846161</v>
       </c>
       <c r="J38">
-        <v>39.2819604930268</v>
+        <v>34.8216550125154</v>
       </c>
       <c r="K38">
-        <v>17.6426797074809</v>
+        <v>3.65257386617738</v>
       </c>
       <c r="L38">
-        <v>83.3371001120078</v>
+        <v>85.93907124939891</v>
       </c>
       <c r="M38">
-        <v>21.0598105776208</v>
+        <v>23.6148753594699</v>
       </c>
       <c r="N38">
-        <v>21.4805822589702</v>
+        <v>42.604925691789</v>
       </c>
       <c r="O38">
-        <v>1611.45954930641</v>
+        <v>1472.06099396271</v>
       </c>
       <c r="P38">
-        <v>64.0990614748073</v>
+        <v>64.4142338097861</v>
       </c>
     </row>
     <row r="39">
@@ -2370,49 +2370,49 @@
         </is>
       </c>
       <c r="B39">
-        <v>1964.88134889606</v>
+        <v>2505.97983299292</v>
       </c>
       <c r="C39">
-        <v>110.006784056922</v>
+        <v>96.4278739810803</v>
       </c>
       <c r="D39">
-        <v>47.4726749936803</v>
+        <v>30.8785446204003</v>
       </c>
       <c r="E39">
-        <v>71.1255182267398</v>
+        <v>109.247167443671</v>
       </c>
       <c r="F39">
-        <v>20.5764570846402</v>
+        <v>34.2511218389473</v>
       </c>
       <c r="G39">
-        <v>111.594971957292</v>
+        <v>99.60322545624049</v>
       </c>
       <c r="H39">
-        <v>43.9250286860409</v>
+        <v>46.1833032948999</v>
       </c>
       <c r="I39">
-        <v>49.9672679987375</v>
+        <v>24.9590898294179</v>
       </c>
       <c r="J39">
-        <v>168.932263859162</v>
+        <v>191.595696560422</v>
       </c>
       <c r="K39">
-        <v>103.116020087386</v>
+        <v>39.8167585921045</v>
       </c>
       <c r="L39">
-        <v>93.57433056663631</v>
+        <v>117.996969352805</v>
       </c>
       <c r="M39">
-        <v>77.86425605689711</v>
+        <v>68.3375451092446</v>
       </c>
       <c r="N39">
-        <v>108.511614569889</v>
+        <v>123.144274917069</v>
       </c>
       <c r="O39">
-        <v>5624.03789665076</v>
+        <v>5066.98363394418</v>
       </c>
       <c r="P39">
-        <v>50.0984304811876</v>
+        <v>74.24652484495</v>
       </c>
     </row>
     <row r="40">
@@ -2422,49 +2422,49 @@
         </is>
       </c>
       <c r="B40">
-        <v>176.328317663087</v>
+        <v>228.852611108998</v>
       </c>
       <c r="C40">
-        <v>3.07555124711872</v>
+        <v>2.8699559390642</v>
       </c>
       <c r="D40">
-        <v>10.1949885548351</v>
+        <v>8.47338339013209</v>
       </c>
       <c r="E40">
-        <v>6.3772693047207</v>
+        <v>4.47541269365684</v>
       </c>
       <c r="F40">
-        <v>0.210594350825109</v>
+        <v>0.237864745429887</v>
       </c>
       <c r="G40">
-        <v>6.29936778905567</v>
+        <v>6.08979901572329</v>
       </c>
       <c r="H40">
-        <v>7.03956427796837</v>
+        <v>4.54465963519908</v>
       </c>
       <c r="I40">
-        <v>1.57559216200794</v>
+        <v>2.72940179000757</v>
       </c>
       <c r="J40">
-        <v>15.1783383852843</v>
+        <v>11.4033867997</v>
       </c>
       <c r="K40">
-        <v>8.07806309896008</v>
+        <v>1.62940463499209</v>
       </c>
       <c r="L40">
-        <v>16.0477464944468</v>
+        <v>13.127550813128</v>
       </c>
       <c r="M40">
-        <v>7.89728211923071</v>
+        <v>6.64758872615848</v>
       </c>
       <c r="N40">
-        <v>32.3220438370692</v>
+        <v>25.9260598814373</v>
       </c>
       <c r="O40">
-        <v>550.092689239112</v>
+        <v>518.226418086369</v>
       </c>
       <c r="P40">
-        <v>2.02720843357335</v>
+        <v>4.38736497118085</v>
       </c>
     </row>
     <row r="41">
@@ -2474,49 +2474,49 @@
         </is>
       </c>
       <c r="B41">
-        <v>823.489140954762</v>
+        <v>1042.92349907062</v>
       </c>
       <c r="C41">
-        <v>11.4648151675347</v>
+        <v>18.1845402058515</v>
       </c>
       <c r="D41">
-        <v>85.59785949333001</v>
+        <v>49.9041767448917</v>
       </c>
       <c r="E41">
-        <v>45.6678302971891</v>
+        <v>29.751619370539</v>
       </c>
       <c r="F41">
-        <v>1.64556750492897</v>
+        <v>3.08042313299254</v>
       </c>
       <c r="G41">
-        <v>46.5895706929337</v>
+        <v>32.2722157762015</v>
       </c>
       <c r="H41">
-        <v>51.6258445892826</v>
+        <v>32.5041020317126</v>
       </c>
       <c r="I41">
-        <v>10.3961773486871</v>
+        <v>12.2601002897334</v>
       </c>
       <c r="J41">
-        <v>58.3752324299375</v>
+        <v>37.7695938181695</v>
       </c>
       <c r="K41">
-        <v>30.515661897798</v>
+        <v>9.779272024841569</v>
       </c>
       <c r="L41">
-        <v>30.3429898588497</v>
+        <v>32.872871989061</v>
       </c>
       <c r="M41">
-        <v>42.7594665968895</v>
+        <v>31.8628372890498</v>
       </c>
       <c r="N41">
-        <v>21.3572952686652</v>
+        <v>20.8102721810132</v>
       </c>
       <c r="O41">
-        <v>1685.10689457229</v>
+        <v>1565.59848089395</v>
       </c>
       <c r="P41">
-        <v>16.6689864325765</v>
+        <v>27.9358094396569</v>
       </c>
     </row>
     <row r="42">
@@ -2526,49 +2526,49 @@
         </is>
       </c>
       <c r="B42">
-        <v>99.94605671376181</v>
+        <v>126.839220815603</v>
       </c>
       <c r="C42">
-        <v>11.9433875734622</v>
+        <v>9.65905427745213</v>
       </c>
       <c r="D42">
-        <v>0.456685835983489</v>
+        <v>1.69835607106641</v>
       </c>
       <c r="E42">
-        <v>9.00453078248259</v>
+        <v>6.91382231317345</v>
       </c>
       <c r="F42">
-        <v>3.46870500914057</v>
+        <v>3.27174147996343</v>
       </c>
       <c r="G42">
-        <v>1.40040871715217</v>
+        <v>2.67897170795595</v>
       </c>
       <c r="H42">
-        <v>2.17380663823681</v>
+        <v>2.48288235065767</v>
       </c>
       <c r="I42">
-        <v>2.40560942245759</v>
+        <v>2.19297219281341</v>
       </c>
       <c r="J42">
-        <v>5.89198948572896</v>
+        <v>8.615788728115101</v>
       </c>
       <c r="K42">
-        <v>6.66624866222868</v>
+        <v>5.80472573790824</v>
       </c>
       <c r="L42">
-        <v>9.152521175379629</v>
+        <v>6.86886219663162</v>
       </c>
       <c r="M42">
-        <v>3.85527170620314</v>
+        <v>3.47605124867408</v>
       </c>
       <c r="N42">
-        <v>10.5809970906839</v>
+        <v>14.1211441453276</v>
       </c>
       <c r="O42">
-        <v>479.823940160441</v>
+        <v>437.905785562106</v>
       </c>
       <c r="P42">
-        <v>51.8690047031948</v>
+        <v>62.090325532726</v>
       </c>
     </row>
     <row r="43">
@@ -2578,49 +2578,49 @@
         </is>
       </c>
       <c r="B43">
-        <v>1149.68298853553</v>
+        <v>1424.73338923933</v>
       </c>
       <c r="C43">
-        <v>44.2924499618241</v>
+        <v>41.5684124575277</v>
       </c>
       <c r="D43">
-        <v>23.2725195176596</v>
+        <v>23.6209457549155</v>
       </c>
       <c r="E43">
-        <v>41.3641008718826</v>
+        <v>63.9881461218936</v>
       </c>
       <c r="F43">
-        <v>9.5531622490376</v>
+        <v>6.92119898404255</v>
       </c>
       <c r="G43">
-        <v>42.6410741691819</v>
+        <v>27.7843916395025</v>
       </c>
       <c r="H43">
-        <v>25.3326450487549</v>
+        <v>39.429261647818</v>
       </c>
       <c r="I43">
-        <v>28.2233592025437</v>
+        <v>5.96609707359632</v>
       </c>
       <c r="J43">
-        <v>47.5667731710421</v>
+        <v>54.9165522683714</v>
       </c>
       <c r="K43">
-        <v>47.071711786265</v>
+        <v>5.52193394554446</v>
       </c>
       <c r="L43">
-        <v>40.0270422457463</v>
+        <v>29.0537068032636</v>
       </c>
       <c r="M43">
-        <v>84.68573092963381</v>
+        <v>70.86895534878541</v>
       </c>
       <c r="N43">
-        <v>57.8176966580034</v>
+        <v>68.0596896963652</v>
       </c>
       <c r="O43">
-        <v>2503.70546259826</v>
+        <v>2291.81876285525</v>
       </c>
       <c r="P43">
-        <v>40.731021065455</v>
+        <v>36.170276971741</v>
       </c>
     </row>
     <row r="44">
@@ -2630,49 +2630,49 @@
         </is>
       </c>
       <c r="B44">
-        <v>3459.23851617894</v>
+        <v>4123.70051949768</v>
       </c>
       <c r="C44">
-        <v>146.011431956941</v>
+        <v>143.083160637512</v>
       </c>
       <c r="D44">
-        <v>47.4173072887292</v>
+        <v>22.1581001964699</v>
       </c>
       <c r="E44">
-        <v>80.9914591471005</v>
+        <v>88.9484003552334</v>
       </c>
       <c r="F44">
-        <v>277.198944654575</v>
+        <v>285.438483009561</v>
       </c>
       <c r="G44">
-        <v>129.679678290879</v>
+        <v>132.394620353401</v>
       </c>
       <c r="H44">
-        <v>38.8264652683426</v>
+        <v>23.9478654618354</v>
       </c>
       <c r="I44">
-        <v>53.3478761494783</v>
+        <v>38.4213068343209</v>
       </c>
       <c r="J44">
-        <v>124.829036161954</v>
+        <v>111.462121552764</v>
       </c>
       <c r="K44">
-        <v>79.14499999691969</v>
+        <v>31.5063808340041</v>
       </c>
       <c r="L44">
-        <v>216.082243535669</v>
+        <v>195.708379520933</v>
       </c>
       <c r="M44">
-        <v>113.041764105024</v>
+        <v>96.9240937396702</v>
       </c>
       <c r="N44">
-        <v>112.334584270296</v>
+        <v>85.599150590234</v>
       </c>
       <c r="O44">
-        <v>9084.856883224311</v>
+        <v>8619.860986230069</v>
       </c>
       <c r="P44">
-        <v>205.286702962171</v>
+        <v>171.531905011694</v>
       </c>
     </row>
     <row r="45">
@@ -2682,49 +2682,49 @@
         </is>
       </c>
       <c r="B45">
-        <v>341.892577115633</v>
+        <v>377.00799970777</v>
       </c>
       <c r="C45">
-        <v>17.2384075174314</v>
+        <v>17.5981705252502</v>
       </c>
       <c r="D45">
-        <v>4.4102923593938</v>
+        <v>1.21193163729257</v>
       </c>
       <c r="E45">
-        <v>10.3594924075704</v>
+        <v>12.7760352103792</v>
       </c>
       <c r="F45">
-        <v>23.499762261997</v>
+        <v>26.708848804283</v>
       </c>
       <c r="G45">
-        <v>12.9305027051682</v>
+        <v>9.467834478979359</v>
       </c>
       <c r="H45">
-        <v>3.05471001454759</v>
+        <v>1.26534561448815</v>
       </c>
       <c r="I45">
-        <v>3.32855813579779</v>
+        <v>1.98084890787969</v>
       </c>
       <c r="J45">
-        <v>15.3342361712449</v>
+        <v>23.9303842652688</v>
       </c>
       <c r="K45">
-        <v>6.9011050357451</v>
+        <v>2.72127011333235</v>
       </c>
       <c r="L45">
-        <v>19.3858049849631</v>
+        <v>13.297763590448</v>
       </c>
       <c r="M45">
-        <v>20.9781924576563</v>
+        <v>13.2038248337489</v>
       </c>
       <c r="N45">
-        <v>25.5205059175798</v>
+        <v>34.0085767989217</v>
       </c>
       <c r="O45">
-        <v>982.815376996938</v>
+        <v>948.678545645779</v>
       </c>
       <c r="P45">
-        <v>13.23136433356</v>
+        <v>16.6490749594253</v>
       </c>
     </row>
     <row r="46">
@@ -2734,49 +2734,49 @@
         </is>
       </c>
       <c r="B46">
-        <v>94.41038757703799</v>
+        <v>120.037663505894</v>
       </c>
       <c r="C46">
-        <v>5.73267300662826</v>
+        <v>5.27197442342365</v>
       </c>
       <c r="D46">
-        <v>1.2707277226509</v>
+        <v>0.821618743906902</v>
       </c>
       <c r="E46">
-        <v>6.58070890479373</v>
+        <v>6.1135087250286</v>
       </c>
       <c r="F46">
-        <v>1.34690092301583</v>
+        <v>0.990624257539412</v>
       </c>
       <c r="G46">
-        <v>1.97114049321451</v>
+        <v>1.6558537612888</v>
       </c>
       <c r="H46">
-        <v>3.82019186093065</v>
+        <v>1.08971409732324</v>
       </c>
       <c r="I46">
-        <v>1.95392146696874</v>
+        <v>2.34998994209898</v>
       </c>
       <c r="J46">
-        <v>6.28325146357257</v>
+        <v>6.0972638370002</v>
       </c>
       <c r="K46">
-        <v>3.9808095249015</v>
+        <v>1.40078978880517</v>
       </c>
       <c r="L46">
-        <v>17.5446002190373</v>
+        <v>15.3638637058223</v>
       </c>
       <c r="M46">
-        <v>5.19180688562915</v>
+        <v>3.79034050240856</v>
       </c>
       <c r="N46">
-        <v>6.69477370351116</v>
+        <v>9.176745282223189</v>
       </c>
       <c r="O46">
-        <v>376.414323381479</v>
+        <v>358.006803140395</v>
       </c>
       <c r="P46">
-        <v>11.9202526177069</v>
+        <v>9.288905717255981</v>
       </c>
     </row>
     <row r="47">
@@ -2786,49 +2786,49 @@
         </is>
       </c>
       <c r="B47">
-        <v>1047.67278989643</v>
+        <v>1364.08468992622</v>
       </c>
       <c r="C47">
-        <v>56.5529998401988</v>
+        <v>47.2089920505087</v>
       </c>
       <c r="D47">
-        <v>27.870048181852</v>
+        <v>7.12163432468542</v>
       </c>
       <c r="E47">
-        <v>40.0400173930973</v>
+        <v>38.515564947782</v>
       </c>
       <c r="F47">
-        <v>12.2354117641419</v>
+        <v>9.62268468459509</v>
       </c>
       <c r="G47">
-        <v>18.1321952241932</v>
+        <v>25.7936403412211</v>
       </c>
       <c r="H47">
-        <v>15.0685134959454</v>
+        <v>15.7948875681509</v>
       </c>
       <c r="I47">
-        <v>11.9834967866452</v>
+        <v>11.2652130412914</v>
       </c>
       <c r="J47">
-        <v>42.5501464710569</v>
+        <v>27.4407198649908</v>
       </c>
       <c r="K47">
-        <v>9.06642080553188</v>
+        <v>4.08169807522275</v>
       </c>
       <c r="L47">
-        <v>44.0138170977506</v>
+        <v>21.8136253421679</v>
       </c>
       <c r="M47">
-        <v>66.57982223971359</v>
+        <v>69.3420560014586</v>
       </c>
       <c r="N47">
-        <v>24.3174479287886</v>
+        <v>24.1581291563325</v>
       </c>
       <c r="O47">
-        <v>3373.76752730124</v>
+        <v>3118.90137844361</v>
       </c>
       <c r="P47">
-        <v>40.3897747156529</v>
+        <v>46.3010332412676</v>
       </c>
     </row>
     <row r="48">
@@ -2838,49 +2838,49 @@
         </is>
       </c>
       <c r="B48">
-        <v>1041.28595197497</v>
+        <v>1157.83091494491</v>
       </c>
       <c r="C48">
-        <v>18.9050901172114</v>
+        <v>32.572598293231</v>
       </c>
       <c r="D48">
-        <v>9.19108459573182</v>
+        <v>7.66219907092049</v>
       </c>
       <c r="E48">
-        <v>52.6170264194221</v>
+        <v>64.0470730481576</v>
       </c>
       <c r="F48">
-        <v>8.109241255868479</v>
+        <v>11.1956276401031</v>
       </c>
       <c r="G48">
-        <v>4.69376422172492</v>
+        <v>7.61658635103783</v>
       </c>
       <c r="H48">
-        <v>4.91101406589858</v>
+        <v>11.199175043182</v>
       </c>
       <c r="I48">
-        <v>15.3671282070663</v>
+        <v>7.67885942032506</v>
       </c>
       <c r="J48">
-        <v>29.0308345978136</v>
+        <v>38.4386213686869</v>
       </c>
       <c r="K48">
-        <v>11.3170171870765</v>
+        <v>8.403406943534071</v>
       </c>
       <c r="L48">
-        <v>40.7753584060118</v>
+        <v>52.2431209877389</v>
       </c>
       <c r="M48">
-        <v>154.528592812702</v>
+        <v>154.163516154357</v>
       </c>
       <c r="N48">
-        <v>27.617421822275</v>
+        <v>52.8471198315899</v>
       </c>
       <c r="O48">
-        <v>2711.36789773209</v>
+        <v>2515.82002093389</v>
       </c>
       <c r="P48">
-        <v>78.9195423119758</v>
+        <v>89.9350008934356</v>
       </c>
     </row>
     <row r="49">
@@ -2890,49 +2890,49 @@
         </is>
       </c>
       <c r="B49">
-        <v>545.681108400892</v>
+        <v>680.7331344152281</v>
       </c>
       <c r="C49">
-        <v>5.17975758450652</v>
+        <v>5.50523144989088</v>
       </c>
       <c r="D49">
-        <v>0.769310404213036</v>
+        <v>0.206016053798181</v>
       </c>
       <c r="E49">
-        <v>16.8517069025564</v>
+        <v>22.1836295106053</v>
       </c>
       <c r="F49">
-        <v>41.6849599016742</v>
+        <v>34.2304190098034</v>
       </c>
       <c r="G49">
-        <v>20.8543380755869</v>
+        <v>14.0570574866176</v>
       </c>
       <c r="H49">
-        <v>6.75796098116198</v>
+        <v>3.59896033286547</v>
       </c>
       <c r="I49">
-        <v>5.93345793375046</v>
+        <v>2.50584399705974</v>
       </c>
       <c r="J49">
-        <v>26.5917751813031</v>
+        <v>21.0463636258452</v>
       </c>
       <c r="K49">
-        <v>7.60218290009385</v>
+        <v>3.19499240865268</v>
       </c>
       <c r="L49">
-        <v>2.81942550337546</v>
+        <v>1.64734458850721</v>
       </c>
       <c r="M49">
-        <v>4.42955864103365</v>
+        <v>4.37483801126325</v>
       </c>
       <c r="N49">
-        <v>2.81922029786308</v>
+        <v>9.65630026640752</v>
       </c>
       <c r="O49">
-        <v>786.621345608027</v>
+        <v>687.248392968902</v>
       </c>
       <c r="P49">
-        <v>11.4578717030751</v>
+        <v>10.6207692959892</v>
       </c>
     </row>
     <row r="50">
@@ -2942,49 +2942,49 @@
         </is>
       </c>
       <c r="B50">
-        <v>729.055334608216</v>
+        <v>888.9880779905921</v>
       </c>
       <c r="C50">
-        <v>74.39882830101121</v>
+        <v>62.093403695919</v>
       </c>
       <c r="D50">
-        <v>10.9941953595372</v>
+        <v>5.30596602991097</v>
       </c>
       <c r="E50">
-        <v>108.577009795515</v>
+        <v>124.18160488599</v>
       </c>
       <c r="F50">
-        <v>3.14307640175959</v>
+        <v>3.07383997894125</v>
       </c>
       <c r="G50">
-        <v>33.2050921796445</v>
+        <v>33.8776278564425</v>
       </c>
       <c r="H50">
-        <v>42.5629323409158</v>
+        <v>46.4936430576539</v>
       </c>
       <c r="I50">
-        <v>17.0758752905601</v>
+        <v>10.5516244954837</v>
       </c>
       <c r="J50">
-        <v>106.326056242586</v>
+        <v>72.5421361075186</v>
       </c>
       <c r="K50">
-        <v>72.8083109956381</v>
+        <v>43.0785997145486</v>
       </c>
       <c r="L50">
-        <v>80.56275427592929</v>
+        <v>71.89357197467299</v>
       </c>
       <c r="M50">
-        <v>27.8120183841286</v>
+        <v>54.7836131321069</v>
       </c>
       <c r="N50">
-        <v>68.5835273126021</v>
+        <v>61.9492019078354</v>
       </c>
       <c r="O50">
-        <v>2365.53914263053</v>
+        <v>2224.52121724075</v>
       </c>
       <c r="P50">
-        <v>64.75902135627329</v>
+        <v>87.6655535703409</v>
       </c>
     </row>
     <row r="51">
@@ -2994,49 +2994,49 @@
         </is>
       </c>
       <c r="B51">
-        <v>106.572309161407</v>
+        <v>119.459792534907</v>
       </c>
       <c r="C51">
-        <v>0.93418267295202</v>
+        <v>1.42240962624148</v>
       </c>
       <c r="D51">
-        <v>0.253608623499501</v>
+        <v>0.09713272703653759</v>
       </c>
       <c r="E51">
-        <v>2.12544062609268</v>
+        <v>1.90119363794165</v>
       </c>
       <c r="F51">
-        <v>48.7952862452603</v>
+        <v>44.8746562569463</v>
       </c>
       <c r="G51">
-        <v>3.54590579309496</v>
+        <v>2.96939198886506</v>
       </c>
       <c r="H51">
-        <v>0.321299356042022</v>
+        <v>0.347643599286439</v>
       </c>
       <c r="I51">
-        <v>0.58137414832385</v>
+        <v>2.28641978879102</v>
       </c>
       <c r="J51">
-        <v>2.32798794785345</v>
+        <v>1.94743916547405</v>
       </c>
       <c r="K51">
-        <v>0.949350762917324</v>
+        <v>1.7935584597214</v>
       </c>
       <c r="L51">
-        <v>0.345115008632297</v>
+        <v>0.778199424954977</v>
       </c>
       <c r="M51">
-        <v>0.476174018504897</v>
+        <v>0.7796080412454151</v>
       </c>
       <c r="N51">
-        <v>1.32685863338529</v>
+        <v>0.790840335132902</v>
       </c>
       <c r="O51">
-        <v>353.691615334288</v>
+        <v>328.423430444195</v>
       </c>
       <c r="P51">
-        <v>19.1926081555126</v>
+        <v>31.3638664035004</v>
       </c>
     </row>
     <row r="52">

--- a/1-Data-Codes/2-Final_Data/L_2007.xlsx
+++ b/1-Data-Codes/2-Final_Data/L_2007.xlsx
@@ -446,49 +446,49 @@
         </is>
       </c>
       <c r="B2">
-        <v>1265.76543457678</v>
+        <v>1308.18137601853</v>
       </c>
       <c r="C2">
-        <v>20.485678964487</v>
+        <v>20.3099982120225</v>
       </c>
       <c r="D2">
-        <v>24.3628893236515</v>
+        <v>24.5971417812289</v>
       </c>
       <c r="E2">
-        <v>45.502794440216</v>
+        <v>44.7608739532985</v>
       </c>
       <c r="F2">
-        <v>23.9523734185429</v>
+        <v>23.375586594089</v>
       </c>
       <c r="G2">
-        <v>23.031122969438</v>
+        <v>22.3312409233621</v>
       </c>
       <c r="H2">
-        <v>9.32226705451933</v>
+        <v>8.936865949097451</v>
       </c>
       <c r="I2">
-        <v>13.1152015947637</v>
+        <v>12.7430039118555</v>
       </c>
       <c r="J2">
-        <v>65.6358860501161</v>
+        <v>64.7392066206186</v>
       </c>
       <c r="K2">
-        <v>14.313819558274</v>
+        <v>13.9882170958845</v>
       </c>
       <c r="L2">
-        <v>50.4485195327273</v>
+        <v>50.0859607716613</v>
       </c>
       <c r="M2">
-        <v>66.5930817637459</v>
+        <v>65.7978112891943</v>
       </c>
       <c r="N2">
-        <v>23.434106446816</v>
+        <v>23.056321917789</v>
       </c>
       <c r="O2">
-        <v>1540.4130080887</v>
+        <v>1516.0390252274</v>
       </c>
       <c r="P2">
-        <v>22.8934787623037</v>
+        <v>23.321564072213</v>
       </c>
     </row>
     <row r="3">
@@ -498,49 +498,49 @@
         </is>
       </c>
       <c r="B3">
-        <v>155.271454914056</v>
+        <v>145.358765612541</v>
       </c>
       <c r="C3">
-        <v>1.00128284611016</v>
+        <v>0.966962697195758</v>
       </c>
       <c r="D3">
-        <v>0.333082262861973</v>
+        <v>0.311825936656192</v>
       </c>
       <c r="E3">
-        <v>1.43492376708635</v>
+        <v>1.32307015113898</v>
       </c>
       <c r="F3">
-        <v>14.2130143143445</v>
+        <v>12.825907667985</v>
       </c>
       <c r="G3">
-        <v>0.591645110071729</v>
+        <v>0.508462233467007</v>
       </c>
       <c r="H3">
-        <v>0.3043347277141</v>
+        <v>0.282108821877363</v>
       </c>
       <c r="I3">
-        <v>0.6133932042486791</v>
+        <v>0.546247940687048</v>
       </c>
       <c r="J3">
-        <v>0.361874620430807</v>
+        <v>0.334002711604311</v>
       </c>
       <c r="K3">
-        <v>0.250835072087785</v>
+        <v>0.226145986203496</v>
       </c>
       <c r="L3">
-        <v>0.40912656777255</v>
+        <v>0.372407270162015</v>
       </c>
       <c r="M3">
-        <v>0.393778573395612</v>
+        <v>0.359119769972664</v>
       </c>
       <c r="N3">
-        <v>1.93399155191986</v>
+        <v>1.76172692845935</v>
       </c>
       <c r="O3">
-        <v>352.019591639316</v>
+        <v>321.399435480305</v>
       </c>
       <c r="P3">
-        <v>12.6197075519741</v>
+        <v>11.7397856295555</v>
       </c>
     </row>
     <row r="4">
@@ -550,49 +550,49 @@
         </is>
       </c>
       <c r="B4">
-        <v>1290.73071331567</v>
+        <v>1339.93195705864</v>
       </c>
       <c r="C4">
-        <v>15.505147888339</v>
+        <v>15.584618004747</v>
       </c>
       <c r="D4">
-        <v>1.82427780112829</v>
+        <v>1.80320295333197</v>
       </c>
       <c r="E4">
-        <v>18.7774960709439</v>
+        <v>18.7394195046222</v>
       </c>
       <c r="F4">
-        <v>12.3676701295849</v>
+        <v>12.3945508296668</v>
       </c>
       <c r="G4">
-        <v>7.52971219485211</v>
+        <v>7.40965250556747</v>
       </c>
       <c r="H4">
-        <v>2.42770768648976</v>
+        <v>2.44101602111073</v>
       </c>
       <c r="I4">
-        <v>6.13436982770573</v>
+        <v>6.05823942698697</v>
       </c>
       <c r="J4">
-        <v>31.934500050686</v>
+        <v>31.9619577325513</v>
       </c>
       <c r="K4">
-        <v>3.64978263231949</v>
+        <v>3.60894541161035</v>
       </c>
       <c r="L4">
-        <v>64.63799496552291</v>
+        <v>63.8457334302579</v>
       </c>
       <c r="M4">
-        <v>43.625670061964</v>
+        <v>43.2370039511034</v>
       </c>
       <c r="N4">
-        <v>31.5467788532988</v>
+        <v>31.4843967059403</v>
       </c>
       <c r="O4">
-        <v>2322.5410781276</v>
+        <v>2314.03155020821</v>
       </c>
       <c r="P4">
-        <v>11.0618949525818</v>
+        <v>11.0296407400144</v>
       </c>
     </row>
     <row r="5">
@@ -602,49 +602,49 @@
         </is>
       </c>
       <c r="B5">
-        <v>671.250572359112</v>
+        <v>690.071910681768</v>
       </c>
       <c r="C5">
-        <v>49.9822732814904</v>
+        <v>49.6429908459071</v>
       </c>
       <c r="D5">
-        <v>9.560610502833329</v>
+        <v>9.405137712382491</v>
       </c>
       <c r="E5">
-        <v>20.6671013607793</v>
+        <v>20.8432728246203</v>
       </c>
       <c r="F5">
-        <v>6.20452386868788</v>
+        <v>6.27205249164831</v>
       </c>
       <c r="G5">
-        <v>7.433237849981</v>
+        <v>7.36237642159468</v>
       </c>
       <c r="H5">
-        <v>9.677249368242849</v>
+        <v>9.725615845035421</v>
       </c>
       <c r="I5">
-        <v>6.74209637593215</v>
+        <v>6.64455395836214</v>
       </c>
       <c r="J5">
-        <v>24.9492598871146</v>
+        <v>24.7535776257514</v>
       </c>
       <c r="K5">
-        <v>3.98844554697924</v>
+        <v>3.98080804800665</v>
       </c>
       <c r="L5">
-        <v>10.2529846930961</v>
+        <v>9.87360818991384</v>
       </c>
       <c r="M5">
-        <v>18.0659108544006</v>
+        <v>18.0848543104497</v>
       </c>
       <c r="N5">
-        <v>29.8806241085948</v>
+        <v>30.0984811241706</v>
       </c>
       <c r="O5">
-        <v>1027.9771814947</v>
+        <v>1015.89056454916</v>
       </c>
       <c r="P5">
-        <v>52.0814936838429</v>
+        <v>52.6619066490638</v>
       </c>
     </row>
     <row r="6">
@@ -654,49 +654,49 @@
         </is>
       </c>
       <c r="B6">
-        <v>6775.67032699491</v>
+        <v>6992.33875453593</v>
       </c>
       <c r="C6">
-        <v>191.787397710106</v>
+        <v>193.531527491726</v>
       </c>
       <c r="D6">
-        <v>33.9164475019872</v>
+        <v>33.5476488957564</v>
       </c>
       <c r="E6">
-        <v>156.351114680799</v>
+        <v>156.071480235057</v>
       </c>
       <c r="F6">
-        <v>44.1578812128404</v>
+        <v>43.6714506618397</v>
       </c>
       <c r="G6">
-        <v>101.793504908618</v>
+        <v>101.33972693064</v>
       </c>
       <c r="H6">
-        <v>50.6932024794887</v>
+        <v>50.3843185690565</v>
       </c>
       <c r="I6">
-        <v>33.20245819584</v>
+        <v>32.8952011690979</v>
       </c>
       <c r="J6">
-        <v>153.947443751093</v>
+        <v>152.566574019964</v>
       </c>
       <c r="K6">
-        <v>34.8524465946286</v>
+        <v>34.4936255628046</v>
       </c>
       <c r="L6">
-        <v>421.427683243543</v>
+        <v>417.566092379775</v>
       </c>
       <c r="M6">
-        <v>241.312750272902</v>
+        <v>237.605134168477</v>
       </c>
       <c r="N6">
-        <v>296.473691092381</v>
+        <v>294.122525193076</v>
       </c>
       <c r="O6">
-        <v>13371.5125874983</v>
+        <v>13293.5470784489</v>
       </c>
       <c r="P6">
-        <v>263.566907952224</v>
+        <v>270.618087270914</v>
       </c>
     </row>
     <row r="7">
@@ -706,49 +706,49 @@
         </is>
       </c>
       <c r="B7">
-        <v>720.406300299335</v>
+        <v>738.8156866884769</v>
       </c>
       <c r="C7">
-        <v>44.5506798425298</v>
+        <v>44.2874250159064</v>
       </c>
       <c r="D7">
-        <v>4.22103628511299</v>
+        <v>4.21910053983574</v>
       </c>
       <c r="E7">
-        <v>16.2369790436107</v>
+        <v>16.2447083261575</v>
       </c>
       <c r="F7">
-        <v>23.2567293584975</v>
+        <v>23.4207694691727</v>
       </c>
       <c r="G7">
-        <v>12.2433599786826</v>
+        <v>12.1869791655249</v>
       </c>
       <c r="H7">
-        <v>2.4411796350358</v>
+        <v>2.41005378172314</v>
       </c>
       <c r="I7">
-        <v>9.78171251007714</v>
+        <v>9.785887775801781</v>
       </c>
       <c r="J7">
-        <v>18.0977198124665</v>
+        <v>17.9139458267397</v>
       </c>
       <c r="K7">
-        <v>7.43630692883593</v>
+        <v>7.45926308215155</v>
       </c>
       <c r="L7">
-        <v>43.0706614234598</v>
+        <v>42.7056384120011</v>
       </c>
       <c r="M7">
-        <v>21.1976873434862</v>
+        <v>21.0769246856796</v>
       </c>
       <c r="N7">
-        <v>23.1453281787142</v>
+        <v>23.0179244461249</v>
       </c>
       <c r="O7">
-        <v>1989.90804615205</v>
+        <v>1983.57733239989</v>
       </c>
       <c r="P7">
-        <v>30.1206462617159</v>
+        <v>31.5454021353904</v>
       </c>
     </row>
     <row r="8">
@@ -758,49 +758,49 @@
         </is>
       </c>
       <c r="B8">
-        <v>582.410827524439</v>
+        <v>601.549552190313</v>
       </c>
       <c r="C8">
-        <v>12.1110271928086</v>
+        <v>12.0856039700929</v>
       </c>
       <c r="D8">
-        <v>2.81429952966235</v>
+        <v>2.81429680927419</v>
       </c>
       <c r="E8">
-        <v>20.0037216748823</v>
+        <v>19.8490327681424</v>
       </c>
       <c r="F8">
-        <v>2.98860750154126</v>
+        <v>2.92928574078852</v>
       </c>
       <c r="G8">
-        <v>22.1993497272034</v>
+        <v>21.622553465146</v>
       </c>
       <c r="H8">
-        <v>8.455671512928751</v>
+        <v>8.281111376606921</v>
       </c>
       <c r="I8">
-        <v>7.9478691825258</v>
+        <v>7.73980295746574</v>
       </c>
       <c r="J8">
-        <v>42.861925476022</v>
+        <v>42.0154775618687</v>
       </c>
       <c r="K8">
-        <v>8.193244835088411</v>
+        <v>8.019728152037709</v>
       </c>
       <c r="L8">
-        <v>35.5562146586161</v>
+        <v>34.8424100161877</v>
       </c>
       <c r="M8">
-        <v>53.3585017996836</v>
+        <v>51.7067525085879</v>
       </c>
       <c r="N8">
-        <v>32.9267967676437</v>
+        <v>32.3195315220461</v>
       </c>
       <c r="O8">
-        <v>1457.77042434556</v>
+        <v>1444.35518711623</v>
       </c>
       <c r="P8">
-        <v>10.197895879109</v>
+        <v>10.2700107197312</v>
       </c>
     </row>
     <row r="9">
@@ -810,49 +810,49 @@
         </is>
       </c>
       <c r="B9">
-        <v>203.956632408856</v>
+        <v>198.56092077782</v>
       </c>
       <c r="C9">
-        <v>9.270098295169699</v>
+        <v>8.816787988489971</v>
       </c>
       <c r="D9">
-        <v>2.14796139719998</v>
+        <v>2.00197014482153</v>
       </c>
       <c r="E9">
-        <v>4.56194722823501</v>
+        <v>4.2757338538283</v>
       </c>
       <c r="F9">
-        <v>1.18775567433992</v>
+        <v>1.1053205738874</v>
       </c>
       <c r="G9">
-        <v>24.421670808335</v>
+        <v>22.5651820649253</v>
       </c>
       <c r="H9">
-        <v>2.72330319982787</v>
+        <v>2.52832765778444</v>
       </c>
       <c r="I9">
-        <v>1.99312354190026</v>
+        <v>1.87198964166101</v>
       </c>
       <c r="J9">
-        <v>3.83252414773688</v>
+        <v>3.57062558405746</v>
       </c>
       <c r="K9">
-        <v>0.614346947384164</v>
+        <v>0.572286848248776</v>
       </c>
       <c r="L9">
-        <v>2.89275479005664</v>
+        <v>2.7335707035086</v>
       </c>
       <c r="M9">
-        <v>6.71224177062591</v>
+        <v>6.4303720590568</v>
       </c>
       <c r="N9">
-        <v>2.67067756740815</v>
+        <v>2.50785432935742</v>
       </c>
       <c r="O9">
-        <v>467.684693806205</v>
+        <v>439.690962911814</v>
       </c>
       <c r="P9">
-        <v>6.25610456518101</v>
+        <v>5.95225795448883</v>
       </c>
     </row>
     <row r="10">
@@ -862,49 +862,49 @@
         </is>
       </c>
       <c r="B10">
-        <v>3769.43908058064</v>
+        <v>3917.04030649613</v>
       </c>
       <c r="C10">
-        <v>49.597223131364</v>
+        <v>49.2990523089569</v>
       </c>
       <c r="D10">
-        <v>9.71387870399567</v>
+        <v>9.613802631051451</v>
       </c>
       <c r="E10">
-        <v>69.2101569986972</v>
+        <v>68.8426379979546</v>
       </c>
       <c r="F10">
-        <v>10.5746201965181</v>
+        <v>10.3460319152352</v>
       </c>
       <c r="G10">
-        <v>39.5792615592233</v>
+        <v>39.1913905820177</v>
       </c>
       <c r="H10">
-        <v>12.7407202630328</v>
+        <v>12.6146357741815</v>
       </c>
       <c r="I10">
-        <v>19.2316766044715</v>
+        <v>18.9913830555764</v>
       </c>
       <c r="J10">
-        <v>53.2801326879766</v>
+        <v>52.8196612525256</v>
       </c>
       <c r="K10">
-        <v>7.04026570526554</v>
+        <v>7.00246426652443</v>
       </c>
       <c r="L10">
-        <v>61.6768232494201</v>
+        <v>60.8580884564992</v>
       </c>
       <c r="M10">
-        <v>85.5474350692687</v>
+        <v>84.47989010340039</v>
       </c>
       <c r="N10">
-        <v>95.46049971499809</v>
+        <v>94.7208574111467</v>
       </c>
       <c r="O10">
-        <v>7969.43225405408</v>
+        <v>7906.20015545423</v>
       </c>
       <c r="P10">
-        <v>60.3473920824761</v>
+        <v>60.2723298897465</v>
       </c>
     </row>
     <row r="11">
@@ -914,49 +914,49 @@
         </is>
       </c>
       <c r="B11">
-        <v>1884.23110779111</v>
+        <v>1929.71689775892</v>
       </c>
       <c r="C11">
-        <v>69.1322960104997</v>
+        <v>69.0260487896704</v>
       </c>
       <c r="D11">
-        <v>106.38766422196</v>
+        <v>104.724911017453</v>
       </c>
       <c r="E11">
-        <v>84.8997683634117</v>
+        <v>84.6736443453469</v>
       </c>
       <c r="F11">
-        <v>14.8641582628207</v>
+        <v>14.6805817937366</v>
       </c>
       <c r="G11">
-        <v>25.8125337336105</v>
+        <v>25.5924184022424</v>
       </c>
       <c r="H11">
-        <v>24.2518155526878</v>
+        <v>24.110533517049</v>
       </c>
       <c r="I11">
-        <v>11.9702846741132</v>
+        <v>11.846749800417</v>
       </c>
       <c r="J11">
-        <v>42.1179275799232</v>
+        <v>41.8794884655789</v>
       </c>
       <c r="K11">
-        <v>6.07602437934783</v>
+        <v>5.99919780959927</v>
       </c>
       <c r="L11">
-        <v>43.9808581389092</v>
+        <v>43.6592060884507</v>
       </c>
       <c r="M11">
-        <v>56.832583362372</v>
+        <v>56.5924367677528</v>
       </c>
       <c r="N11">
-        <v>60.5768753910652</v>
+        <v>60.1615560995403</v>
       </c>
       <c r="O11">
-        <v>3403.66670406604</v>
+        <v>3377.21161735759</v>
       </c>
       <c r="P11">
-        <v>52.9015389687884</v>
+        <v>53.7841515207577</v>
       </c>
     </row>
     <row r="12">
@@ -966,49 +966,49 @@
         </is>
       </c>
       <c r="B12">
-        <v>260.197778538596</v>
+        <v>257.203033889416</v>
       </c>
       <c r="C12">
-        <v>8.15079487533478</v>
+        <v>7.60806264145543</v>
       </c>
       <c r="D12">
-        <v>0.784388701328178</v>
+        <v>0.735308975945166</v>
       </c>
       <c r="E12">
-        <v>3.44940129646293</v>
+        <v>3.2133931931153</v>
       </c>
       <c r="F12">
-        <v>0.828761339953886</v>
+        <v>0.762983510611207</v>
       </c>
       <c r="G12">
-        <v>0.317356510756271</v>
+        <v>0.298331710071814</v>
       </c>
       <c r="H12">
-        <v>0.113564887500284</v>
+        <v>0.106575012495814</v>
       </c>
       <c r="I12">
-        <v>1.00354300398949</v>
+        <v>0.9509210077208991</v>
       </c>
       <c r="J12">
-        <v>2.3870741714555</v>
+        <v>2.21461741094619</v>
       </c>
       <c r="K12">
-        <v>0.361721557694435</v>
+        <v>0.339498687542964</v>
       </c>
       <c r="L12">
-        <v>0.0129729452930507</v>
+        <v>0.0125832895598819</v>
       </c>
       <c r="M12">
-        <v>2.37731042369895</v>
+        <v>2.22175215338681</v>
       </c>
       <c r="N12">
-        <v>5.88070586187848</v>
+        <v>5.53765784150008</v>
       </c>
       <c r="O12">
-        <v>698.816632352786</v>
+        <v>660.69165199109</v>
       </c>
       <c r="P12">
-        <v>19.5087107569163</v>
+        <v>18.6427490554669</v>
       </c>
     </row>
     <row r="13">
@@ -1018,49 +1018,49 @@
         </is>
       </c>
       <c r="B13">
-        <v>255.805694289137</v>
+        <v>258.224992449352</v>
       </c>
       <c r="C13">
-        <v>24.1272995741493</v>
+        <v>23.5905982635336</v>
       </c>
       <c r="D13">
-        <v>0.511295381089331</v>
+        <v>0.493976478840165</v>
       </c>
       <c r="E13">
-        <v>12.2445653924442</v>
+        <v>11.9420056515225</v>
       </c>
       <c r="F13">
-        <v>3.53100182053089</v>
+        <v>3.39680639870397</v>
       </c>
       <c r="G13">
-        <v>7.58163110455838</v>
+        <v>7.33573218251244</v>
       </c>
       <c r="H13">
-        <v>2.86714087556256</v>
+        <v>2.72000729885983</v>
       </c>
       <c r="I13">
-        <v>2.39028768625532</v>
+        <v>2.30291293461852</v>
       </c>
       <c r="J13">
-        <v>6.03133936388588</v>
+        <v>5.85330155091908</v>
       </c>
       <c r="K13">
-        <v>4.97570766381824</v>
+        <v>4.69292835183865</v>
       </c>
       <c r="L13">
-        <v>18.9897683731415</v>
+        <v>18.1857993448003</v>
       </c>
       <c r="M13">
-        <v>3.13955464192467</v>
+        <v>3.07405174176956</v>
       </c>
       <c r="N13">
-        <v>3.00504892592516</v>
+        <v>2.88630084570072</v>
       </c>
       <c r="O13">
-        <v>635.3374164649511</v>
+        <v>617.327957875265</v>
       </c>
       <c r="P13">
-        <v>47.3282324705984</v>
+        <v>46.3381547381124</v>
       </c>
     </row>
     <row r="14">
@@ -1070,49 +1070,49 @@
         </is>
       </c>
       <c r="B14">
-        <v>2294.6801584732</v>
+        <v>2364.05657659667</v>
       </c>
       <c r="C14">
-        <v>124.867821133153</v>
+        <v>123.954353796168</v>
       </c>
       <c r="D14">
-        <v>9.11810704123014</v>
+        <v>9.115493215127589</v>
       </c>
       <c r="E14">
-        <v>79.7700871462424</v>
+        <v>80.0248502621008</v>
       </c>
       <c r="F14">
-        <v>15.6535987887767</v>
+        <v>15.5589057726642</v>
       </c>
       <c r="G14">
-        <v>89.77817769762341</v>
+        <v>87.8338303131567</v>
       </c>
       <c r="H14">
-        <v>47.0187947636024</v>
+        <v>46.6282399137405</v>
       </c>
       <c r="I14">
-        <v>24.7172329104701</v>
+        <v>24.4311405756742</v>
       </c>
       <c r="J14">
-        <v>139.088146434247</v>
+        <v>138.195647622105</v>
       </c>
       <c r="K14">
-        <v>62.9065761508369</v>
+        <v>62.3603599650098</v>
       </c>
       <c r="L14">
-        <v>92.30435408545409</v>
+        <v>91.4653210138878</v>
       </c>
       <c r="M14">
-        <v>82.6536981032922</v>
+        <v>82.2681543497486</v>
       </c>
       <c r="N14">
-        <v>64.61650964934459</v>
+        <v>64.32794326461711</v>
       </c>
       <c r="O14">
-        <v>5123.12832239356</v>
+        <v>5080.77849208458</v>
       </c>
       <c r="P14">
-        <v>56.7082057533177</v>
+        <v>59.8658146023141</v>
       </c>
     </row>
     <row r="15">
@@ -1122,49 +1122,49 @@
         </is>
       </c>
       <c r="B15">
-        <v>1192.86612813189</v>
+        <v>1220.55316224157</v>
       </c>
       <c r="C15">
-        <v>61.6950432010136</v>
+        <v>61.4421296734107</v>
       </c>
       <c r="D15">
-        <v>6.18826415827065</v>
+        <v>6.14781982328921</v>
       </c>
       <c r="E15">
-        <v>62.1185572784156</v>
+        <v>61.4714518820895</v>
       </c>
       <c r="F15">
-        <v>18.1711469202405</v>
+        <v>18.1096388524736</v>
       </c>
       <c r="G15">
-        <v>60.6538678737218</v>
+        <v>59.9261782589804</v>
       </c>
       <c r="H15">
-        <v>38.05149013756</v>
+        <v>37.6080964943683</v>
       </c>
       <c r="I15">
-        <v>24.3052451479369</v>
+        <v>24.1724340044762</v>
       </c>
       <c r="J15">
-        <v>136.780264312015</v>
+        <v>135.050817746128</v>
       </c>
       <c r="K15">
-        <v>36.8303810747481</v>
+        <v>36.3973511789348</v>
       </c>
       <c r="L15">
-        <v>41.1071434451498</v>
+        <v>40.7894307998578</v>
       </c>
       <c r="M15">
-        <v>155.836438692416</v>
+        <v>156.066956653858</v>
       </c>
       <c r="N15">
-        <v>87.32459025056519</v>
+        <v>85.6613205911456</v>
       </c>
       <c r="O15">
-        <v>2295.47675939913</v>
+        <v>2272.31308447716</v>
       </c>
       <c r="P15">
-        <v>49.0059840922559</v>
+        <v>48.8451405702391</v>
       </c>
     </row>
     <row r="16">
@@ -1174,49 +1174,49 @@
         </is>
       </c>
       <c r="B16">
-        <v>437.527615233897</v>
+        <v>447.355081608757</v>
       </c>
       <c r="C16">
-        <v>73.28451526323489</v>
+        <v>71.14211958355131</v>
       </c>
       <c r="D16">
-        <v>4.2974471857524</v>
+        <v>4.09992541420199</v>
       </c>
       <c r="E16">
-        <v>32.2782022481387</v>
+        <v>31.80593619078</v>
       </c>
       <c r="F16">
-        <v>2.93552663894073</v>
+        <v>2.79391316197553</v>
       </c>
       <c r="G16">
-        <v>14.7980876716617</v>
+        <v>14.5119338972525</v>
       </c>
       <c r="H16">
-        <v>15.6322455375898</v>
+        <v>15.6234609568386</v>
       </c>
       <c r="I16">
-        <v>4.1549294127971</v>
+        <v>4.11096198798953</v>
       </c>
       <c r="J16">
-        <v>42.9551768417529</v>
+        <v>42.1118275896511</v>
       </c>
       <c r="K16">
-        <v>41.7677058332809</v>
+        <v>40.7754504571865</v>
       </c>
       <c r="L16">
-        <v>16.8917876604362</v>
+        <v>16.9931655096708</v>
       </c>
       <c r="M16">
-        <v>26.5013780081233</v>
+        <v>26.7516107157379</v>
       </c>
       <c r="N16">
-        <v>32.4239894890072</v>
+        <v>31.3932566480293</v>
       </c>
       <c r="O16">
-        <v>1330.40820024508</v>
+        <v>1294.2357709645</v>
       </c>
       <c r="P16">
-        <v>94.6239813519643</v>
+        <v>91.40827111242891</v>
       </c>
     </row>
     <row r="17">
@@ -1226,49 +1226,49 @@
         </is>
       </c>
       <c r="B17">
-        <v>466.147242787723</v>
+        <v>474.523007917764</v>
       </c>
       <c r="C17">
-        <v>24.316873176782</v>
+        <v>24.0854919307156</v>
       </c>
       <c r="D17">
-        <v>1.92726116902804</v>
+        <v>1.87693533078337</v>
       </c>
       <c r="E17">
-        <v>18.3822286854733</v>
+        <v>17.9341815953716</v>
       </c>
       <c r="F17">
-        <v>14.9972172396477</v>
+        <v>15.3182583248433</v>
       </c>
       <c r="G17">
-        <v>16.0661708448642</v>
+        <v>16.0456291406503</v>
       </c>
       <c r="H17">
-        <v>13.264885216513</v>
+        <v>13.2254193034646</v>
       </c>
       <c r="I17">
-        <v>5.60844886797949</v>
+        <v>5.38228880977985</v>
       </c>
       <c r="J17">
-        <v>18.8192444133998</v>
+        <v>18.5204776190826</v>
       </c>
       <c r="K17">
-        <v>9.603565231755489</v>
+        <v>9.42517172581565</v>
       </c>
       <c r="L17">
-        <v>11.5189488418922</v>
+        <v>11.1027737513092</v>
       </c>
       <c r="M17">
-        <v>67.6014741352374</v>
+        <v>65.8168972675677</v>
       </c>
       <c r="N17">
-        <v>10.4560617130554</v>
+        <v>10.2520953857817</v>
       </c>
       <c r="O17">
-        <v>1174.15866069996</v>
+        <v>1139.50936314839</v>
       </c>
       <c r="P17">
-        <v>47.4315333672609</v>
+        <v>48.3025775137196</v>
       </c>
     </row>
     <row r="18">
@@ -1278,49 +1278,49 @@
         </is>
       </c>
       <c r="B18">
-        <v>1117.11357315482</v>
+        <v>1132.05030680673</v>
       </c>
       <c r="C18">
-        <v>32.1825833386843</v>
+        <v>31.2885038709252</v>
       </c>
       <c r="D18">
-        <v>4.54880870590581</v>
+        <v>4.54693156110848</v>
       </c>
       <c r="E18">
-        <v>31.1227030135314</v>
+        <v>30.8184504631039</v>
       </c>
       <c r="F18">
-        <v>41.6442636041115</v>
+        <v>40.12317279908</v>
       </c>
       <c r="G18">
-        <v>12.3865203657998</v>
+        <v>12.000817520424</v>
       </c>
       <c r="H18">
-        <v>9.06636169473388</v>
+        <v>9.00423686122198</v>
       </c>
       <c r="I18">
-        <v>7.4235374968909</v>
+        <v>7.2479117056252</v>
       </c>
       <c r="J18">
-        <v>20.7175588932217</v>
+        <v>20.4223537202481</v>
       </c>
       <c r="K18">
-        <v>6.43842373969222</v>
+        <v>6.33539375845558</v>
       </c>
       <c r="L18">
-        <v>28.1685085608532</v>
+        <v>27.6785290467973</v>
       </c>
       <c r="M18">
-        <v>60.2858983532392</v>
+        <v>59.9908301681824</v>
       </c>
       <c r="N18">
-        <v>24.8920088930893</v>
+        <v>24.5404785901562</v>
       </c>
       <c r="O18">
-        <v>1654.2742467984</v>
+        <v>1608.73096816697</v>
       </c>
       <c r="P18">
-        <v>58.4801804737413</v>
+        <v>57.941909748199</v>
       </c>
     </row>
     <row r="19">
@@ -1330,49 +1330,49 @@
         </is>
       </c>
       <c r="B19">
-        <v>1000.51141190322</v>
+        <v>1015.75516079669</v>
       </c>
       <c r="C19">
-        <v>35.6494278520506</v>
+        <v>35.4489694834552</v>
       </c>
       <c r="D19">
-        <v>5.98476102424756</v>
+        <v>5.96273878969255</v>
       </c>
       <c r="E19">
-        <v>31.1278738998565</v>
+        <v>31.4180046000481</v>
       </c>
       <c r="F19">
-        <v>82.04272642536721</v>
+        <v>80.1445520826985</v>
       </c>
       <c r="G19">
-        <v>47.8094594144158</v>
+        <v>47.0087519799746</v>
       </c>
       <c r="H19">
-        <v>9.93265430119645</v>
+        <v>9.845652037553791</v>
       </c>
       <c r="I19">
-        <v>6.07657108395361</v>
+        <v>5.98917515449235</v>
       </c>
       <c r="J19">
-        <v>21.7831846520824</v>
+        <v>21.2963627590725</v>
       </c>
       <c r="K19">
-        <v>7.20708023177697</v>
+        <v>7.04964845635367</v>
       </c>
       <c r="L19">
-        <v>4.87009386438384</v>
+        <v>4.8330894013871</v>
       </c>
       <c r="M19">
-        <v>13.8311002269125</v>
+        <v>13.7877312756112</v>
       </c>
       <c r="N19">
-        <v>16.4915935776502</v>
+        <v>16.1977793619313</v>
       </c>
       <c r="O19">
-        <v>1697.38934480984</v>
+        <v>1670.60899279127</v>
       </c>
       <c r="P19">
-        <v>36.8749419151007</v>
+        <v>37.1924520471547</v>
       </c>
     </row>
     <row r="20">
@@ -1382,49 +1382,49 @@
         </is>
       </c>
       <c r="B20">
-        <v>277.146887976781</v>
+        <v>282.05514261914</v>
       </c>
       <c r="C20">
-        <v>8.832952923067721</v>
+        <v>8.544371911566421</v>
       </c>
       <c r="D20">
-        <v>6.64053781380457</v>
+        <v>6.62254915280905</v>
       </c>
       <c r="E20">
-        <v>28.2684585742615</v>
+        <v>27.9299267696335</v>
       </c>
       <c r="F20">
-        <v>0.920392320382377</v>
+        <v>0.904483982497573</v>
       </c>
       <c r="G20">
-        <v>4.36259383278657</v>
+        <v>4.2292152420684</v>
       </c>
       <c r="H20">
-        <v>1.64417137672921</v>
+        <v>1.61168950178264</v>
       </c>
       <c r="I20">
-        <v>2.94654276417696</v>
+        <v>2.87616876694368</v>
       </c>
       <c r="J20">
-        <v>5.59675671037241</v>
+        <v>5.46713277547022</v>
       </c>
       <c r="K20">
-        <v>0.925650183885673</v>
+        <v>0.897204193509174</v>
       </c>
       <c r="L20">
-        <v>6.84133798275222</v>
+        <v>6.77572381602266</v>
       </c>
       <c r="M20">
-        <v>17.0019285507838</v>
+        <v>16.2206521972065</v>
       </c>
       <c r="N20">
-        <v>7.5896826629979</v>
+        <v>7.42823176039842</v>
       </c>
       <c r="O20">
-        <v>609.2777263891639</v>
+        <v>589.2900974074451</v>
       </c>
       <c r="P20">
-        <v>21.765226209006</v>
+        <v>21.5913111387396</v>
       </c>
     </row>
     <row r="21">
@@ -1434,49 +1434,49 @@
         </is>
       </c>
       <c r="B21">
-        <v>955.270233684131</v>
+        <v>979.3140264079671</v>
       </c>
       <c r="C21">
-        <v>16.8246810327979</v>
+        <v>16.8646103573695</v>
       </c>
       <c r="D21">
-        <v>1.22922751464888</v>
+        <v>1.21647582601357</v>
       </c>
       <c r="E21">
-        <v>19.0632034262564</v>
+        <v>18.8804364165998</v>
       </c>
       <c r="F21">
-        <v>2.10796757657589</v>
+        <v>2.09002796420035</v>
       </c>
       <c r="G21">
-        <v>13.9612026643368</v>
+        <v>13.8180096882901</v>
       </c>
       <c r="H21">
-        <v>3.98652160976545</v>
+        <v>3.94074860645048</v>
       </c>
       <c r="I21">
-        <v>11.1261569962366</v>
+        <v>11.1058824560493</v>
       </c>
       <c r="J21">
-        <v>13.0540685102973</v>
+        <v>12.9521995324667</v>
       </c>
       <c r="K21">
-        <v>3.36891924291608</v>
+        <v>3.3415052634657</v>
       </c>
       <c r="L21">
-        <v>24.1969799308873</v>
+        <v>23.9664931230424</v>
       </c>
       <c r="M21">
-        <v>21.3775175623912</v>
+        <v>21.0658938798786</v>
       </c>
       <c r="N21">
-        <v>17.4051019975828</v>
+        <v>17.3330636195225</v>
       </c>
       <c r="O21">
-        <v>2407.37019481786</v>
+        <v>2391.42603900716</v>
       </c>
       <c r="P21">
-        <v>21.6564864977094</v>
+        <v>21.6621929670511</v>
       </c>
     </row>
     <row r="22">
@@ -1486,49 +1486,49 @@
         </is>
       </c>
       <c r="B22">
-        <v>1140.36310550948</v>
+        <v>1173.26286003323</v>
       </c>
       <c r="C22">
-        <v>25.8337829051881</v>
+        <v>25.788909441554</v>
       </c>
       <c r="D22">
-        <v>6.94607979555555</v>
+        <v>6.89750872063253</v>
       </c>
       <c r="E22">
-        <v>33.8359529711158</v>
+        <v>34.26789878818</v>
       </c>
       <c r="F22">
-        <v>3.32706811403146</v>
+        <v>3.32642467332035</v>
       </c>
       <c r="G22">
-        <v>26.3187421389437</v>
+        <v>25.9231141018568</v>
       </c>
       <c r="H22">
-        <v>10.8143146698156</v>
+        <v>10.684860907025</v>
       </c>
       <c r="I22">
-        <v>7.08022012172552</v>
+        <v>7.02183599122095</v>
       </c>
       <c r="J22">
-        <v>37.9847091216664</v>
+        <v>37.3124332307879</v>
       </c>
       <c r="K22">
-        <v>3.10137520993159</v>
+        <v>3.15329210986534</v>
       </c>
       <c r="L22">
-        <v>86.2157283237335</v>
+        <v>84.9322695232088</v>
       </c>
       <c r="M22">
-        <v>22.2442070172904</v>
+        <v>21.6806215913498</v>
       </c>
       <c r="N22">
-        <v>59.2232501587033</v>
+        <v>58.3776287457442</v>
       </c>
       <c r="O22">
-        <v>2745.62121481747</v>
+        <v>2726.97338079768</v>
       </c>
       <c r="P22">
-        <v>14.1937970689104</v>
+        <v>14.1693066244987</v>
       </c>
     </row>
     <row r="23">
@@ -1538,49 +1538,49 @@
         </is>
       </c>
       <c r="B23">
-        <v>2282.51251501687</v>
+        <v>2341.51546153233</v>
       </c>
       <c r="C23">
-        <v>39.6528206350222</v>
+        <v>39.1794724883853</v>
       </c>
       <c r="D23">
-        <v>5.82413196395576</v>
+        <v>5.73556920902208</v>
       </c>
       <c r="E23">
-        <v>51.6144207797095</v>
+        <v>51.4112089029401</v>
       </c>
       <c r="F23">
-        <v>5.92068713230005</v>
+        <v>5.78756279919065</v>
       </c>
       <c r="G23">
-        <v>55.5093188716753</v>
+        <v>54.1466791337203</v>
       </c>
       <c r="H23">
-        <v>57.6219826571348</v>
+        <v>56.4787723991122</v>
       </c>
       <c r="I23">
-        <v>24.4481508333791</v>
+        <v>23.9896699447907</v>
       </c>
       <c r="J23">
-        <v>89.1605984821271</v>
+        <v>87.3765828214775</v>
       </c>
       <c r="K23">
-        <v>69.74857032166361</v>
+        <v>67.5868030127747</v>
       </c>
       <c r="L23">
-        <v>38.3697045771751</v>
+        <v>37.4228835797633</v>
       </c>
       <c r="M23">
-        <v>495.646301801852</v>
+        <v>483.235701978123</v>
       </c>
       <c r="N23">
-        <v>98.31943309118439</v>
+        <v>96.5145833843258</v>
       </c>
       <c r="O23">
-        <v>3442.13603193282</v>
+        <v>3394.24717648848</v>
       </c>
       <c r="P23">
-        <v>60.0366880270284</v>
+        <v>61.6515996249743</v>
       </c>
     </row>
     <row r="24">
@@ -1590,49 +1590,49 @@
         </is>
       </c>
       <c r="B24">
-        <v>744.745495164164</v>
+        <v>768.456636412912</v>
       </c>
       <c r="C24">
-        <v>46.2012673071692</v>
+        <v>46.9719447261472</v>
       </c>
       <c r="D24">
-        <v>9.393879524711879</v>
+        <v>9.312723199907319</v>
       </c>
       <c r="E24">
-        <v>58.3914875462267</v>
+        <v>58.4032075243795</v>
       </c>
       <c r="F24">
-        <v>9.740951584543129</v>
+        <v>9.770986066651471</v>
       </c>
       <c r="G24">
-        <v>26.2944347665277</v>
+        <v>26.1027294358076</v>
       </c>
       <c r="H24">
-        <v>18.9362719163016</v>
+        <v>18.9284747737498</v>
       </c>
       <c r="I24">
-        <v>14.9641757155087</v>
+        <v>14.9691274870266</v>
       </c>
       <c r="J24">
-        <v>44.22424799717</v>
+        <v>44.2679705727077</v>
       </c>
       <c r="K24">
-        <v>18.3368902217539</v>
+        <v>18.2257065835596</v>
       </c>
       <c r="L24">
-        <v>58.1356620691285</v>
+        <v>58.0698151210602</v>
       </c>
       <c r="M24">
-        <v>17.288494607154</v>
+        <v>17.3543276330135</v>
       </c>
       <c r="N24">
-        <v>68.73969027431259</v>
+        <v>68.2863827981693</v>
       </c>
       <c r="O24">
-        <v>2129.00986151132</v>
+        <v>2111.65784965331</v>
       </c>
       <c r="P24">
-        <v>67.9201051733359</v>
+        <v>69.60631258358581</v>
       </c>
     </row>
     <row r="25">
@@ -1642,49 +1642,49 @@
         </is>
       </c>
       <c r="B25">
-        <v>811.965871306986</v>
+        <v>824.3330052525261</v>
       </c>
       <c r="C25">
-        <v>34.5425740357825</v>
+        <v>32.5321001362625</v>
       </c>
       <c r="D25">
-        <v>12.4283030275952</v>
+        <v>12.2314802014683</v>
       </c>
       <c r="E25">
-        <v>40.3883866941128</v>
+        <v>38.5205446934106</v>
       </c>
       <c r="F25">
-        <v>20.4223679736567</v>
+        <v>19.2742205597323</v>
       </c>
       <c r="G25">
-        <v>8.066386131570489</v>
+        <v>7.80952743098601</v>
       </c>
       <c r="H25">
-        <v>9.502884571183831</v>
+        <v>9.1852927586735</v>
       </c>
       <c r="I25">
-        <v>1.83935389649158</v>
+        <v>1.77590012941115</v>
       </c>
       <c r="J25">
-        <v>10.9572285218653</v>
+        <v>10.7242916542466</v>
       </c>
       <c r="K25">
-        <v>7.85220883008611</v>
+        <v>7.59522094450942</v>
       </c>
       <c r="L25">
-        <v>7.94079680046557</v>
+        <v>7.72680078404874</v>
       </c>
       <c r="M25">
-        <v>35.1718615706164</v>
+        <v>34.3214859695313</v>
       </c>
       <c r="N25">
-        <v>45.8170259013108</v>
+        <v>45.8135228558934</v>
       </c>
       <c r="O25">
-        <v>1006.69329146731</v>
+        <v>972.181519979755</v>
       </c>
       <c r="P25">
-        <v>56.6476413094002</v>
+        <v>55.3530184278531</v>
       </c>
     </row>
     <row r="26">
@@ -1694,49 +1694,49 @@
         </is>
       </c>
       <c r="B26">
-        <v>1056.58915829702</v>
+        <v>1103.22997806621</v>
       </c>
       <c r="C26">
-        <v>54.9855331281332</v>
+        <v>54.6447251829374</v>
       </c>
       <c r="D26">
-        <v>3.99683546084664</v>
+        <v>3.95723872932912</v>
       </c>
       <c r="E26">
-        <v>53.3144971269441</v>
+        <v>54.0641396773648</v>
       </c>
       <c r="F26">
-        <v>6.64435796399315</v>
+        <v>6.77452479892362</v>
       </c>
       <c r="G26">
-        <v>38.9572219384995</v>
+        <v>38.2521148908154</v>
       </c>
       <c r="H26">
-        <v>11.6878109761965</v>
+        <v>11.6379908175577</v>
       </c>
       <c r="I26">
-        <v>17.2834307102271</v>
+        <v>16.9726548397701</v>
       </c>
       <c r="J26">
-        <v>41.6845824714662</v>
+        <v>41.0942405850887</v>
       </c>
       <c r="K26">
-        <v>8.93942799003848</v>
+        <v>8.815980523638491</v>
       </c>
       <c r="L26">
-        <v>33.228635764097</v>
+        <v>33.3347292956021</v>
       </c>
       <c r="M26">
-        <v>49.8331958870926</v>
+        <v>50.3402183863669</v>
       </c>
       <c r="N26">
-        <v>32.8697864063721</v>
+        <v>32.6768829863482</v>
       </c>
       <c r="O26">
-        <v>2391.50370061687</v>
+        <v>2353.37947252715</v>
       </c>
       <c r="P26">
-        <v>53.5147606185058</v>
+        <v>55.4587503028754</v>
       </c>
     </row>
     <row r="27">
@@ -1746,49 +1746,49 @@
         </is>
       </c>
       <c r="B27">
-        <v>212.206714554988</v>
+        <v>210.95540344556</v>
       </c>
       <c r="C27">
-        <v>2.61483724362136</v>
+        <v>2.49520202207465</v>
       </c>
       <c r="D27">
-        <v>0.710703459729871</v>
+        <v>0.6822262342998791</v>
       </c>
       <c r="E27">
-        <v>11.1814101910107</v>
+        <v>10.6137599770698</v>
       </c>
       <c r="F27">
-        <v>8.25601358550297</v>
+        <v>7.81450575118112</v>
       </c>
       <c r="G27">
-        <v>0.97288760219298</v>
+        <v>0.947458055751793</v>
       </c>
       <c r="H27">
-        <v>0.106400656239629</v>
+        <v>0.0987316933431828</v>
       </c>
       <c r="I27">
-        <v>2.62290208961366</v>
+        <v>2.40597734988857</v>
       </c>
       <c r="J27">
-        <v>4.78395745321761</v>
+        <v>4.53009846023579</v>
       </c>
       <c r="K27">
-        <v>0.882815828652902</v>
+        <v>0.838705443866931</v>
       </c>
       <c r="L27">
-        <v>2.18259537692499</v>
+        <v>2.0908190903411</v>
       </c>
       <c r="M27">
-        <v>0.191264411855109</v>
+        <v>0.181504777388898</v>
       </c>
       <c r="N27">
-        <v>4.35797480736636</v>
+        <v>4.11030946179055</v>
       </c>
       <c r="O27">
-        <v>481.174227535505</v>
+        <v>457.498042779324</v>
       </c>
       <c r="P27">
-        <v>52.0520250218147</v>
+        <v>50.6627142876768</v>
       </c>
     </row>
     <row r="28">
@@ -1798,49 +1798,49 @@
         </is>
       </c>
       <c r="B28">
-        <v>240.693742844547</v>
+        <v>245.05615499728</v>
       </c>
       <c r="C28">
-        <v>38.8278074413822</v>
+        <v>37.9736052247823</v>
       </c>
       <c r="D28">
-        <v>1.96313638740666</v>
+        <v>1.79735689776028</v>
       </c>
       <c r="E28">
-        <v>4.95409817742588</v>
+        <v>4.84550974877417</v>
       </c>
       <c r="F28">
-        <v>0.487754553356702</v>
+        <v>0.468054719946854</v>
       </c>
       <c r="G28">
-        <v>5.88093370717926</v>
+        <v>5.61940014087474</v>
       </c>
       <c r="H28">
-        <v>6.3042312641749</v>
+        <v>6.11109441044504</v>
       </c>
       <c r="I28">
-        <v>4.19524218369022</v>
+        <v>4.03050900382458</v>
       </c>
       <c r="J28">
-        <v>17.6340915671677</v>
+        <v>17.1362886677294</v>
       </c>
       <c r="K28">
-        <v>12.6810065319201</v>
+        <v>12.2934113894339</v>
       </c>
       <c r="L28">
-        <v>10.0129261125289</v>
+        <v>9.491520679968639</v>
       </c>
       <c r="M28">
-        <v>11.3593241647589</v>
+        <v>11.3511713128653</v>
       </c>
       <c r="N28">
-        <v>12.407608267615</v>
+        <v>11.9317438847585</v>
       </c>
       <c r="O28">
-        <v>838.798386603218</v>
+        <v>808.527413414719</v>
       </c>
       <c r="P28">
-        <v>72.48221141246241</v>
+        <v>70.8409541458893</v>
       </c>
     </row>
     <row r="29">
@@ -1850,49 +1850,49 @@
         </is>
       </c>
       <c r="B29">
-        <v>452.857404298068</v>
+        <v>459.89245385611</v>
       </c>
       <c r="C29">
-        <v>3.96231430979147</v>
+        <v>3.87604914916905</v>
       </c>
       <c r="D29">
-        <v>1.89601561248478</v>
+        <v>1.88121745770937</v>
       </c>
       <c r="E29">
-        <v>7.14475082386297</v>
+        <v>7.02500290560473</v>
       </c>
       <c r="F29">
-        <v>23.9666561401199</v>
+        <v>23.6305856859281</v>
       </c>
       <c r="G29">
-        <v>3.06338720357916</v>
+        <v>2.98251226876368</v>
       </c>
       <c r="H29">
-        <v>0.6923700694720351</v>
+        <v>0.675395884979067</v>
       </c>
       <c r="I29">
-        <v>2.28903767422135</v>
+        <v>2.23268611267888</v>
       </c>
       <c r="J29">
-        <v>3.94511820087479</v>
+        <v>3.85021495495375</v>
       </c>
       <c r="K29">
-        <v>2.64570476673868</v>
+        <v>2.5829088279864</v>
       </c>
       <c r="L29">
-        <v>3.27484730796939</v>
+        <v>3.19254377497496</v>
       </c>
       <c r="M29">
-        <v>4.12142855189748</v>
+        <v>4.02987126844215</v>
       </c>
       <c r="N29">
-        <v>12.4178701364686</v>
+        <v>12.0972898993007</v>
       </c>
       <c r="O29">
-        <v>1171.46770870061</v>
+        <v>1143.54407512843</v>
       </c>
       <c r="P29">
-        <v>5.65858337766762</v>
+        <v>5.73080471140693</v>
       </c>
     </row>
     <row r="30">
@@ -1902,49 +1902,49 @@
         </is>
       </c>
       <c r="B30">
-        <v>206.244585025134</v>
+        <v>206.466840152451</v>
       </c>
       <c r="C30">
-        <v>5.50820070470459</v>
+        <v>5.3176683461286</v>
       </c>
       <c r="D30">
-        <v>5.39187833462804</v>
+        <v>5.22569225730254</v>
       </c>
       <c r="E30">
-        <v>10.0356666571746</v>
+        <v>9.73756416251107</v>
       </c>
       <c r="F30">
-        <v>0.298657289624333</v>
+        <v>0.287565196408425</v>
       </c>
       <c r="G30">
-        <v>5.70479502151906</v>
+        <v>5.48989953805594</v>
       </c>
       <c r="H30">
-        <v>2.69342462168698</v>
+        <v>2.58256462169719</v>
       </c>
       <c r="I30">
-        <v>2.48404487841784</v>
+        <v>2.38985610774612</v>
       </c>
       <c r="J30">
-        <v>20.3078616445866</v>
+        <v>19.5644740543834</v>
       </c>
       <c r="K30">
-        <v>3.84882099523447</v>
+        <v>3.70303348793344</v>
       </c>
       <c r="L30">
-        <v>42.4314611594108</v>
+        <v>40.8429391232695</v>
       </c>
       <c r="M30">
-        <v>9.298670600931841</v>
+        <v>8.93593691204546</v>
       </c>
       <c r="N30">
-        <v>18.1443663988259</v>
+        <v>17.4934302463422</v>
       </c>
       <c r="O30">
-        <v>625.188305523718</v>
+        <v>603.966504451946</v>
       </c>
       <c r="P30">
-        <v>5.56997353542154</v>
+        <v>5.49288587824129</v>
       </c>
     </row>
     <row r="31">
@@ -1954,49 +1954,49 @@
         </is>
       </c>
       <c r="B31">
-        <v>1475.98166301798</v>
+        <v>1515.53519041559</v>
       </c>
       <c r="C31">
-        <v>54.8416118618261</v>
+        <v>54.5326073447765</v>
       </c>
       <c r="D31">
-        <v>7.44317410029832</v>
+        <v>7.45061138265442</v>
       </c>
       <c r="E31">
-        <v>26.0135013264423</v>
+        <v>26.1481030268643</v>
       </c>
       <c r="F31">
-        <v>2.97370736806638</v>
+        <v>2.94981647903458</v>
       </c>
       <c r="G31">
-        <v>121.796737026319</v>
+        <v>121.359180698036</v>
       </c>
       <c r="H31">
-        <v>13.3795386192784</v>
+        <v>13.3723605167227</v>
       </c>
       <c r="I31">
-        <v>8.280832597832379</v>
+        <v>8.26862478072665</v>
       </c>
       <c r="J31">
-        <v>21.5687319725147</v>
+        <v>21.5376698820347</v>
       </c>
       <c r="K31">
-        <v>6.09598890258057</v>
+        <v>6.02947707580575</v>
       </c>
       <c r="L31">
-        <v>63.452494590502</v>
+        <v>62.8968298934481</v>
       </c>
       <c r="M31">
-        <v>17.936431598738</v>
+        <v>17.8222020398589</v>
       </c>
       <c r="N31">
-        <v>78.5508779432347</v>
+        <v>78.1460826751394</v>
       </c>
       <c r="O31">
-        <v>3741.89790052225</v>
+        <v>3719.20349322539</v>
       </c>
       <c r="P31">
-        <v>18.1717092361807</v>
+        <v>18.5165742860408</v>
       </c>
     </row>
     <row r="32">
@@ -2006,49 +2006,49 @@
         </is>
       </c>
       <c r="B32">
-        <v>453.726594920367</v>
+        <v>462.535265586912</v>
       </c>
       <c r="C32">
-        <v>2.76656230468383</v>
+        <v>2.69916890561708</v>
       </c>
       <c r="D32">
-        <v>0.642707268622236</v>
+        <v>0.636829599348547</v>
       </c>
       <c r="E32">
-        <v>2.71343415336502</v>
+        <v>2.95723451592811</v>
       </c>
       <c r="F32">
-        <v>24.3787487764142</v>
+        <v>23.2178353223483</v>
       </c>
       <c r="G32">
-        <v>3.05960040453544</v>
+        <v>3.00700718188737</v>
       </c>
       <c r="H32">
-        <v>0.514870204744929</v>
+        <v>0.509574473731792</v>
       </c>
       <c r="I32">
-        <v>1.69055230836407</v>
+        <v>1.65942435507433</v>
       </c>
       <c r="J32">
-        <v>6.14839851192977</v>
+        <v>5.93154587617591</v>
       </c>
       <c r="K32">
-        <v>1.68288436516867</v>
+        <v>1.60516379811018</v>
       </c>
       <c r="L32">
-        <v>6.15545701936107</v>
+        <v>5.84185528540119</v>
       </c>
       <c r="M32">
-        <v>11.697054868691</v>
+        <v>11.4544752641588</v>
       </c>
       <c r="N32">
-        <v>16.3832016347378</v>
+        <v>16.1716519905234</v>
       </c>
       <c r="O32">
-        <v>793.763038892634</v>
+        <v>777.240690549992</v>
       </c>
       <c r="P32">
-        <v>20.7062761633513</v>
+        <v>20.5133423248778</v>
       </c>
     </row>
     <row r="33">
@@ -2058,49 +2058,49 @@
         </is>
       </c>
       <c r="B33">
-        <v>3891.03219058409</v>
+        <v>3999.83769456763</v>
       </c>
       <c r="C33">
-        <v>76.36252814959219</v>
+        <v>76.1084530951549</v>
       </c>
       <c r="D33">
-        <v>11.2671030686607</v>
+        <v>11.1754338798265</v>
       </c>
       <c r="E33">
-        <v>70.7557200824416</v>
+        <v>71.23141975183761</v>
       </c>
       <c r="F33">
-        <v>10.644694402376</v>
+        <v>10.6495232234312</v>
       </c>
       <c r="G33">
-        <v>74.1299233885869</v>
+        <v>73.6466879158636</v>
       </c>
       <c r="H33">
-        <v>35.5552580302042</v>
+        <v>35.0983245973305</v>
       </c>
       <c r="I33">
-        <v>19.9221502961203</v>
+        <v>19.7931110125081</v>
       </c>
       <c r="J33">
-        <v>88.3064930840312</v>
+        <v>87.8722631400383</v>
       </c>
       <c r="K33">
-        <v>49.7426846943231</v>
+        <v>49.2739272647449</v>
       </c>
       <c r="L33">
-        <v>94.9682922140573</v>
+        <v>93.9046043091945</v>
       </c>
       <c r="M33">
-        <v>57.9790509132021</v>
+        <v>57.4016800086239</v>
       </c>
       <c r="N33">
-        <v>116.275418844075</v>
+        <v>115.932879394183</v>
       </c>
       <c r="O33">
-        <v>7854.73662332511</v>
+        <v>7798.82481955869</v>
       </c>
       <c r="P33">
-        <v>59.8950451838469</v>
+        <v>61.3162822070484</v>
       </c>
     </row>
     <row r="34">
@@ -2110,49 +2110,49 @@
         </is>
       </c>
       <c r="B34">
-        <v>1848.64991634597</v>
+        <v>1895.78825536833</v>
       </c>
       <c r="C34">
-        <v>60.6166514435043</v>
+        <v>59.5912187390573</v>
       </c>
       <c r="D34">
-        <v>64.40445607018761</v>
+        <v>64.01633629924611</v>
       </c>
       <c r="E34">
-        <v>59.0612519728806</v>
+        <v>58.95932545612</v>
       </c>
       <c r="F34">
-        <v>2.23651817911659</v>
+        <v>2.19555188430609</v>
       </c>
       <c r="G34">
-        <v>49.4382212159402</v>
+        <v>48.4085446516622</v>
       </c>
       <c r="H34">
-        <v>38.9124533330553</v>
+        <v>38.1642538987478</v>
       </c>
       <c r="I34">
-        <v>20.482147822419</v>
+        <v>20.377782146647</v>
       </c>
       <c r="J34">
-        <v>51.535847250086</v>
+        <v>51.2079302030085</v>
       </c>
       <c r="K34">
-        <v>11.1609712945938</v>
+        <v>10.9893697738764</v>
       </c>
       <c r="L34">
-        <v>93.6728298184694</v>
+        <v>92.180505473137</v>
       </c>
       <c r="M34">
-        <v>37.4426773543074</v>
+        <v>37.5334133830781</v>
       </c>
       <c r="N34">
-        <v>115.195908416522</v>
+        <v>114.354051291448</v>
       </c>
       <c r="O34">
-        <v>3406.25956442068</v>
+        <v>3371.75949771614</v>
       </c>
       <c r="P34">
-        <v>65.5853140334298</v>
+        <v>65.2591180900005</v>
       </c>
     </row>
     <row r="35">
@@ -2162,49 +2162,49 @@
         </is>
       </c>
       <c r="B35">
-        <v>94.3901164159242</v>
+        <v>95.9898305970422</v>
       </c>
       <c r="C35">
-        <v>8.12802116695063</v>
+        <v>7.79728483442693</v>
       </c>
       <c r="D35">
-        <v>0.67980885383562</v>
+        <v>0.664132856706352</v>
       </c>
       <c r="E35">
-        <v>3.27150948902208</v>
+        <v>3.07896019253352</v>
       </c>
       <c r="F35">
-        <v>5.10344675723315</v>
+        <v>4.87401991474512</v>
       </c>
       <c r="G35">
-        <v>0.401227057411739</v>
+        <v>0.376882000176192</v>
       </c>
       <c r="H35">
-        <v>1.42899601449101</v>
+        <v>1.34012782149506</v>
       </c>
       <c r="I35">
-        <v>1.69129147331909</v>
+        <v>1.60828445971682</v>
       </c>
       <c r="J35">
-        <v>1.87036487716526</v>
+        <v>1.75940901488285</v>
       </c>
       <c r="K35">
-        <v>3.83176376870949</v>
+        <v>3.61508019263902</v>
       </c>
       <c r="L35">
-        <v>3.39499575452481</v>
+        <v>3.20170578947139</v>
       </c>
       <c r="M35">
-        <v>4.48351322459431</v>
+        <v>4.21721770555282</v>
       </c>
       <c r="N35">
-        <v>3.04412179766477</v>
+        <v>2.86599943313983</v>
       </c>
       <c r="O35">
-        <v>338.043353723394</v>
+        <v>321.757382829146</v>
       </c>
       <c r="P35">
-        <v>53.6237036094185</v>
+        <v>51.3644373789706</v>
       </c>
     </row>
     <row r="36">
@@ -2214,49 +2214,49 @@
         </is>
       </c>
       <c r="B36">
-        <v>2370.24512576898</v>
+        <v>2435.56954770983</v>
       </c>
       <c r="C36">
-        <v>84.5169578188433</v>
+        <v>84.4091855467634</v>
       </c>
       <c r="D36">
-        <v>7.13113813635574</v>
+        <v>7.11047510214788</v>
       </c>
       <c r="E36">
-        <v>139.813261649856</v>
+        <v>140.378567947721</v>
       </c>
       <c r="F36">
-        <v>22.1795761802086</v>
+        <v>21.3553996334181</v>
       </c>
       <c r="G36">
-        <v>103.598134208296</v>
+        <v>101.964862010993</v>
       </c>
       <c r="H36">
-        <v>75.4852535546885</v>
+        <v>74.7041201794827</v>
       </c>
       <c r="I36">
-        <v>36.351697334845</v>
+        <v>35.957061249176</v>
       </c>
       <c r="J36">
-        <v>229.400688398456</v>
+        <v>228.900122813819</v>
       </c>
       <c r="K36">
-        <v>60.5090679981117</v>
+        <v>60.0721399690918</v>
       </c>
       <c r="L36">
-        <v>65.204415454325</v>
+        <v>64.78985665758481</v>
       </c>
       <c r="M36">
-        <v>168.617345901667</v>
+        <v>168.291490301961</v>
       </c>
       <c r="N36">
-        <v>114.695867431933</v>
+        <v>113.569578982208</v>
       </c>
       <c r="O36">
-        <v>4325.05195423719</v>
+        <v>4265.84569638859</v>
       </c>
       <c r="P36">
-        <v>71.9207517668665</v>
+        <v>72.667014004661</v>
       </c>
     </row>
     <row r="37">
@@ -2266,49 +2266,49 @@
         </is>
       </c>
       <c r="B37">
-        <v>779.356475809735</v>
+        <v>803.747525225803</v>
       </c>
       <c r="C37">
-        <v>15.6130554486274</v>
+        <v>15.5217209906916</v>
       </c>
       <c r="D37">
-        <v>2.01365056484831</v>
+        <v>2.00163952186299</v>
       </c>
       <c r="E37">
-        <v>19.2836374940996</v>
+        <v>19.1757567370733</v>
       </c>
       <c r="F37">
-        <v>45.785061670789</v>
+        <v>45.6036835842449</v>
       </c>
       <c r="G37">
-        <v>5.54128899417516</v>
+        <v>5.50047095663817</v>
       </c>
       <c r="H37">
-        <v>22.8540557768471</v>
+        <v>22.5333971896141</v>
       </c>
       <c r="I37">
-        <v>5.26615372213555</v>
+        <v>5.22253800589371</v>
       </c>
       <c r="J37">
-        <v>26.4199359346531</v>
+        <v>26.4611135098164</v>
       </c>
       <c r="K37">
-        <v>6.50714367736976</v>
+        <v>6.47607015530121</v>
       </c>
       <c r="L37">
-        <v>19.707244446805</v>
+        <v>19.4451382946872</v>
       </c>
       <c r="M37">
-        <v>24.6779322626565</v>
+        <v>24.7216481581491</v>
       </c>
       <c r="N37">
-        <v>20.6569429890398</v>
+        <v>20.6255932969976</v>
       </c>
       <c r="O37">
-        <v>1324.97988209209</v>
+        <v>1320.59545898342</v>
       </c>
       <c r="P37">
-        <v>57.9778456931616</v>
+        <v>58.2204154104626</v>
       </c>
     </row>
     <row r="38">
@@ -2318,49 +2318,49 @@
         </is>
       </c>
       <c r="B38">
-        <v>765.668956858511</v>
+        <v>786.03956475043</v>
       </c>
       <c r="C38">
-        <v>21.0679980976294</v>
+        <v>20.9783190136598</v>
       </c>
       <c r="D38">
-        <v>3.19673715293229</v>
+        <v>3.1755886198307</v>
       </c>
       <c r="E38">
-        <v>42.9700564218449</v>
+        <v>43.6799018517345</v>
       </c>
       <c r="F38">
-        <v>1.05339157580213</v>
+        <v>1.04241575518247</v>
       </c>
       <c r="G38">
-        <v>7.5914683269676</v>
+        <v>7.46287370501342</v>
       </c>
       <c r="H38">
-        <v>2.22571828667554</v>
+        <v>2.20887805162016</v>
       </c>
       <c r="I38">
-        <v>4.8889675846161</v>
+        <v>4.82084151473388</v>
       </c>
       <c r="J38">
-        <v>34.8216550125154</v>
+        <v>34.1246745652303</v>
       </c>
       <c r="K38">
-        <v>3.65257386617738</v>
+        <v>3.63272708476778</v>
       </c>
       <c r="L38">
-        <v>85.93907124939891</v>
+        <v>84.0523487473755</v>
       </c>
       <c r="M38">
-        <v>23.6148753594699</v>
+        <v>23.2407225147095</v>
       </c>
       <c r="N38">
-        <v>42.604925691789</v>
+        <v>42.3359565522379</v>
       </c>
       <c r="O38">
-        <v>1472.06099396271</v>
+        <v>1460.87643464063</v>
       </c>
       <c r="P38">
-        <v>64.4142338097861</v>
+        <v>65.1598982332376</v>
       </c>
     </row>
     <row r="39">
@@ -2370,49 +2370,49 @@
         </is>
       </c>
       <c r="B39">
-        <v>2505.97983299292</v>
+        <v>2586.56269109616</v>
       </c>
       <c r="C39">
-        <v>96.4278739810803</v>
+        <v>94.713063909177</v>
       </c>
       <c r="D39">
-        <v>30.8785446204003</v>
+        <v>30.4414998961933</v>
       </c>
       <c r="E39">
-        <v>109.247167443671</v>
+        <v>110.428683165666</v>
       </c>
       <c r="F39">
-        <v>34.2511218389473</v>
+        <v>34.1599243513062</v>
       </c>
       <c r="G39">
-        <v>99.60322545624049</v>
+        <v>97.6652193083351</v>
       </c>
       <c r="H39">
-        <v>46.1833032948999</v>
+        <v>46.5411659051932</v>
       </c>
       <c r="I39">
-        <v>24.9590898294179</v>
+        <v>24.853373521772</v>
       </c>
       <c r="J39">
-        <v>191.595696560422</v>
+        <v>191.659734234201</v>
       </c>
       <c r="K39">
-        <v>39.8167585921045</v>
+        <v>39.3113737464854</v>
       </c>
       <c r="L39">
-        <v>117.996969352805</v>
+        <v>116.681555514371</v>
       </c>
       <c r="M39">
-        <v>68.3375451092446</v>
+        <v>68.24781270520511</v>
       </c>
       <c r="N39">
-        <v>123.144274917069</v>
+        <v>122.289612595449</v>
       </c>
       <c r="O39">
-        <v>5066.98363394418</v>
+        <v>4998.71885028396</v>
       </c>
       <c r="P39">
-        <v>74.24652484495</v>
+        <v>75.2959951292967</v>
       </c>
     </row>
     <row r="40">
@@ -2422,49 +2422,49 @@
         </is>
       </c>
       <c r="B40">
-        <v>228.852611108998</v>
+        <v>227.984870856657</v>
       </c>
       <c r="C40">
-        <v>2.8699559390642</v>
+        <v>2.73950842311516</v>
       </c>
       <c r="D40">
-        <v>8.47338339013209</v>
+        <v>8.08864776900449</v>
       </c>
       <c r="E40">
-        <v>4.47541269365684</v>
+        <v>4.2651846535599</v>
       </c>
       <c r="F40">
-        <v>0.237864745429887</v>
+        <v>0.225556927470543</v>
       </c>
       <c r="G40">
-        <v>6.08979901572329</v>
+        <v>5.83558747672375</v>
       </c>
       <c r="H40">
-        <v>4.54465963519908</v>
+        <v>4.29167506730844</v>
       </c>
       <c r="I40">
-        <v>2.72940179000757</v>
+        <v>2.60941914639755</v>
       </c>
       <c r="J40">
-        <v>11.4033867997</v>
+        <v>10.8960929905081</v>
       </c>
       <c r="K40">
-        <v>1.62940463499209</v>
+        <v>1.56854396957011</v>
       </c>
       <c r="L40">
-        <v>13.127550813128</v>
+        <v>12.5280840236256</v>
       </c>
       <c r="M40">
-        <v>6.64758872615848</v>
+        <v>6.31418909613945</v>
       </c>
       <c r="N40">
-        <v>25.9260598814373</v>
+        <v>24.8428939211044</v>
       </c>
       <c r="O40">
-        <v>518.226418086369</v>
+        <v>493.757172115398</v>
       </c>
       <c r="P40">
-        <v>4.38736497118085</v>
+        <v>4.28514090208603</v>
       </c>
     </row>
     <row r="41">
@@ -2474,49 +2474,49 @@
         </is>
       </c>
       <c r="B41">
-        <v>1042.92349907062</v>
+        <v>1072.25503617307</v>
       </c>
       <c r="C41">
-        <v>18.1845402058515</v>
+        <v>18.2726351624262</v>
       </c>
       <c r="D41">
-        <v>49.9041767448917</v>
+        <v>49.6046862549854</v>
       </c>
       <c r="E41">
-        <v>29.751619370539</v>
+        <v>29.8104662707094</v>
       </c>
       <c r="F41">
-        <v>3.08042313299254</v>
+        <v>3.06074642256628</v>
       </c>
       <c r="G41">
-        <v>32.2722157762015</v>
+        <v>31.8579098465428</v>
       </c>
       <c r="H41">
-        <v>32.5041020317126</v>
+        <v>31.9731167528481</v>
       </c>
       <c r="I41">
-        <v>12.2601002897334</v>
+        <v>12.0645005179426</v>
       </c>
       <c r="J41">
-        <v>37.7695938181695</v>
+        <v>37.2784817660262</v>
       </c>
       <c r="K41">
-        <v>9.779272024841569</v>
+        <v>9.630107811957121</v>
       </c>
       <c r="L41">
-        <v>32.872871989061</v>
+        <v>32.3301872652366</v>
       </c>
       <c r="M41">
-        <v>31.8628372890498</v>
+        <v>31.5730124569043</v>
       </c>
       <c r="N41">
-        <v>20.8102721810132</v>
+        <v>20.4967852355945</v>
       </c>
       <c r="O41">
-        <v>1565.59848089395</v>
+        <v>1553.90351054126</v>
       </c>
       <c r="P41">
-        <v>27.9358094396569</v>
+        <v>27.9383931649707</v>
       </c>
     </row>
     <row r="42">
@@ -2526,49 +2526,49 @@
         </is>
       </c>
       <c r="B42">
-        <v>126.839220815603</v>
+        <v>124.238273663149</v>
       </c>
       <c r="C42">
-        <v>9.65905427745213</v>
+        <v>9.15402256794486</v>
       </c>
       <c r="D42">
-        <v>1.69835607106641</v>
+        <v>1.57731581194147</v>
       </c>
       <c r="E42">
-        <v>6.91382231317345</v>
+        <v>6.50525350361123</v>
       </c>
       <c r="F42">
-        <v>3.27174147996343</v>
+        <v>3.02130873224941</v>
       </c>
       <c r="G42">
-        <v>2.67897170795595</v>
+        <v>2.48505346062467</v>
       </c>
       <c r="H42">
-        <v>2.48288235065767</v>
+        <v>2.31801931783551</v>
       </c>
       <c r="I42">
-        <v>2.19297219281341</v>
+        <v>2.02961614825116</v>
       </c>
       <c r="J42">
-        <v>8.615788728115101</v>
+        <v>7.99791445756696</v>
       </c>
       <c r="K42">
-        <v>5.80472573790824</v>
+        <v>5.43844915500951</v>
       </c>
       <c r="L42">
-        <v>6.86886219663162</v>
+        <v>6.3596429640286</v>
       </c>
       <c r="M42">
-        <v>3.47605124867408</v>
+        <v>3.2360438931047</v>
       </c>
       <c r="N42">
-        <v>14.1211441453276</v>
+        <v>13.3546447802166</v>
       </c>
       <c r="O42">
-        <v>437.905785562106</v>
+        <v>403.611854097457</v>
       </c>
       <c r="P42">
-        <v>62.090325532726</v>
+        <v>59.4183572520518</v>
       </c>
     </row>
     <row r="43">
@@ -2578,49 +2578,49 @@
         </is>
       </c>
       <c r="B43">
-        <v>1424.73338923933</v>
+        <v>1472.37506334113</v>
       </c>
       <c r="C43">
-        <v>41.5684124575277</v>
+        <v>41.9020614299182</v>
       </c>
       <c r="D43">
-        <v>23.6209457549155</v>
+        <v>23.7425046727535</v>
       </c>
       <c r="E43">
-        <v>63.9881461218936</v>
+        <v>64.1109597072477</v>
       </c>
       <c r="F43">
-        <v>6.92119898404255</v>
+        <v>6.67612758331892</v>
       </c>
       <c r="G43">
-        <v>27.7843916395025</v>
+        <v>27.2095350850282</v>
       </c>
       <c r="H43">
-        <v>39.429261647818</v>
+        <v>39.4391109217946</v>
       </c>
       <c r="I43">
-        <v>5.96609707359632</v>
+        <v>5.64944723152515</v>
       </c>
       <c r="J43">
-        <v>54.9165522683714</v>
+        <v>55.1723682300477</v>
       </c>
       <c r="K43">
-        <v>5.52193394554446</v>
+        <v>5.5261220558757</v>
       </c>
       <c r="L43">
-        <v>29.0537068032636</v>
+        <v>29.0006436837563</v>
       </c>
       <c r="M43">
-        <v>70.86895534878541</v>
+        <v>72.0601674986455</v>
       </c>
       <c r="N43">
-        <v>68.0596896963652</v>
+        <v>68.27847608058031</v>
       </c>
       <c r="O43">
-        <v>2291.81876285525</v>
+        <v>2259.05843432156</v>
       </c>
       <c r="P43">
-        <v>36.170276971741</v>
+        <v>35.5910599324167</v>
       </c>
     </row>
     <row r="44">
@@ -2630,49 +2630,49 @@
         </is>
       </c>
       <c r="B44">
-        <v>4123.70051949768</v>
+        <v>4260.91257110681</v>
       </c>
       <c r="C44">
-        <v>143.083160637512</v>
+        <v>140.473375297043</v>
       </c>
       <c r="D44">
-        <v>22.1581001964699</v>
+        <v>22.0287051873782</v>
       </c>
       <c r="E44">
-        <v>88.9484003552334</v>
+        <v>89.45675501105261</v>
       </c>
       <c r="F44">
-        <v>285.438483009561</v>
+        <v>282.519067644572</v>
       </c>
       <c r="G44">
-        <v>132.394620353401</v>
+        <v>130.859780763555</v>
       </c>
       <c r="H44">
-        <v>23.9478654618354</v>
+        <v>23.8456888026808</v>
       </c>
       <c r="I44">
-        <v>38.4213068343209</v>
+        <v>38.332436181282</v>
       </c>
       <c r="J44">
-        <v>111.462121552764</v>
+        <v>111.318963154562</v>
       </c>
       <c r="K44">
-        <v>31.5063808340041</v>
+        <v>31.2876765098037</v>
       </c>
       <c r="L44">
-        <v>195.708379520933</v>
+        <v>194.454215860301</v>
       </c>
       <c r="M44">
-        <v>96.9240937396702</v>
+        <v>97.1384494439434</v>
       </c>
       <c r="N44">
-        <v>85.599150590234</v>
+        <v>85.82085888764659</v>
       </c>
       <c r="O44">
-        <v>8619.860986230069</v>
+        <v>8601.08450004189</v>
       </c>
       <c r="P44">
-        <v>171.531905011694</v>
+        <v>170.006743962418</v>
       </c>
     </row>
     <row r="45">
@@ -2682,49 +2682,49 @@
         </is>
       </c>
       <c r="B45">
-        <v>377.00799970777</v>
+        <v>384.850351204582</v>
       </c>
       <c r="C45">
-        <v>17.5981705252502</v>
+        <v>17.7217790483889</v>
       </c>
       <c r="D45">
-        <v>1.21193163729257</v>
+        <v>1.21258462834977</v>
       </c>
       <c r="E45">
-        <v>12.7760352103792</v>
+        <v>12.9149488911091</v>
       </c>
       <c r="F45">
-        <v>26.708848804283</v>
+        <v>26.3145194947115</v>
       </c>
       <c r="G45">
-        <v>9.467834478979359</v>
+        <v>9.34027465632647</v>
       </c>
       <c r="H45">
-        <v>1.26534561448815</v>
+        <v>1.25205419939965</v>
       </c>
       <c r="I45">
-        <v>1.98084890787969</v>
+        <v>1.95672618639404</v>
       </c>
       <c r="J45">
-        <v>23.9303842652688</v>
+        <v>23.3955212169774</v>
       </c>
       <c r="K45">
-        <v>2.72127011333235</v>
+        <v>2.68491621167855</v>
       </c>
       <c r="L45">
-        <v>13.297763590448</v>
+        <v>13.1632146969411</v>
       </c>
       <c r="M45">
-        <v>13.2038248337489</v>
+        <v>13.1597780891633</v>
       </c>
       <c r="N45">
-        <v>34.0085767989217</v>
+        <v>33.7432580202205</v>
       </c>
       <c r="O45">
-        <v>948.678545645779</v>
+        <v>938.422198178762</v>
       </c>
       <c r="P45">
-        <v>16.6490749594253</v>
+        <v>16.9732225312289</v>
       </c>
     </row>
     <row r="46">
@@ -2734,49 +2734,49 @@
         </is>
       </c>
       <c r="B46">
-        <v>120.037663505894</v>
+        <v>117.74120312441</v>
       </c>
       <c r="C46">
-        <v>5.27197442342365</v>
+        <v>4.98932095340335</v>
       </c>
       <c r="D46">
-        <v>0.821618743906902</v>
+        <v>0.748168508742613</v>
       </c>
       <c r="E46">
-        <v>6.1135087250286</v>
+        <v>5.79667994145781</v>
       </c>
       <c r="F46">
-        <v>0.990624257539412</v>
+        <v>0.9294495886369351</v>
       </c>
       <c r="G46">
-        <v>1.6558537612888</v>
+        <v>1.52939996011126</v>
       </c>
       <c r="H46">
-        <v>1.08971409732324</v>
+        <v>1.0119834361294</v>
       </c>
       <c r="I46">
-        <v>2.34998994209898</v>
+        <v>2.17709317060336</v>
       </c>
       <c r="J46">
-        <v>6.0972638370002</v>
+        <v>5.759290970553</v>
       </c>
       <c r="K46">
-        <v>1.40078978880517</v>
+        <v>1.30892905173193</v>
       </c>
       <c r="L46">
-        <v>15.3638637058223</v>
+        <v>14.2771388007102</v>
       </c>
       <c r="M46">
-        <v>3.79034050240856</v>
+        <v>3.60769188600168</v>
       </c>
       <c r="N46">
-        <v>9.176745282223189</v>
+        <v>8.60250961749203</v>
       </c>
       <c r="O46">
-        <v>358.006803140395</v>
+        <v>336.170000755112</v>
       </c>
       <c r="P46">
-        <v>9.288905717255981</v>
+        <v>8.97702820321723</v>
       </c>
     </row>
     <row r="47">
@@ -2786,49 +2786,49 @@
         </is>
       </c>
       <c r="B47">
-        <v>1364.08468992622</v>
+        <v>1405.11098506672</v>
       </c>
       <c r="C47">
-        <v>47.2089920505087</v>
+        <v>46.2886385643342</v>
       </c>
       <c r="D47">
-        <v>7.12163432468542</v>
+        <v>7.16058680230196</v>
       </c>
       <c r="E47">
-        <v>38.515564947782</v>
+        <v>38.8094727706014</v>
       </c>
       <c r="F47">
-        <v>9.62268468459509</v>
+        <v>9.594771092183951</v>
       </c>
       <c r="G47">
-        <v>25.7936403412211</v>
+        <v>25.6418947913835</v>
       </c>
       <c r="H47">
-        <v>15.7948875681509</v>
+        <v>15.7515050301022</v>
       </c>
       <c r="I47">
-        <v>11.2652130412914</v>
+        <v>11.1750942762661</v>
       </c>
       <c r="J47">
-        <v>27.4407198649908</v>
+        <v>27.0679871170614</v>
       </c>
       <c r="K47">
-        <v>4.08169807522275</v>
+        <v>4.04786565541982</v>
       </c>
       <c r="L47">
-        <v>21.8136253421679</v>
+        <v>21.6153077952341</v>
       </c>
       <c r="M47">
-        <v>69.3420560014586</v>
+        <v>68.6168631712072</v>
       </c>
       <c r="N47">
-        <v>24.1581291563325</v>
+        <v>24.2354027697057</v>
       </c>
       <c r="O47">
-        <v>3118.90137844361</v>
+        <v>3089.38005530742</v>
       </c>
       <c r="P47">
-        <v>46.3010332412676</v>
+        <v>46.8518648289465</v>
       </c>
     </row>
     <row r="48">
@@ -2838,49 +2838,49 @@
         </is>
       </c>
       <c r="B48">
-        <v>1157.83091494491</v>
+        <v>1188.63970911218</v>
       </c>
       <c r="C48">
-        <v>32.572598293231</v>
+        <v>32.7360577402226</v>
       </c>
       <c r="D48">
-        <v>7.66219907092049</v>
+        <v>7.58692255110694</v>
       </c>
       <c r="E48">
-        <v>64.0470730481576</v>
+        <v>63.5056050900099</v>
       </c>
       <c r="F48">
-        <v>11.1956276401031</v>
+        <v>11.0841825512731</v>
       </c>
       <c r="G48">
-        <v>7.61658635103783</v>
+        <v>7.55021879434294</v>
       </c>
       <c r="H48">
-        <v>11.199175043182</v>
+        <v>11.1300540528002</v>
       </c>
       <c r="I48">
-        <v>7.67885942032506</v>
+        <v>7.59145775636808</v>
       </c>
       <c r="J48">
-        <v>38.4386213686869</v>
+        <v>38.3882361757776</v>
       </c>
       <c r="K48">
-        <v>8.403406943534071</v>
+        <v>8.43305878733239</v>
       </c>
       <c r="L48">
-        <v>52.2431209877389</v>
+        <v>51.7078679845863</v>
       </c>
       <c r="M48">
-        <v>154.163516154357</v>
+        <v>150.032920407262</v>
       </c>
       <c r="N48">
-        <v>52.8471198315899</v>
+        <v>52.8650298523414</v>
       </c>
       <c r="O48">
-        <v>2515.82002093389</v>
+        <v>2502.19130291488</v>
       </c>
       <c r="P48">
-        <v>89.9350008934356</v>
+        <v>90.7367364320956</v>
       </c>
     </row>
     <row r="49">
@@ -2890,49 +2890,49 @@
         </is>
       </c>
       <c r="B49">
-        <v>680.7331344152281</v>
+        <v>687.884710262274</v>
       </c>
       <c r="C49">
-        <v>5.50523144989088</v>
+        <v>5.36612710829734</v>
       </c>
       <c r="D49">
-        <v>0.206016053798181</v>
+        <v>0.186128844219638</v>
       </c>
       <c r="E49">
-        <v>22.1836295106053</v>
+        <v>21.4993746259686</v>
       </c>
       <c r="F49">
-        <v>34.2304190098034</v>
+        <v>32.9560968482235</v>
       </c>
       <c r="G49">
-        <v>14.0570574866176</v>
+        <v>13.5749539915849</v>
       </c>
       <c r="H49">
-        <v>3.59896033286547</v>
+        <v>3.50641555811325</v>
       </c>
       <c r="I49">
-        <v>2.50584399705974</v>
+        <v>2.40527583703319</v>
       </c>
       <c r="J49">
-        <v>21.0463636258452</v>
+        <v>20.0768135013026</v>
       </c>
       <c r="K49">
-        <v>3.19499240865268</v>
+        <v>3.06473489293705</v>
       </c>
       <c r="L49">
-        <v>1.64734458850721</v>
+        <v>1.5876428052804</v>
       </c>
       <c r="M49">
-        <v>4.37483801126325</v>
+        <v>4.22039333783658</v>
       </c>
       <c r="N49">
-        <v>9.65630026640752</v>
+        <v>9.46741422172202</v>
       </c>
       <c r="O49">
-        <v>687.248392968902</v>
+        <v>665.323875097007</v>
       </c>
       <c r="P49">
-        <v>10.6207692959892</v>
+        <v>10.4884561448145</v>
       </c>
     </row>
     <row r="50">
@@ -2942,49 +2942,49 @@
         </is>
       </c>
       <c r="B50">
-        <v>888.9880779905921</v>
+        <v>917.154744262263</v>
       </c>
       <c r="C50">
-        <v>62.093403695919</v>
+        <v>62.259085970007</v>
       </c>
       <c r="D50">
-        <v>5.30596602991097</v>
+        <v>5.17353918191342</v>
       </c>
       <c r="E50">
-        <v>124.18160488599</v>
+        <v>123.945144273675</v>
       </c>
       <c r="F50">
-        <v>3.07383997894125</v>
+        <v>3.01733511044095</v>
       </c>
       <c r="G50">
-        <v>33.8776278564425</v>
+        <v>32.8211372186312</v>
       </c>
       <c r="H50">
-        <v>46.4936430576539</v>
+        <v>45.7342717231487</v>
       </c>
       <c r="I50">
-        <v>10.5516244954837</v>
+        <v>10.4613709900345</v>
       </c>
       <c r="J50">
-        <v>72.5421361075186</v>
+        <v>71.957207543965</v>
       </c>
       <c r="K50">
-        <v>43.0785997145486</v>
+        <v>42.3314000644984</v>
       </c>
       <c r="L50">
-        <v>71.89357197467299</v>
+        <v>70.8931687293255</v>
       </c>
       <c r="M50">
-        <v>54.7836131321069</v>
+        <v>54.2515068504731</v>
       </c>
       <c r="N50">
-        <v>61.9492019078354</v>
+        <v>61.1830162951507</v>
       </c>
       <c r="O50">
-        <v>2224.52121724075</v>
+        <v>2194.44456600731</v>
       </c>
       <c r="P50">
-        <v>87.6655535703409</v>
+        <v>91.28666841472641</v>
       </c>
     </row>
     <row r="51">
@@ -2994,49 +2994,49 @@
         </is>
       </c>
       <c r="B51">
-        <v>119.459792534907</v>
+        <v>112.613993957003</v>
       </c>
       <c r="C51">
-        <v>1.42240962624148</v>
+        <v>1.27929415529153</v>
       </c>
       <c r="D51">
-        <v>0.09713272703653759</v>
+        <v>0.08881913976637181</v>
       </c>
       <c r="E51">
-        <v>1.90119363794165</v>
+        <v>1.764934146267</v>
       </c>
       <c r="F51">
-        <v>44.8746562569463</v>
+        <v>41.1057900727991</v>
       </c>
       <c r="G51">
-        <v>2.96939198886506</v>
+        <v>2.79050782399282</v>
       </c>
       <c r="H51">
-        <v>0.347643599286439</v>
+        <v>0.319981102141822</v>
       </c>
       <c r="I51">
-        <v>2.28641978879102</v>
+        <v>2.10158023674556</v>
       </c>
       <c r="J51">
-        <v>1.94743916547405</v>
+        <v>1.77092097614644</v>
       </c>
       <c r="K51">
-        <v>1.7935584597214</v>
+        <v>1.61997304353828</v>
       </c>
       <c r="L51">
-        <v>0.778199424954977</v>
+        <v>0.717571737099201</v>
       </c>
       <c r="M51">
-        <v>0.7796080412454151</v>
+        <v>0.726634142665944</v>
       </c>
       <c r="N51">
-        <v>0.790840335132902</v>
+        <v>0.7321792951293991</v>
       </c>
       <c r="O51">
-        <v>328.423430444195</v>
+        <v>298.551314951901</v>
       </c>
       <c r="P51">
-        <v>31.3638664035004</v>
+        <v>28.7377781249114</v>
       </c>
     </row>
     <row r="52">

--- a/1-Data-Codes/2-Final_Data/L_2007.xlsx
+++ b/1-Data-Codes/2-Final_Data/L_2007.xlsx
@@ -446,49 +446,49 @@
         </is>
       </c>
       <c r="B2">
-        <v>1308.18137601853</v>
+        <v>1308.1823252562</v>
       </c>
       <c r="C2">
-        <v>20.3099982120225</v>
+        <v>20.3100150983671</v>
       </c>
       <c r="D2">
-        <v>24.5971417812289</v>
+        <v>24.5971121134849</v>
       </c>
       <c r="E2">
-        <v>44.7608739532985</v>
+        <v>44.7609177055629</v>
       </c>
       <c r="F2">
-        <v>23.375586594089</v>
+        <v>23.3753088784388</v>
       </c>
       <c r="G2">
-        <v>22.3312409233621</v>
+        <v>22.3311918864129</v>
       </c>
       <c r="H2">
-        <v>8.936865949097451</v>
+        <v>8.93691366167343</v>
       </c>
       <c r="I2">
-        <v>12.7430039118555</v>
+        <v>12.7430196730287</v>
       </c>
       <c r="J2">
-        <v>64.7392066206186</v>
+        <v>64.7392400661299</v>
       </c>
       <c r="K2">
-        <v>13.9882170958845</v>
+        <v>13.9877654900565</v>
       </c>
       <c r="L2">
-        <v>50.0859607716613</v>
+        <v>50.0850682899829</v>
       </c>
       <c r="M2">
-        <v>65.7978112891943</v>
+        <v>65.7976749002258</v>
       </c>
       <c r="N2">
-        <v>23.056321917789</v>
+        <v>23.0563461482973</v>
       </c>
       <c r="O2">
-        <v>1516.0390252274</v>
+        <v>1516.04013699021</v>
       </c>
       <c r="P2">
-        <v>23.321564072213</v>
+        <v>23.3215870006348</v>
       </c>
     </row>
     <row r="3">
@@ -498,49 +498,49 @@
         </is>
       </c>
       <c r="B3">
-        <v>145.358765612541</v>
+        <v>145.345362277334</v>
       </c>
       <c r="C3">
-        <v>0.966962697195758</v>
+        <v>0.966832858010137</v>
       </c>
       <c r="D3">
-        <v>0.311825936656192</v>
+        <v>0.312304236054367</v>
       </c>
       <c r="E3">
-        <v>1.32307015113898</v>
+        <v>1.32292512314403</v>
       </c>
       <c r="F3">
-        <v>12.825907667985</v>
+        <v>12.8243898099497</v>
       </c>
       <c r="G3">
-        <v>0.508462233467007</v>
+        <v>0.5083727817007651</v>
       </c>
       <c r="H3">
-        <v>0.282108821877363</v>
+        <v>0.283337901841458</v>
       </c>
       <c r="I3">
-        <v>0.546247940687048</v>
+        <v>0.546671457073469</v>
       </c>
       <c r="J3">
-        <v>0.334002711604311</v>
+        <v>0.334410861537865</v>
       </c>
       <c r="K3">
-        <v>0.226145986203496</v>
+        <v>0.227451886472551</v>
       </c>
       <c r="L3">
-        <v>0.372407270162015</v>
+        <v>0.373401557233814</v>
       </c>
       <c r="M3">
-        <v>0.359119769972664</v>
+        <v>0.360193686099023</v>
       </c>
       <c r="N3">
-        <v>1.76172692845935</v>
+        <v>1.76158646233708</v>
       </c>
       <c r="O3">
-        <v>321.399435480305</v>
+        <v>321.375928140742</v>
       </c>
       <c r="P3">
-        <v>11.7397856295555</v>
+        <v>11.7382632418926</v>
       </c>
     </row>
     <row r="4">
@@ -550,49 +550,49 @@
         </is>
       </c>
       <c r="B4">
-        <v>1339.93195705864</v>
+        <v>1339.93375994676</v>
       </c>
       <c r="C4">
-        <v>15.584618004747</v>
+        <v>15.5846566770995</v>
       </c>
       <c r="D4">
-        <v>1.80320295333197</v>
+        <v>1.80306534943608</v>
       </c>
       <c r="E4">
-        <v>18.7394195046222</v>
+        <v>18.7390822446454</v>
       </c>
       <c r="F4">
-        <v>12.3945508296668</v>
+        <v>12.3943539067612</v>
       </c>
       <c r="G4">
-        <v>7.40965250556747</v>
+        <v>7.40961605928633</v>
       </c>
       <c r="H4">
-        <v>2.44101602111073</v>
+        <v>2.43941569905716</v>
       </c>
       <c r="I4">
-        <v>6.05823942698697</v>
+        <v>6.05826149125536</v>
       </c>
       <c r="J4">
-        <v>31.9619577325513</v>
+        <v>31.9617466078765</v>
       </c>
       <c r="K4">
-        <v>3.60894541161035</v>
+        <v>3.60891465695457</v>
       </c>
       <c r="L4">
-        <v>63.8457334302579</v>
+        <v>63.8451967689279</v>
       </c>
       <c r="M4">
-        <v>43.2370039511034</v>
+        <v>43.2369172046436</v>
       </c>
       <c r="N4">
-        <v>31.4843967059403</v>
+        <v>31.4843309109104</v>
       </c>
       <c r="O4">
-        <v>2314.03155020821</v>
+        <v>2314.0324262423</v>
       </c>
       <c r="P4">
-        <v>11.0296407400144</v>
+        <v>11.0296953655085</v>
       </c>
     </row>
     <row r="5">
@@ -602,49 +602,49 @@
         </is>
       </c>
       <c r="B5">
-        <v>690.071910681768</v>
+        <v>690.072458737818</v>
       </c>
       <c r="C5">
-        <v>49.6429908459071</v>
+        <v>49.643016165172</v>
       </c>
       <c r="D5">
-        <v>9.405137712382491</v>
+        <v>9.405131527765381</v>
       </c>
       <c r="E5">
-        <v>20.8432728246203</v>
+        <v>20.8432736201032</v>
       </c>
       <c r="F5">
-        <v>6.27205249164831</v>
+        <v>6.27202804123649</v>
       </c>
       <c r="G5">
-        <v>7.36237642159468</v>
+        <v>7.36237649523642</v>
       </c>
       <c r="H5">
-        <v>9.725615845035421</v>
+        <v>9.72580395201353</v>
       </c>
       <c r="I5">
-        <v>6.64455395836214</v>
+        <v>6.64454968962092</v>
       </c>
       <c r="J5">
-        <v>24.7535776257514</v>
+        <v>24.7536400422945</v>
       </c>
       <c r="K5">
-        <v>3.98080804800665</v>
+        <v>3.98080285399145</v>
       </c>
       <c r="L5">
-        <v>9.87360818991384</v>
+        <v>9.87352750498207</v>
       </c>
       <c r="M5">
-        <v>18.0848543104497</v>
+        <v>18.08486617389</v>
       </c>
       <c r="N5">
-        <v>30.0984811241706</v>
+        <v>30.0985009403304</v>
       </c>
       <c r="O5">
-        <v>1015.89056454916</v>
+        <v>1015.89137518617</v>
       </c>
       <c r="P5">
-        <v>52.6619066490638</v>
+        <v>52.6619335966485</v>
       </c>
     </row>
     <row r="6">
@@ -654,49 +654,49 @@
         </is>
       </c>
       <c r="B6">
-        <v>6992.33875453593</v>
+        <v>6992.34657379988</v>
       </c>
       <c r="C6">
-        <v>193.531527491726</v>
+        <v>193.531782006533</v>
       </c>
       <c r="D6">
-        <v>33.5476488957564</v>
+        <v>33.546639222761</v>
       </c>
       <c r="E6">
-        <v>156.071480235057</v>
+        <v>156.071286804454</v>
       </c>
       <c r="F6">
-        <v>43.6714506618397</v>
+        <v>43.669995516569</v>
       </c>
       <c r="G6">
-        <v>101.33972693064</v>
+        <v>101.339527191114</v>
       </c>
       <c r="H6">
-        <v>50.3843185690565</v>
+        <v>50.383305012827</v>
       </c>
       <c r="I6">
-        <v>32.8952011690979</v>
+        <v>32.8952211830758</v>
       </c>
       <c r="J6">
-        <v>152.566574019964</v>
+        <v>152.56566989573</v>
       </c>
       <c r="K6">
-        <v>34.4936255628046</v>
+        <v>34.4926891467392</v>
       </c>
       <c r="L6">
-        <v>417.566092379775</v>
+        <v>417.564846626659</v>
       </c>
       <c r="M6">
-        <v>237.605134168477</v>
+        <v>237.604306585501</v>
       </c>
       <c r="N6">
-        <v>294.122525193076</v>
+        <v>294.121723256867</v>
       </c>
       <c r="O6">
-        <v>13293.5470784489</v>
+        <v>13293.5566617478</v>
       </c>
       <c r="P6">
-        <v>270.618087270914</v>
+        <v>270.618607695655</v>
       </c>
     </row>
     <row r="7">
@@ -706,49 +706,49 @@
         </is>
       </c>
       <c r="B7">
-        <v>738.8156866884769</v>
+        <v>738.818076727904</v>
       </c>
       <c r="C7">
-        <v>44.2874250159064</v>
+        <v>44.2874816752078</v>
       </c>
       <c r="D7">
-        <v>4.21910053983574</v>
+        <v>4.21876067851899</v>
       </c>
       <c r="E7">
-        <v>16.2447083261575</v>
+        <v>16.2447285729418</v>
       </c>
       <c r="F7">
-        <v>23.4207694691727</v>
+        <v>23.4206217652893</v>
       </c>
       <c r="G7">
-        <v>12.1869791655249</v>
+        <v>12.1867440723986</v>
       </c>
       <c r="H7">
-        <v>2.41005378172314</v>
+        <v>2.41000733291913</v>
       </c>
       <c r="I7">
-        <v>9.785887775801781</v>
+        <v>9.7859364625324</v>
       </c>
       <c r="J7">
-        <v>17.9139458267397</v>
+        <v>17.9139153626462</v>
       </c>
       <c r="K7">
-        <v>7.45926308215155</v>
+        <v>7.45920995106224</v>
       </c>
       <c r="L7">
-        <v>42.7056384120011</v>
+        <v>42.7055637705421</v>
       </c>
       <c r="M7">
-        <v>21.0769246856796</v>
+        <v>21.0768331280522</v>
       </c>
       <c r="N7">
-        <v>23.0179244461249</v>
+        <v>23.0176974391751</v>
       </c>
       <c r="O7">
-        <v>1983.57733239989</v>
+        <v>1983.58104957277</v>
       </c>
       <c r="P7">
-        <v>31.5454021353904</v>
+        <v>31.545601289903</v>
       </c>
     </row>
     <row r="8">
@@ -758,49 +758,49 @@
         </is>
       </c>
       <c r="B8">
-        <v>601.549552190313</v>
+        <v>601.54853219948</v>
       </c>
       <c r="C8">
-        <v>12.0856039700929</v>
+        <v>12.0855873881737</v>
       </c>
       <c r="D8">
-        <v>2.81429680927419</v>
+        <v>2.81428658656531</v>
       </c>
       <c r="E8">
-        <v>19.8490327681424</v>
+        <v>19.848979755765</v>
       </c>
       <c r="F8">
-        <v>2.92928574078852</v>
+        <v>2.9292472121289</v>
       </c>
       <c r="G8">
-        <v>21.622553465146</v>
+        <v>21.6224828305828</v>
       </c>
       <c r="H8">
-        <v>8.281111376606921</v>
+        <v>8.281056596877329</v>
       </c>
       <c r="I8">
-        <v>7.73980295746574</v>
+        <v>7.74045914819634</v>
       </c>
       <c r="J8">
-        <v>42.0154775618687</v>
+        <v>42.015449214262</v>
       </c>
       <c r="K8">
-        <v>8.019728152037709</v>
+        <v>8.019610799897389</v>
       </c>
       <c r="L8">
-        <v>34.8424100161877</v>
+        <v>34.8423079365079</v>
       </c>
       <c r="M8">
-        <v>51.7067525085879</v>
+        <v>51.7065429390267</v>
       </c>
       <c r="N8">
-        <v>32.3195315220461</v>
+        <v>32.3196141578526</v>
       </c>
       <c r="O8">
-        <v>1444.35518711623</v>
+        <v>1444.3542234085</v>
       </c>
       <c r="P8">
-        <v>10.2700107197312</v>
+        <v>10.2700100064568</v>
       </c>
     </row>
     <row r="9">
@@ -810,49 +810,49 @@
         </is>
       </c>
       <c r="B9">
-        <v>198.56092077782</v>
+        <v>198.561028737645</v>
       </c>
       <c r="C9">
-        <v>8.816787988489971</v>
+        <v>8.81679507322465</v>
       </c>
       <c r="D9">
-        <v>2.00197014482153</v>
+        <v>2.00196690633742</v>
       </c>
       <c r="E9">
-        <v>4.2757338538283</v>
+        <v>4.27574005841331</v>
       </c>
       <c r="F9">
-        <v>1.1053205738874</v>
+        <v>1.10528426405653</v>
       </c>
       <c r="G9">
-        <v>22.5651820649253</v>
+        <v>22.5652087837357</v>
       </c>
       <c r="H9">
-        <v>2.52832765778444</v>
+        <v>2.52833604676604</v>
       </c>
       <c r="I9">
-        <v>1.87198964166101</v>
+        <v>1.87196555874201</v>
       </c>
       <c r="J9">
-        <v>3.57062558405746</v>
+        <v>3.57062501584965</v>
       </c>
       <c r="K9">
-        <v>0.572286848248776</v>
+        <v>0.572279440751597</v>
       </c>
       <c r="L9">
-        <v>2.7335707035086</v>
+        <v>2.7335716661768</v>
       </c>
       <c r="M9">
-        <v>6.4303720590568</v>
+        <v>6.43036744936621</v>
       </c>
       <c r="N9">
-        <v>2.50785432935742</v>
+        <v>2.50785434982566</v>
       </c>
       <c r="O9">
-        <v>439.690962911814</v>
+        <v>439.691351653274</v>
       </c>
       <c r="P9">
-        <v>5.95225795448883</v>
+        <v>5.95226312003887</v>
       </c>
     </row>
     <row r="10">
@@ -862,49 +862,49 @@
         </is>
       </c>
       <c r="B10">
-        <v>3917.04030649613</v>
+        <v>3917.04052907474</v>
       </c>
       <c r="C10">
-        <v>49.2990523089569</v>
+        <v>49.2990680317482</v>
       </c>
       <c r="D10">
-        <v>9.613802631051451</v>
+        <v>9.61367202312967</v>
       </c>
       <c r="E10">
-        <v>68.8426379979546</v>
+        <v>68.8426533066653</v>
       </c>
       <c r="F10">
-        <v>10.3460319152352</v>
+        <v>10.3442109527555</v>
       </c>
       <c r="G10">
-        <v>39.1913905820177</v>
+        <v>39.190940396536</v>
       </c>
       <c r="H10">
-        <v>12.6146357741815</v>
+        <v>12.6145568164285</v>
       </c>
       <c r="I10">
-        <v>18.9913830555764</v>
+        <v>18.9913139395484</v>
       </c>
       <c r="J10">
-        <v>52.8196612525256</v>
+        <v>52.8195897911315</v>
       </c>
       <c r="K10">
-        <v>7.00246426652443</v>
+        <v>7.01119244600865</v>
       </c>
       <c r="L10">
-        <v>60.8580884564992</v>
+        <v>60.8578766687006</v>
       </c>
       <c r="M10">
-        <v>84.47989010340039</v>
+        <v>84.4798008436963</v>
       </c>
       <c r="N10">
-        <v>94.7208574111467</v>
+        <v>94.7207409956943</v>
       </c>
       <c r="O10">
-        <v>7906.20015545423</v>
+        <v>7906.19813822416</v>
       </c>
       <c r="P10">
-        <v>60.2723298897465</v>
+        <v>60.2723874354376</v>
       </c>
     </row>
     <row r="11">
@@ -914,49 +914,49 @@
         </is>
       </c>
       <c r="B11">
-        <v>1929.71689775892</v>
+        <v>1929.71879227881</v>
       </c>
       <c r="C11">
-        <v>69.0260487896704</v>
+        <v>69.0260757086225</v>
       </c>
       <c r="D11">
-        <v>104.724911017453</v>
+        <v>104.724582648814</v>
       </c>
       <c r="E11">
-        <v>84.6736443453469</v>
+        <v>84.6737315833082</v>
       </c>
       <c r="F11">
-        <v>14.6805817937366</v>
+        <v>14.6802880548505</v>
       </c>
       <c r="G11">
-        <v>25.5924184022424</v>
+        <v>25.5924106153202</v>
       </c>
       <c r="H11">
-        <v>24.110533517049</v>
+        <v>24.1104870405206</v>
       </c>
       <c r="I11">
-        <v>11.846749800417</v>
+        <v>11.8467060068195</v>
       </c>
       <c r="J11">
-        <v>41.8794884655789</v>
+        <v>41.8794579717781</v>
       </c>
       <c r="K11">
-        <v>5.99919780959927</v>
+        <v>5.99910988862656</v>
       </c>
       <c r="L11">
-        <v>43.6592060884507</v>
+        <v>43.658936697305</v>
       </c>
       <c r="M11">
-        <v>56.5924367677528</v>
+        <v>56.5924044641714</v>
       </c>
       <c r="N11">
-        <v>60.1615560995403</v>
+        <v>60.1615340554206</v>
       </c>
       <c r="O11">
-        <v>3377.21161735759</v>
+        <v>3377.21444849656</v>
       </c>
       <c r="P11">
-        <v>53.7841515207577</v>
+        <v>53.784212426194</v>
       </c>
     </row>
     <row r="12">
@@ -966,49 +966,49 @@
         </is>
       </c>
       <c r="B12">
-        <v>257.203033889416</v>
+        <v>257.188932744928</v>
       </c>
       <c r="C12">
-        <v>7.60806264145543</v>
+        <v>7.60766948340463</v>
       </c>
       <c r="D12">
-        <v>0.735308975945166</v>
+        <v>0.7352267315934931</v>
       </c>
       <c r="E12">
-        <v>3.2133931931153</v>
+        <v>3.21483519825135</v>
       </c>
       <c r="F12">
-        <v>0.762983510611207</v>
+        <v>0.763262189504995</v>
       </c>
       <c r="G12">
-        <v>0.298331710071814</v>
+        <v>0.29831393988193</v>
       </c>
       <c r="H12">
-        <v>0.106575012495814</v>
+        <v>0.109620845531642</v>
       </c>
       <c r="I12">
-        <v>0.9509210077208991</v>
+        <v>0.950880943497001</v>
       </c>
       <c r="J12">
-        <v>2.21461741094619</v>
+        <v>2.21450217965996</v>
       </c>
       <c r="K12">
-        <v>0.339498687542964</v>
+        <v>0.343219520579196</v>
       </c>
       <c r="L12">
-        <v>0.0125832895598819</v>
+        <v>0.01276573658563</v>
       </c>
       <c r="M12">
-        <v>2.22175215338681</v>
+        <v>2.22158579734095</v>
       </c>
       <c r="N12">
-        <v>5.53765784150008</v>
+        <v>5.53840326750579</v>
       </c>
       <c r="O12">
-        <v>660.69165199109</v>
+        <v>660.672638243171</v>
       </c>
       <c r="P12">
-        <v>18.6427490554669</v>
+        <v>18.6414964683918</v>
       </c>
     </row>
     <row r="13">
@@ -1018,49 +1018,49 @@
         </is>
       </c>
       <c r="B13">
-        <v>258.224992449352</v>
+        <v>258.21753083361</v>
       </c>
       <c r="C13">
-        <v>23.5905982635336</v>
+        <v>23.5915306216124</v>
       </c>
       <c r="D13">
-        <v>0.493976478840165</v>
+        <v>0.499025271146394</v>
       </c>
       <c r="E13">
-        <v>11.9420056515225</v>
+        <v>11.9419601207061</v>
       </c>
       <c r="F13">
-        <v>3.39680639870397</v>
+        <v>3.39662582133837</v>
       </c>
       <c r="G13">
-        <v>7.33573218251244</v>
+        <v>7.33578957460569</v>
       </c>
       <c r="H13">
-        <v>2.72000729885983</v>
+        <v>2.72345414473249</v>
       </c>
       <c r="I13">
-        <v>2.30291293461852</v>
+        <v>2.3050696957237</v>
       </c>
       <c r="J13">
-        <v>5.85330155091908</v>
+        <v>5.85393208914355</v>
       </c>
       <c r="K13">
-        <v>4.69292835183865</v>
+        <v>4.7012300373851</v>
       </c>
       <c r="L13">
-        <v>18.1857993448003</v>
+        <v>18.1851814528306</v>
       </c>
       <c r="M13">
-        <v>3.07405174176956</v>
+        <v>3.07384769605797</v>
       </c>
       <c r="N13">
-        <v>2.88630084570072</v>
+        <v>2.8862912815186</v>
       </c>
       <c r="O13">
-        <v>617.327957875265</v>
+        <v>617.312560356889</v>
       </c>
       <c r="P13">
-        <v>46.3381547381124</v>
+        <v>46.3368651463575</v>
       </c>
     </row>
     <row r="14">
@@ -1070,49 +1070,49 @@
         </is>
       </c>
       <c r="B14">
-        <v>2364.05657659667</v>
+        <v>2364.05793503428</v>
       </c>
       <c r="C14">
-        <v>123.954353796168</v>
+        <v>123.954353737099</v>
       </c>
       <c r="D14">
-        <v>9.115493215127589</v>
+        <v>9.11532824714654</v>
       </c>
       <c r="E14">
-        <v>80.0248502621008</v>
+        <v>80.0248647872782</v>
       </c>
       <c r="F14">
-        <v>15.5589057726642</v>
+        <v>15.5583991930182</v>
       </c>
       <c r="G14">
-        <v>87.8338303131567</v>
+        <v>87.8337495061844</v>
       </c>
       <c r="H14">
-        <v>46.6282399137405</v>
+        <v>46.6281125799952</v>
       </c>
       <c r="I14">
-        <v>24.4311405756742</v>
+        <v>24.4311512534624</v>
       </c>
       <c r="J14">
-        <v>138.195647622105</v>
+        <v>138.195486030185</v>
       </c>
       <c r="K14">
-        <v>62.3603599650098</v>
+        <v>62.3601104033929</v>
       </c>
       <c r="L14">
-        <v>91.4653210138878</v>
+        <v>91.4652323998575</v>
       </c>
       <c r="M14">
-        <v>82.2681543497486</v>
+        <v>82.26804378377049</v>
       </c>
       <c r="N14">
-        <v>64.32794326461711</v>
+        <v>64.32779842538901</v>
       </c>
       <c r="O14">
-        <v>5080.77849208458</v>
+        <v>5080.78046814255</v>
       </c>
       <c r="P14">
-        <v>59.8658146023141</v>
+        <v>59.8658886592561</v>
       </c>
     </row>
     <row r="15">
@@ -1122,49 +1122,49 @@
         </is>
       </c>
       <c r="B15">
-        <v>1220.55316224157</v>
+        <v>1220.55365787931</v>
       </c>
       <c r="C15">
-        <v>61.4421296734107</v>
+        <v>61.4421520681022</v>
       </c>
       <c r="D15">
-        <v>6.14781982328921</v>
+        <v>6.14776258796116</v>
       </c>
       <c r="E15">
-        <v>61.4714518820895</v>
+        <v>61.471437297998</v>
       </c>
       <c r="F15">
-        <v>18.1096388524736</v>
+        <v>18.1091447028896</v>
       </c>
       <c r="G15">
-        <v>59.9261782589804</v>
+        <v>59.9261849249107</v>
       </c>
       <c r="H15">
-        <v>37.6080964943683</v>
+        <v>37.6081203971969</v>
       </c>
       <c r="I15">
-        <v>24.1724340044762</v>
+        <v>24.1724214165299</v>
       </c>
       <c r="J15">
-        <v>135.050817746128</v>
+        <v>135.050643971241</v>
       </c>
       <c r="K15">
-        <v>36.3973511789348</v>
+        <v>36.3970963827946</v>
       </c>
       <c r="L15">
-        <v>40.7894307998578</v>
+        <v>40.7893991182689</v>
       </c>
       <c r="M15">
-        <v>156.066956653858</v>
+        <v>156.066862581278</v>
       </c>
       <c r="N15">
-        <v>85.6613205911456</v>
+        <v>85.6612836227699</v>
       </c>
       <c r="O15">
-        <v>2272.31308447716</v>
+        <v>2272.3139561466</v>
       </c>
       <c r="P15">
-        <v>48.8451405702391</v>
+        <v>48.8451727283327</v>
       </c>
     </row>
     <row r="16">
@@ -1174,49 +1174,49 @@
         </is>
       </c>
       <c r="B16">
-        <v>447.355081608757</v>
+        <v>447.355611678557</v>
       </c>
       <c r="C16">
-        <v>71.14211958355131</v>
+        <v>71.1421535881217</v>
       </c>
       <c r="D16">
-        <v>4.09992541420199</v>
+        <v>4.09982785253851</v>
       </c>
       <c r="E16">
-        <v>31.80593619078</v>
+        <v>31.8060035891544</v>
       </c>
       <c r="F16">
-        <v>2.79391316197553</v>
+        <v>2.7936233500089</v>
       </c>
       <c r="G16">
-        <v>14.5119338972525</v>
+        <v>14.5119472426888</v>
       </c>
       <c r="H16">
-        <v>15.6234609568386</v>
+        <v>15.6235778431863</v>
       </c>
       <c r="I16">
-        <v>4.11096198798953</v>
+        <v>4.11096360144408</v>
       </c>
       <c r="J16">
-        <v>42.1118275896511</v>
+        <v>42.1118567746474</v>
       </c>
       <c r="K16">
-        <v>40.7754504571865</v>
+        <v>40.7754377215547</v>
       </c>
       <c r="L16">
-        <v>16.9931655096708</v>
+        <v>16.9931620873188</v>
       </c>
       <c r="M16">
-        <v>26.7516107157379</v>
+        <v>26.7515835574999</v>
       </c>
       <c r="N16">
-        <v>31.3932566480293</v>
+        <v>31.3932893508539</v>
       </c>
       <c r="O16">
-        <v>1294.2357709645</v>
+        <v>1294.23701087248</v>
       </c>
       <c r="P16">
-        <v>91.40827111242891</v>
+        <v>91.4083679157455</v>
       </c>
     </row>
     <row r="17">
@@ -1226,49 +1226,49 @@
         </is>
       </c>
       <c r="B17">
-        <v>474.523007917764</v>
+        <v>474.523872435264</v>
       </c>
       <c r="C17">
-        <v>24.0854919307156</v>
+        <v>24.0855280700686</v>
       </c>
       <c r="D17">
-        <v>1.87693533078337</v>
+        <v>1.8767143560346</v>
       </c>
       <c r="E17">
-        <v>17.9341815953716</v>
+        <v>17.9342543850776</v>
       </c>
       <c r="F17">
-        <v>15.3182583248433</v>
+        <v>15.3180234033965</v>
       </c>
       <c r="G17">
-        <v>16.0456291406503</v>
+        <v>16.0456680499095</v>
       </c>
       <c r="H17">
-        <v>13.2254193034646</v>
+        <v>13.2255641364472</v>
       </c>
       <c r="I17">
-        <v>5.38228880977985</v>
+        <v>5.38232632972553</v>
       </c>
       <c r="J17">
-        <v>18.5204776190826</v>
+        <v>18.5205291500391</v>
       </c>
       <c r="K17">
-        <v>9.42517172581565</v>
+        <v>9.42519636029072</v>
       </c>
       <c r="L17">
-        <v>11.1027737513092</v>
+        <v>11.1027304802847</v>
       </c>
       <c r="M17">
-        <v>65.8168972675677</v>
+        <v>65.8168866121641</v>
       </c>
       <c r="N17">
-        <v>10.2520953857817</v>
+        <v>10.2520740270906</v>
       </c>
       <c r="O17">
-        <v>1139.50936314839</v>
+        <v>1139.51089090576</v>
       </c>
       <c r="P17">
-        <v>48.3025775137196</v>
+        <v>48.3026588404089</v>
       </c>
     </row>
     <row r="18">
@@ -1278,49 +1278,49 @@
         </is>
       </c>
       <c r="B18">
-        <v>1132.05030680673</v>
+        <v>1132.05125192762</v>
       </c>
       <c r="C18">
-        <v>31.2885038709252</v>
+        <v>31.2885245139357</v>
       </c>
       <c r="D18">
-        <v>4.54693156110848</v>
+        <v>4.54690590210095</v>
       </c>
       <c r="E18">
-        <v>30.8184504631039</v>
+        <v>30.8185200400482</v>
       </c>
       <c r="F18">
-        <v>40.12317279908</v>
+        <v>40.122893311242</v>
       </c>
       <c r="G18">
-        <v>12.000817520424</v>
+        <v>12.0008198048875</v>
       </c>
       <c r="H18">
-        <v>9.00423686122198</v>
+        <v>9.004245047392621</v>
       </c>
       <c r="I18">
-        <v>7.2479117056252</v>
+        <v>7.24789139385016</v>
       </c>
       <c r="J18">
-        <v>20.4223537202481</v>
+        <v>20.4223661792006</v>
       </c>
       <c r="K18">
-        <v>6.33539375845558</v>
+        <v>6.33533462813925</v>
       </c>
       <c r="L18">
-        <v>27.6785290467973</v>
+        <v>27.6785056703912</v>
       </c>
       <c r="M18">
-        <v>59.9908301681824</v>
+        <v>59.9908838184037</v>
       </c>
       <c r="N18">
-        <v>24.5404785901562</v>
+        <v>24.540511827628</v>
       </c>
       <c r="O18">
-        <v>1608.73096816697</v>
+        <v>1608.73240331463</v>
       </c>
       <c r="P18">
-        <v>57.941909748199</v>
+        <v>57.9419758323036</v>
       </c>
     </row>
     <row r="19">
@@ -1330,49 +1330,49 @@
         </is>
       </c>
       <c r="B19">
-        <v>1015.75516079669</v>
+        <v>1015.75294619828</v>
       </c>
       <c r="C19">
-        <v>35.4489694834552</v>
+        <v>35.4489140435298</v>
       </c>
       <c r="D19">
-        <v>5.96273878969255</v>
+        <v>5.96252742143109</v>
       </c>
       <c r="E19">
-        <v>31.4180046000481</v>
+        <v>31.4182666337654</v>
       </c>
       <c r="F19">
-        <v>80.1445520826985</v>
+        <v>80.1439813476515</v>
       </c>
       <c r="G19">
-        <v>47.0087519799746</v>
+        <v>47.0086105645613</v>
       </c>
       <c r="H19">
-        <v>9.845652037553791</v>
+        <v>9.84559253487415</v>
       </c>
       <c r="I19">
-        <v>5.98917515449235</v>
+        <v>5.98916496007388</v>
       </c>
       <c r="J19">
-        <v>21.2963627590725</v>
+        <v>21.2962523712741</v>
       </c>
       <c r="K19">
-        <v>7.04964845635367</v>
+        <v>7.04946268180878</v>
       </c>
       <c r="L19">
-        <v>4.8330894013871</v>
+        <v>4.84016161122388</v>
       </c>
       <c r="M19">
-        <v>13.7877312756112</v>
+        <v>13.7876589694743</v>
       </c>
       <c r="N19">
-        <v>16.1977793619313</v>
+        <v>16.1977557704566</v>
       </c>
       <c r="O19">
-        <v>1670.60899279127</v>
+        <v>1670.6052414912</v>
       </c>
       <c r="P19">
-        <v>37.1924520471547</v>
+        <v>37.1925780410197</v>
       </c>
     </row>
     <row r="20">
@@ -1382,49 +1382,49 @@
         </is>
       </c>
       <c r="B20">
-        <v>282.05514261914</v>
+        <v>282.054672076021</v>
       </c>
       <c r="C20">
-        <v>8.544371911566421</v>
+        <v>8.5443517752033</v>
       </c>
       <c r="D20">
-        <v>6.62254915280905</v>
+        <v>6.62244435849756</v>
       </c>
       <c r="E20">
-        <v>27.9299267696335</v>
+        <v>27.9298562336961</v>
       </c>
       <c r="F20">
-        <v>0.904483982497573</v>
+        <v>0.905136471101107</v>
       </c>
       <c r="G20">
-        <v>4.2292152420684</v>
+        <v>4.22959958943272</v>
       </c>
       <c r="H20">
-        <v>1.61168950178264</v>
+        <v>1.61177406143146</v>
       </c>
       <c r="I20">
-        <v>2.87616876694368</v>
+        <v>2.87617342349904</v>
       </c>
       <c r="J20">
-        <v>5.46713277547022</v>
+        <v>5.46708054909687</v>
       </c>
       <c r="K20">
-        <v>0.897204193509174</v>
+        <v>0.8971739122946441</v>
       </c>
       <c r="L20">
-        <v>6.77572381602266</v>
+        <v>6.77565790342004</v>
       </c>
       <c r="M20">
-        <v>16.2206521972065</v>
+        <v>16.220568538217</v>
       </c>
       <c r="N20">
-        <v>7.42823176039842</v>
+        <v>7.42821850747623</v>
       </c>
       <c r="O20">
-        <v>589.2900974074451</v>
+        <v>589.2898856213531</v>
       </c>
       <c r="P20">
-        <v>21.5913111387396</v>
+        <v>21.5912473072056</v>
       </c>
     </row>
     <row r="21">
@@ -1434,49 +1434,49 @@
         </is>
       </c>
       <c r="B21">
-        <v>979.3140264079671</v>
+        <v>979.314525904069</v>
       </c>
       <c r="C21">
-        <v>16.8646103573695</v>
+        <v>16.8646163030446</v>
       </c>
       <c r="D21">
-        <v>1.21647582601357</v>
+        <v>1.21646495597515</v>
       </c>
       <c r="E21">
-        <v>18.8804364165998</v>
+        <v>18.8805380950328</v>
       </c>
       <c r="F21">
-        <v>2.09002796420035</v>
+        <v>2.09146796851139</v>
       </c>
       <c r="G21">
-        <v>13.8180096882901</v>
+        <v>13.8179822433396</v>
       </c>
       <c r="H21">
-        <v>3.94074860645048</v>
+        <v>3.94069360917063</v>
       </c>
       <c r="I21">
-        <v>11.1058824560493</v>
+        <v>11.1058716312288</v>
       </c>
       <c r="J21">
-        <v>12.9521995324667</v>
+        <v>12.9521681405686</v>
       </c>
       <c r="K21">
-        <v>3.3415052634657</v>
+        <v>3.34148659387049</v>
       </c>
       <c r="L21">
-        <v>23.9664931230424</v>
+        <v>23.9664448203013</v>
       </c>
       <c r="M21">
-        <v>21.0658938798786</v>
+        <v>21.0658526629644</v>
       </c>
       <c r="N21">
-        <v>17.3330636195225</v>
+        <v>17.3330391415324</v>
       </c>
       <c r="O21">
-        <v>2391.42603900716</v>
+        <v>2391.42594938894</v>
       </c>
       <c r="P21">
-        <v>21.6621929670511</v>
+        <v>21.6622064879499</v>
       </c>
     </row>
     <row r="22">
@@ -1486,49 +1486,49 @@
         </is>
       </c>
       <c r="B22">
-        <v>1173.26286003323</v>
+        <v>1173.2641535868</v>
       </c>
       <c r="C22">
-        <v>25.788909441554</v>
+        <v>25.7889438013955</v>
       </c>
       <c r="D22">
-        <v>6.89750872063253</v>
+        <v>6.89750510755773</v>
       </c>
       <c r="E22">
-        <v>34.26789878818</v>
+        <v>34.2679352184574</v>
       </c>
       <c r="F22">
-        <v>3.32642467332035</v>
+        <v>3.32550181231573</v>
       </c>
       <c r="G22">
-        <v>25.9231141018568</v>
+        <v>25.923094447983</v>
       </c>
       <c r="H22">
-        <v>10.684860907025</v>
+        <v>10.6848057546985</v>
       </c>
       <c r="I22">
-        <v>7.02183599122095</v>
+        <v>7.02182666385532</v>
       </c>
       <c r="J22">
-        <v>37.3124332307879</v>
+        <v>37.312342666895</v>
       </c>
       <c r="K22">
-        <v>3.15329210986534</v>
+        <v>3.15323262050239</v>
       </c>
       <c r="L22">
-        <v>84.9322695232088</v>
+        <v>84.9321052062067</v>
       </c>
       <c r="M22">
-        <v>21.6806215913498</v>
+        <v>21.6805749698831</v>
       </c>
       <c r="N22">
-        <v>58.3776287457442</v>
+        <v>58.37760142993</v>
       </c>
       <c r="O22">
-        <v>2726.97338079768</v>
+        <v>2726.975350993</v>
       </c>
       <c r="P22">
-        <v>14.1693066244987</v>
+        <v>14.1693365309388</v>
       </c>
     </row>
     <row r="23">
@@ -1538,49 +1538,49 @@
         </is>
       </c>
       <c r="B23">
-        <v>2341.51546153233</v>
+        <v>2341.5161057861</v>
       </c>
       <c r="C23">
-        <v>39.1794724883853</v>
+        <v>39.1794946392234</v>
       </c>
       <c r="D23">
-        <v>5.73556920902208</v>
+        <v>5.7355249855566</v>
       </c>
       <c r="E23">
-        <v>51.4112089029401</v>
+        <v>51.4112551687573</v>
       </c>
       <c r="F23">
-        <v>5.78756279919065</v>
+        <v>5.78771953491482</v>
       </c>
       <c r="G23">
-        <v>54.1466791337203</v>
+        <v>54.1468666975721</v>
       </c>
       <c r="H23">
-        <v>56.4787723991122</v>
+        <v>56.4787165775961</v>
       </c>
       <c r="I23">
-        <v>23.9896699447907</v>
+        <v>23.9896646047793</v>
       </c>
       <c r="J23">
-        <v>87.3765828214775</v>
+        <v>87.37654150237439</v>
       </c>
       <c r="K23">
-        <v>67.5868030127747</v>
+        <v>67.5862476616511</v>
       </c>
       <c r="L23">
-        <v>37.4228835797633</v>
+        <v>37.4228503938773</v>
       </c>
       <c r="M23">
-        <v>483.235701978123</v>
+        <v>483.235451626782</v>
       </c>
       <c r="N23">
-        <v>96.5145833843258</v>
+        <v>96.5145982581989</v>
       </c>
       <c r="O23">
-        <v>3394.24717648848</v>
+        <v>3394.24867996526</v>
       </c>
       <c r="P23">
-        <v>61.6515996249743</v>
+        <v>61.6516606734225</v>
       </c>
     </row>
     <row r="24">
@@ -1590,49 +1590,49 @@
         </is>
       </c>
       <c r="B24">
-        <v>768.456636412912</v>
+        <v>768.457656946419</v>
       </c>
       <c r="C24">
-        <v>46.9719447261472</v>
+        <v>46.9719204632177</v>
       </c>
       <c r="D24">
-        <v>9.312723199907319</v>
+        <v>9.31253692685333</v>
       </c>
       <c r="E24">
-        <v>58.4032075243795</v>
+        <v>58.4032111638227</v>
       </c>
       <c r="F24">
-        <v>9.770986066651471</v>
+        <v>9.77063460296025</v>
       </c>
       <c r="G24">
-        <v>26.1027294358076</v>
+        <v>26.1024951396401</v>
       </c>
       <c r="H24">
-        <v>18.9284747737498</v>
+        <v>18.9284989523342</v>
       </c>
       <c r="I24">
-        <v>14.9691274870266</v>
+        <v>14.9690291711421</v>
       </c>
       <c r="J24">
-        <v>44.2679705727077</v>
+        <v>44.2678856226744</v>
       </c>
       <c r="K24">
-        <v>18.2257065835596</v>
+        <v>18.2256073490728</v>
       </c>
       <c r="L24">
-        <v>58.0698151210602</v>
+        <v>58.0697427384546</v>
       </c>
       <c r="M24">
-        <v>17.3543276330135</v>
+        <v>17.3542841143431</v>
       </c>
       <c r="N24">
-        <v>68.2863827981693</v>
+        <v>68.2863194322929</v>
       </c>
       <c r="O24">
-        <v>2111.65784965331</v>
+        <v>2111.65955502773</v>
       </c>
       <c r="P24">
-        <v>69.60631258358581</v>
+        <v>69.60646189730851</v>
       </c>
     </row>
     <row r="25">
@@ -1642,49 +1642,49 @@
         </is>
       </c>
       <c r="B25">
-        <v>824.3330052525261</v>
+        <v>824.333666297944</v>
       </c>
       <c r="C25">
-        <v>32.5321001362625</v>
+        <v>32.5321247747327</v>
       </c>
       <c r="D25">
-        <v>12.2314802014683</v>
+        <v>12.2313754592311</v>
       </c>
       <c r="E25">
-        <v>38.5205446934106</v>
+        <v>38.5205370798205</v>
       </c>
       <c r="F25">
-        <v>19.2742205597323</v>
+        <v>19.2741615969918</v>
       </c>
       <c r="G25">
-        <v>7.80952743098601</v>
+        <v>7.80951750111772</v>
       </c>
       <c r="H25">
-        <v>9.1852927586735</v>
+        <v>9.18536536634654</v>
       </c>
       <c r="I25">
-        <v>1.77590012941115</v>
+        <v>1.77590928015633</v>
       </c>
       <c r="J25">
-        <v>10.7242916542466</v>
+        <v>10.7242940862873</v>
       </c>
       <c r="K25">
-        <v>7.59522094450942</v>
+        <v>7.59516456672019</v>
       </c>
       <c r="L25">
-        <v>7.72680078404874</v>
+        <v>7.72662172015823</v>
       </c>
       <c r="M25">
-        <v>34.3214859695313</v>
+        <v>34.3214525806387</v>
       </c>
       <c r="N25">
-        <v>45.8135228558934</v>
+        <v>45.8134625875863</v>
       </c>
       <c r="O25">
-        <v>972.181519979755</v>
+        <v>972.18244163066</v>
       </c>
       <c r="P25">
-        <v>55.3530184278531</v>
+        <v>55.3530621857152</v>
       </c>
     </row>
     <row r="26">
@@ -1694,49 +1694,49 @@
         </is>
       </c>
       <c r="B26">
-        <v>1103.22997806621</v>
+        <v>1103.23080690683</v>
       </c>
       <c r="C26">
-        <v>54.6447251829374</v>
+        <v>54.6447888179517</v>
       </c>
       <c r="D26">
-        <v>3.95723872932912</v>
+        <v>3.95722166619457</v>
       </c>
       <c r="E26">
-        <v>54.0641396773648</v>
+        <v>54.0641346495689</v>
       </c>
       <c r="F26">
-        <v>6.77452479892362</v>
+        <v>6.77425055903071</v>
       </c>
       <c r="G26">
-        <v>38.2521148908154</v>
+        <v>38.2520863282732</v>
       </c>
       <c r="H26">
-        <v>11.6379908175577</v>
+        <v>11.6380533157918</v>
       </c>
       <c r="I26">
-        <v>16.9726548397701</v>
+        <v>16.9725355082317</v>
       </c>
       <c r="J26">
-        <v>41.0942405850887</v>
+        <v>41.094224994056</v>
       </c>
       <c r="K26">
-        <v>8.815980523638491</v>
+        <v>8.81593427793521</v>
       </c>
       <c r="L26">
-        <v>33.3347292956021</v>
+        <v>33.3346470934075</v>
       </c>
       <c r="M26">
-        <v>50.3402183863669</v>
+        <v>50.3401318270132</v>
       </c>
       <c r="N26">
-        <v>32.6768829863482</v>
+        <v>32.6768911848801</v>
       </c>
       <c r="O26">
-        <v>2353.37947252715</v>
+        <v>2353.38096035523</v>
       </c>
       <c r="P26">
-        <v>55.4587503028754</v>
+        <v>55.4588305985987</v>
       </c>
     </row>
     <row r="27">
@@ -1746,49 +1746,49 @@
         </is>
       </c>
       <c r="B27">
-        <v>210.95540344556</v>
+        <v>210.955689659407</v>
       </c>
       <c r="C27">
-        <v>2.49520202207465</v>
+        <v>2.49514109961359</v>
       </c>
       <c r="D27">
-        <v>0.6822262342998791</v>
+        <v>0.684341460451267</v>
       </c>
       <c r="E27">
-        <v>10.6137599770698</v>
+        <v>10.6133709593095</v>
       </c>
       <c r="F27">
-        <v>7.81450575118112</v>
+        <v>7.81413552462507</v>
       </c>
       <c r="G27">
-        <v>0.947458055751793</v>
+        <v>0.9474113092637641</v>
       </c>
       <c r="H27">
-        <v>0.0987316933431828</v>
+        <v>0.102021129756676</v>
       </c>
       <c r="I27">
-        <v>2.40597734988857</v>
+        <v>2.405937150359</v>
       </c>
       <c r="J27">
-        <v>4.53009846023579</v>
+        <v>4.52989153709916</v>
       </c>
       <c r="K27">
-        <v>0.838705443866931</v>
+        <v>0.841213594603078</v>
       </c>
       <c r="L27">
-        <v>2.0908190903411</v>
+        <v>2.09071059464053</v>
       </c>
       <c r="M27">
-        <v>0.181504777388898</v>
+        <v>0.183635975093937</v>
       </c>
       <c r="N27">
-        <v>4.11030946179055</v>
+        <v>4.110200259894</v>
       </c>
       <c r="O27">
-        <v>457.498042779324</v>
+        <v>457.488049558514</v>
       </c>
       <c r="P27">
-        <v>50.6627142876768</v>
+        <v>50.6612492017489</v>
       </c>
     </row>
     <row r="28">
@@ -1798,49 +1798,49 @@
         </is>
       </c>
       <c r="B28">
-        <v>245.05615499728</v>
+        <v>245.056036628868</v>
       </c>
       <c r="C28">
-        <v>37.9736052247823</v>
+        <v>37.9735149785917</v>
       </c>
       <c r="D28">
-        <v>1.79735689776028</v>
+        <v>1.79715545935296</v>
       </c>
       <c r="E28">
-        <v>4.84550974877417</v>
+        <v>4.84549751170285</v>
       </c>
       <c r="F28">
-        <v>0.468054719946854</v>
+        <v>0.469670391134049</v>
       </c>
       <c r="G28">
-        <v>5.61940014087474</v>
+        <v>5.61937146569597</v>
       </c>
       <c r="H28">
-        <v>6.11109441044504</v>
+        <v>6.11112514232284</v>
       </c>
       <c r="I28">
-        <v>4.03050900382458</v>
+        <v>4.0305059284168</v>
       </c>
       <c r="J28">
-        <v>17.1362886677294</v>
+        <v>17.1362300783063</v>
       </c>
       <c r="K28">
-        <v>12.2934113894339</v>
+        <v>12.2932837128073</v>
       </c>
       <c r="L28">
-        <v>9.491520679968639</v>
+        <v>9.491462704007891</v>
       </c>
       <c r="M28">
-        <v>11.3511713128653</v>
+        <v>11.3510609158584</v>
       </c>
       <c r="N28">
-        <v>11.9317438847585</v>
+        <v>11.9317099458823</v>
       </c>
       <c r="O28">
-        <v>808.527413414719</v>
+        <v>808.526413954752</v>
       </c>
       <c r="P28">
-        <v>70.8409541458893</v>
+        <v>70.8408494447082</v>
       </c>
     </row>
     <row r="29">
@@ -1850,49 +1850,49 @@
         </is>
       </c>
       <c r="B29">
-        <v>459.89245385611</v>
+        <v>459.893438356966</v>
       </c>
       <c r="C29">
-        <v>3.87604914916905</v>
+        <v>3.87606477931458</v>
       </c>
       <c r="D29">
-        <v>1.88121745770937</v>
+        <v>1.88090460317696</v>
       </c>
       <c r="E29">
-        <v>7.02500290560473</v>
+        <v>7.0250362641252</v>
       </c>
       <c r="F29">
-        <v>23.6305856859281</v>
+        <v>23.6302534398541</v>
       </c>
       <c r="G29">
-        <v>2.98251226876368</v>
+        <v>2.98247525653468</v>
       </c>
       <c r="H29">
-        <v>0.675395884979067</v>
+        <v>0.675368866316801</v>
       </c>
       <c r="I29">
-        <v>2.23268611267888</v>
+        <v>2.23268607375675</v>
       </c>
       <c r="J29">
-        <v>3.85021495495375</v>
+        <v>3.85022013326401</v>
       </c>
       <c r="K29">
-        <v>2.5829088279864</v>
+        <v>2.58252780263296</v>
       </c>
       <c r="L29">
-        <v>3.19254377497496</v>
+        <v>3.19250960420784</v>
       </c>
       <c r="M29">
-        <v>4.02987126844215</v>
+        <v>4.02981854492831</v>
       </c>
       <c r="N29">
-        <v>12.0972898993007</v>
+        <v>12.097319558895</v>
       </c>
       <c r="O29">
-        <v>1143.54407512843</v>
+        <v>1143.54655706346</v>
       </c>
       <c r="P29">
-        <v>5.73080471140693</v>
+        <v>5.73084403495853</v>
       </c>
     </row>
     <row r="30">
@@ -1902,49 +1902,49 @@
         </is>
       </c>
       <c r="B30">
-        <v>206.466840152451</v>
+        <v>206.467140803987</v>
       </c>
       <c r="C30">
-        <v>5.3176683461286</v>
+        <v>5.31767100620877</v>
       </c>
       <c r="D30">
-        <v>5.22569225730254</v>
+        <v>5.22567569914821</v>
       </c>
       <c r="E30">
-        <v>9.73756416251107</v>
+        <v>9.737577865553501</v>
       </c>
       <c r="F30">
-        <v>0.287565196408425</v>
+        <v>0.287557616960187</v>
       </c>
       <c r="G30">
-        <v>5.48989953805594</v>
+        <v>5.48990381451641</v>
       </c>
       <c r="H30">
-        <v>2.58256462169719</v>
+        <v>2.58256060097511</v>
       </c>
       <c r="I30">
-        <v>2.38985610774612</v>
+        <v>2.38984864572498</v>
       </c>
       <c r="J30">
-        <v>19.5644740543834</v>
+        <v>19.5644702683971</v>
       </c>
       <c r="K30">
-        <v>3.70303348793344</v>
+        <v>3.70302103587909</v>
       </c>
       <c r="L30">
-        <v>40.8429391232695</v>
+        <v>40.8429703930265</v>
       </c>
       <c r="M30">
-        <v>8.93593691204546</v>
+        <v>8.935942085765131</v>
       </c>
       <c r="N30">
-        <v>17.4934302463422</v>
+        <v>17.4934336085814</v>
       </c>
       <c r="O30">
-        <v>603.966504451946</v>
+        <v>603.967125716876</v>
       </c>
       <c r="P30">
-        <v>5.49288587824129</v>
+        <v>5.49289798497758</v>
       </c>
     </row>
     <row r="31">
@@ -1954,49 +1954,49 @@
         </is>
       </c>
       <c r="B31">
-        <v>1515.53519041559</v>
+        <v>1515.53379757064</v>
       </c>
       <c r="C31">
-        <v>54.5326073447765</v>
+        <v>54.5325388692974</v>
       </c>
       <c r="D31">
-        <v>7.45061138265442</v>
+        <v>7.45057697193416</v>
       </c>
       <c r="E31">
-        <v>26.1481030268643</v>
+        <v>26.1480622150054</v>
       </c>
       <c r="F31">
-        <v>2.94981647903458</v>
+        <v>2.95320617614944</v>
       </c>
       <c r="G31">
-        <v>121.359180698036</v>
+        <v>121.358691416085</v>
       </c>
       <c r="H31">
-        <v>13.3723605167227</v>
+        <v>13.3723172572304</v>
       </c>
       <c r="I31">
-        <v>8.26862478072665</v>
+        <v>8.26860689038773</v>
       </c>
       <c r="J31">
-        <v>21.5376698820347</v>
+        <v>21.5376338267514</v>
       </c>
       <c r="K31">
-        <v>6.02947707580575</v>
+        <v>6.02933200108515</v>
       </c>
       <c r="L31">
-        <v>62.8968298934481</v>
+        <v>62.8966660639608</v>
       </c>
       <c r="M31">
-        <v>17.8222020398589</v>
+        <v>17.8221485249312</v>
       </c>
       <c r="N31">
-        <v>78.1460826751394</v>
+        <v>78.1459424556185</v>
       </c>
       <c r="O31">
-        <v>3719.20349322539</v>
+        <v>3719.20153623158</v>
       </c>
       <c r="P31">
-        <v>18.5165742860408</v>
+        <v>18.5165945398858</v>
       </c>
     </row>
     <row r="32">
@@ -2006,49 +2006,49 @@
         </is>
       </c>
       <c r="B32">
-        <v>462.535265586912</v>
+        <v>462.525291061462</v>
       </c>
       <c r="C32">
-        <v>2.69916890561708</v>
+        <v>2.69909287128104</v>
       </c>
       <c r="D32">
-        <v>0.636829599348547</v>
+        <v>0.640880311599738</v>
       </c>
       <c r="E32">
-        <v>2.95723451592811</v>
+        <v>2.95711909839419</v>
       </c>
       <c r="F32">
-        <v>23.2178353223483</v>
+        <v>23.2182556182923</v>
       </c>
       <c r="G32">
-        <v>3.00700718188737</v>
+        <v>3.00803997502419</v>
       </c>
       <c r="H32">
-        <v>0.509574473731792</v>
+        <v>0.518968562525278</v>
       </c>
       <c r="I32">
-        <v>1.65942435507433</v>
+        <v>1.65938338312594</v>
       </c>
       <c r="J32">
-        <v>5.93154587617591</v>
+        <v>5.93128865526275</v>
       </c>
       <c r="K32">
-        <v>1.60516379811018</v>
+        <v>1.60505014855724</v>
       </c>
       <c r="L32">
-        <v>5.84185528540119</v>
+        <v>5.84158779643213</v>
       </c>
       <c r="M32">
-        <v>11.4544752641588</v>
+        <v>11.4540722705375</v>
       </c>
       <c r="N32">
-        <v>16.1716519905234</v>
+        <v>16.1712209744581</v>
       </c>
       <c r="O32">
-        <v>777.240690549992</v>
+        <v>777.222674046317</v>
       </c>
       <c r="P32">
-        <v>20.5133423248778</v>
+        <v>20.5127000066675</v>
       </c>
     </row>
     <row r="33">
@@ -2058,49 +2058,49 @@
         </is>
       </c>
       <c r="B33">
-        <v>3999.83769456763</v>
+        <v>3999.84016993982</v>
       </c>
       <c r="C33">
-        <v>76.1084530951549</v>
+        <v>76.1085121504438</v>
       </c>
       <c r="D33">
-        <v>11.1754338798265</v>
+        <v>11.1754133370017</v>
       </c>
       <c r="E33">
-        <v>71.23141975183761</v>
+        <v>71.2314491394166</v>
       </c>
       <c r="F33">
-        <v>10.6495232234312</v>
+        <v>10.6485807620362</v>
       </c>
       <c r="G33">
-        <v>73.6466879158636</v>
+        <v>73.6465843616668</v>
       </c>
       <c r="H33">
-        <v>35.0983245973305</v>
+        <v>35.0980574346496</v>
       </c>
       <c r="I33">
-        <v>19.7931110125081</v>
+        <v>19.7927811996711</v>
       </c>
       <c r="J33">
-        <v>87.8722631400383</v>
+        <v>87.8717307549078</v>
       </c>
       <c r="K33">
-        <v>49.2739272647449</v>
+        <v>49.2728526990437</v>
       </c>
       <c r="L33">
-        <v>93.9046043091945</v>
+        <v>93.9044462727577</v>
       </c>
       <c r="M33">
-        <v>57.4016800086239</v>
+        <v>57.401576078089</v>
       </c>
       <c r="N33">
-        <v>115.932879394183</v>
+        <v>115.93274278751</v>
       </c>
       <c r="O33">
-        <v>7798.82481955869</v>
+        <v>7798.82899914937</v>
       </c>
       <c r="P33">
-        <v>61.3162822070484</v>
+        <v>61.3162980274613</v>
       </c>
     </row>
     <row r="34">
@@ -2110,49 +2110,49 @@
         </is>
       </c>
       <c r="B34">
-        <v>1895.78825536833</v>
+        <v>1895.78671145928</v>
       </c>
       <c r="C34">
-        <v>59.5912187390573</v>
+        <v>59.5911532564109</v>
       </c>
       <c r="D34">
-        <v>64.01633629924611</v>
+        <v>64.0160360398324</v>
       </c>
       <c r="E34">
-        <v>58.95932545612</v>
+        <v>58.9592543059892</v>
       </c>
       <c r="F34">
-        <v>2.19555188430609</v>
+        <v>2.19975559299198</v>
       </c>
       <c r="G34">
-        <v>48.4085446516622</v>
+        <v>48.4085058982501</v>
       </c>
       <c r="H34">
-        <v>38.1642538987478</v>
+        <v>38.1643021151583</v>
       </c>
       <c r="I34">
-        <v>20.377782146647</v>
+        <v>20.3777298264183</v>
       </c>
       <c r="J34">
-        <v>51.2079302030085</v>
+        <v>51.2116956526514</v>
       </c>
       <c r="K34">
-        <v>10.9893697738764</v>
+        <v>10.9891880861348</v>
       </c>
       <c r="L34">
-        <v>92.180505473137</v>
+        <v>92.1801283626601</v>
       </c>
       <c r="M34">
-        <v>37.5334133830781</v>
+        <v>37.5332571965022</v>
       </c>
       <c r="N34">
-        <v>114.354051291448</v>
+        <v>114.353770129703</v>
       </c>
       <c r="O34">
-        <v>3371.75949771614</v>
+        <v>3371.756828104</v>
       </c>
       <c r="P34">
-        <v>65.2591180900005</v>
+        <v>65.25907618666049</v>
       </c>
     </row>
     <row r="35">
@@ -2162,49 +2162,49 @@
         </is>
       </c>
       <c r="B35">
-        <v>95.9898305970422</v>
+        <v>95.98961624099449</v>
       </c>
       <c r="C35">
-        <v>7.79728483442693</v>
+        <v>7.79723804634303</v>
       </c>
       <c r="D35">
-        <v>0.664132856706352</v>
+        <v>0.664099927038308</v>
       </c>
       <c r="E35">
-        <v>3.07896019253352</v>
+        <v>3.07893029122356</v>
       </c>
       <c r="F35">
-        <v>4.87401991474512</v>
+        <v>4.87394007774715</v>
       </c>
       <c r="G35">
-        <v>0.376882000176192</v>
+        <v>0.377563242445129</v>
       </c>
       <c r="H35">
-        <v>1.34012782149506</v>
+        <v>1.34010400374135</v>
       </c>
       <c r="I35">
-        <v>1.60828445971682</v>
+        <v>1.60826942569281</v>
       </c>
       <c r="J35">
-        <v>1.75940901488285</v>
+        <v>1.75939312979876</v>
       </c>
       <c r="K35">
-        <v>3.61508019263902</v>
+        <v>3.61493664692769</v>
       </c>
       <c r="L35">
-        <v>3.20170578947139</v>
+        <v>3.2016362885813</v>
       </c>
       <c r="M35">
-        <v>4.21721770555282</v>
+        <v>4.21706730379938</v>
       </c>
       <c r="N35">
-        <v>2.86599943313983</v>
+        <v>2.86596840073011</v>
       </c>
       <c r="O35">
-        <v>321.757382829146</v>
+        <v>321.757155160219</v>
       </c>
       <c r="P35">
-        <v>51.3644373789706</v>
+        <v>51.364240756361</v>
       </c>
     </row>
     <row r="36">
@@ -2214,49 +2214,49 @@
         </is>
       </c>
       <c r="B36">
-        <v>2435.56954770983</v>
+        <v>2435.57081486587</v>
       </c>
       <c r="C36">
-        <v>84.4091855467634</v>
+        <v>84.4092240184678</v>
       </c>
       <c r="D36">
-        <v>7.11047510214788</v>
+        <v>7.11024108387913</v>
       </c>
       <c r="E36">
-        <v>140.378567947721</v>
+        <v>140.378517617615</v>
       </c>
       <c r="F36">
-        <v>21.3553996334181</v>
+        <v>21.3548214373428</v>
       </c>
       <c r="G36">
-        <v>101.964862010993</v>
+        <v>101.964825268845</v>
       </c>
       <c r="H36">
-        <v>74.7041201794827</v>
+        <v>74.70402298964029</v>
       </c>
       <c r="I36">
-        <v>35.957061249176</v>
+        <v>35.9570741314018</v>
       </c>
       <c r="J36">
-        <v>228.900122813819</v>
+        <v>228.899854136506</v>
       </c>
       <c r="K36">
-        <v>60.0721399690918</v>
+        <v>60.0716452691584</v>
       </c>
       <c r="L36">
-        <v>64.78985665758481</v>
+        <v>64.7897739487281</v>
       </c>
       <c r="M36">
-        <v>168.291490301961</v>
+        <v>168.2912849095</v>
       </c>
       <c r="N36">
-        <v>113.569578982208</v>
+        <v>113.569581373482</v>
       </c>
       <c r="O36">
-        <v>4265.84569638859</v>
+        <v>4265.84733636494</v>
       </c>
       <c r="P36">
-        <v>72.667014004661</v>
+        <v>72.66708752401461</v>
       </c>
     </row>
     <row r="37">
@@ -2266,49 +2266,49 @@
         </is>
       </c>
       <c r="B37">
-        <v>803.747525225803</v>
+        <v>803.747094063149</v>
       </c>
       <c r="C37">
-        <v>15.5217209906916</v>
+        <v>15.521710482099</v>
       </c>
       <c r="D37">
-        <v>2.00163952186299</v>
+        <v>2.00225623467612</v>
       </c>
       <c r="E37">
-        <v>19.1757567370733</v>
+        <v>19.1786672988544</v>
       </c>
       <c r="F37">
-        <v>45.6036835842449</v>
+        <v>45.6035339503394</v>
       </c>
       <c r="G37">
-        <v>5.50047095663817</v>
+        <v>5.50040885478505</v>
       </c>
       <c r="H37">
-        <v>22.5333971896141</v>
+        <v>22.5341343021776</v>
       </c>
       <c r="I37">
-        <v>5.22253800589371</v>
+        <v>5.2225413009552</v>
       </c>
       <c r="J37">
-        <v>26.4611135098164</v>
+        <v>26.4610642575266</v>
       </c>
       <c r="K37">
-        <v>6.47607015530121</v>
+        <v>6.47612370739436</v>
       </c>
       <c r="L37">
-        <v>19.4451382946872</v>
+        <v>19.4450603362766</v>
       </c>
       <c r="M37">
-        <v>24.7216481581491</v>
+        <v>24.7216956905415</v>
       </c>
       <c r="N37">
-        <v>20.6255932969976</v>
+        <v>20.6256230117865</v>
       </c>
       <c r="O37">
-        <v>1320.59545898342</v>
+        <v>1320.59523413184</v>
       </c>
       <c r="P37">
-        <v>58.2204154104626</v>
+        <v>58.2204037690681</v>
       </c>
     </row>
     <row r="38">
@@ -2318,49 +2318,49 @@
         </is>
       </c>
       <c r="B38">
-        <v>786.03956475043</v>
+        <v>786.03913148726</v>
       </c>
       <c r="C38">
-        <v>20.9783190136598</v>
+        <v>20.9783158910429</v>
       </c>
       <c r="D38">
-        <v>3.1755886198307</v>
+        <v>3.17562413716462</v>
       </c>
       <c r="E38">
-        <v>43.6799018517345</v>
+        <v>43.6797512374652</v>
       </c>
       <c r="F38">
-        <v>1.04241575518247</v>
+        <v>1.04430024586395</v>
       </c>
       <c r="G38">
-        <v>7.46287370501342</v>
+        <v>7.46280094326617</v>
       </c>
       <c r="H38">
-        <v>2.20887805162016</v>
+        <v>2.20886805070099</v>
       </c>
       <c r="I38">
-        <v>4.82084151473388</v>
+        <v>4.82087466725347</v>
       </c>
       <c r="J38">
-        <v>34.1246745652303</v>
+        <v>34.1244498979857</v>
       </c>
       <c r="K38">
-        <v>3.63272708476778</v>
+        <v>3.63267540421533</v>
       </c>
       <c r="L38">
-        <v>84.0523487473755</v>
+        <v>84.052051794861</v>
       </c>
       <c r="M38">
-        <v>23.2407225147095</v>
+        <v>23.2405275481043</v>
       </c>
       <c r="N38">
-        <v>42.3359565522379</v>
+        <v>42.3357189330022</v>
       </c>
       <c r="O38">
-        <v>1460.87643464063</v>
+        <v>1460.88002808005</v>
       </c>
       <c r="P38">
-        <v>65.1598982332376</v>
+        <v>65.15992106312559</v>
       </c>
     </row>
     <row r="39">
@@ -2370,49 +2370,49 @@
         </is>
       </c>
       <c r="B39">
-        <v>2586.56269109616</v>
+        <v>2586.56428956749</v>
       </c>
       <c r="C39">
-        <v>94.713063909177</v>
+        <v>94.713128787294</v>
       </c>
       <c r="D39">
-        <v>30.4414998961933</v>
+        <v>30.4410714415075</v>
       </c>
       <c r="E39">
-        <v>110.428683165666</v>
+        <v>110.428718352171</v>
       </c>
       <c r="F39">
-        <v>34.1599243513062</v>
+        <v>34.1590121176244</v>
       </c>
       <c r="G39">
-        <v>97.6652193083351</v>
+        <v>97.6651649517891</v>
       </c>
       <c r="H39">
-        <v>46.5411659051932</v>
+        <v>46.5410501764148</v>
       </c>
       <c r="I39">
-        <v>24.853373521772</v>
+        <v>24.8533740278632</v>
       </c>
       <c r="J39">
-        <v>191.659734234201</v>
+        <v>191.659481905551</v>
       </c>
       <c r="K39">
-        <v>39.3113737464854</v>
+        <v>39.311011278991</v>
       </c>
       <c r="L39">
-        <v>116.681555514371</v>
+        <v>116.681350849727</v>
       </c>
       <c r="M39">
-        <v>68.24781270520511</v>
+        <v>68.2477151002075</v>
       </c>
       <c r="N39">
-        <v>122.289612595449</v>
+        <v>122.289538422795</v>
       </c>
       <c r="O39">
-        <v>4998.71885028396</v>
+        <v>4998.72179443722</v>
       </c>
       <c r="P39">
-        <v>75.2959951292967</v>
+        <v>75.29606496605351</v>
       </c>
     </row>
     <row r="40">
@@ -2422,49 +2422,49 @@
         </is>
       </c>
       <c r="B40">
-        <v>227.984870856657</v>
+        <v>227.984494132349</v>
       </c>
       <c r="C40">
-        <v>2.73950842311516</v>
+        <v>2.73950296216487</v>
       </c>
       <c r="D40">
-        <v>8.08864776900449</v>
+        <v>8.08858925365899</v>
       </c>
       <c r="E40">
-        <v>4.2651846535599</v>
+        <v>4.26517395711033</v>
       </c>
       <c r="F40">
-        <v>0.225556927470543</v>
+        <v>0.226284588752418</v>
       </c>
       <c r="G40">
-        <v>5.83558747672375</v>
+        <v>5.83557696146653</v>
       </c>
       <c r="H40">
-        <v>4.29167506730844</v>
+        <v>4.29168781379347</v>
       </c>
       <c r="I40">
-        <v>2.60941914639755</v>
+        <v>2.60941418793693</v>
       </c>
       <c r="J40">
-        <v>10.8960929905081</v>
+        <v>10.8960231926107</v>
       </c>
       <c r="K40">
-        <v>1.56854396957011</v>
+        <v>1.56907969154638</v>
       </c>
       <c r="L40">
-        <v>12.5280840236256</v>
+        <v>12.5280471342056</v>
       </c>
       <c r="M40">
-        <v>6.31418909613945</v>
+        <v>6.31416674678515</v>
       </c>
       <c r="N40">
-        <v>24.8428939211044</v>
+        <v>24.8428644665518</v>
       </c>
       <c r="O40">
-        <v>493.757172115398</v>
+        <v>493.756665335884</v>
       </c>
       <c r="P40">
-        <v>4.28514090208603</v>
+        <v>4.28514039025707</v>
       </c>
     </row>
     <row r="41">
@@ -2474,49 +2474,49 @@
         </is>
       </c>
       <c r="B41">
-        <v>1072.25503617307</v>
+        <v>1072.25543810897</v>
       </c>
       <c r="C41">
-        <v>18.2726351624262</v>
+        <v>18.2726443458923</v>
       </c>
       <c r="D41">
-        <v>49.6046862549854</v>
+        <v>49.6044520741229</v>
       </c>
       <c r="E41">
-        <v>29.8104662707094</v>
+        <v>29.8104476175459</v>
       </c>
       <c r="F41">
-        <v>3.06074642256628</v>
+        <v>3.06077568099952</v>
       </c>
       <c r="G41">
-        <v>31.8579098465428</v>
+        <v>31.8580676042987</v>
       </c>
       <c r="H41">
-        <v>31.9731167528481</v>
+        <v>31.9735246146183</v>
       </c>
       <c r="I41">
-        <v>12.0645005179426</v>
+        <v>12.0646402075406</v>
       </c>
       <c r="J41">
-        <v>37.2784817660262</v>
+        <v>37.2804966620692</v>
       </c>
       <c r="K41">
-        <v>9.630107811957121</v>
+        <v>9.630207017613831</v>
       </c>
       <c r="L41">
-        <v>32.3301872652366</v>
+        <v>32.330249608805</v>
       </c>
       <c r="M41">
-        <v>31.5730124569043</v>
+        <v>31.573210800505</v>
       </c>
       <c r="N41">
-        <v>20.4967852355945</v>
+        <v>20.4968208191831</v>
       </c>
       <c r="O41">
-        <v>1553.90351054126</v>
+        <v>1553.90403713232</v>
       </c>
       <c r="P41">
-        <v>27.9383931649707</v>
+        <v>27.9383806020376</v>
       </c>
     </row>
     <row r="42">
@@ -2526,49 +2526,49 @@
         </is>
       </c>
       <c r="B42">
-        <v>124.238273663149</v>
+        <v>124.238534307226</v>
       </c>
       <c r="C42">
-        <v>9.15402256794486</v>
+        <v>9.15403936743129</v>
       </c>
       <c r="D42">
-        <v>1.57731581194147</v>
+        <v>1.57721578436286</v>
       </c>
       <c r="E42">
-        <v>6.50525350361123</v>
+        <v>6.50530841836944</v>
       </c>
       <c r="F42">
-        <v>3.02130873224941</v>
+        <v>3.02126739890027</v>
       </c>
       <c r="G42">
-        <v>2.48505346062467</v>
+        <v>2.48508602473137</v>
       </c>
       <c r="H42">
-        <v>2.31801931783551</v>
+        <v>2.31806651917687</v>
       </c>
       <c r="I42">
-        <v>2.02961614825116</v>
+        <v>2.02961863679483</v>
       </c>
       <c r="J42">
-        <v>7.99791445756696</v>
+        <v>7.99795304083567</v>
       </c>
       <c r="K42">
-        <v>5.43844915500951</v>
+        <v>5.43845217703265</v>
       </c>
       <c r="L42">
-        <v>6.3596429640286</v>
+        <v>6.35961545215655</v>
       </c>
       <c r="M42">
-        <v>3.2360438931047</v>
+        <v>3.23604163911459</v>
       </c>
       <c r="N42">
-        <v>13.3546447802166</v>
+        <v>13.354704721456</v>
       </c>
       <c r="O42">
-        <v>403.611854097457</v>
+        <v>403.612608004289</v>
       </c>
       <c r="P42">
-        <v>59.4183572520518</v>
+        <v>59.4184586891712</v>
       </c>
     </row>
     <row r="43">
@@ -2578,49 +2578,49 @@
         </is>
       </c>
       <c r="B43">
-        <v>1472.37506334113</v>
+        <v>1472.37598588668</v>
       </c>
       <c r="C43">
-        <v>41.9020614299182</v>
+        <v>41.9020829051947</v>
       </c>
       <c r="D43">
-        <v>23.7425046727535</v>
+        <v>23.742254767914</v>
       </c>
       <c r="E43">
-        <v>64.1109597072477</v>
+        <v>64.11098317223529</v>
       </c>
       <c r="F43">
-        <v>6.67612758331892</v>
+        <v>6.67583812327765</v>
       </c>
       <c r="G43">
-        <v>27.2095350850282</v>
+        <v>27.2092863327133</v>
       </c>
       <c r="H43">
-        <v>39.4391109217946</v>
+        <v>39.438908017427</v>
       </c>
       <c r="I43">
-        <v>5.64944723152515</v>
+        <v>5.64944095681552</v>
       </c>
       <c r="J43">
-        <v>55.1723682300477</v>
+        <v>55.1722803053111</v>
       </c>
       <c r="K43">
-        <v>5.5261220558757</v>
+        <v>5.52602253650123</v>
       </c>
       <c r="L43">
-        <v>29.0006436837563</v>
+        <v>29.0005065551269</v>
       </c>
       <c r="M43">
-        <v>72.0601674986455</v>
+        <v>72.0600381286273</v>
       </c>
       <c r="N43">
-        <v>68.27847608058031</v>
+        <v>68.27841046871851</v>
       </c>
       <c r="O43">
-        <v>2259.05843432156</v>
+        <v>2259.05954371848</v>
       </c>
       <c r="P43">
-        <v>35.5910599324167</v>
+        <v>35.5911092061763</v>
       </c>
     </row>
     <row r="44">
@@ -2630,49 +2630,49 @@
         </is>
       </c>
       <c r="B44">
-        <v>4260.91257110681</v>
+        <v>4260.91774291599</v>
       </c>
       <c r="C44">
-        <v>140.473375297043</v>
+        <v>140.473347786228</v>
       </c>
       <c r="D44">
-        <v>22.0287051873782</v>
+        <v>22.0278828832799</v>
       </c>
       <c r="E44">
-        <v>89.45675501105261</v>
+        <v>89.45671735103601</v>
       </c>
       <c r="F44">
-        <v>282.519067644572</v>
+        <v>282.51831991215</v>
       </c>
       <c r="G44">
-        <v>130.859780763555</v>
+        <v>130.859282364655</v>
       </c>
       <c r="H44">
-        <v>23.8456888026808</v>
+        <v>23.8457304293348</v>
       </c>
       <c r="I44">
-        <v>38.332436181282</v>
+        <v>38.3324594767483</v>
       </c>
       <c r="J44">
-        <v>111.318963154562</v>
+        <v>111.318794078444</v>
       </c>
       <c r="K44">
-        <v>31.2876765098037</v>
+        <v>31.2874518023932</v>
       </c>
       <c r="L44">
-        <v>194.454215860301</v>
+        <v>194.452965226339</v>
       </c>
       <c r="M44">
-        <v>97.1384494439434</v>
+        <v>97.1381371389499</v>
       </c>
       <c r="N44">
-        <v>85.82085888764659</v>
+        <v>85.8207201744823</v>
       </c>
       <c r="O44">
-        <v>8601.08450004189</v>
+        <v>8601.0916876269</v>
       </c>
       <c r="P44">
-        <v>170.006743962418</v>
+        <v>170.007060605786</v>
       </c>
     </row>
     <row r="45">
@@ -2682,49 +2682,49 @@
         </is>
       </c>
       <c r="B45">
-        <v>384.850351204582</v>
+        <v>384.849393491668</v>
       </c>
       <c r="C45">
-        <v>17.7217790483889</v>
+        <v>17.7217640876702</v>
       </c>
       <c r="D45">
-        <v>1.21258462834977</v>
+        <v>1.21209599303019</v>
       </c>
       <c r="E45">
-        <v>12.9149488911091</v>
+        <v>12.9142308165563</v>
       </c>
       <c r="F45">
-        <v>26.3145194947115</v>
+        <v>26.315073649248</v>
       </c>
       <c r="G45">
-        <v>9.34027465632647</v>
+        <v>9.34024126506236</v>
       </c>
       <c r="H45">
-        <v>1.25205419939965</v>
+        <v>1.25207443714431</v>
       </c>
       <c r="I45">
-        <v>1.95672618639404</v>
+        <v>1.95677730492162</v>
       </c>
       <c r="J45">
-        <v>23.3955212169774</v>
+        <v>23.3953423610233</v>
       </c>
       <c r="K45">
-        <v>2.68491621167855</v>
+        <v>2.68557867250214</v>
       </c>
       <c r="L45">
-        <v>13.1632146969411</v>
+        <v>13.1631135825211</v>
       </c>
       <c r="M45">
-        <v>13.1597780891633</v>
+        <v>13.1602000849442</v>
       </c>
       <c r="N45">
-        <v>33.7432580202205</v>
+        <v>33.7430732776033</v>
       </c>
       <c r="O45">
-        <v>938.422198178762</v>
+        <v>938.424348883012</v>
       </c>
       <c r="P45">
-        <v>16.9732225312289</v>
+        <v>16.9732741655791</v>
       </c>
     </row>
     <row r="46">
@@ -2734,49 +2734,49 @@
         </is>
       </c>
       <c r="B46">
-        <v>117.74120312441</v>
+        <v>117.741341195151</v>
       </c>
       <c r="C46">
-        <v>4.98932095340335</v>
+        <v>4.98932112479955</v>
       </c>
       <c r="D46">
-        <v>0.748168508742613</v>
+        <v>0.748144809207932</v>
       </c>
       <c r="E46">
-        <v>5.79667994145781</v>
+        <v>5.79668588044868</v>
       </c>
       <c r="F46">
-        <v>0.9294495886369351</v>
+        <v>0.929429390200298</v>
       </c>
       <c r="G46">
-        <v>1.52939996011126</v>
+        <v>1.52939880392739</v>
       </c>
       <c r="H46">
-        <v>1.0119834361294</v>
+        <v>1.01199077206431</v>
       </c>
       <c r="I46">
-        <v>2.17709317060336</v>
+        <v>2.17709547429914</v>
       </c>
       <c r="J46">
-        <v>5.759290970553</v>
+        <v>5.75929810749469</v>
       </c>
       <c r="K46">
-        <v>1.30892905173193</v>
+        <v>1.30891543234195</v>
       </c>
       <c r="L46">
-        <v>14.2771388007102</v>
+        <v>14.2771642860208</v>
       </c>
       <c r="M46">
-        <v>3.60769188600168</v>
+        <v>3.60769597349095</v>
       </c>
       <c r="N46">
-        <v>8.60250961749203</v>
+        <v>8.60252205089826</v>
       </c>
       <c r="O46">
-        <v>336.170000755112</v>
+        <v>336.170267526948</v>
       </c>
       <c r="P46">
-        <v>8.97702820321723</v>
+        <v>8.977027399750069</v>
       </c>
     </row>
     <row r="47">
@@ -2786,49 +2786,49 @@
         </is>
       </c>
       <c r="B47">
-        <v>1405.11098506672</v>
+        <v>1405.11190400857</v>
       </c>
       <c r="C47">
-        <v>46.2886385643342</v>
+        <v>46.2886842138689</v>
       </c>
       <c r="D47">
-        <v>7.16058680230196</v>
+        <v>7.16037014613918</v>
       </c>
       <c r="E47">
-        <v>38.8094727706014</v>
+        <v>38.809542820785</v>
       </c>
       <c r="F47">
-        <v>9.594771092183951</v>
+        <v>9.59314823719064</v>
       </c>
       <c r="G47">
-        <v>25.6418947913835</v>
+        <v>25.6416856902602</v>
       </c>
       <c r="H47">
-        <v>15.7515050301022</v>
+        <v>15.7513614461832</v>
       </c>
       <c r="I47">
-        <v>11.1750942762661</v>
+        <v>11.1751197953933</v>
       </c>
       <c r="J47">
-        <v>27.0679871170614</v>
+        <v>27.0679692529513</v>
       </c>
       <c r="K47">
-        <v>4.04786565541982</v>
+        <v>4.04768583628225</v>
       </c>
       <c r="L47">
-        <v>21.6153077952341</v>
+        <v>21.6152043789391</v>
       </c>
       <c r="M47">
-        <v>68.6168631712072</v>
+        <v>68.61684587683401</v>
       </c>
       <c r="N47">
-        <v>24.2354027697057</v>
+        <v>24.2354364627356</v>
       </c>
       <c r="O47">
-        <v>3089.38005530742</v>
+        <v>3089.38340125901</v>
       </c>
       <c r="P47">
-        <v>46.8518648289465</v>
+        <v>46.8519776564899</v>
       </c>
     </row>
     <row r="48">
@@ -2838,49 +2838,49 @@
         </is>
       </c>
       <c r="B48">
-        <v>1188.63970911218</v>
+        <v>1188.64235248604</v>
       </c>
       <c r="C48">
-        <v>32.7360577402226</v>
+        <v>32.7360006402942</v>
       </c>
       <c r="D48">
-        <v>7.58692255110694</v>
+        <v>7.58671295086119</v>
       </c>
       <c r="E48">
-        <v>63.5056050900099</v>
+        <v>63.5058992263712</v>
       </c>
       <c r="F48">
-        <v>11.0841825512731</v>
+        <v>11.0835982561867</v>
       </c>
       <c r="G48">
-        <v>7.55021879434294</v>
+        <v>7.55079915304117</v>
       </c>
       <c r="H48">
-        <v>11.1300540528002</v>
+        <v>11.1305031138587</v>
       </c>
       <c r="I48">
-        <v>7.59145775636808</v>
+        <v>7.5915990043774</v>
       </c>
       <c r="J48">
-        <v>38.3882361757776</v>
+        <v>38.3881000515722</v>
       </c>
       <c r="K48">
-        <v>8.43305878733239</v>
+        <v>8.43298243532162</v>
       </c>
       <c r="L48">
-        <v>51.7078679845863</v>
+        <v>51.7077330422206</v>
       </c>
       <c r="M48">
-        <v>150.032920407262</v>
+        <v>150.032585757588</v>
       </c>
       <c r="N48">
-        <v>52.8650298523414</v>
+        <v>52.8651239687964</v>
       </c>
       <c r="O48">
-        <v>2502.19130291488</v>
+        <v>2502.19693915541</v>
       </c>
       <c r="P48">
-        <v>90.7367364320956</v>
+        <v>90.73700532417711</v>
       </c>
     </row>
     <row r="49">
@@ -2890,49 +2890,49 @@
         </is>
       </c>
       <c r="B49">
-        <v>687.884710262274</v>
+        <v>687.883742088984</v>
       </c>
       <c r="C49">
-        <v>5.36612710829734</v>
+        <v>5.36611928326379</v>
       </c>
       <c r="D49">
-        <v>0.186128844219638</v>
+        <v>0.187969347220342</v>
       </c>
       <c r="E49">
-        <v>21.4993746259686</v>
+        <v>21.4993424224433</v>
       </c>
       <c r="F49">
-        <v>32.9560968482235</v>
+        <v>32.9560572670928</v>
       </c>
       <c r="G49">
-        <v>13.5749539915849</v>
+        <v>13.5749122221194</v>
       </c>
       <c r="H49">
-        <v>3.50641555811325</v>
+        <v>3.50638956479226</v>
       </c>
       <c r="I49">
-        <v>2.40527583703319</v>
+        <v>2.40526641363247</v>
       </c>
       <c r="J49">
-        <v>20.0768135013026</v>
+        <v>20.0767621646747</v>
       </c>
       <c r="K49">
-        <v>3.06473489293705</v>
+        <v>3.06470800672559</v>
       </c>
       <c r="L49">
-        <v>1.5876428052804</v>
+        <v>1.58763730785053</v>
       </c>
       <c r="M49">
-        <v>4.22039333783658</v>
+        <v>4.22037940918713</v>
       </c>
       <c r="N49">
-        <v>9.46741422172202</v>
+        <v>9.467382884870091</v>
       </c>
       <c r="O49">
-        <v>665.323875097007</v>
+        <v>665.322749044673</v>
       </c>
       <c r="P49">
-        <v>10.4884561448145</v>
+        <v>10.4884404720164</v>
       </c>
     </row>
     <row r="50">
@@ -2942,49 +2942,49 @@
         </is>
       </c>
       <c r="B50">
-        <v>917.154744262263</v>
+        <v>917.154074712299</v>
       </c>
       <c r="C50">
-        <v>62.259085970007</v>
+        <v>62.2590414578287</v>
       </c>
       <c r="D50">
-        <v>5.17353918191342</v>
+        <v>5.17340858102404</v>
       </c>
       <c r="E50">
-        <v>123.945144273675</v>
+        <v>123.944922963574</v>
       </c>
       <c r="F50">
-        <v>3.01733511044095</v>
+        <v>3.02032119149898</v>
       </c>
       <c r="G50">
-        <v>32.8211372186312</v>
+        <v>32.8209745408578</v>
       </c>
       <c r="H50">
-        <v>45.7342717231487</v>
+        <v>45.7340444278829</v>
       </c>
       <c r="I50">
-        <v>10.4613709900345</v>
+        <v>10.4613522821199</v>
       </c>
       <c r="J50">
-        <v>71.957207543965</v>
+        <v>71.9567981435129</v>
       </c>
       <c r="K50">
-        <v>42.3314000644984</v>
+        <v>42.3310874851231</v>
       </c>
       <c r="L50">
-        <v>70.8931687293255</v>
+        <v>70.8930042844476</v>
       </c>
       <c r="M50">
-        <v>54.2515068504731</v>
+        <v>54.2513114579816</v>
       </c>
       <c r="N50">
-        <v>61.1830162951507</v>
+        <v>61.1828567442887</v>
       </c>
       <c r="O50">
-        <v>2194.44456600731</v>
+        <v>2194.44419789887</v>
       </c>
       <c r="P50">
-        <v>91.28666841472641</v>
+        <v>91.28666753031369</v>
       </c>
     </row>
     <row r="51">
@@ -2994,49 +2994,49 @@
         </is>
       </c>
       <c r="B51">
-        <v>112.613993957003</v>
+        <v>112.612904080525</v>
       </c>
       <c r="C51">
-        <v>1.27929415529153</v>
+        <v>1.27929097611456</v>
       </c>
       <c r="D51">
-        <v>0.08881913976637181</v>
+        <v>0.0889994577539663</v>
       </c>
       <c r="E51">
-        <v>1.764934146267</v>
+        <v>1.76492842026099</v>
       </c>
       <c r="F51">
-        <v>41.1057900727991</v>
+        <v>41.1057962175344</v>
       </c>
       <c r="G51">
-        <v>2.79050782399282</v>
+        <v>2.79044781620749</v>
       </c>
       <c r="H51">
-        <v>0.319981102141822</v>
+        <v>0.321255019568825</v>
       </c>
       <c r="I51">
-        <v>2.10158023674556</v>
+        <v>2.10157646882567</v>
       </c>
       <c r="J51">
-        <v>1.77092097614644</v>
+        <v>1.77092080902259</v>
       </c>
       <c r="K51">
-        <v>1.61997304353828</v>
+        <v>1.61979652878312</v>
       </c>
       <c r="L51">
-        <v>0.717571737099201</v>
+        <v>0.717651583658964</v>
       </c>
       <c r="M51">
-        <v>0.726634142665944</v>
+        <v>0.7277657979057161</v>
       </c>
       <c r="N51">
-        <v>0.7321792951293991</v>
+        <v>0.732193260872439</v>
       </c>
       <c r="O51">
-        <v>298.551314951901</v>
+        <v>298.549145394478</v>
       </c>
       <c r="P51">
-        <v>28.7377781249114</v>
+        <v>28.7374253808371</v>
       </c>
     </row>
     <row r="52">

--- a/1-Data-Codes/2-Final_Data/L_2007.xlsx
+++ b/1-Data-Codes/2-Final_Data/L_2007.xlsx
@@ -446,49 +446,49 @@
         </is>
       </c>
       <c r="B2">
-        <v>1308.1823252562</v>
+        <v>1330.15764304506</v>
       </c>
       <c r="C2">
-        <v>20.3100150983671</v>
+        <v>23.6553248370999</v>
       </c>
       <c r="D2">
-        <v>24.5971121134849</v>
+        <v>24.9724738939737</v>
       </c>
       <c r="E2">
-        <v>44.7609177055629</v>
+        <v>48.1702141522299</v>
       </c>
       <c r="F2">
-        <v>23.3753088784388</v>
+        <v>20.4855105731083</v>
       </c>
       <c r="G2">
-        <v>22.3311918864129</v>
+        <v>19.6741280137473</v>
       </c>
       <c r="H2">
-        <v>8.93691366167343</v>
+        <v>11.2253160901051</v>
       </c>
       <c r="I2">
-        <v>12.7430196730287</v>
+        <v>10.7146580658806</v>
       </c>
       <c r="J2">
-        <v>64.7392400661299</v>
+        <v>66.7064240394253</v>
       </c>
       <c r="K2">
-        <v>13.9877654900565</v>
+        <v>13.4366882665764</v>
       </c>
       <c r="L2">
-        <v>50.0850682899829</v>
+        <v>48.8421071650218</v>
       </c>
       <c r="M2">
-        <v>65.7976749002258</v>
+        <v>56.402906892968</v>
       </c>
       <c r="N2">
-        <v>23.0563461482973</v>
+        <v>27.3364389387732</v>
       </c>
       <c r="O2">
-        <v>1516.04013699021</v>
+        <v>1512.89791867095</v>
       </c>
       <c r="P2">
-        <v>23.3215870006348</v>
+        <v>20.4889262425575</v>
       </c>
     </row>
     <row r="3">
@@ -498,49 +498,49 @@
         </is>
       </c>
       <c r="B3">
-        <v>145.345362277334</v>
+        <v>135.060751090426</v>
       </c>
       <c r="C3">
-        <v>0.966832858010137</v>
+        <v>1.29746167103041</v>
       </c>
       <c r="D3">
-        <v>0.312304236054367</v>
+        <v>0.324294888372714</v>
       </c>
       <c r="E3">
-        <v>1.32292512314403</v>
+        <v>1.32857923336713</v>
       </c>
       <c r="F3">
-        <v>12.8243898099497</v>
+        <v>11.8194612402762</v>
       </c>
       <c r="G3">
-        <v>0.5083727817007651</v>
+        <v>0.343933409365183</v>
       </c>
       <c r="H3">
-        <v>0.283337901841458</v>
+        <v>0.223976391588858</v>
       </c>
       <c r="I3">
-        <v>0.546671457073469</v>
+        <v>0.664072674529938</v>
       </c>
       <c r="J3">
-        <v>0.334410861537865</v>
+        <v>0.285543875656406</v>
       </c>
       <c r="K3">
-        <v>0.227451886472551</v>
+        <v>0.227253618125766</v>
       </c>
       <c r="L3">
-        <v>0.373401557233814</v>
+        <v>0.584098164482081</v>
       </c>
       <c r="M3">
-        <v>0.360193686099023</v>
+        <v>0.52161032000148</v>
       </c>
       <c r="N3">
-        <v>1.76158646233708</v>
+        <v>1.36624905537901</v>
       </c>
       <c r="O3">
-        <v>321.375928140742</v>
+        <v>299.859064911969</v>
       </c>
       <c r="P3">
-        <v>11.7382632418926</v>
+        <v>11.1006962886391</v>
       </c>
     </row>
     <row r="4">
@@ -550,49 +550,49 @@
         </is>
       </c>
       <c r="B4">
-        <v>1339.93375994676</v>
+        <v>1379.51606033796</v>
       </c>
       <c r="C4">
-        <v>15.5846566770995</v>
+        <v>14.3725299846934</v>
       </c>
       <c r="D4">
-        <v>1.80306534943608</v>
+        <v>1.89880707591056</v>
       </c>
       <c r="E4">
-        <v>18.7390822446454</v>
+        <v>17.6714225692759</v>
       </c>
       <c r="F4">
-        <v>12.3943539067612</v>
+        <v>13.3082359983456</v>
       </c>
       <c r="G4">
-        <v>7.40961605928633</v>
+        <v>8.092605956695611</v>
       </c>
       <c r="H4">
-        <v>2.43941569905716</v>
+        <v>2.71277190506068</v>
       </c>
       <c r="I4">
-        <v>6.05826149125536</v>
+        <v>6.36392831641504</v>
       </c>
       <c r="J4">
-        <v>31.9617466078765</v>
+        <v>32.0949513243027</v>
       </c>
       <c r="K4">
-        <v>3.60891465695457</v>
+        <v>3.73896569202328</v>
       </c>
       <c r="L4">
-        <v>63.8451967689279</v>
+        <v>63.0385142564657</v>
       </c>
       <c r="M4">
-        <v>43.2369172046436</v>
+        <v>42.876175942532</v>
       </c>
       <c r="N4">
-        <v>31.4843309109104</v>
+        <v>32.7541080085703</v>
       </c>
       <c r="O4">
-        <v>2314.0324262423</v>
+        <v>2305.89874261529</v>
       </c>
       <c r="P4">
-        <v>11.0296953655085</v>
+        <v>11.9498857411701</v>
       </c>
     </row>
     <row r="5">
@@ -602,49 +602,49 @@
         </is>
       </c>
       <c r="B5">
-        <v>690.072458737818</v>
+        <v>696.40208878943</v>
       </c>
       <c r="C5">
-        <v>49.643016165172</v>
+        <v>49.0856520326375</v>
       </c>
       <c r="D5">
-        <v>9.405131527765381</v>
+        <v>9.446988454416511</v>
       </c>
       <c r="E5">
-        <v>20.8432736201032</v>
+        <v>22.3860083873041</v>
       </c>
       <c r="F5">
-        <v>6.27202804123649</v>
+        <v>8.008351947164639</v>
       </c>
       <c r="G5">
-        <v>7.36237649523642</v>
+        <v>6.69818936933985</v>
       </c>
       <c r="H5">
-        <v>9.72580395201353</v>
+        <v>9.46236312772759</v>
       </c>
       <c r="I5">
-        <v>6.64454968962092</v>
+        <v>6.59365970118152</v>
       </c>
       <c r="J5">
-        <v>24.7536400422945</v>
+        <v>27.2907789029706</v>
       </c>
       <c r="K5">
-        <v>3.98080285399145</v>
+        <v>3.29791053641392</v>
       </c>
       <c r="L5">
-        <v>9.87352750498207</v>
+        <v>11.2636995866502</v>
       </c>
       <c r="M5">
-        <v>18.08486617389</v>
+        <v>17.1911609743879</v>
       </c>
       <c r="N5">
-        <v>30.0985009403304</v>
+        <v>27.6377050827625</v>
       </c>
       <c r="O5">
-        <v>1015.89137518617</v>
+        <v>1012.67584926457</v>
       </c>
       <c r="P5">
-        <v>52.6619335966485</v>
+        <v>50.3342813718161</v>
       </c>
     </row>
     <row r="6">
@@ -654,49 +654,49 @@
         </is>
       </c>
       <c r="B6">
-        <v>6992.34657379988</v>
+        <v>7145.16707906536</v>
       </c>
       <c r="C6">
-        <v>193.531782006533</v>
+        <v>198.994985220694</v>
       </c>
       <c r="D6">
-        <v>33.546639222761</v>
+        <v>37.5471377636869</v>
       </c>
       <c r="E6">
-        <v>156.071286804454</v>
+        <v>152.236871776699</v>
       </c>
       <c r="F6">
-        <v>43.669995516569</v>
+        <v>43.7498052352083</v>
       </c>
       <c r="G6">
-        <v>101.339527191114</v>
+        <v>106.459126842854</v>
       </c>
       <c r="H6">
-        <v>50.383305012827</v>
+        <v>48.8011410435621</v>
       </c>
       <c r="I6">
-        <v>32.8952211830758</v>
+        <v>37.4604343524735</v>
       </c>
       <c r="J6">
-        <v>152.56566989573</v>
+        <v>150.121495490308</v>
       </c>
       <c r="K6">
-        <v>34.4926891467392</v>
+        <v>35.9712370384722</v>
       </c>
       <c r="L6">
-        <v>417.564846626659</v>
+        <v>417.933255203167</v>
       </c>
       <c r="M6">
-        <v>237.604306585501</v>
+        <v>239.718731071801</v>
       </c>
       <c r="N6">
-        <v>294.121723256867</v>
+        <v>289.003226847948</v>
       </c>
       <c r="O6">
-        <v>13293.5566617478</v>
+        <v>13167.1880501042</v>
       </c>
       <c r="P6">
-        <v>270.618607695655</v>
+        <v>277.009019141582</v>
       </c>
     </row>
     <row r="7">
@@ -706,49 +706,49 @@
         </is>
       </c>
       <c r="B7">
-        <v>738.818076727904</v>
+        <v>758.494439077211</v>
       </c>
       <c r="C7">
-        <v>44.2874816752078</v>
+        <v>41.8877353208322</v>
       </c>
       <c r="D7">
-        <v>4.21876067851899</v>
+        <v>4.13258966424146</v>
       </c>
       <c r="E7">
-        <v>16.2447285729418</v>
+        <v>18.9301090035741</v>
       </c>
       <c r="F7">
-        <v>23.4206217652893</v>
+        <v>22.1345028369819</v>
       </c>
       <c r="G7">
-        <v>12.1867440723986</v>
+        <v>12.0311297160782</v>
       </c>
       <c r="H7">
-        <v>2.41000733291913</v>
+        <v>2.36012407906688</v>
       </c>
       <c r="I7">
-        <v>9.7859364625324</v>
+        <v>10.2184897778756</v>
       </c>
       <c r="J7">
-        <v>17.9139153626462</v>
+        <v>19.7339879108604</v>
       </c>
       <c r="K7">
-        <v>7.45920995106224</v>
+        <v>6.72992333461265</v>
       </c>
       <c r="L7">
-        <v>42.7055637705421</v>
+        <v>43.2137832453781</v>
       </c>
       <c r="M7">
-        <v>21.0768331280522</v>
+        <v>20.7654299516184</v>
       </c>
       <c r="N7">
-        <v>23.0176974391751</v>
+        <v>22.8688524309165</v>
       </c>
       <c r="O7">
-        <v>1983.58104957277</v>
+        <v>1992.01026686599</v>
       </c>
       <c r="P7">
-        <v>31.545601289903</v>
+        <v>30.3289320742568</v>
       </c>
     </row>
     <row r="8">
@@ -758,49 +758,49 @@
         </is>
       </c>
       <c r="B8">
-        <v>601.54853219948</v>
+        <v>612.203574531391</v>
       </c>
       <c r="C8">
-        <v>12.0855873881737</v>
+        <v>11.8016828183628</v>
       </c>
       <c r="D8">
-        <v>2.81428658656531</v>
+        <v>2.80252626234846</v>
       </c>
       <c r="E8">
-        <v>19.848979755765</v>
+        <v>20.5188146271596</v>
       </c>
       <c r="F8">
-        <v>2.9292472121289</v>
+        <v>2.49140512054947</v>
       </c>
       <c r="G8">
-        <v>21.6224828305828</v>
+        <v>22.3976294159778</v>
       </c>
       <c r="H8">
-        <v>8.281056596877329</v>
+        <v>7.50087066683219</v>
       </c>
       <c r="I8">
-        <v>7.74045914819634</v>
+        <v>6.71632038431315</v>
       </c>
       <c r="J8">
-        <v>42.015449214262</v>
+        <v>38.7311193690721</v>
       </c>
       <c r="K8">
-        <v>8.019610799897389</v>
+        <v>8.118281193111841</v>
       </c>
       <c r="L8">
-        <v>34.8423079365079</v>
+        <v>35.964253499279</v>
       </c>
       <c r="M8">
-        <v>51.7065429390267</v>
+        <v>51.9470918600277</v>
       </c>
       <c r="N8">
-        <v>32.3196141578526</v>
+        <v>31.2510654167988</v>
       </c>
       <c r="O8">
-        <v>1444.3542234085</v>
+        <v>1437.19229522332</v>
       </c>
       <c r="P8">
-        <v>10.2700100064568</v>
+        <v>8.59557927356116</v>
       </c>
     </row>
     <row r="9">
@@ -810,49 +810,49 @@
         </is>
       </c>
       <c r="B9">
-        <v>198.561028737645</v>
+        <v>196.635983593847</v>
       </c>
       <c r="C9">
-        <v>8.81679507322465</v>
+        <v>8.87143152397933</v>
       </c>
       <c r="D9">
-        <v>2.00196690633742</v>
+        <v>2.09775474633801</v>
       </c>
       <c r="E9">
-        <v>4.27574005841331</v>
+        <v>4.13317969587231</v>
       </c>
       <c r="F9">
-        <v>1.10528426405653</v>
+        <v>1.4936971193567</v>
       </c>
       <c r="G9">
-        <v>22.5652087837357</v>
+        <v>20.1856347505787</v>
       </c>
       <c r="H9">
-        <v>2.52833604676604</v>
+        <v>2.33175450178994</v>
       </c>
       <c r="I9">
-        <v>1.87196555874201</v>
+        <v>1.50285138404176</v>
       </c>
       <c r="J9">
-        <v>3.57062501584965</v>
+        <v>3.78686441508713</v>
       </c>
       <c r="K9">
-        <v>0.572279440751597</v>
+        <v>0.69664137711719</v>
       </c>
       <c r="L9">
-        <v>2.7335716661768</v>
+        <v>2.44928253373503</v>
       </c>
       <c r="M9">
-        <v>6.43036744936621</v>
+        <v>5.51074897441825</v>
       </c>
       <c r="N9">
-        <v>2.50785434982566</v>
+        <v>2.86519852143071</v>
       </c>
       <c r="O9">
-        <v>439.691351653274</v>
+        <v>419.668865170363</v>
       </c>
       <c r="P9">
-        <v>5.95226312003887</v>
+        <v>5.85967678000607</v>
       </c>
     </row>
     <row r="10">
@@ -862,49 +862,49 @@
         </is>
       </c>
       <c r="B10">
-        <v>3917.04052907474</v>
+        <v>3984.65055277032</v>
       </c>
       <c r="C10">
-        <v>49.2990680317482</v>
+        <v>52.6060925810486</v>
       </c>
       <c r="D10">
-        <v>9.61367202312967</v>
+        <v>10.5040515512106</v>
       </c>
       <c r="E10">
-        <v>68.8426533066653</v>
+        <v>64.79134961824791</v>
       </c>
       <c r="F10">
-        <v>10.3442109527555</v>
+        <v>9.68016534800382</v>
       </c>
       <c r="G10">
-        <v>39.190940396536</v>
+        <v>42.7490678275055</v>
       </c>
       <c r="H10">
-        <v>12.6145568164285</v>
+        <v>11.398030113444</v>
       </c>
       <c r="I10">
-        <v>18.9913139395484</v>
+        <v>20.2952564236578</v>
       </c>
       <c r="J10">
-        <v>52.8195897911315</v>
+        <v>52.8001407249814</v>
       </c>
       <c r="K10">
-        <v>7.01119244600865</v>
+        <v>9.57847537760594</v>
       </c>
       <c r="L10">
-        <v>60.8578766687006</v>
+        <v>61.4126256808515</v>
       </c>
       <c r="M10">
-        <v>84.4798008436963</v>
+        <v>84.827378639355</v>
       </c>
       <c r="N10">
-        <v>94.7207409956943</v>
+        <v>87.0579306126311</v>
       </c>
       <c r="O10">
-        <v>7906.19813822416</v>
+        <v>7835.67832640926</v>
       </c>
       <c r="P10">
-        <v>60.2723874354376</v>
+        <v>61.6060004638323</v>
       </c>
     </row>
     <row r="11">
@@ -914,49 +914,49 @@
         </is>
       </c>
       <c r="B11">
-        <v>1929.71879227881</v>
+        <v>1970.99873995132</v>
       </c>
       <c r="C11">
-        <v>69.0260757086225</v>
+        <v>66.9015782978074</v>
       </c>
       <c r="D11">
-        <v>104.724582648814</v>
+        <v>104.429515381108</v>
       </c>
       <c r="E11">
-        <v>84.6737315833082</v>
+        <v>80.029551784858</v>
       </c>
       <c r="F11">
-        <v>14.6802880548505</v>
+        <v>14.5976828733796</v>
       </c>
       <c r="G11">
-        <v>25.5924106153202</v>
+        <v>26.1162064309104</v>
       </c>
       <c r="H11">
-        <v>24.1104870405206</v>
+        <v>24.0664816208915</v>
       </c>
       <c r="I11">
-        <v>11.8467060068195</v>
+        <v>11.5801182105486</v>
       </c>
       <c r="J11">
-        <v>41.8794579717781</v>
+        <v>40.6881038152776</v>
       </c>
       <c r="K11">
-        <v>5.99910988862656</v>
+        <v>7.44284827348531</v>
       </c>
       <c r="L11">
-        <v>43.658936697305</v>
+        <v>39.5091019849651</v>
       </c>
       <c r="M11">
-        <v>56.5924044641714</v>
+        <v>52.2037658152094</v>
       </c>
       <c r="N11">
-        <v>60.1615340554206</v>
+        <v>59.6149912162795</v>
       </c>
       <c r="O11">
-        <v>3377.21444849656</v>
+        <v>3390.4514711125</v>
       </c>
       <c r="P11">
-        <v>53.784212426194</v>
+        <v>55.8311419722687</v>
       </c>
     </row>
     <row r="12">
@@ -966,49 +966,49 @@
         </is>
       </c>
       <c r="B12">
-        <v>257.188932744928</v>
+        <v>258.886824481849</v>
       </c>
       <c r="C12">
-        <v>7.60766948340463</v>
+        <v>6.97924992488732</v>
       </c>
       <c r="D12">
-        <v>0.7352267315934931</v>
+        <v>0.405145973401188</v>
       </c>
       <c r="E12">
-        <v>3.21483519825135</v>
+        <v>3.00828038113519</v>
       </c>
       <c r="F12">
-        <v>0.763262189504995</v>
+        <v>0.803274929194076</v>
       </c>
       <c r="G12">
-        <v>0.29831393988193</v>
+        <v>0.284530154193459</v>
       </c>
       <c r="H12">
-        <v>0.109620845531642</v>
+        <v>0.106395704367172</v>
       </c>
       <c r="I12">
-        <v>0.950880943497001</v>
+        <v>0.683245086854175</v>
       </c>
       <c r="J12">
-        <v>2.21450217965996</v>
+        <v>1.79364660316231</v>
       </c>
       <c r="K12">
-        <v>0.343219520579196</v>
+        <v>0.32346204711185</v>
       </c>
       <c r="L12">
-        <v>0.01276573658563</v>
+        <v>0.0149897676358645</v>
       </c>
       <c r="M12">
-        <v>2.22158579734095</v>
+        <v>2.16773068554839</v>
       </c>
       <c r="N12">
-        <v>5.53840326750579</v>
+        <v>4.75896285354723</v>
       </c>
       <c r="O12">
-        <v>660.672638243171</v>
+        <v>631.813184746616</v>
       </c>
       <c r="P12">
-        <v>18.6414964683918</v>
+        <v>18.6408990246194</v>
       </c>
     </row>
     <row r="13">
@@ -1018,49 +1018,49 @@
         </is>
       </c>
       <c r="B13">
-        <v>258.21753083361</v>
+        <v>260.512089640505</v>
       </c>
       <c r="C13">
-        <v>23.5915306216124</v>
+        <v>23.9609507235542</v>
       </c>
       <c r="D13">
-        <v>0.499025271146394</v>
+        <v>1.48214407610017</v>
       </c>
       <c r="E13">
-        <v>11.9419601207061</v>
+        <v>11.0552042337225</v>
       </c>
       <c r="F13">
-        <v>3.39662582133837</v>
+        <v>3.60829961447023</v>
       </c>
       <c r="G13">
-        <v>7.33578957460569</v>
+        <v>6.89405998949387</v>
       </c>
       <c r="H13">
-        <v>2.72345414473249</v>
+        <v>2.58554958946557</v>
       </c>
       <c r="I13">
-        <v>2.3050696957237</v>
+        <v>2.40202262544748</v>
       </c>
       <c r="J13">
-        <v>5.85393208914355</v>
+        <v>5.64750271186593</v>
       </c>
       <c r="K13">
-        <v>4.7012300373851</v>
+        <v>4.66287243910235</v>
       </c>
       <c r="L13">
-        <v>18.1851814528306</v>
+        <v>18.1582666176666</v>
       </c>
       <c r="M13">
-        <v>3.07384769605797</v>
+        <v>2.82200072634765</v>
       </c>
       <c r="N13">
-        <v>2.8862912815186</v>
+        <v>3.44941709850109</v>
       </c>
       <c r="O13">
-        <v>617.312560356889</v>
+        <v>605.015277163277</v>
       </c>
       <c r="P13">
-        <v>46.3368651463575</v>
+        <v>47.1530918453276</v>
       </c>
     </row>
     <row r="14">
@@ -1070,49 +1070,49 @@
         </is>
       </c>
       <c r="B14">
-        <v>2364.05793503428</v>
+        <v>2445.45484962951</v>
       </c>
       <c r="C14">
-        <v>123.954353737099</v>
+        <v>117.603243455351</v>
       </c>
       <c r="D14">
-        <v>9.11532824714654</v>
+        <v>8.019917631486731</v>
       </c>
       <c r="E14">
-        <v>80.0248647872782</v>
+        <v>83.6423653842873</v>
       </c>
       <c r="F14">
-        <v>15.5583991930182</v>
+        <v>16.3653075455701</v>
       </c>
       <c r="G14">
-        <v>87.8337495061844</v>
+        <v>84.0891375352449</v>
       </c>
       <c r="H14">
-        <v>46.6281125799952</v>
+        <v>46.2583532958525</v>
       </c>
       <c r="I14">
-        <v>24.4311512534624</v>
+        <v>24.4578780517513</v>
       </c>
       <c r="J14">
-        <v>138.195486030185</v>
+        <v>133.352089019932</v>
       </c>
       <c r="K14">
-        <v>62.3601104033929</v>
+        <v>72.0860669169823</v>
       </c>
       <c r="L14">
-        <v>91.4652323998575</v>
+        <v>91.99123037121321</v>
       </c>
       <c r="M14">
-        <v>82.26804378377049</v>
+        <v>80.5088695578758</v>
       </c>
       <c r="N14">
-        <v>64.32779842538901</v>
+        <v>69.3680651223618</v>
       </c>
       <c r="O14">
-        <v>5080.78046814255</v>
+        <v>5018.98678890443</v>
       </c>
       <c r="P14">
-        <v>59.8658886592561</v>
+        <v>57.6282025109238</v>
       </c>
     </row>
     <row r="15">
@@ -1122,49 +1122,49 @@
         </is>
       </c>
       <c r="B15">
-        <v>1220.55365787931</v>
+        <v>1242.99522197465</v>
       </c>
       <c r="C15">
-        <v>61.4421520681022</v>
+        <v>60.6273568854444</v>
       </c>
       <c r="D15">
-        <v>6.14776258796116</v>
+        <v>5.17615379433774</v>
       </c>
       <c r="E15">
-        <v>61.471437297998</v>
+        <v>60.462941572891</v>
       </c>
       <c r="F15">
-        <v>18.1091447028896</v>
+        <v>18.1887728169032</v>
       </c>
       <c r="G15">
-        <v>59.9261849249107</v>
+        <v>62.1866603523999</v>
       </c>
       <c r="H15">
-        <v>37.6081203971969</v>
+        <v>35.1895879174073</v>
       </c>
       <c r="I15">
-        <v>24.1724214165299</v>
+        <v>24.866489735322</v>
       </c>
       <c r="J15">
-        <v>135.050643971241</v>
+        <v>140.760231996997</v>
       </c>
       <c r="K15">
-        <v>36.3970963827946</v>
+        <v>34.6121788715308</v>
       </c>
       <c r="L15">
-        <v>40.7893991182689</v>
+        <v>37.4777933287099</v>
       </c>
       <c r="M15">
-        <v>156.066862581278</v>
+        <v>151.434570163008</v>
       </c>
       <c r="N15">
-        <v>85.6612836227699</v>
+        <v>84.5217392314475</v>
       </c>
       <c r="O15">
-        <v>2272.3139561466</v>
+        <v>2255.45626769108</v>
       </c>
       <c r="P15">
-        <v>48.8451727283327</v>
+        <v>49.9108656148275</v>
       </c>
     </row>
     <row r="16">
@@ -1174,49 +1174,49 @@
         </is>
       </c>
       <c r="B16">
-        <v>447.355611678557</v>
+        <v>452.692219437455</v>
       </c>
       <c r="C16">
-        <v>71.1421535881217</v>
+        <v>73.1969218304524</v>
       </c>
       <c r="D16">
-        <v>4.09982785253851</v>
+        <v>4.7279523105599</v>
       </c>
       <c r="E16">
-        <v>31.8060035891544</v>
+        <v>32.1255024912145</v>
       </c>
       <c r="F16">
-        <v>2.7936233500089</v>
+        <v>2.34587191420769</v>
       </c>
       <c r="G16">
-        <v>14.5119472426888</v>
+        <v>15.9333130955357</v>
       </c>
       <c r="H16">
-        <v>15.6235778431863</v>
+        <v>14.4561742733227</v>
       </c>
       <c r="I16">
-        <v>4.11096360144408</v>
+        <v>5.52747842412497</v>
       </c>
       <c r="J16">
-        <v>42.1118567746474</v>
+        <v>42.6466165579576</v>
       </c>
       <c r="K16">
-        <v>40.7754377215547</v>
+        <v>38.9673014870543</v>
       </c>
       <c r="L16">
-        <v>16.9931620873188</v>
+        <v>17.8422048405024</v>
       </c>
       <c r="M16">
-        <v>26.7515835574999</v>
+        <v>24.923212882144</v>
       </c>
       <c r="N16">
-        <v>31.3932893508539</v>
+        <v>29.085793223316</v>
       </c>
       <c r="O16">
-        <v>1294.23701087248</v>
+        <v>1270.12296488307</v>
       </c>
       <c r="P16">
-        <v>91.4083679157455</v>
+        <v>89.9268888767854</v>
       </c>
     </row>
     <row r="17">
@@ -1226,49 +1226,49 @@
         </is>
       </c>
       <c r="B17">
-        <v>474.523872435264</v>
+        <v>472.541529043514</v>
       </c>
       <c r="C17">
-        <v>24.0855280700686</v>
+        <v>23.3608210360603</v>
       </c>
       <c r="D17">
-        <v>1.8767143560346</v>
+        <v>2.46842731648756</v>
       </c>
       <c r="E17">
-        <v>17.9342543850776</v>
+        <v>19.6668027489819</v>
       </c>
       <c r="F17">
-        <v>15.3180234033965</v>
+        <v>15.2906426840318</v>
       </c>
       <c r="G17">
-        <v>16.0456680499095</v>
+        <v>14.4049326470323</v>
       </c>
       <c r="H17">
-        <v>13.2255641364472</v>
+        <v>11.3030577759487</v>
       </c>
       <c r="I17">
-        <v>5.38232632972553</v>
+        <v>5.35975479662936</v>
       </c>
       <c r="J17">
-        <v>18.5205291500391</v>
+        <v>19.7924919713468</v>
       </c>
       <c r="K17">
-        <v>9.42519636029072</v>
+        <v>10.4843322837675</v>
       </c>
       <c r="L17">
-        <v>11.1027304802847</v>
+        <v>11.2087966275495</v>
       </c>
       <c r="M17">
-        <v>65.8168866121641</v>
+        <v>62.9703558612289</v>
       </c>
       <c r="N17">
-        <v>10.2520740270906</v>
+        <v>11.5133422683457</v>
       </c>
       <c r="O17">
-        <v>1139.51089090576</v>
+        <v>1122.1360747175</v>
       </c>
       <c r="P17">
-        <v>48.3026588404089</v>
+        <v>49.7626455750329</v>
       </c>
     </row>
     <row r="18">
@@ -1278,49 +1278,49 @@
         </is>
       </c>
       <c r="B18">
-        <v>1132.05125192762</v>
+        <v>1147.35626943959</v>
       </c>
       <c r="C18">
-        <v>31.2885245139357</v>
+        <v>31.6293781756341</v>
       </c>
       <c r="D18">
-        <v>4.54690590210095</v>
+        <v>3.21863266658912</v>
       </c>
       <c r="E18">
-        <v>30.8185200400482</v>
+        <v>29.0510585169519</v>
       </c>
       <c r="F18">
-        <v>40.122893311242</v>
+        <v>36.3612560636063</v>
       </c>
       <c r="G18">
-        <v>12.0008198048875</v>
+        <v>11.2289925493372</v>
       </c>
       <c r="H18">
-        <v>9.004245047392621</v>
+        <v>9.092303035563941</v>
       </c>
       <c r="I18">
-        <v>7.24789139385016</v>
+        <v>6.77399841872487</v>
       </c>
       <c r="J18">
-        <v>20.4223661792006</v>
+        <v>22.1543330716022</v>
       </c>
       <c r="K18">
-        <v>6.33533462813925</v>
+        <v>7.39198619555622</v>
       </c>
       <c r="L18">
-        <v>27.6785056703912</v>
+        <v>25.5634850486808</v>
       </c>
       <c r="M18">
-        <v>59.9908838184037</v>
+        <v>56.5468392184069</v>
       </c>
       <c r="N18">
-        <v>24.540511827628</v>
+        <v>22.9370908511674</v>
       </c>
       <c r="O18">
-        <v>1608.73240331463</v>
+        <v>1584.25788801328</v>
       </c>
       <c r="P18">
-        <v>57.9419758323036</v>
+        <v>56.2299529288501</v>
       </c>
     </row>
     <row r="19">
@@ -1330,49 +1330,49 @@
         </is>
       </c>
       <c r="B19">
-        <v>1015.75294619828</v>
+        <v>1036.47379069223</v>
       </c>
       <c r="C19">
-        <v>35.4489140435298</v>
+        <v>34.7498992481813</v>
       </c>
       <c r="D19">
-        <v>5.96252742143109</v>
+        <v>5.54468075459663</v>
       </c>
       <c r="E19">
-        <v>31.4182666337654</v>
+        <v>34.8448536057915</v>
       </c>
       <c r="F19">
-        <v>80.1439813476515</v>
+        <v>75.4348157049086</v>
       </c>
       <c r="G19">
-        <v>47.0086105645613</v>
+        <v>45.9442960640267</v>
       </c>
       <c r="H19">
-        <v>9.84559253487415</v>
+        <v>8.885462330663319</v>
       </c>
       <c r="I19">
-        <v>5.98916496007388</v>
+        <v>5.06619468717728</v>
       </c>
       <c r="J19">
-        <v>21.2962523712741</v>
+        <v>18.8974149025154</v>
       </c>
       <c r="K19">
-        <v>7.04946268180878</v>
+        <v>5.95386018561039</v>
       </c>
       <c r="L19">
-        <v>4.84016161122388</v>
+        <v>6.09580682709796</v>
       </c>
       <c r="M19">
-        <v>13.7876589694743</v>
+        <v>18.2074505477808</v>
       </c>
       <c r="N19">
-        <v>16.1977557704566</v>
+        <v>13.6769871879581</v>
       </c>
       <c r="O19">
-        <v>1670.6052414912</v>
+        <v>1624.0403864427</v>
       </c>
       <c r="P19">
-        <v>37.1925780410197</v>
+        <v>35.2417011937363</v>
       </c>
     </row>
     <row r="20">
@@ -1382,49 +1382,49 @@
         </is>
       </c>
       <c r="B20">
-        <v>282.054672076021</v>
+        <v>280.985839289304</v>
       </c>
       <c r="C20">
-        <v>8.5443517752033</v>
+        <v>8.73569048096021</v>
       </c>
       <c r="D20">
-        <v>6.62244435849756</v>
+        <v>5.82790732218467</v>
       </c>
       <c r="E20">
-        <v>27.9298562336961</v>
+        <v>28.2292632901511</v>
       </c>
       <c r="F20">
-        <v>0.905136471101107</v>
+        <v>0.896802484422101</v>
       </c>
       <c r="G20">
-        <v>4.22959958943272</v>
+        <v>3.57061854298465</v>
       </c>
       <c r="H20">
-        <v>1.61177406143146</v>
+        <v>1.42374600818832</v>
       </c>
       <c r="I20">
-        <v>2.87617342349904</v>
+        <v>2.21175756406557</v>
       </c>
       <c r="J20">
-        <v>5.46708054909687</v>
+        <v>5.6411511708053</v>
       </c>
       <c r="K20">
-        <v>0.8971739122946441</v>
+        <v>0.98291565138517</v>
       </c>
       <c r="L20">
-        <v>6.77565790342004</v>
+        <v>6.04848778302913</v>
       </c>
       <c r="M20">
-        <v>16.220568538217</v>
+        <v>16.8810863602625</v>
       </c>
       <c r="N20">
-        <v>7.42821850747623</v>
+        <v>7.12307359391965</v>
       </c>
       <c r="O20">
-        <v>589.2898856213531</v>
+        <v>577.6528543630531</v>
       </c>
       <c r="P20">
-        <v>21.5912473072056</v>
+        <v>21.5565656224285</v>
       </c>
     </row>
     <row r="21">
@@ -1434,49 +1434,49 @@
         </is>
       </c>
       <c r="B21">
-        <v>979.314525904069</v>
+        <v>992.060771201633</v>
       </c>
       <c r="C21">
-        <v>16.8646163030446</v>
+        <v>17.8055717237377</v>
       </c>
       <c r="D21">
-        <v>1.21646495597515</v>
+        <v>1.77484439239069</v>
       </c>
       <c r="E21">
-        <v>18.8805380950328</v>
+        <v>19.1966962463959</v>
       </c>
       <c r="F21">
-        <v>2.09146796851139</v>
+        <v>2.93829103493283</v>
       </c>
       <c r="G21">
-        <v>13.8179822433396</v>
+        <v>14.7761249749212</v>
       </c>
       <c r="H21">
-        <v>3.94069360917063</v>
+        <v>4.61291118299105</v>
       </c>
       <c r="I21">
-        <v>11.1058716312288</v>
+        <v>11.6698175755399</v>
       </c>
       <c r="J21">
-        <v>12.9521681405686</v>
+        <v>12.6497299622749</v>
       </c>
       <c r="K21">
-        <v>3.34148659387049</v>
+        <v>5.02265954896882</v>
       </c>
       <c r="L21">
-        <v>23.9664448203013</v>
+        <v>25.1141163663207</v>
       </c>
       <c r="M21">
-        <v>21.0658526629644</v>
+        <v>23.1055407994045</v>
       </c>
       <c r="N21">
-        <v>17.3330391415324</v>
+        <v>16.8092999633589</v>
       </c>
       <c r="O21">
-        <v>2391.42594938894</v>
+        <v>2356.05253708887</v>
       </c>
       <c r="P21">
-        <v>21.6622064879499</v>
+        <v>20.4958187496807</v>
       </c>
     </row>
     <row r="22">
@@ -1486,49 +1486,49 @@
         </is>
       </c>
       <c r="B22">
-        <v>1173.2641535868</v>
+        <v>1178.37532241172</v>
       </c>
       <c r="C22">
-        <v>25.7889438013955</v>
+        <v>24.1761752248816</v>
       </c>
       <c r="D22">
-        <v>6.89750510755773</v>
+        <v>7.75231537206403</v>
       </c>
       <c r="E22">
-        <v>34.2679352184574</v>
+        <v>33.8086731053746</v>
       </c>
       <c r="F22">
-        <v>3.32550181231573</v>
+        <v>3.14435258136032</v>
       </c>
       <c r="G22">
-        <v>25.923094447983</v>
+        <v>30.35891548906</v>
       </c>
       <c r="H22">
-        <v>10.6848057546985</v>
+        <v>12.9848613566914</v>
       </c>
       <c r="I22">
-        <v>7.02182666385532</v>
+        <v>8.693535950883151</v>
       </c>
       <c r="J22">
-        <v>37.312342666895</v>
+        <v>36.8467552484655</v>
       </c>
       <c r="K22">
-        <v>3.15323262050239</v>
+        <v>3.98594457623109</v>
       </c>
       <c r="L22">
-        <v>84.9321052062067</v>
+        <v>88.2335357825513</v>
       </c>
       <c r="M22">
-        <v>21.6805749698831</v>
+        <v>18.8618150932392</v>
       </c>
       <c r="N22">
-        <v>58.37760142993</v>
+        <v>59.8337106836272</v>
       </c>
       <c r="O22">
-        <v>2726.975350993</v>
+        <v>2736.02819550494</v>
       </c>
       <c r="P22">
-        <v>14.1693365309388</v>
+        <v>13.6398948994338</v>
       </c>
     </row>
     <row r="23">
@@ -1538,49 +1538,49 @@
         </is>
       </c>
       <c r="B23">
-        <v>2341.5161057861</v>
+        <v>2346.81382480204</v>
       </c>
       <c r="C23">
-        <v>39.1794946392234</v>
+        <v>40.2326546984814</v>
       </c>
       <c r="D23">
-        <v>5.7355249855566</v>
+        <v>6.6975082386803</v>
       </c>
       <c r="E23">
-        <v>51.4112551687573</v>
+        <v>48.9402103542371</v>
       </c>
       <c r="F23">
-        <v>5.78771953491482</v>
+        <v>6.5281816979799</v>
       </c>
       <c r="G23">
-        <v>54.1468666975721</v>
+        <v>56.6378707754542</v>
       </c>
       <c r="H23">
-        <v>56.4787165775961</v>
+        <v>49.5095593163663</v>
       </c>
       <c r="I23">
-        <v>23.9896646047793</v>
+        <v>23.2010330806832</v>
       </c>
       <c r="J23">
-        <v>87.37654150237439</v>
+        <v>88.7129964670669</v>
       </c>
       <c r="K23">
-        <v>67.5862476616511</v>
+        <v>60.4641447957665</v>
       </c>
       <c r="L23">
-        <v>37.4228503938773</v>
+        <v>35.6577403281979</v>
       </c>
       <c r="M23">
-        <v>483.235451626782</v>
+        <v>479.886123985678</v>
       </c>
       <c r="N23">
-        <v>96.5145982581989</v>
+        <v>93.0511171449651</v>
       </c>
       <c r="O23">
-        <v>3394.24867996526</v>
+        <v>3387.15190452987</v>
       </c>
       <c r="P23">
-        <v>61.6516606734225</v>
+        <v>60.6757655558586</v>
       </c>
     </row>
     <row r="24">
@@ -1590,49 +1590,49 @@
         </is>
       </c>
       <c r="B24">
-        <v>768.457656946419</v>
+        <v>782.186489128394</v>
       </c>
       <c r="C24">
-        <v>46.9719204632177</v>
+        <v>45.3215705903368</v>
       </c>
       <c r="D24">
-        <v>9.31253692685333</v>
+        <v>8.409926979896261</v>
       </c>
       <c r="E24">
-        <v>58.4032111638227</v>
+        <v>57.6330504443923</v>
       </c>
       <c r="F24">
-        <v>9.77063460296025</v>
+        <v>9.16536242972432</v>
       </c>
       <c r="G24">
-        <v>26.1024951396401</v>
+        <v>24.8896989496289</v>
       </c>
       <c r="H24">
-        <v>18.9284989523342</v>
+        <v>15.7165075942623</v>
       </c>
       <c r="I24">
-        <v>14.9690291711421</v>
+        <v>15.6806388121361</v>
       </c>
       <c r="J24">
-        <v>44.2678856226744</v>
+        <v>45.3250882267858</v>
       </c>
       <c r="K24">
-        <v>18.2256073490728</v>
+        <v>17.4570377087537</v>
       </c>
       <c r="L24">
-        <v>58.0697427384546</v>
+        <v>58.8663972246917</v>
       </c>
       <c r="M24">
-        <v>17.3542841143431</v>
+        <v>18.9424847978082</v>
       </c>
       <c r="N24">
-        <v>68.2863194322929</v>
+        <v>68.35701941887371</v>
       </c>
       <c r="O24">
-        <v>2111.65955502773</v>
+        <v>2101.71969453361</v>
       </c>
       <c r="P24">
-        <v>69.60646189730851</v>
+        <v>72.3161230141495</v>
       </c>
     </row>
     <row r="25">
@@ -1642,49 +1642,49 @@
         </is>
       </c>
       <c r="B25">
-        <v>824.333666297944</v>
+        <v>802.100654032486</v>
       </c>
       <c r="C25">
-        <v>32.5321247747327</v>
+        <v>35.8151505816001</v>
       </c>
       <c r="D25">
-        <v>12.2313754592311</v>
+        <v>10.8992209491084</v>
       </c>
       <c r="E25">
-        <v>38.5205370798205</v>
+        <v>37.7863161962924</v>
       </c>
       <c r="F25">
-        <v>19.2741615969918</v>
+        <v>15.9351562702574</v>
       </c>
       <c r="G25">
-        <v>7.80951750111772</v>
+        <v>9.492455383999941</v>
       </c>
       <c r="H25">
-        <v>9.18536536634654</v>
+        <v>7.66092825174919</v>
       </c>
       <c r="I25">
-        <v>1.77590928015633</v>
+        <v>2.31478543505317</v>
       </c>
       <c r="J25">
-        <v>10.7242940862873</v>
+        <v>10.1401939357583</v>
       </c>
       <c r="K25">
-        <v>7.59516456672019</v>
+        <v>8.20899086032272</v>
       </c>
       <c r="L25">
-        <v>7.72662172015823</v>
+        <v>7.89598208124571</v>
       </c>
       <c r="M25">
-        <v>34.3214525806387</v>
+        <v>34.2506824416893</v>
       </c>
       <c r="N25">
-        <v>45.8134625875863</v>
+        <v>44.78460213365</v>
       </c>
       <c r="O25">
-        <v>972.18244163066</v>
+        <v>968.764339928966</v>
       </c>
       <c r="P25">
-        <v>55.3530621857152</v>
+        <v>49.1648090134832</v>
       </c>
     </row>
     <row r="26">
@@ -1694,49 +1694,49 @@
         </is>
       </c>
       <c r="B26">
-        <v>1103.23080690683</v>
+        <v>1130.53834039168</v>
       </c>
       <c r="C26">
-        <v>54.6447888179517</v>
+        <v>53.9674487009738</v>
       </c>
       <c r="D26">
-        <v>3.95722166619457</v>
+        <v>4.14276507822703</v>
       </c>
       <c r="E26">
-        <v>54.0641346495689</v>
+        <v>48.4901166643475</v>
       </c>
       <c r="F26">
-        <v>6.77425055903071</v>
+        <v>8.17007380694028</v>
       </c>
       <c r="G26">
-        <v>38.2520863282732</v>
+        <v>36.4983017822907</v>
       </c>
       <c r="H26">
-        <v>11.6380533157918</v>
+        <v>10.5973952429214</v>
       </c>
       <c r="I26">
-        <v>16.9725355082317</v>
+        <v>17.9502695595778</v>
       </c>
       <c r="J26">
-        <v>41.094224994056</v>
+        <v>39.4058088997967</v>
       </c>
       <c r="K26">
-        <v>8.81593427793521</v>
+        <v>8.7273002207787</v>
       </c>
       <c r="L26">
-        <v>33.3346470934075</v>
+        <v>30.8636741063837</v>
       </c>
       <c r="M26">
-        <v>50.3401318270132</v>
+        <v>53.2386878018875</v>
       </c>
       <c r="N26">
-        <v>32.6768911848801</v>
+        <v>33.395422777332</v>
       </c>
       <c r="O26">
-        <v>2353.38096035523</v>
+        <v>2348.14120479458</v>
       </c>
       <c r="P26">
-        <v>55.4588305985987</v>
+        <v>56.409042733649</v>
       </c>
     </row>
     <row r="27">
@@ -1746,49 +1746,49 @@
         </is>
       </c>
       <c r="B27">
-        <v>210.955689659407</v>
+        <v>207.444932881176</v>
       </c>
       <c r="C27">
-        <v>2.49514109961359</v>
+        <v>2.82324984267225</v>
       </c>
       <c r="D27">
-        <v>0.684341460451267</v>
+        <v>1.48126046579191</v>
       </c>
       <c r="E27">
-        <v>10.6133709593095</v>
+        <v>9.32432771729871</v>
       </c>
       <c r="F27">
-        <v>7.81413552462507</v>
+        <v>6.8067176875982</v>
       </c>
       <c r="G27">
-        <v>0.9474113092637641</v>
+        <v>1.01194049985767</v>
       </c>
       <c r="H27">
-        <v>0.102021129756676</v>
+        <v>0.215020274327259</v>
       </c>
       <c r="I27">
-        <v>2.405937150359</v>
+        <v>2.27313675364088</v>
       </c>
       <c r="J27">
-        <v>4.52989153709916</v>
+        <v>3.59905753308084</v>
       </c>
       <c r="K27">
-        <v>0.841213594603078</v>
+        <v>0.936516498520266</v>
       </c>
       <c r="L27">
-        <v>2.09071059464053</v>
+        <v>2.17101944824455</v>
       </c>
       <c r="M27">
-        <v>0.183635975093937</v>
+        <v>0.347815934077411</v>
       </c>
       <c r="N27">
-        <v>4.110200259894</v>
+        <v>3.86550501373364</v>
       </c>
       <c r="O27">
-        <v>457.488049558514</v>
+        <v>440.590775558103</v>
       </c>
       <c r="P27">
-        <v>50.6612492017489</v>
+        <v>49.3994168281146</v>
       </c>
     </row>
     <row r="28">
@@ -1798,49 +1798,49 @@
         </is>
       </c>
       <c r="B28">
-        <v>245.056036628868</v>
+        <v>242.782787822606</v>
       </c>
       <c r="C28">
-        <v>37.9735149785917</v>
+        <v>38.5798580859876</v>
       </c>
       <c r="D28">
-        <v>1.79715545935296</v>
+        <v>1.84942916198151</v>
       </c>
       <c r="E28">
-        <v>4.84549751170285</v>
+        <v>6.20433819613142</v>
       </c>
       <c r="F28">
-        <v>0.469670391134049</v>
+        <v>0.58372252577097</v>
       </c>
       <c r="G28">
-        <v>5.61937146569597</v>
+        <v>5.18218465332205</v>
       </c>
       <c r="H28">
-        <v>6.11112514232284</v>
+        <v>5.57345526616196</v>
       </c>
       <c r="I28">
-        <v>4.0305059284168</v>
+        <v>3.8735535089614</v>
       </c>
       <c r="J28">
-        <v>17.1362300783063</v>
+        <v>17.6606277317157</v>
       </c>
       <c r="K28">
-        <v>12.2932837128073</v>
+        <v>10.9472703490522</v>
       </c>
       <c r="L28">
-        <v>9.491462704007891</v>
+        <v>10.0623057991533</v>
       </c>
       <c r="M28">
-        <v>11.3510609158584</v>
+        <v>11.1449595958058</v>
       </c>
       <c r="N28">
-        <v>11.9317099458823</v>
+        <v>11.4357499519545</v>
       </c>
       <c r="O28">
-        <v>808.526413954752</v>
+        <v>791.156871392828</v>
       </c>
       <c r="P28">
-        <v>70.8408494447082</v>
+        <v>72.2623335718022</v>
       </c>
     </row>
     <row r="29">
@@ -1850,49 +1850,49 @@
         </is>
       </c>
       <c r="B29">
-        <v>459.893438356966</v>
+        <v>468.907918968042</v>
       </c>
       <c r="C29">
-        <v>3.87606477931458</v>
+        <v>3.12083505058034</v>
       </c>
       <c r="D29">
-        <v>1.88090460317696</v>
+        <v>1.91297586721487</v>
       </c>
       <c r="E29">
-        <v>7.0250362641252</v>
+        <v>6.1677342847182</v>
       </c>
       <c r="F29">
-        <v>23.6302534398541</v>
+        <v>24.9274833310574</v>
       </c>
       <c r="G29">
-        <v>2.98247525653468</v>
+        <v>4.16249328181994</v>
       </c>
       <c r="H29">
-        <v>0.675368866316801</v>
+        <v>0.809148767631745</v>
       </c>
       <c r="I29">
-        <v>2.23268607375675</v>
+        <v>1.84403759279114</v>
       </c>
       <c r="J29">
-        <v>3.85022013326401</v>
+        <v>3.76568025224383</v>
       </c>
       <c r="K29">
-        <v>2.58252780263296</v>
+        <v>2.07951740962792</v>
       </c>
       <c r="L29">
-        <v>3.19250960420784</v>
+        <v>3.73056997481551</v>
       </c>
       <c r="M29">
-        <v>4.02981854492831</v>
+        <v>3.82663710282052</v>
       </c>
       <c r="N29">
-        <v>12.097319558895</v>
+        <v>11.3255169783223</v>
       </c>
       <c r="O29">
-        <v>1143.54655706346</v>
+        <v>1130.53322980321</v>
       </c>
       <c r="P29">
-        <v>5.73084403495853</v>
+        <v>5.10877524778449</v>
       </c>
     </row>
     <row r="30">
@@ -1902,49 +1902,49 @@
         </is>
       </c>
       <c r="B30">
-        <v>206.467140803987</v>
+        <v>207.252372011142</v>
       </c>
       <c r="C30">
-        <v>5.31767100620877</v>
+        <v>5.0987200121116</v>
       </c>
       <c r="D30">
-        <v>5.22567569914821</v>
+        <v>4.20290854061936</v>
       </c>
       <c r="E30">
-        <v>9.737577865553501</v>
+        <v>10.0928169923724</v>
       </c>
       <c r="F30">
-        <v>0.287557616960187</v>
+        <v>0.21460900803668</v>
       </c>
       <c r="G30">
-        <v>5.48990381451641</v>
+        <v>5.18257352239895</v>
       </c>
       <c r="H30">
-        <v>2.58256060097511</v>
+        <v>2.95940652388506</v>
       </c>
       <c r="I30">
-        <v>2.38984864572498</v>
+        <v>2.62956619362297</v>
       </c>
       <c r="J30">
-        <v>19.5644702683971</v>
+        <v>17.5728102961115</v>
       </c>
       <c r="K30">
-        <v>3.70302103587909</v>
+        <v>3.05109451068747</v>
       </c>
       <c r="L30">
-        <v>40.8429703930265</v>
+        <v>39.426021062304</v>
       </c>
       <c r="M30">
-        <v>8.935942085765131</v>
+        <v>9.14548388370857</v>
       </c>
       <c r="N30">
-        <v>17.4934336085814</v>
+        <v>15.8672396386188</v>
       </c>
       <c r="O30">
-        <v>603.967125716876</v>
+        <v>591.3034243309</v>
       </c>
       <c r="P30">
-        <v>5.49289798497758</v>
+        <v>5.31701342502869</v>
       </c>
     </row>
     <row r="31">
@@ -1954,49 +1954,49 @@
         </is>
       </c>
       <c r="B31">
-        <v>1515.53379757064</v>
+        <v>1548.72370191995</v>
       </c>
       <c r="C31">
-        <v>54.5325388692974</v>
+        <v>57.015638164595</v>
       </c>
       <c r="D31">
-        <v>7.45057697193416</v>
+        <v>9.1776181389148</v>
       </c>
       <c r="E31">
-        <v>26.1480622150054</v>
+        <v>29.764844710605</v>
       </c>
       <c r="F31">
-        <v>2.95320617614944</v>
+        <v>2.79579633845923</v>
       </c>
       <c r="G31">
-        <v>121.358691416085</v>
+        <v>115.192874154003</v>
       </c>
       <c r="H31">
-        <v>13.3723172572304</v>
+        <v>12.089496101184</v>
       </c>
       <c r="I31">
-        <v>8.26860689038773</v>
+        <v>9.6421457502795</v>
       </c>
       <c r="J31">
-        <v>21.5376338267514</v>
+        <v>21.2455828415749</v>
       </c>
       <c r="K31">
-        <v>6.02933200108515</v>
+        <v>6.17546474077332</v>
       </c>
       <c r="L31">
-        <v>62.8966660639608</v>
+        <v>62.1787816662945</v>
       </c>
       <c r="M31">
-        <v>17.8221485249312</v>
+        <v>19.8740893679523</v>
       </c>
       <c r="N31">
-        <v>78.1459424556185</v>
+        <v>71.282972073073</v>
       </c>
       <c r="O31">
-        <v>3719.20153623158</v>
+        <v>3681.54036888879</v>
       </c>
       <c r="P31">
-        <v>18.5165945398858</v>
+        <v>20.4305028094329</v>
       </c>
     </row>
     <row r="32">
@@ -2006,49 +2006,49 @@
         </is>
       </c>
       <c r="B32">
-        <v>462.525291061462</v>
+        <v>457.536619965457</v>
       </c>
       <c r="C32">
-        <v>2.69909287128104</v>
+        <v>2.97659526282136</v>
       </c>
       <c r="D32">
-        <v>0.640880311599738</v>
+        <v>0.527173250207556</v>
       </c>
       <c r="E32">
-        <v>2.95711909839419</v>
+        <v>2.65222189006546</v>
       </c>
       <c r="F32">
-        <v>23.2182556182923</v>
+        <v>24.2431782015243</v>
       </c>
       <c r="G32">
-        <v>3.00803997502419</v>
+        <v>3.21913268444288</v>
       </c>
       <c r="H32">
-        <v>0.518968562525278</v>
+        <v>0.855372307669015</v>
       </c>
       <c r="I32">
-        <v>1.65938338312594</v>
+        <v>1.4646360482696</v>
       </c>
       <c r="J32">
-        <v>5.93128865526275</v>
+        <v>4.49260771922096</v>
       </c>
       <c r="K32">
-        <v>1.60505014855724</v>
+        <v>1.82806383614905</v>
       </c>
       <c r="L32">
-        <v>5.84158779643213</v>
+        <v>7.02667886409786</v>
       </c>
       <c r="M32">
-        <v>11.4540722705375</v>
+        <v>8.617098343123359</v>
       </c>
       <c r="N32">
-        <v>16.1712209744581</v>
+        <v>15.8380136955249</v>
       </c>
       <c r="O32">
-        <v>777.222674046317</v>
+        <v>771.607398514783</v>
       </c>
       <c r="P32">
-        <v>20.5127000066675</v>
+        <v>19.819284241409</v>
       </c>
     </row>
     <row r="33">
@@ -2058,49 +2058,49 @@
         </is>
       </c>
       <c r="B33">
-        <v>3999.84016993982</v>
+        <v>4065.64651911265</v>
       </c>
       <c r="C33">
-        <v>76.1085121504438</v>
+        <v>73.3965709618992</v>
       </c>
       <c r="D33">
-        <v>11.1754133370017</v>
+        <v>14.826244712685</v>
       </c>
       <c r="E33">
-        <v>71.2314491394166</v>
+        <v>70.9356423896128</v>
       </c>
       <c r="F33">
-        <v>10.6485807620362</v>
+        <v>10.8285230789444</v>
       </c>
       <c r="G33">
-        <v>73.6465843616668</v>
+        <v>75.7457056969665</v>
       </c>
       <c r="H33">
-        <v>35.0980574346496</v>
+        <v>34.1518503536356</v>
       </c>
       <c r="I33">
-        <v>19.7927811996711</v>
+        <v>19.2225683483355</v>
       </c>
       <c r="J33">
-        <v>87.8717307549078</v>
+        <v>87.7643184274486</v>
       </c>
       <c r="K33">
-        <v>49.2728526990437</v>
+        <v>53.4673869931444</v>
       </c>
       <c r="L33">
-        <v>93.9044462727577</v>
+        <v>99.2349564956783</v>
       </c>
       <c r="M33">
-        <v>57.401576078089</v>
+        <v>55.708300594367</v>
       </c>
       <c r="N33">
-        <v>115.93274278751</v>
+        <v>116.371800648169</v>
       </c>
       <c r="O33">
-        <v>7798.82899914937</v>
+        <v>7739.95563859718</v>
       </c>
       <c r="P33">
-        <v>61.3162980274613</v>
+        <v>57.8299746083442</v>
       </c>
     </row>
     <row r="34">
@@ -2110,49 +2110,49 @@
         </is>
       </c>
       <c r="B34">
-        <v>1895.78671145928</v>
+        <v>1938.97206709663</v>
       </c>
       <c r="C34">
-        <v>59.5911532564109</v>
+        <v>65.6301057991621</v>
       </c>
       <c r="D34">
-        <v>64.0160360398324</v>
+        <v>68.0961466344157</v>
       </c>
       <c r="E34">
-        <v>58.9592543059892</v>
+        <v>55.7206375074045</v>
       </c>
       <c r="F34">
-        <v>2.19975559299198</v>
+        <v>3.16403657849784</v>
       </c>
       <c r="G34">
-        <v>48.4085058982501</v>
+        <v>49.243813856955</v>
       </c>
       <c r="H34">
-        <v>38.1643021151583</v>
+        <v>36.5014157516239</v>
       </c>
       <c r="I34">
-        <v>20.3777298264183</v>
+        <v>19.3694812011526</v>
       </c>
       <c r="J34">
-        <v>51.2116956526514</v>
+        <v>48.6917644051997</v>
       </c>
       <c r="K34">
-        <v>10.9891880861348</v>
+        <v>12.8637719438952</v>
       </c>
       <c r="L34">
-        <v>92.1801283626601</v>
+        <v>99.6347317126357</v>
       </c>
       <c r="M34">
-        <v>37.5332571965022</v>
+        <v>34.0893666324127</v>
       </c>
       <c r="N34">
-        <v>114.353770129703</v>
+        <v>113.739688726499</v>
       </c>
       <c r="O34">
-        <v>3371.756828104</v>
+        <v>3358.64474505947</v>
       </c>
       <c r="P34">
-        <v>65.25907618666049</v>
+        <v>65.1607505340947</v>
       </c>
     </row>
     <row r="35">
@@ -2162,49 +2162,49 @@
         </is>
       </c>
       <c r="B35">
-        <v>95.98961624099449</v>
+        <v>94.3553107019186</v>
       </c>
       <c r="C35">
-        <v>7.79723804634303</v>
+        <v>7.42520770374601</v>
       </c>
       <c r="D35">
-        <v>0.664099927038308</v>
+        <v>0.487303689072695</v>
       </c>
       <c r="E35">
-        <v>3.07893029122356</v>
+        <v>3.15828161564821</v>
       </c>
       <c r="F35">
-        <v>4.87394007774715</v>
+        <v>4.90307890745665</v>
       </c>
       <c r="G35">
-        <v>0.377563242445129</v>
+        <v>0.391612077265025</v>
       </c>
       <c r="H35">
-        <v>1.34010400374135</v>
+        <v>0.915885278863298</v>
       </c>
       <c r="I35">
-        <v>1.60826942569281</v>
+        <v>1.51088136714656</v>
       </c>
       <c r="J35">
-        <v>1.75939312979876</v>
+        <v>2.08734442372699</v>
       </c>
       <c r="K35">
-        <v>3.61493664692769</v>
+        <v>4.32634073909541</v>
       </c>
       <c r="L35">
-        <v>3.2016362885813</v>
+        <v>2.84693339691227</v>
       </c>
       <c r="M35">
-        <v>4.21706730379938</v>
+        <v>3.4349657021679</v>
       </c>
       <c r="N35">
-        <v>2.86596840073011</v>
+        <v>3.20796954516588</v>
       </c>
       <c r="O35">
-        <v>321.757155160219</v>
+        <v>309.051284247243</v>
       </c>
       <c r="P35">
-        <v>51.364240756361</v>
+        <v>49.9877956951525</v>
       </c>
     </row>
     <row r="36">
@@ -2214,49 +2214,49 @@
         </is>
       </c>
       <c r="B36">
-        <v>2435.57081486587</v>
+        <v>2479.01392889671</v>
       </c>
       <c r="C36">
-        <v>84.4092240184678</v>
+        <v>82.9572527696339</v>
       </c>
       <c r="D36">
-        <v>7.11024108387913</v>
+        <v>9.044845117894569</v>
       </c>
       <c r="E36">
-        <v>140.378517617615</v>
+        <v>135.877657790527</v>
       </c>
       <c r="F36">
-        <v>21.3548214373428</v>
+        <v>21.670425760774</v>
       </c>
       <c r="G36">
-        <v>101.964825268845</v>
+        <v>99.37904175409661</v>
       </c>
       <c r="H36">
-        <v>74.70402298964029</v>
+        <v>68.7752902362457</v>
       </c>
       <c r="I36">
-        <v>35.9570741314018</v>
+        <v>33.9786871979445</v>
       </c>
       <c r="J36">
-        <v>228.899854136506</v>
+        <v>211.209001727629</v>
       </c>
       <c r="K36">
-        <v>60.0716452691584</v>
+        <v>54.7967342665932</v>
       </c>
       <c r="L36">
-        <v>64.7897739487281</v>
+        <v>61.2056666636967</v>
       </c>
       <c r="M36">
-        <v>168.2912849095</v>
+        <v>167.745735130315</v>
       </c>
       <c r="N36">
-        <v>113.569581373482</v>
+        <v>114.217502236297</v>
       </c>
       <c r="O36">
-        <v>4265.84733636494</v>
+        <v>4282.06924776379</v>
       </c>
       <c r="P36">
-        <v>72.66708752401461</v>
+        <v>66.251905198476</v>
       </c>
     </row>
     <row r="37">
@@ -2266,49 +2266,49 @@
         </is>
       </c>
       <c r="B37">
-        <v>803.747094063149</v>
+        <v>811.058805411857</v>
       </c>
       <c r="C37">
-        <v>15.521710482099</v>
+        <v>15.1225282797591</v>
       </c>
       <c r="D37">
-        <v>2.00225623467612</v>
+        <v>2.53695519653508</v>
       </c>
       <c r="E37">
-        <v>19.1786672988544</v>
+        <v>18.1691477877891</v>
       </c>
       <c r="F37">
-        <v>45.6035339503394</v>
+        <v>45.3228551136203</v>
       </c>
       <c r="G37">
-        <v>5.50040885478505</v>
+        <v>6.49348524807994</v>
       </c>
       <c r="H37">
-        <v>22.5341343021776</v>
+        <v>20.8778176232177</v>
       </c>
       <c r="I37">
-        <v>5.2225413009552</v>
+        <v>5.88238692981707</v>
       </c>
       <c r="J37">
-        <v>26.4610642575266</v>
+        <v>30.4543478358505</v>
       </c>
       <c r="K37">
-        <v>6.47612370739436</v>
+        <v>6.62700335407829</v>
       </c>
       <c r="L37">
-        <v>19.4450603362766</v>
+        <v>18.8670267329149</v>
       </c>
       <c r="M37">
-        <v>24.7216956905415</v>
+        <v>25.7679800946427</v>
       </c>
       <c r="N37">
-        <v>20.6256230117865</v>
+        <v>21.1923858455216</v>
       </c>
       <c r="O37">
-        <v>1320.59523413184</v>
+        <v>1323.0821333235</v>
       </c>
       <c r="P37">
-        <v>58.2204037690681</v>
+        <v>53.8020440468049</v>
       </c>
     </row>
     <row r="38">
@@ -2318,49 +2318,49 @@
         </is>
       </c>
       <c r="B38">
-        <v>786.03913148726</v>
+        <v>803.46286978577</v>
       </c>
       <c r="C38">
-        <v>20.9783158910429</v>
+        <v>25.1702470486648</v>
       </c>
       <c r="D38">
-        <v>3.17562413716462</v>
+        <v>4.30286653655358</v>
       </c>
       <c r="E38">
-        <v>43.6797512374652</v>
+        <v>42.5451825290305</v>
       </c>
       <c r="F38">
-        <v>1.04430024586395</v>
+        <v>1.51459247738386</v>
       </c>
       <c r="G38">
-        <v>7.46280094326617</v>
+        <v>8.720558199805311</v>
       </c>
       <c r="H38">
-        <v>2.20886805070099</v>
+        <v>2.25520504815578</v>
       </c>
       <c r="I38">
-        <v>4.82087466725347</v>
+        <v>3.88185497093093</v>
       </c>
       <c r="J38">
-        <v>34.1244498979857</v>
+        <v>34.4724097442732</v>
       </c>
       <c r="K38">
-        <v>3.63267540421533</v>
+        <v>4.35697077243382</v>
       </c>
       <c r="L38">
-        <v>84.052051794861</v>
+        <v>81.152064920877</v>
       </c>
       <c r="M38">
-        <v>23.2405275481043</v>
+        <v>22.9092893708248</v>
       </c>
       <c r="N38">
-        <v>42.3357189330022</v>
+        <v>43.0268082345099</v>
       </c>
       <c r="O38">
-        <v>1460.88002808005</v>
+        <v>1451.90813121817</v>
       </c>
       <c r="P38">
-        <v>65.15992106312559</v>
+        <v>63.5429235483584</v>
       </c>
     </row>
     <row r="39">
@@ -2370,49 +2370,49 @@
         </is>
       </c>
       <c r="B39">
-        <v>2586.56428956749</v>
+        <v>2623.03851140147</v>
       </c>
       <c r="C39">
-        <v>94.713128787294</v>
+        <v>92.1060552846515</v>
       </c>
       <c r="D39">
-        <v>30.4410714415075</v>
+        <v>30.9071989159439</v>
       </c>
       <c r="E39">
-        <v>110.428718352171</v>
+        <v>111.829885851289</v>
       </c>
       <c r="F39">
-        <v>34.1590121176244</v>
+        <v>29.126419023318</v>
       </c>
       <c r="G39">
-        <v>97.6651649517891</v>
+        <v>103.61181511631</v>
       </c>
       <c r="H39">
-        <v>46.5410501764148</v>
+        <v>45.1466006385862</v>
       </c>
       <c r="I39">
-        <v>24.8533740278632</v>
+        <v>25.1907208063858</v>
       </c>
       <c r="J39">
-        <v>191.659481905551</v>
+        <v>188.543156439983</v>
       </c>
       <c r="K39">
-        <v>39.311011278991</v>
+        <v>41.0687282345945</v>
       </c>
       <c r="L39">
-        <v>116.681350849727</v>
+        <v>112.732234978865</v>
       </c>
       <c r="M39">
-        <v>68.2477151002075</v>
+        <v>68.3714937206092</v>
       </c>
       <c r="N39">
-        <v>122.289538422795</v>
+        <v>120.705019838183</v>
       </c>
       <c r="O39">
-        <v>4998.72179443722</v>
+        <v>4983.38619017746</v>
       </c>
       <c r="P39">
-        <v>75.29606496605351</v>
+        <v>71.4163382621708</v>
       </c>
     </row>
     <row r="40">
@@ -2422,49 +2422,49 @@
         </is>
       </c>
       <c r="B40">
-        <v>227.984494132349</v>
+        <v>224.480080693201</v>
       </c>
       <c r="C40">
-        <v>2.73950296216487</v>
+        <v>3.1770809599093</v>
       </c>
       <c r="D40">
-        <v>8.08858925365899</v>
+        <v>7.51364533436694</v>
       </c>
       <c r="E40">
-        <v>4.26517395711033</v>
+        <v>4.71418388709496</v>
       </c>
       <c r="F40">
-        <v>0.226284588752418</v>
+        <v>0.265817348520522</v>
       </c>
       <c r="G40">
-        <v>5.83557696146653</v>
+        <v>5.40410217117007</v>
       </c>
       <c r="H40">
-        <v>4.29168781379347</v>
+        <v>3.72275036698054</v>
       </c>
       <c r="I40">
-        <v>2.60941418793693</v>
+        <v>2.51876370562892</v>
       </c>
       <c r="J40">
-        <v>10.8960231926107</v>
+        <v>11.0560191896812</v>
       </c>
       <c r="K40">
-        <v>1.56907969154638</v>
+        <v>1.37309069205747</v>
       </c>
       <c r="L40">
-        <v>12.5280471342056</v>
+        <v>11.6538228100175</v>
       </c>
       <c r="M40">
-        <v>6.31416674678515</v>
+        <v>6.45147277199977</v>
       </c>
       <c r="N40">
-        <v>24.8428644665518</v>
+        <v>22.7635390159646</v>
       </c>
       <c r="O40">
-        <v>493.756665335884</v>
+        <v>478.273687221735</v>
       </c>
       <c r="P40">
-        <v>4.28514039025707</v>
+        <v>3.83747973733768</v>
       </c>
     </row>
     <row r="41">
@@ -2474,49 +2474,49 @@
         </is>
       </c>
       <c r="B41">
-        <v>1072.25543810897</v>
+        <v>1089.35270636921</v>
       </c>
       <c r="C41">
-        <v>18.2726443458923</v>
+        <v>20.1558165055843</v>
       </c>
       <c r="D41">
-        <v>49.6044520741229</v>
+        <v>50.7972850415615</v>
       </c>
       <c r="E41">
-        <v>29.8104476175459</v>
+        <v>32.0966547125789</v>
       </c>
       <c r="F41">
-        <v>3.06077568099952</v>
+        <v>2.66986029090462</v>
       </c>
       <c r="G41">
-        <v>31.8580676042987</v>
+        <v>29.7520919519569</v>
       </c>
       <c r="H41">
-        <v>31.9735246146183</v>
+        <v>30.5786389833423</v>
       </c>
       <c r="I41">
-        <v>12.0646402075406</v>
+        <v>12.3303960138782</v>
       </c>
       <c r="J41">
-        <v>37.2804966620692</v>
+        <v>35.9311851929008</v>
       </c>
       <c r="K41">
-        <v>9.630207017613831</v>
+        <v>10.3856200451746</v>
       </c>
       <c r="L41">
-        <v>32.330249608805</v>
+        <v>30.2187014675094</v>
       </c>
       <c r="M41">
-        <v>31.573210800505</v>
+        <v>33.649824765787</v>
       </c>
       <c r="N41">
-        <v>20.4968208191831</v>
+        <v>17.9349118448849</v>
       </c>
       <c r="O41">
-        <v>1553.90403713232</v>
+        <v>1554.54552482795</v>
       </c>
       <c r="P41">
-        <v>27.9383806020376</v>
+        <v>28.2301157829829</v>
       </c>
     </row>
     <row r="42">
@@ -2526,49 +2526,49 @@
         </is>
       </c>
       <c r="B42">
-        <v>124.238534307226</v>
+        <v>121.445494124034</v>
       </c>
       <c r="C42">
-        <v>9.15403936743129</v>
+        <v>8.26882528804588</v>
       </c>
       <c r="D42">
-        <v>1.57721578436286</v>
+        <v>1.48262088394401</v>
       </c>
       <c r="E42">
-        <v>6.50530841836944</v>
+        <v>6.65417406331742</v>
       </c>
       <c r="F42">
-        <v>3.02126739890027</v>
+        <v>2.80298712551402</v>
       </c>
       <c r="G42">
-        <v>2.48508602473137</v>
+        <v>2.30663937115509</v>
       </c>
       <c r="H42">
-        <v>2.31806651917687</v>
+        <v>2.22729059135346</v>
       </c>
       <c r="I42">
-        <v>2.02961863679483</v>
+        <v>1.87345606428683</v>
       </c>
       <c r="J42">
-        <v>7.99795304083567</v>
+        <v>6.23071713710001</v>
       </c>
       <c r="K42">
-        <v>5.43845217703265</v>
+        <v>5.28577038186787</v>
       </c>
       <c r="L42">
-        <v>6.35961545215655</v>
+        <v>6.10536034494534</v>
       </c>
       <c r="M42">
-        <v>3.23604163911459</v>
+        <v>3.51536651463384</v>
       </c>
       <c r="N42">
-        <v>13.354704721456</v>
+        <v>11.950574613582</v>
       </c>
       <c r="O42">
-        <v>403.612608004289</v>
+        <v>389.315408462462</v>
       </c>
       <c r="P42">
-        <v>59.4184586891712</v>
+        <v>57.5292473639467</v>
       </c>
     </row>
     <row r="43">
@@ -2578,49 +2578,49 @@
         </is>
       </c>
       <c r="B43">
-        <v>1472.37598588668</v>
+        <v>1501.73842090594</v>
       </c>
       <c r="C43">
-        <v>41.9020829051947</v>
+        <v>45.4823756197246</v>
       </c>
       <c r="D43">
-        <v>23.742254767914</v>
+        <v>22.0484809517043</v>
       </c>
       <c r="E43">
-        <v>64.11098317223529</v>
+        <v>67.39441451148871</v>
       </c>
       <c r="F43">
-        <v>6.67583812327765</v>
+        <v>6.62843956895275</v>
       </c>
       <c r="G43">
-        <v>27.2092863327133</v>
+        <v>27.90911587858</v>
       </c>
       <c r="H43">
-        <v>39.438908017427</v>
+        <v>34.7785597262322</v>
       </c>
       <c r="I43">
-        <v>5.64944095681552</v>
+        <v>7.48014051760278</v>
       </c>
       <c r="J43">
-        <v>55.1722803053111</v>
+        <v>52.9308829882148</v>
       </c>
       <c r="K43">
-        <v>5.52602253650123</v>
+        <v>7.70490774560461</v>
       </c>
       <c r="L43">
-        <v>29.0005065551269</v>
+        <v>28.656636565774</v>
       </c>
       <c r="M43">
-        <v>72.0600381286273</v>
+        <v>68.03066309706701</v>
       </c>
       <c r="N43">
-        <v>68.27841046871851</v>
+        <v>68.13398040060871</v>
       </c>
       <c r="O43">
-        <v>2259.05954371848</v>
+        <v>2252.32670597688</v>
       </c>
       <c r="P43">
-        <v>35.5911092061763</v>
+        <v>34.520268715855</v>
       </c>
     </row>
     <row r="44">
@@ -2630,49 +2630,49 @@
         </is>
       </c>
       <c r="B44">
-        <v>4260.91774291599</v>
+        <v>4369.10720596126</v>
       </c>
       <c r="C44">
-        <v>140.473347786228</v>
+        <v>145.885639670672</v>
       </c>
       <c r="D44">
-        <v>22.0278828832799</v>
+        <v>20.0922262069168</v>
       </c>
       <c r="E44">
-        <v>89.45671735103601</v>
+        <v>87.4617308679732</v>
       </c>
       <c r="F44">
-        <v>282.51831991215</v>
+        <v>284.138972037898</v>
       </c>
       <c r="G44">
-        <v>130.859282364655</v>
+        <v>128.582850835711</v>
       </c>
       <c r="H44">
-        <v>23.8457304293348</v>
+        <v>26.9976591917602</v>
       </c>
       <c r="I44">
-        <v>38.3324594767483</v>
+        <v>40.1383679827692</v>
       </c>
       <c r="J44">
-        <v>111.318794078444</v>
+        <v>114.665488387129</v>
       </c>
       <c r="K44">
-        <v>31.2874518023932</v>
+        <v>32.7127112969204</v>
       </c>
       <c r="L44">
-        <v>194.452965226339</v>
+        <v>184.464855522109</v>
       </c>
       <c r="M44">
-        <v>97.1381371389499</v>
+        <v>96.8311675013604</v>
       </c>
       <c r="N44">
-        <v>85.8207201744823</v>
+        <v>87.58916842614531</v>
       </c>
       <c r="O44">
-        <v>8601.0916876269</v>
+        <v>8617.71990372929</v>
       </c>
       <c r="P44">
-        <v>170.007060605786</v>
+        <v>180.644046887904</v>
       </c>
     </row>
     <row r="45">
@@ -2682,49 +2682,49 @@
         </is>
       </c>
       <c r="B45">
-        <v>384.849393491668</v>
+        <v>398.510427881337</v>
       </c>
       <c r="C45">
-        <v>17.7217640876702</v>
+        <v>17.1060375489903</v>
       </c>
       <c r="D45">
-        <v>1.21209599303019</v>
+        <v>1.54717163253814</v>
       </c>
       <c r="E45">
-        <v>12.9142308165563</v>
+        <v>13.4851180235196</v>
       </c>
       <c r="F45">
-        <v>26.315073649248</v>
+        <v>25.3277529183863</v>
       </c>
       <c r="G45">
-        <v>9.34024126506236</v>
+        <v>9.21362364189684</v>
       </c>
       <c r="H45">
-        <v>1.25207443714431</v>
+        <v>1.5556561448243</v>
       </c>
       <c r="I45">
-        <v>1.95677730492162</v>
+        <v>2.12224091387876</v>
       </c>
       <c r="J45">
-        <v>23.3953423610233</v>
+        <v>23.4744777698229</v>
       </c>
       <c r="K45">
-        <v>2.68557867250214</v>
+        <v>2.62994256792032</v>
       </c>
       <c r="L45">
-        <v>13.1631135825211</v>
+        <v>13.4918937785825</v>
       </c>
       <c r="M45">
-        <v>13.1602000849442</v>
+        <v>12.9040562004046</v>
       </c>
       <c r="N45">
-        <v>33.7430732776033</v>
+        <v>33.6167971915784</v>
       </c>
       <c r="O45">
-        <v>938.424348883012</v>
+        <v>927.301914274172</v>
       </c>
       <c r="P45">
-        <v>16.9732741655791</v>
+        <v>16.3492697956831</v>
       </c>
     </row>
     <row r="46">
@@ -2734,49 +2734,49 @@
         </is>
       </c>
       <c r="B46">
-        <v>117.741341195151</v>
+        <v>113.785379306093</v>
       </c>
       <c r="C46">
-        <v>4.98932112479955</v>
+        <v>4.71456101595573</v>
       </c>
       <c r="D46">
-        <v>0.748144809207932</v>
+        <v>0.644370292231354</v>
       </c>
       <c r="E46">
-        <v>5.79668588044868</v>
+        <v>5.34748805884453</v>
       </c>
       <c r="F46">
-        <v>0.929429390200298</v>
+        <v>1.02182295085068</v>
       </c>
       <c r="G46">
-        <v>1.52939880392739</v>
+        <v>1.63885373771926</v>
       </c>
       <c r="H46">
-        <v>1.01199077206431</v>
+        <v>0.71159774716742</v>
       </c>
       <c r="I46">
-        <v>2.17709547429914</v>
+        <v>2.18099599280684</v>
       </c>
       <c r="J46">
-        <v>5.75929810749469</v>
+        <v>5.21231258585426</v>
       </c>
       <c r="K46">
-        <v>1.30891543234195</v>
+        <v>1.11898711582748</v>
       </c>
       <c r="L46">
-        <v>14.2771642860208</v>
+        <v>13.2041043076766</v>
       </c>
       <c r="M46">
-        <v>3.60769597349095</v>
+        <v>3.53347711561173</v>
       </c>
       <c r="N46">
-        <v>8.60252205089826</v>
+        <v>8.698669511615201</v>
       </c>
       <c r="O46">
-        <v>336.170267526948</v>
+        <v>323.484788052661</v>
       </c>
       <c r="P46">
-        <v>8.977027399750069</v>
+        <v>8.750147069319089</v>
       </c>
     </row>
     <row r="47">
@@ -2786,49 +2786,49 @@
         </is>
       </c>
       <c r="B47">
-        <v>1405.11190400857</v>
+        <v>1414.24938523097</v>
       </c>
       <c r="C47">
-        <v>46.2886842138689</v>
+        <v>47.1577269546057</v>
       </c>
       <c r="D47">
-        <v>7.16037014613918</v>
+        <v>7.9365617745703</v>
       </c>
       <c r="E47">
-        <v>38.809542820785</v>
+        <v>37.6086968143176</v>
       </c>
       <c r="F47">
-        <v>9.59314823719064</v>
+        <v>10.2673068118589</v>
       </c>
       <c r="G47">
-        <v>25.6416856902602</v>
+        <v>25.7884812844717</v>
       </c>
       <c r="H47">
-        <v>15.7513614461832</v>
+        <v>14.9889421513338</v>
       </c>
       <c r="I47">
-        <v>11.1751197953933</v>
+        <v>9.87183714667743</v>
       </c>
       <c r="J47">
-        <v>27.0679692529513</v>
+        <v>29.5833092973245</v>
       </c>
       <c r="K47">
-        <v>4.04768583628225</v>
+        <v>4.39103892325006</v>
       </c>
       <c r="L47">
-        <v>21.6152043789391</v>
+        <v>20.7484874785774</v>
       </c>
       <c r="M47">
-        <v>68.61684587683401</v>
+        <v>65.56713114304461</v>
       </c>
       <c r="N47">
-        <v>24.2354364627356</v>
+        <v>27.4586903181225</v>
       </c>
       <c r="O47">
-        <v>3089.38340125901</v>
+        <v>3082.21439887247</v>
       </c>
       <c r="P47">
-        <v>46.8519776564899</v>
+        <v>48.4029998016306</v>
       </c>
     </row>
     <row r="48">
@@ -2838,49 +2838,49 @@
         </is>
       </c>
       <c r="B48">
-        <v>1188.64235248604</v>
+        <v>1219.21159002359</v>
       </c>
       <c r="C48">
-        <v>32.7360006402942</v>
+        <v>31.2864621292713</v>
       </c>
       <c r="D48">
-        <v>7.58671295086119</v>
+        <v>5.61601589235378</v>
       </c>
       <c r="E48">
-        <v>63.5058992263712</v>
+        <v>67.3596674807103</v>
       </c>
       <c r="F48">
-        <v>11.0835982561867</v>
+        <v>12.5463975432457</v>
       </c>
       <c r="G48">
-        <v>7.55079915304117</v>
+        <v>7.89384859733527</v>
       </c>
       <c r="H48">
-        <v>11.1305031138587</v>
+        <v>10.8786748236898</v>
       </c>
       <c r="I48">
-        <v>7.5915990043774</v>
+        <v>8.633141720355921</v>
       </c>
       <c r="J48">
-        <v>38.3881000515722</v>
+        <v>35.5226102460779</v>
       </c>
       <c r="K48">
-        <v>8.43298243532162</v>
+        <v>9.25239298550809</v>
       </c>
       <c r="L48">
-        <v>51.7077330422206</v>
+        <v>49.6974848080944</v>
       </c>
       <c r="M48">
-        <v>150.032585757588</v>
+        <v>154.985329971831</v>
       </c>
       <c r="N48">
-        <v>52.8651239687964</v>
+        <v>43.7938043805751</v>
       </c>
       <c r="O48">
-        <v>2502.19693915541</v>
+        <v>2502.14541314436</v>
       </c>
       <c r="P48">
-        <v>90.73700532417711</v>
+        <v>87.83569159301121</v>
       </c>
     </row>
     <row r="49">
@@ -2890,49 +2890,49 @@
         </is>
       </c>
       <c r="B49">
-        <v>687.883742088984</v>
+        <v>680.209556284583</v>
       </c>
       <c r="C49">
-        <v>5.36611928326379</v>
+        <v>5.17976630894311</v>
       </c>
       <c r="D49">
-        <v>0.187969347220342</v>
+        <v>0.25366322960848</v>
       </c>
       <c r="E49">
-        <v>21.4993424224433</v>
+        <v>20.1454917333261</v>
       </c>
       <c r="F49">
-        <v>32.9560572670928</v>
+        <v>33.3407180730671</v>
       </c>
       <c r="G49">
-        <v>13.5749122221194</v>
+        <v>12.9086929182526</v>
       </c>
       <c r="H49">
-        <v>3.50638956479226</v>
+        <v>4.14149277720912</v>
       </c>
       <c r="I49">
-        <v>2.40526641363247</v>
+        <v>3.05074200967973</v>
       </c>
       <c r="J49">
-        <v>20.0767621646747</v>
+        <v>19.5283296087069</v>
       </c>
       <c r="K49">
-        <v>3.06470800672559</v>
+        <v>2.10337380329199</v>
       </c>
       <c r="L49">
-        <v>1.58763730785053</v>
+        <v>2.34309292772141</v>
       </c>
       <c r="M49">
-        <v>4.22037940918713</v>
+        <v>3.62480531269663</v>
       </c>
       <c r="N49">
-        <v>9.467382884870091</v>
+        <v>7.60207907464149</v>
       </c>
       <c r="O49">
-        <v>665.322749044673</v>
+        <v>652.396290573427</v>
       </c>
       <c r="P49">
-        <v>10.4884404720164</v>
+        <v>9.97858681560983</v>
       </c>
     </row>
     <row r="50">
@@ -2942,49 +2942,49 @@
         </is>
       </c>
       <c r="B50">
-        <v>917.154074712299</v>
+        <v>932.089743541496</v>
       </c>
       <c r="C50">
-        <v>62.2590414578287</v>
+        <v>67.9299872640525</v>
       </c>
       <c r="D50">
-        <v>5.17340858102404</v>
+        <v>5.98683334411076</v>
       </c>
       <c r="E50">
-        <v>123.944922963574</v>
+        <v>124.825614934646</v>
       </c>
       <c r="F50">
-        <v>3.02032119149898</v>
+        <v>4.21003174502675</v>
       </c>
       <c r="G50">
-        <v>32.8209745408578</v>
+        <v>33.6373679311535</v>
       </c>
       <c r="H50">
-        <v>45.7340444278829</v>
+        <v>38.6568754218501</v>
       </c>
       <c r="I50">
-        <v>10.4613522821199</v>
+        <v>11.2254491409907</v>
       </c>
       <c r="J50">
-        <v>71.9567981435129</v>
+        <v>74.102616856162</v>
       </c>
       <c r="K50">
-        <v>42.3310874851231</v>
+        <v>40.2828031766388</v>
       </c>
       <c r="L50">
-        <v>70.8930042844476</v>
+        <v>68.2776722071622</v>
       </c>
       <c r="M50">
-        <v>54.2513114579816</v>
+        <v>49.2335081220136</v>
       </c>
       <c r="N50">
-        <v>61.1828567442887</v>
+        <v>58.1452477056954</v>
       </c>
       <c r="O50">
-        <v>2194.44419789887</v>
+        <v>2184.24814631514</v>
       </c>
       <c r="P50">
-        <v>91.28666753031369</v>
+        <v>86.7622865746654</v>
       </c>
     </row>
     <row r="51">
@@ -2994,49 +2994,49 @@
         </is>
       </c>
       <c r="B51">
-        <v>112.612904080525</v>
+        <v>108.645244195363</v>
       </c>
       <c r="C51">
-        <v>1.27929097611456</v>
+        <v>1.24302658665632</v>
       </c>
       <c r="D51">
-        <v>0.0889994577539663</v>
+        <v>0.0482794152052773</v>
       </c>
       <c r="E51">
-        <v>1.76492842026099</v>
+        <v>1.67354854366015</v>
       </c>
       <c r="F51">
-        <v>41.1057962175344</v>
+        <v>37.2195734601274</v>
       </c>
       <c r="G51">
-        <v>2.79044781620749</v>
+        <v>2.45206095488926</v>
       </c>
       <c r="H51">
-        <v>0.321255019568825</v>
+        <v>0.229548277463661</v>
       </c>
       <c r="I51">
-        <v>2.10157646882567</v>
+        <v>1.92716674343907</v>
       </c>
       <c r="J51">
-        <v>1.77092080902259</v>
+        <v>1.34527580104428</v>
       </c>
       <c r="K51">
-        <v>1.61979652878312</v>
+        <v>1.37090247338927</v>
       </c>
       <c r="L51">
-        <v>0.717651583658964</v>
+        <v>0.841779120713289</v>
       </c>
       <c r="M51">
-        <v>0.7277657979057161</v>
+        <v>0.479421648741856</v>
       </c>
       <c r="N51">
-        <v>0.732193260872439</v>
+        <v>1.00663682899508</v>
       </c>
       <c r="O51">
-        <v>298.549145394478</v>
+        <v>278.660719764065</v>
       </c>
       <c r="P51">
-        <v>28.7374253808371</v>
+        <v>26.9741137879833</v>
       </c>
     </row>
     <row r="52">

--- a/1-Data-Codes/2-Final_Data/L_2007.xlsx
+++ b/1-Data-Codes/2-Final_Data/L_2007.xlsx
@@ -446,49 +446,49 @@
         </is>
       </c>
       <c r="B2">
-        <v>1330.15764304506</v>
+        <v>1284.75418961266</v>
       </c>
       <c r="C2">
-        <v>23.6553248370999</v>
+        <v>18.7934140835106</v>
       </c>
       <c r="D2">
-        <v>24.9724738939737</v>
+        <v>28.308669549776</v>
       </c>
       <c r="E2">
-        <v>48.1702141522299</v>
+        <v>47.2848608675636</v>
       </c>
       <c r="F2">
-        <v>20.4855105731083</v>
+        <v>22.8860061766959</v>
       </c>
       <c r="G2">
-        <v>19.6741280137473</v>
+        <v>19.6002408301174</v>
       </c>
       <c r="H2">
-        <v>11.2253160901051</v>
+        <v>9.4022570196217</v>
       </c>
       <c r="I2">
-        <v>10.7146580658806</v>
+        <v>13.0395314939614</v>
       </c>
       <c r="J2">
-        <v>66.7064240394253</v>
+        <v>68.14537952368011</v>
       </c>
       <c r="K2">
-        <v>13.4366882665764</v>
+        <v>9.804732895308749</v>
       </c>
       <c r="L2">
-        <v>48.8421071650218</v>
+        <v>54.4175206927272</v>
       </c>
       <c r="M2">
-        <v>56.402906892968</v>
+        <v>70.75776504002511</v>
       </c>
       <c r="N2">
-        <v>27.3364389387732</v>
+        <v>21.3696413161511</v>
       </c>
       <c r="O2">
-        <v>1512.89791867095</v>
+        <v>1528.72823259715</v>
       </c>
       <c r="P2">
-        <v>20.4889262425575</v>
+        <v>25.2107324343464</v>
       </c>
     </row>
     <row r="3">
@@ -498,49 +498,49 @@
         </is>
       </c>
       <c r="B3">
-        <v>135.060751090426</v>
+        <v>94.00639435132651</v>
       </c>
       <c r="C3">
-        <v>1.29746167103041</v>
+        <v>0.573739114790136</v>
       </c>
       <c r="D3">
-        <v>0.324294888372714</v>
+        <v>0.275052444128153</v>
       </c>
       <c r="E3">
-        <v>1.32857923336713</v>
+        <v>0.907651961588405</v>
       </c>
       <c r="F3">
-        <v>11.8194612402762</v>
+        <v>8.89898972386152</v>
       </c>
       <c r="G3">
-        <v>0.343933409365183</v>
+        <v>0.34174211725571</v>
       </c>
       <c r="H3">
-        <v>0.223976391588858</v>
+        <v>0.159404196656882</v>
       </c>
       <c r="I3">
-        <v>0.664072674529938</v>
+        <v>0.390250066003494</v>
       </c>
       <c r="J3">
-        <v>0.285543875656406</v>
+        <v>0.302705996487674</v>
       </c>
       <c r="K3">
-        <v>0.227253618125766</v>
+        <v>0.152226764649032</v>
       </c>
       <c r="L3">
-        <v>0.584098164482081</v>
+        <v>0.222370742567641</v>
       </c>
       <c r="M3">
-        <v>0.52161032000148</v>
+        <v>0.492615339765484</v>
       </c>
       <c r="N3">
-        <v>1.36624905537901</v>
+        <v>1.28326285076978</v>
       </c>
       <c r="O3">
-        <v>299.859064911969</v>
+        <v>215.131276015194</v>
       </c>
       <c r="P3">
-        <v>11.1006962886391</v>
+        <v>8.12118375604746</v>
       </c>
     </row>
     <row r="4">
@@ -550,49 +550,49 @@
         </is>
       </c>
       <c r="B4">
-        <v>1379.51606033796</v>
+        <v>1390.55185694876</v>
       </c>
       <c r="C4">
-        <v>14.3725299846934</v>
+        <v>17.5615009500734</v>
       </c>
       <c r="D4">
-        <v>1.89880707591056</v>
+        <v>1.78702253684001</v>
       </c>
       <c r="E4">
-        <v>17.6714225692759</v>
+        <v>20.0692592194784</v>
       </c>
       <c r="F4">
-        <v>13.3082359983456</v>
+        <v>11.9463511162946</v>
       </c>
       <c r="G4">
-        <v>8.092605956695611</v>
+        <v>8.45904875736788</v>
       </c>
       <c r="H4">
-        <v>2.71277190506068</v>
+        <v>3.46310916037601</v>
       </c>
       <c r="I4">
-        <v>6.36392831641504</v>
+        <v>6.91188500990264</v>
       </c>
       <c r="J4">
-        <v>32.0949513243027</v>
+        <v>32.1612542458647</v>
       </c>
       <c r="K4">
-        <v>3.73896569202328</v>
+        <v>2.34596481620701</v>
       </c>
       <c r="L4">
-        <v>63.0385142564657</v>
+        <v>68.6892110341724</v>
       </c>
       <c r="M4">
-        <v>42.876175942532</v>
+        <v>42.1455217706869</v>
       </c>
       <c r="N4">
-        <v>32.7541080085703</v>
+        <v>30.2276023334726</v>
       </c>
       <c r="O4">
-        <v>2305.89874261529</v>
+        <v>2367.41975718136</v>
       </c>
       <c r="P4">
-        <v>11.9498857411701</v>
+        <v>11.1551447812898</v>
       </c>
     </row>
     <row r="5">
@@ -602,49 +602,49 @@
         </is>
       </c>
       <c r="B5">
-        <v>696.40208878943</v>
+        <v>682.235228426522</v>
       </c>
       <c r="C5">
-        <v>49.0856520326375</v>
+        <v>52.6534550874195</v>
       </c>
       <c r="D5">
-        <v>9.446988454416511</v>
+        <v>11.2374464474828</v>
       </c>
       <c r="E5">
-        <v>22.3860083873041</v>
+        <v>22.102237039373</v>
       </c>
       <c r="F5">
-        <v>8.008351947164639</v>
+        <v>6.90225345304024</v>
       </c>
       <c r="G5">
-        <v>6.69818936933985</v>
+        <v>7.33125827278216</v>
       </c>
       <c r="H5">
-        <v>9.46236312772759</v>
+        <v>10.3604135585777</v>
       </c>
       <c r="I5">
-        <v>6.59365970118152</v>
+        <v>7.16266691894386</v>
       </c>
       <c r="J5">
-        <v>27.2907789029706</v>
+        <v>26.1461271426562</v>
       </c>
       <c r="K5">
-        <v>3.29791053641392</v>
+        <v>4.40540024531345</v>
       </c>
       <c r="L5">
-        <v>11.2636995866502</v>
+        <v>9.701654797600799</v>
       </c>
       <c r="M5">
-        <v>17.1911609743879</v>
+        <v>22.1669147236321</v>
       </c>
       <c r="N5">
-        <v>27.6377050827625</v>
+        <v>31.8333803067733</v>
       </c>
       <c r="O5">
-        <v>1012.67584926457</v>
+        <v>1056.23405646255</v>
       </c>
       <c r="P5">
-        <v>50.3342813718161</v>
+        <v>54.3325319564754</v>
       </c>
     </row>
     <row r="6">
@@ -654,49 +654,49 @@
         </is>
       </c>
       <c r="B6">
-        <v>7145.16707906536</v>
+        <v>7029.70153398451</v>
       </c>
       <c r="C6">
-        <v>198.994985220694</v>
+        <v>200.162933052244</v>
       </c>
       <c r="D6">
-        <v>37.5471377636869</v>
+        <v>33.3976447416189</v>
       </c>
       <c r="E6">
-        <v>152.236871776699</v>
+        <v>154.153692418211</v>
       </c>
       <c r="F6">
-        <v>43.7498052352083</v>
+        <v>45.5731034871519</v>
       </c>
       <c r="G6">
-        <v>106.459126842854</v>
+        <v>104.100297899226</v>
       </c>
       <c r="H6">
-        <v>48.8011410435621</v>
+        <v>47.8018285748832</v>
       </c>
       <c r="I6">
-        <v>37.4604343524735</v>
+        <v>34.8196396228528</v>
       </c>
       <c r="J6">
-        <v>150.121495490308</v>
+        <v>157.540687793082</v>
       </c>
       <c r="K6">
-        <v>35.9712370384722</v>
+        <v>35.0649993854291</v>
       </c>
       <c r="L6">
-        <v>417.933255203167</v>
+        <v>455.659488353123</v>
       </c>
       <c r="M6">
-        <v>239.718731071801</v>
+        <v>240.142677948575</v>
       </c>
       <c r="N6">
-        <v>289.003226847948</v>
+        <v>319.379222247192</v>
       </c>
       <c r="O6">
-        <v>13167.1880501042</v>
+        <v>13581.1827275802</v>
       </c>
       <c r="P6">
-        <v>277.009019141582</v>
+        <v>285.645540313822</v>
       </c>
     </row>
     <row r="7">
@@ -706,49 +706,49 @@
         </is>
       </c>
       <c r="B7">
-        <v>758.494439077211</v>
+        <v>755.246469527511</v>
       </c>
       <c r="C7">
-        <v>41.8877353208322</v>
+        <v>46.7436412180844</v>
       </c>
       <c r="D7">
-        <v>4.13258966424146</v>
+        <v>4.13519302005539</v>
       </c>
       <c r="E7">
-        <v>18.9301090035741</v>
+        <v>17.6975764362833</v>
       </c>
       <c r="F7">
-        <v>22.1345028369819</v>
+        <v>24.9026061510337</v>
       </c>
       <c r="G7">
-        <v>12.0311297160782</v>
+        <v>12.1519803476669</v>
       </c>
       <c r="H7">
-        <v>2.36012407906688</v>
+        <v>2.96941159133844</v>
       </c>
       <c r="I7">
-        <v>10.2184897778756</v>
+        <v>9.688375026875571</v>
       </c>
       <c r="J7">
-        <v>19.7339879108604</v>
+        <v>22.4016228093817</v>
       </c>
       <c r="K7">
-        <v>6.72992333461265</v>
+        <v>7.77604351841402</v>
       </c>
       <c r="L7">
-        <v>43.2137832453781</v>
+        <v>46.6638706518178</v>
       </c>
       <c r="M7">
-        <v>20.7654299516184</v>
+        <v>23.6659875726099</v>
       </c>
       <c r="N7">
-        <v>22.8688524309165</v>
+        <v>25.6514092351149</v>
       </c>
       <c r="O7">
-        <v>1992.01026686599</v>
+        <v>2064.78300304076</v>
       </c>
       <c r="P7">
-        <v>30.3289320742568</v>
+        <v>33.2319816080987</v>
       </c>
     </row>
     <row r="8">
@@ -758,49 +758,49 @@
         </is>
       </c>
       <c r="B8">
-        <v>612.203574531391</v>
+        <v>590.258340650856</v>
       </c>
       <c r="C8">
-        <v>11.8016828183628</v>
+        <v>12.5655619902848</v>
       </c>
       <c r="D8">
-        <v>2.80252626234846</v>
+        <v>3.15823166962468</v>
       </c>
       <c r="E8">
-        <v>20.5188146271596</v>
+        <v>19.246494605091</v>
       </c>
       <c r="F8">
-        <v>2.49140512054947</v>
+        <v>3.49652750796028</v>
       </c>
       <c r="G8">
-        <v>22.3976294159778</v>
+        <v>21.8672591793669</v>
       </c>
       <c r="H8">
-        <v>7.50087066683219</v>
+        <v>7.87712552211835</v>
       </c>
       <c r="I8">
-        <v>6.71632038431315</v>
+        <v>8.26897698980893</v>
       </c>
       <c r="J8">
-        <v>38.7311193690721</v>
+        <v>44.567652137779</v>
       </c>
       <c r="K8">
-        <v>8.118281193111841</v>
+        <v>8.823167306525971</v>
       </c>
       <c r="L8">
-        <v>35.964253499279</v>
+        <v>39.1688200169941</v>
       </c>
       <c r="M8">
-        <v>51.9470918600277</v>
+        <v>54.4825592252946</v>
       </c>
       <c r="N8">
-        <v>31.2510654167988</v>
+        <v>32.6876813490127</v>
       </c>
       <c r="O8">
-        <v>1437.19229522332</v>
+        <v>1472.99475073222</v>
       </c>
       <c r="P8">
-        <v>8.59557927356116</v>
+        <v>10.636508886314</v>
       </c>
     </row>
     <row r="9">
@@ -810,49 +810,49 @@
         </is>
       </c>
       <c r="B9">
-        <v>196.635983593847</v>
+        <v>158.450178623454</v>
       </c>
       <c r="C9">
-        <v>8.87143152397933</v>
+        <v>6.9833433880166</v>
       </c>
       <c r="D9">
-        <v>2.09775474633801</v>
+        <v>1.47630545701622</v>
       </c>
       <c r="E9">
-        <v>4.13317969587231</v>
+        <v>3.72843949464635</v>
       </c>
       <c r="F9">
-        <v>1.4936971193567</v>
+        <v>0.951233100654116</v>
       </c>
       <c r="G9">
-        <v>20.1856347505787</v>
+        <v>20.6117583225985</v>
       </c>
       <c r="H9">
-        <v>2.33175450178994</v>
+        <v>2.22227648550048</v>
       </c>
       <c r="I9">
-        <v>1.50285138404176</v>
+        <v>1.5157759041121</v>
       </c>
       <c r="J9">
-        <v>3.78686441508713</v>
+        <v>2.9350185187243</v>
       </c>
       <c r="K9">
-        <v>0.69664137711719</v>
+        <v>0.380712947775512</v>
       </c>
       <c r="L9">
-        <v>2.44928253373503</v>
+        <v>2.26984377376978</v>
       </c>
       <c r="M9">
-        <v>5.51074897441825</v>
+        <v>6.12245804063318</v>
       </c>
       <c r="N9">
-        <v>2.86519852143071</v>
+        <v>1.96877886910385</v>
       </c>
       <c r="O9">
-        <v>419.668865170363</v>
+        <v>364.930725092718</v>
       </c>
       <c r="P9">
-        <v>5.85967678000607</v>
+        <v>5.00145619585579</v>
       </c>
     </row>
     <row r="10">
@@ -862,49 +862,49 @@
         </is>
       </c>
       <c r="B10">
-        <v>3984.65055277032</v>
+        <v>3917.96887256837</v>
       </c>
       <c r="C10">
-        <v>52.6060925810486</v>
+        <v>51.7710838933126</v>
       </c>
       <c r="D10">
-        <v>10.5040515512106</v>
+        <v>9.732292460980551</v>
       </c>
       <c r="E10">
-        <v>64.79134961824791</v>
+        <v>69.5475660786595</v>
       </c>
       <c r="F10">
-        <v>9.68016534800382</v>
+        <v>10.4185297680537</v>
       </c>
       <c r="G10">
-        <v>42.7490678275055</v>
+        <v>43.6729241108742</v>
       </c>
       <c r="H10">
-        <v>11.398030113444</v>
+        <v>12.6008528080058</v>
       </c>
       <c r="I10">
-        <v>20.2952564236578</v>
+        <v>20.8579065072461</v>
       </c>
       <c r="J10">
-        <v>52.8001407249814</v>
+        <v>53.6313452470402</v>
       </c>
       <c r="K10">
-        <v>9.57847537760594</v>
+        <v>11.302504717047</v>
       </c>
       <c r="L10">
-        <v>61.4126256808515</v>
+        <v>58.3214602525916</v>
       </c>
       <c r="M10">
-        <v>84.827378639355</v>
+        <v>81.6239227640468</v>
       </c>
       <c r="N10">
-        <v>87.0579306126311</v>
+        <v>89.141777997324</v>
       </c>
       <c r="O10">
-        <v>7835.67832640926</v>
+        <v>7927.46814416793</v>
       </c>
       <c r="P10">
-        <v>61.6060004638323</v>
+        <v>59.4621078457515</v>
       </c>
     </row>
     <row r="11">
@@ -914,49 +914,49 @@
         </is>
       </c>
       <c r="B11">
-        <v>1970.99873995132</v>
+        <v>1913.98092092191</v>
       </c>
       <c r="C11">
-        <v>66.9015782978074</v>
+        <v>68.52385290557589</v>
       </c>
       <c r="D11">
-        <v>104.429515381108</v>
+        <v>107.645902707966</v>
       </c>
       <c r="E11">
-        <v>80.029551784858</v>
+        <v>82.39919928739541</v>
       </c>
       <c r="F11">
-        <v>14.5976828733796</v>
+        <v>15.1282181029076</v>
       </c>
       <c r="G11">
-        <v>26.1162064309104</v>
+        <v>30.7929607712176</v>
       </c>
       <c r="H11">
-        <v>24.0664816208915</v>
+        <v>23.0715939346189</v>
       </c>
       <c r="I11">
-        <v>11.5801182105486</v>
+        <v>10.9932649189589</v>
       </c>
       <c r="J11">
-        <v>40.6881038152776</v>
+        <v>43.3347444074629</v>
       </c>
       <c r="K11">
-        <v>7.44284827348531</v>
+        <v>5.43363934467075</v>
       </c>
       <c r="L11">
-        <v>39.5091019849651</v>
+        <v>49.5024438934795</v>
       </c>
       <c r="M11">
-        <v>52.2037658152094</v>
+        <v>68.6997286187749</v>
       </c>
       <c r="N11">
-        <v>59.6149912162795</v>
+        <v>58.1697066210397</v>
       </c>
       <c r="O11">
-        <v>3390.4514711125</v>
+        <v>3465.01568804675</v>
       </c>
       <c r="P11">
-        <v>55.8311419722687</v>
+        <v>57.8049577187517</v>
       </c>
     </row>
     <row r="12">
@@ -966,49 +966,49 @@
         </is>
       </c>
       <c r="B12">
-        <v>258.886824481849</v>
+        <v>212.1382488862</v>
       </c>
       <c r="C12">
-        <v>6.97924992488732</v>
+        <v>6.65101064614869</v>
       </c>
       <c r="D12">
-        <v>0.405145973401188</v>
+        <v>0.570999535074226</v>
       </c>
       <c r="E12">
-        <v>3.00828038113519</v>
+        <v>2.54021979631572</v>
       </c>
       <c r="F12">
-        <v>0.803274929194076</v>
+        <v>0.881107880357295</v>
       </c>
       <c r="G12">
-        <v>0.284530154193459</v>
+        <v>0.150781901743904</v>
       </c>
       <c r="H12">
-        <v>0.106395704367172</v>
+        <v>0.02207224055568</v>
       </c>
       <c r="I12">
-        <v>0.683245086854175</v>
+        <v>0.659616978921957</v>
       </c>
       <c r="J12">
-        <v>1.79364660316231</v>
+        <v>1.72125758869583</v>
       </c>
       <c r="K12">
-        <v>0.32346204711185</v>
+        <v>0.661726525924846</v>
       </c>
       <c r="L12">
-        <v>0.0149897676358645</v>
+        <v>0.0134828283179153</v>
       </c>
       <c r="M12">
-        <v>2.16773068554839</v>
+        <v>1.40023172842371</v>
       </c>
       <c r="N12">
-        <v>4.75896285354723</v>
+        <v>4.94032256363042</v>
       </c>
       <c r="O12">
-        <v>631.813184746616</v>
+        <v>556.442850136287</v>
       </c>
       <c r="P12">
-        <v>18.6408990246194</v>
+        <v>14.6765666535902</v>
       </c>
     </row>
     <row r="13">
@@ -1018,49 +1018,49 @@
         </is>
       </c>
       <c r="B13">
-        <v>260.512089640505</v>
+        <v>227.066811773118</v>
       </c>
       <c r="C13">
-        <v>23.9609507235542</v>
+        <v>22.2188776240612</v>
       </c>
       <c r="D13">
-        <v>1.48214407610017</v>
+        <v>1.49999029706596</v>
       </c>
       <c r="E13">
-        <v>11.0552042337225</v>
+        <v>11.8442662303176</v>
       </c>
       <c r="F13">
-        <v>3.60829961447023</v>
+        <v>3.15340008711817</v>
       </c>
       <c r="G13">
-        <v>6.89405998949387</v>
+        <v>6.89074046597743</v>
       </c>
       <c r="H13">
-        <v>2.58554958946557</v>
+        <v>2.40060948406986</v>
       </c>
       <c r="I13">
-        <v>2.40202262544748</v>
+        <v>2.11835439267668</v>
       </c>
       <c r="J13">
-        <v>5.64750271186593</v>
+        <v>5.48632074006349</v>
       </c>
       <c r="K13">
-        <v>4.66287243910235</v>
+        <v>4.28735509122193</v>
       </c>
       <c r="L13">
-        <v>18.1582666176666</v>
+        <v>19.8689378829047</v>
       </c>
       <c r="M13">
-        <v>2.82200072634765</v>
+        <v>2.99894314696584</v>
       </c>
       <c r="N13">
-        <v>3.44941709850109</v>
+        <v>2.68200582445897</v>
       </c>
       <c r="O13">
-        <v>605.015277163277</v>
+        <v>580.531026807733</v>
       </c>
       <c r="P13">
-        <v>47.1530918453276</v>
+        <v>43.5468573527666</v>
       </c>
     </row>
     <row r="14">
@@ -1070,49 +1070,49 @@
         </is>
       </c>
       <c r="B14">
-        <v>2445.45484962951</v>
+        <v>2343.54878743777</v>
       </c>
       <c r="C14">
-        <v>117.603243455351</v>
+        <v>128.993421173722</v>
       </c>
       <c r="D14">
-        <v>8.019917631486731</v>
+        <v>9.34168204997949</v>
       </c>
       <c r="E14">
-        <v>83.6423653842873</v>
+        <v>83.2931070584674</v>
       </c>
       <c r="F14">
-        <v>16.3653075455701</v>
+        <v>13.8536302453165</v>
       </c>
       <c r="G14">
-        <v>84.0891375352449</v>
+        <v>88.3971138041281</v>
       </c>
       <c r="H14">
-        <v>46.2583532958525</v>
+        <v>50.750607322101</v>
       </c>
       <c r="I14">
-        <v>24.4578780517513</v>
+        <v>26.8396325185086</v>
       </c>
       <c r="J14">
-        <v>133.352089019932</v>
+        <v>136.686991564937</v>
       </c>
       <c r="K14">
-        <v>72.0860669169823</v>
+        <v>66.68154191945951</v>
       </c>
       <c r="L14">
-        <v>91.99123037121321</v>
+        <v>99.9929117217259</v>
       </c>
       <c r="M14">
-        <v>80.5088695578758</v>
+        <v>90.91535409560569</v>
       </c>
       <c r="N14">
-        <v>69.3680651223618</v>
+        <v>64.62464033313741</v>
       </c>
       <c r="O14">
-        <v>5018.98678890443</v>
+        <v>5129.79040207299</v>
       </c>
       <c r="P14">
-        <v>57.6282025109238</v>
+        <v>64.2991928346794</v>
       </c>
     </row>
     <row r="15">
@@ -1122,49 +1122,49 @@
         </is>
       </c>
       <c r="B15">
-        <v>1242.99522197465</v>
+        <v>1178.4769795183</v>
       </c>
       <c r="C15">
-        <v>60.6273568854444</v>
+        <v>66.330160777636</v>
       </c>
       <c r="D15">
-        <v>5.17615379433774</v>
+        <v>5.54937219108713</v>
       </c>
       <c r="E15">
-        <v>60.462941572891</v>
+        <v>58.5123985123715</v>
       </c>
       <c r="F15">
-        <v>18.1887728169032</v>
+        <v>19.9243250614498</v>
       </c>
       <c r="G15">
-        <v>62.1866603523999</v>
+        <v>57.2645198181851</v>
       </c>
       <c r="H15">
-        <v>35.1895879174073</v>
+        <v>38.3367548004137</v>
       </c>
       <c r="I15">
-        <v>24.866489735322</v>
+        <v>28.6898502871637</v>
       </c>
       <c r="J15">
-        <v>140.760231996997</v>
+        <v>142.615731824429</v>
       </c>
       <c r="K15">
-        <v>34.6121788715308</v>
+        <v>33.7268115971573</v>
       </c>
       <c r="L15">
-        <v>37.4777933287099</v>
+        <v>43.0388233228017</v>
       </c>
       <c r="M15">
-        <v>151.434570163008</v>
+        <v>157.446176180493</v>
       </c>
       <c r="N15">
-        <v>84.5217392314475</v>
+        <v>87.9278552782795</v>
       </c>
       <c r="O15">
-        <v>2255.45626769108</v>
+        <v>2296.95872512691</v>
       </c>
       <c r="P15">
-        <v>49.9108656148275</v>
+        <v>51.6809834843882</v>
       </c>
     </row>
     <row r="16">
@@ -1174,49 +1174,49 @@
         </is>
       </c>
       <c r="B16">
-        <v>452.692219437455</v>
+        <v>430.70692754972</v>
       </c>
       <c r="C16">
-        <v>73.1969218304524</v>
+        <v>68.74747114606041</v>
       </c>
       <c r="D16">
-        <v>4.7279523105599</v>
+        <v>4.27865203567402</v>
       </c>
       <c r="E16">
-        <v>32.1255024912145</v>
+        <v>30.0699666830088</v>
       </c>
       <c r="F16">
-        <v>2.34587191420769</v>
+        <v>2.78187513969625</v>
       </c>
       <c r="G16">
-        <v>15.9333130955357</v>
+        <v>14.4873491670369</v>
       </c>
       <c r="H16">
-        <v>14.4561742733227</v>
+        <v>15.0658124486181</v>
       </c>
       <c r="I16">
-        <v>5.52747842412497</v>
+        <v>3.91375688577754</v>
       </c>
       <c r="J16">
-        <v>42.6466165579576</v>
+        <v>42.5343675872113</v>
       </c>
       <c r="K16">
-        <v>38.9673014870543</v>
+        <v>41.6806568627907</v>
       </c>
       <c r="L16">
-        <v>17.8422048405024</v>
+        <v>16.1067166202128</v>
       </c>
       <c r="M16">
-        <v>24.923212882144</v>
+        <v>24.2395649909052</v>
       </c>
       <c r="N16">
-        <v>29.085793223316</v>
+        <v>29.9896929887702</v>
       </c>
       <c r="O16">
-        <v>1270.12296488307</v>
+        <v>1232.11133666512</v>
       </c>
       <c r="P16">
-        <v>89.9268888767854</v>
+        <v>86.61999972946541</v>
       </c>
     </row>
     <row r="17">
@@ -1226,49 +1226,49 @@
         </is>
       </c>
       <c r="B17">
-        <v>472.541529043514</v>
+        <v>446.733608625995</v>
       </c>
       <c r="C17">
-        <v>23.3608210360603</v>
+        <v>23.3409663989447</v>
       </c>
       <c r="D17">
-        <v>2.46842731648756</v>
+        <v>1.32957073742419</v>
       </c>
       <c r="E17">
-        <v>19.6668027489819</v>
+        <v>16.9752391717179</v>
       </c>
       <c r="F17">
-        <v>15.2906426840318</v>
+        <v>14.6849886302707</v>
       </c>
       <c r="G17">
-        <v>14.4049326470323</v>
+        <v>15.2742764326607</v>
       </c>
       <c r="H17">
-        <v>11.3030577759487</v>
+        <v>12.2004224999232</v>
       </c>
       <c r="I17">
-        <v>5.35975479662936</v>
+        <v>4.51242799750392</v>
       </c>
       <c r="J17">
-        <v>19.7924919713468</v>
+        <v>18.7132255464332</v>
       </c>
       <c r="K17">
-        <v>10.4843322837675</v>
+        <v>8.86397987329096</v>
       </c>
       <c r="L17">
-        <v>11.2087966275495</v>
+        <v>10.3503016119247</v>
       </c>
       <c r="M17">
-        <v>62.9703558612289</v>
+        <v>65.1607067438016</v>
       </c>
       <c r="N17">
-        <v>11.5133422683457</v>
+        <v>10.3812214204382</v>
       </c>
       <c r="O17">
-        <v>1122.1360747175</v>
+        <v>1098.0591685312</v>
       </c>
       <c r="P17">
-        <v>49.7626455750329</v>
+        <v>48.1505462302276</v>
       </c>
     </row>
     <row r="18">
@@ -1278,49 +1278,49 @@
         </is>
       </c>
       <c r="B18">
-        <v>1147.35626943959</v>
+        <v>1079.56495540544</v>
       </c>
       <c r="C18">
-        <v>31.6293781756341</v>
+        <v>30.4729518682033</v>
       </c>
       <c r="D18">
-        <v>3.21863266658912</v>
+        <v>4.38113362280052</v>
       </c>
       <c r="E18">
-        <v>29.0510585169519</v>
+        <v>30.3654481616002</v>
       </c>
       <c r="F18">
-        <v>36.3612560636063</v>
+        <v>40.7558370621366</v>
       </c>
       <c r="G18">
-        <v>11.2289925493372</v>
+        <v>12.5183179617184</v>
       </c>
       <c r="H18">
-        <v>9.092303035563941</v>
+        <v>8.7649044263503</v>
       </c>
       <c r="I18">
-        <v>6.77399841872487</v>
+        <v>6.22396574678258</v>
       </c>
       <c r="J18">
-        <v>22.1543330716022</v>
+        <v>19.2344799632445</v>
       </c>
       <c r="K18">
-        <v>7.39198619555622</v>
+        <v>6.38812952467193</v>
       </c>
       <c r="L18">
-        <v>25.5634850486808</v>
+        <v>27.1526670524629</v>
       </c>
       <c r="M18">
-        <v>56.5468392184069</v>
+        <v>59.599565496944</v>
       </c>
       <c r="N18">
-        <v>22.9370908511674</v>
+        <v>21.502794750854</v>
       </c>
       <c r="O18">
-        <v>1584.25788801328</v>
+        <v>1538.51446910495</v>
       </c>
       <c r="P18">
-        <v>56.2299529288501</v>
+        <v>56.2883914701655</v>
       </c>
     </row>
     <row r="19">
@@ -1330,49 +1330,49 @@
         </is>
       </c>
       <c r="B19">
-        <v>1036.47379069223</v>
+        <v>949.761440488694</v>
       </c>
       <c r="C19">
-        <v>34.7498992481813</v>
+        <v>34.1062855456221</v>
       </c>
       <c r="D19">
-        <v>5.54468075459663</v>
+        <v>9.79931002537497</v>
       </c>
       <c r="E19">
-        <v>34.8448536057915</v>
+        <v>30.6601156204187</v>
       </c>
       <c r="F19">
-        <v>75.4348157049086</v>
+        <v>78.9276029242247</v>
       </c>
       <c r="G19">
-        <v>45.9442960640267</v>
+        <v>45.2668390862789</v>
       </c>
       <c r="H19">
-        <v>8.885462330663319</v>
+        <v>11.4127709734298</v>
       </c>
       <c r="I19">
-        <v>5.06619468717728</v>
+        <v>5.64596276266323</v>
       </c>
       <c r="J19">
-        <v>18.8974149025154</v>
+        <v>20.1519068053888</v>
       </c>
       <c r="K19">
-        <v>5.95386018561039</v>
+        <v>7.72719708820836</v>
       </c>
       <c r="L19">
-        <v>6.09580682709796</v>
+        <v>7.69848228333908</v>
       </c>
       <c r="M19">
-        <v>18.2074505477808</v>
+        <v>14.4240595159071</v>
       </c>
       <c r="N19">
-        <v>13.6769871879581</v>
+        <v>16.5856867053897</v>
       </c>
       <c r="O19">
-        <v>1624.0403864427</v>
+        <v>1637.27716912154</v>
       </c>
       <c r="P19">
-        <v>35.2417011937363</v>
+        <v>34.2692303595062</v>
       </c>
     </row>
     <row r="20">
@@ -1382,49 +1382,49 @@
         </is>
       </c>
       <c r="B20">
-        <v>280.985839289304</v>
+        <v>265.462941343412</v>
       </c>
       <c r="C20">
-        <v>8.73569048096021</v>
+        <v>8.452335305842711</v>
       </c>
       <c r="D20">
-        <v>5.82790732218467</v>
+        <v>5.90542808830762</v>
       </c>
       <c r="E20">
-        <v>28.2292632901511</v>
+        <v>28.8591775727573</v>
       </c>
       <c r="F20">
-        <v>0.896802484422101</v>
+        <v>1.18365845632448</v>
       </c>
       <c r="G20">
-        <v>3.57061854298465</v>
+        <v>4.16750721611311</v>
       </c>
       <c r="H20">
-        <v>1.42374600818832</v>
+        <v>1.61628877015871</v>
       </c>
       <c r="I20">
-        <v>2.21175756406557</v>
+        <v>2.6674361439993</v>
       </c>
       <c r="J20">
-        <v>5.6411511708053</v>
+        <v>4.90620060338414</v>
       </c>
       <c r="K20">
-        <v>0.98291565138517</v>
+        <v>0.852392930118797</v>
       </c>
       <c r="L20">
-        <v>6.04848778302913</v>
+        <v>7.10466533341342</v>
       </c>
       <c r="M20">
-        <v>16.8810863602625</v>
+        <v>17.4648974257754</v>
       </c>
       <c r="N20">
-        <v>7.12307359391965</v>
+        <v>6.85064278626632</v>
       </c>
       <c r="O20">
-        <v>577.6528543630531</v>
+        <v>573.895720911812</v>
       </c>
       <c r="P20">
-        <v>21.5565656224285</v>
+        <v>23.3492269799798</v>
       </c>
     </row>
     <row r="21">
@@ -1434,49 +1434,49 @@
         </is>
       </c>
       <c r="B21">
-        <v>992.060771201633</v>
+        <v>957.2528166803151</v>
       </c>
       <c r="C21">
-        <v>17.8055717237377</v>
+        <v>16.7881097174361</v>
       </c>
       <c r="D21">
-        <v>1.77484439239069</v>
+        <v>1.30046502194488</v>
       </c>
       <c r="E21">
-        <v>19.1966962463959</v>
+        <v>18.2614672889988</v>
       </c>
       <c r="F21">
-        <v>2.93829103493283</v>
+        <v>2.0627990047982</v>
       </c>
       <c r="G21">
-        <v>14.7761249749212</v>
+        <v>13.4053912385912</v>
       </c>
       <c r="H21">
-        <v>4.61291118299105</v>
+        <v>3.77563669653886</v>
       </c>
       <c r="I21">
-        <v>11.6698175755399</v>
+        <v>13.33615480965</v>
       </c>
       <c r="J21">
-        <v>12.6497299622749</v>
+        <v>10.3553636787317</v>
       </c>
       <c r="K21">
-        <v>5.02265954896882</v>
+        <v>3.45638115646748</v>
       </c>
       <c r="L21">
-        <v>25.1141163663207</v>
+        <v>23.88464242826</v>
       </c>
       <c r="M21">
-        <v>23.1055407994045</v>
+        <v>19.8848206834647</v>
       </c>
       <c r="N21">
-        <v>16.8092999633589</v>
+        <v>16.8378503956905</v>
       </c>
       <c r="O21">
-        <v>2356.05253708887</v>
+        <v>2397.28106403734</v>
       </c>
       <c r="P21">
-        <v>20.4958187496807</v>
+        <v>19.8582414283234</v>
       </c>
     </row>
     <row r="22">
@@ -1486,49 +1486,49 @@
         </is>
       </c>
       <c r="B22">
-        <v>1178.37532241172</v>
+        <v>1165.5105048615</v>
       </c>
       <c r="C22">
-        <v>24.1761752248816</v>
+        <v>23.5983104520087</v>
       </c>
       <c r="D22">
-        <v>7.75231537206403</v>
+        <v>7.20670350034388</v>
       </c>
       <c r="E22">
-        <v>33.8086731053746</v>
+        <v>39.0598179600596</v>
       </c>
       <c r="F22">
-        <v>3.14435258136032</v>
+        <v>2.72628569704867</v>
       </c>
       <c r="G22">
-        <v>30.35891548906</v>
+        <v>24.8157137870119</v>
       </c>
       <c r="H22">
-        <v>12.9848613566914</v>
+        <v>9.875033971032829</v>
       </c>
       <c r="I22">
-        <v>8.693535950883151</v>
+        <v>6.4826456205279</v>
       </c>
       <c r="J22">
-        <v>36.8467552484655</v>
+        <v>41.3127079977625</v>
       </c>
       <c r="K22">
-        <v>3.98594457623109</v>
+        <v>2.24387588684725</v>
       </c>
       <c r="L22">
-        <v>88.2335357825513</v>
+        <v>80.6831167001194</v>
       </c>
       <c r="M22">
-        <v>18.8618150932392</v>
+        <v>21.0564184689039</v>
       </c>
       <c r="N22">
-        <v>59.8337106836272</v>
+        <v>62.9809113150976</v>
       </c>
       <c r="O22">
-        <v>2736.02819550494</v>
+        <v>2784.8254743724</v>
       </c>
       <c r="P22">
-        <v>13.6398948994338</v>
+        <v>15.373471125826</v>
       </c>
     </row>
     <row r="23">
@@ -1538,49 +1538,49 @@
         </is>
       </c>
       <c r="B23">
-        <v>2346.81382480204</v>
+        <v>2302.56374224171</v>
       </c>
       <c r="C23">
-        <v>40.2326546984814</v>
+        <v>40.3252813174789</v>
       </c>
       <c r="D23">
-        <v>6.6975082386803</v>
+        <v>7.29871516917579</v>
       </c>
       <c r="E23">
-        <v>48.9402103542371</v>
+        <v>54.7413630987801</v>
       </c>
       <c r="F23">
-        <v>6.5281816979799</v>
+        <v>5.95846895642752</v>
       </c>
       <c r="G23">
-        <v>56.6378707754542</v>
+        <v>55.4178194767421</v>
       </c>
       <c r="H23">
-        <v>49.5095593163663</v>
+        <v>61.0166212900659</v>
       </c>
       <c r="I23">
-        <v>23.2010330806832</v>
+        <v>24.5175260519343</v>
       </c>
       <c r="J23">
-        <v>88.7129964670669</v>
+        <v>90.6307792711486</v>
       </c>
       <c r="K23">
-        <v>60.4641447957665</v>
+        <v>66.3612376513675</v>
       </c>
       <c r="L23">
-        <v>35.6577403281979</v>
+        <v>35.5107836791562</v>
       </c>
       <c r="M23">
-        <v>479.886123985678</v>
+        <v>510.600761577114</v>
       </c>
       <c r="N23">
-        <v>93.0511171449651</v>
+        <v>99.15619815092781</v>
       </c>
       <c r="O23">
-        <v>3387.15190452987</v>
+        <v>3404.37314543956</v>
       </c>
       <c r="P23">
-        <v>60.6757655558586</v>
+        <v>72.7963421427751</v>
       </c>
     </row>
     <row r="24">
@@ -1590,49 +1590,49 @@
         </is>
       </c>
       <c r="B24">
-        <v>782.186489128394</v>
+        <v>768.300707903144</v>
       </c>
       <c r="C24">
-        <v>45.3215705903368</v>
+        <v>47.815573361886</v>
       </c>
       <c r="D24">
-        <v>8.409926979896261</v>
+        <v>10.1623235603083</v>
       </c>
       <c r="E24">
-        <v>57.6330504443923</v>
+        <v>63.3079178465299</v>
       </c>
       <c r="F24">
-        <v>9.16536242972432</v>
+        <v>10.5631246779804</v>
       </c>
       <c r="G24">
-        <v>24.8896989496289</v>
+        <v>26.7587242429941</v>
       </c>
       <c r="H24">
-        <v>15.7165075942623</v>
+        <v>19.1335998086751</v>
       </c>
       <c r="I24">
-        <v>15.6806388121361</v>
+        <v>15.2219345532567</v>
       </c>
       <c r="J24">
-        <v>45.3250882267858</v>
+        <v>48.5097277208072</v>
       </c>
       <c r="K24">
-        <v>17.4570377087537</v>
+        <v>19.7654193288054</v>
       </c>
       <c r="L24">
-        <v>58.8663972246917</v>
+        <v>57.5885611956646</v>
       </c>
       <c r="M24">
-        <v>18.9424847978082</v>
+        <v>18.1657584159538</v>
       </c>
       <c r="N24">
-        <v>68.35701941887371</v>
+        <v>67.9555318953858</v>
       </c>
       <c r="O24">
-        <v>2101.71969453361</v>
+        <v>2189.22803303094</v>
       </c>
       <c r="P24">
-        <v>72.3161230141495</v>
+        <v>71.4818948095171</v>
       </c>
     </row>
     <row r="25">
@@ -1642,49 +1642,49 @@
         </is>
       </c>
       <c r="B25">
-        <v>802.100654032486</v>
+        <v>737.062601251335</v>
       </c>
       <c r="C25">
-        <v>35.8151505816001</v>
+        <v>32.7896178056263</v>
       </c>
       <c r="D25">
-        <v>10.8992209491084</v>
+        <v>10.2762191275071</v>
       </c>
       <c r="E25">
-        <v>37.7863161962924</v>
+        <v>36.4478826092922</v>
       </c>
       <c r="F25">
-        <v>15.9351562702574</v>
+        <v>16.2557077036921</v>
       </c>
       <c r="G25">
-        <v>9.492455383999941</v>
+        <v>5.42396933969098</v>
       </c>
       <c r="H25">
-        <v>7.66092825174919</v>
+        <v>8.63385551409781</v>
       </c>
       <c r="I25">
-        <v>2.31478543505317</v>
+        <v>1.67268182031498</v>
       </c>
       <c r="J25">
-        <v>10.1401939357583</v>
+        <v>10.4574778251171</v>
       </c>
       <c r="K25">
-        <v>8.20899086032272</v>
+        <v>5.82714084945317</v>
       </c>
       <c r="L25">
-        <v>7.89598208124571</v>
+        <v>7.78984032606919</v>
       </c>
       <c r="M25">
-        <v>34.2506824416893</v>
+        <v>36.8489398131366</v>
       </c>
       <c r="N25">
-        <v>44.78460213365</v>
+        <v>42.2367627702337</v>
       </c>
       <c r="O25">
-        <v>968.764339928966</v>
+        <v>905.840950928852</v>
       </c>
       <c r="P25">
-        <v>49.1648090134832</v>
+        <v>50.9009941645572</v>
       </c>
     </row>
     <row r="26">
@@ -1694,49 +1694,49 @@
         </is>
       </c>
       <c r="B26">
-        <v>1130.53834039168</v>
+        <v>1098.49392709391</v>
       </c>
       <c r="C26">
-        <v>53.9674487009738</v>
+        <v>57.366774754453</v>
       </c>
       <c r="D26">
-        <v>4.14276507822703</v>
+        <v>5.09682388139242</v>
       </c>
       <c r="E26">
-        <v>48.4901166643475</v>
+        <v>54.8412613477653</v>
       </c>
       <c r="F26">
-        <v>8.17007380694028</v>
+        <v>5.41313602354198</v>
       </c>
       <c r="G26">
-        <v>36.4983017822907</v>
+        <v>39.1968114425428</v>
       </c>
       <c r="H26">
-        <v>10.5973952429214</v>
+        <v>11.3782343421406</v>
       </c>
       <c r="I26">
-        <v>17.9502695595778</v>
+        <v>16.2221906279523</v>
       </c>
       <c r="J26">
-        <v>39.4058088997967</v>
+        <v>42.1598569237569</v>
       </c>
       <c r="K26">
-        <v>8.7273002207787</v>
+        <v>8.26480456827537</v>
       </c>
       <c r="L26">
-        <v>30.8636741063837</v>
+        <v>31.2901006138055</v>
       </c>
       <c r="M26">
-        <v>53.2386878018875</v>
+        <v>51.0566658653949</v>
       </c>
       <c r="N26">
-        <v>33.395422777332</v>
+        <v>34.2025588731563</v>
       </c>
       <c r="O26">
-        <v>2348.14120479458</v>
+        <v>2393.57115403778</v>
       </c>
       <c r="P26">
-        <v>56.409042733649</v>
+        <v>62.6251813148859</v>
       </c>
     </row>
     <row r="27">
@@ -1746,49 +1746,49 @@
         </is>
       </c>
       <c r="B27">
-        <v>207.444932881176</v>
+        <v>176.461017655516</v>
       </c>
       <c r="C27">
-        <v>2.82324984267225</v>
+        <v>2.71398928477028</v>
       </c>
       <c r="D27">
-        <v>1.48126046579191</v>
+        <v>1.33475888539848</v>
       </c>
       <c r="E27">
-        <v>9.32432771729871</v>
+        <v>9.22462421968326</v>
       </c>
       <c r="F27">
-        <v>6.8067176875982</v>
+        <v>7.10812079526451</v>
       </c>
       <c r="G27">
-        <v>1.01194049985767</v>
+        <v>0.734978319728634</v>
       </c>
       <c r="H27">
-        <v>0.215020274327259</v>
+        <v>0.21659776901958</v>
       </c>
       <c r="I27">
-        <v>2.27313675364088</v>
+        <v>2.71782104673893</v>
       </c>
       <c r="J27">
-        <v>3.59905753308084</v>
+        <v>3.40911488120948</v>
       </c>
       <c r="K27">
-        <v>0.936516498520266</v>
+        <v>1.0540453365327</v>
       </c>
       <c r="L27">
-        <v>2.17101944824455</v>
+        <v>1.67341098427421</v>
       </c>
       <c r="M27">
-        <v>0.347815934077411</v>
+        <v>0.42456565656239</v>
       </c>
       <c r="N27">
-        <v>3.86550501373364</v>
+        <v>3.49591551398697</v>
       </c>
       <c r="O27">
-        <v>440.590775558103</v>
+        <v>401.034713691513</v>
       </c>
       <c r="P27">
-        <v>49.3994168281146</v>
+        <v>48.7709805866391</v>
       </c>
     </row>
     <row r="28">
@@ -1798,49 +1798,49 @@
         </is>
       </c>
       <c r="B28">
-        <v>242.782787822606</v>
+        <v>224.038610926831</v>
       </c>
       <c r="C28">
-        <v>38.5798580859876</v>
+        <v>35.7113300594602</v>
       </c>
       <c r="D28">
-        <v>1.84942916198151</v>
+        <v>1.76373247864501</v>
       </c>
       <c r="E28">
-        <v>6.20433819613142</v>
+        <v>5.08979775642258</v>
       </c>
       <c r="F28">
-        <v>0.58372252577097</v>
+        <v>1.11052164125477</v>
       </c>
       <c r="G28">
-        <v>5.18218465332205</v>
+        <v>5.0888997194925</v>
       </c>
       <c r="H28">
-        <v>5.57345526616196</v>
+        <v>6.20949893372452</v>
       </c>
       <c r="I28">
-        <v>3.8735535089614</v>
+        <v>3.70275813249724</v>
       </c>
       <c r="J28">
-        <v>17.6606277317157</v>
+        <v>14.2656784705989</v>
       </c>
       <c r="K28">
-        <v>10.9472703490522</v>
+        <v>10.9743438147639</v>
       </c>
       <c r="L28">
-        <v>10.0623057991533</v>
+        <v>8.087348859623861</v>
       </c>
       <c r="M28">
-        <v>11.1449595958058</v>
+        <v>9.84910512436247</v>
       </c>
       <c r="N28">
-        <v>11.4357499519545</v>
+        <v>10.8542893061034</v>
       </c>
       <c r="O28">
-        <v>791.156871392828</v>
+        <v>772.84751360467</v>
       </c>
       <c r="P28">
-        <v>72.2623335718022</v>
+        <v>65.153636640473</v>
       </c>
     </row>
     <row r="29">
@@ -1850,49 +1850,49 @@
         </is>
       </c>
       <c r="B29">
-        <v>468.907918968042</v>
+        <v>435.417949042827</v>
       </c>
       <c r="C29">
-        <v>3.12083505058034</v>
+        <v>3.00185017061388</v>
       </c>
       <c r="D29">
-        <v>1.91297586721487</v>
+        <v>1.31586583261307</v>
       </c>
       <c r="E29">
-        <v>6.1677342847182</v>
+        <v>6.21815627512175</v>
       </c>
       <c r="F29">
-        <v>24.9274833310574</v>
+        <v>23.9317082361394</v>
       </c>
       <c r="G29">
-        <v>4.16249328181994</v>
+        <v>2.52815259183049</v>
       </c>
       <c r="H29">
-        <v>0.809148767631745</v>
+        <v>0.324865693144035</v>
       </c>
       <c r="I29">
-        <v>1.84403759279114</v>
+        <v>2.59791969887389</v>
       </c>
       <c r="J29">
-        <v>3.76568025224383</v>
+        <v>3.8533887049082</v>
       </c>
       <c r="K29">
-        <v>2.07951740962792</v>
+        <v>1.96701144107517</v>
       </c>
       <c r="L29">
-        <v>3.73056997481551</v>
+        <v>3.03309534771518</v>
       </c>
       <c r="M29">
-        <v>3.82663710282052</v>
+        <v>4.1270683972202</v>
       </c>
       <c r="N29">
-        <v>11.3255169783223</v>
+        <v>12.1525922778107</v>
       </c>
       <c r="O29">
-        <v>1130.53322980321</v>
+        <v>1108.85322171945</v>
       </c>
       <c r="P29">
-        <v>5.10877524778449</v>
+        <v>5.85839256411635</v>
       </c>
     </row>
     <row r="30">
@@ -1902,49 +1902,49 @@
         </is>
       </c>
       <c r="B30">
-        <v>207.252372011142</v>
+        <v>182.568809410432</v>
       </c>
       <c r="C30">
-        <v>5.0987200121116</v>
+        <v>5.17365689759253</v>
       </c>
       <c r="D30">
-        <v>4.20290854061936</v>
+        <v>5.05984501364629</v>
       </c>
       <c r="E30">
-        <v>10.0928169923724</v>
+        <v>9.1945089863836</v>
       </c>
       <c r="F30">
-        <v>0.21460900803668</v>
+        <v>0.273652758251486</v>
       </c>
       <c r="G30">
-        <v>5.18257352239895</v>
+        <v>4.58053533385471</v>
       </c>
       <c r="H30">
-        <v>2.95940652388506</v>
+        <v>2.31441510818758</v>
       </c>
       <c r="I30">
-        <v>2.62956619362297</v>
+        <v>1.96869749892954</v>
       </c>
       <c r="J30">
-        <v>17.5728102961115</v>
+        <v>18.1199657874424</v>
       </c>
       <c r="K30">
-        <v>3.05109451068747</v>
+        <v>3.14371374231293</v>
       </c>
       <c r="L30">
-        <v>39.426021062304</v>
+        <v>38.4257850898711</v>
       </c>
       <c r="M30">
-        <v>9.14548388370857</v>
+        <v>7.84003578327651</v>
       </c>
       <c r="N30">
-        <v>15.8672396386188</v>
+        <v>16.6072974084825</v>
       </c>
       <c r="O30">
-        <v>591.3034243309</v>
+        <v>550.113357476422</v>
       </c>
       <c r="P30">
-        <v>5.31701342502869</v>
+        <v>5.07556856606501</v>
       </c>
     </row>
     <row r="31">
@@ -1954,49 +1954,49 @@
         </is>
       </c>
       <c r="B31">
-        <v>1548.72370191995</v>
+        <v>1489.80836548712</v>
       </c>
       <c r="C31">
-        <v>57.015638164595</v>
+        <v>59.0671222598335</v>
       </c>
       <c r="D31">
-        <v>9.1776181389148</v>
+        <v>7.8565041519512</v>
       </c>
       <c r="E31">
-        <v>29.764844710605</v>
+        <v>25.1727987614284</v>
       </c>
       <c r="F31">
-        <v>2.79579633845923</v>
+        <v>5.0721613754175</v>
       </c>
       <c r="G31">
-        <v>115.192874154003</v>
+        <v>119.594318556941</v>
       </c>
       <c r="H31">
-        <v>12.089496101184</v>
+        <v>13.0140195295068</v>
       </c>
       <c r="I31">
-        <v>9.6421457502795</v>
+        <v>7.14264190054653</v>
       </c>
       <c r="J31">
-        <v>21.2455828415749</v>
+        <v>20.1974004309455</v>
       </c>
       <c r="K31">
-        <v>6.17546474077332</v>
+        <v>6.1608405376156</v>
       </c>
       <c r="L31">
-        <v>62.1787816662945</v>
+        <v>67.73318649733299</v>
       </c>
       <c r="M31">
-        <v>19.8740893679523</v>
+        <v>16.3905201620284</v>
       </c>
       <c r="N31">
-        <v>71.282972073073</v>
+        <v>83.245699792094</v>
       </c>
       <c r="O31">
-        <v>3681.54036888879</v>
+        <v>3755.8207265255</v>
       </c>
       <c r="P31">
-        <v>20.4305028094329</v>
+        <v>18.4270780950137</v>
       </c>
     </row>
     <row r="32">
@@ -2006,49 +2006,49 @@
         </is>
       </c>
       <c r="B32">
-        <v>457.536619965457</v>
+        <v>437.982932940675</v>
       </c>
       <c r="C32">
-        <v>2.97659526282136</v>
+        <v>2.20830062981105</v>
       </c>
       <c r="D32">
-        <v>0.527173250207556</v>
+        <v>0.336102731603486</v>
       </c>
       <c r="E32">
-        <v>2.65222189006546</v>
+        <v>3.04737622973852</v>
       </c>
       <c r="F32">
-        <v>24.2431782015243</v>
+        <v>23.7691645535825</v>
       </c>
       <c r="G32">
-        <v>3.21913268444288</v>
+        <v>3.0243313222145</v>
       </c>
       <c r="H32">
-        <v>0.855372307669015</v>
+        <v>1.04995973074149</v>
       </c>
       <c r="I32">
-        <v>1.4646360482696</v>
+        <v>2.06094746715029</v>
       </c>
       <c r="J32">
-        <v>4.49260771922096</v>
+        <v>5.48865065908902</v>
       </c>
       <c r="K32">
-        <v>1.82806383614905</v>
+        <v>1.58639451715902</v>
       </c>
       <c r="L32">
-        <v>7.02667886409786</v>
+        <v>5.55461337030583</v>
       </c>
       <c r="M32">
-        <v>8.617098343123359</v>
+        <v>12.8012149507846</v>
       </c>
       <c r="N32">
-        <v>15.8380136955249</v>
+        <v>15.984958585005</v>
       </c>
       <c r="O32">
-        <v>771.607398514783</v>
+        <v>753.998434533816</v>
       </c>
       <c r="P32">
-        <v>19.819284241409</v>
+        <v>19.3044646454123</v>
       </c>
     </row>
     <row r="33">
@@ -2058,49 +2058,49 @@
         </is>
       </c>
       <c r="B33">
-        <v>4065.64651911265</v>
+        <v>3865.74630588739</v>
       </c>
       <c r="C33">
-        <v>73.3965709618992</v>
+        <v>69.4666990657542</v>
       </c>
       <c r="D33">
-        <v>14.826244712685</v>
+        <v>13.1356909551305</v>
       </c>
       <c r="E33">
-        <v>70.9356423896128</v>
+        <v>72.9935309912234</v>
       </c>
       <c r="F33">
-        <v>10.8285230789444</v>
+        <v>11.3969033708532</v>
       </c>
       <c r="G33">
-        <v>75.7457056969665</v>
+        <v>82.13162969254731</v>
       </c>
       <c r="H33">
-        <v>34.1518503536356</v>
+        <v>33.3791325929049</v>
       </c>
       <c r="I33">
-        <v>19.2225683483355</v>
+        <v>20.3118709436341</v>
       </c>
       <c r="J33">
-        <v>87.7643184274486</v>
+        <v>92.04737846008059</v>
       </c>
       <c r="K33">
-        <v>53.4673869931444</v>
+        <v>51.9469333215422</v>
       </c>
       <c r="L33">
-        <v>99.2349564956783</v>
+        <v>95.2074267424303</v>
       </c>
       <c r="M33">
-        <v>55.708300594367</v>
+        <v>60.0862762029257</v>
       </c>
       <c r="N33">
-        <v>116.371800648169</v>
+        <v>114.12154352092</v>
       </c>
       <c r="O33">
-        <v>7739.95563859718</v>
+        <v>7958.47746610582</v>
       </c>
       <c r="P33">
-        <v>57.8299746083442</v>
+        <v>59.1372632738694</v>
       </c>
     </row>
     <row r="34">
@@ -2110,49 +2110,49 @@
         </is>
       </c>
       <c r="B34">
-        <v>1938.97206709663</v>
+        <v>1889.56198795929</v>
       </c>
       <c r="C34">
-        <v>65.6301057991621</v>
+        <v>61.6732502120914</v>
       </c>
       <c r="D34">
-        <v>68.0961466344157</v>
+        <v>66.33885706135079</v>
       </c>
       <c r="E34">
-        <v>55.7206375074045</v>
+        <v>63.1157678314446</v>
       </c>
       <c r="F34">
-        <v>3.16403657849784</v>
+        <v>3.02072026579296</v>
       </c>
       <c r="G34">
-        <v>49.243813856955</v>
+        <v>51.7983631679394</v>
       </c>
       <c r="H34">
-        <v>36.5014157516239</v>
+        <v>39.8994965070099</v>
       </c>
       <c r="I34">
-        <v>19.3694812011526</v>
+        <v>23.1589083215883</v>
       </c>
       <c r="J34">
-        <v>48.6917644051997</v>
+        <v>55.031748915947</v>
       </c>
       <c r="K34">
-        <v>12.8637719438952</v>
+        <v>11.2210986995323</v>
       </c>
       <c r="L34">
-        <v>99.6347317126357</v>
+        <v>94.33501972768261</v>
       </c>
       <c r="M34">
-        <v>34.0893666324127</v>
+        <v>38.29111357682</v>
       </c>
       <c r="N34">
-        <v>113.739688726499</v>
+        <v>119.684755016418</v>
       </c>
       <c r="O34">
-        <v>3358.64474505947</v>
+        <v>3411.01021474913</v>
       </c>
       <c r="P34">
-        <v>65.1607505340947</v>
+        <v>75.0299472930669</v>
       </c>
     </row>
     <row r="35">
@@ -2162,49 +2162,49 @@
         </is>
       </c>
       <c r="B35">
-        <v>94.3553107019186</v>
+        <v>79.2604120479166</v>
       </c>
       <c r="C35">
-        <v>7.42520770374601</v>
+        <v>6.82226421223089</v>
       </c>
       <c r="D35">
-        <v>0.487303689072695</v>
+        <v>0.620778062058247</v>
       </c>
       <c r="E35">
-        <v>3.15828161564821</v>
+        <v>2.6451765234199</v>
       </c>
       <c r="F35">
-        <v>4.90307890745665</v>
+        <v>4.39288552221291</v>
       </c>
       <c r="G35">
-        <v>0.391612077265025</v>
+        <v>0.856515475557886</v>
       </c>
       <c r="H35">
-        <v>0.915885278863298</v>
+        <v>1.38098704931979</v>
       </c>
       <c r="I35">
-        <v>1.51088136714656</v>
+        <v>1.3240543233948</v>
       </c>
       <c r="J35">
-        <v>2.08734442372699</v>
+        <v>1.39078796304701</v>
       </c>
       <c r="K35">
-        <v>4.32634073909541</v>
+        <v>3.17124975057946</v>
       </c>
       <c r="L35">
-        <v>2.84693339691227</v>
+        <v>2.72635901530388</v>
       </c>
       <c r="M35">
-        <v>3.4349657021679</v>
+        <v>3.4773469500942</v>
       </c>
       <c r="N35">
-        <v>3.20796954516588</v>
+        <v>2.49711311508229</v>
       </c>
       <c r="O35">
-        <v>309.051284247243</v>
+        <v>276.422688267397</v>
       </c>
       <c r="P35">
-        <v>49.9877956951525</v>
+        <v>46.1316222188745</v>
       </c>
     </row>
     <row r="36">
@@ -2214,49 +2214,49 @@
         </is>
       </c>
       <c r="B36">
-        <v>2479.01392889671</v>
+        <v>2401.76784854621</v>
       </c>
       <c r="C36">
-        <v>82.9572527696339</v>
+        <v>84.13103620597769</v>
       </c>
       <c r="D36">
-        <v>9.044845117894569</v>
+        <v>8.45893357859519</v>
       </c>
       <c r="E36">
-        <v>135.877657790527</v>
+        <v>137.30243667599</v>
       </c>
       <c r="F36">
-        <v>21.670425760774</v>
+        <v>28.0516335043264</v>
       </c>
       <c r="G36">
-        <v>99.37904175409661</v>
+        <v>107.667114820557</v>
       </c>
       <c r="H36">
-        <v>68.7752902362457</v>
+        <v>83.92506440899641</v>
       </c>
       <c r="I36">
-        <v>33.9786871979445</v>
+        <v>37.0744921954087</v>
       </c>
       <c r="J36">
-        <v>211.209001727629</v>
+        <v>237.335261446791</v>
       </c>
       <c r="K36">
-        <v>54.7967342665932</v>
+        <v>62.153356804321</v>
       </c>
       <c r="L36">
-        <v>61.2056666636967</v>
+        <v>66.7427459467427</v>
       </c>
       <c r="M36">
-        <v>167.745735130315</v>
+        <v>179.627818075936</v>
       </c>
       <c r="N36">
-        <v>114.217502236297</v>
+        <v>119.172997433954</v>
       </c>
       <c r="O36">
-        <v>4282.06924776379</v>
+        <v>4284.55377465213</v>
       </c>
       <c r="P36">
-        <v>66.251905198476</v>
+        <v>73.83589349700981</v>
       </c>
     </row>
     <row r="37">
@@ -2266,49 +2266,49 @@
         </is>
       </c>
       <c r="B37">
-        <v>811.058805411857</v>
+        <v>790.885775334199</v>
       </c>
       <c r="C37">
-        <v>15.1225282797591</v>
+        <v>17.56704523965</v>
       </c>
       <c r="D37">
-        <v>2.53695519653508</v>
+        <v>3.42934822618237</v>
       </c>
       <c r="E37">
-        <v>18.1691477877891</v>
+        <v>21.8454764092269</v>
       </c>
       <c r="F37">
-        <v>45.3228551136203</v>
+        <v>47.0082225892409</v>
       </c>
       <c r="G37">
-        <v>6.49348524807994</v>
+        <v>6.10275270392867</v>
       </c>
       <c r="H37">
-        <v>20.8778176232177</v>
+        <v>27.2360844313031</v>
       </c>
       <c r="I37">
-        <v>5.88238692981707</v>
+        <v>5.78544371544738</v>
       </c>
       <c r="J37">
-        <v>30.4543478358505</v>
+        <v>29.0955150949833</v>
       </c>
       <c r="K37">
-        <v>6.62700335407829</v>
+        <v>8.49719793945718</v>
       </c>
       <c r="L37">
-        <v>18.8670267329149</v>
+        <v>17.0169370703418</v>
       </c>
       <c r="M37">
-        <v>25.7679800946427</v>
+        <v>26.6034505105134</v>
       </c>
       <c r="N37">
-        <v>21.1923858455216</v>
+        <v>22.9870982609301</v>
       </c>
       <c r="O37">
-        <v>1323.0821333235</v>
+        <v>1366.79526503932</v>
       </c>
       <c r="P37">
-        <v>53.8020440468049</v>
+        <v>59.3247170581677</v>
       </c>
     </row>
     <row r="38">
@@ -2318,49 +2318,49 @@
         </is>
       </c>
       <c r="B38">
-        <v>803.46286978577</v>
+        <v>781.626446883766</v>
       </c>
       <c r="C38">
-        <v>25.1702470486648</v>
+        <v>22.1229292033628</v>
       </c>
       <c r="D38">
-        <v>4.30286653655358</v>
+        <v>4.0861790647596</v>
       </c>
       <c r="E38">
-        <v>42.5451825290305</v>
+        <v>43.61178462864</v>
       </c>
       <c r="F38">
-        <v>1.51459247738386</v>
+        <v>0.982249779679203</v>
       </c>
       <c r="G38">
-        <v>8.720558199805311</v>
+        <v>7.86651737389354</v>
       </c>
       <c r="H38">
-        <v>2.25520504815578</v>
+        <v>2.17300262491941</v>
       </c>
       <c r="I38">
-        <v>3.88185497093093</v>
+        <v>5.06628290757242</v>
       </c>
       <c r="J38">
-        <v>34.4724097442732</v>
+        <v>38.6909060648011</v>
       </c>
       <c r="K38">
-        <v>4.35697077243382</v>
+        <v>4.92881122073846</v>
       </c>
       <c r="L38">
-        <v>81.152064920877</v>
+        <v>89.6105177113735</v>
       </c>
       <c r="M38">
-        <v>22.9092893708248</v>
+        <v>27.087705131426</v>
       </c>
       <c r="N38">
-        <v>43.0268082345099</v>
+        <v>38.5612956096879</v>
       </c>
       <c r="O38">
-        <v>1451.90813121817</v>
+        <v>1501.27256495063</v>
       </c>
       <c r="P38">
-        <v>63.5429235483584</v>
+        <v>66.6514417371334</v>
       </c>
     </row>
     <row r="39">
@@ -2370,49 +2370,49 @@
         </is>
       </c>
       <c r="B39">
-        <v>2623.03851140147</v>
+        <v>2598.2736955373</v>
       </c>
       <c r="C39">
-        <v>92.1060552846515</v>
+        <v>93.962265016007</v>
       </c>
       <c r="D39">
-        <v>30.9071989159439</v>
+        <v>32.4592217711869</v>
       </c>
       <c r="E39">
-        <v>111.829885851289</v>
+        <v>115.297656653117</v>
       </c>
       <c r="F39">
-        <v>29.126419023318</v>
+        <v>38.4514956986688</v>
       </c>
       <c r="G39">
-        <v>103.61181511631</v>
+        <v>94.4814270137897</v>
       </c>
       <c r="H39">
-        <v>45.1466006385862</v>
+        <v>44.5238909636125</v>
       </c>
       <c r="I39">
-        <v>25.1907208063858</v>
+        <v>27.1189758693703</v>
       </c>
       <c r="J39">
-        <v>188.543156439983</v>
+        <v>198.072384004859</v>
       </c>
       <c r="K39">
-        <v>41.0687282345945</v>
+        <v>44.6776320369115</v>
       </c>
       <c r="L39">
-        <v>112.732234978865</v>
+        <v>118.653197151058</v>
       </c>
       <c r="M39">
-        <v>68.3714937206092</v>
+        <v>67.6576780037696</v>
       </c>
       <c r="N39">
-        <v>120.705019838183</v>
+        <v>124.40156703516</v>
       </c>
       <c r="O39">
-        <v>4983.38619017746</v>
+        <v>5077.60652380949</v>
       </c>
       <c r="P39">
-        <v>71.4163382621708</v>
+        <v>77.3544315895615</v>
       </c>
     </row>
     <row r="40">
@@ -2422,49 +2422,49 @@
         </is>
       </c>
       <c r="B40">
-        <v>224.480080693201</v>
+        <v>193.886951875753</v>
       </c>
       <c r="C40">
-        <v>3.1770809599093</v>
+        <v>3.23507099704798</v>
       </c>
       <c r="D40">
-        <v>7.51364533436694</v>
+        <v>7.29809348312559</v>
       </c>
       <c r="E40">
-        <v>4.71418388709496</v>
+        <v>3.94702342271881</v>
       </c>
       <c r="F40">
-        <v>0.265817348520522</v>
+        <v>0.315467916491606</v>
       </c>
       <c r="G40">
-        <v>5.40410217117007</v>
+        <v>5.05113940985695</v>
       </c>
       <c r="H40">
-        <v>3.72275036698054</v>
+        <v>3.46427945665504</v>
       </c>
       <c r="I40">
-        <v>2.51876370562892</v>
+        <v>2.20516866337447</v>
       </c>
       <c r="J40">
-        <v>11.0560191896812</v>
+        <v>8.580952608525701</v>
       </c>
       <c r="K40">
-        <v>1.37309069205747</v>
+        <v>2.07567323394863</v>
       </c>
       <c r="L40">
-        <v>11.6538228100175</v>
+        <v>10.813138838297</v>
       </c>
       <c r="M40">
-        <v>6.45147277199977</v>
+        <v>5.36691065295642</v>
       </c>
       <c r="N40">
-        <v>22.7635390159646</v>
+        <v>22.3475116834894</v>
       </c>
       <c r="O40">
-        <v>478.273687221735</v>
+        <v>437.624136349864</v>
       </c>
       <c r="P40">
-        <v>3.83747973733768</v>
+        <v>3.29131009462587</v>
       </c>
     </row>
     <row r="41">
@@ -2474,49 +2474,49 @@
         </is>
       </c>
       <c r="B41">
-        <v>1089.35270636921</v>
+        <v>1054.14372251481</v>
       </c>
       <c r="C41">
-        <v>20.1558165055843</v>
+        <v>21.0863625674889</v>
       </c>
       <c r="D41">
-        <v>50.7972850415615</v>
+        <v>47.4361450856403</v>
       </c>
       <c r="E41">
-        <v>32.0966547125789</v>
+        <v>34.0328226099789</v>
       </c>
       <c r="F41">
-        <v>2.66986029090462</v>
+        <v>4.46695932500457</v>
       </c>
       <c r="G41">
-        <v>29.7520919519569</v>
+        <v>30.5971627457187</v>
       </c>
       <c r="H41">
-        <v>30.5786389833423</v>
+        <v>33.8154216126463</v>
       </c>
       <c r="I41">
-        <v>12.3303960138782</v>
+        <v>15.1496782310112</v>
       </c>
       <c r="J41">
-        <v>35.9311851929008</v>
+        <v>35.1213702592488</v>
       </c>
       <c r="K41">
-        <v>10.3856200451746</v>
+        <v>10.2579244542592</v>
       </c>
       <c r="L41">
-        <v>30.2187014675094</v>
+        <v>29.9380984137253</v>
       </c>
       <c r="M41">
-        <v>33.649824765787</v>
+        <v>31.674026512973</v>
       </c>
       <c r="N41">
-        <v>17.9349118448849</v>
+        <v>17.0970730789742</v>
       </c>
       <c r="O41">
-        <v>1554.54552482795</v>
+        <v>1573.60853218909</v>
       </c>
       <c r="P41">
-        <v>28.2301157829829</v>
+        <v>31.3662388063295</v>
       </c>
     </row>
     <row r="42">
@@ -2526,49 +2526,49 @@
         </is>
       </c>
       <c r="B42">
-        <v>121.445494124034</v>
+        <v>92.8755728574083</v>
       </c>
       <c r="C42">
-        <v>8.26882528804588</v>
+        <v>7.41782600786252</v>
       </c>
       <c r="D42">
-        <v>1.48262088394401</v>
+        <v>1.13649280731259</v>
       </c>
       <c r="E42">
-        <v>6.65417406331742</v>
+        <v>5.85698834815671</v>
       </c>
       <c r="F42">
-        <v>2.80298712551402</v>
+        <v>2.05716557208655</v>
       </c>
       <c r="G42">
-        <v>2.30663937115509</v>
+        <v>2.04364261590614</v>
       </c>
       <c r="H42">
-        <v>2.22729059135346</v>
+        <v>1.77053467195943</v>
       </c>
       <c r="I42">
-        <v>1.87345606428683</v>
+        <v>1.45837188111265</v>
       </c>
       <c r="J42">
-        <v>6.23071713710001</v>
+        <v>6.26448638746488</v>
       </c>
       <c r="K42">
-        <v>5.28577038186787</v>
+        <v>3.95836277571079</v>
       </c>
       <c r="L42">
-        <v>6.10536034494534</v>
+        <v>4.21720830815806</v>
       </c>
       <c r="M42">
-        <v>3.51536651463384</v>
+        <v>2.33942955147302</v>
       </c>
       <c r="N42">
-        <v>11.950574613582</v>
+        <v>10.289261576997</v>
       </c>
       <c r="O42">
-        <v>389.315408462462</v>
+        <v>324.04478134894</v>
       </c>
       <c r="P42">
-        <v>57.5292473639467</v>
+        <v>45.4963004761937</v>
       </c>
     </row>
     <row r="43">
@@ -2578,49 +2578,49 @@
         </is>
       </c>
       <c r="B43">
-        <v>1501.73842090594</v>
+        <v>1496.59960741973</v>
       </c>
       <c r="C43">
-        <v>45.4823756197246</v>
+        <v>47.2270817433608</v>
       </c>
       <c r="D43">
-        <v>22.0484809517043</v>
+        <v>25.2442899241511</v>
       </c>
       <c r="E43">
-        <v>67.39441451148871</v>
+        <v>69.89223927426259</v>
       </c>
       <c r="F43">
-        <v>6.62843956895275</v>
+        <v>5.07953150658349</v>
       </c>
       <c r="G43">
-        <v>27.90911587858</v>
+        <v>28.4706106358831</v>
       </c>
       <c r="H43">
-        <v>34.7785597262322</v>
+        <v>37.705882176035</v>
       </c>
       <c r="I43">
-        <v>7.48014051760278</v>
+        <v>6.47029852804546</v>
       </c>
       <c r="J43">
-        <v>52.9308829882148</v>
+        <v>56.7157570768892</v>
       </c>
       <c r="K43">
-        <v>7.70490774560461</v>
+        <v>5.19199318165874</v>
       </c>
       <c r="L43">
-        <v>28.656636565774</v>
+        <v>27.2022405740187</v>
       </c>
       <c r="M43">
-        <v>68.03066309706701</v>
+        <v>68.6256011011439</v>
       </c>
       <c r="N43">
-        <v>68.13398040060871</v>
+        <v>61.499185844258</v>
       </c>
       <c r="O43">
-        <v>2252.32670597688</v>
+        <v>2308.1659849956</v>
       </c>
       <c r="P43">
-        <v>34.520268715855</v>
+        <v>30.0363051388738</v>
       </c>
     </row>
     <row r="44">
@@ -2630,49 +2630,49 @@
         </is>
       </c>
       <c r="B44">
-        <v>4369.10720596126</v>
+        <v>4303.40082634437</v>
       </c>
       <c r="C44">
-        <v>145.885639670672</v>
+        <v>141.103402529352</v>
       </c>
       <c r="D44">
-        <v>20.0922262069168</v>
+        <v>24.5293826034959</v>
       </c>
       <c r="E44">
-        <v>87.4617308679732</v>
+        <v>98.3862490060593</v>
       </c>
       <c r="F44">
-        <v>284.138972037898</v>
+        <v>294.024435065719</v>
       </c>
       <c r="G44">
-        <v>128.582850835711</v>
+        <v>127.135606805144</v>
       </c>
       <c r="H44">
-        <v>26.9976591917602</v>
+        <v>22.7995045569683</v>
       </c>
       <c r="I44">
-        <v>40.1383679827692</v>
+        <v>39.3864624606347</v>
       </c>
       <c r="J44">
-        <v>114.665488387129</v>
+        <v>115.560994367238</v>
       </c>
       <c r="K44">
-        <v>32.7127112969204</v>
+        <v>31.1418093492882</v>
       </c>
       <c r="L44">
-        <v>184.464855522109</v>
+        <v>206.666998807332</v>
       </c>
       <c r="M44">
-        <v>96.8311675013604</v>
+        <v>100.24976842388</v>
       </c>
       <c r="N44">
-        <v>87.58916842614531</v>
+        <v>84.61537088306871</v>
       </c>
       <c r="O44">
-        <v>8617.71990372929</v>
+        <v>8966.19691809663</v>
       </c>
       <c r="P44">
-        <v>180.644046887904</v>
+        <v>185.675246048476</v>
       </c>
     </row>
     <row r="45">
@@ -2682,49 +2682,49 @@
         </is>
       </c>
       <c r="B45">
-        <v>398.510427881337</v>
+        <v>365.381298783016</v>
       </c>
       <c r="C45">
-        <v>17.1060375489903</v>
+        <v>17.3768011044196</v>
       </c>
       <c r="D45">
-        <v>1.54717163253814</v>
+        <v>1.43696209207137</v>
       </c>
       <c r="E45">
-        <v>13.4851180235196</v>
+        <v>12.6649747811681</v>
       </c>
       <c r="F45">
-        <v>25.3277529183863</v>
+        <v>24.3794659252144</v>
       </c>
       <c r="G45">
-        <v>9.21362364189684</v>
+        <v>9.664239753280549</v>
       </c>
       <c r="H45">
-        <v>1.5556561448243</v>
+        <v>1.28709259101617</v>
       </c>
       <c r="I45">
-        <v>2.12224091387876</v>
+        <v>1.79573703627025</v>
       </c>
       <c r="J45">
-        <v>23.4744777698229</v>
+        <v>26.8601879721237</v>
       </c>
       <c r="K45">
-        <v>2.62994256792032</v>
+        <v>3.49220033844229</v>
       </c>
       <c r="L45">
-        <v>13.4918937785825</v>
+        <v>13.7567048006097</v>
       </c>
       <c r="M45">
-        <v>12.9040562004046</v>
+        <v>13.1283645596926</v>
       </c>
       <c r="N45">
-        <v>33.6167971915784</v>
+        <v>32.0184409894406</v>
       </c>
       <c r="O45">
-        <v>927.301914274172</v>
+        <v>917.350159580993</v>
       </c>
       <c r="P45">
-        <v>16.3492697956831</v>
+        <v>17.3385205343066</v>
       </c>
     </row>
     <row r="46">
@@ -2734,49 +2734,49 @@
         </is>
       </c>
       <c r="B46">
-        <v>113.785379306093</v>
+        <v>96.0096083398453</v>
       </c>
       <c r="C46">
-        <v>4.71456101595573</v>
+        <v>4.32423401679264</v>
       </c>
       <c r="D46">
-        <v>0.644370292231354</v>
+        <v>0.522597593541077</v>
       </c>
       <c r="E46">
-        <v>5.34748805884453</v>
+        <v>4.42287876799893</v>
       </c>
       <c r="F46">
-        <v>1.02182295085068</v>
+        <v>0.719031348213253</v>
       </c>
       <c r="G46">
-        <v>1.63885373771926</v>
+        <v>1.38452857057573</v>
       </c>
       <c r="H46">
-        <v>0.71159774716742</v>
+        <v>0.874255165184933</v>
       </c>
       <c r="I46">
-        <v>2.18099599280684</v>
+        <v>1.85421425811804</v>
       </c>
       <c r="J46">
-        <v>5.21231258585426</v>
+        <v>4.71838201940741</v>
       </c>
       <c r="K46">
-        <v>1.11898711582748</v>
+        <v>1.15102708854444</v>
       </c>
       <c r="L46">
-        <v>13.2041043076766</v>
+        <v>11.6438229527442</v>
       </c>
       <c r="M46">
-        <v>3.53347711561173</v>
+        <v>3.07955451718987</v>
       </c>
       <c r="N46">
-        <v>8.698669511615201</v>
+        <v>7.04493522508999</v>
       </c>
       <c r="O46">
-        <v>323.484788052661</v>
+        <v>274.01807225034</v>
       </c>
       <c r="P46">
-        <v>8.750147069319089</v>
+        <v>7.19351691153064</v>
       </c>
     </row>
     <row r="47">
@@ -2786,49 +2786,49 @@
         </is>
       </c>
       <c r="B47">
-        <v>1414.24938523097</v>
+        <v>1399.54657950604</v>
       </c>
       <c r="C47">
-        <v>47.1577269546057</v>
+        <v>45.779490721905</v>
       </c>
       <c r="D47">
-        <v>7.9365617745703</v>
+        <v>7.09506063050244</v>
       </c>
       <c r="E47">
-        <v>37.6086968143176</v>
+        <v>42.7666468246582</v>
       </c>
       <c r="F47">
-        <v>10.2673068118589</v>
+        <v>13.0867844097696</v>
       </c>
       <c r="G47">
-        <v>25.7884812844717</v>
+        <v>27.6910453291801</v>
       </c>
       <c r="H47">
-        <v>14.9889421513338</v>
+        <v>13.7649915368782</v>
       </c>
       <c r="I47">
-        <v>9.87183714667743</v>
+        <v>9.90496936731701</v>
       </c>
       <c r="J47">
-        <v>29.5833092973245</v>
+        <v>29.5330872126831</v>
       </c>
       <c r="K47">
-        <v>4.39103892325006</v>
+        <v>3.22878663547293</v>
       </c>
       <c r="L47">
-        <v>20.7484874785774</v>
+        <v>20.5513083467912</v>
       </c>
       <c r="M47">
-        <v>65.56713114304461</v>
+        <v>72.0512857406295</v>
       </c>
       <c r="N47">
-        <v>27.4586903181225</v>
+        <v>25.8567036850755</v>
       </c>
       <c r="O47">
-        <v>3082.21439887247</v>
+        <v>3137.28389814963</v>
       </c>
       <c r="P47">
-        <v>48.4029998016306</v>
+        <v>46.3953832762203</v>
       </c>
     </row>
     <row r="48">
@@ -2838,49 +2838,49 @@
         </is>
       </c>
       <c r="B48">
-        <v>1219.21159002359</v>
+        <v>1193.5560457157</v>
       </c>
       <c r="C48">
-        <v>31.2864621292713</v>
+        <v>34.3856031747821</v>
       </c>
       <c r="D48">
-        <v>5.61601589235378</v>
+        <v>8.26292700602691</v>
       </c>
       <c r="E48">
-        <v>67.3596674807103</v>
+        <v>64.66996061638371</v>
       </c>
       <c r="F48">
-        <v>12.5463975432457</v>
+        <v>10.6441170366735</v>
       </c>
       <c r="G48">
-        <v>7.89384859733527</v>
+        <v>10.8187407499295</v>
       </c>
       <c r="H48">
-        <v>10.8786748236898</v>
+        <v>12.4494668935734</v>
       </c>
       <c r="I48">
-        <v>8.633141720355921</v>
+        <v>7.69950749201162</v>
       </c>
       <c r="J48">
-        <v>35.5226102460779</v>
+        <v>39.7320609591813</v>
       </c>
       <c r="K48">
-        <v>9.25239298550809</v>
+        <v>18.5446386207088</v>
       </c>
       <c r="L48">
-        <v>49.6974848080944</v>
+        <v>52.3682587404361</v>
       </c>
       <c r="M48">
-        <v>154.985329971831</v>
+        <v>156.459018838595</v>
       </c>
       <c r="N48">
-        <v>43.7938043805751</v>
+        <v>58.998596707392</v>
       </c>
       <c r="O48">
-        <v>2502.14541314436</v>
+        <v>2534.16811885471</v>
       </c>
       <c r="P48">
-        <v>87.83569159301121</v>
+        <v>99.3641164521564</v>
       </c>
     </row>
     <row r="49">
@@ -2890,49 +2890,49 @@
         </is>
       </c>
       <c r="B49">
-        <v>680.209556284583</v>
+        <v>605.092444911989</v>
       </c>
       <c r="C49">
-        <v>5.17976630894311</v>
+        <v>4.67073692254034</v>
       </c>
       <c r="D49">
-        <v>0.25366322960848</v>
+        <v>1.17972359533209</v>
       </c>
       <c r="E49">
-        <v>20.1454917333261</v>
+        <v>21.0178172926104</v>
       </c>
       <c r="F49">
-        <v>33.3407180730671</v>
+        <v>32.9875538123462</v>
       </c>
       <c r="G49">
-        <v>12.9086929182526</v>
+        <v>11.4395804630949</v>
       </c>
       <c r="H49">
-        <v>4.14149277720912</v>
+        <v>4.11108975217876</v>
       </c>
       <c r="I49">
-        <v>3.05074200967973</v>
+        <v>2.87281555623837</v>
       </c>
       <c r="J49">
-        <v>19.5283296087069</v>
+        <v>19.7034564316818</v>
       </c>
       <c r="K49">
-        <v>2.10337380329199</v>
+        <v>2.21658090049869</v>
       </c>
       <c r="L49">
-        <v>2.34309292772141</v>
+        <v>1.13975617826471</v>
       </c>
       <c r="M49">
-        <v>3.62480531269663</v>
+        <v>3.35689649445373</v>
       </c>
       <c r="N49">
-        <v>7.60207907464149</v>
+        <v>10.0420749381362</v>
       </c>
       <c r="O49">
-        <v>652.396290573427</v>
+        <v>610.854017069442</v>
       </c>
       <c r="P49">
-        <v>9.97858681560983</v>
+        <v>8.744371339737629</v>
       </c>
     </row>
     <row r="50">
@@ -2942,49 +2942,49 @@
         </is>
       </c>
       <c r="B50">
-        <v>932.089743541496</v>
+        <v>905.785856643386</v>
       </c>
       <c r="C50">
-        <v>67.9299872640525</v>
+        <v>64.3227885020338</v>
       </c>
       <c r="D50">
-        <v>5.98683334411076</v>
+        <v>4.79170853291583</v>
       </c>
       <c r="E50">
-        <v>124.825614934646</v>
+        <v>130.614296495896</v>
       </c>
       <c r="F50">
-        <v>4.21003174502675</v>
+        <v>5.69720792362612</v>
       </c>
       <c r="G50">
-        <v>33.6373679311535</v>
+        <v>33.9666923893814</v>
       </c>
       <c r="H50">
-        <v>38.6568754218501</v>
+        <v>48.607960520326</v>
       </c>
       <c r="I50">
-        <v>11.2254491409907</v>
+        <v>11.3990855343231</v>
       </c>
       <c r="J50">
-        <v>74.102616856162</v>
+        <v>73.67588520466489</v>
       </c>
       <c r="K50">
-        <v>40.2828031766388</v>
+        <v>43.401774324367</v>
       </c>
       <c r="L50">
-        <v>68.2776722071622</v>
+        <v>70.7067621397921</v>
       </c>
       <c r="M50">
-        <v>49.2335081220136</v>
+        <v>56.245389700696</v>
       </c>
       <c r="N50">
-        <v>58.1452477056954</v>
+        <v>62.441746165919</v>
       </c>
       <c r="O50">
-        <v>2184.24814631514</v>
+        <v>2227.05854301201</v>
       </c>
       <c r="P50">
-        <v>86.7622865746654</v>
+        <v>91.04839970986841</v>
       </c>
     </row>
     <row r="51">
@@ -2994,49 +2994,49 @@
         </is>
       </c>
       <c r="B51">
-        <v>108.645244195363</v>
+        <v>75.3857280034393</v>
       </c>
       <c r="C51">
-        <v>1.24302658665632</v>
+        <v>0.664126875099666</v>
       </c>
       <c r="D51">
-        <v>0.0482794152052773</v>
+        <v>0.0464789668598289</v>
       </c>
       <c r="E51">
-        <v>1.67354854366015</v>
+        <v>0.993046103328345</v>
       </c>
       <c r="F51">
-        <v>37.2195734601274</v>
+        <v>30.2952267642598</v>
       </c>
       <c r="G51">
-        <v>2.45206095488926</v>
+        <v>1.99970583075793</v>
       </c>
       <c r="H51">
-        <v>0.229548277463661</v>
+        <v>0.24012910938507</v>
       </c>
       <c r="I51">
-        <v>1.92716674343907</v>
+        <v>1.47006781142694</v>
       </c>
       <c r="J51">
-        <v>1.34527580104428</v>
+        <v>1.25566755524799</v>
       </c>
       <c r="K51">
-        <v>1.37090247338927</v>
+        <v>1.28609644629614</v>
       </c>
       <c r="L51">
-        <v>0.841779120713289</v>
+        <v>0.49756369311171</v>
       </c>
       <c r="M51">
-        <v>0.479421648741856</v>
+        <v>0.657409588802639</v>
       </c>
       <c r="N51">
-        <v>1.00663682899508</v>
+        <v>0.472978745914443</v>
       </c>
       <c r="O51">
-        <v>278.660719764065</v>
+        <v>209.855648334977</v>
       </c>
       <c r="P51">
-        <v>26.9741137879833</v>
+        <v>22.4175442092178</v>
       </c>
     </row>
     <row r="52">

--- a/1-Data-Codes/2-Final_Data/L_2007.xlsx
+++ b/1-Data-Codes/2-Final_Data/L_2007.xlsx
@@ -446,49 +446,49 @@
         </is>
       </c>
       <c r="B2">
-        <v>1284.75418961266</v>
+        <v>1485.83735203021</v>
       </c>
       <c r="C2">
-        <v>18.7934140835106</v>
+        <v>16.0876959316454</v>
       </c>
       <c r="D2">
-        <v>28.308669549776</v>
+        <v>23.784344279611</v>
       </c>
       <c r="E2">
-        <v>47.2848608675636</v>
+        <v>43.6416194574555</v>
       </c>
       <c r="F2">
-        <v>22.8860061766959</v>
+        <v>21.289175041741</v>
       </c>
       <c r="G2">
-        <v>19.6002408301174</v>
+        <v>14.6087709052888</v>
       </c>
       <c r="H2">
-        <v>9.4022570196217</v>
+        <v>4.56099096626965</v>
       </c>
       <c r="I2">
-        <v>13.0395314939614</v>
+        <v>17.1807664070227</v>
       </c>
       <c r="J2">
-        <v>68.14537952368011</v>
+        <v>69.2077241457302</v>
       </c>
       <c r="K2">
-        <v>9.804732895308749</v>
+        <v>8.238221687818189</v>
       </c>
       <c r="L2">
-        <v>54.4175206927272</v>
+        <v>44.0803489704312</v>
       </c>
       <c r="M2">
-        <v>70.75776504002511</v>
+        <v>71.2195383697516</v>
       </c>
       <c r="N2">
-        <v>21.3696413161511</v>
+        <v>19.8407513959711</v>
       </c>
       <c r="O2">
-        <v>1528.72823259715</v>
+        <v>1348.06577289077</v>
       </c>
       <c r="P2">
-        <v>25.2107324343464</v>
+        <v>23.6359878559922</v>
       </c>
     </row>
     <row r="3">
@@ -498,49 +498,49 @@
         </is>
       </c>
       <c r="B3">
-        <v>94.00639435132651</v>
+        <v>113.934644842163</v>
       </c>
       <c r="C3">
-        <v>0.573739114790136</v>
+        <v>0.8814218530140711</v>
       </c>
       <c r="D3">
-        <v>0.275052444128153</v>
+        <v>0.1832296906976</v>
       </c>
       <c r="E3">
-        <v>0.907651961588405</v>
+        <v>0.768551212710102</v>
       </c>
       <c r="F3">
-        <v>8.89898972386152</v>
+        <v>7.55316666905512</v>
       </c>
       <c r="G3">
-        <v>0.34174211725571</v>
+        <v>0.222467501508858</v>
       </c>
       <c r="H3">
-        <v>0.159404196656882</v>
+        <v>0.00408673814410457</v>
       </c>
       <c r="I3">
-        <v>0.390250066003494</v>
+        <v>0.383635570246517</v>
       </c>
       <c r="J3">
-        <v>0.302705996487674</v>
+        <v>0.25746864602268</v>
       </c>
       <c r="K3">
-        <v>0.152226764649032</v>
+        <v>0.0355396730447544</v>
       </c>
       <c r="L3">
-        <v>0.222370742567641</v>
+        <v>0.224516899869178</v>
       </c>
       <c r="M3">
-        <v>0.492615339765484</v>
+        <v>0.491354211936902</v>
       </c>
       <c r="N3">
-        <v>1.28326285076978</v>
+        <v>1.60716866160448</v>
       </c>
       <c r="O3">
-        <v>215.131276015194</v>
+        <v>200.901052572844</v>
       </c>
       <c r="P3">
-        <v>8.12118375604746</v>
+        <v>5.8328686896306</v>
       </c>
     </row>
     <row r="4">
@@ -550,49 +550,49 @@
         </is>
       </c>
       <c r="B4">
-        <v>1390.55185694876</v>
+        <v>1705.24512772941</v>
       </c>
       <c r="C4">
-        <v>17.5615009500734</v>
+        <v>10.6244319211289</v>
       </c>
       <c r="D4">
-        <v>1.78702253684001</v>
+        <v>5.08834979869637</v>
       </c>
       <c r="E4">
-        <v>20.0692592194784</v>
+        <v>14.0882600770219</v>
       </c>
       <c r="F4">
-        <v>11.9463511162946</v>
+        <v>15.315423132869</v>
       </c>
       <c r="G4">
-        <v>8.45904875736788</v>
+        <v>8.81776447142763</v>
       </c>
       <c r="H4">
-        <v>3.46310916037601</v>
+        <v>11.0686158398358</v>
       </c>
       <c r="I4">
-        <v>6.91188500990264</v>
+        <v>9.90180543298175</v>
       </c>
       <c r="J4">
-        <v>32.1612542458647</v>
+        <v>22.1624841211571</v>
       </c>
       <c r="K4">
-        <v>2.34596481620701</v>
+        <v>2.40939110836968</v>
       </c>
       <c r="L4">
-        <v>68.6892110341724</v>
+        <v>44.7562424654815</v>
       </c>
       <c r="M4">
-        <v>42.1455217706869</v>
+        <v>34.3394471887787</v>
       </c>
       <c r="N4">
-        <v>30.2276023334726</v>
+        <v>25.5084493738238</v>
       </c>
       <c r="O4">
-        <v>2367.41975718136</v>
+        <v>2093.31448632887</v>
       </c>
       <c r="P4">
-        <v>11.1551447812898</v>
+        <v>21.3752916325014</v>
       </c>
     </row>
     <row r="5">
@@ -602,49 +602,49 @@
         </is>
       </c>
       <c r="B5">
-        <v>682.235228426522</v>
+        <v>845.121604988656</v>
       </c>
       <c r="C5">
-        <v>52.6534550874195</v>
+        <v>40.5870340398374</v>
       </c>
       <c r="D5">
-        <v>11.2374464474828</v>
+        <v>6.28470018087532</v>
       </c>
       <c r="E5">
-        <v>22.102237039373</v>
+        <v>16.2097693273861</v>
       </c>
       <c r="F5">
-        <v>6.90225345304024</v>
+        <v>5.26728263691605</v>
       </c>
       <c r="G5">
-        <v>7.33125827278216</v>
+        <v>6.22455143243729</v>
       </c>
       <c r="H5">
-        <v>10.3604135585777</v>
+        <v>7.30455057611003</v>
       </c>
       <c r="I5">
-        <v>7.16266691894386</v>
+        <v>10.2794814241086</v>
       </c>
       <c r="J5">
-        <v>26.1461271426562</v>
+        <v>20.3375450369341</v>
       </c>
       <c r="K5">
-        <v>4.40540024531345</v>
+        <v>3.33493205154926</v>
       </c>
       <c r="L5">
-        <v>9.701654797600799</v>
+        <v>7.33514592587926</v>
       </c>
       <c r="M5">
-        <v>22.1669147236321</v>
+        <v>17.3584183354132</v>
       </c>
       <c r="N5">
-        <v>31.8333803067733</v>
+        <v>23.625127469671</v>
       </c>
       <c r="O5">
-        <v>1056.23405646255</v>
+        <v>924.083149924352</v>
       </c>
       <c r="P5">
-        <v>54.3325319564754</v>
+        <v>45.0842322690076</v>
       </c>
     </row>
     <row r="6">
@@ -654,49 +654,49 @@
         </is>
       </c>
       <c r="B6">
-        <v>7029.70153398451</v>
+        <v>8902.033327954739</v>
       </c>
       <c r="C6">
-        <v>200.162933052244</v>
+        <v>151.364600901254</v>
       </c>
       <c r="D6">
-        <v>33.3976447416189</v>
+        <v>29.0314518810592</v>
       </c>
       <c r="E6">
-        <v>154.153692418211</v>
+        <v>129.743580474079</v>
       </c>
       <c r="F6">
-        <v>45.5731034871519</v>
+        <v>41.700723624885</v>
       </c>
       <c r="G6">
-        <v>104.100297899226</v>
+        <v>84.9528871170708</v>
       </c>
       <c r="H6">
-        <v>47.8018285748832</v>
+        <v>42.8870150919072</v>
       </c>
       <c r="I6">
-        <v>34.8196396228528</v>
+        <v>24.2417998890915</v>
       </c>
       <c r="J6">
-        <v>157.540687793082</v>
+        <v>138.198031366119</v>
       </c>
       <c r="K6">
-        <v>35.0649993854291</v>
+        <v>30.0739113920692</v>
       </c>
       <c r="L6">
-        <v>455.659488353123</v>
+        <v>353.689043036655</v>
       </c>
       <c r="M6">
-        <v>240.142677948575</v>
+        <v>197.758833925643</v>
       </c>
       <c r="N6">
-        <v>319.379222247192</v>
+        <v>226.268206754559</v>
       </c>
       <c r="O6">
-        <v>13581.1827275802</v>
+        <v>12222.3268040132</v>
       </c>
       <c r="P6">
-        <v>285.645540313822</v>
+        <v>216.384320145823</v>
       </c>
     </row>
     <row r="7">
@@ -706,49 +706,49 @@
         </is>
       </c>
       <c r="B7">
-        <v>755.246469527511</v>
+        <v>959.644786826046</v>
       </c>
       <c r="C7">
-        <v>46.7436412180844</v>
+        <v>46.3544267568118</v>
       </c>
       <c r="D7">
-        <v>4.13519302005539</v>
+        <v>7.62670465066453</v>
       </c>
       <c r="E7">
-        <v>17.6975764362833</v>
+        <v>12.4605769783027</v>
       </c>
       <c r="F7">
-        <v>24.9026061510337</v>
+        <v>25.5617091071803</v>
       </c>
       <c r="G7">
-        <v>12.1519803476669</v>
+        <v>12.4552146154064</v>
       </c>
       <c r="H7">
-        <v>2.96941159133844</v>
+        <v>6.27107849522699</v>
       </c>
       <c r="I7">
-        <v>9.688375026875571</v>
+        <v>8.121208490006341</v>
       </c>
       <c r="J7">
-        <v>22.4016228093817</v>
+        <v>18.0111555302508</v>
       </c>
       <c r="K7">
-        <v>7.77604351841402</v>
+        <v>12.9819079879142</v>
       </c>
       <c r="L7">
-        <v>46.6638706518178</v>
+        <v>25.3416488111492</v>
       </c>
       <c r="M7">
-        <v>23.6659875726099</v>
+        <v>16.1337753968683</v>
       </c>
       <c r="N7">
-        <v>25.6514092351149</v>
+        <v>22.2629944877847</v>
       </c>
       <c r="O7">
-        <v>2064.78300304076</v>
+        <v>1888.99257864754</v>
       </c>
       <c r="P7">
-        <v>33.2319816080987</v>
+        <v>31.8386477273042</v>
       </c>
     </row>
     <row r="8">
@@ -758,49 +758,49 @@
         </is>
       </c>
       <c r="B8">
-        <v>590.258340650856</v>
+        <v>799.000627248994</v>
       </c>
       <c r="C8">
-        <v>12.5655619902848</v>
+        <v>9.34602197745444</v>
       </c>
       <c r="D8">
-        <v>3.15823166962468</v>
+        <v>3.09871928354093</v>
       </c>
       <c r="E8">
-        <v>19.246494605091</v>
+        <v>19.0550205663719</v>
       </c>
       <c r="F8">
-        <v>3.49652750796028</v>
+        <v>3.21424173485356</v>
       </c>
       <c r="G8">
-        <v>21.8672591793669</v>
+        <v>17.3876890111218</v>
       </c>
       <c r="H8">
-        <v>7.87712552211835</v>
+        <v>7.83895681274537</v>
       </c>
       <c r="I8">
-        <v>8.26897698980893</v>
+        <v>6.21812280907385</v>
       </c>
       <c r="J8">
-        <v>44.567652137779</v>
+        <v>34.0295903304938</v>
       </c>
       <c r="K8">
-        <v>8.823167306525971</v>
+        <v>6.32492453606617</v>
       </c>
       <c r="L8">
-        <v>39.1688200169941</v>
+        <v>30.0857825541647</v>
       </c>
       <c r="M8">
-        <v>54.4825592252946</v>
+        <v>46.348133782368</v>
       </c>
       <c r="N8">
-        <v>32.6876813490127</v>
+        <v>28.076056035187</v>
       </c>
       <c r="O8">
-        <v>1472.99475073222</v>
+        <v>1314.9039823321</v>
       </c>
       <c r="P8">
-        <v>10.636508886314</v>
+        <v>8.202408681428331</v>
       </c>
     </row>
     <row r="9">
@@ -810,49 +810,49 @@
         </is>
       </c>
       <c r="B9">
-        <v>158.450178623454</v>
+        <v>214.321421145366</v>
       </c>
       <c r="C9">
-        <v>6.9833433880166</v>
+        <v>5.09057466746257</v>
       </c>
       <c r="D9">
-        <v>1.47630545701622</v>
+        <v>1.41074207690435</v>
       </c>
       <c r="E9">
-        <v>3.72843949464635</v>
+        <v>2.95008359443488</v>
       </c>
       <c r="F9">
-        <v>0.951233100654116</v>
+        <v>0.925970101987784</v>
       </c>
       <c r="G9">
-        <v>20.6117583225985</v>
+        <v>15.5200751892596</v>
       </c>
       <c r="H9">
-        <v>2.22227648550048</v>
+        <v>1.65176765657348</v>
       </c>
       <c r="I9">
-        <v>1.5157759041121</v>
+        <v>2.21705736266395</v>
       </c>
       <c r="J9">
-        <v>2.9350185187243</v>
+        <v>2.26957256975168</v>
       </c>
       <c r="K9">
-        <v>0.380712947775512</v>
+        <v>0.52449290691245</v>
       </c>
       <c r="L9">
-        <v>2.26984377376978</v>
+        <v>0.949773191075013</v>
       </c>
       <c r="M9">
-        <v>6.12245804063318</v>
+        <v>4.03594687725802</v>
       </c>
       <c r="N9">
-        <v>1.96877886910385</v>
+        <v>0.791037858771539</v>
       </c>
       <c r="O9">
-        <v>364.930725092718</v>
+        <v>321.93173356725</v>
       </c>
       <c r="P9">
-        <v>5.00145619585579</v>
+        <v>3.74933422561211</v>
       </c>
     </row>
     <row r="10">
@@ -862,49 +862,49 @@
         </is>
       </c>
       <c r="B10">
-        <v>3917.96887256837</v>
+        <v>5320.96759001624</v>
       </c>
       <c r="C10">
-        <v>51.7710838933126</v>
+        <v>49.8631400091367</v>
       </c>
       <c r="D10">
-        <v>9.732292460980551</v>
+        <v>12.8525871051209</v>
       </c>
       <c r="E10">
-        <v>69.5475660786595</v>
+        <v>52.6311060271657</v>
       </c>
       <c r="F10">
-        <v>10.4185297680537</v>
+        <v>11.3829068386258</v>
       </c>
       <c r="G10">
-        <v>43.6729241108742</v>
+        <v>22.9654534406578</v>
       </c>
       <c r="H10">
-        <v>12.6008528080058</v>
+        <v>8.909501960514451</v>
       </c>
       <c r="I10">
-        <v>20.8579065072461</v>
+        <v>23.3851090285671</v>
       </c>
       <c r="J10">
-        <v>53.6313452470402</v>
+        <v>50.9251412260494</v>
       </c>
       <c r="K10">
-        <v>11.302504717047</v>
+        <v>8.30986319751589</v>
       </c>
       <c r="L10">
-        <v>58.3214602525916</v>
+        <v>52.3320883289691</v>
       </c>
       <c r="M10">
-        <v>81.6239227640468</v>
+        <v>48.7239903162274</v>
       </c>
       <c r="N10">
-        <v>89.141777997324</v>
+        <v>80.4802641109177</v>
       </c>
       <c r="O10">
-        <v>7927.46814416793</v>
+        <v>6763.13084099662</v>
       </c>
       <c r="P10">
-        <v>59.4621078457515</v>
+        <v>69.77212080273959</v>
       </c>
     </row>
     <row r="11">
@@ -914,49 +914,49 @@
         </is>
       </c>
       <c r="B11">
-        <v>1913.98092092191</v>
+        <v>2280.70890815966</v>
       </c>
       <c r="C11">
-        <v>68.52385290557589</v>
+        <v>52.7627622935615</v>
       </c>
       <c r="D11">
-        <v>107.645902707966</v>
+        <v>96.1737088892052</v>
       </c>
       <c r="E11">
-        <v>82.39919928739541</v>
+        <v>69.7958451635471</v>
       </c>
       <c r="F11">
-        <v>15.1282181029076</v>
+        <v>13.0879532549567</v>
       </c>
       <c r="G11">
-        <v>30.7929607712176</v>
+        <v>19.733480883753</v>
       </c>
       <c r="H11">
-        <v>23.0715939346189</v>
+        <v>24.7109394432407</v>
       </c>
       <c r="I11">
-        <v>10.9932649189589</v>
+        <v>13.2947264472711</v>
       </c>
       <c r="J11">
-        <v>43.3347444074629</v>
+        <v>39.3650047203562</v>
       </c>
       <c r="K11">
-        <v>5.43363934467075</v>
+        <v>6.41910381546299</v>
       </c>
       <c r="L11">
-        <v>49.5024438934795</v>
+        <v>33.2153461801735</v>
       </c>
       <c r="M11">
-        <v>68.6997286187749</v>
+        <v>50.3982565617973</v>
       </c>
       <c r="N11">
-        <v>58.1697066210397</v>
+        <v>55.9580669259707</v>
       </c>
       <c r="O11">
-        <v>3465.01568804675</v>
+        <v>3125.43607062875</v>
       </c>
       <c r="P11">
-        <v>57.8049577187517</v>
+        <v>45.6967452512766</v>
       </c>
     </row>
     <row r="12">
@@ -966,49 +966,49 @@
         </is>
       </c>
       <c r="B12">
-        <v>212.1382488862</v>
+        <v>309.732165065265</v>
       </c>
       <c r="C12">
-        <v>6.65101064614869</v>
+        <v>5.55257520112538</v>
       </c>
       <c r="D12">
-        <v>0.570999535074226</v>
+        <v>0.976121890897381</v>
       </c>
       <c r="E12">
-        <v>2.54021979631572</v>
+        <v>3.08553870028529</v>
       </c>
       <c r="F12">
-        <v>0.881107880357295</v>
+        <v>0.767557376228471</v>
       </c>
       <c r="G12">
-        <v>0.150781901743904</v>
+        <v>0.108962601185253</v>
       </c>
       <c r="H12">
-        <v>0.02207224055568</v>
+        <v>0.051001243358031</v>
       </c>
       <c r="I12">
-        <v>0.659616978921957</v>
+        <v>0.788434277539133</v>
       </c>
       <c r="J12">
-        <v>1.72125758869583</v>
+        <v>1.68359750955618</v>
       </c>
       <c r="K12">
-        <v>0.661726525924846</v>
+        <v>1.34441675812661</v>
       </c>
       <c r="L12">
-        <v>0.0134828283179153</v>
+        <v>0.0789381918490982</v>
       </c>
       <c r="M12">
-        <v>1.40023172842371</v>
+        <v>1.06559028300122</v>
       </c>
       <c r="N12">
-        <v>4.94032256363042</v>
+        <v>4.29558514552844</v>
       </c>
       <c r="O12">
-        <v>556.442850136287</v>
+        <v>472.737765426705</v>
       </c>
       <c r="P12">
-        <v>14.6765666535902</v>
+        <v>10.1650712352937</v>
       </c>
     </row>
     <row r="13">
@@ -1018,49 +1018,49 @@
         </is>
       </c>
       <c r="B13">
-        <v>227.066811773118</v>
+        <v>312.569895349976</v>
       </c>
       <c r="C13">
-        <v>22.2188776240612</v>
+        <v>20.6426713958939</v>
       </c>
       <c r="D13">
-        <v>1.49999029706596</v>
+        <v>1.28373925064174</v>
       </c>
       <c r="E13">
-        <v>11.8442662303176</v>
+        <v>7.8136461317773</v>
       </c>
       <c r="F13">
-        <v>3.15340008711817</v>
+        <v>4.37473048624468</v>
       </c>
       <c r="G13">
-        <v>6.89074046597743</v>
+        <v>5.3500463665742</v>
       </c>
       <c r="H13">
-        <v>2.40060948406986</v>
+        <v>3.56629139944497</v>
       </c>
       <c r="I13">
-        <v>2.11835439267668</v>
+        <v>2.59481520950533</v>
       </c>
       <c r="J13">
-        <v>5.48632074006349</v>
+        <v>2.38018816291596</v>
       </c>
       <c r="K13">
-        <v>4.28735509122193</v>
+        <v>3.69416543544758</v>
       </c>
       <c r="L13">
-        <v>19.8689378829047</v>
+        <v>16.3204076355733</v>
       </c>
       <c r="M13">
-        <v>2.99894314696584</v>
+        <v>3.41303550026537</v>
       </c>
       <c r="N13">
-        <v>2.68200582445897</v>
+        <v>2.19804798735004</v>
       </c>
       <c r="O13">
-        <v>580.531026807733</v>
+        <v>526.393939723922</v>
       </c>
       <c r="P13">
-        <v>43.5468573527666</v>
+        <v>34.0147372139298</v>
       </c>
     </row>
     <row r="14">
@@ -1070,49 +1070,49 @@
         </is>
       </c>
       <c r="B14">
-        <v>2343.54878743777</v>
+        <v>3116.43262501696</v>
       </c>
       <c r="C14">
-        <v>128.993421173722</v>
+        <v>122.608967365655</v>
       </c>
       <c r="D14">
-        <v>9.34168204997949</v>
+        <v>14.7507584331468</v>
       </c>
       <c r="E14">
-        <v>83.2931070584674</v>
+        <v>66.7214080506881</v>
       </c>
       <c r="F14">
-        <v>13.8536302453165</v>
+        <v>9.477065771860911</v>
       </c>
       <c r="G14">
-        <v>88.3971138041281</v>
+        <v>75.48445530311341</v>
       </c>
       <c r="H14">
-        <v>50.750607322101</v>
+        <v>40.3423732071652</v>
       </c>
       <c r="I14">
-        <v>26.8396325185086</v>
+        <v>14.1570066249257</v>
       </c>
       <c r="J14">
-        <v>136.686991564937</v>
+        <v>104.039047399202</v>
       </c>
       <c r="K14">
-        <v>66.68154191945951</v>
+        <v>39.4451234757286</v>
       </c>
       <c r="L14">
-        <v>99.9929117217259</v>
+        <v>79.3608253676022</v>
       </c>
       <c r="M14">
-        <v>90.91535409560569</v>
+        <v>76.3499687709237</v>
       </c>
       <c r="N14">
-        <v>64.62464033313741</v>
+        <v>46.893435235456</v>
       </c>
       <c r="O14">
-        <v>5129.79040207299</v>
+        <v>4528.09592903484</v>
       </c>
       <c r="P14">
-        <v>64.2991928346794</v>
+        <v>41.9941961326197</v>
       </c>
     </row>
     <row r="15">
@@ -1122,49 +1122,49 @@
         </is>
       </c>
       <c r="B15">
-        <v>1178.4769795183</v>
+        <v>1577.24565365536</v>
       </c>
       <c r="C15">
-        <v>66.330160777636</v>
+        <v>50.9671054512538</v>
       </c>
       <c r="D15">
-        <v>5.54937219108713</v>
+        <v>5.45749762490313</v>
       </c>
       <c r="E15">
-        <v>58.5123985123715</v>
+        <v>57.1251627977516</v>
       </c>
       <c r="F15">
-        <v>19.9243250614498</v>
+        <v>15.031397822599</v>
       </c>
       <c r="G15">
-        <v>57.2645198181851</v>
+        <v>40.3868525366383</v>
       </c>
       <c r="H15">
-        <v>38.3367548004137</v>
+        <v>37.2683424354176</v>
       </c>
       <c r="I15">
-        <v>28.6898502871637</v>
+        <v>22.9241047748046</v>
       </c>
       <c r="J15">
-        <v>142.615731824429</v>
+        <v>105.158432133134</v>
       </c>
       <c r="K15">
-        <v>33.7268115971573</v>
+        <v>28.800623008079</v>
       </c>
       <c r="L15">
-        <v>43.0388233228017</v>
+        <v>30.875876146688</v>
       </c>
       <c r="M15">
-        <v>157.446176180493</v>
+        <v>145.564674224459</v>
       </c>
       <c r="N15">
-        <v>87.9278552782795</v>
+        <v>84.2113188167318</v>
       </c>
       <c r="O15">
-        <v>2296.95872512691</v>
+        <v>2014.67591009656</v>
       </c>
       <c r="P15">
-        <v>51.6809834843882</v>
+        <v>46.3672440914354</v>
       </c>
     </row>
     <row r="16">
@@ -1174,49 +1174,49 @@
         </is>
       </c>
       <c r="B16">
-        <v>430.70692754972</v>
+        <v>627.259395154177</v>
       </c>
       <c r="C16">
-        <v>68.74747114606041</v>
+        <v>49.7243477713497</v>
       </c>
       <c r="D16">
-        <v>4.27865203567402</v>
+        <v>4.25010043757305</v>
       </c>
       <c r="E16">
-        <v>30.0699666830088</v>
+        <v>25.820836457252</v>
       </c>
       <c r="F16">
-        <v>2.78187513969625</v>
+        <v>2.40658737994501</v>
       </c>
       <c r="G16">
-        <v>14.4873491670369</v>
+        <v>11.0367771352504</v>
       </c>
       <c r="H16">
-        <v>15.0658124486181</v>
+        <v>15.0426661640022</v>
       </c>
       <c r="I16">
-        <v>3.91375688577754</v>
+        <v>5.17934097694519</v>
       </c>
       <c r="J16">
-        <v>42.5343675872113</v>
+        <v>36.8177237726885</v>
       </c>
       <c r="K16">
-        <v>41.6806568627907</v>
+        <v>36.2406247916186</v>
       </c>
       <c r="L16">
-        <v>16.1067166202128</v>
+        <v>9.44707431015828</v>
       </c>
       <c r="M16">
-        <v>24.2395649909052</v>
+        <v>23.7775839841957</v>
       </c>
       <c r="N16">
-        <v>29.9896929887702</v>
+        <v>24.5367499292589</v>
       </c>
       <c r="O16">
-        <v>1232.11133666512</v>
+        <v>1102.05781307869</v>
       </c>
       <c r="P16">
-        <v>86.61999972946541</v>
+        <v>71.6684086625403</v>
       </c>
     </row>
     <row r="17">
@@ -1226,49 +1226,49 @@
         </is>
       </c>
       <c r="B17">
-        <v>446.733608625995</v>
+        <v>606.8275071002701</v>
       </c>
       <c r="C17">
-        <v>23.3409663989447</v>
+        <v>20.577383172505</v>
       </c>
       <c r="D17">
-        <v>1.32957073742419</v>
+        <v>5.71342532485688</v>
       </c>
       <c r="E17">
-        <v>16.9752391717179</v>
+        <v>13.5820419685011</v>
       </c>
       <c r="F17">
-        <v>14.6849886302707</v>
+        <v>11.9836579245628</v>
       </c>
       <c r="G17">
-        <v>15.2742764326607</v>
+        <v>11.134498725553</v>
       </c>
       <c r="H17">
-        <v>12.2004224999232</v>
+        <v>11.2411443638178</v>
       </c>
       <c r="I17">
-        <v>4.51242799750392</v>
+        <v>5.71657748390731</v>
       </c>
       <c r="J17">
-        <v>18.7132255464332</v>
+        <v>16.3599540705927</v>
       </c>
       <c r="K17">
-        <v>8.86397987329096</v>
+        <v>8.47926262178067</v>
       </c>
       <c r="L17">
-        <v>10.3503016119247</v>
+        <v>7.04302557838206</v>
       </c>
       <c r="M17">
-        <v>65.1607067438016</v>
+        <v>58.0183671331111</v>
       </c>
       <c r="N17">
-        <v>10.3812214204382</v>
+        <v>7.79909920865569</v>
       </c>
       <c r="O17">
-        <v>1098.0591685312</v>
+        <v>997.084037373851</v>
       </c>
       <c r="P17">
-        <v>48.1505462302276</v>
+        <v>37.9784480109998</v>
       </c>
     </row>
     <row r="18">
@@ -1278,49 +1278,49 @@
         </is>
       </c>
       <c r="B18">
-        <v>1079.56495540544</v>
+        <v>1272.93333666273</v>
       </c>
       <c r="C18">
-        <v>30.4729518682033</v>
+        <v>24.1395537598237</v>
       </c>
       <c r="D18">
-        <v>4.38113362280052</v>
+        <v>4.4959574564984</v>
       </c>
       <c r="E18">
-        <v>30.3654481616002</v>
+        <v>29.314562770525</v>
       </c>
       <c r="F18">
-        <v>40.7558370621366</v>
+        <v>31.946456975849</v>
       </c>
       <c r="G18">
-        <v>12.5183179617184</v>
+        <v>12.0971443275059</v>
       </c>
       <c r="H18">
-        <v>8.7649044263503</v>
+        <v>5.84605432177517</v>
       </c>
       <c r="I18">
-        <v>6.22396574678258</v>
+        <v>5.35186142400695</v>
       </c>
       <c r="J18">
-        <v>19.2344799632445</v>
+        <v>12.1837471020393</v>
       </c>
       <c r="K18">
-        <v>6.38812952467193</v>
+        <v>6.37991237189977</v>
       </c>
       <c r="L18">
-        <v>27.1526670524629</v>
+        <v>22.3625680257452</v>
       </c>
       <c r="M18">
-        <v>59.599565496944</v>
+        <v>51.054186687474</v>
       </c>
       <c r="N18">
-        <v>21.502794750854</v>
+        <v>23.3472816027211</v>
       </c>
       <c r="O18">
-        <v>1538.51446910495</v>
+        <v>1367.8102134846</v>
       </c>
       <c r="P18">
-        <v>56.2883914701655</v>
+        <v>47.2984026456446</v>
       </c>
     </row>
     <row r="19">
@@ -1330,49 +1330,49 @@
         </is>
       </c>
       <c r="B19">
-        <v>949.761440488694</v>
+        <v>1227.73732959413</v>
       </c>
       <c r="C19">
-        <v>34.1062855456221</v>
+        <v>36.48637838161</v>
       </c>
       <c r="D19">
-        <v>9.79931002537497</v>
+        <v>11.3700831008043</v>
       </c>
       <c r="E19">
-        <v>30.6601156204187</v>
+        <v>28.3063638906223</v>
       </c>
       <c r="F19">
-        <v>78.9276029242247</v>
+        <v>67.4980645544197</v>
       </c>
       <c r="G19">
-        <v>45.2668390862789</v>
+        <v>33.5122400322042</v>
       </c>
       <c r="H19">
-        <v>11.4127709734298</v>
+        <v>3.00016686467613</v>
       </c>
       <c r="I19">
-        <v>5.64596276266323</v>
+        <v>5.18480054414191</v>
       </c>
       <c r="J19">
-        <v>20.1519068053888</v>
+        <v>20.8350631322485</v>
       </c>
       <c r="K19">
-        <v>7.72719708820836</v>
+        <v>9.00741447707129</v>
       </c>
       <c r="L19">
-        <v>7.69848228333908</v>
+        <v>3.91813283389998</v>
       </c>
       <c r="M19">
-        <v>14.4240595159071</v>
+        <v>6.08504534620312</v>
       </c>
       <c r="N19">
-        <v>16.5856867053897</v>
+        <v>10.4831735335606</v>
       </c>
       <c r="O19">
-        <v>1637.27716912154</v>
+        <v>1412.67443414908</v>
       </c>
       <c r="P19">
-        <v>34.2692303595062</v>
+        <v>23.6595552990772</v>
       </c>
     </row>
     <row r="20">
@@ -1382,49 +1382,49 @@
         </is>
       </c>
       <c r="B20">
-        <v>265.462941343412</v>
+        <v>349.827819679968</v>
       </c>
       <c r="C20">
-        <v>8.452335305842711</v>
+        <v>7.21979255784987</v>
       </c>
       <c r="D20">
-        <v>5.90542808830762</v>
+        <v>5.33578149120416</v>
       </c>
       <c r="E20">
-        <v>28.8591775727573</v>
+        <v>26.0970324813546</v>
       </c>
       <c r="F20">
-        <v>1.18365845632448</v>
+        <v>1.00968563048123</v>
       </c>
       <c r="G20">
-        <v>4.16750721611311</v>
+        <v>2.49852920546065</v>
       </c>
       <c r="H20">
-        <v>1.61628877015871</v>
+        <v>1.45144780599325</v>
       </c>
       <c r="I20">
-        <v>2.6674361439993</v>
+        <v>2.43794001364622</v>
       </c>
       <c r="J20">
-        <v>4.90620060338414</v>
+        <v>4.39776262561608</v>
       </c>
       <c r="K20">
-        <v>0.852392930118797</v>
+        <v>0.9577572356870691</v>
       </c>
       <c r="L20">
-        <v>7.10466533341342</v>
+        <v>5.62060214529508</v>
       </c>
       <c r="M20">
-        <v>17.4648974257754</v>
+        <v>11.5652585136588</v>
       </c>
       <c r="N20">
-        <v>6.85064278626632</v>
+        <v>3.8972197849405</v>
       </c>
       <c r="O20">
-        <v>573.895720911812</v>
+        <v>499.76984625665</v>
       </c>
       <c r="P20">
-        <v>23.3492269799798</v>
+        <v>18.8199570144382</v>
       </c>
     </row>
     <row r="21">
@@ -1434,49 +1434,49 @@
         </is>
       </c>
       <c r="B21">
-        <v>957.2528166803151</v>
+        <v>1348.35267568638</v>
       </c>
       <c r="C21">
-        <v>16.7881097174361</v>
+        <v>11.1528854451611</v>
       </c>
       <c r="D21">
-        <v>1.30046502194488</v>
+        <v>1.27114868190029</v>
       </c>
       <c r="E21">
-        <v>18.2614672889988</v>
+        <v>12.3836569323252</v>
       </c>
       <c r="F21">
-        <v>2.0627990047982</v>
+        <v>3.91755635731674</v>
       </c>
       <c r="G21">
-        <v>13.4053912385912</v>
+        <v>7.76057817750395</v>
       </c>
       <c r="H21">
-        <v>3.77563669653886</v>
+        <v>2.19211260504525</v>
       </c>
       <c r="I21">
-        <v>13.33615480965</v>
+        <v>11.3507081415752</v>
       </c>
       <c r="J21">
-        <v>10.3553636787317</v>
+        <v>14.5274420689864</v>
       </c>
       <c r="K21">
-        <v>3.45638115646748</v>
+        <v>1.87986594889686</v>
       </c>
       <c r="L21">
-        <v>23.88464242826</v>
+        <v>18.6876223005031</v>
       </c>
       <c r="M21">
-        <v>19.8848206834647</v>
+        <v>10.6414972755149</v>
       </c>
       <c r="N21">
-        <v>16.8378503956905</v>
+        <v>14.2403766144256</v>
       </c>
       <c r="O21">
-        <v>2397.28106403734</v>
+        <v>2116.79785716783</v>
       </c>
       <c r="P21">
-        <v>19.8582414283234</v>
+        <v>21.3901592039549</v>
       </c>
     </row>
     <row r="22">
@@ -1486,49 +1486,49 @@
         </is>
       </c>
       <c r="B22">
-        <v>1165.5105048615</v>
+        <v>1606.6622667531</v>
       </c>
       <c r="C22">
-        <v>23.5983104520087</v>
+        <v>22.0163503294367</v>
       </c>
       <c r="D22">
-        <v>7.20670350034388</v>
+        <v>4.11434010521278</v>
       </c>
       <c r="E22">
-        <v>39.0598179600596</v>
+        <v>21.4936233257273</v>
       </c>
       <c r="F22">
-        <v>2.72628569704867</v>
+        <v>1.94512545113665</v>
       </c>
       <c r="G22">
-        <v>24.8157137870119</v>
+        <v>24.697690779748</v>
       </c>
       <c r="H22">
-        <v>9.875033971032829</v>
+        <v>10.7728382336289</v>
       </c>
       <c r="I22">
-        <v>6.4826456205279</v>
+        <v>5.41187876367218</v>
       </c>
       <c r="J22">
-        <v>41.3127079977625</v>
+        <v>46.8895406829142</v>
       </c>
       <c r="K22">
-        <v>2.24387588684725</v>
+        <v>3.07381403177679</v>
       </c>
       <c r="L22">
-        <v>80.6831167001194</v>
+        <v>57.3498923979923</v>
       </c>
       <c r="M22">
-        <v>21.0564184689039</v>
+        <v>8.119185750895269</v>
       </c>
       <c r="N22">
-        <v>62.9809113150976</v>
+        <v>40.6192376067614</v>
       </c>
       <c r="O22">
-        <v>2784.8254743724</v>
+        <v>2437.03086937308</v>
       </c>
       <c r="P22">
-        <v>15.373471125826</v>
+        <v>10.7993537028044</v>
       </c>
     </row>
     <row r="23">
@@ -1538,49 +1538,49 @@
         </is>
       </c>
       <c r="B23">
-        <v>2302.56374224171</v>
+        <v>2791.36386639983</v>
       </c>
       <c r="C23">
-        <v>40.3252813174789</v>
+        <v>31.8110075031763</v>
       </c>
       <c r="D23">
-        <v>7.29871516917579</v>
+        <v>4.8015111832859</v>
       </c>
       <c r="E23">
-        <v>54.7413630987801</v>
+        <v>47.5397291367361</v>
       </c>
       <c r="F23">
-        <v>5.95846895642752</v>
+        <v>7.99831138044749</v>
       </c>
       <c r="G23">
-        <v>55.4178194767421</v>
+        <v>42.2834605728301</v>
       </c>
       <c r="H23">
-        <v>61.0166212900659</v>
+        <v>51.9614707145234</v>
       </c>
       <c r="I23">
-        <v>24.5175260519343</v>
+        <v>20.7788806907741</v>
       </c>
       <c r="J23">
-        <v>90.6307792711486</v>
+        <v>83.4385867378973</v>
       </c>
       <c r="K23">
-        <v>66.3612376513675</v>
+        <v>61.4946378417853</v>
       </c>
       <c r="L23">
-        <v>35.5107836791562</v>
+        <v>34.5205405272783</v>
       </c>
       <c r="M23">
-        <v>510.600761577114</v>
+        <v>418.682706450815</v>
       </c>
       <c r="N23">
-        <v>99.15619815092781</v>
+        <v>85.9127768655778</v>
       </c>
       <c r="O23">
-        <v>3404.37314543956</v>
+        <v>3087.58751332007</v>
       </c>
       <c r="P23">
-        <v>72.7963421427751</v>
+        <v>60.2060292139908</v>
       </c>
     </row>
     <row r="24">
@@ -1590,49 +1590,49 @@
         </is>
       </c>
       <c r="B24">
-        <v>768.300707903144</v>
+        <v>1048.39169996267</v>
       </c>
       <c r="C24">
-        <v>47.815573361886</v>
+        <v>41.9600075585352</v>
       </c>
       <c r="D24">
-        <v>10.1623235603083</v>
+        <v>7.30978873390698</v>
       </c>
       <c r="E24">
-        <v>63.3079178465299</v>
+        <v>52.2316061323608</v>
       </c>
       <c r="F24">
-        <v>10.5631246779804</v>
+        <v>8.292824533155001</v>
       </c>
       <c r="G24">
-        <v>26.7587242429941</v>
+        <v>16.8955477515461</v>
       </c>
       <c r="H24">
-        <v>19.1335998086751</v>
+        <v>17.3027218375189</v>
       </c>
       <c r="I24">
-        <v>15.2219345532567</v>
+        <v>14.754085850388</v>
       </c>
       <c r="J24">
-        <v>48.5097277208072</v>
+        <v>40.5003949297882</v>
       </c>
       <c r="K24">
-        <v>19.7654193288054</v>
+        <v>13.5874991940042</v>
       </c>
       <c r="L24">
-        <v>57.5885611956646</v>
+        <v>50.5704337466606</v>
       </c>
       <c r="M24">
-        <v>18.1657584159538</v>
+        <v>13.5843506060838</v>
       </c>
       <c r="N24">
-        <v>67.9555318953858</v>
+        <v>51.6046599529489</v>
       </c>
       <c r="O24">
-        <v>2189.22803303094</v>
+        <v>2010.10942242072</v>
       </c>
       <c r="P24">
-        <v>71.4818948095171</v>
+        <v>61.9638610902001</v>
       </c>
     </row>
     <row r="25">
@@ -1642,49 +1642,49 @@
         </is>
       </c>
       <c r="B25">
-        <v>737.062601251335</v>
+        <v>879.365421073717</v>
       </c>
       <c r="C25">
-        <v>32.7896178056263</v>
+        <v>16.6392775848928</v>
       </c>
       <c r="D25">
-        <v>10.2762191275071</v>
+        <v>8.295135877378741</v>
       </c>
       <c r="E25">
-        <v>36.4478826092922</v>
+        <v>30.1057286895252</v>
       </c>
       <c r="F25">
-        <v>16.2557077036921</v>
+        <v>21.9683853357901</v>
       </c>
       <c r="G25">
-        <v>5.42396933969098</v>
+        <v>8.69817583489349</v>
       </c>
       <c r="H25">
-        <v>8.63385551409781</v>
+        <v>7.41972230881719</v>
       </c>
       <c r="I25">
-        <v>1.67268182031498</v>
+        <v>0.915061275549751</v>
       </c>
       <c r="J25">
-        <v>10.4574778251171</v>
+        <v>7.15953546163283</v>
       </c>
       <c r="K25">
-        <v>5.82714084945317</v>
+        <v>2.72662647540005</v>
       </c>
       <c r="L25">
-        <v>7.78984032606919</v>
+        <v>3.54664145280961</v>
       </c>
       <c r="M25">
-        <v>36.8489398131366</v>
+        <v>25.2342623313988</v>
       </c>
       <c r="N25">
-        <v>42.2367627702337</v>
+        <v>39.758943661041</v>
       </c>
       <c r="O25">
-        <v>905.840950928852</v>
+        <v>802.478118618322</v>
       </c>
       <c r="P25">
-        <v>50.9009941645572</v>
+        <v>50.3596889248587</v>
       </c>
     </row>
     <row r="26">
@@ -1694,49 +1694,49 @@
         </is>
       </c>
       <c r="B26">
-        <v>1098.49392709391</v>
+        <v>1438.72277975841</v>
       </c>
       <c r="C26">
-        <v>57.366774754453</v>
+        <v>50.6903591153471</v>
       </c>
       <c r="D26">
-        <v>5.09682388139242</v>
+        <v>3.38221063552035</v>
       </c>
       <c r="E26">
-        <v>54.8412613477653</v>
+        <v>41.3245172146615</v>
       </c>
       <c r="F26">
-        <v>5.41313602354198</v>
+        <v>3.25062229101241</v>
       </c>
       <c r="G26">
-        <v>39.1968114425428</v>
+        <v>23.7340820818761</v>
       </c>
       <c r="H26">
-        <v>11.3782343421406</v>
+        <v>16.6168609626343</v>
       </c>
       <c r="I26">
-        <v>16.2221906279523</v>
+        <v>13.1412436524463</v>
       </c>
       <c r="J26">
-        <v>42.1598569237569</v>
+        <v>44.6977055007563</v>
       </c>
       <c r="K26">
-        <v>8.26480456827537</v>
+        <v>14.8241761776513</v>
       </c>
       <c r="L26">
-        <v>31.2901006138055</v>
+        <v>28.8520597380801</v>
       </c>
       <c r="M26">
-        <v>51.0566658653949</v>
+        <v>41.4969614261384</v>
       </c>
       <c r="N26">
-        <v>34.2025588731563</v>
+        <v>23.6140897172173</v>
       </c>
       <c r="O26">
-        <v>2393.57115403778</v>
+        <v>2151.18389283319</v>
       </c>
       <c r="P26">
-        <v>62.6251813148859</v>
+        <v>48.0056562543691</v>
       </c>
     </row>
     <row r="27">
@@ -1746,49 +1746,49 @@
         </is>
       </c>
       <c r="B27">
-        <v>176.461017655516</v>
+        <v>246.822626881473</v>
       </c>
       <c r="C27">
-        <v>2.71398928477028</v>
+        <v>3.33673983708742</v>
       </c>
       <c r="D27">
-        <v>1.33475888539848</v>
+        <v>1.18948192967536</v>
       </c>
       <c r="E27">
-        <v>9.22462421968326</v>
+        <v>8.481235088787111</v>
       </c>
       <c r="F27">
-        <v>7.10812079526451</v>
+        <v>4.87845459156842</v>
       </c>
       <c r="G27">
-        <v>0.734978319728634</v>
+        <v>0.723476703576441</v>
       </c>
       <c r="H27">
-        <v>0.21659776901958</v>
+        <v>0.583782399519032</v>
       </c>
       <c r="I27">
-        <v>2.71782104673893</v>
+        <v>1.5523039223595</v>
       </c>
       <c r="J27">
-        <v>3.40911488120948</v>
+        <v>3.15220249646222</v>
       </c>
       <c r="K27">
-        <v>1.0540453365327</v>
+        <v>0.535136591452586</v>
       </c>
       <c r="L27">
-        <v>1.67341098427421</v>
+        <v>1.34352008057108</v>
       </c>
       <c r="M27">
-        <v>0.42456565656239</v>
+        <v>0.293477710745729</v>
       </c>
       <c r="N27">
-        <v>3.49591551398697</v>
+        <v>2.79823857294766</v>
       </c>
       <c r="O27">
-        <v>401.034713691513</v>
+        <v>341.10515033622</v>
       </c>
       <c r="P27">
-        <v>48.7709805866391</v>
+        <v>33.0946200270728</v>
       </c>
     </row>
     <row r="28">
@@ -1798,49 +1798,49 @@
         </is>
       </c>
       <c r="B28">
-        <v>224.038610926831</v>
+        <v>346.583641284469</v>
       </c>
       <c r="C28">
-        <v>35.7113300594602</v>
+        <v>35.9947966594991</v>
       </c>
       <c r="D28">
-        <v>1.76373247864501</v>
+        <v>2.44523598066435</v>
       </c>
       <c r="E28">
-        <v>5.08979775642258</v>
+        <v>3.87247538382506</v>
       </c>
       <c r="F28">
-        <v>1.11052164125477</v>
+        <v>1.32011613995496</v>
       </c>
       <c r="G28">
-        <v>5.0888997194925</v>
+        <v>4.43016497766542</v>
       </c>
       <c r="H28">
-        <v>6.20949893372452</v>
+        <v>5.04154497306409</v>
       </c>
       <c r="I28">
-        <v>3.70275813249724</v>
+        <v>2.79744708114129</v>
       </c>
       <c r="J28">
-        <v>14.2656784705989</v>
+        <v>12.2903407396576</v>
       </c>
       <c r="K28">
-        <v>10.9743438147639</v>
+        <v>10.9758012152372</v>
       </c>
       <c r="L28">
-        <v>8.087348859623861</v>
+        <v>6.28427509389946</v>
       </c>
       <c r="M28">
-        <v>9.84910512436247</v>
+        <v>8.64316933609827</v>
       </c>
       <c r="N28">
-        <v>10.8542893061034</v>
+        <v>9.767289939625201</v>
       </c>
       <c r="O28">
-        <v>772.84751360467</v>
+        <v>686.5335281646391</v>
       </c>
       <c r="P28">
-        <v>65.153636640473</v>
+        <v>53.7097588172622</v>
       </c>
     </row>
     <row r="29">
@@ -1850,49 +1850,49 @@
         </is>
       </c>
       <c r="B29">
-        <v>435.417949042827</v>
+        <v>565.833819907416</v>
       </c>
       <c r="C29">
-        <v>3.00185017061388</v>
+        <v>3.56662654212994</v>
       </c>
       <c r="D29">
-        <v>1.31586583261307</v>
+        <v>1.46675024093131</v>
       </c>
       <c r="E29">
-        <v>6.21815627512175</v>
+        <v>4.82891109381317</v>
       </c>
       <c r="F29">
-        <v>23.9317082361394</v>
+        <v>20.4005445020236</v>
       </c>
       <c r="G29">
-        <v>2.52815259183049</v>
+        <v>1.23067297982331</v>
       </c>
       <c r="H29">
-        <v>0.324865693144035</v>
+        <v>0.172687061509255</v>
       </c>
       <c r="I29">
-        <v>2.59791969887389</v>
+        <v>2.33066218194133</v>
       </c>
       <c r="J29">
-        <v>3.8533887049082</v>
+        <v>4.33159580316309</v>
       </c>
       <c r="K29">
-        <v>1.96701144107517</v>
+        <v>4.22112510843911</v>
       </c>
       <c r="L29">
-        <v>3.03309534771518</v>
+        <v>1.03204322187354</v>
       </c>
       <c r="M29">
-        <v>4.1270683972202</v>
+        <v>4.31241757706516</v>
       </c>
       <c r="N29">
-        <v>12.1525922778107</v>
+        <v>8.3360829832378</v>
       </c>
       <c r="O29">
-        <v>1108.85322171945</v>
+        <v>960.209924283212</v>
       </c>
       <c r="P29">
-        <v>5.85839256411635</v>
+        <v>3.92131166871547</v>
       </c>
     </row>
     <row r="30">
@@ -1902,49 +1902,49 @@
         </is>
       </c>
       <c r="B30">
-        <v>182.568809410432</v>
+        <v>274.644395859431</v>
       </c>
       <c r="C30">
-        <v>5.17365689759253</v>
+        <v>3.95487694035926</v>
       </c>
       <c r="D30">
-        <v>5.05984501364629</v>
+        <v>5.13658378098496</v>
       </c>
       <c r="E30">
-        <v>9.1945089863836</v>
+        <v>7.4799275851267</v>
       </c>
       <c r="F30">
-        <v>0.273652758251486</v>
+        <v>0.298515326353206</v>
       </c>
       <c r="G30">
-        <v>4.58053533385471</v>
+        <v>3.04029037528018</v>
       </c>
       <c r="H30">
-        <v>2.31441510818758</v>
+        <v>2.05319866687946</v>
       </c>
       <c r="I30">
-        <v>1.96869749892954</v>
+        <v>1.39791159198649</v>
       </c>
       <c r="J30">
-        <v>18.1199657874424</v>
+        <v>14.5583943078092</v>
       </c>
       <c r="K30">
-        <v>3.14371374231293</v>
+        <v>2.52254127961981</v>
       </c>
       <c r="L30">
-        <v>38.4257850898711</v>
+        <v>26.4384689113267</v>
       </c>
       <c r="M30">
-        <v>7.84003578327651</v>
+        <v>7.47081510807137</v>
       </c>
       <c r="N30">
-        <v>16.6072974084825</v>
+        <v>13.8615553078312</v>
       </c>
       <c r="O30">
-        <v>550.113357476422</v>
+        <v>492.119036854041</v>
       </c>
       <c r="P30">
-        <v>5.07556856606501</v>
+        <v>4.17190650563764</v>
       </c>
     </row>
     <row r="31">
@@ -1954,49 +1954,49 @@
         </is>
       </c>
       <c r="B31">
-        <v>1489.80836548712</v>
+        <v>2167.20326813857</v>
       </c>
       <c r="C31">
-        <v>59.0671222598335</v>
+        <v>41.0356455208085</v>
       </c>
       <c r="D31">
-        <v>7.8565041519512</v>
+        <v>3.26206387106135</v>
       </c>
       <c r="E31">
-        <v>25.1727987614284</v>
+        <v>24.4275996056628</v>
       </c>
       <c r="F31">
-        <v>5.0721613754175</v>
+        <v>7.90616994937614</v>
       </c>
       <c r="G31">
-        <v>119.594318556941</v>
+        <v>108.356646890372</v>
       </c>
       <c r="H31">
-        <v>13.0140195295068</v>
+        <v>11.157509969513</v>
       </c>
       <c r="I31">
-        <v>7.14264190054653</v>
+        <v>8.5374913004154</v>
       </c>
       <c r="J31">
-        <v>20.1974004309455</v>
+        <v>12.9243853260754</v>
       </c>
       <c r="K31">
-        <v>6.1608405376156</v>
+        <v>7.00863723057232</v>
       </c>
       <c r="L31">
-        <v>67.73318649733299</v>
+        <v>46.8025288491556</v>
       </c>
       <c r="M31">
-        <v>16.3905201620284</v>
+        <v>20.9905297344664</v>
       </c>
       <c r="N31">
-        <v>83.245699792094</v>
+        <v>58.5922881655032</v>
       </c>
       <c r="O31">
-        <v>3755.8207265255</v>
+        <v>3144.83464057647</v>
       </c>
       <c r="P31">
-        <v>18.4270780950137</v>
+        <v>11.3566260892137</v>
       </c>
     </row>
     <row r="32">
@@ -2006,49 +2006,49 @@
         </is>
       </c>
       <c r="B32">
-        <v>437.982932940675</v>
+        <v>523.242246977412</v>
       </c>
       <c r="C32">
-        <v>2.20830062981105</v>
+        <v>3.6700415836852</v>
       </c>
       <c r="D32">
-        <v>0.336102731603486</v>
+        <v>0.5976657432972901</v>
       </c>
       <c r="E32">
-        <v>3.04737622973852</v>
+        <v>4.58846372446127</v>
       </c>
       <c r="F32">
-        <v>23.7691645535825</v>
+        <v>20.9807815475859</v>
       </c>
       <c r="G32">
-        <v>3.0243313222145</v>
+        <v>2.31502038833692</v>
       </c>
       <c r="H32">
-        <v>1.04995973074149</v>
+        <v>0.6957177497510449</v>
       </c>
       <c r="I32">
-        <v>2.06094746715029</v>
+        <v>5.42981722643648</v>
       </c>
       <c r="J32">
-        <v>5.48865065908902</v>
+        <v>7.60577398670649</v>
       </c>
       <c r="K32">
-        <v>1.58639451715902</v>
+        <v>2.28834119163116</v>
       </c>
       <c r="L32">
-        <v>5.55461337030583</v>
+        <v>3.1957958200439</v>
       </c>
       <c r="M32">
-        <v>12.8012149507846</v>
+        <v>6.69476608289667</v>
       </c>
       <c r="N32">
-        <v>15.984958585005</v>
+        <v>11.8240227333709</v>
       </c>
       <c r="O32">
-        <v>753.998434533816</v>
+        <v>661.7998287785021</v>
       </c>
       <c r="P32">
-        <v>19.3044646454123</v>
+        <v>19.095153591104</v>
       </c>
     </row>
     <row r="33">
@@ -2058,49 +2058,49 @@
         </is>
       </c>
       <c r="B33">
-        <v>3865.74630588739</v>
+        <v>5256.89841854449</v>
       </c>
       <c r="C33">
-        <v>69.4666990657542</v>
+        <v>51.1189022664628</v>
       </c>
       <c r="D33">
-        <v>13.1356909551305</v>
+        <v>9.00965307788185</v>
       </c>
       <c r="E33">
-        <v>72.9935309912234</v>
+        <v>60.6569630755319</v>
       </c>
       <c r="F33">
-        <v>11.3969033708532</v>
+        <v>15.7487333180061</v>
       </c>
       <c r="G33">
-        <v>82.13162969254731</v>
+        <v>56.5714292452557</v>
       </c>
       <c r="H33">
-        <v>33.3791325929049</v>
+        <v>27.8883333730517</v>
       </c>
       <c r="I33">
-        <v>20.3118709436341</v>
+        <v>18.5150255600051</v>
       </c>
       <c r="J33">
-        <v>92.04737846008059</v>
+        <v>65.4071081301792</v>
       </c>
       <c r="K33">
-        <v>51.9469333215422</v>
+        <v>38.5027856306043</v>
       </c>
       <c r="L33">
-        <v>95.2074267424303</v>
+        <v>74.69999247476549</v>
       </c>
       <c r="M33">
-        <v>60.0862762029257</v>
+        <v>40.0306666670733</v>
       </c>
       <c r="N33">
-        <v>114.12154352092</v>
+        <v>92.7807831249295</v>
       </c>
       <c r="O33">
-        <v>7958.47746610582</v>
+        <v>6771.04231966246</v>
       </c>
       <c r="P33">
-        <v>59.1372632738694</v>
+        <v>44.3518198200881</v>
       </c>
     </row>
     <row r="34">
@@ -2110,49 +2110,49 @@
         </is>
       </c>
       <c r="B34">
-        <v>1889.56198795929</v>
+        <v>2353.80919078744</v>
       </c>
       <c r="C34">
-        <v>61.6732502120914</v>
+        <v>49.3667000186382</v>
       </c>
       <c r="D34">
-        <v>66.33885706135079</v>
+        <v>63.1661427821214</v>
       </c>
       <c r="E34">
-        <v>63.1157678314446</v>
+        <v>50.1630990526437</v>
       </c>
       <c r="F34">
-        <v>3.02072026579296</v>
+        <v>9.21154468739827</v>
       </c>
       <c r="G34">
-        <v>51.7983631679394</v>
+        <v>47.2887991568268</v>
       </c>
       <c r="H34">
-        <v>39.8994965070099</v>
+        <v>37.3108493937622</v>
       </c>
       <c r="I34">
-        <v>23.1589083215883</v>
+        <v>19.0555468261723</v>
       </c>
       <c r="J34">
-        <v>55.031748915947</v>
+        <v>41.8389167497003</v>
       </c>
       <c r="K34">
-        <v>11.2210986995323</v>
+        <v>9.39716621055902</v>
       </c>
       <c r="L34">
-        <v>94.33501972768261</v>
+        <v>74.7051882410414</v>
       </c>
       <c r="M34">
-        <v>38.29111357682</v>
+        <v>31.7393425781075</v>
       </c>
       <c r="N34">
-        <v>119.684755016418</v>
+        <v>89.35895051985411</v>
       </c>
       <c r="O34">
-        <v>3411.01021474913</v>
+        <v>3009.69648994556</v>
       </c>
       <c r="P34">
-        <v>75.0299472930669</v>
+        <v>69.52821234097451</v>
       </c>
     </row>
     <row r="35">
@@ -2162,49 +2162,49 @@
         </is>
       </c>
       <c r="B35">
-        <v>79.2604120479166</v>
+        <v>132.712884320127</v>
       </c>
       <c r="C35">
-        <v>6.82226421223089</v>
+        <v>4.62518463542112</v>
       </c>
       <c r="D35">
-        <v>0.620778062058247</v>
+        <v>0.409143347077675</v>
       </c>
       <c r="E35">
-        <v>2.6451765234199</v>
+        <v>1.97215154572727</v>
       </c>
       <c r="F35">
-        <v>4.39288552221291</v>
+        <v>3.46265213088398</v>
       </c>
       <c r="G35">
-        <v>0.856515475557886</v>
+        <v>1.16769161229984</v>
       </c>
       <c r="H35">
-        <v>1.38098704931979</v>
+        <v>0.929343444049319</v>
       </c>
       <c r="I35">
-        <v>1.3240543233948</v>
+        <v>1.31303282980361</v>
       </c>
       <c r="J35">
-        <v>1.39078796304701</v>
+        <v>0.74800243525807</v>
       </c>
       <c r="K35">
-        <v>3.17124975057946</v>
+        <v>1.91227857289809</v>
       </c>
       <c r="L35">
-        <v>2.72635901530388</v>
+        <v>2.55714677130043</v>
       </c>
       <c r="M35">
-        <v>3.4773469500942</v>
+        <v>3.59120365332361</v>
       </c>
       <c r="N35">
-        <v>2.49711311508229</v>
+        <v>2.4760131395048</v>
       </c>
       <c r="O35">
-        <v>276.422688267397</v>
+        <v>250.027330909189</v>
       </c>
       <c r="P35">
-        <v>46.1316222188745</v>
+        <v>39.5322184938554</v>
       </c>
     </row>
     <row r="36">
@@ -2214,49 +2214,49 @@
         </is>
       </c>
       <c r="B36">
-        <v>2401.76784854621</v>
+        <v>3057.5453523247</v>
       </c>
       <c r="C36">
-        <v>84.13103620597769</v>
+        <v>71.9515836142085</v>
       </c>
       <c r="D36">
-        <v>8.45893357859519</v>
+        <v>1.50409430832108</v>
       </c>
       <c r="E36">
-        <v>137.30243667599</v>
+        <v>109.342155831463</v>
       </c>
       <c r="F36">
-        <v>28.0516335043264</v>
+        <v>21.4836633383728</v>
       </c>
       <c r="G36">
-        <v>107.667114820557</v>
+        <v>84.48993388198269</v>
       </c>
       <c r="H36">
-        <v>83.92506440899641</v>
+        <v>92.1967627283758</v>
       </c>
       <c r="I36">
-        <v>37.0744921954087</v>
+        <v>36.5439176439787</v>
       </c>
       <c r="J36">
-        <v>237.335261446791</v>
+        <v>214.977675647403</v>
       </c>
       <c r="K36">
-        <v>62.153356804321</v>
+        <v>51.3828210264631</v>
       </c>
       <c r="L36">
-        <v>66.7427459467427</v>
+        <v>49.5073173742048</v>
       </c>
       <c r="M36">
-        <v>179.627818075936</v>
+        <v>141.841740221237</v>
       </c>
       <c r="N36">
-        <v>119.172997433954</v>
+        <v>106.888461748409</v>
       </c>
       <c r="O36">
-        <v>4284.55377465213</v>
+        <v>3795.86171589172</v>
       </c>
       <c r="P36">
-        <v>73.83589349700981</v>
+        <v>67.00211216466281</v>
       </c>
     </row>
     <row r="37">
@@ -2266,49 +2266,49 @@
         </is>
       </c>
       <c r="B37">
-        <v>790.885775334199</v>
+        <v>1014.3628172765</v>
       </c>
       <c r="C37">
-        <v>17.56704523965</v>
+        <v>16.2483300121762</v>
       </c>
       <c r="D37">
-        <v>3.42934822618237</v>
+        <v>6.09258601413228</v>
       </c>
       <c r="E37">
-        <v>21.8454764092269</v>
+        <v>22.0109660638898</v>
       </c>
       <c r="F37">
-        <v>47.0082225892409</v>
+        <v>45.0829717157493</v>
       </c>
       <c r="G37">
-        <v>6.10275270392867</v>
+        <v>3.05952020951521</v>
       </c>
       <c r="H37">
-        <v>27.2360844313031</v>
+        <v>15.7710751832278</v>
       </c>
       <c r="I37">
-        <v>5.78544371544738</v>
+        <v>3.57149547896867</v>
       </c>
       <c r="J37">
-        <v>29.0955150949833</v>
+        <v>22.4662663245022</v>
       </c>
       <c r="K37">
-        <v>8.49719793945718</v>
+        <v>7.34335683131991</v>
       </c>
       <c r="L37">
-        <v>17.0169370703418</v>
+        <v>13.9815332519082</v>
       </c>
       <c r="M37">
-        <v>26.6034505105134</v>
+        <v>15.7752809052214</v>
       </c>
       <c r="N37">
-        <v>22.9870982609301</v>
+        <v>23.9180624556761</v>
       </c>
       <c r="O37">
-        <v>1366.79526503932</v>
+        <v>1171.81492645451</v>
       </c>
       <c r="P37">
-        <v>59.3247170581677</v>
+        <v>58.652426636295</v>
       </c>
     </row>
     <row r="38">
@@ -2318,49 +2318,49 @@
         </is>
       </c>
       <c r="B38">
-        <v>781.626446883766</v>
+        <v>1014.67739315475</v>
       </c>
       <c r="C38">
-        <v>22.1229292033628</v>
+        <v>20.0512702396923</v>
       </c>
       <c r="D38">
-        <v>4.0861790647596</v>
+        <v>3.15958329578028</v>
       </c>
       <c r="E38">
-        <v>43.61178462864</v>
+        <v>33.6713937947714</v>
       </c>
       <c r="F38">
-        <v>0.982249779679203</v>
+        <v>3.09392088016097</v>
       </c>
       <c r="G38">
-        <v>7.86651737389354</v>
+        <v>7.87397005570053</v>
       </c>
       <c r="H38">
-        <v>2.17300262491941</v>
+        <v>1.54104104296842</v>
       </c>
       <c r="I38">
-        <v>5.06628290757242</v>
+        <v>5.99262563287231</v>
       </c>
       <c r="J38">
-        <v>38.6909060648011</v>
+        <v>41.2363953854272</v>
       </c>
       <c r="K38">
-        <v>4.92881122073846</v>
+        <v>8.46082197914032</v>
       </c>
       <c r="L38">
-        <v>89.6105177113735</v>
+        <v>71.7487718998087</v>
       </c>
       <c r="M38">
-        <v>27.087705131426</v>
+        <v>20.6060394799464</v>
       </c>
       <c r="N38">
-        <v>38.5612956096879</v>
+        <v>30.7556730533346</v>
       </c>
       <c r="O38">
-        <v>1501.27256495063</v>
+        <v>1293.78284386669</v>
       </c>
       <c r="P38">
-        <v>66.6514417371334</v>
+        <v>57.6074455735395</v>
       </c>
     </row>
     <row r="39">
@@ -2370,49 +2370,49 @@
         </is>
       </c>
       <c r="B39">
-        <v>2598.2736955373</v>
+        <v>3502.98455008746</v>
       </c>
       <c r="C39">
-        <v>93.962265016007</v>
+        <v>84.51627523984151</v>
       </c>
       <c r="D39">
-        <v>32.4592217711869</v>
+        <v>16.4249768398793</v>
       </c>
       <c r="E39">
-        <v>115.297656653117</v>
+        <v>108.998442144477</v>
       </c>
       <c r="F39">
-        <v>38.4514956986688</v>
+        <v>26.2650846353173</v>
       </c>
       <c r="G39">
-        <v>94.4814270137897</v>
+        <v>71.22240408555059</v>
       </c>
       <c r="H39">
-        <v>44.5238909636125</v>
+        <v>39.8106300788995</v>
       </c>
       <c r="I39">
-        <v>27.1189758693703</v>
+        <v>21.7193425441541</v>
       </c>
       <c r="J39">
-        <v>198.072384004859</v>
+        <v>154.289271222202</v>
       </c>
       <c r="K39">
-        <v>44.6776320369115</v>
+        <v>32.887117569332</v>
       </c>
       <c r="L39">
-        <v>118.653197151058</v>
+        <v>79.8081049781855</v>
       </c>
       <c r="M39">
-        <v>67.6576780037696</v>
+        <v>48.4029748197039</v>
       </c>
       <c r="N39">
-        <v>124.40156703516</v>
+        <v>110.056855300741</v>
       </c>
       <c r="O39">
-        <v>5077.60652380949</v>
+        <v>4409.33512085159</v>
       </c>
       <c r="P39">
-        <v>77.3544315895615</v>
+        <v>61.7334877920157</v>
       </c>
     </row>
     <row r="40">
@@ -2422,49 +2422,49 @@
         </is>
       </c>
       <c r="B40">
-        <v>193.886951875753</v>
+        <v>256.543161794576</v>
       </c>
       <c r="C40">
-        <v>3.23507099704798</v>
+        <v>1.39488455922619</v>
       </c>
       <c r="D40">
-        <v>7.29809348312559</v>
+        <v>6.10254330833172</v>
       </c>
       <c r="E40">
-        <v>3.94702342271881</v>
+        <v>4.14316606394624</v>
       </c>
       <c r="F40">
-        <v>0.315467916491606</v>
+        <v>0.959440996736814</v>
       </c>
       <c r="G40">
-        <v>5.05113940985695</v>
+        <v>4.46568454958021</v>
       </c>
       <c r="H40">
-        <v>3.46427945665504</v>
+        <v>2.38720608246824</v>
       </c>
       <c r="I40">
-        <v>2.20516866337447</v>
+        <v>1.46485114900097</v>
       </c>
       <c r="J40">
-        <v>8.580952608525701</v>
+        <v>7.52842389203195</v>
       </c>
       <c r="K40">
-        <v>2.07567323394863</v>
+        <v>2.02087234617029</v>
       </c>
       <c r="L40">
-        <v>10.813138838297</v>
+        <v>9.8335746060768</v>
       </c>
       <c r="M40">
-        <v>5.36691065295642</v>
+        <v>3.30720105540236</v>
       </c>
       <c r="N40">
-        <v>22.3475116834894</v>
+        <v>18.2815210353375</v>
       </c>
       <c r="O40">
-        <v>437.624136349864</v>
+        <v>402.178808107291</v>
       </c>
       <c r="P40">
-        <v>3.29131009462587</v>
+        <v>3.49022219931998</v>
       </c>
     </row>
     <row r="41">
@@ -2474,49 +2474,49 @@
         </is>
       </c>
       <c r="B41">
-        <v>1054.14372251481</v>
+        <v>1276.33779803263</v>
       </c>
       <c r="C41">
-        <v>21.0863625674889</v>
+        <v>13.7696509261335</v>
       </c>
       <c r="D41">
-        <v>47.4361450856403</v>
+        <v>36.2639128005082</v>
       </c>
       <c r="E41">
-        <v>34.0328226099789</v>
+        <v>16.2315665087543</v>
       </c>
       <c r="F41">
-        <v>4.46695932500457</v>
+        <v>3.39071204637045</v>
       </c>
       <c r="G41">
-        <v>30.5971627457187</v>
+        <v>26.9386873935026</v>
       </c>
       <c r="H41">
-        <v>33.8154216126463</v>
+        <v>33.112299026729</v>
       </c>
       <c r="I41">
-        <v>15.1496782310112</v>
+        <v>12.2112062156336</v>
       </c>
       <c r="J41">
-        <v>35.1213702592488</v>
+        <v>34.7970892934016</v>
       </c>
       <c r="K41">
-        <v>10.2579244542592</v>
+        <v>15.6632119058661</v>
       </c>
       <c r="L41">
-        <v>29.9380984137253</v>
+        <v>24.9396223380625</v>
       </c>
       <c r="M41">
-        <v>31.674026512973</v>
+        <v>26.0851369595951</v>
       </c>
       <c r="N41">
-        <v>17.0970730789742</v>
+        <v>19.7334960440975</v>
       </c>
       <c r="O41">
-        <v>1573.60853218909</v>
+        <v>1394.69344170635</v>
       </c>
       <c r="P41">
-        <v>31.3662388063295</v>
+        <v>21.3681916577698</v>
       </c>
     </row>
     <row r="42">
@@ -2526,49 +2526,49 @@
         </is>
       </c>
       <c r="B42">
-        <v>92.8755728574083</v>
+        <v>143.458778017181</v>
       </c>
       <c r="C42">
-        <v>7.41782600786252</v>
+        <v>6.83970425167587</v>
       </c>
       <c r="D42">
-        <v>1.13649280731259</v>
+        <v>1.48441327499614</v>
       </c>
       <c r="E42">
-        <v>5.85698834815671</v>
+        <v>3.43261523915869</v>
       </c>
       <c r="F42">
-        <v>2.05716557208655</v>
+        <v>1.63864848939887</v>
       </c>
       <c r="G42">
-        <v>2.04364261590614</v>
+        <v>2.11048087892027</v>
       </c>
       <c r="H42">
-        <v>1.77053467195943</v>
+        <v>1.07626885955626</v>
       </c>
       <c r="I42">
-        <v>1.45837188111265</v>
+        <v>0.778329957430417</v>
       </c>
       <c r="J42">
-        <v>6.26448638746488</v>
+        <v>3.75376976878993</v>
       </c>
       <c r="K42">
-        <v>3.95836277571079</v>
+        <v>2.43879490763495</v>
       </c>
       <c r="L42">
-        <v>4.21720830815806</v>
+        <v>4.13734267285641</v>
       </c>
       <c r="M42">
-        <v>2.33942955147302</v>
+        <v>1.08644001726748</v>
       </c>
       <c r="N42">
-        <v>10.289261576997</v>
+        <v>7.90858252361773</v>
       </c>
       <c r="O42">
-        <v>324.04478134894</v>
+        <v>280.857409512635</v>
       </c>
       <c r="P42">
-        <v>45.4963004761937</v>
+        <v>40.6143395885936</v>
       </c>
     </row>
     <row r="43">
@@ -2578,49 +2578,49 @@
         </is>
       </c>
       <c r="B43">
-        <v>1496.59960741973</v>
+        <v>1814.11037883223</v>
       </c>
       <c r="C43">
-        <v>47.2270817433608</v>
+        <v>33.6587847392542</v>
       </c>
       <c r="D43">
-        <v>25.2442899241511</v>
+        <v>24.7561984123687</v>
       </c>
       <c r="E43">
-        <v>69.89223927426259</v>
+        <v>52.116905961399</v>
       </c>
       <c r="F43">
-        <v>5.07953150658349</v>
+        <v>8.158187549053229</v>
       </c>
       <c r="G43">
-        <v>28.4706106358831</v>
+        <v>16.6182571759382</v>
       </c>
       <c r="H43">
-        <v>37.705882176035</v>
+        <v>28.9148856898376</v>
       </c>
       <c r="I43">
-        <v>6.47029852804546</v>
+        <v>8.649340105178091</v>
       </c>
       <c r="J43">
-        <v>56.7157570768892</v>
+        <v>47.5318672364613</v>
       </c>
       <c r="K43">
-        <v>5.19199318165874</v>
+        <v>2.23280462091312</v>
       </c>
       <c r="L43">
-        <v>27.2022405740187</v>
+        <v>29.9263118852777</v>
       </c>
       <c r="M43">
-        <v>68.6256011011439</v>
+        <v>72.542633916725</v>
       </c>
       <c r="N43">
-        <v>61.499185844258</v>
+        <v>56.8917703419571</v>
       </c>
       <c r="O43">
-        <v>2308.1659849956</v>
+        <v>2002.59357101136</v>
       </c>
       <c r="P43">
-        <v>30.0363051388738</v>
+        <v>29.551647460936</v>
       </c>
     </row>
     <row r="44">
@@ -2630,49 +2630,49 @@
         </is>
       </c>
       <c r="B44">
-        <v>4303.40082634437</v>
+        <v>5397.93855376328</v>
       </c>
       <c r="C44">
-        <v>141.103402529352</v>
+        <v>110.632896934866</v>
       </c>
       <c r="D44">
-        <v>24.5293826034959</v>
+        <v>15.3070168741397</v>
       </c>
       <c r="E44">
-        <v>98.3862490060593</v>
+        <v>79.7871188400526</v>
       </c>
       <c r="F44">
-        <v>294.024435065719</v>
+        <v>225.733843881725</v>
       </c>
       <c r="G44">
-        <v>127.135606805144</v>
+        <v>114.458158208267</v>
       </c>
       <c r="H44">
-        <v>22.7995045569683</v>
+        <v>24.9880824150203</v>
       </c>
       <c r="I44">
-        <v>39.3864624606347</v>
+        <v>33.4372233983866</v>
       </c>
       <c r="J44">
-        <v>115.560994367238</v>
+        <v>101.223191450261</v>
       </c>
       <c r="K44">
-        <v>31.1418093492882</v>
+        <v>23.6627784821163</v>
       </c>
       <c r="L44">
-        <v>206.666998807332</v>
+        <v>174.40610833402</v>
       </c>
       <c r="M44">
-        <v>100.24976842388</v>
+        <v>82.2545233292018</v>
       </c>
       <c r="N44">
-        <v>84.61537088306871</v>
+        <v>80.72891083714841</v>
       </c>
       <c r="O44">
-        <v>8966.19691809663</v>
+        <v>8008.53426931802</v>
       </c>
       <c r="P44">
-        <v>185.675246048476</v>
+        <v>166.574136409813</v>
       </c>
     </row>
     <row r="45">
@@ -2682,49 +2682,49 @@
         </is>
       </c>
       <c r="B45">
-        <v>365.381298783016</v>
+        <v>447.981235252785</v>
       </c>
       <c r="C45">
-        <v>17.3768011044196</v>
+        <v>12.0585551310551</v>
       </c>
       <c r="D45">
-        <v>1.43696209207137</v>
+        <v>3.63798405894314</v>
       </c>
       <c r="E45">
-        <v>12.6649747811681</v>
+        <v>9.410128232286191</v>
       </c>
       <c r="F45">
-        <v>24.3794659252144</v>
+        <v>20.2852868316948</v>
       </c>
       <c r="G45">
-        <v>9.664239753280549</v>
+        <v>8.89869718344737</v>
       </c>
       <c r="H45">
-        <v>1.28709259101617</v>
+        <v>1.23364077544533</v>
       </c>
       <c r="I45">
-        <v>1.79573703627025</v>
+        <v>2.02320862386592</v>
       </c>
       <c r="J45">
-        <v>26.8601879721237</v>
+        <v>24.5883274303129</v>
       </c>
       <c r="K45">
-        <v>3.49220033844229</v>
+        <v>4.62832650119651</v>
       </c>
       <c r="L45">
-        <v>13.7567048006097</v>
+        <v>11.2708835707058</v>
       </c>
       <c r="M45">
-        <v>13.1283645596926</v>
+        <v>10.4318396552252</v>
       </c>
       <c r="N45">
-        <v>32.0184409894406</v>
+        <v>35.6962446448843</v>
       </c>
       <c r="O45">
-        <v>917.350159580993</v>
+        <v>891.094774278433</v>
       </c>
       <c r="P45">
-        <v>17.3385205343066</v>
+        <v>15.04931397991</v>
       </c>
     </row>
     <row r="46">
@@ -2734,49 +2734,49 @@
         </is>
       </c>
       <c r="B46">
-        <v>96.0096083398453</v>
+        <v>131.064816409571</v>
       </c>
       <c r="C46">
-        <v>4.32423401679264</v>
+        <v>3.63863966702658</v>
       </c>
       <c r="D46">
-        <v>0.522597593541077</v>
+        <v>0.922003036345512</v>
       </c>
       <c r="E46">
-        <v>4.42287876799893</v>
+        <v>3.99846532638518</v>
       </c>
       <c r="F46">
-        <v>0.719031348213253</v>
+        <v>0.713472350055426</v>
       </c>
       <c r="G46">
-        <v>1.38452857057573</v>
+        <v>0.861608873306109</v>
       </c>
       <c r="H46">
-        <v>0.874255165184933</v>
+        <v>1.06496376473295</v>
       </c>
       <c r="I46">
-        <v>1.85421425811804</v>
+        <v>1.60749442288728</v>
       </c>
       <c r="J46">
-        <v>4.71838201940741</v>
+        <v>3.81818678583797</v>
       </c>
       <c r="K46">
-        <v>1.15102708854444</v>
+        <v>0.419222530828529</v>
       </c>
       <c r="L46">
-        <v>11.6438229527442</v>
+        <v>11.0506988671479</v>
       </c>
       <c r="M46">
-        <v>3.07955451718987</v>
+        <v>2.85703900757522</v>
       </c>
       <c r="N46">
-        <v>7.04493522508999</v>
+        <v>5.60606381349633</v>
       </c>
       <c r="O46">
-        <v>274.01807225034</v>
+        <v>243.50120521898</v>
       </c>
       <c r="P46">
-        <v>7.19351691153064</v>
+        <v>7.86367092171173</v>
       </c>
     </row>
     <row r="47">
@@ -2786,49 +2786,49 @@
         </is>
       </c>
       <c r="B47">
-        <v>1399.54657950604</v>
+        <v>1829.74428256782</v>
       </c>
       <c r="C47">
-        <v>45.779490721905</v>
+        <v>44.0212048360261</v>
       </c>
       <c r="D47">
-        <v>7.09506063050244</v>
+        <v>9.205629982772971</v>
       </c>
       <c r="E47">
-        <v>42.7666468246582</v>
+        <v>32.5902131073415</v>
       </c>
       <c r="F47">
-        <v>13.0867844097696</v>
+        <v>11.5508364865642</v>
       </c>
       <c r="G47">
-        <v>27.6910453291801</v>
+        <v>27.521170451772</v>
       </c>
       <c r="H47">
-        <v>13.7649915368782</v>
+        <v>8.876851315805141</v>
       </c>
       <c r="I47">
-        <v>9.90496936731701</v>
+        <v>12.8566594978995</v>
       </c>
       <c r="J47">
-        <v>29.5330872126831</v>
+        <v>18.7366574031685</v>
       </c>
       <c r="K47">
-        <v>3.22878663547293</v>
+        <v>5.55696637914375</v>
       </c>
       <c r="L47">
-        <v>20.5513083467912</v>
+        <v>17.9004465283561</v>
       </c>
       <c r="M47">
-        <v>72.0512857406295</v>
+        <v>61.7787157419115</v>
       </c>
       <c r="N47">
-        <v>25.8567036850755</v>
+        <v>17.3448984412756</v>
       </c>
       <c r="O47">
-        <v>3137.28389814963</v>
+        <v>2772.60891225798</v>
       </c>
       <c r="P47">
-        <v>46.3953832762203</v>
+        <v>38.4974022409402</v>
       </c>
     </row>
     <row r="48">
@@ -2838,49 +2838,49 @@
         </is>
       </c>
       <c r="B48">
-        <v>1193.5560457157</v>
+        <v>1537.55233419741</v>
       </c>
       <c r="C48">
-        <v>34.3856031747821</v>
+        <v>23.3439236090304</v>
       </c>
       <c r="D48">
-        <v>8.26292700602691</v>
+        <v>9.719521812557639</v>
       </c>
       <c r="E48">
-        <v>64.66996061638371</v>
+        <v>55.0696537910688</v>
       </c>
       <c r="F48">
-        <v>10.6441170366735</v>
+        <v>6.80569109891263</v>
       </c>
       <c r="G48">
-        <v>10.8187407499295</v>
+        <v>3.16892999319734</v>
       </c>
       <c r="H48">
-        <v>12.4494668935734</v>
+        <v>17.1746021829737</v>
       </c>
       <c r="I48">
-        <v>7.69950749201162</v>
+        <v>7.02226746252823</v>
       </c>
       <c r="J48">
-        <v>39.7320609591813</v>
+        <v>27.2715717152123</v>
       </c>
       <c r="K48">
-        <v>18.5446386207088</v>
+        <v>20.7800895848009</v>
       </c>
       <c r="L48">
-        <v>52.3682587404361</v>
+        <v>46.1302821090747</v>
       </c>
       <c r="M48">
-        <v>156.459018838595</v>
+        <v>121.241753263692</v>
       </c>
       <c r="N48">
-        <v>58.998596707392</v>
+        <v>51.3767167772276</v>
       </c>
       <c r="O48">
-        <v>2534.16811885471</v>
+        <v>2256.20316133506</v>
       </c>
       <c r="P48">
-        <v>99.3641164521564</v>
+        <v>82.53279473618851</v>
       </c>
     </row>
     <row r="49">
@@ -2890,49 +2890,49 @@
         </is>
       </c>
       <c r="B49">
-        <v>605.092444911989</v>
+        <v>709.21961600617</v>
       </c>
       <c r="C49">
-        <v>4.67073692254034</v>
+        <v>2.46434067633044</v>
       </c>
       <c r="D49">
-        <v>1.17972359533209</v>
+        <v>1.43455456929532</v>
       </c>
       <c r="E49">
-        <v>21.0178172926104</v>
+        <v>16.7374760411565</v>
       </c>
       <c r="F49">
-        <v>32.9875538123462</v>
+        <v>29.4475403252285</v>
       </c>
       <c r="G49">
-        <v>11.4395804630949</v>
+        <v>11.4578212478357</v>
       </c>
       <c r="H49">
-        <v>4.11108975217876</v>
+        <v>2.60924288593944</v>
       </c>
       <c r="I49">
-        <v>2.87281555623837</v>
+        <v>2.12475514048989</v>
       </c>
       <c r="J49">
-        <v>19.7034564316818</v>
+        <v>14.0307134380249</v>
       </c>
       <c r="K49">
-        <v>2.21658090049869</v>
+        <v>3.31971351004663</v>
       </c>
       <c r="L49">
-        <v>1.13975617826471</v>
+        <v>1.50992634023151</v>
       </c>
       <c r="M49">
-        <v>3.35689649445373</v>
+        <v>2.59647871026082</v>
       </c>
       <c r="N49">
-        <v>10.0420749381362</v>
+        <v>7.69437972889115</v>
       </c>
       <c r="O49">
-        <v>610.854017069442</v>
+        <v>517.298919418405</v>
       </c>
       <c r="P49">
-        <v>8.744371339737629</v>
+        <v>5.18871120934534</v>
       </c>
     </row>
     <row r="50">
@@ -2942,49 +2942,49 @@
         </is>
       </c>
       <c r="B50">
-        <v>905.785856643386</v>
+        <v>1259.63733001879</v>
       </c>
       <c r="C50">
-        <v>64.3227885020338</v>
+        <v>60.3967637719107</v>
       </c>
       <c r="D50">
-        <v>4.79170853291583</v>
+        <v>5.16424314944697</v>
       </c>
       <c r="E50">
-        <v>130.614296495896</v>
+        <v>109.167858123472</v>
       </c>
       <c r="F50">
-        <v>5.69720792362612</v>
+        <v>3.94831567088793</v>
       </c>
       <c r="G50">
-        <v>33.9666923893814</v>
+        <v>21.3716020432662</v>
       </c>
       <c r="H50">
-        <v>48.607960520326</v>
+        <v>55.3805368111142</v>
       </c>
       <c r="I50">
-        <v>11.3990855343231</v>
+        <v>10.7098495909423</v>
       </c>
       <c r="J50">
-        <v>73.67588520466489</v>
+        <v>62.4500819102313</v>
       </c>
       <c r="K50">
-        <v>43.401774324367</v>
+        <v>34.736337056559</v>
       </c>
       <c r="L50">
-        <v>70.7067621397921</v>
+        <v>64.3551194278367</v>
       </c>
       <c r="M50">
-        <v>56.245389700696</v>
+        <v>46.6368548958008</v>
       </c>
       <c r="N50">
-        <v>62.441746165919</v>
+        <v>45.2697703605713</v>
       </c>
       <c r="O50">
-        <v>2227.05854301201</v>
+        <v>1966.8900689789</v>
       </c>
       <c r="P50">
-        <v>91.04839970986841</v>
+        <v>81.6473018682605</v>
       </c>
     </row>
     <row r="51">
@@ -2994,49 +2994,49 @@
         </is>
       </c>
       <c r="B51">
-        <v>75.3857280034393</v>
+        <v>108.553546768919</v>
       </c>
       <c r="C51">
-        <v>0.664126875099666</v>
+        <v>0.0922954605684634</v>
       </c>
       <c r="D51">
-        <v>0.0464789668598289</v>
+        <v>0.0793735315737908</v>
       </c>
       <c r="E51">
-        <v>0.993046103328345</v>
+        <v>1.37085839112536</v>
       </c>
       <c r="F51">
-        <v>30.2952267642598</v>
+        <v>28.7085664064234</v>
       </c>
       <c r="G51">
-        <v>1.99970583075793</v>
+        <v>1.25037186134015</v>
       </c>
       <c r="H51">
-        <v>0.24012910938507</v>
+        <v>0.208084964950723</v>
       </c>
       <c r="I51">
-        <v>1.47006781142694</v>
+        <v>1.06519620075268</v>
       </c>
       <c r="J51">
-        <v>1.25566755524799</v>
+        <v>1.33979209298272</v>
       </c>
       <c r="K51">
-        <v>1.28609644629614</v>
+        <v>0.607724172499822</v>
       </c>
       <c r="L51">
-        <v>0.49756369311171</v>
+        <v>0.571744188744629</v>
       </c>
       <c r="M51">
-        <v>0.657409588802639</v>
+        <v>0.810098107689021</v>
       </c>
       <c r="N51">
-        <v>0.472978745914443</v>
+        <v>0.522256438659245</v>
       </c>
       <c r="O51">
-        <v>209.855648334977</v>
+        <v>181.061760992588</v>
       </c>
       <c r="P51">
-        <v>22.4175442092178</v>
+        <v>20.1211134011795</v>
       </c>
     </row>
     <row r="52">

--- a/1-Data-Codes/2-Final_Data/L_2007.xlsx
+++ b/1-Data-Codes/2-Final_Data/L_2007.xlsx
@@ -446,49 +446,49 @@
         </is>
       </c>
       <c r="B2">
-        <v>1485.83735203021</v>
+        <v>1506.73694077459</v>
       </c>
       <c r="C2">
-        <v>16.0876959316454</v>
+        <v>33.2722575083975</v>
       </c>
       <c r="D2">
-        <v>23.784344279611</v>
+        <v>57.3585587501701</v>
       </c>
       <c r="E2">
-        <v>43.6416194574555</v>
+        <v>48.3449299099629</v>
       </c>
       <c r="F2">
-        <v>21.289175041741</v>
+        <v>13.9930771141497</v>
       </c>
       <c r="G2">
-        <v>14.6087709052888</v>
+        <v>14.3086690255349</v>
       </c>
       <c r="H2">
-        <v>4.56099096626965</v>
+        <v>15.5391910110065</v>
       </c>
       <c r="I2">
-        <v>17.1807664070227</v>
+        <v>14.5729744244081</v>
       </c>
       <c r="J2">
-        <v>69.2077241457302</v>
+        <v>52.2452592580218</v>
       </c>
       <c r="K2">
-        <v>8.238221687818189</v>
+        <v>19.1304877157173</v>
       </c>
       <c r="L2">
-        <v>44.0803489704312</v>
+        <v>30.2613358163385</v>
       </c>
       <c r="M2">
-        <v>71.2195383697516</v>
+        <v>46.3429932347361</v>
       </c>
       <c r="N2">
-        <v>19.8407513959711</v>
+        <v>35.1523591990971</v>
       </c>
       <c r="O2">
-        <v>1348.06577289077</v>
+        <v>1303.79457026135</v>
       </c>
       <c r="P2">
-        <v>23.6359878559922</v>
+        <v>31.5518183523592</v>
       </c>
     </row>
     <row r="3">
@@ -498,49 +498,49 @@
         </is>
       </c>
       <c r="B3">
-        <v>113.934644842163</v>
+        <v>121.132522698753</v>
       </c>
       <c r="C3">
-        <v>0.8814218530140711</v>
+        <v>5.18609235290472</v>
       </c>
       <c r="D3">
-        <v>0.1832296906976</v>
+        <v>0.424118875207953</v>
       </c>
       <c r="E3">
-        <v>0.768551212710102</v>
+        <v>1.74987387279173</v>
       </c>
       <c r="F3">
-        <v>7.55316666905512</v>
+        <v>6.87580887280182</v>
       </c>
       <c r="G3">
-        <v>0.222467501508858</v>
+        <v>0.244667363683344</v>
       </c>
       <c r="H3">
-        <v>0.00408673814410457</v>
+        <v>0.10256041766477</v>
       </c>
       <c r="I3">
-        <v>0.383635570246517</v>
+        <v>0.320810210011817</v>
       </c>
       <c r="J3">
-        <v>0.25746864602268</v>
+        <v>0.583291290930578</v>
       </c>
       <c r="K3">
-        <v>0.0355396730447544</v>
+        <v>0.06620001541763169</v>
       </c>
       <c r="L3">
-        <v>0.224516899869178</v>
+        <v>0.349974774558347</v>
       </c>
       <c r="M3">
-        <v>0.491354211936902</v>
+        <v>0.641620420023636</v>
       </c>
       <c r="N3">
-        <v>1.60716866160448</v>
+        <v>0.641620420023636</v>
       </c>
       <c r="O3">
-        <v>200.901052572844</v>
+        <v>180.336432553077</v>
       </c>
       <c r="P3">
-        <v>5.8328686896306</v>
+        <v>4.94459653949867</v>
       </c>
     </row>
     <row r="4">
@@ -550,49 +550,49 @@
         </is>
       </c>
       <c r="B4">
-        <v>1705.24512772941</v>
+        <v>1820.82890769471</v>
       </c>
       <c r="C4">
-        <v>10.6244319211289</v>
+        <v>13.4030496639299</v>
       </c>
       <c r="D4">
-        <v>5.08834979869637</v>
+        <v>4.14340150055778</v>
       </c>
       <c r="E4">
-        <v>14.0882600770219</v>
+        <v>17.7286270856025</v>
       </c>
       <c r="F4">
-        <v>15.315423132869</v>
+        <v>20.0304476782957</v>
       </c>
       <c r="G4">
-        <v>8.81776447142763</v>
+        <v>9.05920771670967</v>
       </c>
       <c r="H4">
-        <v>11.0686158398358</v>
+        <v>6.98360831564852</v>
       </c>
       <c r="I4">
-        <v>9.90180543298175</v>
+        <v>8.77663387841986</v>
       </c>
       <c r="J4">
-        <v>22.1624841211571</v>
+        <v>22.5589378722833</v>
       </c>
       <c r="K4">
-        <v>2.40939110836968</v>
+        <v>10.5521721684732</v>
       </c>
       <c r="L4">
-        <v>44.7562424654815</v>
+        <v>58.4816380273255</v>
       </c>
       <c r="M4">
-        <v>34.3394471887787</v>
+        <v>49.3945077502925</v>
       </c>
       <c r="N4">
-        <v>25.5084493738238</v>
+        <v>25.4121222511241</v>
       </c>
       <c r="O4">
-        <v>2093.31448632887</v>
+        <v>1924.11213449583</v>
       </c>
       <c r="P4">
-        <v>21.3752916325014</v>
+        <v>20.118911837725</v>
       </c>
     </row>
     <row r="5">
@@ -602,49 +602,49 @@
         </is>
       </c>
       <c r="B5">
-        <v>845.121604988656</v>
+        <v>915.937819331788</v>
       </c>
       <c r="C5">
-        <v>40.5870340398374</v>
+        <v>57.7649251936545</v>
       </c>
       <c r="D5">
-        <v>6.28470018087532</v>
+        <v>10.9681464753265</v>
       </c>
       <c r="E5">
-        <v>16.2097693273861</v>
+        <v>45.0735891718877</v>
       </c>
       <c r="F5">
-        <v>5.26728263691605</v>
+        <v>5.96480179392712</v>
       </c>
       <c r="G5">
-        <v>6.22455143243729</v>
+        <v>9.04801018669321</v>
       </c>
       <c r="H5">
-        <v>7.30455057611003</v>
+        <v>14.2925869283414</v>
       </c>
       <c r="I5">
-        <v>10.2794814241086</v>
+        <v>6.67994143536038</v>
       </c>
       <c r="J5">
-        <v>20.3375450369341</v>
+        <v>24.964288878269</v>
       </c>
       <c r="K5">
-        <v>3.33493205154926</v>
+        <v>19.1462191380062</v>
       </c>
       <c r="L5">
-        <v>7.33514592587926</v>
+        <v>15.724042533023</v>
       </c>
       <c r="M5">
-        <v>17.3584183354132</v>
+        <v>26.1686997873939</v>
       </c>
       <c r="N5">
-        <v>23.625127469671</v>
+        <v>14.431424001151</v>
       </c>
       <c r="O5">
-        <v>924.083149924352</v>
+        <v>766.75390923988</v>
       </c>
       <c r="P5">
-        <v>45.0842322690076</v>
+        <v>36.723111001893</v>
       </c>
     </row>
     <row r="6">
@@ -654,49 +654,49 @@
         </is>
       </c>
       <c r="B6">
-        <v>8902.033327954739</v>
+        <v>9800.63848098493</v>
       </c>
       <c r="C6">
-        <v>151.364600901254</v>
+        <v>174.604752753015</v>
       </c>
       <c r="D6">
-        <v>29.0314518810592</v>
+        <v>156.968370369996</v>
       </c>
       <c r="E6">
-        <v>129.743580474079</v>
+        <v>176.974479488857</v>
       </c>
       <c r="F6">
-        <v>41.700723624885</v>
+        <v>42.553149964887</v>
       </c>
       <c r="G6">
-        <v>84.9528871170708</v>
+        <v>93.1787720961958</v>
       </c>
       <c r="H6">
-        <v>42.8870150919072</v>
+        <v>46.7381000615438</v>
       </c>
       <c r="I6">
-        <v>24.2417998890915</v>
+        <v>46.3040077369123</v>
       </c>
       <c r="J6">
-        <v>138.198031366119</v>
+        <v>136.853972521251</v>
       </c>
       <c r="K6">
-        <v>30.0739113920692</v>
+        <v>97.0034800351953</v>
       </c>
       <c r="L6">
-        <v>353.689043036655</v>
+        <v>435.402340085503</v>
       </c>
       <c r="M6">
-        <v>197.758833925643</v>
+        <v>231.331956968679</v>
       </c>
       <c r="N6">
-        <v>226.268206754559</v>
+        <v>216.54615642474</v>
       </c>
       <c r="O6">
-        <v>12222.3268040132</v>
+        <v>10849.1009911519</v>
       </c>
       <c r="P6">
-        <v>216.384320145823</v>
+        <v>259.977597831279</v>
       </c>
     </row>
     <row r="7">
@@ -706,49 +706,49 @@
         </is>
       </c>
       <c r="B7">
-        <v>959.644786826046</v>
+        <v>1133.50502523951</v>
       </c>
       <c r="C7">
-        <v>46.3544267568118</v>
+        <v>19.0213156393532</v>
       </c>
       <c r="D7">
-        <v>7.62670465066453</v>
+        <v>4.98578420198625</v>
       </c>
       <c r="E7">
-        <v>12.4605769783027</v>
+        <v>20.8552861537642</v>
       </c>
       <c r="F7">
-        <v>25.5617091071803</v>
+        <v>24.6532776353529</v>
       </c>
       <c r="G7">
-        <v>12.4552146154064</v>
+        <v>9.712170120432059</v>
       </c>
       <c r="H7">
-        <v>6.27107849522699</v>
+        <v>6.59014767067625</v>
       </c>
       <c r="I7">
-        <v>8.121208490006341</v>
+        <v>10.7423561821948</v>
       </c>
       <c r="J7">
-        <v>18.0111555302508</v>
+        <v>17.4963249765181</v>
       </c>
       <c r="K7">
-        <v>12.9819079879142</v>
+        <v>11.5939204351135</v>
       </c>
       <c r="L7">
-        <v>25.3416488111492</v>
+        <v>49.0002403404093</v>
       </c>
       <c r="M7">
-        <v>16.1337753968683</v>
+        <v>16.0372062782736</v>
       </c>
       <c r="N7">
-        <v>22.2629944877847</v>
+        <v>21.8928443336104</v>
       </c>
       <c r="O7">
-        <v>1888.99257864754</v>
+        <v>1715.82968529629</v>
       </c>
       <c r="P7">
-        <v>31.8386477273042</v>
+        <v>45.6665824456581</v>
       </c>
     </row>
     <row r="8">
@@ -758,49 +758,49 @@
         </is>
       </c>
       <c r="B8">
-        <v>799.000627248994</v>
+        <v>917.220674412992</v>
       </c>
       <c r="C8">
-        <v>9.34602197745444</v>
+        <v>13.0540261462228</v>
       </c>
       <c r="D8">
-        <v>3.09871928354093</v>
+        <v>8.02061532585963</v>
       </c>
       <c r="E8">
-        <v>19.0550205663719</v>
+        <v>17.7667026826725</v>
       </c>
       <c r="F8">
-        <v>3.21424173485356</v>
+        <v>1.65300834284282</v>
       </c>
       <c r="G8">
-        <v>17.3876890111218</v>
+        <v>21.9285727233776</v>
       </c>
       <c r="H8">
-        <v>7.83895681274537</v>
+        <v>7.15971557388917</v>
       </c>
       <c r="I8">
-        <v>6.21812280907385</v>
+        <v>3.38411344313678</v>
       </c>
       <c r="J8">
-        <v>34.0295903304938</v>
+        <v>37.516468114871</v>
       </c>
       <c r="K8">
-        <v>6.32492453606617</v>
+        <v>24.7910032201645</v>
       </c>
       <c r="L8">
-        <v>30.0857825541647</v>
+        <v>34.1536925188112</v>
       </c>
       <c r="M8">
-        <v>46.348133782368</v>
+        <v>49.4264760461914</v>
       </c>
       <c r="N8">
-        <v>28.076056035187</v>
+        <v>23.0822652446517</v>
       </c>
       <c r="O8">
-        <v>1314.9039823321</v>
+        <v>1165.21398061802</v>
       </c>
       <c r="P8">
-        <v>8.202408681428331</v>
+        <v>5.68262924390944</v>
       </c>
     </row>
     <row r="9">
@@ -810,49 +810,49 @@
         </is>
       </c>
       <c r="B9">
-        <v>214.321421145366</v>
+        <v>260.814030063546</v>
       </c>
       <c r="C9">
-        <v>5.09057466746257</v>
+        <v>7.66558708525354</v>
       </c>
       <c r="D9">
-        <v>1.41074207690435</v>
+        <v>1.89397375812455</v>
       </c>
       <c r="E9">
-        <v>2.95008359443488</v>
+        <v>4.36620365283189</v>
       </c>
       <c r="F9">
-        <v>0.925970101987784</v>
+        <v>1.77396395297452</v>
       </c>
       <c r="G9">
-        <v>15.5200751892596</v>
+        <v>13.4505808513275</v>
       </c>
       <c r="H9">
-        <v>1.65176765657348</v>
+        <v>3.19004101799738</v>
       </c>
       <c r="I9">
-        <v>2.21705736266395</v>
+        <v>0.912049527325523</v>
       </c>
       <c r="J9">
-        <v>2.26957256975168</v>
+        <v>3.45005400834969</v>
       </c>
       <c r="K9">
-        <v>0.52449290691245</v>
+        <v>1.91707415058612</v>
       </c>
       <c r="L9">
-        <v>0.949773191075013</v>
+        <v>1.73223755502631</v>
       </c>
       <c r="M9">
-        <v>4.03594687725802</v>
+        <v>5.53195153245401</v>
       </c>
       <c r="N9">
-        <v>0.791037858771539</v>
+        <v>4.27810973899465</v>
       </c>
       <c r="O9">
-        <v>321.93173356725</v>
+        <v>268.649188852981</v>
       </c>
       <c r="P9">
-        <v>3.74933422561211</v>
+        <v>2.40418391860075</v>
       </c>
     </row>
     <row r="10">
@@ -862,49 +862,49 @@
         </is>
       </c>
       <c r="B10">
-        <v>5320.96759001624</v>
+        <v>5744.80068948946</v>
       </c>
       <c r="C10">
-        <v>49.8631400091367</v>
+        <v>50.6128210790853</v>
       </c>
       <c r="D10">
-        <v>12.8525871051209</v>
+        <v>20.6763327601026</v>
       </c>
       <c r="E10">
-        <v>52.6311060271657</v>
+        <v>68.3041692852356</v>
       </c>
       <c r="F10">
-        <v>11.3829068386258</v>
+        <v>12.3716826211827</v>
       </c>
       <c r="G10">
-        <v>22.9654534406578</v>
+        <v>27.9253068504982</v>
       </c>
       <c r="H10">
-        <v>8.909501960514451</v>
+        <v>19.8926658939604</v>
       </c>
       <c r="I10">
-        <v>23.3851090285671</v>
+        <v>25.3926158137347</v>
       </c>
       <c r="J10">
-        <v>50.9251412260494</v>
+        <v>46.0751497170916</v>
       </c>
       <c r="K10">
-        <v>8.30986319751589</v>
+        <v>36.084268557254</v>
       </c>
       <c r="L10">
-        <v>52.3320883289691</v>
+        <v>71.84405235930601</v>
       </c>
       <c r="M10">
-        <v>48.7239903162274</v>
+        <v>69.2908788256957</v>
       </c>
       <c r="N10">
-        <v>80.4802641109177</v>
+        <v>74.24119035277739</v>
       </c>
       <c r="O10">
-        <v>6763.13084099662</v>
+        <v>6016.44301735479</v>
       </c>
       <c r="P10">
-        <v>69.77212080273959</v>
+        <v>94.6197799865606</v>
       </c>
     </row>
     <row r="11">
@@ -914,49 +914,49 @@
         </is>
       </c>
       <c r="B11">
-        <v>2280.70890815966</v>
+        <v>2542.43463623259</v>
       </c>
       <c r="C11">
-        <v>52.7627622935615</v>
+        <v>69.8594332944499</v>
       </c>
       <c r="D11">
-        <v>96.1737088892052</v>
+        <v>93.4957100280497</v>
       </c>
       <c r="E11">
-        <v>69.7958451635471</v>
+        <v>70.93436634640599</v>
       </c>
       <c r="F11">
-        <v>13.0879532549567</v>
+        <v>10.0800428275822</v>
       </c>
       <c r="G11">
-        <v>19.733480883753</v>
+        <v>28.5855741913163</v>
       </c>
       <c r="H11">
-        <v>24.7109394432407</v>
+        <v>34.7261694408251</v>
       </c>
       <c r="I11">
-        <v>13.2947264472711</v>
+        <v>18.5805897948114</v>
       </c>
       <c r="J11">
-        <v>39.3650047203562</v>
+        <v>34.0176720708577</v>
       </c>
       <c r="K11">
-        <v>6.41910381546299</v>
+        <v>35.4137190969999</v>
       </c>
       <c r="L11">
-        <v>33.2153461801735</v>
+        <v>49.0208925176149</v>
       </c>
       <c r="M11">
-        <v>50.3982565617973</v>
+        <v>67.23799962260731</v>
       </c>
       <c r="N11">
-        <v>55.9580669259707</v>
+        <v>49.6950285813136</v>
       </c>
       <c r="O11">
-        <v>3125.43607062875</v>
+        <v>2802.96149349063</v>
       </c>
       <c r="P11">
-        <v>45.6967452512766</v>
+        <v>56.1848981297149</v>
       </c>
     </row>
     <row r="12">
@@ -966,49 +966,49 @@
         </is>
       </c>
       <c r="B12">
-        <v>309.732165065265</v>
+        <v>347.676870464144</v>
       </c>
       <c r="C12">
-        <v>5.55257520112538</v>
+        <v>4.49834624862913</v>
       </c>
       <c r="D12">
-        <v>0.976121890897381</v>
+        <v>2.07463949970693</v>
       </c>
       <c r="E12">
-        <v>3.08553870028529</v>
+        <v>2.7128372420968</v>
       </c>
       <c r="F12">
-        <v>0.767557376228471</v>
+        <v>0.719208359898402</v>
       </c>
       <c r="G12">
-        <v>0.108962601185253</v>
+        <v>0.442589759937478</v>
       </c>
       <c r="H12">
-        <v>0.051001243358031</v>
+        <v>0.100694206535946</v>
       </c>
       <c r="I12">
-        <v>0.788434277539133</v>
+        <v>0.995826959859322</v>
       </c>
       <c r="J12">
-        <v>1.68359750955618</v>
+        <v>0.6085609199140321</v>
       </c>
       <c r="K12">
-        <v>1.34441675812661</v>
+        <v>0.425297710398683</v>
       </c>
       <c r="L12">
-        <v>0.0789381918490982</v>
+        <v>0.224064079723353</v>
       </c>
       <c r="M12">
-        <v>1.06559028300122</v>
+        <v>3.2375946863961</v>
       </c>
       <c r="N12">
-        <v>4.29558514552844</v>
+        <v>2.08112420776207</v>
       </c>
       <c r="O12">
-        <v>472.737765426705</v>
+        <v>429.085152350516</v>
       </c>
       <c r="P12">
-        <v>10.1650712352937</v>
+        <v>12.6708341764847</v>
       </c>
     </row>
     <row r="13">
@@ -1018,49 +1018,49 @@
         </is>
       </c>
       <c r="B13">
-        <v>312.569895349976</v>
+        <v>406.397431629132</v>
       </c>
       <c r="C13">
-        <v>20.6426713958939</v>
+        <v>17.3383359330729</v>
       </c>
       <c r="D13">
-        <v>1.28373925064174</v>
+        <v>0.99725594177689</v>
       </c>
       <c r="E13">
-        <v>7.8136461317773</v>
+        <v>16.2490526026674</v>
       </c>
       <c r="F13">
-        <v>4.37473048624468</v>
+        <v>1.79556341149092</v>
       </c>
       <c r="G13">
-        <v>5.3500463665742</v>
+        <v>5.49311920142009</v>
       </c>
       <c r="H13">
-        <v>3.56629139944497</v>
+        <v>1.84369858510617</v>
       </c>
       <c r="I13">
-        <v>2.59481520950533</v>
+        <v>1.70187561702108</v>
       </c>
       <c r="J13">
-        <v>2.38018816291596</v>
+        <v>5.31881075245975</v>
       </c>
       <c r="K13">
-        <v>3.69416543544758</v>
+        <v>2.55281342553161</v>
       </c>
       <c r="L13">
-        <v>16.3204076355733</v>
+        <v>21.8588202474937</v>
       </c>
       <c r="M13">
-        <v>3.41303550026537</v>
+        <v>2.36376060995375</v>
       </c>
       <c r="N13">
-        <v>2.19804798735004</v>
+        <v>5.7286025954545</v>
       </c>
       <c r="O13">
-        <v>526.393939723922</v>
+        <v>429.142962606429</v>
       </c>
       <c r="P13">
-        <v>34.0147372139298</v>
+        <v>33.1026585196412</v>
       </c>
     </row>
     <row r="14">
@@ -1070,49 +1070,49 @@
         </is>
       </c>
       <c r="B14">
-        <v>3116.43262501696</v>
+        <v>3466.76936124826</v>
       </c>
       <c r="C14">
-        <v>122.608967365655</v>
+        <v>112.481909552153</v>
       </c>
       <c r="D14">
-        <v>14.7507584331468</v>
+        <v>16.8349929089386</v>
       </c>
       <c r="E14">
-        <v>66.7214080506881</v>
+        <v>118.073860340664</v>
       </c>
       <c r="F14">
-        <v>9.477065771860911</v>
+        <v>28.4454825051207</v>
       </c>
       <c r="G14">
-        <v>75.48445530311341</v>
+        <v>69.87436522535231</v>
       </c>
       <c r="H14">
-        <v>40.3423732071652</v>
+        <v>52.5189189583363</v>
       </c>
       <c r="I14">
-        <v>14.1570066249257</v>
+        <v>17.3518192214796</v>
       </c>
       <c r="J14">
-        <v>104.039047399202</v>
+        <v>147.49694164507</v>
       </c>
       <c r="K14">
-        <v>39.4451234757286</v>
+        <v>130.417443691529</v>
       </c>
       <c r="L14">
-        <v>79.3608253676022</v>
+        <v>98.10906164456679</v>
       </c>
       <c r="M14">
-        <v>76.3499687709237</v>
+        <v>73.4328467533349</v>
       </c>
       <c r="N14">
-        <v>46.893435235456</v>
+        <v>65.23561717183421</v>
       </c>
       <c r="O14">
-        <v>4528.09592903484</v>
+        <v>3918.92991587158</v>
       </c>
       <c r="P14">
-        <v>41.9941961326197</v>
+        <v>59.1676652979065</v>
       </c>
     </row>
     <row r="15">
@@ -1122,49 +1122,49 @@
         </is>
       </c>
       <c r="B15">
-        <v>1577.24565365536</v>
+        <v>1755.74682292044</v>
       </c>
       <c r="C15">
-        <v>50.9671054512538</v>
+        <v>34.270522303793</v>
       </c>
       <c r="D15">
-        <v>5.45749762490313</v>
+        <v>11.7711575342164</v>
       </c>
       <c r="E15">
-        <v>57.1251627977516</v>
+        <v>62.1408848557608</v>
       </c>
       <c r="F15">
-        <v>15.031397822599</v>
+        <v>9.56488880808852</v>
       </c>
       <c r="G15">
-        <v>40.3868525366383</v>
+        <v>39.6536585267891</v>
       </c>
       <c r="H15">
-        <v>37.2683424354176</v>
+        <v>54.1414422313979</v>
       </c>
       <c r="I15">
-        <v>22.9241047748046</v>
+        <v>13.9724543593814</v>
       </c>
       <c r="J15">
-        <v>105.158432133134</v>
+        <v>129.258023925956</v>
       </c>
       <c r="K15">
-        <v>28.800623008079</v>
+        <v>51.5600326101879</v>
       </c>
       <c r="L15">
-        <v>30.875876146688</v>
+        <v>51.0192541987226</v>
       </c>
       <c r="M15">
-        <v>145.564674224459</v>
+        <v>190.565806217714</v>
       </c>
       <c r="N15">
-        <v>84.2113188167318</v>
+        <v>74.911842131822</v>
       </c>
       <c r="O15">
-        <v>2014.67591009656</v>
+        <v>1762.59501215024</v>
       </c>
       <c r="P15">
-        <v>46.3672440914354</v>
+        <v>33.8809097945766</v>
       </c>
     </row>
     <row r="16">
@@ -1174,49 +1174,49 @@
         </is>
       </c>
       <c r="B16">
-        <v>627.259395154177</v>
+        <v>801.790507385363</v>
       </c>
       <c r="C16">
-        <v>49.7243477713497</v>
+        <v>51.2601124213298</v>
       </c>
       <c r="D16">
-        <v>4.25010043757305</v>
+        <v>4.58483536610591</v>
       </c>
       <c r="E16">
-        <v>25.820836457252</v>
+        <v>29.528223777081</v>
       </c>
       <c r="F16">
-        <v>2.40658737994501</v>
+        <v>3.15204771088842</v>
       </c>
       <c r="G16">
-        <v>11.0367771352504</v>
+        <v>10.1224511104617</v>
       </c>
       <c r="H16">
-        <v>15.0426661640022</v>
+        <v>16.151996456112</v>
       </c>
       <c r="I16">
-        <v>5.17934097694519</v>
+        <v>8.13675586691874</v>
       </c>
       <c r="J16">
-        <v>36.8177237726885</v>
+        <v>38.940867012681</v>
       </c>
       <c r="K16">
-        <v>36.2406247916186</v>
+        <v>45.9264435428348</v>
       </c>
       <c r="L16">
-        <v>9.44707431015828</v>
+        <v>28.8654477011206</v>
       </c>
       <c r="M16">
-        <v>23.7775839841957</v>
+        <v>29.0670654824827</v>
       </c>
       <c r="N16">
-        <v>24.5367499292589</v>
+        <v>15.1448602662113</v>
       </c>
       <c r="O16">
-        <v>1102.05781307869</v>
+        <v>919.017391106879</v>
       </c>
       <c r="P16">
-        <v>71.6684086625403</v>
+        <v>63.5710353741713</v>
       </c>
     </row>
     <row r="17">
@@ -1226,49 +1226,49 @@
         </is>
       </c>
       <c r="B17">
-        <v>606.8275071002701</v>
+        <v>715.2088935156151</v>
       </c>
       <c r="C17">
-        <v>20.577383172505</v>
+        <v>35.4730244592795</v>
       </c>
       <c r="D17">
-        <v>5.71342532485688</v>
+        <v>4.95967760448892</v>
       </c>
       <c r="E17">
-        <v>13.5820419685011</v>
+        <v>19.5368097228733</v>
       </c>
       <c r="F17">
-        <v>11.9836579245628</v>
+        <v>16.1373842563299</v>
       </c>
       <c r="G17">
-        <v>11.134498725553</v>
+        <v>8.76063071732632</v>
       </c>
       <c r="H17">
-        <v>11.2411443638178</v>
+        <v>11.0180443935457</v>
       </c>
       <c r="I17">
-        <v>5.71657748390731</v>
+        <v>8.278835727279141</v>
       </c>
       <c r="J17">
-        <v>16.3599540705927</v>
+        <v>18.2356911456791</v>
       </c>
       <c r="K17">
-        <v>8.47926262178067</v>
+        <v>16.5850859552997</v>
       </c>
       <c r="L17">
-        <v>7.04302557838206</v>
+        <v>9.80157667370292</v>
       </c>
       <c r="M17">
-        <v>58.0183671331111</v>
+        <v>61.5900483614012</v>
       </c>
       <c r="N17">
-        <v>7.79909920865569</v>
+        <v>12.73494811039</v>
       </c>
       <c r="O17">
-        <v>997.084037373851</v>
+        <v>836.341332293695</v>
       </c>
       <c r="P17">
-        <v>37.9784480109998</v>
+        <v>51.5970783259446</v>
       </c>
     </row>
     <row r="18">
@@ -1278,49 +1278,49 @@
         </is>
       </c>
       <c r="B18">
-        <v>1272.93333666273</v>
+        <v>1406.04143316742</v>
       </c>
       <c r="C18">
-        <v>24.1395537598237</v>
+        <v>35.8668587925226</v>
       </c>
       <c r="D18">
-        <v>4.4959574564984</v>
+        <v>21.1032208862493</v>
       </c>
       <c r="E18">
-        <v>29.314562770525</v>
+        <v>45.3436810444947</v>
       </c>
       <c r="F18">
-        <v>31.946456975849</v>
+        <v>26.2358822059007</v>
       </c>
       <c r="G18">
-        <v>12.0971443275059</v>
+        <v>16.1513306603785</v>
       </c>
       <c r="H18">
-        <v>5.84605432177517</v>
+        <v>17.7915544683317</v>
       </c>
       <c r="I18">
-        <v>5.35186142400695</v>
+        <v>10.7050440344467</v>
       </c>
       <c r="J18">
-        <v>12.1837471020393</v>
+        <v>45.7736817518098</v>
       </c>
       <c r="K18">
-        <v>6.37991237189977</v>
+        <v>33.5572132607107</v>
       </c>
       <c r="L18">
-        <v>22.3625680257452</v>
+        <v>25.828632721598</v>
       </c>
       <c r="M18">
-        <v>51.054186687474</v>
+        <v>80.2135162865882</v>
       </c>
       <c r="N18">
-        <v>23.3472816027211</v>
+        <v>15.7458731287519</v>
       </c>
       <c r="O18">
-        <v>1367.8102134846</v>
+        <v>1113.48409396304</v>
       </c>
       <c r="P18">
-        <v>47.2984026456446</v>
+        <v>30.436190415763</v>
       </c>
     </row>
     <row r="19">
@@ -1330,49 +1330,49 @@
         </is>
       </c>
       <c r="B19">
-        <v>1227.73732959413</v>
+        <v>1321.61377155361</v>
       </c>
       <c r="C19">
-        <v>36.48637838161</v>
+        <v>14.1529329108568</v>
       </c>
       <c r="D19">
-        <v>11.3700831008043</v>
+        <v>9.29981657605312</v>
       </c>
       <c r="E19">
-        <v>28.3063638906223</v>
+        <v>23.8588707927627</v>
       </c>
       <c r="F19">
-        <v>67.4980645544197</v>
+        <v>71.8675401133559</v>
       </c>
       <c r="G19">
-        <v>33.5122400322042</v>
+        <v>35.130319513966</v>
       </c>
       <c r="H19">
-        <v>3.00016686467613</v>
+        <v>2.91187544877997</v>
       </c>
       <c r="I19">
-        <v>5.18480054414191</v>
+        <v>7.14466385587859</v>
       </c>
       <c r="J19">
-        <v>20.8350631322485</v>
+        <v>26.6454710847724</v>
       </c>
       <c r="K19">
-        <v>9.00741447707129</v>
+        <v>11.6470062478473</v>
       </c>
       <c r="L19">
-        <v>3.91813283389998</v>
+        <v>5.30647105694234</v>
       </c>
       <c r="M19">
-        <v>6.08504534620312</v>
+        <v>21.8056379079251</v>
       </c>
       <c r="N19">
-        <v>10.4831735335606</v>
+        <v>10.6363774818116</v>
       </c>
       <c r="O19">
-        <v>1412.67443414908</v>
+        <v>1304.21531860507</v>
       </c>
       <c r="P19">
-        <v>23.6595552990772</v>
+        <v>23.0908308100354</v>
       </c>
     </row>
     <row r="20">
@@ -1382,49 +1382,49 @@
         </is>
       </c>
       <c r="B20">
-        <v>349.827819679968</v>
+        <v>393.429178478807</v>
       </c>
       <c r="C20">
-        <v>7.21979255784987</v>
+        <v>7.35227260502806</v>
       </c>
       <c r="D20">
-        <v>5.33578149120416</v>
+        <v>7.57064067948615</v>
       </c>
       <c r="E20">
-        <v>26.0970324813546</v>
+        <v>30.7964257129275</v>
       </c>
       <c r="F20">
-        <v>1.00968563048123</v>
+        <v>0.441640839079111</v>
       </c>
       <c r="G20">
-        <v>2.49852920546065</v>
+        <v>1.61462055187835</v>
       </c>
       <c r="H20">
-        <v>1.45144780599325</v>
+        <v>1.82295868760459</v>
       </c>
       <c r="I20">
-        <v>2.43794001364622</v>
+        <v>1.66670508580991</v>
       </c>
       <c r="J20">
-        <v>4.39776262561608</v>
+        <v>6.27675496117568</v>
       </c>
       <c r="K20">
-        <v>0.9577572356870691</v>
+        <v>4.06615130334625</v>
       </c>
       <c r="L20">
-        <v>5.62060214529508</v>
+        <v>6.46444227038397</v>
       </c>
       <c r="M20">
-        <v>11.5652585136588</v>
+        <v>15.2687510570131</v>
       </c>
       <c r="N20">
-        <v>3.8972197849405</v>
+        <v>6.01259522345081</v>
       </c>
       <c r="O20">
-        <v>499.76984625665</v>
+        <v>431.655749877853</v>
       </c>
       <c r="P20">
-        <v>18.8199570144382</v>
+        <v>17.7352185080945</v>
       </c>
     </row>
     <row r="21">
@@ -1434,49 +1434,49 @@
         </is>
       </c>
       <c r="B21">
-        <v>1348.35267568638</v>
+        <v>1454.70979275911</v>
       </c>
       <c r="C21">
-        <v>11.1528854451611</v>
+        <v>17.3280769004203</v>
       </c>
       <c r="D21">
-        <v>1.27114868190029</v>
+        <v>9.033716024694369</v>
       </c>
       <c r="E21">
-        <v>12.3836569323252</v>
+        <v>30.7389969216084</v>
       </c>
       <c r="F21">
-        <v>3.91755635731674</v>
+        <v>4.09721896062682</v>
       </c>
       <c r="G21">
-        <v>7.76057817750395</v>
+        <v>19.9258191131044</v>
       </c>
       <c r="H21">
-        <v>2.19211260504525</v>
+        <v>7.87704772007832</v>
       </c>
       <c r="I21">
-        <v>11.3507081415752</v>
+        <v>6.8026379137236</v>
       </c>
       <c r="J21">
-        <v>14.5274420689864</v>
+        <v>20.5244256501883</v>
       </c>
       <c r="K21">
-        <v>1.87986594889686</v>
+        <v>10.264108926757</v>
       </c>
       <c r="L21">
-        <v>18.6876223005031</v>
+        <v>25.6575317683483</v>
       </c>
       <c r="M21">
-        <v>10.6414972755149</v>
+        <v>21.7521658205848</v>
       </c>
       <c r="N21">
-        <v>14.2403766144256</v>
+        <v>18.5084764311605</v>
       </c>
       <c r="O21">
-        <v>2116.79785716783</v>
+        <v>1888.42950547532</v>
       </c>
       <c r="P21">
-        <v>21.3901592039549</v>
+        <v>14.9817204333426</v>
       </c>
     </row>
     <row r="22">
@@ -1486,49 +1486,49 @@
         </is>
       </c>
       <c r="B22">
-        <v>1606.6622667531</v>
+        <v>1688.95969596097</v>
       </c>
       <c r="C22">
-        <v>22.0163503294367</v>
+        <v>26.9851968441389</v>
       </c>
       <c r="D22">
-        <v>4.11434010521278</v>
+        <v>24.1253124295117</v>
       </c>
       <c r="E22">
-        <v>21.4936233257273</v>
+        <v>47.6115241913024</v>
       </c>
       <c r="F22">
-        <v>1.94512545113665</v>
+        <v>3.06994642756253</v>
       </c>
       <c r="G22">
-        <v>24.697690779748</v>
+        <v>28.425678867193</v>
       </c>
       <c r="H22">
-        <v>10.7728382336289</v>
+        <v>20.5597107229782</v>
       </c>
       <c r="I22">
-        <v>5.41187876367218</v>
+        <v>9.667494719684081</v>
       </c>
       <c r="J22">
-        <v>46.8895406829142</v>
+        <v>41.9512544288854</v>
       </c>
       <c r="K22">
-        <v>3.07381403177679</v>
+        <v>24.2069734372534</v>
       </c>
       <c r="L22">
-        <v>57.3498923979923</v>
+        <v>110.016471617538</v>
       </c>
       <c r="M22">
-        <v>8.119185750895269</v>
+        <v>16.5854539080115</v>
       </c>
       <c r="N22">
-        <v>40.6192376067614</v>
+        <v>37.2214073863407</v>
       </c>
       <c r="O22">
-        <v>2437.03086937308</v>
+        <v>2232.21749757802</v>
       </c>
       <c r="P22">
-        <v>10.7993537028044</v>
+        <v>9.83511471883841</v>
       </c>
     </row>
     <row r="23">
@@ -1538,49 +1538,49 @@
         </is>
       </c>
       <c r="B23">
-        <v>2791.36386639983</v>
+        <v>3015.72727366453</v>
       </c>
       <c r="C23">
-        <v>31.8110075031763</v>
+        <v>36.4979907628334</v>
       </c>
       <c r="D23">
-        <v>4.8015111832859</v>
+        <v>8.828141372205179</v>
       </c>
       <c r="E23">
-        <v>47.5397291367361</v>
+        <v>60.8691717484657</v>
       </c>
       <c r="F23">
-        <v>7.99831138044749</v>
+        <v>14.573150013935</v>
       </c>
       <c r="G23">
-        <v>42.2834605728301</v>
+        <v>39.5115134820539</v>
       </c>
       <c r="H23">
-        <v>51.9614707145234</v>
+        <v>59.5426291516088</v>
       </c>
       <c r="I23">
-        <v>20.7788806907741</v>
+        <v>11.6132582901004</v>
       </c>
       <c r="J23">
-        <v>83.4385867378973</v>
+        <v>122.758780715592</v>
       </c>
       <c r="K23">
-        <v>61.4946378417853</v>
+        <v>93.4179067970516</v>
       </c>
       <c r="L23">
-        <v>34.5205405272783</v>
+        <v>34.6620515981329</v>
       </c>
       <c r="M23">
-        <v>418.682706450815</v>
+        <v>414.888487952964</v>
       </c>
       <c r="N23">
-        <v>85.9127768655778</v>
+        <v>68.7301984023354</v>
       </c>
       <c r="O23">
-        <v>3087.58751332007</v>
+        <v>2783.32914869376</v>
       </c>
       <c r="P23">
-        <v>60.2060292139908</v>
+        <v>37.5080035029512</v>
       </c>
     </row>
     <row r="24">
@@ -1590,49 +1590,49 @@
         </is>
       </c>
       <c r="B24">
-        <v>1048.39169996267</v>
+        <v>1222.78855379443</v>
       </c>
       <c r="C24">
-        <v>41.9600075585352</v>
+        <v>61.4689551435308</v>
       </c>
       <c r="D24">
-        <v>7.30978873390698</v>
+        <v>4.85517863570415</v>
       </c>
       <c r="E24">
-        <v>52.2316061323608</v>
+        <v>73.20560696000609</v>
       </c>
       <c r="F24">
-        <v>8.292824533155001</v>
+        <v>8.55585702681017</v>
       </c>
       <c r="G24">
-        <v>16.8955477515461</v>
+        <v>15.6171631069279</v>
       </c>
       <c r="H24">
-        <v>17.3027218375189</v>
+        <v>18.3718356801777</v>
       </c>
       <c r="I24">
-        <v>14.754085850388</v>
+        <v>12.8121824564799</v>
       </c>
       <c r="J24">
-        <v>40.5003949297882</v>
+        <v>60.6682721788244</v>
       </c>
       <c r="K24">
-        <v>13.5874991940042</v>
+        <v>52.8066710193637</v>
       </c>
       <c r="L24">
-        <v>50.5704337466606</v>
+        <v>63.1748580459854</v>
       </c>
       <c r="M24">
-        <v>13.5843506060838</v>
+        <v>24.0426352154612</v>
       </c>
       <c r="N24">
-        <v>51.6046599529489</v>
+        <v>50.1410729167094</v>
       </c>
       <c r="O24">
-        <v>2010.10942242072</v>
+        <v>1703.56702718268</v>
       </c>
       <c r="P24">
-        <v>61.9638610902001</v>
+        <v>75.63474492172941</v>
       </c>
     </row>
     <row r="25">
@@ -1642,49 +1642,49 @@
         </is>
       </c>
       <c r="B25">
-        <v>879.365421073717</v>
+        <v>939.628024644409</v>
       </c>
       <c r="C25">
-        <v>16.6392775848928</v>
+        <v>27.6009683031312</v>
       </c>
       <c r="D25">
-        <v>8.295135877378741</v>
+        <v>17.8003694778146</v>
       </c>
       <c r="E25">
-        <v>30.1057286895252</v>
+        <v>29.7564059247648</v>
       </c>
       <c r="F25">
-        <v>21.9683853357901</v>
+        <v>6.1839769424993</v>
       </c>
       <c r="G25">
-        <v>8.69817583489349</v>
+        <v>9.89353717701222</v>
       </c>
       <c r="H25">
-        <v>7.41972230881719</v>
+        <v>8.26106942212331</v>
       </c>
       <c r="I25">
-        <v>0.915061275549751</v>
+        <v>5.97238834420366</v>
       </c>
       <c r="J25">
-        <v>7.15953546163283</v>
+        <v>15.2858707939512</v>
       </c>
       <c r="K25">
-        <v>2.72662647540005</v>
+        <v>14.967929727889</v>
       </c>
       <c r="L25">
-        <v>3.54664145280961</v>
+        <v>17.5439015803426</v>
       </c>
       <c r="M25">
-        <v>25.2342623313988</v>
+        <v>22.5911947506599</v>
       </c>
       <c r="N25">
-        <v>39.758943661041</v>
+        <v>43.0196708051957</v>
       </c>
       <c r="O25">
-        <v>802.478118618322</v>
+        <v>724.28148625464</v>
       </c>
       <c r="P25">
-        <v>50.3596889248587</v>
+        <v>22.8606438299031</v>
       </c>
     </row>
     <row r="26">
@@ -1694,49 +1694,49 @@
         </is>
       </c>
       <c r="B26">
-        <v>1438.72277975841</v>
+        <v>1682.52567728754</v>
       </c>
       <c r="C26">
-        <v>50.6903591153471</v>
+        <v>51.1034042711038</v>
       </c>
       <c r="D26">
-        <v>3.38221063552035</v>
+        <v>21.1377009568722</v>
       </c>
       <c r="E26">
-        <v>41.3245172146615</v>
+        <v>58.2836713059625</v>
       </c>
       <c r="F26">
-        <v>3.25062229101241</v>
+        <v>12.0570604165359</v>
       </c>
       <c r="G26">
-        <v>23.7340820818761</v>
+        <v>20.7653536119407</v>
       </c>
       <c r="H26">
-        <v>16.6168609626343</v>
+        <v>19.7844180866689</v>
       </c>
       <c r="I26">
-        <v>13.1412436524463</v>
+        <v>14.5494623280894</v>
       </c>
       <c r="J26">
-        <v>44.6977055007563</v>
+        <v>60.4668614997457</v>
       </c>
       <c r="K26">
-        <v>14.8241761776513</v>
+        <v>35.9017550860545</v>
       </c>
       <c r="L26">
-        <v>28.8520597380801</v>
+        <v>36.8475552992871</v>
       </c>
       <c r="M26">
-        <v>41.4969614261384</v>
+        <v>63.4056171693503</v>
       </c>
       <c r="N26">
-        <v>23.6140897172173</v>
+        <v>40.1596863997394</v>
       </c>
       <c r="O26">
-        <v>2151.18389283319</v>
+        <v>1781.11633321768</v>
       </c>
       <c r="P26">
-        <v>48.0056562543691</v>
+        <v>55.1157124235622</v>
       </c>
     </row>
     <row r="27">
@@ -1746,49 +1746,49 @@
         </is>
       </c>
       <c r="B27">
-        <v>246.822626881473</v>
+        <v>271.816321677314</v>
       </c>
       <c r="C27">
-        <v>3.33673983708742</v>
+        <v>2.76889464311487</v>
       </c>
       <c r="D27">
-        <v>1.18948192967536</v>
+        <v>1.107301677398</v>
       </c>
       <c r="E27">
-        <v>8.481235088787111</v>
+        <v>7.53346753783714</v>
       </c>
       <c r="F27">
-        <v>4.87845459156842</v>
+        <v>5.54232046721132</v>
       </c>
       <c r="G27">
-        <v>0.723476703576441</v>
+        <v>0.810220739559513</v>
       </c>
       <c r="H27">
-        <v>0.583782399519032</v>
+        <v>0.324088295823806</v>
       </c>
       <c r="I27">
-        <v>1.5523039223595</v>
+        <v>1.35507761708486</v>
       </c>
       <c r="J27">
-        <v>3.15220249646222</v>
+        <v>2.74439796888487</v>
       </c>
       <c r="K27">
-        <v>0.535136591452586</v>
+        <v>1.107301677398</v>
       </c>
       <c r="L27">
-        <v>1.34352008057108</v>
+        <v>1.22639141396086</v>
       </c>
       <c r="M27">
-        <v>0.293477710745729</v>
+        <v>0.891242813515466</v>
       </c>
       <c r="N27">
-        <v>2.79823857294766</v>
+        <v>3.70440659091568</v>
       </c>
       <c r="O27">
-        <v>341.10515033622</v>
+        <v>315.452729110052</v>
       </c>
       <c r="P27">
-        <v>33.0946200270728</v>
+        <v>29.7031176933143</v>
       </c>
     </row>
     <row r="28">
@@ -1798,49 +1798,49 @@
         </is>
       </c>
       <c r="B28">
-        <v>346.583641284469</v>
+        <v>429.043928669779</v>
       </c>
       <c r="C28">
-        <v>35.9947966594991</v>
+        <v>30.6379509969074</v>
       </c>
       <c r="D28">
-        <v>2.44523598066435</v>
+        <v>1.98584174192318</v>
       </c>
       <c r="E28">
-        <v>3.87247538382506</v>
+        <v>8.793971729717439</v>
       </c>
       <c r="F28">
-        <v>1.32011613995496</v>
+        <v>1.55289119596549</v>
       </c>
       <c r="G28">
-        <v>4.43016497766542</v>
+        <v>4.49577406644599</v>
       </c>
       <c r="H28">
-        <v>5.04154497306409</v>
+        <v>5.94039358765182</v>
       </c>
       <c r="I28">
-        <v>2.79744708114129</v>
+        <v>3.77059457374088</v>
       </c>
       <c r="J28">
-        <v>12.2903407396576</v>
+        <v>11.7131151938374</v>
       </c>
       <c r="K28">
-        <v>10.9758012152372</v>
+        <v>13.9106485984192</v>
       </c>
       <c r="L28">
-        <v>6.28427509389946</v>
+        <v>9.5079616485882</v>
       </c>
       <c r="M28">
-        <v>8.64316933609827</v>
+        <v>11.1435376857152</v>
       </c>
       <c r="N28">
-        <v>9.767289939625201</v>
+        <v>10.0919739754409</v>
       </c>
       <c r="O28">
-        <v>686.5335281646391</v>
+        <v>583.4170170153531</v>
       </c>
       <c r="P28">
-        <v>53.7097588172622</v>
+        <v>66.8537448396425</v>
       </c>
     </row>
     <row r="29">
@@ -1850,49 +1850,49 @@
         </is>
       </c>
       <c r="B29">
-        <v>565.833819907416</v>
+        <v>608.694668427771</v>
       </c>
       <c r="C29">
-        <v>3.56662654212994</v>
+        <v>4.6492792776289</v>
       </c>
       <c r="D29">
-        <v>1.46675024093131</v>
+        <v>1.58079138934806</v>
       </c>
       <c r="E29">
-        <v>4.82891109381317</v>
+        <v>7.1001647148684</v>
       </c>
       <c r="F29">
-        <v>20.4005445020236</v>
+        <v>17.9099284247382</v>
       </c>
       <c r="G29">
-        <v>1.23067297982331</v>
+        <v>2.31037111224568</v>
       </c>
       <c r="H29">
-        <v>0.172687061509255</v>
+        <v>2.89365203473882</v>
       </c>
       <c r="I29">
-        <v>2.33066218194133</v>
+        <v>2.86120730156892</v>
       </c>
       <c r="J29">
-        <v>4.33159580316309</v>
+        <v>7.72403376658974</v>
       </c>
       <c r="K29">
-        <v>4.22112510843911</v>
+        <v>2.22728047683361</v>
       </c>
       <c r="L29">
-        <v>1.03204322187354</v>
+        <v>6.14524242995109</v>
       </c>
       <c r="M29">
-        <v>4.31241757706516</v>
+        <v>3.02079733147949</v>
       </c>
       <c r="N29">
-        <v>8.3360829832378</v>
+        <v>11.1464522774503</v>
       </c>
       <c r="O29">
-        <v>960.209924283212</v>
+        <v>888.0105120106221</v>
       </c>
       <c r="P29">
-        <v>3.92131166871547</v>
+        <v>4.25773151911964</v>
       </c>
     </row>
     <row r="30">
@@ -1902,49 +1902,49 @@
         </is>
       </c>
       <c r="B30">
-        <v>274.644395859431</v>
+        <v>326.760172362828</v>
       </c>
       <c r="C30">
-        <v>3.95487694035926</v>
+        <v>3.46517581402632</v>
       </c>
       <c r="D30">
-        <v>5.13658378098496</v>
+        <v>4.68840770581897</v>
       </c>
       <c r="E30">
-        <v>7.4799275851267</v>
+        <v>11.2110120631392</v>
       </c>
       <c r="F30">
-        <v>0.298515326353206</v>
+        <v>0.837226152521261</v>
       </c>
       <c r="G30">
-        <v>3.04029037528018</v>
+        <v>3.0289408921148</v>
       </c>
       <c r="H30">
-        <v>2.05319866687946</v>
+        <v>4.56527280902476</v>
       </c>
       <c r="I30">
-        <v>1.39791159198649</v>
+        <v>2.50760525764994</v>
       </c>
       <c r="J30">
-        <v>14.5583943078092</v>
+        <v>18.4932795251044</v>
       </c>
       <c r="K30">
-        <v>2.52254127961981</v>
+        <v>9.220650122983139</v>
       </c>
       <c r="L30">
-        <v>26.4384689113267</v>
+        <v>21.6347420971675</v>
       </c>
       <c r="M30">
-        <v>7.47081510807137</v>
+        <v>6.06156844088141</v>
       </c>
       <c r="N30">
-        <v>13.8615553078312</v>
+        <v>11.7043343233171</v>
       </c>
       <c r="O30">
-        <v>492.119036854041</v>
+        <v>436.921912169387</v>
       </c>
       <c r="P30">
-        <v>4.17190650563764</v>
+        <v>3.53577504949415</v>
       </c>
     </row>
     <row r="31">
@@ -1954,49 +1954,49 @@
         </is>
       </c>
       <c r="B31">
-        <v>2167.20326813857</v>
+        <v>2496.91722934139</v>
       </c>
       <c r="C31">
-        <v>41.0356455208085</v>
+        <v>38.3498240570733</v>
       </c>
       <c r="D31">
-        <v>3.26206387106135</v>
+        <v>25.7370069923305</v>
       </c>
       <c r="E31">
-        <v>24.4275996056628</v>
+        <v>57.2654628999514</v>
       </c>
       <c r="F31">
-        <v>7.90616994937614</v>
+        <v>11.5484120018426</v>
       </c>
       <c r="G31">
-        <v>108.356646890372</v>
+        <v>100.642546292378</v>
       </c>
       <c r="H31">
-        <v>11.157509969513</v>
+        <v>22.2556093732158</v>
       </c>
       <c r="I31">
-        <v>8.5374913004154</v>
+        <v>16.2446863045078</v>
       </c>
       <c r="J31">
-        <v>12.9243853260754</v>
+        <v>30.3091853745164</v>
       </c>
       <c r="K31">
-        <v>7.00863723057232</v>
+        <v>20.247173775569</v>
       </c>
       <c r="L31">
-        <v>46.8025288491556</v>
+        <v>56.1606441136019</v>
       </c>
       <c r="M31">
-        <v>20.9905297344664</v>
+        <v>19.1436318087112</v>
       </c>
       <c r="N31">
-        <v>58.5922881655032</v>
+        <v>42.3686932445132</v>
       </c>
       <c r="O31">
-        <v>3144.83464057647</v>
+        <v>2686.74986612133</v>
       </c>
       <c r="P31">
-        <v>11.3566260892137</v>
+        <v>13.9957460446814</v>
       </c>
     </row>
     <row r="32">
@@ -2006,49 +2006,49 @@
         </is>
       </c>
       <c r="B32">
-        <v>523.242246977412</v>
+        <v>604.408852712361</v>
       </c>
       <c r="C32">
-        <v>3.6700415836852</v>
+        <v>6.06971545256243</v>
       </c>
       <c r="D32">
-        <v>0.5976657432972901</v>
+        <v>1.40076442796494</v>
       </c>
       <c r="E32">
-        <v>4.58846372446127</v>
+        <v>5.16814563722837</v>
       </c>
       <c r="F32">
-        <v>20.9807815475859</v>
+        <v>19.7737988118003</v>
       </c>
       <c r="G32">
-        <v>2.31502038833692</v>
+        <v>1.88674392338135</v>
       </c>
       <c r="H32">
-        <v>0.6957177497510449</v>
+        <v>0.320826389464871</v>
       </c>
       <c r="I32">
-        <v>5.42981722643648</v>
+        <v>3.35607895550181</v>
       </c>
       <c r="J32">
-        <v>7.60577398670649</v>
+        <v>4.28805437132124</v>
       </c>
       <c r="K32">
-        <v>2.28834119163116</v>
+        <v>2.02967906909206</v>
       </c>
       <c r="L32">
-        <v>3.1957958200439</v>
+        <v>12.2974379799052</v>
       </c>
       <c r="M32">
-        <v>6.69476608289667</v>
+        <v>5.02905627751131</v>
       </c>
       <c r="N32">
-        <v>11.8240227333709</v>
+        <v>8.93369585016746</v>
       </c>
       <c r="O32">
-        <v>661.7998287785021</v>
+        <v>583.04998959647</v>
       </c>
       <c r="P32">
-        <v>19.095153591104</v>
+        <v>15.0380534675306</v>
       </c>
     </row>
     <row r="33">
@@ -2058,49 +2058,49 @@
         </is>
       </c>
       <c r="B33">
-        <v>5256.89841854449</v>
+        <v>5695.53718490253</v>
       </c>
       <c r="C33">
-        <v>51.1189022664628</v>
+        <v>65.46901931349829</v>
       </c>
       <c r="D33">
-        <v>9.00965307788185</v>
+        <v>86.21290268664529</v>
       </c>
       <c r="E33">
-        <v>60.6569630755319</v>
+        <v>88.9695275925404</v>
       </c>
       <c r="F33">
-        <v>15.7487333180061</v>
+        <v>7.47005244521183</v>
       </c>
       <c r="G33">
-        <v>56.5714292452557</v>
+        <v>64.7213308525143</v>
       </c>
       <c r="H33">
-        <v>27.8883333730517</v>
+        <v>23.3721875804707</v>
       </c>
       <c r="I33">
-        <v>18.5150255600051</v>
+        <v>26.3977627882616</v>
       </c>
       <c r="J33">
-        <v>65.4071081301792</v>
+        <v>79.6900219852738</v>
       </c>
       <c r="K33">
-        <v>38.5027856306043</v>
+        <v>85.2248869523642</v>
       </c>
       <c r="L33">
-        <v>74.69999247476549</v>
+        <v>93.13631248839521</v>
       </c>
       <c r="M33">
-        <v>40.0306666670733</v>
+        <v>62.9162546798947</v>
       </c>
       <c r="N33">
-        <v>92.7807831249295</v>
+        <v>81.946706550393</v>
       </c>
       <c r="O33">
-        <v>6771.04231966246</v>
+        <v>6113.22651262422</v>
       </c>
       <c r="P33">
-        <v>44.3518198200881</v>
+        <v>64.5728563740512</v>
       </c>
     </row>
     <row r="34">
@@ -2110,49 +2110,49 @@
         </is>
       </c>
       <c r="B34">
-        <v>2353.80919078744</v>
+        <v>2541.18344371325</v>
       </c>
       <c r="C34">
-        <v>49.3667000186382</v>
+        <v>52.4030845228738</v>
       </c>
       <c r="D34">
-        <v>63.1661427821214</v>
+        <v>121.21704145649</v>
       </c>
       <c r="E34">
-        <v>50.1630990526437</v>
+        <v>80.873662389435</v>
       </c>
       <c r="F34">
-        <v>9.21154468739827</v>
+        <v>6.67895516984937</v>
       </c>
       <c r="G34">
-        <v>47.2887991568268</v>
+        <v>50.9256947347571</v>
       </c>
       <c r="H34">
-        <v>37.3108493937622</v>
+        <v>33.7548603210255</v>
       </c>
       <c r="I34">
-        <v>19.0555468261723</v>
+        <v>18.8038441319952</v>
       </c>
       <c r="J34">
-        <v>41.8389167497003</v>
+        <v>52.9775166842624</v>
       </c>
       <c r="K34">
-        <v>9.39716621055902</v>
+        <v>31.986958363202</v>
       </c>
       <c r="L34">
-        <v>74.7051882410414</v>
+        <v>70.1148559294104</v>
       </c>
       <c r="M34">
-        <v>31.7393425781075</v>
+        <v>50.1462683130683</v>
       </c>
       <c r="N34">
-        <v>89.35895051985411</v>
+        <v>113.277158582136</v>
       </c>
       <c r="O34">
-        <v>3009.69648994556</v>
+        <v>2717.42206922528</v>
       </c>
       <c r="P34">
-        <v>69.52821234097451</v>
+        <v>39.9027422277108</v>
       </c>
     </row>
     <row r="35">
@@ -2162,49 +2162,49 @@
         </is>
       </c>
       <c r="B35">
-        <v>132.712884320127</v>
+        <v>171.892840603129</v>
       </c>
       <c r="C35">
-        <v>4.62518463542112</v>
+        <v>5.84411150847924</v>
       </c>
       <c r="D35">
-        <v>0.409143347077675</v>
+        <v>0.344662513262311</v>
       </c>
       <c r="E35">
-        <v>1.97215154572727</v>
+        <v>2.0571852100803</v>
       </c>
       <c r="F35">
-        <v>3.46265213088398</v>
+        <v>6.80298280512944</v>
       </c>
       <c r="G35">
-        <v>1.16769161229984</v>
+        <v>0.410513600816592</v>
       </c>
       <c r="H35">
-        <v>0.929343444049319</v>
+        <v>0.345408207304149</v>
       </c>
       <c r="I35">
-        <v>1.31303282980361</v>
+        <v>0.940012088861142</v>
       </c>
       <c r="J35">
-        <v>0.74800243525807</v>
+        <v>2.34779691704521</v>
       </c>
       <c r="K35">
-        <v>1.91227857289809</v>
+        <v>6.23519622900778</v>
       </c>
       <c r="L35">
-        <v>2.55714677130043</v>
+        <v>1.68756840629302</v>
       </c>
       <c r="M35">
-        <v>3.59120365332361</v>
+        <v>2.3264719645206</v>
       </c>
       <c r="N35">
-        <v>2.4760131395048</v>
+        <v>2.2068623607745</v>
       </c>
       <c r="O35">
-        <v>250.027330909189</v>
+        <v>213.670456752565</v>
       </c>
       <c r="P35">
-        <v>39.5322184938554</v>
+        <v>30.5966623508913</v>
       </c>
     </row>
     <row r="36">
@@ -2214,49 +2214,49 @@
         </is>
       </c>
       <c r="B36">
-        <v>3057.5453523247</v>
+        <v>3358.03689473089</v>
       </c>
       <c r="C36">
-        <v>71.9515836142085</v>
+        <v>73.8726505070542</v>
       </c>
       <c r="D36">
-        <v>1.50409430832108</v>
+        <v>23.302223345857</v>
       </c>
       <c r="E36">
-        <v>109.342155831463</v>
+        <v>100.321201152758</v>
       </c>
       <c r="F36">
-        <v>21.4836633383728</v>
+        <v>18.2167145583124</v>
       </c>
       <c r="G36">
-        <v>84.48993388198269</v>
+        <v>68.1555754637556</v>
       </c>
       <c r="H36">
-        <v>92.1967627283758</v>
+        <v>96.078729159666</v>
       </c>
       <c r="I36">
-        <v>36.5439176439787</v>
+        <v>41.6974245237768</v>
       </c>
       <c r="J36">
-        <v>214.977675647403</v>
+        <v>214.980625422582</v>
       </c>
       <c r="K36">
-        <v>51.3828210264631</v>
+        <v>136.874090298046</v>
       </c>
       <c r="L36">
-        <v>49.5073173742048</v>
+        <v>79.63877226332861</v>
       </c>
       <c r="M36">
-        <v>141.841740221237</v>
+        <v>199.20493110913</v>
       </c>
       <c r="N36">
-        <v>106.888461748409</v>
+        <v>84.3585188478495</v>
       </c>
       <c r="O36">
-        <v>3795.86171589172</v>
+        <v>3399.93961746134</v>
       </c>
       <c r="P36">
-        <v>67.00211216466281</v>
+        <v>40.6799372718493</v>
       </c>
     </row>
     <row r="37">
@@ -2266,49 +2266,49 @@
         </is>
       </c>
       <c r="B37">
-        <v>1014.3628172765</v>
+        <v>1088.54455477414</v>
       </c>
       <c r="C37">
-        <v>16.2483300121762</v>
+        <v>24.6698462252628</v>
       </c>
       <c r="D37">
-        <v>6.09258601413228</v>
+        <v>8.25304535995118</v>
       </c>
       <c r="E37">
-        <v>22.0109660638898</v>
+        <v>14.9871936947012</v>
       </c>
       <c r="F37">
-        <v>45.0829717157493</v>
+        <v>43.7593889597584</v>
       </c>
       <c r="G37">
-        <v>3.05952020951521</v>
+        <v>7.08053010914616</v>
       </c>
       <c r="H37">
-        <v>15.7710751832278</v>
+        <v>14.4723513902145</v>
       </c>
       <c r="I37">
-        <v>3.57149547896867</v>
+        <v>10.0862854908322</v>
       </c>
       <c r="J37">
-        <v>22.4662663245022</v>
+        <v>32.8037503208135</v>
       </c>
       <c r="K37">
-        <v>7.34335683131991</v>
+        <v>27.8779081356558</v>
       </c>
       <c r="L37">
-        <v>13.9815332519082</v>
+        <v>18.9499493037571</v>
       </c>
       <c r="M37">
-        <v>15.7752809052214</v>
+        <v>26.5461541751293</v>
       </c>
       <c r="N37">
-        <v>23.9180624556761</v>
+        <v>13.8052945087138</v>
       </c>
       <c r="O37">
-        <v>1171.81492645451</v>
+        <v>1084.69876971977</v>
       </c>
       <c r="P37">
-        <v>58.652426636295</v>
+        <v>32.1711394271461</v>
       </c>
     </row>
     <row r="38">
@@ -2318,49 +2318,49 @@
         </is>
       </c>
       <c r="B38">
-        <v>1014.67739315475</v>
+        <v>1089.36946338936</v>
       </c>
       <c r="C38">
-        <v>20.0512702396923</v>
+        <v>19.2603401458428</v>
       </c>
       <c r="D38">
-        <v>3.15958329578028</v>
+        <v>8.89855111005369</v>
       </c>
       <c r="E38">
-        <v>33.6713937947714</v>
+        <v>71.3088263521142</v>
       </c>
       <c r="F38">
-        <v>3.09392088016097</v>
+        <v>2.68417554463012</v>
       </c>
       <c r="G38">
-        <v>7.87397005570053</v>
+        <v>5.63084005130695</v>
       </c>
       <c r="H38">
-        <v>1.54104104296842</v>
+        <v>5.13104843452247</v>
       </c>
       <c r="I38">
-        <v>5.99262563287231</v>
+        <v>5.52311329415062</v>
       </c>
       <c r="J38">
-        <v>41.2363953854272</v>
+        <v>30.6134317295801</v>
       </c>
       <c r="K38">
-        <v>8.46082197914032</v>
+        <v>13.7085948715668</v>
       </c>
       <c r="L38">
-        <v>71.7487718998087</v>
+        <v>65.6910641226374</v>
       </c>
       <c r="M38">
-        <v>20.6060394799464</v>
+        <v>18.1102259192254</v>
       </c>
       <c r="N38">
-        <v>30.7556730533346</v>
+        <v>26.6232639674913</v>
       </c>
       <c r="O38">
-        <v>1293.78284386669</v>
+        <v>1185.90497423106</v>
       </c>
       <c r="P38">
-        <v>57.6074455735395</v>
+        <v>56.4167336874701</v>
       </c>
     </row>
     <row r="39">
@@ -2370,49 +2370,49 @@
         </is>
       </c>
       <c r="B39">
-        <v>3502.98455008746</v>
+        <v>4010.45834564234</v>
       </c>
       <c r="C39">
-        <v>84.51627523984151</v>
+        <v>85.2824785290763</v>
       </c>
       <c r="D39">
-        <v>16.4249768398793</v>
+        <v>46.2304837316667</v>
       </c>
       <c r="E39">
-        <v>108.998442144477</v>
+        <v>123.625403719589</v>
       </c>
       <c r="F39">
-        <v>26.2650846353173</v>
+        <v>33.8712770487553</v>
       </c>
       <c r="G39">
-        <v>71.22240408555059</v>
+        <v>88.0188854729533</v>
       </c>
       <c r="H39">
-        <v>39.8106300788995</v>
+        <v>48.9923071805011</v>
       </c>
       <c r="I39">
-        <v>21.7193425441541</v>
+        <v>45.6739018796368</v>
       </c>
       <c r="J39">
-        <v>154.289271222202</v>
+        <v>203.63873137311</v>
       </c>
       <c r="K39">
-        <v>32.887117569332</v>
+        <v>64.19609447972179</v>
       </c>
       <c r="L39">
-        <v>79.8081049781855</v>
+        <v>82.06613773605839</v>
       </c>
       <c r="M39">
-        <v>48.4029748197039</v>
+        <v>60.2264988050017</v>
       </c>
       <c r="N39">
-        <v>110.056855300741</v>
+        <v>85.3186023067523</v>
       </c>
       <c r="O39">
-        <v>4409.33512085159</v>
+        <v>3776.99235407721</v>
       </c>
       <c r="P39">
-        <v>61.7334877920157</v>
+        <v>54.9819699311773</v>
       </c>
     </row>
     <row r="40">
@@ -2422,49 +2422,49 @@
         </is>
       </c>
       <c r="B40">
-        <v>256.543161794576</v>
+        <v>322.390902633825</v>
       </c>
       <c r="C40">
-        <v>1.39488455922619</v>
+        <v>2.79345872376755</v>
       </c>
       <c r="D40">
-        <v>6.10254330833172</v>
+        <v>5.73262795844727</v>
       </c>
       <c r="E40">
-        <v>4.14316606394624</v>
+        <v>5.20139081397234</v>
       </c>
       <c r="F40">
-        <v>0.959440996736814</v>
+        <v>0.45942338257811</v>
       </c>
       <c r="G40">
-        <v>4.46568454958021</v>
+        <v>3.68085996786563</v>
       </c>
       <c r="H40">
-        <v>2.38720608246824</v>
+        <v>3.55065018069975</v>
       </c>
       <c r="I40">
-        <v>1.46485114900097</v>
+        <v>0.7327401700081651</v>
       </c>
       <c r="J40">
-        <v>7.52842389203195</v>
+        <v>9.048601305303009</v>
       </c>
       <c r="K40">
-        <v>2.02087234617029</v>
+        <v>3.47883448704542</v>
       </c>
       <c r="L40">
-        <v>9.8335746060768</v>
+        <v>7.26340745671141</v>
       </c>
       <c r="M40">
-        <v>3.30720105540236</v>
+        <v>4.43636369201476</v>
       </c>
       <c r="N40">
-        <v>18.2815210353375</v>
+        <v>16.649092371889</v>
       </c>
       <c r="O40">
-        <v>402.178808107291</v>
+        <v>332.453131930393</v>
       </c>
       <c r="P40">
-        <v>3.49022219931998</v>
+        <v>1.96652740987475</v>
       </c>
     </row>
     <row r="41">
@@ -2474,49 +2474,49 @@
         </is>
       </c>
       <c r="B41">
-        <v>1276.33779803263</v>
+        <v>1345.35269050817</v>
       </c>
       <c r="C41">
-        <v>13.7696509261335</v>
+        <v>19.9642870616338</v>
       </c>
       <c r="D41">
-        <v>36.2639128005082</v>
+        <v>68.879390153152</v>
       </c>
       <c r="E41">
-        <v>16.2315665087543</v>
+        <v>39.7429851579472</v>
       </c>
       <c r="F41">
-        <v>3.39071204637045</v>
+        <v>3.27234483048891</v>
       </c>
       <c r="G41">
-        <v>26.9386873935026</v>
+        <v>22.5513053401221</v>
       </c>
       <c r="H41">
-        <v>33.112299026729</v>
+        <v>27.2780124740811</v>
       </c>
       <c r="I41">
-        <v>12.2112062156336</v>
+        <v>11.8926284305886</v>
       </c>
       <c r="J41">
-        <v>34.7970892934016</v>
+        <v>34.7681674911054</v>
       </c>
       <c r="K41">
-        <v>15.6632119058661</v>
+        <v>23.5925784857274</v>
       </c>
       <c r="L41">
-        <v>24.9396223380625</v>
+        <v>25.4219521789414</v>
       </c>
       <c r="M41">
-        <v>26.0851369595951</v>
+        <v>35.7967436082952</v>
       </c>
       <c r="N41">
-        <v>19.7334960440975</v>
+        <v>22.4743285145854</v>
       </c>
       <c r="O41">
-        <v>1394.69344170635</v>
+        <v>1272.74655539874</v>
       </c>
       <c r="P41">
-        <v>21.3681916577698</v>
+        <v>19.0967883479259</v>
       </c>
     </row>
     <row r="42">
@@ -2526,49 +2526,49 @@
         </is>
       </c>
       <c r="B42">
-        <v>143.458778017181</v>
+        <v>198.406994941327</v>
       </c>
       <c r="C42">
-        <v>6.83970425167587</v>
+        <v>6.589448547285</v>
       </c>
       <c r="D42">
-        <v>1.48441327499614</v>
+        <v>0.967983933028659</v>
       </c>
       <c r="E42">
-        <v>3.43261523915869</v>
+        <v>4.65154202681854</v>
       </c>
       <c r="F42">
-        <v>1.63864848939887</v>
+        <v>1.39570169468084</v>
       </c>
       <c r="G42">
-        <v>2.11048087892027</v>
+        <v>0.82823060670308</v>
       </c>
       <c r="H42">
-        <v>1.07626885955626</v>
+        <v>1.39556777418954</v>
       </c>
       <c r="I42">
-        <v>0.778329957430417</v>
+        <v>1.25824389369339</v>
       </c>
       <c r="J42">
-        <v>3.75376976878993</v>
+        <v>2.94957339802299</v>
       </c>
       <c r="K42">
-        <v>2.43879490763495</v>
+        <v>7.24203526338467</v>
       </c>
       <c r="L42">
-        <v>4.13734267285641</v>
+        <v>5.63638266348265</v>
       </c>
       <c r="M42">
-        <v>1.08644001726748</v>
+        <v>2.45513442645272</v>
       </c>
       <c r="N42">
-        <v>7.90858252361773</v>
+        <v>6.98714007774285</v>
       </c>
       <c r="O42">
-        <v>280.857409512635</v>
+        <v>234.58011815465</v>
       </c>
       <c r="P42">
-        <v>40.6143395885936</v>
+        <v>35.3280117152067</v>
       </c>
     </row>
     <row r="43">
@@ -2578,49 +2578,49 @@
         </is>
       </c>
       <c r="B43">
-        <v>1814.11037883223</v>
+        <v>1811.46314547865</v>
       </c>
       <c r="C43">
-        <v>33.6587847392542</v>
+        <v>38.5079291549607</v>
       </c>
       <c r="D43">
-        <v>24.7561984123687</v>
+        <v>39.1379158770853</v>
       </c>
       <c r="E43">
-        <v>52.116905961399</v>
+        <v>62.4376641539953</v>
       </c>
       <c r="F43">
-        <v>8.158187549053229</v>
+        <v>7.16475931394262</v>
       </c>
       <c r="G43">
-        <v>16.6182571759382</v>
+        <v>25.9672031095252</v>
       </c>
       <c r="H43">
-        <v>28.9148856898376</v>
+        <v>35.7036259268206</v>
       </c>
       <c r="I43">
-        <v>8.649340105178091</v>
+        <v>13.9472591860598</v>
       </c>
       <c r="J43">
-        <v>47.5318672364613</v>
+        <v>58.6660887344712</v>
       </c>
       <c r="K43">
-        <v>2.23280462091312</v>
+        <v>47.9853884290991</v>
       </c>
       <c r="L43">
-        <v>29.9263118852777</v>
+        <v>42.0487457260516</v>
       </c>
       <c r="M43">
-        <v>72.542633916725</v>
+        <v>100.096367540563</v>
       </c>
       <c r="N43">
-        <v>56.8917703419571</v>
+        <v>62.671997574898</v>
       </c>
       <c r="O43">
-        <v>2002.59357101136</v>
+        <v>1857.6071426277</v>
       </c>
       <c r="P43">
-        <v>29.551647460936</v>
+        <v>22.9788767072653</v>
       </c>
     </row>
     <row r="44">
@@ -2630,49 +2630,49 @@
         </is>
       </c>
       <c r="B44">
-        <v>5397.93855376328</v>
+        <v>6191.64882591522</v>
       </c>
       <c r="C44">
-        <v>110.632896934866</v>
+        <v>100.952800963374</v>
       </c>
       <c r="D44">
-        <v>15.3070168741397</v>
+        <v>34.3109693081709</v>
       </c>
       <c r="E44">
-        <v>79.7871188400526</v>
+        <v>90.3302519412798</v>
       </c>
       <c r="F44">
-        <v>225.733843881725</v>
+        <v>239.086556385064</v>
       </c>
       <c r="G44">
-        <v>114.458158208267</v>
+        <v>94.2482009397923</v>
       </c>
       <c r="H44">
-        <v>24.9880824150203</v>
+        <v>51.1971828353657</v>
       </c>
       <c r="I44">
-        <v>33.4372233983866</v>
+        <v>38.5745175674222</v>
       </c>
       <c r="J44">
-        <v>101.223191450261</v>
+        <v>151.448865081569</v>
       </c>
       <c r="K44">
-        <v>23.6627784821163</v>
+        <v>111.82222216581</v>
       </c>
       <c r="L44">
-        <v>174.40610833402</v>
+        <v>178.815548931405</v>
       </c>
       <c r="M44">
-        <v>82.2545233292018</v>
+        <v>109.510289985858</v>
       </c>
       <c r="N44">
-        <v>80.72891083714841</v>
+        <v>98.4608266658426</v>
       </c>
       <c r="O44">
-        <v>8008.53426931802</v>
+        <v>7137.78468289611</v>
       </c>
       <c r="P44">
-        <v>166.574136409813</v>
+        <v>99.975846077173</v>
       </c>
     </row>
     <row r="45">
@@ -2682,49 +2682,49 @@
         </is>
       </c>
       <c r="B45">
-        <v>447.981235252785</v>
+        <v>565.706063469353</v>
       </c>
       <c r="C45">
-        <v>12.0585551310551</v>
+        <v>13.2756680703697</v>
       </c>
       <c r="D45">
-        <v>3.63798405894314</v>
+        <v>3.13188918275531</v>
       </c>
       <c r="E45">
-        <v>9.410128232286191</v>
+        <v>13.5171229174214</v>
       </c>
       <c r="F45">
-        <v>20.2852868316948</v>
+        <v>10.8325769688897</v>
       </c>
       <c r="G45">
-        <v>8.89869718344737</v>
+        <v>9.20763351095089</v>
       </c>
       <c r="H45">
-        <v>1.23364077544533</v>
+        <v>2.78801925233129</v>
       </c>
       <c r="I45">
-        <v>2.02320862386592</v>
+        <v>5.03932405045587</v>
       </c>
       <c r="J45">
-        <v>24.5883274303129</v>
+        <v>17.3147152808702</v>
       </c>
       <c r="K45">
-        <v>4.62832650119651</v>
+        <v>6.06151545286957</v>
       </c>
       <c r="L45">
-        <v>11.2708835707058</v>
+        <v>15.3521549495567</v>
       </c>
       <c r="M45">
-        <v>10.4318396552252</v>
+        <v>20.7382421200542</v>
       </c>
       <c r="N45">
-        <v>35.6962446448843</v>
+        <v>30.8272011503915</v>
       </c>
       <c r="O45">
-        <v>891.094774278433</v>
+        <v>802.655698802359</v>
       </c>
       <c r="P45">
-        <v>15.04931397991</v>
+        <v>7.0584369300035</v>
       </c>
     </row>
     <row r="46">
@@ -2734,49 +2734,49 @@
         </is>
       </c>
       <c r="B46">
-        <v>131.064816409571</v>
+        <v>156.294673063082</v>
       </c>
       <c r="C46">
-        <v>3.63863966702658</v>
+        <v>3.8160903677102</v>
       </c>
       <c r="D46">
-        <v>0.922003036345512</v>
+        <v>1.9519589157184</v>
       </c>
       <c r="E46">
-        <v>3.99846532638518</v>
+        <v>7.99823580106039</v>
       </c>
       <c r="F46">
-        <v>0.713472350055426</v>
+        <v>0.853074612654747</v>
       </c>
       <c r="G46">
-        <v>0.861608873306109</v>
+        <v>1.59426954071626</v>
       </c>
       <c r="H46">
-        <v>1.06496376473295</v>
+        <v>2.16032337246673</v>
       </c>
       <c r="I46">
-        <v>1.60749442288728</v>
+        <v>2.28419470997289</v>
       </c>
       <c r="J46">
-        <v>3.81818678583797</v>
+        <v>3.99194251066058</v>
       </c>
       <c r="K46">
-        <v>0.419222530828529</v>
+        <v>2.76323508706124</v>
       </c>
       <c r="L46">
-        <v>11.0506988671479</v>
+        <v>9.82993215955158</v>
       </c>
       <c r="M46">
-        <v>2.85703900757522</v>
+        <v>2.49005586152198</v>
       </c>
       <c r="N46">
-        <v>5.60606381349633</v>
+        <v>5.11187017206724</v>
       </c>
       <c r="O46">
-        <v>243.50120521898</v>
+        <v>211.195000512695</v>
       </c>
       <c r="P46">
-        <v>7.86367092171173</v>
+        <v>8.468190294887179</v>
       </c>
     </row>
     <row r="47">
@@ -2786,49 +2786,49 @@
         </is>
       </c>
       <c r="B47">
-        <v>1829.74428256782</v>
+        <v>1972.76997218414</v>
       </c>
       <c r="C47">
-        <v>44.0212048360261</v>
+        <v>40.3251081350644</v>
       </c>
       <c r="D47">
-        <v>9.205629982772971</v>
+        <v>31.6996503911041</v>
       </c>
       <c r="E47">
-        <v>32.5902131073415</v>
+        <v>60.9814263787564</v>
       </c>
       <c r="F47">
-        <v>11.5508364865642</v>
+        <v>17.6973227360146</v>
       </c>
       <c r="G47">
-        <v>27.521170451772</v>
+        <v>25.0605464026686</v>
       </c>
       <c r="H47">
-        <v>8.876851315805141</v>
+        <v>21.3191832883321</v>
       </c>
       <c r="I47">
-        <v>12.8566594978995</v>
+        <v>13.738579072002</v>
       </c>
       <c r="J47">
-        <v>18.7366574031685</v>
+        <v>31.8957454687258</v>
       </c>
       <c r="K47">
-        <v>5.55696637914375</v>
+        <v>25.1447082544203</v>
       </c>
       <c r="L47">
-        <v>17.9004465283561</v>
+        <v>26.7385762317324</v>
       </c>
       <c r="M47">
-        <v>61.7787157419115</v>
+        <v>65.074401167462</v>
       </c>
       <c r="N47">
-        <v>17.3448984412756</v>
+        <v>42.3016916842312</v>
       </c>
       <c r="O47">
-        <v>2772.60891225798</v>
+        <v>2527.98744284094</v>
       </c>
       <c r="P47">
-        <v>38.4974022409402</v>
+        <v>30.61232341668</v>
       </c>
     </row>
     <row r="48">
@@ -2838,49 +2838,49 @@
         </is>
       </c>
       <c r="B48">
-        <v>1537.55233419741</v>
+        <v>1797.31330617488</v>
       </c>
       <c r="C48">
-        <v>23.3439236090304</v>
+        <v>37.2522082217268</v>
       </c>
       <c r="D48">
-        <v>9.719521812557639</v>
+        <v>8.027423161558421</v>
       </c>
       <c r="E48">
-        <v>55.0696537910688</v>
+        <v>44.8656774846331</v>
       </c>
       <c r="F48">
-        <v>6.80569109891263</v>
+        <v>5.42696842279507</v>
       </c>
       <c r="G48">
-        <v>3.16892999319734</v>
+        <v>9.03261540663482</v>
       </c>
       <c r="H48">
-        <v>17.1746021829737</v>
+        <v>9.114979680859451</v>
       </c>
       <c r="I48">
-        <v>7.02226746252823</v>
+        <v>9.181794525329259</v>
       </c>
       <c r="J48">
-        <v>27.2715717152123</v>
+        <v>25.5993480654602</v>
       </c>
       <c r="K48">
-        <v>20.7800895848009</v>
+        <v>12.8646758870934</v>
       </c>
       <c r="L48">
-        <v>46.1302821090747</v>
+        <v>32.2227727992754</v>
       </c>
       <c r="M48">
-        <v>121.241753263692</v>
+        <v>129.177302540039</v>
       </c>
       <c r="N48">
-        <v>51.3767167772276</v>
+        <v>31.9198284431724</v>
       </c>
       <c r="O48">
-        <v>2256.20316133506</v>
+        <v>2048.2128272681</v>
       </c>
       <c r="P48">
-        <v>82.53279473618851</v>
+        <v>64.9671606033576</v>
       </c>
     </row>
     <row r="49">
@@ -2890,49 +2890,49 @@
         </is>
       </c>
       <c r="B49">
-        <v>709.21961600617</v>
+        <v>715.591884515111</v>
       </c>
       <c r="C49">
-        <v>2.46434067633044</v>
+        <v>4.26978295818141</v>
       </c>
       <c r="D49">
-        <v>1.43455456929532</v>
+        <v>2.36588034091456</v>
       </c>
       <c r="E49">
-        <v>16.7374760411565</v>
+        <v>13.2089572637849</v>
       </c>
       <c r="F49">
-        <v>29.4475403252285</v>
+        <v>22.6515064606868</v>
       </c>
       <c r="G49">
-        <v>11.4578212478357</v>
+        <v>16.9110750608824</v>
       </c>
       <c r="H49">
-        <v>2.60924288593944</v>
+        <v>4.63392324354726</v>
       </c>
       <c r="I49">
-        <v>2.12475514048989</v>
+        <v>3.74435876559333</v>
       </c>
       <c r="J49">
-        <v>14.0307134380249</v>
+        <v>17.2987897810457</v>
       </c>
       <c r="K49">
-        <v>3.31971351004663</v>
+        <v>5.35061317279322</v>
       </c>
       <c r="L49">
-        <v>1.50992634023151</v>
+        <v>3.02856569567673</v>
       </c>
       <c r="M49">
-        <v>2.59647871026082</v>
+        <v>6.46301656992907</v>
       </c>
       <c r="N49">
-        <v>7.69437972889115</v>
+        <v>5.20758400385553</v>
       </c>
       <c r="O49">
-        <v>517.298919418405</v>
+        <v>494.448921451212</v>
       </c>
       <c r="P49">
-        <v>5.18871120934534</v>
+        <v>7.40262274825544</v>
       </c>
     </row>
     <row r="50">
@@ -2942,49 +2942,49 @@
         </is>
       </c>
       <c r="B50">
-        <v>1259.63733001879</v>
+        <v>1468.68129650896</v>
       </c>
       <c r="C50">
-        <v>60.3967637719107</v>
+        <v>73.6222328589719</v>
       </c>
       <c r="D50">
-        <v>5.16424314944697</v>
+        <v>15.071964606378</v>
       </c>
       <c r="E50">
-        <v>109.167858123472</v>
+        <v>129.90068396544</v>
       </c>
       <c r="F50">
-        <v>3.94831567088793</v>
+        <v>3.73589080973727</v>
       </c>
       <c r="G50">
-        <v>21.3716020432662</v>
+        <v>15.1889361134918</v>
       </c>
       <c r="H50">
-        <v>55.3805368111142</v>
+        <v>33.9814799629325</v>
       </c>
       <c r="I50">
-        <v>10.7098495909423</v>
+        <v>10.2241244883745</v>
       </c>
       <c r="J50">
-        <v>62.4500819102313</v>
+        <v>90.6842108136656</v>
       </c>
       <c r="K50">
-        <v>34.736337056559</v>
+        <v>90.6240113565495</v>
       </c>
       <c r="L50">
-        <v>64.3551194278367</v>
+        <v>50.2799332620814</v>
       </c>
       <c r="M50">
-        <v>46.6368548958008</v>
+        <v>49.8507084847359</v>
       </c>
       <c r="N50">
-        <v>45.2697703605713</v>
+        <v>56.7451057806535</v>
       </c>
       <c r="O50">
-        <v>1966.8900689789</v>
+        <v>1634.27296849659</v>
       </c>
       <c r="P50">
-        <v>81.6473018682605</v>
+        <v>96.7807510010505</v>
       </c>
     </row>
     <row r="51">
@@ -2994,49 +2994,49 @@
         </is>
       </c>
       <c r="B51">
-        <v>108.553546768919</v>
+        <v>121.888666443371</v>
       </c>
       <c r="C51">
-        <v>0.0922954605684634</v>
+        <v>1.34071621957479</v>
       </c>
       <c r="D51">
-        <v>0.0793735315737908</v>
+        <v>0.553643447799919</v>
       </c>
       <c r="E51">
-        <v>1.37085839112536</v>
+        <v>1.36599423535818</v>
       </c>
       <c r="F51">
-        <v>28.7085664064234</v>
+        <v>26.4993282959041</v>
       </c>
       <c r="G51">
-        <v>1.25037186134015</v>
+        <v>2.85893717547917</v>
       </c>
       <c r="H51">
-        <v>0.208084964950723</v>
+        <v>0.13540489407708</v>
       </c>
       <c r="I51">
-        <v>1.06519620075268</v>
+        <v>0.719549217416861</v>
       </c>
       <c r="J51">
-        <v>1.33979209298272</v>
+        <v>1.5797388458805</v>
       </c>
       <c r="K51">
-        <v>0.607724172499822</v>
+        <v>0.636572090762435</v>
       </c>
       <c r="L51">
-        <v>0.571744188744629</v>
+        <v>0.387550413459943</v>
       </c>
       <c r="M51">
-        <v>0.810098107689021</v>
+        <v>0.60900779257991</v>
       </c>
       <c r="N51">
-        <v>0.522256438659245</v>
+        <v>0.968876033649859</v>
       </c>
       <c r="O51">
-        <v>181.061760992588</v>
+        <v>173.342192485046</v>
       </c>
       <c r="P51">
-        <v>20.1211134011795</v>
+        <v>10.1771304428415</v>
       </c>
     </row>
     <row r="52">
@@ -3046,49 +3046,49 @@
         </is>
       </c>
       <c r="B52">
-        <v>3046.58591313892</v>
+        <v>4688.11477084767</v>
       </c>
       <c r="C52">
-        <v>162.639051142224</v>
+        <v>167.772059333133</v>
       </c>
       <c r="D52">
-        <v>45.8338192383384</v>
+        <v>47.2803683169193</v>
       </c>
       <c r="E52">
-        <v>151.635484953648</v>
+        <v>156.421212494686</v>
       </c>
       <c r="F52">
-        <v>132.224771764346</v>
+        <v>136.397882906725</v>
       </c>
       <c r="G52">
-        <v>39.8806213168682</v>
+        <v>41.1392830862303</v>
       </c>
       <c r="H52">
-        <v>32.3378311342507</v>
+        <v>33.3584368923549</v>
       </c>
       <c r="I52">
-        <v>34.8221627517691</v>
+        <v>35.9211758447176</v>
       </c>
       <c r="J52">
-        <v>145.1610414544</v>
+        <v>149.742430792037</v>
       </c>
       <c r="K52">
-        <v>53.5768002636497</v>
+        <v>55.2677235238669</v>
       </c>
       <c r="L52">
-        <v>54.2228804979637</v>
+        <v>55.934194526028</v>
       </c>
       <c r="M52">
-        <v>91.1613427899068</v>
+        <v>94.03846188245311</v>
       </c>
       <c r="N52">
-        <v>87.3581647532987</v>
+        <v>90.11525274706349</v>
       </c>
       <c r="O52">
-        <v>7247.26618971667</v>
+        <v>7475.99524619025</v>
       </c>
       <c r="P52">
-        <v>300.737811199662</v>
+        <v>310.229317927982</v>
       </c>
     </row>
     <row r="53">
@@ -3098,49 +3098,49 @@
         </is>
       </c>
       <c r="B53">
-        <v>1500.18205342649</v>
+        <v>2524.61874466387</v>
       </c>
       <c r="C53">
-        <v>75.64813725634591</v>
+        <v>76.7729721449994</v>
       </c>
       <c r="D53">
-        <v>26.1769672437186</v>
+        <v>26.5662004370634</v>
       </c>
       <c r="E53">
-        <v>84.70704608999711</v>
+        <v>85.9665806167224</v>
       </c>
       <c r="F53">
-        <v>7.63537944012553</v>
+        <v>7.74891219180794</v>
       </c>
       <c r="G53">
-        <v>27.5864022868134</v>
+        <v>27.9965927934149</v>
       </c>
       <c r="H53">
-        <v>27.6230475979338</v>
+        <v>28.03378299468</v>
       </c>
       <c r="I53">
-        <v>34.8976116670271</v>
+        <v>35.416514743262</v>
       </c>
       <c r="J53">
-        <v>104.803710557805</v>
+        <v>106.362068428486</v>
       </c>
       <c r="K53">
-        <v>83.0974712707829</v>
+        <v>84.333072545769</v>
       </c>
       <c r="L53">
-        <v>75.75901281306931</v>
+        <v>76.8854963436991</v>
       </c>
       <c r="M53">
-        <v>41.8790132471566</v>
+        <v>42.5017248817228</v>
       </c>
       <c r="N53">
-        <v>45.4552197631692</v>
+        <v>46.1311070872386</v>
       </c>
       <c r="O53">
-        <v>2744.9715276334</v>
+        <v>2785.78733426959</v>
       </c>
       <c r="P53">
-        <v>256.279453132651</v>
+        <v>260.090149345193</v>
       </c>
     </row>
     <row r="54">
@@ -3150,49 +3150,49 @@
         </is>
       </c>
       <c r="B54">
-        <v>1978.12010287337</v>
+        <v>3285.47305207105</v>
       </c>
       <c r="C54">
-        <v>89.8930829481609</v>
+        <v>92.2523439761368</v>
       </c>
       <c r="D54">
-        <v>36.9604563165053</v>
+        <v>37.9304905093922</v>
       </c>
       <c r="E54">
-        <v>56.2337425249212</v>
+        <v>57.7096077733384</v>
       </c>
       <c r="F54">
-        <v>8.21845210702989</v>
+        <v>8.434146942833699</v>
       </c>
       <c r="G54">
-        <v>65.3901292416934</v>
+        <v>67.1063055978119</v>
       </c>
       <c r="H54">
-        <v>23.9187436837494</v>
+        <v>24.5464956526496</v>
       </c>
       <c r="I54">
-        <v>28.6855587966524</v>
+        <v>29.4384167331599</v>
       </c>
       <c r="J54">
-        <v>97.9036277846261</v>
+        <v>100.473127082619</v>
       </c>
       <c r="K54">
-        <v>39.6115092054259</v>
+        <v>40.651120784679</v>
       </c>
       <c r="L54">
-        <v>41.2145589295993</v>
+        <v>42.2962428531988</v>
       </c>
       <c r="M54">
-        <v>47.8017386060442</v>
+        <v>49.0563043108134</v>
       </c>
       <c r="N54">
-        <v>24.7334391421615</v>
+        <v>25.3825729480358</v>
       </c>
       <c r="O54">
-        <v>3056.77310872356</v>
+        <v>3136.99869928357</v>
       </c>
       <c r="P54">
-        <v>76.4308519898736</v>
+        <v>78.4367942105748</v>
       </c>
     </row>
     <row r="55">
@@ -3202,49 +3202,49 @@
         </is>
       </c>
       <c r="B55">
-        <v>1893.52214829409</v>
+        <v>2715.06899355718</v>
       </c>
       <c r="C55">
-        <v>113.451988286969</v>
+        <v>122.34527713357</v>
       </c>
       <c r="D55">
-        <v>184.509663250366</v>
+        <v>198.97303013402</v>
       </c>
       <c r="E55">
-        <v>47.3717833089312</v>
+        <v>51.0851686669671</v>
       </c>
       <c r="F55">
-        <v>33.2117393850659</v>
+        <v>35.8151454241237</v>
       </c>
       <c r="G55">
-        <v>21.9695226939971</v>
+        <v>23.6916724252601</v>
       </c>
       <c r="H55">
-        <v>23.0851625183016</v>
+        <v>24.8947651656053</v>
       </c>
       <c r="I55">
-        <v>27.8909956076135</v>
+        <v>30.077318508631</v>
       </c>
       <c r="J55">
-        <v>62.046737920937</v>
+        <v>66.9104654822775</v>
       </c>
       <c r="K55">
-        <v>63.9347437774524</v>
+        <v>68.9464685813233</v>
       </c>
       <c r="L55">
-        <v>30.9804597364568</v>
+        <v>33.4089599434332</v>
       </c>
       <c r="M55">
-        <v>12.6153118594436</v>
+        <v>13.6042025254423</v>
       </c>
       <c r="N55">
-        <v>36.4728404099561</v>
+        <v>39.3318780497482</v>
       </c>
       <c r="O55">
-        <v>1647.19929136164</v>
+        <v>1776.32015832204</v>
       </c>
       <c r="P55">
-        <v>625.95975988287</v>
+        <v>675.02757292909</v>
       </c>
     </row>
     <row r="56">
@@ -3254,49 +3254,49 @@
         </is>
       </c>
       <c r="B56">
-        <v>30382.2437062893</v>
+        <v>40050.8848647145</v>
       </c>
       <c r="C56">
-        <v>1917.01802734101</v>
+        <v>1963.37347007701</v>
       </c>
       <c r="D56">
-        <v>2955.72012519571</v>
+        <v>3027.19243951568</v>
       </c>
       <c r="E56">
-        <v>898.91987339815</v>
+        <v>920.656668838388</v>
       </c>
       <c r="F56">
-        <v>355.081552732371</v>
+        <v>363.66778528185</v>
       </c>
       <c r="G56">
-        <v>424.280035630658</v>
+        <v>434.539557771399</v>
       </c>
       <c r="H56">
-        <v>341.456634021082</v>
+        <v>349.713402199286</v>
       </c>
       <c r="I56">
-        <v>488.261408421595</v>
+        <v>500.068065132946</v>
       </c>
       <c r="J56">
-        <v>855.2536745869201</v>
+        <v>875.934576994529</v>
       </c>
       <c r="K56">
-        <v>478.987290021234</v>
+        <v>490.569689131298</v>
       </c>
       <c r="L56">
-        <v>405.430473683355</v>
+        <v>415.234194273466</v>
       </c>
       <c r="M56">
-        <v>485.819837719984</v>
+        <v>497.567454772223</v>
       </c>
       <c r="N56">
-        <v>763.886868057445</v>
+        <v>782.358428295266</v>
       </c>
       <c r="O56">
-        <v>49629.7716600369</v>
+        <v>50829.8699404785</v>
       </c>
       <c r="P56">
-        <v>14738.4465391536</v>
+        <v>15094.8371441554</v>
       </c>
     </row>
     <row r="57">
@@ -3306,49 +3306,49 @@
         </is>
       </c>
       <c r="B57">
-        <v>4164.9111467659</v>
+        <v>6711.49177633163</v>
       </c>
       <c r="C57">
-        <v>223.577566237412</v>
+        <v>229.709082552078</v>
       </c>
       <c r="D57">
-        <v>80.9398575402308</v>
+        <v>83.1595974961065</v>
       </c>
       <c r="E57">
-        <v>315.405798673174</v>
+        <v>324.055663831161</v>
       </c>
       <c r="F57">
-        <v>214.051340524423</v>
+        <v>219.92160429323</v>
       </c>
       <c r="G57">
-        <v>89.928276961007</v>
+        <v>92.3945203619691</v>
       </c>
       <c r="H57">
-        <v>103.893609458594</v>
+        <v>106.742845954479</v>
       </c>
       <c r="I57">
-        <v>54.2082363801099</v>
+        <v>55.694873395386</v>
       </c>
       <c r="J57">
-        <v>239.861637749026</v>
+        <v>246.439737555152</v>
       </c>
       <c r="K57">
-        <v>129.712723110415</v>
+        <v>133.270037430254</v>
       </c>
       <c r="L57">
-        <v>103.280862847959</v>
+        <v>106.113295037835</v>
       </c>
       <c r="M57">
-        <v>184.392642076063</v>
+        <v>189.449529098409</v>
       </c>
       <c r="N57">
-        <v>140.667221564689</v>
+        <v>144.52495818146</v>
       </c>
       <c r="O57">
-        <v>11074.010488917</v>
+        <v>11377.7103507782</v>
       </c>
       <c r="P57">
-        <v>344.764736191169</v>
+        <v>354.219757284085</v>
       </c>
     </row>
     <row r="58">
@@ -3358,49 +3358,49 @@
         </is>
       </c>
       <c r="B58">
-        <v>151187.289604056</v>
+        <v>250380.633214856</v>
       </c>
       <c r="C58">
-        <v>13737.6207866895</v>
+        <v>12878.2419992701</v>
       </c>
       <c r="D58">
-        <v>26658.0859701147</v>
+        <v>24990.4468678535</v>
       </c>
       <c r="E58">
-        <v>19479.9614119689</v>
+        <v>18261.3613445238</v>
       </c>
       <c r="F58">
-        <v>10018.3464201779</v>
+        <v>9391.63277505658</v>
       </c>
       <c r="G58">
-        <v>7305.69670170167</v>
+        <v>6848.67718789725</v>
       </c>
       <c r="H58">
-        <v>11000.6460599692</v>
+        <v>10312.4830935692</v>
       </c>
       <c r="I58">
-        <v>8430.80273670606</v>
+        <v>7903.40041971514</v>
       </c>
       <c r="J58">
-        <v>8876.001372002311</v>
+        <v>8320.74894404222</v>
       </c>
       <c r="K58">
-        <v>10412.4532471682</v>
+        <v>9761.085620666039</v>
       </c>
       <c r="L58">
-        <v>13408.0305267175</v>
+        <v>12569.2697838895</v>
       </c>
       <c r="M58">
-        <v>5352.35301066712</v>
+        <v>5017.5280281196</v>
       </c>
       <c r="N58">
-        <v>7485.49841605116</v>
+        <v>7017.23111912236</v>
       </c>
       <c r="O58">
-        <v>268033.044756603</v>
+        <v>251265.809980808</v>
       </c>
       <c r="P58">
-        <v>295005.296225673</v>
+        <v>276550.769223562</v>
       </c>
     </row>
     <row r="59">
@@ -3410,49 +3410,49 @@
         </is>
       </c>
       <c r="B59">
-        <v>127.415670372384</v>
+        <v>168.852633011071</v>
       </c>
       <c r="C59">
-        <v>9.40477423065861</v>
+        <v>9.830014764465521</v>
       </c>
       <c r="D59">
-        <v>2.10796663790624</v>
+        <v>2.20327917134572</v>
       </c>
       <c r="E59">
-        <v>5.35099223468507</v>
+        <v>5.59293943495452</v>
       </c>
       <c r="F59">
-        <v>0.567529479436296</v>
+        <v>0.59319054613154</v>
       </c>
       <c r="G59">
-        <v>1.62151279838942</v>
+        <v>1.6948301318044</v>
       </c>
       <c r="H59">
-        <v>1.13505895887259</v>
+        <v>1.18638109226308</v>
       </c>
       <c r="I59">
-        <v>2.83764739718148</v>
+        <v>2.9659527306577</v>
       </c>
       <c r="J59">
-        <v>3.81055507621513</v>
+        <v>3.98285080974034</v>
       </c>
       <c r="K59">
-        <v>0.891832039114179</v>
+        <v>0.93215657249242</v>
       </c>
       <c r="L59">
-        <v>0.567529479436296</v>
+        <v>0.59319054613154</v>
       </c>
       <c r="M59">
-        <v>0.324302559677883</v>
+        <v>0.33896602636088</v>
       </c>
       <c r="N59">
-        <v>2.35119355766465</v>
+        <v>2.45750369111638</v>
       </c>
       <c r="O59">
-        <v>236.821944204774</v>
+        <v>247.529940750033</v>
       </c>
       <c r="P59">
-        <v>14.1071613459879</v>
+        <v>14.7450221466983</v>
       </c>
     </row>
     <row r="60">
@@ -3462,49 +3462,49 @@
         </is>
       </c>
       <c r="B60">
-        <v>1821.13520242502</v>
+        <v>3134.46012392364</v>
       </c>
       <c r="C60">
-        <v>133.593916650936</v>
+        <v>130.772291296192</v>
       </c>
       <c r="D60">
-        <v>80.54258209454861</v>
+        <v>78.8414493074298</v>
       </c>
       <c r="E60">
-        <v>139.470296808667</v>
+        <v>136.524556945846</v>
       </c>
       <c r="F60">
-        <v>47.2814037346342</v>
+        <v>46.2827773680302</v>
       </c>
       <c r="G60">
-        <v>38.5949495130195</v>
+        <v>37.7797889814548</v>
       </c>
       <c r="H60">
-        <v>84.0874391855296</v>
+        <v>82.31143578380799</v>
       </c>
       <c r="I60">
-        <v>71.7440263598256</v>
+        <v>70.2287270939373</v>
       </c>
       <c r="J60">
-        <v>229.46520312615</v>
+        <v>224.618688768285</v>
       </c>
       <c r="K60">
-        <v>164.110963013501</v>
+        <v>160.644789808622</v>
       </c>
       <c r="L60">
-        <v>191.909312175807</v>
+        <v>187.856012485062</v>
       </c>
       <c r="M60">
-        <v>134.378627242695</v>
+        <v>131.540428084612</v>
       </c>
       <c r="N60">
-        <v>73.7439550348595</v>
+        <v>72.1864154514582</v>
       </c>
       <c r="O60">
-        <v>3015.64092006883</v>
+        <v>2951.9478336306</v>
       </c>
       <c r="P60">
-        <v>176.746404991</v>
+        <v>173.013359728276</v>
       </c>
     </row>
     <row r="61">
@@ -3514,49 +3514,49 @@
         </is>
       </c>
       <c r="B61">
-        <v>14603.4787971994</v>
+        <v>25297.1394186913</v>
       </c>
       <c r="C61">
-        <v>906.940955798402</v>
+        <v>924.592364183719</v>
       </c>
       <c r="D61">
-        <v>181.97520795955</v>
+        <v>185.51691449641</v>
       </c>
       <c r="E61">
-        <v>745.511335834285</v>
+        <v>760.020907775614</v>
       </c>
       <c r="F61">
-        <v>99.7928559778177</v>
+        <v>101.735082143192</v>
       </c>
       <c r="G61">
-        <v>447.111129233948</v>
+        <v>455.813064112146</v>
       </c>
       <c r="H61">
-        <v>391.344533246344</v>
+        <v>398.961106443892</v>
       </c>
       <c r="I61">
-        <v>243.611971945849</v>
+        <v>248.353288761323</v>
       </c>
       <c r="J61">
-        <v>1103.59158375469</v>
+        <v>1125.07032017177</v>
       </c>
       <c r="K61">
-        <v>1085.00271842549</v>
+        <v>1106.11966761569</v>
       </c>
       <c r="L61">
-        <v>1003.79872777687</v>
+        <v>1023.33523802858</v>
       </c>
       <c r="M61">
-        <v>963.685913119121</v>
+        <v>982.441724618083</v>
       </c>
       <c r="N61">
-        <v>287.638231936063</v>
+        <v>293.23641323626</v>
       </c>
       <c r="O61">
-        <v>27698.3877018431</v>
+        <v>28237.4697113325</v>
       </c>
       <c r="P61">
-        <v>831.60713314848</v>
+        <v>847.79235119327</v>
       </c>
     </row>
     <row r="62">
@@ -3566,49 +3566,49 @@
         </is>
       </c>
       <c r="B62">
-        <v>634.863630347425</v>
+        <v>1315.35614863145</v>
       </c>
       <c r="C62">
-        <v>61.6273889212811</v>
+        <v>61.7023517332576</v>
       </c>
       <c r="D62">
-        <v>7.88982243876576</v>
+        <v>7.89941952354184</v>
       </c>
       <c r="E62">
-        <v>49.9515835453718</v>
+        <v>50.0123440486283</v>
       </c>
       <c r="F62">
-        <v>3.65959486699476</v>
+        <v>3.66404635401582</v>
       </c>
       <c r="G62">
-        <v>27.6214524948303</v>
+        <v>27.6550508962251</v>
       </c>
       <c r="H62">
-        <v>19.2204186081493</v>
+        <v>19.2437980933336</v>
       </c>
       <c r="I62">
-        <v>15.3448321884376</v>
+        <v>15.3634974570833</v>
       </c>
       <c r="J62">
-        <v>49.3790644514888</v>
+        <v>49.4391285494305</v>
       </c>
       <c r="K62">
-        <v>57.8338604277107</v>
+        <v>57.9042088374196</v>
       </c>
       <c r="L62">
-        <v>44.7621271128447</v>
+        <v>44.8165752239389</v>
       </c>
       <c r="M62">
-        <v>12.4765775517027</v>
+        <v>12.4917539100313</v>
       </c>
       <c r="N62">
-        <v>22.7592845723153</v>
+        <v>22.7869686913407</v>
       </c>
       <c r="O62">
-        <v>2085.64744484432</v>
+        <v>2088.18440122028</v>
       </c>
       <c r="P62">
-        <v>75.090547975787</v>
+        <v>75.1818872119231</v>
       </c>
     </row>
     <row r="63">
@@ -3618,49 +3618,49 @@
         </is>
       </c>
       <c r="B63">
-        <v>7530.15116433989</v>
+        <v>11955.4565292868</v>
       </c>
       <c r="C63">
-        <v>359.84146382197</v>
+        <v>395.730272953036</v>
       </c>
       <c r="D63">
-        <v>194.874773495887</v>
+        <v>214.310620260656</v>
       </c>
       <c r="E63">
-        <v>285.543488789612</v>
+        <v>314.022185099216</v>
       </c>
       <c r="F63">
-        <v>42.264843847856</v>
+        <v>46.4801304846414</v>
       </c>
       <c r="G63">
-        <v>135.76695649451</v>
+        <v>149.307681724407</v>
       </c>
       <c r="H63">
-        <v>102.081010187466</v>
+        <v>112.262065621192</v>
       </c>
       <c r="I63">
-        <v>182.281896371759</v>
+        <v>200.461791810856</v>
       </c>
       <c r="J63">
-        <v>395.258930733581</v>
+        <v>434.680102968099</v>
       </c>
       <c r="K63">
-        <v>180.078142875037</v>
+        <v>198.038246832141</v>
       </c>
       <c r="L63">
-        <v>145.290319819632</v>
+        <v>159.780858239568</v>
       </c>
       <c r="M63">
-        <v>239.579487286543</v>
+        <v>263.473961257446</v>
       </c>
       <c r="N63">
-        <v>191.726554214855</v>
+        <v>210.848413148206</v>
       </c>
       <c r="O63">
-        <v>11897.7503068765</v>
+        <v>13084.3731193711</v>
       </c>
       <c r="P63">
-        <v>728.261825184752</v>
+        <v>800.895060287498</v>
       </c>
     </row>
     <row r="64">
@@ -3670,49 +3670,49 @@
         </is>
       </c>
       <c r="B64">
-        <v>212.527333279725</v>
+        <v>349.103762006288</v>
       </c>
       <c r="C64">
-        <v>13.3751029802884</v>
+        <v>13.7536859887738</v>
       </c>
       <c r="D64">
-        <v>20.623545885735</v>
+        <v>21.2072964601093</v>
       </c>
       <c r="E64">
-        <v>23.2985664817926</v>
+        <v>23.9580336578641</v>
       </c>
       <c r="F64">
-        <v>5.163652660261</v>
+        <v>5.30981012624662</v>
       </c>
       <c r="G64">
-        <v>2.17108123215519</v>
+        <v>2.23253380308097</v>
       </c>
       <c r="H64">
-        <v>4.74600428332813</v>
+        <v>4.88034018956491</v>
       </c>
       <c r="I64">
-        <v>5.35004119211534</v>
+        <v>5.50147439550954</v>
       </c>
       <c r="J64">
-        <v>15.4460866675588</v>
+        <v>15.883288980584</v>
       </c>
       <c r="K64">
-        <v>3.7105124396929</v>
+        <v>3.81553869365984</v>
       </c>
       <c r="L64">
-        <v>10.0097544884739</v>
+        <v>10.2930811270824</v>
       </c>
       <c r="M64">
-        <v>6.04036908787216</v>
+        <v>6.21134205944625</v>
       </c>
       <c r="N64">
-        <v>11.2178283060483</v>
+        <v>11.5353495389716</v>
       </c>
       <c r="O64">
-        <v>375.883539321071</v>
+        <v>386.522943097331</v>
       </c>
       <c r="P64">
-        <v>26.6639149736071</v>
+        <v>27.4186385195556</v>
       </c>
     </row>
     <row r="65">
@@ -3722,49 +3722,49 @@
         </is>
       </c>
       <c r="B65">
-        <v>708.7869691964989</v>
+        <v>1338.20612388462</v>
       </c>
       <c r="C65">
-        <v>35.4634139972145</v>
+        <v>35.6261183715871</v>
       </c>
       <c r="D65">
-        <v>12.8623781337047</v>
+        <v>12.9213900829591</v>
       </c>
       <c r="E65">
-        <v>83.2379613509749</v>
+        <v>83.6198529654351</v>
       </c>
       <c r="F65">
-        <v>8.17679752785515</v>
+        <v>8.214312267023971</v>
       </c>
       <c r="G65">
-        <v>16.9967139623955</v>
+        <v>17.0746940381959</v>
       </c>
       <c r="H65">
-        <v>14.8836089832869</v>
+        <v>14.9518942388526</v>
       </c>
       <c r="I65">
-        <v>15.9860985376045</v>
+        <v>16.0594419602491</v>
       </c>
       <c r="J65">
-        <v>62.6581563370474</v>
+        <v>62.9456288327006</v>
       </c>
       <c r="K65">
-        <v>62.5662822075209</v>
+        <v>62.8533331892508</v>
       </c>
       <c r="L65">
-        <v>60.0856807103064</v>
+        <v>60.3613508161087</v>
       </c>
       <c r="M65">
-        <v>20.7635532729805</v>
+        <v>20.8588154196339</v>
       </c>
       <c r="N65">
-        <v>16.5373433147632</v>
+        <v>16.6132158209474</v>
       </c>
       <c r="O65">
-        <v>1587.6768323468</v>
+        <v>1594.9610144544</v>
       </c>
       <c r="P65">
-        <v>113.005179317549</v>
+        <v>113.52364144314</v>
       </c>
     </row>
     <row r="66">
@@ -3774,49 +3774,49 @@
         </is>
       </c>
       <c r="B66">
-        <v>10276.9178731681</v>
+        <v>17359.0767977154</v>
       </c>
       <c r="C66">
-        <v>527.509419665921</v>
+        <v>532.652145339604</v>
       </c>
       <c r="D66">
-        <v>145.309307732048</v>
+        <v>146.725938183826</v>
       </c>
       <c r="E66">
-        <v>323.024375753401</v>
+        <v>326.173562646527</v>
       </c>
       <c r="F66">
-        <v>51.8492164628896</v>
+        <v>52.3546980462004</v>
       </c>
       <c r="G66">
-        <v>128.683743757534</v>
+        <v>129.938290440751</v>
       </c>
       <c r="H66">
-        <v>188.798777337696</v>
+        <v>190.639389624751</v>
       </c>
       <c r="I66">
-        <v>121.826872739797</v>
+        <v>123.014571315076</v>
       </c>
       <c r="J66">
-        <v>506.375228172895</v>
+        <v>511.311915157729</v>
       </c>
       <c r="K66">
-        <v>286.861425865335</v>
+        <v>289.658057668652</v>
       </c>
       <c r="L66">
-        <v>330.256965731014</v>
+        <v>333.476663642102</v>
       </c>
       <c r="M66">
-        <v>301.984114000344</v>
+        <v>304.928177932127</v>
       </c>
       <c r="N66">
-        <v>156.862665748235</v>
+        <v>158.391930683251</v>
       </c>
       <c r="O66">
-        <v>17946.1221887377</v>
+        <v>18121.0801703062</v>
       </c>
       <c r="P66">
-        <v>802.535698295161</v>
+        <v>810.359674106406</v>
       </c>
     </row>
     <row r="67">
@@ -3826,49 +3826,49 @@
         </is>
       </c>
       <c r="B67">
-        <v>8445.97005953695</v>
+        <v>16972.6476009021</v>
       </c>
       <c r="C67">
-        <v>407.117968967995</v>
+        <v>410.431103554958</v>
       </c>
       <c r="D67">
-        <v>91.7642983600478</v>
+        <v>92.5110781485099</v>
       </c>
       <c r="E67">
-        <v>433.509997080379</v>
+        <v>437.037910546743</v>
       </c>
       <c r="F67">
-        <v>132.644074860369</v>
+        <v>133.723535129071</v>
       </c>
       <c r="G67">
-        <v>288.826575821499</v>
+        <v>291.177052565166</v>
       </c>
       <c r="H67">
-        <v>168.752302577338</v>
+        <v>170.125612362008</v>
       </c>
       <c r="I67">
-        <v>110.322459376637</v>
+        <v>111.220265869448</v>
       </c>
       <c r="J67">
-        <v>350.57905920421</v>
+        <v>353.432078955361</v>
       </c>
       <c r="K67">
-        <v>256.410574045797</v>
+        <v>258.497248685798</v>
       </c>
       <c r="L67">
-        <v>317.082524035985</v>
+        <v>319.662948280015</v>
       </c>
       <c r="M67">
-        <v>373.70247380421</v>
+        <v>376.74367238931</v>
       </c>
       <c r="N67">
-        <v>120.07427324416</v>
+        <v>121.051440203158</v>
       </c>
       <c r="O67">
-        <v>23890.1501376115</v>
+        <v>24084.568681478</v>
       </c>
       <c r="P67">
-        <v>457.891652278938</v>
+        <v>461.617984167684</v>
       </c>
     </row>
     <row r="68">
@@ -3878,49 +3878,49 @@
         </is>
       </c>
       <c r="B68">
-        <v>2185.40217312109</v>
+        <v>3365.60158752984</v>
       </c>
       <c r="C68">
-        <v>107.050502565394</v>
+        <v>107.190909221093</v>
       </c>
       <c r="D68">
-        <v>68.281387089817</v>
+        <v>68.37094445739611</v>
       </c>
       <c r="E68">
-        <v>59.5209078911195</v>
+        <v>59.5989750782966</v>
       </c>
       <c r="F68">
-        <v>15.6667328500909</v>
+        <v>15.6872812222376</v>
       </c>
       <c r="G68">
-        <v>29.0891118119186</v>
+        <v>29.127264878078</v>
       </c>
       <c r="H68">
-        <v>13.0858151528082</v>
+        <v>13.1029784121921</v>
       </c>
       <c r="I68">
-        <v>27.683935590707</v>
+        <v>27.7202456380186</v>
       </c>
       <c r="J68">
-        <v>50.1694333566902</v>
+        <v>50.235235218308</v>
       </c>
       <c r="K68">
-        <v>24.4709564165389</v>
+        <v>24.5030523438803</v>
       </c>
       <c r="L68">
-        <v>23.0363197027605</v>
+        <v>23.0665339710878</v>
       </c>
       <c r="M68">
-        <v>18.5020820740859</v>
+        <v>18.5263492695239</v>
       </c>
       <c r="N68">
-        <v>36.4095978436438</v>
+        <v>36.4573524057063</v>
       </c>
       <c r="O68">
-        <v>2901.25145312452</v>
+        <v>2905.05671329718</v>
       </c>
       <c r="P68">
-        <v>483.645764529903</v>
+        <v>484.280110775024</v>
       </c>
     </row>
     <row r="69">
@@ -3930,49 +3930,49 @@
         </is>
       </c>
       <c r="B69">
-        <v>2589.28750905016</v>
+        <v>3913.43644804019</v>
       </c>
       <c r="C69">
-        <v>137.292104628632</v>
+        <v>141.13146021117</v>
       </c>
       <c r="D69">
-        <v>87.8113788557839</v>
+        <v>90.2670124738444</v>
       </c>
       <c r="E69">
-        <v>90.50574349688949</v>
+        <v>93.0367246664658</v>
       </c>
       <c r="F69">
-        <v>21.1580020821279</v>
+        <v>21.7496828173683</v>
       </c>
       <c r="G69">
-        <v>46.5595525336183</v>
+        <v>47.8615842740739</v>
       </c>
       <c r="H69">
-        <v>45.9803805776948</v>
+        <v>47.2662158508573</v>
       </c>
       <c r="I69">
-        <v>28.7996292698107</v>
+        <v>29.6050071006129</v>
       </c>
       <c r="J69">
-        <v>113.083324394061</v>
+        <v>116.245684633047</v>
       </c>
       <c r="K69">
-        <v>70.93033890970641</v>
+        <v>72.9138964740758</v>
       </c>
       <c r="L69">
-        <v>192.817684556835</v>
+        <v>198.209805652348</v>
       </c>
       <c r="M69">
-        <v>84.1591529029587</v>
+        <v>86.5126525043647</v>
       </c>
       <c r="N69">
-        <v>42.4861106128487</v>
+        <v>43.6742290877094</v>
       </c>
       <c r="O69">
-        <v>2580.87427628097</v>
+        <v>2653.0480847259</v>
       </c>
       <c r="P69">
-        <v>319.735320898068</v>
+        <v>328.676676939955</v>
       </c>
     </row>
     <row r="70">
@@ -3982,49 +3982,49 @@
         </is>
       </c>
       <c r="B70">
-        <v>37353.5818570992</v>
+        <v>42468.8680142787</v>
       </c>
       <c r="C70">
-        <v>1695.00794926769</v>
+        <v>1670.80797717254</v>
       </c>
       <c r="D70">
-        <v>2595.87597475282</v>
+        <v>2558.8141272384</v>
       </c>
       <c r="E70">
-        <v>2723.59799432513</v>
+        <v>2684.71263364612</v>
       </c>
       <c r="F70">
-        <v>933.609612012881</v>
+        <v>920.280278325548</v>
       </c>
       <c r="G70">
-        <v>280.855051432893</v>
+        <v>276.845226930068</v>
       </c>
       <c r="H70">
-        <v>1009.46934523953</v>
+        <v>995.056946763018</v>
       </c>
       <c r="I70">
-        <v>852.886817025738</v>
+        <v>840.709979046153</v>
       </c>
       <c r="J70">
-        <v>444.810195880299</v>
+        <v>438.459550544039</v>
       </c>
       <c r="K70">
-        <v>79.5165077689162</v>
+        <v>78.3812344683145</v>
       </c>
       <c r="L70">
-        <v>274.045305361546</v>
+        <v>270.132704983819</v>
       </c>
       <c r="M70">
-        <v>455.60733222644</v>
+        <v>449.102533985826</v>
       </c>
       <c r="N70">
-        <v>554.977618430623</v>
+        <v>547.054090470029</v>
       </c>
       <c r="O70">
-        <v>35392.5448348696</v>
+        <v>34887.2382976642</v>
       </c>
       <c r="P70">
-        <v>37393.034461406</v>
+        <v>36859.1665282734</v>
       </c>
     </row>
     <row r="71">
@@ -4034,49 +4034,49 @@
         </is>
       </c>
       <c r="B71">
-        <v>251786.763574201</v>
+        <v>296384.864039321</v>
       </c>
       <c r="C71">
-        <v>8272.056499154191</v>
+        <v>8125.41935456995</v>
       </c>
       <c r="D71">
-        <v>16265.7617280888</v>
+        <v>15977.4217180153</v>
       </c>
       <c r="E71">
-        <v>6340.93992750227</v>
+        <v>6228.53531263483</v>
       </c>
       <c r="F71">
-        <v>2203.22468476162</v>
+        <v>2164.16854718761</v>
       </c>
       <c r="G71">
-        <v>1866.92894203359</v>
+        <v>1833.83425400415</v>
       </c>
       <c r="H71">
-        <v>613.663639234721</v>
+        <v>602.78534267065</v>
       </c>
       <c r="I71">
-        <v>4302.45702794421</v>
+        <v>4226.18820490865</v>
       </c>
       <c r="J71">
-        <v>3493.786357093</v>
+        <v>3431.85268252926</v>
       </c>
       <c r="K71">
-        <v>1319.02667192541</v>
+        <v>1295.644541397</v>
       </c>
       <c r="L71">
-        <v>1011.28450767059</v>
+        <v>993.357662927418</v>
       </c>
       <c r="M71">
-        <v>1265.72941668334</v>
+        <v>1243.29207628344</v>
       </c>
       <c r="N71">
-        <v>4813.24914425063</v>
+        <v>4727.92560822817</v>
       </c>
       <c r="O71">
-        <v>109932.193415743</v>
+        <v>107983.446699372</v>
       </c>
       <c r="P71">
-        <v>230525.676186962</v>
+        <v>226439.192141203</v>
       </c>
     </row>
     <row r="72">
@@ -4086,49 +4086,49 @@
         </is>
       </c>
       <c r="B72">
-        <v>639.229943901315</v>
+        <v>861.2752206415061</v>
       </c>
       <c r="C72">
-        <v>41.1666845771461</v>
+        <v>43.7474191262565</v>
       </c>
       <c r="D72">
-        <v>5.67934563039669</v>
+        <v>6.03538313099349</v>
       </c>
       <c r="E72">
-        <v>26.865864244871</v>
+        <v>28.5500820719958</v>
       </c>
       <c r="F72">
-        <v>15.3145214715421</v>
+        <v>16.2745869971162</v>
       </c>
       <c r="G72">
-        <v>23.1941828426561</v>
+        <v>24.648223400337</v>
       </c>
       <c r="H72">
-        <v>9.185980767626029</v>
+        <v>9.76184880698807</v>
       </c>
       <c r="I72">
-        <v>11.1075339010327</v>
+        <v>11.8038638772807</v>
       </c>
       <c r="J72">
-        <v>18.0602074791682</v>
+        <v>19.1923997332772</v>
       </c>
       <c r="K72">
-        <v>11.2359032182437</v>
+        <v>11.9402806516861</v>
       </c>
       <c r="L72">
-        <v>51.7966208321578</v>
+        <v>55.0437448180163</v>
       </c>
       <c r="M72">
-        <v>8.24433999976158</v>
+        <v>8.76117669162891</v>
       </c>
       <c r="N72">
-        <v>4.02060860526818</v>
+        <v>4.27266007947961</v>
       </c>
       <c r="O72">
-        <v>1286.08674161465</v>
+        <v>1366.71136614611</v>
       </c>
       <c r="P72">
-        <v>93.2734648154844</v>
+        <v>99.1207672066561</v>
       </c>
     </row>
     <row r="73">
@@ -4138,49 +4138,49 @@
         </is>
       </c>
       <c r="B73">
-        <v>14045.5930401205</v>
+        <v>22963.3169525876</v>
       </c>
       <c r="C73">
-        <v>448.263697112198</v>
+        <v>456.624015779202</v>
       </c>
       <c r="D73">
-        <v>669.695161950754</v>
+        <v>682.185276585796</v>
       </c>
       <c r="E73">
-        <v>394.346035551916</v>
+        <v>401.700765688491</v>
       </c>
       <c r="F73">
-        <v>59.9485185294627</v>
+        <v>61.0665852427608</v>
       </c>
       <c r="G73">
-        <v>189.386911390375</v>
+        <v>192.919062088241</v>
       </c>
       <c r="H73">
-        <v>179.035440473125</v>
+        <v>182.37453160338</v>
       </c>
       <c r="I73">
-        <v>236.463600866214</v>
+        <v>240.873752902001</v>
       </c>
       <c r="J73">
-        <v>839.819336155986</v>
+        <v>855.482342815252</v>
       </c>
       <c r="K73">
-        <v>588.773663215038</v>
+        <v>599.7545556650121</v>
       </c>
       <c r="L73">
-        <v>442.592891305357</v>
+        <v>450.847446904887</v>
       </c>
       <c r="M73">
-        <v>259.146824093578</v>
+        <v>263.980028399262</v>
       </c>
       <c r="N73">
-        <v>291.551428704098</v>
+        <v>296.988993395349</v>
       </c>
       <c r="O73">
-        <v>15811.8268197034</v>
+        <v>16106.7244698406</v>
       </c>
       <c r="P73">
-        <v>912.549670948487</v>
+        <v>929.56913091758</v>
       </c>
     </row>
     <row r="74">
@@ -4190,49 +4190,49 @@
         </is>
       </c>
       <c r="B74">
-        <v>23414.50526073</v>
+        <v>38684.9084092386</v>
       </c>
       <c r="C74">
-        <v>1533.06974069472</v>
+        <v>1486.77638923608</v>
       </c>
       <c r="D74">
-        <v>610.806545847359</v>
+        <v>592.362321589604</v>
       </c>
       <c r="E74">
-        <v>1203.19854633951</v>
+        <v>1166.86615277535</v>
       </c>
       <c r="F74">
-        <v>75.7646569844639</v>
+        <v>73.4768289745418</v>
       </c>
       <c r="G74">
-        <v>435.153662178306</v>
+        <v>422.013541486466</v>
       </c>
       <c r="H74">
-        <v>730.22339692046</v>
+        <v>708.173200859814</v>
       </c>
       <c r="I74">
-        <v>357.259857132528</v>
+        <v>346.471857285368</v>
       </c>
       <c r="J74">
-        <v>1876.86474731933</v>
+        <v>1820.1899874688</v>
       </c>
       <c r="K74">
-        <v>1153.39644345174</v>
+        <v>1118.56789944587</v>
       </c>
       <c r="L74">
-        <v>1852.43881869623</v>
+        <v>1796.50163657516</v>
       </c>
       <c r="M74">
-        <v>1353.67170159842</v>
+        <v>1312.7955443185</v>
       </c>
       <c r="N74">
-        <v>256.039426536809</v>
+        <v>248.307930150632</v>
       </c>
       <c r="O74">
-        <v>46824.2851726893</v>
+        <v>45410.3553084701</v>
       </c>
       <c r="P74">
-        <v>3348.22092129224</v>
+        <v>3247.11634414475</v>
       </c>
     </row>
     <row r="75">
@@ -4242,49 +4242,49 @@
         </is>
       </c>
       <c r="B75">
-        <v>10603.1768212441</v>
+        <v>11972.4912410206</v>
       </c>
       <c r="C75">
-        <v>226.527548516089</v>
+        <v>229.528149574382</v>
       </c>
       <c r="D75">
-        <v>303.887800756989</v>
+        <v>307.913121573495</v>
       </c>
       <c r="E75">
-        <v>225.38073710304</v>
+        <v>228.36614741053</v>
       </c>
       <c r="F75">
-        <v>68.1954613286929</v>
+        <v>69.0987835726059</v>
       </c>
       <c r="G75">
-        <v>180.631556274145</v>
+        <v>183.024215544366</v>
       </c>
       <c r="H75">
-        <v>261.531849819497</v>
+        <v>264.996120503069</v>
       </c>
       <c r="I75">
-        <v>118.388542906717</v>
+        <v>119.956726509385</v>
       </c>
       <c r="J75">
-        <v>488.811499938135</v>
+        <v>495.28633407477</v>
       </c>
       <c r="K75">
-        <v>429.965290772217</v>
+        <v>435.660643566929</v>
       </c>
       <c r="L75">
-        <v>803.02551187809</v>
+        <v>813.662448606368</v>
       </c>
       <c r="M75">
-        <v>524.979837073067</v>
+        <v>531.933759741736</v>
       </c>
       <c r="N75">
-        <v>103.05370794175</v>
+        <v>104.418765159455</v>
       </c>
       <c r="O75">
-        <v>13953.5982364805</v>
+        <v>14138.4286551631</v>
       </c>
       <c r="P75">
-        <v>1558.02241921111</v>
+        <v>1578.66010213556</v>
       </c>
     </row>
     <row r="76">
@@ -4294,49 +4294,49 @@
         </is>
       </c>
       <c r="B76">
-        <v>537.31984196599</v>
+        <v>950.907163377589</v>
       </c>
       <c r="C76">
-        <v>52.1498479598331</v>
+        <v>48.2117215008032</v>
       </c>
       <c r="D76">
-        <v>51.0577045470617</v>
+        <v>47.202051940577</v>
       </c>
       <c r="E76">
-        <v>41.0463899299908</v>
+        <v>37.9467476385031</v>
       </c>
       <c r="F76">
-        <v>7.37196803620679</v>
+        <v>6.81526953152717</v>
       </c>
       <c r="G76">
-        <v>6.2798246234354</v>
+        <v>5.80559997130091</v>
       </c>
       <c r="H76">
-        <v>9.28321900855668</v>
+        <v>8.582191261923081</v>
       </c>
       <c r="I76">
-        <v>9.374230959620959</v>
+        <v>8.666330391941941</v>
       </c>
       <c r="J76">
-        <v>12.9236970511279</v>
+        <v>11.9477564626772</v>
       </c>
       <c r="K76">
-        <v>7.7360158404639</v>
+        <v>7.15182605160257</v>
       </c>
       <c r="L76">
-        <v>10.3753624213281</v>
+        <v>9.59186082214933</v>
       </c>
       <c r="M76">
-        <v>9.647266812813809</v>
+        <v>8.9187477819985</v>
       </c>
       <c r="N76">
-        <v>29.8519199490842</v>
+        <v>27.597634646184</v>
       </c>
       <c r="O76">
-        <v>896.285694081041</v>
+        <v>828.602152425672</v>
       </c>
       <c r="P76">
-        <v>143.616858779436</v>
+        <v>132.771547169751</v>
       </c>
     </row>
     <row r="77">
@@ -4346,49 +4346,49 @@
         </is>
       </c>
       <c r="B77">
-        <v>22033.3490679268</v>
+        <v>22888.9632910612</v>
       </c>
       <c r="C77">
-        <v>1261.32896171781</v>
+        <v>1292.06738816241</v>
       </c>
       <c r="D77">
-        <v>1034.81365519164</v>
+        <v>1060.03193241304</v>
       </c>
       <c r="E77">
-        <v>388.58596107277</v>
+        <v>398.05575154327</v>
       </c>
       <c r="F77">
-        <v>289.685360110905</v>
+        <v>296.744955509175</v>
       </c>
       <c r="G77">
-        <v>271.185141449152</v>
+        <v>277.793888870564</v>
       </c>
       <c r="H77">
-        <v>302.713187659763</v>
+        <v>310.090269559173</v>
       </c>
       <c r="I77">
-        <v>262.266662936931</v>
+        <v>268.658068170804</v>
       </c>
       <c r="J77">
-        <v>378.639120034201</v>
+        <v>387.86650725313</v>
       </c>
       <c r="K77">
-        <v>264.105468785271</v>
+        <v>270.541685483901</v>
       </c>
       <c r="L77">
-        <v>892.937747592193</v>
+        <v>914.698526982044</v>
       </c>
       <c r="M77">
-        <v>824.249674227419</v>
+        <v>844.33653400167</v>
       </c>
       <c r="N77">
-        <v>398.500084030165</v>
+        <v>408.211480416756</v>
       </c>
       <c r="O77">
-        <v>23519.4759894122</v>
+        <v>24092.6426292486</v>
       </c>
       <c r="P77">
-        <v>5409.25436169338</v>
+        <v>5541.07720281058</v>
       </c>
     </row>
     <row r="78">
@@ -4398,49 +4398,49 @@
         </is>
       </c>
       <c r="B78">
-        <v>2622.26180700955</v>
+        <v>4334.18949914257</v>
       </c>
       <c r="C78">
-        <v>128.47745836432</v>
+        <v>131.155778659584</v>
       </c>
       <c r="D78">
-        <v>20.5009928629139</v>
+        <v>20.9283691976956</v>
       </c>
       <c r="E78">
-        <v>121.669772830673</v>
+        <v>124.206175916796</v>
       </c>
       <c r="F78">
-        <v>13.2698223395181</v>
+        <v>13.5464532360113</v>
       </c>
       <c r="G78">
-        <v>62.8767225798765</v>
+        <v>64.1874894982867</v>
       </c>
       <c r="H78">
-        <v>32.1839202297611</v>
+        <v>32.8548460702156</v>
       </c>
       <c r="I78">
-        <v>28.450491583998</v>
+        <v>29.043588069481</v>
       </c>
       <c r="J78">
-        <v>116.063995915379</v>
+        <v>118.483537520321</v>
       </c>
       <c r="K78">
-        <v>87.2576267014154</v>
+        <v>89.0766529764238</v>
       </c>
       <c r="L78">
-        <v>79.5597775972993</v>
+        <v>81.21832976464761</v>
       </c>
       <c r="M78">
-        <v>47.0030778976267</v>
+        <v>47.9829330338959</v>
       </c>
       <c r="N78">
-        <v>142.736977331764</v>
+        <v>145.712560349513</v>
       </c>
       <c r="O78">
-        <v>6474.13053929426</v>
+        <v>6609.09425540711</v>
       </c>
       <c r="P78">
-        <v>243.042824471189</v>
+        <v>248.109445010596</v>
       </c>
     </row>
     <row r="79">
@@ -4450,49 +4450,49 @@
         </is>
       </c>
       <c r="B79">
-        <v>7420.72605826104</v>
+        <v>11643.2017874058</v>
       </c>
       <c r="C79">
-        <v>556.6456316911911</v>
+        <v>534.391674717932</v>
       </c>
       <c r="D79">
-        <v>363.166793863184</v>
+        <v>348.647865222366</v>
       </c>
       <c r="E79">
-        <v>376.282279979744</v>
+        <v>361.239011530788</v>
       </c>
       <c r="F79">
-        <v>268.409948431917</v>
+        <v>257.679273288647</v>
       </c>
       <c r="G79">
-        <v>120.072783749278</v>
+        <v>115.272432482535</v>
       </c>
       <c r="H79">
-        <v>161.859332539247</v>
+        <v>155.388410255881</v>
       </c>
       <c r="I79">
-        <v>174.059784740697</v>
+        <v>167.101104496274</v>
       </c>
       <c r="J79">
-        <v>418.475510509761</v>
+        <v>401.745412445481</v>
       </c>
       <c r="K79">
-        <v>221.84488919638</v>
+        <v>212.97582360448</v>
       </c>
       <c r="L79">
-        <v>218.896446581029</v>
+        <v>210.145255829718</v>
       </c>
       <c r="M79">
-        <v>283.050491073657</v>
+        <v>271.734506377118</v>
       </c>
       <c r="N79">
-        <v>288.947376304359</v>
+        <v>277.395641926641</v>
       </c>
       <c r="O79">
-        <v>8529.132793164201</v>
+        <v>8188.14933188809</v>
       </c>
       <c r="P79">
-        <v>2273.65593817536</v>
+        <v>2182.75817748258</v>
       </c>
     </row>
     <row r="80">
@@ -4502,49 +4502,49 @@
         </is>
       </c>
       <c r="B80">
-        <v>1886.54090141022</v>
+        <v>2896.51745417746</v>
       </c>
       <c r="C80">
-        <v>110.439911709138</v>
+        <v>113.165028752346</v>
       </c>
       <c r="D80">
-        <v>234.853459716553</v>
+        <v>240.648494825015</v>
       </c>
       <c r="E80">
-        <v>98.6827832374848</v>
+        <v>101.117791834557</v>
       </c>
       <c r="F80">
-        <v>21.9723384552212</v>
+        <v>22.5145083381631</v>
       </c>
       <c r="G80">
-        <v>21.2013792111784</v>
+        <v>21.7245255894556</v>
       </c>
       <c r="H80">
-        <v>25.6343948644248</v>
+        <v>26.2669263945236</v>
       </c>
       <c r="I80">
-        <v>58.4965326417512</v>
+        <v>59.9399410581798</v>
       </c>
       <c r="J80">
-        <v>95.7916860723241</v>
+        <v>98.1553565269039</v>
       </c>
       <c r="K80">
-        <v>44.7156361544853</v>
+        <v>45.8189994250336</v>
       </c>
       <c r="L80">
-        <v>43.4628273829157</v>
+        <v>44.535277458384</v>
       </c>
       <c r="M80">
-        <v>36.52419418653</v>
+        <v>37.4254327200167</v>
       </c>
       <c r="N80">
-        <v>62.9295482949976</v>
+        <v>64.4823418632478</v>
       </c>
       <c r="O80">
-        <v>3260.27561160619</v>
+        <v>3340.72327311955</v>
       </c>
       <c r="P80">
-        <v>554.319696466809</v>
+        <v>567.997596320675</v>
       </c>
     </row>
     <row r="81">
@@ -4554,49 +4554,49 @@
         </is>
       </c>
       <c r="B81">
-        <v>4714.01807932376</v>
+        <v>7247.38984662165</v>
       </c>
       <c r="C81">
-        <v>251.1506556686</v>
+        <v>211.464474170474</v>
       </c>
       <c r="D81">
-        <v>615.290105157623</v>
+        <v>518.063543187156</v>
       </c>
       <c r="E81">
-        <v>203.704642657765</v>
+        <v>171.515758264828</v>
       </c>
       <c r="F81">
-        <v>147.906275278275</v>
+        <v>124.534505573836</v>
       </c>
       <c r="G81">
-        <v>62.8746676084901</v>
+        <v>52.9393741341325</v>
       </c>
       <c r="H81">
-        <v>58.6984904241623</v>
+        <v>49.4231057414595</v>
       </c>
       <c r="I81">
-        <v>84.1035682954895</v>
+        <v>70.81373846355361</v>
       </c>
       <c r="J81">
-        <v>249.526586763583</v>
+        <v>210.097036462212</v>
       </c>
       <c r="K81">
-        <v>152.778481993324</v>
+        <v>128.636818698621</v>
       </c>
       <c r="L81">
-        <v>201.384544222027</v>
+        <v>169.562275824454</v>
       </c>
       <c r="M81">
-        <v>188.507997903683</v>
+        <v>158.720448280379</v>
       </c>
       <c r="N81">
-        <v>169.947210417782</v>
+        <v>143.092588757388</v>
       </c>
       <c r="O81">
-        <v>4501.57098993996</v>
+        <v>3790.24430493544</v>
       </c>
       <c r="P81">
-        <v>3294.65578366924</v>
+        <v>2774.04273945294</v>
       </c>
     </row>
     <row r="82">
@@ -4606,49 +4606,49 @@
         </is>
       </c>
       <c r="B82">
-        <v>41909.7793774993</v>
+        <v>69387.55400350659</v>
       </c>
       <c r="C82">
-        <v>3336.40239033616</v>
+        <v>3367.19253276573</v>
       </c>
       <c r="D82">
-        <v>1208.55620232571</v>
+        <v>1219.70941864984</v>
       </c>
       <c r="E82">
-        <v>1527.85293217353</v>
+        <v>1541.95279300846</v>
       </c>
       <c r="F82">
-        <v>1629.90278681314</v>
+        <v>1644.94441941049</v>
       </c>
       <c r="G82">
-        <v>679.585033104697</v>
+        <v>685.856614740924</v>
       </c>
       <c r="H82">
-        <v>845.690039193128</v>
+        <v>853.494528493773</v>
       </c>
       <c r="I82">
-        <v>626.164268671429</v>
+        <v>631.942854333802</v>
       </c>
       <c r="J82">
-        <v>2319.96068413408</v>
+        <v>2341.37054767524</v>
       </c>
       <c r="K82">
-        <v>920.5636192604731</v>
+        <v>929.0590828276401</v>
       </c>
       <c r="L82">
-        <v>1651.95035071907</v>
+        <v>1667.19545027078</v>
       </c>
       <c r="M82">
-        <v>996.112181382694</v>
+        <v>1005.30484831922</v>
       </c>
       <c r="N82">
-        <v>828.221153633664</v>
+        <v>835.864430522995</v>
       </c>
       <c r="O82">
-        <v>69385.8741798316</v>
+        <v>70026.2049009656</v>
       </c>
       <c r="P82">
-        <v>11975.9873593445</v>
+        <v>12086.508307776</v>
       </c>
     </row>
     <row r="83">
@@ -4658,49 +4658,49 @@
         </is>
       </c>
       <c r="B83">
-        <v>26577.6659160076</v>
+        <v>40209.2714809834</v>
       </c>
       <c r="C83">
-        <v>1751.89178396329</v>
+        <v>1775.66280619891</v>
       </c>
       <c r="D83">
-        <v>759.062766073092</v>
+        <v>769.3623165680031</v>
       </c>
       <c r="E83">
-        <v>981.106579237578</v>
+        <v>994.4189918672</v>
       </c>
       <c r="F83">
-        <v>1132.05251768637</v>
+        <v>1147.41308151579</v>
       </c>
       <c r="G83">
-        <v>520.680413678336</v>
+        <v>527.7454081057861</v>
       </c>
       <c r="H83">
-        <v>285.907804032359</v>
+        <v>289.78722217291</v>
       </c>
       <c r="I83">
-        <v>689.276195992084</v>
+        <v>698.6288283472291</v>
       </c>
       <c r="J83">
-        <v>1163.46569001809</v>
+        <v>1179.25249205744</v>
       </c>
       <c r="K83">
-        <v>1617.77453256166</v>
+        <v>1639.72574823477</v>
       </c>
       <c r="L83">
-        <v>891.114234330702</v>
+        <v>903.205561245214</v>
       </c>
       <c r="M83">
-        <v>1136.68306540468</v>
+        <v>1152.10646008574</v>
       </c>
       <c r="N83">
-        <v>486.579633398428</v>
+        <v>493.181922073327</v>
       </c>
       <c r="O83">
-        <v>37145.8340477519</v>
+        <v>37649.8574441697</v>
       </c>
       <c r="P83">
-        <v>16164.9144966289</v>
+        <v>16384.2525547519</v>
       </c>
     </row>
     <row r="84">
@@ -4710,49 +4710,49 @@
         </is>
       </c>
       <c r="B84">
-        <v>798.646653351741</v>
+        <v>1279.04122432206</v>
       </c>
       <c r="C84">
-        <v>43.0981706626679</v>
+        <v>42.3840742382166</v>
       </c>
       <c r="D84">
-        <v>55.2205473210673</v>
+        <v>54.3055944404251</v>
       </c>
       <c r="E84">
-        <v>58.6766510280911</v>
+        <v>57.7044337378052</v>
       </c>
       <c r="F84">
-        <v>10.730644574227</v>
+        <v>10.5528478184785</v>
       </c>
       <c r="G84">
-        <v>11.8910406844615</v>
+        <v>11.6940172492387</v>
       </c>
       <c r="H84">
-        <v>23.7421317830623</v>
+        <v>23.3487468399324</v>
       </c>
       <c r="I84">
-        <v>24.0589412895395</v>
+        <v>23.6603071088589</v>
       </c>
       <c r="J84">
-        <v>77.3869931129704</v>
+        <v>76.104762934025</v>
       </c>
       <c r="K84">
-        <v>51.1168886990448</v>
+        <v>50.2699296080251</v>
       </c>
       <c r="L84">
-        <v>76.5471227497582</v>
+        <v>75.2788084381025</v>
       </c>
       <c r="M84">
-        <v>38.9601368156024</v>
+        <v>38.3146037461383</v>
       </c>
       <c r="N84">
-        <v>26.08336332653</v>
+        <v>25.6511863639641</v>
       </c>
       <c r="O84">
-        <v>1280.86826716832</v>
+        <v>1259.6454766017</v>
       </c>
       <c r="P84">
-        <v>74.7401007846611</v>
+        <v>73.50172713880031</v>
       </c>
     </row>
     <row r="85">
@@ -4762,49 +4762,49 @@
         </is>
       </c>
       <c r="B85">
-        <v>409.325353972837</v>
+        <v>595.3780408211831</v>
       </c>
       <c r="C85">
-        <v>17.178466405433</v>
+        <v>17.8939861590844</v>
       </c>
       <c r="D85">
-        <v>23.4881530717366</v>
+        <v>24.466484728531</v>
       </c>
       <c r="E85">
-        <v>25.4303210584631</v>
+        <v>26.4895481529883</v>
       </c>
       <c r="F85">
-        <v>3.57574076856483</v>
+        <v>3.72467799575733</v>
       </c>
       <c r="G85">
-        <v>12.8666269830068</v>
+        <v>13.4025494310254</v>
       </c>
       <c r="H85">
-        <v>13.3356539457877</v>
+        <v>13.8911123668638</v>
       </c>
       <c r="I85">
-        <v>9.210670335495591</v>
+        <v>9.59431439392756</v>
       </c>
       <c r="J85">
-        <v>43.2750511172629</v>
+        <v>45.0775492672072</v>
       </c>
       <c r="K85">
-        <v>25.7615654527007</v>
+        <v>26.834589582524</v>
       </c>
       <c r="L85">
-        <v>26.7939910005523</v>
+        <v>27.9100178557778</v>
       </c>
       <c r="M85">
-        <v>11.9115861654329</v>
+        <v>12.4077291270649</v>
       </c>
       <c r="N85">
-        <v>15.0211311198856</v>
+        <v>15.6467932590312</v>
       </c>
       <c r="O85">
-        <v>539.1941513858681</v>
+        <v>561.652737458944</v>
       </c>
       <c r="P85">
-        <v>82.14389118980969</v>
+        <v>85.56535940477831</v>
       </c>
     </row>
     <row r="86">
@@ -4814,49 +4814,49 @@
         </is>
       </c>
       <c r="B86">
-        <v>1064.84117216285</v>
+        <v>2331.7152511885</v>
       </c>
       <c r="C86">
-        <v>55.5624041284709</v>
+        <v>56.6848788648259</v>
       </c>
       <c r="D86">
-        <v>10.3173799829699</v>
+        <v>10.525812259397</v>
       </c>
       <c r="E86">
-        <v>114.43772843496</v>
+        <v>116.749605702853</v>
       </c>
       <c r="F86">
-        <v>10.506689707428</v>
+        <v>10.7189464292942</v>
       </c>
       <c r="G86">
-        <v>35.5902281981347</v>
+        <v>36.3092239406721</v>
       </c>
       <c r="H86">
-        <v>22.3385474860632</v>
+        <v>22.7898320478687</v>
       </c>
       <c r="I86">
-        <v>17.6058043746092</v>
+        <v>17.9614778004389</v>
       </c>
       <c r="J86">
-        <v>111.503427705858</v>
+        <v>113.756026069446</v>
       </c>
       <c r="K86">
-        <v>100.99673799843</v>
+        <v>103.037079640152</v>
       </c>
       <c r="L86">
-        <v>76.670438405556</v>
+        <v>78.21933880836291</v>
       </c>
       <c r="M86">
-        <v>94.5602073668524</v>
+        <v>96.4705178636475</v>
       </c>
       <c r="N86">
-        <v>44.3931303854392</v>
+        <v>45.2899628408916</v>
       </c>
       <c r="O86">
-        <v>3213.91119212623</v>
+        <v>3278.83880234463</v>
       </c>
       <c r="P86">
-        <v>90.20608370431469</v>
+        <v>92.0284319560121</v>
       </c>
     </row>
     <row r="87">
@@ -4866,49 +4866,49 @@
         </is>
       </c>
       <c r="B87">
-        <v>17449.7489302017</v>
+        <v>21623.140132733</v>
       </c>
       <c r="C87">
-        <v>507.342191454017</v>
+        <v>468.667772036287</v>
       </c>
       <c r="D87">
-        <v>1332.37782351484</v>
+        <v>1230.81138642863</v>
       </c>
       <c r="E87">
-        <v>276.832090960636</v>
+        <v>255.72933117751</v>
       </c>
       <c r="F87">
-        <v>144.88085854535</v>
+        <v>133.836669468693</v>
       </c>
       <c r="G87">
-        <v>127.613708489705</v>
+        <v>117.885784873815</v>
       </c>
       <c r="H87">
-        <v>199.368228088011</v>
+        <v>184.170496455348</v>
       </c>
       <c r="I87">
-        <v>276.645177936774</v>
+        <v>255.556666431834</v>
       </c>
       <c r="J87">
-        <v>494.778855726196</v>
+        <v>457.062132560439</v>
       </c>
       <c r="K87">
-        <v>315.337718611859</v>
+        <v>291.299695768</v>
       </c>
       <c r="L87">
-        <v>187.801246908874</v>
+        <v>173.485259962646</v>
       </c>
       <c r="M87">
-        <v>289.03086905514</v>
+        <v>266.998203050222</v>
       </c>
       <c r="N87">
-        <v>270.921932040847</v>
+        <v>250.269700458883</v>
       </c>
       <c r="O87">
-        <v>9684.994654403739</v>
+        <v>8946.712777532021</v>
       </c>
       <c r="P87">
-        <v>5105.64451324824</v>
+        <v>4716.44400789053</v>
       </c>
     </row>
     <row r="88">

--- a/1-Data-Codes/2-Final_Data/L_2007.xlsx
+++ b/1-Data-Codes/2-Final_Data/L_2007.xlsx
@@ -446,49 +446,49 @@
         </is>
       </c>
       <c r="B2">
-        <v>1506.73694077459</v>
+        <v>1475.73746587024</v>
       </c>
       <c r="C2">
-        <v>33.2722575083975</v>
+        <v>18.2419754310054</v>
       </c>
       <c r="D2">
-        <v>57.3585587501701</v>
+        <v>15.3873587309507</v>
       </c>
       <c r="E2">
-        <v>48.3449299099629</v>
+        <v>41.4374698629855</v>
       </c>
       <c r="F2">
-        <v>13.9930771141497</v>
+        <v>22.2703870258245</v>
       </c>
       <c r="G2">
-        <v>14.3086690255349</v>
+        <v>21.7026935368304</v>
       </c>
       <c r="H2">
-        <v>15.5391910110065</v>
+        <v>4.96235618887175</v>
       </c>
       <c r="I2">
-        <v>14.5729744244081</v>
+        <v>18.9464025393614</v>
       </c>
       <c r="J2">
-        <v>52.2452592580218</v>
+        <v>63.0827337613332</v>
       </c>
       <c r="K2">
-        <v>19.1304877157173</v>
+        <v>9.381266757871559</v>
       </c>
       <c r="L2">
-        <v>30.2613358163385</v>
+        <v>50.937065403355</v>
       </c>
       <c r="M2">
-        <v>46.3429932347361</v>
+        <v>44.2631025513995</v>
       </c>
       <c r="N2">
-        <v>35.1523591990971</v>
+        <v>26.8086934974932</v>
       </c>
       <c r="O2">
-        <v>1303.79457026135</v>
+        <v>1380.35930755644</v>
       </c>
       <c r="P2">
-        <v>31.5518183523592</v>
+        <v>23.54665438578</v>
       </c>
     </row>
     <row r="3">
@@ -498,49 +498,49 @@
         </is>
       </c>
       <c r="B3">
-        <v>121.132522698753</v>
+        <v>120.109834207202</v>
       </c>
       <c r="C3">
-        <v>5.18609235290472</v>
+        <v>0.574634781722741</v>
       </c>
       <c r="D3">
-        <v>0.424118875207953</v>
+        <v>0.241737122661751</v>
       </c>
       <c r="E3">
-        <v>1.74987387279173</v>
+        <v>0.71432956041943</v>
       </c>
       <c r="F3">
-        <v>6.87580887280182</v>
+        <v>8.370494210924409</v>
       </c>
       <c r="G3">
-        <v>0.244667363683344</v>
+        <v>0.253295292727653</v>
       </c>
       <c r="H3">
-        <v>0.10256041766477</v>
+        <v>0.210775129168371</v>
       </c>
       <c r="I3">
-        <v>0.320810210011817</v>
+        <v>0.322902814076112</v>
       </c>
       <c r="J3">
-        <v>0.583291290930578</v>
+        <v>0.141959633818751</v>
       </c>
       <c r="K3">
-        <v>0.06620001541763169</v>
+        <v>0.259445942566609</v>
       </c>
       <c r="L3">
-        <v>0.349974774558347</v>
+        <v>0.31023567736611</v>
       </c>
       <c r="M3">
-        <v>0.641620420023636</v>
+        <v>0.218984646763151</v>
       </c>
       <c r="N3">
-        <v>0.641620420023636</v>
+        <v>0.573510057838612</v>
       </c>
       <c r="O3">
-        <v>180.336432553077</v>
+        <v>193.329501390029</v>
       </c>
       <c r="P3">
-        <v>4.94459653949867</v>
+        <v>6.36133793759207</v>
       </c>
     </row>
     <row r="4">
@@ -550,49 +550,49 @@
         </is>
       </c>
       <c r="B4">
-        <v>1820.82890769471</v>
+        <v>1715.46323658561</v>
       </c>
       <c r="C4">
-        <v>13.4030496639299</v>
+        <v>16.2339721161987</v>
       </c>
       <c r="D4">
-        <v>4.14340150055778</v>
+        <v>3.18058517861261</v>
       </c>
       <c r="E4">
-        <v>17.7286270856025</v>
+        <v>15.526027631033</v>
       </c>
       <c r="F4">
-        <v>20.0304476782957</v>
+        <v>14.5372944847153</v>
       </c>
       <c r="G4">
-        <v>9.05920771670967</v>
+        <v>4.18044641230653</v>
       </c>
       <c r="H4">
-        <v>6.98360831564852</v>
+        <v>2.48255030631935</v>
       </c>
       <c r="I4">
-        <v>8.77663387841986</v>
+        <v>5.95337433205693</v>
       </c>
       <c r="J4">
-        <v>22.5589378722833</v>
+        <v>27.3471824670939</v>
       </c>
       <c r="K4">
-        <v>10.5521721684732</v>
+        <v>5.87572139414401</v>
       </c>
       <c r="L4">
-        <v>58.4816380273255</v>
+        <v>54.1683886286244</v>
       </c>
       <c r="M4">
-        <v>49.3945077502925</v>
+        <v>40.5153120796571</v>
       </c>
       <c r="N4">
-        <v>25.4121222511241</v>
+        <v>28.9631726392002</v>
       </c>
       <c r="O4">
-        <v>1924.11213449583</v>
+        <v>2067.81400177316</v>
       </c>
       <c r="P4">
-        <v>20.118911837725</v>
+        <v>26.2854750381744</v>
       </c>
     </row>
     <row r="5">
@@ -602,49 +602,49 @@
         </is>
       </c>
       <c r="B5">
-        <v>915.937819331788</v>
+        <v>890.419683279408</v>
       </c>
       <c r="C5">
-        <v>57.7649251936545</v>
+        <v>34.6847298687149</v>
       </c>
       <c r="D5">
-        <v>10.9681464753265</v>
+        <v>9.32902224829086</v>
       </c>
       <c r="E5">
-        <v>45.0735891718877</v>
+        <v>17.054208576539</v>
       </c>
       <c r="F5">
-        <v>5.96480179392712</v>
+        <v>5.72878955599659</v>
       </c>
       <c r="G5">
-        <v>9.04801018669321</v>
+        <v>4.95115563764506</v>
       </c>
       <c r="H5">
-        <v>14.2925869283414</v>
+        <v>10.9644887253005</v>
       </c>
       <c r="I5">
-        <v>6.67994143536038</v>
+        <v>9.06325413137988</v>
       </c>
       <c r="J5">
-        <v>24.964288878269</v>
+        <v>23.7061940931506</v>
       </c>
       <c r="K5">
-        <v>19.1462191380062</v>
+        <v>2.47986879018938</v>
       </c>
       <c r="L5">
-        <v>15.724042533023</v>
+        <v>7.54849745133033</v>
       </c>
       <c r="M5">
-        <v>26.1686997873939</v>
+        <v>9.71894028297848</v>
       </c>
       <c r="N5">
-        <v>14.431424001151</v>
+        <v>24.754012733205</v>
       </c>
       <c r="O5">
-        <v>766.75390923988</v>
+        <v>889.568001398299</v>
       </c>
       <c r="P5">
-        <v>36.723111001893</v>
+        <v>36.3605653073959</v>
       </c>
     </row>
     <row r="6">
@@ -654,49 +654,49 @@
         </is>
       </c>
       <c r="B6">
-        <v>9800.63848098493</v>
+        <v>9339.76029649914</v>
       </c>
       <c r="C6">
-        <v>174.604752753015</v>
+        <v>168.474194063721</v>
       </c>
       <c r="D6">
-        <v>156.968370369996</v>
+        <v>24.2336599743691</v>
       </c>
       <c r="E6">
-        <v>176.974479488857</v>
+        <v>134.614610462686</v>
       </c>
       <c r="F6">
-        <v>42.553149964887</v>
+        <v>37.1420768325364</v>
       </c>
       <c r="G6">
-        <v>93.1787720961958</v>
+        <v>86.28676406881471</v>
       </c>
       <c r="H6">
-        <v>46.7381000615438</v>
+        <v>31.842763147</v>
       </c>
       <c r="I6">
-        <v>46.3040077369123</v>
+        <v>26.1464036979614</v>
       </c>
       <c r="J6">
-        <v>136.853972521251</v>
+        <v>110.785003581108</v>
       </c>
       <c r="K6">
-        <v>97.0034800351953</v>
+        <v>29.6813516484393</v>
       </c>
       <c r="L6">
-        <v>435.402340085503</v>
+        <v>322.029984650161</v>
       </c>
       <c r="M6">
-        <v>231.331956968679</v>
+        <v>209.002902675556</v>
       </c>
       <c r="N6">
-        <v>216.54615642474</v>
+        <v>208.079191067602</v>
       </c>
       <c r="O6">
-        <v>10849.1009911519</v>
+        <v>11820.7783494935</v>
       </c>
       <c r="P6">
-        <v>259.977597831279</v>
+        <v>227.333973383062</v>
       </c>
     </row>
     <row r="7">
@@ -706,49 +706,49 @@
         </is>
       </c>
       <c r="B7">
-        <v>1133.50502523951</v>
+        <v>1024.22048579235</v>
       </c>
       <c r="C7">
-        <v>19.0213156393532</v>
+        <v>41.8943856361609</v>
       </c>
       <c r="D7">
-        <v>4.98578420198625</v>
+        <v>3.99968260419221</v>
       </c>
       <c r="E7">
-        <v>20.8552861537642</v>
+        <v>14.2111888383699</v>
       </c>
       <c r="F7">
-        <v>24.6532776353529</v>
+        <v>28.3014543264546</v>
       </c>
       <c r="G7">
-        <v>9.712170120432059</v>
+        <v>13.5518207089246</v>
       </c>
       <c r="H7">
-        <v>6.59014767067625</v>
+        <v>3.62323544285287</v>
       </c>
       <c r="I7">
-        <v>10.7423561821948</v>
+        <v>7.8324880150495</v>
       </c>
       <c r="J7">
-        <v>17.4963249765181</v>
+        <v>12.9093124591249</v>
       </c>
       <c r="K7">
-        <v>11.5939204351135</v>
+        <v>6.33521116718562</v>
       </c>
       <c r="L7">
-        <v>49.0002403404093</v>
+        <v>30.4675968699952</v>
       </c>
       <c r="M7">
-        <v>16.0372062782736</v>
+        <v>12.4688718380851</v>
       </c>
       <c r="N7">
-        <v>21.8928443336104</v>
+        <v>19.9554251738712</v>
       </c>
       <c r="O7">
-        <v>1715.82968529629</v>
+        <v>1840.42516675939</v>
       </c>
       <c r="P7">
-        <v>45.6665824456581</v>
+        <v>33.5269892508295</v>
       </c>
     </row>
     <row r="8">
@@ -758,49 +758,49 @@
         </is>
       </c>
       <c r="B8">
-        <v>917.220674412992</v>
+        <v>835.937716632983</v>
       </c>
       <c r="C8">
-        <v>13.0540261462228</v>
+        <v>7.81235292675436</v>
       </c>
       <c r="D8">
-        <v>8.02061532585963</v>
+        <v>1.8201142347151</v>
       </c>
       <c r="E8">
-        <v>17.7667026826725</v>
+        <v>20.189301168662</v>
       </c>
       <c r="F8">
-        <v>1.65300834284282</v>
+        <v>1.70978252511611</v>
       </c>
       <c r="G8">
-        <v>21.9285727233776</v>
+        <v>16.1920749977962</v>
       </c>
       <c r="H8">
-        <v>7.15971557388917</v>
+        <v>6.81917163914127</v>
       </c>
       <c r="I8">
-        <v>3.38411344313678</v>
+        <v>7.16449318237501</v>
       </c>
       <c r="J8">
-        <v>37.516468114871</v>
+        <v>30.751025227771</v>
       </c>
       <c r="K8">
-        <v>24.7910032201645</v>
+        <v>7.34168274082322</v>
       </c>
       <c r="L8">
-        <v>34.1536925188112</v>
+        <v>22.7170618756372</v>
       </c>
       <c r="M8">
-        <v>49.4264760461914</v>
+        <v>39.1722880707689</v>
       </c>
       <c r="N8">
-        <v>23.0822652446517</v>
+        <v>23.5809897594944</v>
       </c>
       <c r="O8">
-        <v>1165.21398061802</v>
+        <v>1299.4426212409</v>
       </c>
       <c r="P8">
-        <v>5.68262924390944</v>
+        <v>7.24627548877192</v>
       </c>
     </row>
     <row r="9">
@@ -810,49 +810,49 @@
         </is>
       </c>
       <c r="B9">
-        <v>260.814030063546</v>
+        <v>228.766394260834</v>
       </c>
       <c r="C9">
-        <v>7.66558708525354</v>
+        <v>7.4694418935904</v>
       </c>
       <c r="D9">
-        <v>1.89397375812455</v>
+        <v>1.22845416907673</v>
       </c>
       <c r="E9">
-        <v>4.36620365283189</v>
+        <v>2.10846483086805</v>
       </c>
       <c r="F9">
-        <v>1.77396395297452</v>
+        <v>0.365369058213236</v>
       </c>
       <c r="G9">
-        <v>13.4505808513275</v>
+        <v>14.3267867181122</v>
       </c>
       <c r="H9">
-        <v>3.19004101799738</v>
+        <v>1.65798509362655</v>
       </c>
       <c r="I9">
-        <v>0.912049527325523</v>
+        <v>0.985613864085404</v>
       </c>
       <c r="J9">
-        <v>3.45005400834969</v>
+        <v>2.60573737078223</v>
       </c>
       <c r="K9">
-        <v>1.91707415058612</v>
+        <v>0.300082327534883</v>
       </c>
       <c r="L9">
-        <v>1.73223755502631</v>
+        <v>2.28443623483983</v>
       </c>
       <c r="M9">
-        <v>5.53195153245401</v>
+        <v>2.70923579681186</v>
       </c>
       <c r="N9">
-        <v>4.27810973899465</v>
+        <v>1.56210571633704</v>
       </c>
       <c r="O9">
-        <v>268.649188852981</v>
+        <v>311.080695229897</v>
       </c>
       <c r="P9">
-        <v>2.40418391860075</v>
+        <v>3.42262413722326</v>
       </c>
     </row>
     <row r="10">
@@ -862,49 +862,49 @@
         </is>
       </c>
       <c r="B10">
-        <v>5744.80068948946</v>
+        <v>5531.80247974996</v>
       </c>
       <c r="C10">
-        <v>50.6128210790853</v>
+        <v>40.4513486021888</v>
       </c>
       <c r="D10">
-        <v>20.6763327601026</v>
+        <v>8.1153441658484</v>
       </c>
       <c r="E10">
-        <v>68.3041692852356</v>
+        <v>43.4421866788596</v>
       </c>
       <c r="F10">
-        <v>12.3716826211827</v>
+        <v>6.80458068717285</v>
       </c>
       <c r="G10">
-        <v>27.9253068504982</v>
+        <v>18.3262469728547</v>
       </c>
       <c r="H10">
-        <v>19.8926658939604</v>
+        <v>7.54098486845601</v>
       </c>
       <c r="I10">
-        <v>25.3926158137347</v>
+        <v>14.9530907519309</v>
       </c>
       <c r="J10">
-        <v>46.0751497170916</v>
+        <v>43.3406168508875</v>
       </c>
       <c r="K10">
-        <v>36.084268557254</v>
+        <v>6.66824415264899</v>
       </c>
       <c r="L10">
-        <v>71.84405235930601</v>
+        <v>52.9399411669949</v>
       </c>
       <c r="M10">
-        <v>69.2908788256957</v>
+        <v>70.7236487547889</v>
       </c>
       <c r="N10">
-        <v>74.24119035277739</v>
+        <v>73.3290362303371</v>
       </c>
       <c r="O10">
-        <v>6016.44301735479</v>
+        <v>6549.99283332026</v>
       </c>
       <c r="P10">
-        <v>94.6197799865606</v>
+        <v>51.4595370270796</v>
       </c>
     </row>
     <row r="11">
@@ -914,49 +914,49 @@
         </is>
       </c>
       <c r="B11">
-        <v>2542.43463623259</v>
+        <v>2450.47238057396</v>
       </c>
       <c r="C11">
-        <v>69.8594332944499</v>
+        <v>72.7525658970625</v>
       </c>
       <c r="D11">
-        <v>93.4957100280497</v>
+        <v>70.2243677043836</v>
       </c>
       <c r="E11">
-        <v>70.93436634640599</v>
+        <v>62.0842617123995</v>
       </c>
       <c r="F11">
-        <v>10.0800428275822</v>
+        <v>9.24899547838857</v>
       </c>
       <c r="G11">
-        <v>28.5855741913163</v>
+        <v>20.3030507553167</v>
       </c>
       <c r="H11">
-        <v>34.7261694408251</v>
+        <v>18.644036993836</v>
       </c>
       <c r="I11">
-        <v>18.5805897948114</v>
+        <v>15.8922094488648</v>
       </c>
       <c r="J11">
-        <v>34.0176720708577</v>
+        <v>38.5115496650914</v>
       </c>
       <c r="K11">
-        <v>35.4137190969999</v>
+        <v>5.6700854627615</v>
       </c>
       <c r="L11">
-        <v>49.0208925176149</v>
+        <v>27.5430987059233</v>
       </c>
       <c r="M11">
-        <v>67.23799962260731</v>
+        <v>31.4529642215211</v>
       </c>
       <c r="N11">
-        <v>49.6950285813136</v>
+        <v>61.0840629672374</v>
       </c>
       <c r="O11">
-        <v>2802.96149349063</v>
+        <v>3012.98119577927</v>
       </c>
       <c r="P11">
-        <v>56.1848981297149</v>
+        <v>45.654902271685</v>
       </c>
     </row>
     <row r="12">
@@ -966,49 +966,49 @@
         </is>
       </c>
       <c r="B12">
-        <v>347.676870464144</v>
+        <v>333.426760280165</v>
       </c>
       <c r="C12">
-        <v>4.49834624862913</v>
+        <v>5.25453804352066</v>
       </c>
       <c r="D12">
-        <v>2.07463949970693</v>
+        <v>0.6072554040984221</v>
       </c>
       <c r="E12">
-        <v>2.7128372420968</v>
+        <v>1.29887878799334</v>
       </c>
       <c r="F12">
-        <v>0.719208359898402</v>
+        <v>0.296351135057407</v>
       </c>
       <c r="G12">
-        <v>0.442589759937478</v>
+        <v>0.33098721253947</v>
       </c>
       <c r="H12">
-        <v>0.100694206535946</v>
+        <v>0.303708337553094</v>
       </c>
       <c r="I12">
-        <v>0.995826959859322</v>
+        <v>0.63301123299333</v>
       </c>
       <c r="J12">
-        <v>0.6085609199140321</v>
+        <v>1.6636581182542</v>
       </c>
       <c r="K12">
-        <v>0.425297710398683</v>
+        <v>0.0530079623395234</v>
       </c>
       <c r="L12">
-        <v>0.224064079723353</v>
+        <v>0.0303741329747293</v>
       </c>
       <c r="M12">
-        <v>3.2375946863961</v>
+        <v>2.32933826364351</v>
       </c>
       <c r="N12">
-        <v>2.08112420776207</v>
+        <v>4.30588894410354</v>
       </c>
       <c r="O12">
-        <v>429.085152350516</v>
+        <v>449.439158325892</v>
       </c>
       <c r="P12">
-        <v>12.6708341764847</v>
+        <v>12.7095464871354</v>
       </c>
     </row>
     <row r="13">
@@ -1018,49 +1018,49 @@
         </is>
       </c>
       <c r="B13">
-        <v>406.397431629132</v>
+        <v>353.763323351648</v>
       </c>
       <c r="C13">
-        <v>17.3383359330729</v>
+        <v>20.3335995086675</v>
       </c>
       <c r="D13">
-        <v>0.99725594177689</v>
+        <v>0.110689341353077</v>
       </c>
       <c r="E13">
-        <v>16.2490526026674</v>
+        <v>8.15890914999247</v>
       </c>
       <c r="F13">
-        <v>1.79556341149092</v>
+        <v>3.7290067049027</v>
       </c>
       <c r="G13">
-        <v>5.49311920142009</v>
+        <v>6.77400000122935</v>
       </c>
       <c r="H13">
-        <v>1.84369858510617</v>
+        <v>1.14489865224506</v>
       </c>
       <c r="I13">
-        <v>1.70187561702108</v>
+        <v>2.37958556992647</v>
       </c>
       <c r="J13">
-        <v>5.31881075245975</v>
+        <v>3.67589389799614</v>
       </c>
       <c r="K13">
-        <v>2.55281342553161</v>
+        <v>3.28823230788732</v>
       </c>
       <c r="L13">
-        <v>21.8588202474937</v>
+        <v>16.5776788091266</v>
       </c>
       <c r="M13">
-        <v>2.36376060995375</v>
+        <v>2.01800561209779</v>
       </c>
       <c r="N13">
-        <v>5.7286025954545</v>
+        <v>3.26769356557321</v>
       </c>
       <c r="O13">
-        <v>429.142962606429</v>
+        <v>490.796248398022</v>
       </c>
       <c r="P13">
-        <v>33.1026585196412</v>
+        <v>34.1294097723027</v>
       </c>
     </row>
     <row r="14">
@@ -1070,49 +1070,49 @@
         </is>
       </c>
       <c r="B14">
-        <v>3466.76936124826</v>
+        <v>3264.1386917514</v>
       </c>
       <c r="C14">
-        <v>112.481909552153</v>
+        <v>117.351766211451</v>
       </c>
       <c r="D14">
-        <v>16.8349929089386</v>
+        <v>10.9701081801421</v>
       </c>
       <c r="E14">
-        <v>118.073860340664</v>
+        <v>61.3607417255813</v>
       </c>
       <c r="F14">
-        <v>28.4454825051207</v>
+        <v>14.4024801534423</v>
       </c>
       <c r="G14">
-        <v>69.87436522535231</v>
+        <v>68.5132978701516</v>
       </c>
       <c r="H14">
-        <v>52.5189189583363</v>
+        <v>37.0828092221724</v>
       </c>
       <c r="I14">
-        <v>17.3518192214796</v>
+        <v>25.0323866971925</v>
       </c>
       <c r="J14">
-        <v>147.49694164507</v>
+        <v>108.620109845461</v>
       </c>
       <c r="K14">
-        <v>130.417443691529</v>
+        <v>53.7345059551462</v>
       </c>
       <c r="L14">
-        <v>98.10906164456679</v>
+        <v>63.0501774073261</v>
       </c>
       <c r="M14">
-        <v>73.4328467533349</v>
+        <v>57.8979864797514</v>
       </c>
       <c r="N14">
-        <v>65.23561717183421</v>
+        <v>50.1317565332494</v>
       </c>
       <c r="O14">
-        <v>3918.92991587158</v>
+        <v>4366.5847785427</v>
       </c>
       <c r="P14">
-        <v>59.1676652979065</v>
+        <v>68.43000659949639</v>
       </c>
     </row>
     <row r="15">
@@ -1122,49 +1122,49 @@
         </is>
       </c>
       <c r="B15">
-        <v>1755.74682292044</v>
+        <v>1653.01239800183</v>
       </c>
       <c r="C15">
-        <v>34.270522303793</v>
+        <v>44.4461407566441</v>
       </c>
       <c r="D15">
-        <v>11.7711575342164</v>
+        <v>5.90857705147336</v>
       </c>
       <c r="E15">
-        <v>62.1408848557608</v>
+        <v>49.2572872931382</v>
       </c>
       <c r="F15">
-        <v>9.56488880808852</v>
+        <v>12.6761609522066</v>
       </c>
       <c r="G15">
-        <v>39.6536585267891</v>
+        <v>52.3361843242127</v>
       </c>
       <c r="H15">
-        <v>54.1414422313979</v>
+        <v>32.9477976140669</v>
       </c>
       <c r="I15">
-        <v>13.9724543593814</v>
+        <v>11.0461393650535</v>
       </c>
       <c r="J15">
-        <v>129.258023925956</v>
+        <v>102.289779971644</v>
       </c>
       <c r="K15">
-        <v>51.5600326101879</v>
+        <v>32.3587582664964</v>
       </c>
       <c r="L15">
-        <v>51.0192541987226</v>
+        <v>30.515060283007</v>
       </c>
       <c r="M15">
-        <v>190.565806217714</v>
+        <v>119.790394573027</v>
       </c>
       <c r="N15">
-        <v>74.911842131822</v>
+        <v>80.5481896440497</v>
       </c>
       <c r="O15">
-        <v>1762.59501215024</v>
+        <v>1997.23513960579</v>
       </c>
       <c r="P15">
-        <v>33.8809097945766</v>
+        <v>39.0094040001242</v>
       </c>
     </row>
     <row r="16">
@@ -1174,49 +1174,49 @@
         </is>
       </c>
       <c r="B16">
-        <v>801.790507385363</v>
+        <v>658.795170326929</v>
       </c>
       <c r="C16">
-        <v>51.2601124213298</v>
+        <v>58.2204297102523</v>
       </c>
       <c r="D16">
-        <v>4.58483536610591</v>
+        <v>3.11547157160014</v>
       </c>
       <c r="E16">
-        <v>29.528223777081</v>
+        <v>24.6134007332382</v>
       </c>
       <c r="F16">
-        <v>3.15204771088842</v>
+        <v>1.96909960106007</v>
       </c>
       <c r="G16">
-        <v>10.1224511104617</v>
+        <v>10.1886881930447</v>
       </c>
       <c r="H16">
-        <v>16.151996456112</v>
+        <v>12.8755870512554</v>
       </c>
       <c r="I16">
-        <v>8.13675586691874</v>
+        <v>4.08776149709513</v>
       </c>
       <c r="J16">
-        <v>38.940867012681</v>
+        <v>31.1117243903115</v>
       </c>
       <c r="K16">
-        <v>45.9264435428348</v>
+        <v>35.9469288109472</v>
       </c>
       <c r="L16">
-        <v>28.8654477011206</v>
+        <v>13.0057989033737</v>
       </c>
       <c r="M16">
-        <v>29.0670654824827</v>
+        <v>19.5109029813354</v>
       </c>
       <c r="N16">
-        <v>15.1448602662113</v>
+        <v>27.4739211979289</v>
       </c>
       <c r="O16">
-        <v>919.017391106879</v>
+        <v>1074.87611473413</v>
       </c>
       <c r="P16">
-        <v>63.5710353741713</v>
+        <v>75.07477637916389</v>
       </c>
     </row>
     <row r="17">
@@ -1226,49 +1226,49 @@
         </is>
       </c>
       <c r="B17">
-        <v>715.2088935156151</v>
+        <v>624.198797269003</v>
       </c>
       <c r="C17">
-        <v>35.4730244592795</v>
+        <v>22.5371032592128</v>
       </c>
       <c r="D17">
-        <v>4.95967760448892</v>
+        <v>1.72580608107268</v>
       </c>
       <c r="E17">
-        <v>19.5368097228733</v>
+        <v>14.191534773293</v>
       </c>
       <c r="F17">
-        <v>16.1373842563299</v>
+        <v>10.7399877548702</v>
       </c>
       <c r="G17">
-        <v>8.76063071732632</v>
+        <v>14.8127357076154</v>
       </c>
       <c r="H17">
-        <v>11.0180443935457</v>
+        <v>11.0174817453818</v>
       </c>
       <c r="I17">
-        <v>8.278835727279141</v>
+        <v>5.23384236656868</v>
       </c>
       <c r="J17">
-        <v>18.2356911456791</v>
+        <v>14.9156497764941</v>
       </c>
       <c r="K17">
-        <v>16.5850859552997</v>
+        <v>8.67991769536413</v>
       </c>
       <c r="L17">
-        <v>9.80157667370292</v>
+        <v>7.21926590412968</v>
       </c>
       <c r="M17">
-        <v>61.5900483614012</v>
+        <v>57.9843395291935</v>
       </c>
       <c r="N17">
-        <v>12.73494811039</v>
+        <v>6.47820456175227</v>
       </c>
       <c r="O17">
-        <v>836.341332293695</v>
+        <v>978.738699684252</v>
       </c>
       <c r="P17">
-        <v>51.5970783259446</v>
+        <v>41.7991014618687</v>
       </c>
     </row>
     <row r="18">
@@ -1278,49 +1278,49 @@
         </is>
       </c>
       <c r="B18">
-        <v>1406.04143316742</v>
+        <v>1282.30046316939</v>
       </c>
       <c r="C18">
-        <v>35.8668587925226</v>
+        <v>20.0992366127685</v>
       </c>
       <c r="D18">
-        <v>21.1032208862493</v>
+        <v>5.28823411483312</v>
       </c>
       <c r="E18">
-        <v>45.3436810444947</v>
+        <v>27.8604197027784</v>
       </c>
       <c r="F18">
-        <v>26.2358822059007</v>
+        <v>36.1591217592095</v>
       </c>
       <c r="G18">
-        <v>16.1513306603785</v>
+        <v>12.1827434477084</v>
       </c>
       <c r="H18">
-        <v>17.7915544683317</v>
+        <v>6.47787141855757</v>
       </c>
       <c r="I18">
-        <v>10.7050440344467</v>
+        <v>7.68236113678693</v>
       </c>
       <c r="J18">
-        <v>45.7736817518098</v>
+        <v>12.2076416698816</v>
       </c>
       <c r="K18">
-        <v>33.5572132607107</v>
+        <v>6.55772453842491</v>
       </c>
       <c r="L18">
-        <v>25.828632721598</v>
+        <v>18.361087463726</v>
       </c>
       <c r="M18">
-        <v>80.2135162865882</v>
+        <v>54.6976642634967</v>
       </c>
       <c r="N18">
-        <v>15.7458731287519</v>
+        <v>20.4425966472803</v>
       </c>
       <c r="O18">
-        <v>1113.48409396304</v>
+        <v>1365.14762254245</v>
       </c>
       <c r="P18">
-        <v>30.436190415763</v>
+        <v>49.0535951787426</v>
       </c>
     </row>
     <row r="19">
@@ -1330,49 +1330,49 @@
         </is>
       </c>
       <c r="B19">
-        <v>1321.61377155361</v>
+        <v>1301.75523632085</v>
       </c>
       <c r="C19">
-        <v>14.1529329108568</v>
+        <v>30.5366564973938</v>
       </c>
       <c r="D19">
-        <v>9.29981657605312</v>
+        <v>1.16359496350089</v>
       </c>
       <c r="E19">
-        <v>23.8588707927627</v>
+        <v>23.0299539658913</v>
       </c>
       <c r="F19">
-        <v>71.8675401133559</v>
+        <v>69.09071347306499</v>
       </c>
       <c r="G19">
-        <v>35.130319513966</v>
+        <v>29.0628863616276</v>
       </c>
       <c r="H19">
-        <v>2.91187544877997</v>
+        <v>4.22302856060057</v>
       </c>
       <c r="I19">
-        <v>7.14466385587859</v>
+        <v>7.17707937032721</v>
       </c>
       <c r="J19">
-        <v>26.6454710847724</v>
+        <v>20.6547682408797</v>
       </c>
       <c r="K19">
-        <v>11.6470062478473</v>
+        <v>4.84245761401831</v>
       </c>
       <c r="L19">
-        <v>5.30647105694234</v>
+        <v>3.66480419921946</v>
       </c>
       <c r="M19">
-        <v>21.8056379079251</v>
+        <v>8.89976618499874</v>
       </c>
       <c r="N19">
-        <v>10.6363774818116</v>
+        <v>9.46642505871119</v>
       </c>
       <c r="O19">
-        <v>1304.21531860507</v>
+        <v>1368.13885722111</v>
       </c>
       <c r="P19">
-        <v>23.0908308100354</v>
+        <v>24.5883115421182</v>
       </c>
     </row>
     <row r="20">
@@ -1382,49 +1382,49 @@
         </is>
       </c>
       <c r="B20">
-        <v>393.429178478807</v>
+        <v>371.761032577241</v>
       </c>
       <c r="C20">
-        <v>7.35227260502806</v>
+        <v>5.49863132325535</v>
       </c>
       <c r="D20">
-        <v>7.57064067948615</v>
+        <v>4.56475675949259</v>
       </c>
       <c r="E20">
-        <v>30.7964257129275</v>
+        <v>22.452072728774</v>
       </c>
       <c r="F20">
-        <v>0.441640839079111</v>
+        <v>0.649039052108526</v>
       </c>
       <c r="G20">
-        <v>1.61462055187835</v>
+        <v>3.01435889765025</v>
       </c>
       <c r="H20">
-        <v>1.82295868760459</v>
+        <v>1.30851050027723</v>
       </c>
       <c r="I20">
-        <v>1.66670508580991</v>
+        <v>2.2009366697271</v>
       </c>
       <c r="J20">
-        <v>6.27675496117568</v>
+        <v>5.60038616204313</v>
       </c>
       <c r="K20">
-        <v>4.06615130334625</v>
+        <v>0.736732149533147</v>
       </c>
       <c r="L20">
-        <v>6.46444227038397</v>
+        <v>4.85900032100617</v>
       </c>
       <c r="M20">
-        <v>15.2687510570131</v>
+        <v>10.7259778686057</v>
       </c>
       <c r="N20">
-        <v>6.01259522345081</v>
+        <v>5.34299698851455</v>
       </c>
       <c r="O20">
-        <v>431.655749877853</v>
+        <v>482.718285959646</v>
       </c>
       <c r="P20">
-        <v>17.7352185080945</v>
+        <v>15.7120010862373</v>
       </c>
     </row>
     <row r="21">
@@ -1434,49 +1434,49 @@
         </is>
       </c>
       <c r="B21">
-        <v>1454.70979275911</v>
+        <v>1439.48678292102</v>
       </c>
       <c r="C21">
-        <v>17.3280769004203</v>
+        <v>11.3125426350967</v>
       </c>
       <c r="D21">
-        <v>9.033716024694369</v>
+        <v>0.76494612749514</v>
       </c>
       <c r="E21">
-        <v>30.7389969216084</v>
+        <v>15.0355307211989</v>
       </c>
       <c r="F21">
-        <v>4.09721896062682</v>
+        <v>2.01415788030255</v>
       </c>
       <c r="G21">
-        <v>19.9258191131044</v>
+        <v>13.7955239424593</v>
       </c>
       <c r="H21">
-        <v>7.87704772007832</v>
+        <v>2.74853137267403</v>
       </c>
       <c r="I21">
-        <v>6.8026379137236</v>
+        <v>7.55756164503851</v>
       </c>
       <c r="J21">
-        <v>20.5244256501883</v>
+        <v>17.2751985155562</v>
       </c>
       <c r="K21">
-        <v>10.264108926757</v>
+        <v>3.17560911397976</v>
       </c>
       <c r="L21">
-        <v>25.6575317683483</v>
+        <v>17.0633399774076</v>
       </c>
       <c r="M21">
-        <v>21.7521658205848</v>
+        <v>15.0546787652046</v>
       </c>
       <c r="N21">
-        <v>18.5084764311605</v>
+        <v>15.6471473652067</v>
       </c>
       <c r="O21">
-        <v>1888.42950547532</v>
+        <v>1988.22104645266</v>
       </c>
       <c r="P21">
-        <v>14.9817204333426</v>
+        <v>15.1397102506166</v>
       </c>
     </row>
     <row r="22">
@@ -1486,49 +1486,49 @@
         </is>
       </c>
       <c r="B22">
-        <v>1688.95969596097</v>
+        <v>1656.91087257453</v>
       </c>
       <c r="C22">
-        <v>26.9851968441389</v>
+        <v>22.4739328504616</v>
       </c>
       <c r="D22">
-        <v>24.1253124295117</v>
+        <v>5.39670288786471</v>
       </c>
       <c r="E22">
-        <v>47.6115241913024</v>
+        <v>21.1966070414643</v>
       </c>
       <c r="F22">
-        <v>3.06994642756253</v>
+        <v>2.62670091964568</v>
       </c>
       <c r="G22">
-        <v>28.425678867193</v>
+        <v>21.6498875707015</v>
       </c>
       <c r="H22">
-        <v>20.5597107229782</v>
+        <v>9.91920536900752</v>
       </c>
       <c r="I22">
-        <v>9.667494719684081</v>
+        <v>1.74818160439937</v>
       </c>
       <c r="J22">
-        <v>41.9512544288854</v>
+        <v>24.8784560059064</v>
       </c>
       <c r="K22">
-        <v>24.2069734372534</v>
+        <v>3.5620884299044</v>
       </c>
       <c r="L22">
-        <v>110.016471617538</v>
+        <v>62.9828810963454</v>
       </c>
       <c r="M22">
-        <v>16.5854539080115</v>
+        <v>17.4773614491203</v>
       </c>
       <c r="N22">
-        <v>37.2214073863407</v>
+        <v>42.2880060663303</v>
       </c>
       <c r="O22">
-        <v>2232.21749757802</v>
+        <v>2399.46548880972</v>
       </c>
       <c r="P22">
-        <v>9.83511471883841</v>
+        <v>12.4220975997608</v>
       </c>
     </row>
     <row r="23">
@@ -1538,49 +1538,49 @@
         </is>
       </c>
       <c r="B23">
-        <v>3015.72727366453</v>
+        <v>2940.62026028114</v>
       </c>
       <c r="C23">
-        <v>36.4979907628334</v>
+        <v>36.4755565491394</v>
       </c>
       <c r="D23">
-        <v>8.828141372205179</v>
+        <v>4.58320390742343</v>
       </c>
       <c r="E23">
-        <v>60.8691717484657</v>
+        <v>36.7878175659615</v>
       </c>
       <c r="F23">
-        <v>14.573150013935</v>
+        <v>7.21159510497295</v>
       </c>
       <c r="G23">
-        <v>39.5115134820539</v>
+        <v>42.9521809655065</v>
       </c>
       <c r="H23">
-        <v>59.5426291516088</v>
+        <v>43.7430549390164</v>
       </c>
       <c r="I23">
-        <v>11.6132582901004</v>
+        <v>20.3622870511275</v>
       </c>
       <c r="J23">
-        <v>122.758780715592</v>
+        <v>68.9158642424138</v>
       </c>
       <c r="K23">
-        <v>93.4179067970516</v>
+        <v>67.92309427787259</v>
       </c>
       <c r="L23">
-        <v>34.6620515981329</v>
+        <v>37.6734644332232</v>
       </c>
       <c r="M23">
-        <v>414.888487952964</v>
+        <v>386.653367176863</v>
       </c>
       <c r="N23">
-        <v>68.7301984023354</v>
+        <v>74.3285627448266</v>
       </c>
       <c r="O23">
-        <v>2783.32914869376</v>
+        <v>2996.66883206583</v>
       </c>
       <c r="P23">
-        <v>37.5080035029512</v>
+        <v>47.1175611568964</v>
       </c>
     </row>
     <row r="24">
@@ -1590,49 +1590,49 @@
         </is>
       </c>
       <c r="B24">
-        <v>1222.78855379443</v>
+        <v>1129.81329492862</v>
       </c>
       <c r="C24">
-        <v>61.4689551435308</v>
+        <v>40.0970185952577</v>
       </c>
       <c r="D24">
-        <v>4.85517863570415</v>
+        <v>7.33716262327093</v>
       </c>
       <c r="E24">
-        <v>73.20560696000609</v>
+        <v>49.920296432366</v>
       </c>
       <c r="F24">
-        <v>8.55585702681017</v>
+        <v>6.29541379795197</v>
       </c>
       <c r="G24">
-        <v>15.6171631069279</v>
+        <v>22.1866821372094</v>
       </c>
       <c r="H24">
-        <v>18.3718356801777</v>
+        <v>15.8356049108676</v>
       </c>
       <c r="I24">
-        <v>12.8121824564799</v>
+        <v>10.7806287907145</v>
       </c>
       <c r="J24">
-        <v>60.6682721788244</v>
+        <v>28.740847722812</v>
       </c>
       <c r="K24">
-        <v>52.8066710193637</v>
+        <v>12.8448899367882</v>
       </c>
       <c r="L24">
-        <v>63.1748580459854</v>
+        <v>55.3131579768884</v>
       </c>
       <c r="M24">
-        <v>24.0426352154612</v>
+        <v>13.376002914762</v>
       </c>
       <c r="N24">
-        <v>50.1410729167094</v>
+        <v>59.6673149029325</v>
       </c>
       <c r="O24">
-        <v>1703.56702718268</v>
+        <v>1925.017506368</v>
       </c>
       <c r="P24">
-        <v>75.63474492172941</v>
+        <v>60.2578917067018</v>
       </c>
     </row>
     <row r="25">
@@ -1642,49 +1642,49 @@
         </is>
       </c>
       <c r="B25">
-        <v>939.628024644409</v>
+        <v>946.423293374121</v>
       </c>
       <c r="C25">
-        <v>27.6009683031312</v>
+        <v>19.7935903772316</v>
       </c>
       <c r="D25">
-        <v>17.8003694778146</v>
+        <v>10.4508136191615</v>
       </c>
       <c r="E25">
-        <v>29.7564059247648</v>
+        <v>35.6063290150821</v>
       </c>
       <c r="F25">
-        <v>6.1839769424993</v>
+        <v>19.8688822647215</v>
       </c>
       <c r="G25">
-        <v>9.89353717701222</v>
+        <v>7.06827123420099</v>
       </c>
       <c r="H25">
-        <v>8.26106942212331</v>
+        <v>4.71181561345383</v>
       </c>
       <c r="I25">
-        <v>5.97238834420366</v>
+        <v>0.995223012210182</v>
       </c>
       <c r="J25">
-        <v>15.2858707939512</v>
+        <v>8.201809430975541</v>
       </c>
       <c r="K25">
-        <v>14.967929727889</v>
+        <v>5.71496596914763</v>
       </c>
       <c r="L25">
-        <v>17.5439015803426</v>
+        <v>6.64869351087587</v>
       </c>
       <c r="M25">
-        <v>22.5911947506599</v>
+        <v>32.71273062815</v>
       </c>
       <c r="N25">
-        <v>43.0196708051957</v>
+        <v>41.3034003962942</v>
       </c>
       <c r="O25">
-        <v>724.28148625464</v>
+        <v>727.278095398487</v>
       </c>
       <c r="P25">
-        <v>22.8606438299031</v>
+        <v>43.4227795729296</v>
       </c>
     </row>
     <row r="26">
@@ -1694,49 +1694,49 @@
         </is>
       </c>
       <c r="B26">
-        <v>1682.52567728754</v>
+        <v>1527.31960938236</v>
       </c>
       <c r="C26">
-        <v>51.1034042711038</v>
+        <v>40.9485500810474</v>
       </c>
       <c r="D26">
-        <v>21.1377009568722</v>
+        <v>3.84895309444844</v>
       </c>
       <c r="E26">
-        <v>58.2836713059625</v>
+        <v>49.5087861848174</v>
       </c>
       <c r="F26">
-        <v>12.0570604165359</v>
+        <v>8.594126993524339</v>
       </c>
       <c r="G26">
-        <v>20.7653536119407</v>
+        <v>26.1271478596156</v>
       </c>
       <c r="H26">
-        <v>19.7844180866689</v>
+        <v>10.9180597993233</v>
       </c>
       <c r="I26">
-        <v>14.5494623280894</v>
+        <v>18.6931083965737</v>
       </c>
       <c r="J26">
-        <v>60.4668614997457</v>
+        <v>32.9861860229608</v>
       </c>
       <c r="K26">
-        <v>35.9017550860545</v>
+        <v>14.8345903819332</v>
       </c>
       <c r="L26">
-        <v>36.8475552992871</v>
+        <v>27.5080234325015</v>
       </c>
       <c r="M26">
-        <v>63.4056171693503</v>
+        <v>42.5241421821469</v>
       </c>
       <c r="N26">
-        <v>40.1596863997394</v>
+        <v>32.6244362181298</v>
       </c>
       <c r="O26">
-        <v>1781.11633321768</v>
+        <v>2066.35531322303</v>
       </c>
       <c r="P26">
-        <v>55.1157124235622</v>
+        <v>36.5896158636339</v>
       </c>
     </row>
     <row r="27">
@@ -1746,49 +1746,49 @@
         </is>
       </c>
       <c r="B27">
-        <v>271.816321677314</v>
+        <v>253.148861256601</v>
       </c>
       <c r="C27">
-        <v>2.76889464311487</v>
+        <v>2.61540498585236</v>
       </c>
       <c r="D27">
-        <v>1.107301677398</v>
+        <v>0.383806274855895</v>
       </c>
       <c r="E27">
-        <v>7.53346753783714</v>
+        <v>6.46145005131075</v>
       </c>
       <c r="F27">
-        <v>5.54232046721132</v>
+        <v>4.79085101692333</v>
       </c>
       <c r="G27">
-        <v>0.810220739559513</v>
+        <v>0.670622472899432</v>
       </c>
       <c r="H27">
-        <v>0.324088295823806</v>
+        <v>0.07487806640472131</v>
       </c>
       <c r="I27">
-        <v>1.35507761708486</v>
+        <v>1.10178602424095</v>
       </c>
       <c r="J27">
-        <v>2.74439796888487</v>
+        <v>2.33135226956649</v>
       </c>
       <c r="K27">
-        <v>1.107301677398</v>
+        <v>0.461466991883986</v>
       </c>
       <c r="L27">
-        <v>1.22639141396086</v>
+        <v>0.956926768812391</v>
       </c>
       <c r="M27">
-        <v>0.891242813515466</v>
+        <v>0.260384940161079</v>
       </c>
       <c r="N27">
-        <v>3.70440659091568</v>
+        <v>2.63290401120736</v>
       </c>
       <c r="O27">
-        <v>315.452729110052</v>
+        <v>339.216697658538</v>
       </c>
       <c r="P27">
-        <v>29.7031176933143</v>
+        <v>36.7212273297304</v>
       </c>
     </row>
     <row r="28">
@@ -1798,49 +1798,49 @@
         </is>
       </c>
       <c r="B28">
-        <v>429.043928669779</v>
+        <v>387.481875606228</v>
       </c>
       <c r="C28">
-        <v>30.6379509969074</v>
+        <v>29.3448119876878</v>
       </c>
       <c r="D28">
-        <v>1.98584174192318</v>
+        <v>1.05971239678069</v>
       </c>
       <c r="E28">
-        <v>8.793971729717439</v>
+        <v>2.55309181822889</v>
       </c>
       <c r="F28">
-        <v>1.55289119596549</v>
+        <v>0.0322503660741502</v>
       </c>
       <c r="G28">
-        <v>4.49577406644599</v>
+        <v>4.03048527533729</v>
       </c>
       <c r="H28">
-        <v>5.94039358765182</v>
+        <v>5.45334575665947</v>
       </c>
       <c r="I28">
-        <v>3.77059457374088</v>
+        <v>4.05943180983489</v>
       </c>
       <c r="J28">
-        <v>11.7131151938374</v>
+        <v>15.4076610033069</v>
       </c>
       <c r="K28">
-        <v>13.9106485984192</v>
+        <v>10.5483087987878</v>
       </c>
       <c r="L28">
-        <v>9.5079616485882</v>
+        <v>9.8832035326419</v>
       </c>
       <c r="M28">
-        <v>11.1435376857152</v>
+        <v>7.94626968680343</v>
       </c>
       <c r="N28">
-        <v>10.0919739754409</v>
+        <v>8.23917567253023</v>
       </c>
       <c r="O28">
-        <v>583.4170170153531</v>
+        <v>645.940409730768</v>
       </c>
       <c r="P28">
-        <v>66.8537448396425</v>
+        <v>56.979272641146</v>
       </c>
     </row>
     <row r="29">
@@ -1850,49 +1850,49 @@
         </is>
       </c>
       <c r="B29">
-        <v>608.694668427771</v>
+        <v>597.851627172922</v>
       </c>
       <c r="C29">
-        <v>4.6492792776289</v>
+        <v>1.88581882226888</v>
       </c>
       <c r="D29">
-        <v>1.58079138934806</v>
+        <v>2.59614501589277</v>
       </c>
       <c r="E29">
-        <v>7.1001647148684</v>
+        <v>4.72809194812928</v>
       </c>
       <c r="F29">
-        <v>17.9099284247382</v>
+        <v>20.3723243064516</v>
       </c>
       <c r="G29">
-        <v>2.31037111224568</v>
+        <v>2.38216139034296</v>
       </c>
       <c r="H29">
-        <v>2.89365203473882</v>
+        <v>0.589716970830285</v>
       </c>
       <c r="I29">
-        <v>2.86120730156892</v>
+        <v>1.17090364815992</v>
       </c>
       <c r="J29">
-        <v>7.72403376658974</v>
+        <v>2.87678790468752</v>
       </c>
       <c r="K29">
-        <v>2.22728047683361</v>
+        <v>2.93979915760575</v>
       </c>
       <c r="L29">
-        <v>6.14524242995109</v>
+        <v>1.90880468140578</v>
       </c>
       <c r="M29">
-        <v>3.02079733147949</v>
+        <v>3.56940440878478</v>
       </c>
       <c r="N29">
-        <v>11.1464522774503</v>
+        <v>8.87245143580064</v>
       </c>
       <c r="O29">
-        <v>888.0105120106221</v>
+        <v>927.592668025107</v>
       </c>
       <c r="P29">
-        <v>4.25773151911964</v>
+        <v>3.02678020991615</v>
       </c>
     </row>
     <row r="30">
@@ -1902,49 +1902,49 @@
         </is>
       </c>
       <c r="B30">
-        <v>326.760172362828</v>
+        <v>281.907427328712</v>
       </c>
       <c r="C30">
-        <v>3.46517581402632</v>
+        <v>4.18664482884292</v>
       </c>
       <c r="D30">
-        <v>4.68840770581897</v>
+        <v>3.21169885320693</v>
       </c>
       <c r="E30">
-        <v>11.2110120631392</v>
+        <v>6.97499927830513</v>
       </c>
       <c r="F30">
-        <v>0.837226152521261</v>
+        <v>0.260268369333248</v>
       </c>
       <c r="G30">
-        <v>3.0289408921148</v>
+        <v>5.44800585180034</v>
       </c>
       <c r="H30">
-        <v>4.56527280902476</v>
+        <v>1.99442199223819</v>
       </c>
       <c r="I30">
-        <v>2.50760525764994</v>
+        <v>1.57352102509781</v>
       </c>
       <c r="J30">
-        <v>18.4932795251044</v>
+        <v>14.536439902384</v>
       </c>
       <c r="K30">
-        <v>9.220650122983139</v>
+        <v>3.53346735791069</v>
       </c>
       <c r="L30">
-        <v>21.6347420971675</v>
+        <v>31.1408347733768</v>
       </c>
       <c r="M30">
-        <v>6.06156844088141</v>
+        <v>6.34820290832776</v>
       </c>
       <c r="N30">
-        <v>11.7043343233171</v>
+        <v>12.9695870661455</v>
       </c>
       <c r="O30">
-        <v>436.921912169387</v>
+        <v>482.003537642572</v>
       </c>
       <c r="P30">
-        <v>3.53577504949415</v>
+        <v>3.3790166871861</v>
       </c>
     </row>
     <row r="31">
@@ -1954,49 +1954,49 @@
         </is>
       </c>
       <c r="B31">
-        <v>2496.91722934139</v>
+        <v>2295.46208009967</v>
       </c>
       <c r="C31">
-        <v>38.3498240570733</v>
+        <v>41.6075674247448</v>
       </c>
       <c r="D31">
-        <v>25.7370069923305</v>
+        <v>3.32941053147479</v>
       </c>
       <c r="E31">
-        <v>57.2654628999514</v>
+        <v>23.4478923858213</v>
       </c>
       <c r="F31">
-        <v>11.5484120018426</v>
+        <v>3.9639807788017</v>
       </c>
       <c r="G31">
-        <v>100.642546292378</v>
+        <v>103.84327041164</v>
       </c>
       <c r="H31">
-        <v>22.2556093732158</v>
+        <v>6.90998049357632</v>
       </c>
       <c r="I31">
-        <v>16.2446863045078</v>
+        <v>8.55659079261002</v>
       </c>
       <c r="J31">
-        <v>30.3091853745164</v>
+        <v>21.0985669806411</v>
       </c>
       <c r="K31">
-        <v>20.247173775569</v>
+        <v>5.70678020315075</v>
       </c>
       <c r="L31">
-        <v>56.1606441136019</v>
+        <v>43.6108481803398</v>
       </c>
       <c r="M31">
-        <v>19.1436318087112</v>
+        <v>15.1569592198049</v>
       </c>
       <c r="N31">
-        <v>42.3686932445132</v>
+        <v>52.4920148814718</v>
       </c>
       <c r="O31">
-        <v>2686.74986612133</v>
+        <v>3007.0989100508</v>
       </c>
       <c r="P31">
-        <v>13.9957460446814</v>
+        <v>15.5065293402566</v>
       </c>
     </row>
     <row r="32">
@@ -2006,49 +2006,49 @@
         </is>
       </c>
       <c r="B32">
-        <v>604.408852712361</v>
+        <v>579.57098482701</v>
       </c>
       <c r="C32">
-        <v>6.06971545256243</v>
+        <v>1.99110825490799</v>
       </c>
       <c r="D32">
-        <v>1.40076442796494</v>
+        <v>1.14197904517455</v>
       </c>
       <c r="E32">
-        <v>5.16814563722837</v>
+        <v>2.03973336377435</v>
       </c>
       <c r="F32">
-        <v>19.7737988118003</v>
+        <v>19.2886828915213</v>
       </c>
       <c r="G32">
-        <v>1.88674392338135</v>
+        <v>3.20147474724328</v>
       </c>
       <c r="H32">
-        <v>0.320826389464871</v>
+        <v>0.223663484524189</v>
       </c>
       <c r="I32">
-        <v>3.35607895550181</v>
+        <v>1.29357013933165</v>
       </c>
       <c r="J32">
-        <v>4.28805437132124</v>
+        <v>3.96471129080978</v>
       </c>
       <c r="K32">
-        <v>2.02967906909206</v>
+        <v>0.8137710805956721</v>
       </c>
       <c r="L32">
-        <v>12.2974379799052</v>
+        <v>4.23490957247832</v>
       </c>
       <c r="M32">
-        <v>5.02905627751131</v>
+        <v>6.75262009326466</v>
       </c>
       <c r="N32">
-        <v>8.93369585016746</v>
+        <v>11.0868134418858</v>
       </c>
       <c r="O32">
-        <v>583.04998959647</v>
+        <v>628.429828063949</v>
       </c>
       <c r="P32">
-        <v>15.0380534675306</v>
+        <v>14.8120165483586</v>
       </c>
     </row>
     <row r="33">
@@ -2058,49 +2058,49 @@
         </is>
       </c>
       <c r="B33">
-        <v>5695.53718490253</v>
+        <v>5724.56955227594</v>
       </c>
       <c r="C33">
-        <v>65.46901931349829</v>
+        <v>58.687128619828</v>
       </c>
       <c r="D33">
-        <v>86.21290268664529</v>
+        <v>4.83834867813963</v>
       </c>
       <c r="E33">
-        <v>88.9695275925404</v>
+        <v>51.9337135450959</v>
       </c>
       <c r="F33">
-        <v>7.47005244521183</v>
+        <v>8.29014350395425</v>
       </c>
       <c r="G33">
-        <v>64.7213308525143</v>
+        <v>46.9332005415267</v>
       </c>
       <c r="H33">
-        <v>23.3721875804707</v>
+        <v>22.3053981852033</v>
       </c>
       <c r="I33">
-        <v>26.3977627882616</v>
+        <v>16.6142284891335</v>
       </c>
       <c r="J33">
-        <v>79.6900219852738</v>
+        <v>58.9150489197755</v>
       </c>
       <c r="K33">
-        <v>85.2248869523642</v>
+        <v>34.5156271047547</v>
       </c>
       <c r="L33">
-        <v>93.13631248839521</v>
+        <v>72.1843101335289</v>
       </c>
       <c r="M33">
-        <v>62.9162546798947</v>
+        <v>33.9867189216303</v>
       </c>
       <c r="N33">
-        <v>81.946706550393</v>
+        <v>95.2189255550574</v>
       </c>
       <c r="O33">
-        <v>6113.22651262422</v>
+        <v>6351.57930164387</v>
       </c>
       <c r="P33">
-        <v>64.5728563740512</v>
+        <v>57.6599697722854</v>
       </c>
     </row>
     <row r="34">
@@ -2110,49 +2110,49 @@
         </is>
       </c>
       <c r="B34">
-        <v>2541.18344371325</v>
+        <v>2486.98230066281</v>
       </c>
       <c r="C34">
-        <v>52.4030845228738</v>
+        <v>49.8091872523452</v>
       </c>
       <c r="D34">
-        <v>121.21704145649</v>
+        <v>38.9129903969411</v>
       </c>
       <c r="E34">
-        <v>80.873662389435</v>
+        <v>39.4487469046228</v>
       </c>
       <c r="F34">
-        <v>6.67895516984937</v>
+        <v>1.91587638195246</v>
       </c>
       <c r="G34">
-        <v>50.9256947347571</v>
+        <v>42.2825532147816</v>
       </c>
       <c r="H34">
-        <v>33.7548603210255</v>
+        <v>23.968494476051</v>
       </c>
       <c r="I34">
-        <v>18.8038441319952</v>
+        <v>11.4502720946873</v>
       </c>
       <c r="J34">
-        <v>52.9775166842624</v>
+        <v>33.7335848414826</v>
       </c>
       <c r="K34">
-        <v>31.986958363202</v>
+        <v>9.37292482178931</v>
       </c>
       <c r="L34">
-        <v>70.1148559294104</v>
+        <v>69.7030500422651</v>
       </c>
       <c r="M34">
-        <v>50.1462683130683</v>
+        <v>37.6712775123565</v>
       </c>
       <c r="N34">
-        <v>113.277158582136</v>
+        <v>97.55426662347109</v>
       </c>
       <c r="O34">
-        <v>2717.42206922528</v>
+        <v>2962.22857751705</v>
       </c>
       <c r="P34">
-        <v>39.9027422277108</v>
+        <v>51.2906698449073</v>
       </c>
     </row>
     <row r="35">
@@ -2162,49 +2162,49 @@
         </is>
       </c>
       <c r="B35">
-        <v>171.892840603129</v>
+        <v>142.280706883058</v>
       </c>
       <c r="C35">
-        <v>5.84411150847924</v>
+        <v>5.5169474877459</v>
       </c>
       <c r="D35">
-        <v>0.344662513262311</v>
+        <v>0.474180337493798</v>
       </c>
       <c r="E35">
-        <v>2.0571852100803</v>
+        <v>2.78000595122095</v>
       </c>
       <c r="F35">
-        <v>6.80298280512944</v>
+        <v>2.8067784637324</v>
       </c>
       <c r="G35">
-        <v>0.410513600816592</v>
+        <v>0.722161648427198</v>
       </c>
       <c r="H35">
-        <v>0.345408207304149</v>
+        <v>0.936398888988157</v>
       </c>
       <c r="I35">
-        <v>0.940012088861142</v>
+        <v>1.16006084744225</v>
       </c>
       <c r="J35">
-        <v>2.34779691704521</v>
+        <v>1.82236769866259</v>
       </c>
       <c r="K35">
-        <v>6.23519622900778</v>
+        <v>2.5949150578722</v>
       </c>
       <c r="L35">
-        <v>1.68756840629302</v>
+        <v>2.49378859296906</v>
       </c>
       <c r="M35">
-        <v>2.3264719645206</v>
+        <v>3.51995668902254</v>
       </c>
       <c r="N35">
-        <v>2.2068623607745</v>
+        <v>3.28578256925963</v>
       </c>
       <c r="O35">
-        <v>213.670456752565</v>
+        <v>242.519509282284</v>
       </c>
       <c r="P35">
-        <v>30.5966623508913</v>
+        <v>34.7876667773318</v>
       </c>
     </row>
     <row r="36">
@@ -2214,49 +2214,49 @@
         </is>
       </c>
       <c r="B36">
-        <v>3358.03689473089</v>
+        <v>3216.22113492105</v>
       </c>
       <c r="C36">
-        <v>73.8726505070542</v>
+        <v>76.47971569225059</v>
       </c>
       <c r="D36">
-        <v>23.302223345857</v>
+        <v>6.08123742832823</v>
       </c>
       <c r="E36">
-        <v>100.321201152758</v>
+        <v>110.224344979982</v>
       </c>
       <c r="F36">
-        <v>18.2167145583124</v>
+        <v>15.713499106162</v>
       </c>
       <c r="G36">
-        <v>68.1555754637556</v>
+        <v>75.1517683421164</v>
       </c>
       <c r="H36">
-        <v>96.078729159666</v>
+        <v>63.0579635168603</v>
       </c>
       <c r="I36">
-        <v>41.6974245237768</v>
+        <v>26.4632323786099</v>
       </c>
       <c r="J36">
-        <v>214.980625422582</v>
+        <v>178.691568886176</v>
       </c>
       <c r="K36">
-        <v>136.874090298046</v>
+        <v>48.3992476140951</v>
       </c>
       <c r="L36">
-        <v>79.63877226332861</v>
+        <v>51.0953091526881</v>
       </c>
       <c r="M36">
-        <v>199.20493110913</v>
+        <v>142.197869198475</v>
       </c>
       <c r="N36">
-        <v>84.3585188478495</v>
+        <v>103.500355397167</v>
       </c>
       <c r="O36">
-        <v>3399.93961746134</v>
+        <v>3736.68059143884</v>
       </c>
       <c r="P36">
-        <v>40.6799372718493</v>
+        <v>60.9703240699734</v>
       </c>
     </row>
     <row r="37">
@@ -2266,49 +2266,49 @@
         </is>
       </c>
       <c r="B37">
-        <v>1088.54455477414</v>
+        <v>1081.10235973639</v>
       </c>
       <c r="C37">
-        <v>24.6698462252628</v>
+        <v>11.6558967697842</v>
       </c>
       <c r="D37">
-        <v>8.25304535995118</v>
+        <v>2.36250490727634</v>
       </c>
       <c r="E37">
-        <v>14.9871936947012</v>
+        <v>16.4151911671104</v>
       </c>
       <c r="F37">
-        <v>43.7593889597584</v>
+        <v>40.8361833735818</v>
       </c>
       <c r="G37">
-        <v>7.08053010914616</v>
+        <v>4.3885163838344</v>
       </c>
       <c r="H37">
-        <v>14.4723513902145</v>
+        <v>21.1475344275233</v>
       </c>
       <c r="I37">
-        <v>10.0862854908322</v>
+        <v>8.043854618939299</v>
       </c>
       <c r="J37">
-        <v>32.8037503208135</v>
+        <v>31.6996456242171</v>
       </c>
       <c r="K37">
-        <v>27.8779081356558</v>
+        <v>6.07716012631938</v>
       </c>
       <c r="L37">
-        <v>18.9499493037571</v>
+        <v>16.2946156909795</v>
       </c>
       <c r="M37">
-        <v>26.5461541751293</v>
+        <v>20.1636896305338</v>
       </c>
       <c r="N37">
-        <v>13.8052945087138</v>
+        <v>18.1110998703281</v>
       </c>
       <c r="O37">
-        <v>1084.69876971977</v>
+        <v>1120.81871869087</v>
       </c>
       <c r="P37">
-        <v>32.1711394271461</v>
+        <v>47.3749827650665</v>
       </c>
     </row>
     <row r="38">
@@ -2318,49 +2318,49 @@
         </is>
       </c>
       <c r="B38">
-        <v>1089.36946338936</v>
+        <v>1076.71788303173</v>
       </c>
       <c r="C38">
-        <v>19.2603401458428</v>
+        <v>20.181571199801</v>
       </c>
       <c r="D38">
-        <v>8.89855111005369</v>
+        <v>3.45765192666822</v>
       </c>
       <c r="E38">
-        <v>71.3088263521142</v>
+        <v>40.5745167053701</v>
       </c>
       <c r="F38">
-        <v>2.68417554463012</v>
+        <v>0.352597148132749</v>
       </c>
       <c r="G38">
-        <v>5.63084005130695</v>
+        <v>9.073439316634421</v>
       </c>
       <c r="H38">
-        <v>5.13104843452247</v>
+        <v>1.060295428604</v>
       </c>
       <c r="I38">
-        <v>5.52311329415062</v>
+        <v>3.97500993173062</v>
       </c>
       <c r="J38">
-        <v>30.6134317295801</v>
+        <v>22.4907576344816</v>
       </c>
       <c r="K38">
-        <v>13.7085948715668</v>
+        <v>2.50541883771047</v>
       </c>
       <c r="L38">
-        <v>65.6910641226374</v>
+        <v>84.27554552012531</v>
       </c>
       <c r="M38">
-        <v>18.1102259192254</v>
+        <v>17.2887545820272</v>
       </c>
       <c r="N38">
-        <v>26.6232639674913</v>
+        <v>45.111129496704</v>
       </c>
       <c r="O38">
-        <v>1185.90497423106</v>
+        <v>1239.56611476724</v>
       </c>
       <c r="P38">
-        <v>56.4167336874701</v>
+        <v>42.8354937577218</v>
       </c>
     </row>
     <row r="39">
@@ -2370,49 +2370,49 @@
         </is>
       </c>
       <c r="B39">
-        <v>4010.45834564234</v>
+        <v>3545.52477518021</v>
       </c>
       <c r="C39">
-        <v>85.2824785290763</v>
+        <v>79.32557700657971</v>
       </c>
       <c r="D39">
-        <v>46.2304837316667</v>
+        <v>24.4582282113564</v>
       </c>
       <c r="E39">
-        <v>123.625403719589</v>
+        <v>97.3655707846283</v>
       </c>
       <c r="F39">
-        <v>33.8712770487553</v>
+        <v>29.5106005855449</v>
       </c>
       <c r="G39">
-        <v>88.0188854729533</v>
+        <v>94.1564754879537</v>
       </c>
       <c r="H39">
-        <v>48.9923071805011</v>
+        <v>39.8729087849505</v>
       </c>
       <c r="I39">
-        <v>45.6739018796368</v>
+        <v>17.4660020759642</v>
       </c>
       <c r="J39">
-        <v>203.63873137311</v>
+        <v>141.786340856664</v>
       </c>
       <c r="K39">
-        <v>64.19609447972179</v>
+        <v>29.3905338685063</v>
       </c>
       <c r="L39">
-        <v>82.06613773605839</v>
+        <v>97.9211087726128</v>
       </c>
       <c r="M39">
-        <v>60.2264988050017</v>
+        <v>50.6493897457756</v>
       </c>
       <c r="N39">
-        <v>85.3186023067523</v>
+        <v>102.992515378475</v>
       </c>
       <c r="O39">
-        <v>3776.99235407721</v>
+        <v>4365.49507611622</v>
       </c>
       <c r="P39">
-        <v>54.9819699311773</v>
+        <v>71.4678840829708</v>
       </c>
     </row>
     <row r="40">
@@ -2422,49 +2422,49 @@
         </is>
       </c>
       <c r="B40">
-        <v>322.390902633825</v>
+        <v>282.293767273087</v>
       </c>
       <c r="C40">
-        <v>2.79345872376755</v>
+        <v>2.21557794847214</v>
       </c>
       <c r="D40">
-        <v>5.73262795844727</v>
+        <v>5.50466526818738</v>
       </c>
       <c r="E40">
-        <v>5.20139081397234</v>
+        <v>3.24263779870895</v>
       </c>
       <c r="F40">
-        <v>0.45942338257811</v>
+        <v>0.336162737251909</v>
       </c>
       <c r="G40">
-        <v>3.68085996786563</v>
+        <v>4.43652836937122</v>
       </c>
       <c r="H40">
-        <v>3.55065018069975</v>
+        <v>3.66356388978687</v>
       </c>
       <c r="I40">
-        <v>0.7327401700081651</v>
+        <v>2.39770183934687</v>
       </c>
       <c r="J40">
-        <v>9.048601305303009</v>
+        <v>8.56266985096662</v>
       </c>
       <c r="K40">
-        <v>3.47883448704542</v>
+        <v>1.49340278915726</v>
       </c>
       <c r="L40">
-        <v>7.26340745671141</v>
+        <v>7.7541831361039</v>
       </c>
       <c r="M40">
-        <v>4.43636369201476</v>
+        <v>4.75183926840344</v>
       </c>
       <c r="N40">
-        <v>16.649092371889</v>
+        <v>16.3217231289887</v>
       </c>
       <c r="O40">
-        <v>332.453131930393</v>
+        <v>376.14372303666</v>
       </c>
       <c r="P40">
-        <v>1.96652740987475</v>
+        <v>4.06238317106674</v>
       </c>
     </row>
     <row r="41">
@@ -2474,49 +2474,49 @@
         </is>
       </c>
       <c r="B41">
-        <v>1345.35269050817</v>
+        <v>1377.47326410069</v>
       </c>
       <c r="C41">
-        <v>19.9642870616338</v>
+        <v>17.2035196084533</v>
       </c>
       <c r="D41">
-        <v>68.879390153152</v>
+        <v>33.8015511339349</v>
       </c>
       <c r="E41">
-        <v>39.7429851579472</v>
+        <v>21.4325604996949</v>
       </c>
       <c r="F41">
-        <v>3.27234483048891</v>
+        <v>1.28925294414452</v>
       </c>
       <c r="G41">
-        <v>22.5513053401221</v>
+        <v>21.6105870719698</v>
       </c>
       <c r="H41">
-        <v>27.2780124740811</v>
+        <v>17.0183912688878</v>
       </c>
       <c r="I41">
-        <v>11.8926284305886</v>
+        <v>10.3549476582568</v>
       </c>
       <c r="J41">
-        <v>34.7681674911054</v>
+        <v>36.9277018371521</v>
       </c>
       <c r="K41">
-        <v>23.5925784857274</v>
+        <v>7.36739691340684</v>
       </c>
       <c r="L41">
-        <v>25.4219521789414</v>
+        <v>24.085178713339</v>
       </c>
       <c r="M41">
-        <v>35.7967436082952</v>
+        <v>25.4691028237048</v>
       </c>
       <c r="N41">
-        <v>22.4743285145854</v>
+        <v>20.1444728260792</v>
       </c>
       <c r="O41">
-        <v>1272.74655539874</v>
+        <v>1338.16464524211</v>
       </c>
       <c r="P41">
-        <v>19.0967883479259</v>
+        <v>18.0550862330204</v>
       </c>
     </row>
     <row r="42">
@@ -2526,49 +2526,49 @@
         </is>
       </c>
       <c r="B42">
-        <v>198.406994941327</v>
+        <v>157.400033874571</v>
       </c>
       <c r="C42">
-        <v>6.589448547285</v>
+        <v>5.69268649970342</v>
       </c>
       <c r="D42">
-        <v>0.967983933028659</v>
+        <v>1.37003262788005</v>
       </c>
       <c r="E42">
-        <v>4.65154202681854</v>
+        <v>3.48300417611659</v>
       </c>
       <c r="F42">
-        <v>1.39570169468084</v>
+        <v>2.12433562783457</v>
       </c>
       <c r="G42">
-        <v>0.82823060670308</v>
+        <v>1.30181790850485</v>
       </c>
       <c r="H42">
-        <v>1.39556777418954</v>
+        <v>1.73462386619256</v>
       </c>
       <c r="I42">
-        <v>1.25824389369339</v>
+        <v>1.86993287212615</v>
       </c>
       <c r="J42">
-        <v>2.94957339802299</v>
+        <v>4.47483163024275</v>
       </c>
       <c r="K42">
-        <v>7.24203526338467</v>
+        <v>2.9991405769126</v>
       </c>
       <c r="L42">
-        <v>5.63638266348265</v>
+        <v>3.86257137711035</v>
       </c>
       <c r="M42">
-        <v>2.45513442645272</v>
+        <v>2.11111371740068</v>
       </c>
       <c r="N42">
-        <v>6.98714007774285</v>
+        <v>7.6312634354007</v>
       </c>
       <c r="O42">
-        <v>234.58011815465</v>
+        <v>266.033314333237</v>
       </c>
       <c r="P42">
-        <v>35.3280117152067</v>
+        <v>43.9119849833752</v>
       </c>
     </row>
     <row r="43">
@@ -2578,49 +2578,49 @@
         </is>
       </c>
       <c r="B43">
-        <v>1811.46314547865</v>
+        <v>1864.46552945275</v>
       </c>
       <c r="C43">
-        <v>38.5079291549607</v>
+        <v>32.3276357061023</v>
       </c>
       <c r="D43">
-        <v>39.1379158770853</v>
+        <v>16.0312004003623</v>
       </c>
       <c r="E43">
-        <v>62.4376641539953</v>
+        <v>58.7374661952012</v>
       </c>
       <c r="F43">
-        <v>7.16475931394262</v>
+        <v>9.611802618269669</v>
       </c>
       <c r="G43">
-        <v>25.9672031095252</v>
+        <v>30.7747262793354</v>
       </c>
       <c r="H43">
-        <v>35.7036259268206</v>
+        <v>35.9508212761136</v>
       </c>
       <c r="I43">
-        <v>13.9472591860598</v>
+        <v>2.77720240969954</v>
       </c>
       <c r="J43">
-        <v>58.6660887344712</v>
+        <v>49.0462002941736</v>
       </c>
       <c r="K43">
-        <v>47.9853884290991</v>
+        <v>4.33846120849513</v>
       </c>
       <c r="L43">
-        <v>42.0487457260516</v>
+        <v>33.0505163415622</v>
       </c>
       <c r="M43">
-        <v>100.096367540563</v>
+        <v>72.4241397040973</v>
       </c>
       <c r="N43">
-        <v>62.671997574898</v>
+        <v>50.7459647677299</v>
       </c>
       <c r="O43">
-        <v>1857.6071426277</v>
+        <v>1933.63049618518</v>
       </c>
       <c r="P43">
-        <v>22.9788767072653</v>
+        <v>34.9501425843448</v>
       </c>
     </row>
     <row r="44">
@@ -2630,49 +2630,49 @@
         </is>
       </c>
       <c r="B44">
-        <v>6191.64882591522</v>
+        <v>5755.19029953001</v>
       </c>
       <c r="C44">
-        <v>100.952800963374</v>
+        <v>121.575753848218</v>
       </c>
       <c r="D44">
-        <v>34.3109693081709</v>
+        <v>14.6816977341665</v>
       </c>
       <c r="E44">
-        <v>90.3302519412798</v>
+        <v>64.38154646155741</v>
       </c>
       <c r="F44">
-        <v>239.086556385064</v>
+        <v>244.733251566488</v>
       </c>
       <c r="G44">
-        <v>94.2482009397923</v>
+        <v>117.913488422551</v>
       </c>
       <c r="H44">
-        <v>51.1971828353657</v>
+        <v>24.1036589947408</v>
       </c>
       <c r="I44">
-        <v>38.5745175674222</v>
+        <v>43.4403882625467</v>
       </c>
       <c r="J44">
-        <v>151.448865081569</v>
+        <v>102.986761328696</v>
       </c>
       <c r="K44">
-        <v>111.82222216581</v>
+        <v>23.100603025979</v>
       </c>
       <c r="L44">
-        <v>178.815548931405</v>
+        <v>160.691518545687</v>
       </c>
       <c r="M44">
-        <v>109.510289985858</v>
+        <v>83.08795539670891</v>
       </c>
       <c r="N44">
-        <v>98.4608266658426</v>
+        <v>93.56605558974709</v>
       </c>
       <c r="O44">
-        <v>7137.78468289611</v>
+        <v>7683.56308167008</v>
       </c>
       <c r="P44">
-        <v>99.975846077173</v>
+        <v>149.125432561684</v>
       </c>
     </row>
     <row r="45">
@@ -2682,49 +2682,49 @@
         </is>
       </c>
       <c r="B45">
-        <v>565.706063469353</v>
+        <v>492.210076319566</v>
       </c>
       <c r="C45">
-        <v>13.2756680703697</v>
+        <v>14.6386658017863</v>
       </c>
       <c r="D45">
-        <v>3.13188918275531</v>
+        <v>1.28959184382836</v>
       </c>
       <c r="E45">
-        <v>13.5171229174214</v>
+        <v>7.26624261435099</v>
       </c>
       <c r="F45">
-        <v>10.8325769688897</v>
+        <v>22.7932815287515</v>
       </c>
       <c r="G45">
-        <v>9.20763351095089</v>
+        <v>7.02861565682602</v>
       </c>
       <c r="H45">
-        <v>2.78801925233129</v>
+        <v>1.13567280445375</v>
       </c>
       <c r="I45">
-        <v>5.03932405045587</v>
+        <v>2.67202896102204</v>
       </c>
       <c r="J45">
-        <v>17.3147152808702</v>
+        <v>20.9969766837023</v>
       </c>
       <c r="K45">
-        <v>6.06151545286957</v>
+        <v>2.17320858133537</v>
       </c>
       <c r="L45">
-        <v>15.3521549495567</v>
+        <v>14.051726634945</v>
       </c>
       <c r="M45">
-        <v>20.7382421200542</v>
+        <v>13.6124365463718</v>
       </c>
       <c r="N45">
-        <v>30.8272011503915</v>
+        <v>29.158206502354</v>
       </c>
       <c r="O45">
-        <v>802.655698802359</v>
+        <v>869.825746998351</v>
       </c>
       <c r="P45">
-        <v>7.0584369300035</v>
+        <v>11.5391582897483</v>
       </c>
     </row>
     <row r="46">
@@ -2734,49 +2734,49 @@
         </is>
       </c>
       <c r="B46">
-        <v>156.294673063082</v>
+        <v>136.629862449552</v>
       </c>
       <c r="C46">
-        <v>3.8160903677102</v>
+        <v>3.04706970558669</v>
       </c>
       <c r="D46">
-        <v>1.9519589157184</v>
+        <v>0.637308424565697</v>
       </c>
       <c r="E46">
-        <v>7.99823580106039</v>
+        <v>3.85432244924475</v>
       </c>
       <c r="F46">
-        <v>0.853074612654747</v>
+        <v>0.676405806092284</v>
       </c>
       <c r="G46">
-        <v>1.59426954071626</v>
+        <v>1.05703889625149</v>
       </c>
       <c r="H46">
-        <v>2.16032337246673</v>
+        <v>0.61069444069715</v>
       </c>
       <c r="I46">
-        <v>2.28419470997289</v>
+        <v>1.99554385235274</v>
       </c>
       <c r="J46">
-        <v>3.99194251066058</v>
+        <v>3.71494614464596</v>
       </c>
       <c r="K46">
-        <v>2.76323508706124</v>
+        <v>0.870184510241848</v>
       </c>
       <c r="L46">
-        <v>9.82993215955158</v>
+        <v>9.691586494967821</v>
       </c>
       <c r="M46">
-        <v>2.49005586152198</v>
+        <v>2.34112158240385</v>
       </c>
       <c r="N46">
-        <v>5.11187017206724</v>
+        <v>4.83700860931951</v>
       </c>
       <c r="O46">
-        <v>211.195000512695</v>
+        <v>239.405964558835</v>
       </c>
       <c r="P46">
-        <v>8.468190294887179</v>
+        <v>8.17445302617295</v>
       </c>
     </row>
     <row r="47">
@@ -2786,49 +2786,49 @@
         </is>
       </c>
       <c r="B47">
-        <v>1972.76997218414</v>
+        <v>1907.56522575403</v>
       </c>
       <c r="C47">
-        <v>40.3251081350644</v>
+        <v>44.3117721923893</v>
       </c>
       <c r="D47">
-        <v>31.6996503911041</v>
+        <v>11.7346921823645</v>
       </c>
       <c r="E47">
-        <v>60.9814263787564</v>
+        <v>35.4679129980987</v>
       </c>
       <c r="F47">
-        <v>17.6973227360146</v>
+        <v>1.46517551224469</v>
       </c>
       <c r="G47">
-        <v>25.0605464026686</v>
+        <v>24.0064046638585</v>
       </c>
       <c r="H47">
-        <v>21.3191832883321</v>
+        <v>10.2612413990937</v>
       </c>
       <c r="I47">
-        <v>13.738579072002</v>
+        <v>9.45272199554762</v>
       </c>
       <c r="J47">
-        <v>31.8957454687258</v>
+        <v>23.5753849599436</v>
       </c>
       <c r="K47">
-        <v>25.1447082544203</v>
+        <v>4.53504615886829</v>
       </c>
       <c r="L47">
-        <v>26.7385762317324</v>
+        <v>18.3416516641234</v>
       </c>
       <c r="M47">
-        <v>65.074401167462</v>
+        <v>56.2933612734295</v>
       </c>
       <c r="N47">
-        <v>42.3016916842312</v>
+        <v>23.8997644230201</v>
       </c>
       <c r="O47">
-        <v>2527.98744284094</v>
+        <v>2725.26439820822</v>
       </c>
       <c r="P47">
-        <v>30.61232341668</v>
+        <v>24.1480586400885</v>
       </c>
     </row>
     <row r="48">
@@ -2838,49 +2838,49 @@
         </is>
       </c>
       <c r="B48">
-        <v>1797.31330617488</v>
+        <v>1627.59729662623</v>
       </c>
       <c r="C48">
-        <v>37.2522082217268</v>
+        <v>31.6627813199045</v>
       </c>
       <c r="D48">
-        <v>8.027423161558421</v>
+        <v>5.07015240846265</v>
       </c>
       <c r="E48">
-        <v>44.8656774846331</v>
+        <v>48.3234286161856</v>
       </c>
       <c r="F48">
-        <v>5.42696842279507</v>
+        <v>10.2000693957513</v>
       </c>
       <c r="G48">
-        <v>9.03261540663482</v>
+        <v>6.40509591752478</v>
       </c>
       <c r="H48">
-        <v>9.114979680859451</v>
+        <v>10.9539442026975</v>
       </c>
       <c r="I48">
-        <v>9.181794525329259</v>
+        <v>7.87850762627417</v>
       </c>
       <c r="J48">
-        <v>25.5993480654602</v>
+        <v>29.6101825423</v>
       </c>
       <c r="K48">
-        <v>12.8646758870934</v>
+        <v>5.26663635317329</v>
       </c>
       <c r="L48">
-        <v>32.2227727992754</v>
+        <v>38.031974833003</v>
       </c>
       <c r="M48">
-        <v>129.177302540039</v>
+        <v>115.74976586854</v>
       </c>
       <c r="N48">
-        <v>31.9198284431724</v>
+        <v>41.3203021594734</v>
       </c>
       <c r="O48">
-        <v>2048.2128272681</v>
+        <v>2203.07190395101</v>
       </c>
       <c r="P48">
-        <v>64.9671606033576</v>
+        <v>84.58802811604851</v>
       </c>
     </row>
     <row r="49">
@@ -2890,49 +2890,49 @@
         </is>
       </c>
       <c r="B49">
-        <v>715.591884515111</v>
+        <v>721.09329332343</v>
       </c>
       <c r="C49">
-        <v>4.26978295818141</v>
+        <v>2.52890500840568</v>
       </c>
       <c r="D49">
-        <v>2.36588034091456</v>
+        <v>0.223824004952501</v>
       </c>
       <c r="E49">
-        <v>13.2089572637849</v>
+        <v>16.4101977745438</v>
       </c>
       <c r="F49">
-        <v>22.6515064606868</v>
+        <v>24.3811613361575</v>
       </c>
       <c r="G49">
-        <v>16.9110750608824</v>
+        <v>11.9234311634122</v>
       </c>
       <c r="H49">
-        <v>4.63392324354726</v>
+        <v>1.3511356908911</v>
       </c>
       <c r="I49">
-        <v>3.74435876559333</v>
+        <v>1.50664237813535</v>
       </c>
       <c r="J49">
-        <v>17.2987897810457</v>
+        <v>14.0976090529192</v>
       </c>
       <c r="K49">
-        <v>5.35061317279322</v>
+        <v>2.37816455905403</v>
       </c>
       <c r="L49">
-        <v>3.02856569567673</v>
+        <v>1.46684289491744</v>
       </c>
       <c r="M49">
-        <v>6.46301656992907</v>
+        <v>3.22001756762359</v>
       </c>
       <c r="N49">
-        <v>5.20758400385553</v>
+        <v>6.17961185620158</v>
       </c>
       <c r="O49">
-        <v>494.448921451212</v>
+        <v>518.267829729621</v>
       </c>
       <c r="P49">
-        <v>7.40262274825544</v>
+        <v>7.05073854247349</v>
       </c>
     </row>
     <row r="50">
@@ -2942,49 +2942,49 @@
         </is>
       </c>
       <c r="B50">
-        <v>1468.68129650896</v>
+        <v>1291.55957530461</v>
       </c>
       <c r="C50">
-        <v>73.6222328589719</v>
+        <v>51.7961556686378</v>
       </c>
       <c r="D50">
-        <v>15.071964606378</v>
+        <v>5.32149985146759</v>
       </c>
       <c r="E50">
-        <v>129.90068396544</v>
+        <v>112.372672932369</v>
       </c>
       <c r="F50">
-        <v>3.73589080973727</v>
+        <v>1.92458436293497</v>
       </c>
       <c r="G50">
-        <v>15.1889361134918</v>
+        <v>29.0081368251285</v>
       </c>
       <c r="H50">
-        <v>33.9814799629325</v>
+        <v>44.5342295595699</v>
       </c>
       <c r="I50">
-        <v>10.2241244883745</v>
+        <v>8.93519600169328</v>
       </c>
       <c r="J50">
-        <v>90.6842108136656</v>
+        <v>68.48219458706539</v>
       </c>
       <c r="K50">
-        <v>90.6240113565495</v>
+        <v>32.5503188496737</v>
       </c>
       <c r="L50">
-        <v>50.2799332620814</v>
+        <v>67.7485739762913</v>
       </c>
       <c r="M50">
-        <v>49.8507084847359</v>
+        <v>52.1715438931209</v>
       </c>
       <c r="N50">
-        <v>56.7451057806535</v>
+        <v>52.0279719364843</v>
       </c>
       <c r="O50">
-        <v>1634.27296849659</v>
+        <v>1925.11595839852</v>
       </c>
       <c r="P50">
-        <v>96.7807510010505</v>
+        <v>74.0161301053537</v>
       </c>
     </row>
     <row r="51">
@@ -2994,49 +2994,49 @@
         </is>
       </c>
       <c r="B51">
-        <v>121.888666443371</v>
+        <v>118.064832211899</v>
       </c>
       <c r="C51">
-        <v>1.34071621957479</v>
+        <v>1.0941249494922</v>
       </c>
       <c r="D51">
-        <v>0.553643447799919</v>
+        <v>0.0153085482526281</v>
       </c>
       <c r="E51">
-        <v>1.36599423535818</v>
+        <v>1.26320442911774</v>
       </c>
       <c r="F51">
-        <v>26.4993282959041</v>
+        <v>27.329290782671</v>
       </c>
       <c r="G51">
-        <v>2.85893717547917</v>
+        <v>1.26628126414645</v>
       </c>
       <c r="H51">
-        <v>0.13540489407708</v>
+        <v>0.242970951875705</v>
       </c>
       <c r="I51">
-        <v>0.719549217416861</v>
+        <v>0.970222120978385</v>
       </c>
       <c r="J51">
-        <v>1.5797388458805</v>
+        <v>1.55111600457028</v>
       </c>
       <c r="K51">
-        <v>0.636572090762435</v>
+        <v>0.823962553399639</v>
       </c>
       <c r="L51">
-        <v>0.387550413459943</v>
+        <v>0.450523872789615</v>
       </c>
       <c r="M51">
-        <v>0.60900779257991</v>
+        <v>0.62651069236464</v>
       </c>
       <c r="N51">
-        <v>0.968876033649859</v>
+        <v>0.630674473548278</v>
       </c>
       <c r="O51">
-        <v>173.342192485046</v>
+        <v>169.805458167309</v>
       </c>
       <c r="P51">
-        <v>10.1771304428415</v>
+        <v>18.8572583046602</v>
       </c>
     </row>
     <row r="52">

--- a/1-Data-Codes/2-Final_Data/L_2007.xlsx
+++ b/1-Data-Codes/2-Final_Data/L_2007.xlsx
@@ -446,49 +446,49 @@
         </is>
       </c>
       <c r="B2">
-        <v>1475.73746587024</v>
+        <v>1472.52373334082</v>
       </c>
       <c r="C2">
-        <v>18.2419754310054</v>
+        <v>21.508208880604</v>
       </c>
       <c r="D2">
-        <v>15.3873587309507</v>
+        <v>15.8266955394579</v>
       </c>
       <c r="E2">
-        <v>41.4374698629855</v>
+        <v>45.0320679028215</v>
       </c>
       <c r="F2">
-        <v>22.2703870258245</v>
+        <v>22.2686988631869</v>
       </c>
       <c r="G2">
-        <v>21.7026935368304</v>
+        <v>17.9190236904244</v>
       </c>
       <c r="H2">
-        <v>4.96235618887175</v>
+        <v>6.33972029101284</v>
       </c>
       <c r="I2">
-        <v>18.9464025393614</v>
+        <v>16.715601968173</v>
       </c>
       <c r="J2">
-        <v>63.0827337613332</v>
+        <v>66.6936716753374</v>
       </c>
       <c r="K2">
-        <v>9.381266757871559</v>
+        <v>8.706361196297531</v>
       </c>
       <c r="L2">
-        <v>50.937065403355</v>
+        <v>51.0774442374564</v>
       </c>
       <c r="M2">
-        <v>44.2631025513995</v>
+        <v>41.5004522588761</v>
       </c>
       <c r="N2">
-        <v>26.8086934974932</v>
+        <v>27.0280488428567</v>
       </c>
       <c r="O2">
-        <v>1380.35930755644</v>
+        <v>1388.92732031557</v>
       </c>
       <c r="P2">
-        <v>23.54665438578</v>
+        <v>23.608813108909</v>
       </c>
     </row>
     <row r="3">
@@ -498,49 +498,49 @@
         </is>
       </c>
       <c r="B3">
-        <v>120.109834207202</v>
+        <v>117.55866107969</v>
       </c>
       <c r="C3">
-        <v>0.574634781722741</v>
+        <v>0.6846824559608919</v>
       </c>
       <c r="D3">
-        <v>0.241737122661751</v>
+        <v>0.196856035118079</v>
       </c>
       <c r="E3">
-        <v>0.71432956041943</v>
+        <v>0.799948161243904</v>
       </c>
       <c r="F3">
-        <v>8.370494210924409</v>
+        <v>8.325868556802631</v>
       </c>
       <c r="G3">
-        <v>0.253295292727653</v>
+        <v>0.226234181232078</v>
       </c>
       <c r="H3">
-        <v>0.210775129168371</v>
+        <v>0.188767885662239</v>
       </c>
       <c r="I3">
-        <v>0.322902814076112</v>
+        <v>0.355466755535984</v>
       </c>
       <c r="J3">
-        <v>0.141959633818751</v>
+        <v>0.139794983192484</v>
       </c>
       <c r="K3">
-        <v>0.259445942566609</v>
+        <v>0.203955976334508</v>
       </c>
       <c r="L3">
-        <v>0.31023567736611</v>
+        <v>0.29079642873259</v>
       </c>
       <c r="M3">
-        <v>0.218984646763151</v>
+        <v>0.173180094688748</v>
       </c>
       <c r="N3">
-        <v>0.573510057838612</v>
+        <v>0.467450845414718</v>
       </c>
       <c r="O3">
-        <v>193.329501390029</v>
+        <v>191.761436681695</v>
       </c>
       <c r="P3">
-        <v>6.36133793759207</v>
+        <v>6.2253651593591</v>
       </c>
     </row>
     <row r="4">
@@ -550,49 +550,49 @@
         </is>
       </c>
       <c r="B4">
-        <v>1715.46323658561</v>
+        <v>1724.40619702864</v>
       </c>
       <c r="C4">
-        <v>16.2339721161987</v>
+        <v>14.1538981431182</v>
       </c>
       <c r="D4">
-        <v>3.18058517861261</v>
+        <v>3.12410430270728</v>
       </c>
       <c r="E4">
-        <v>15.526027631033</v>
+        <v>16.7529159212947</v>
       </c>
       <c r="F4">
-        <v>14.5372944847153</v>
+        <v>16.1085116315918</v>
       </c>
       <c r="G4">
-        <v>4.18044641230653</v>
+        <v>4.17124606985893</v>
       </c>
       <c r="H4">
-        <v>2.48255030631935</v>
+        <v>2.40379448827479</v>
       </c>
       <c r="I4">
-        <v>5.95337433205693</v>
+        <v>7.28513333328538</v>
       </c>
       <c r="J4">
-        <v>27.3471824670939</v>
+        <v>24.8464332086248</v>
       </c>
       <c r="K4">
-        <v>5.87572139414401</v>
+        <v>4.23467715422141</v>
       </c>
       <c r="L4">
-        <v>54.1683886286244</v>
+        <v>56.0679780388115</v>
       </c>
       <c r="M4">
-        <v>40.5153120796571</v>
+        <v>41.4564323942729</v>
       </c>
       <c r="N4">
-        <v>28.9631726392002</v>
+        <v>28.6053699571399</v>
       </c>
       <c r="O4">
-        <v>2067.81400177316</v>
+        <v>2066.37065319602</v>
       </c>
       <c r="P4">
-        <v>26.2854750381744</v>
+        <v>23.8022127919025</v>
       </c>
     </row>
     <row r="5">
@@ -602,49 +602,49 @@
         </is>
       </c>
       <c r="B5">
-        <v>890.419683279408</v>
+        <v>891.686357044946</v>
       </c>
       <c r="C5">
-        <v>34.6847298687149</v>
+        <v>36.2785258695585</v>
       </c>
       <c r="D5">
-        <v>9.32902224829086</v>
+        <v>9.452579752540959</v>
       </c>
       <c r="E5">
-        <v>17.054208576539</v>
+        <v>17.5160047261624</v>
       </c>
       <c r="F5">
-        <v>5.72878955599659</v>
+        <v>6.34496766267374</v>
       </c>
       <c r="G5">
-        <v>4.95115563764506</v>
+        <v>3.83970262589135</v>
       </c>
       <c r="H5">
-        <v>10.9644887253005</v>
+        <v>10.5826752603439</v>
       </c>
       <c r="I5">
-        <v>9.06325413137988</v>
+        <v>6.72383796779015</v>
       </c>
       <c r="J5">
-        <v>23.7061940931506</v>
+        <v>24.1995238343135</v>
       </c>
       <c r="K5">
-        <v>2.47986879018938</v>
+        <v>2.889023808704</v>
       </c>
       <c r="L5">
-        <v>7.54849745133033</v>
+        <v>7.82823829979479</v>
       </c>
       <c r="M5">
-        <v>9.71894028297848</v>
+        <v>10.294349254883</v>
       </c>
       <c r="N5">
-        <v>24.754012733205</v>
+        <v>24.2194057704773</v>
       </c>
       <c r="O5">
-        <v>889.568001398299</v>
+        <v>884.300271374345</v>
       </c>
       <c r="P5">
-        <v>36.3605653073959</v>
+        <v>34.332342635607</v>
       </c>
     </row>
     <row r="6">
@@ -654,49 +654,49 @@
         </is>
       </c>
       <c r="B6">
-        <v>9339.76029649914</v>
+        <v>9372.1368314057</v>
       </c>
       <c r="C6">
-        <v>168.474194063721</v>
+        <v>171.517885068997</v>
       </c>
       <c r="D6">
-        <v>24.2336599743691</v>
+        <v>25.9638027464269</v>
       </c>
       <c r="E6">
-        <v>134.614610462686</v>
+        <v>133.316163241211</v>
       </c>
       <c r="F6">
-        <v>37.1420768325364</v>
+        <v>38.2881799435417</v>
       </c>
       <c r="G6">
-        <v>86.28676406881471</v>
+        <v>83.2624992895682</v>
       </c>
       <c r="H6">
-        <v>31.842763147</v>
+        <v>31.6472431606354</v>
       </c>
       <c r="I6">
-        <v>26.1464036979614</v>
+        <v>29.6996469404559</v>
       </c>
       <c r="J6">
-        <v>110.785003581108</v>
+        <v>111.553973605005</v>
       </c>
       <c r="K6">
-        <v>29.6813516484393</v>
+        <v>31.4918730378809</v>
       </c>
       <c r="L6">
-        <v>322.029984650161</v>
+        <v>332.063271237257</v>
       </c>
       <c r="M6">
-        <v>209.002902675556</v>
+        <v>206.49687565598</v>
       </c>
       <c r="N6">
-        <v>208.079191067602</v>
+        <v>211.177400818721</v>
       </c>
       <c r="O6">
-        <v>11820.7783494935</v>
+        <v>11744.3095310174</v>
       </c>
       <c r="P6">
-        <v>227.333973383062</v>
+        <v>230.609932188818</v>
       </c>
     </row>
     <row r="7">
@@ -706,49 +706,49 @@
         </is>
       </c>
       <c r="B7">
-        <v>1024.22048579235</v>
+        <v>1033.27952211848</v>
       </c>
       <c r="C7">
-        <v>41.8943856361609</v>
+        <v>41.0001290209668</v>
       </c>
       <c r="D7">
-        <v>3.99968260419221</v>
+        <v>3.29189149330016</v>
       </c>
       <c r="E7">
-        <v>14.2111888383699</v>
+        <v>15.3270218492435</v>
       </c>
       <c r="F7">
-        <v>28.3014543264546</v>
+        <v>28.2757622612906</v>
       </c>
       <c r="G7">
-        <v>13.5518207089246</v>
+        <v>13.4748939086336</v>
       </c>
       <c r="H7">
-        <v>3.62323544285287</v>
+        <v>3.76118520113289</v>
       </c>
       <c r="I7">
-        <v>7.8324880150495</v>
+        <v>7.93953590586024</v>
       </c>
       <c r="J7">
-        <v>12.9093124591249</v>
+        <v>15.1719500150955</v>
       </c>
       <c r="K7">
-        <v>6.33521116718562</v>
+        <v>6.07538946331366</v>
       </c>
       <c r="L7">
-        <v>30.4675968699952</v>
+        <v>33.2970167603418</v>
       </c>
       <c r="M7">
-        <v>12.4688718380851</v>
+        <v>12.3184893572776</v>
       </c>
       <c r="N7">
-        <v>19.9554251738712</v>
+        <v>18.599613801594</v>
       </c>
       <c r="O7">
-        <v>1840.42516675939</v>
+        <v>1837.34909107039</v>
       </c>
       <c r="P7">
-        <v>33.5269892508295</v>
+        <v>31.8244461843294</v>
       </c>
     </row>
     <row r="8">
@@ -758,49 +758,49 @@
         </is>
       </c>
       <c r="B8">
-        <v>835.937716632983</v>
+        <v>831.986816912414</v>
       </c>
       <c r="C8">
-        <v>7.81235292675436</v>
+        <v>8.447071234175001</v>
       </c>
       <c r="D8">
-        <v>1.8201142347151</v>
+        <v>1.95902587600505</v>
       </c>
       <c r="E8">
-        <v>20.189301168662</v>
+        <v>19.2222659044955</v>
       </c>
       <c r="F8">
-        <v>1.70978252511611</v>
+        <v>1.8056344790275</v>
       </c>
       <c r="G8">
-        <v>16.1920749977962</v>
+        <v>16.2897026354677</v>
       </c>
       <c r="H8">
-        <v>6.81917163914127</v>
+        <v>6.51033949824633</v>
       </c>
       <c r="I8">
-        <v>7.16449318237501</v>
+        <v>6.35398545471246</v>
       </c>
       <c r="J8">
-        <v>30.751025227771</v>
+        <v>29.8925511010512</v>
       </c>
       <c r="K8">
-        <v>7.34168274082322</v>
+        <v>8.14181483461932</v>
       </c>
       <c r="L8">
-        <v>22.7170618756372</v>
+        <v>24.3948859462596</v>
       </c>
       <c r="M8">
-        <v>39.1722880707689</v>
+        <v>38.397960364285</v>
       </c>
       <c r="N8">
-        <v>23.5809897594944</v>
+        <v>23.3926450185465</v>
       </c>
       <c r="O8">
-        <v>1299.4426212409</v>
+        <v>1299.92415127189</v>
       </c>
       <c r="P8">
-        <v>7.24627548877192</v>
+        <v>6.77411148487722</v>
       </c>
     </row>
     <row r="9">
@@ -810,49 +810,49 @@
         </is>
       </c>
       <c r="B9">
-        <v>228.766394260834</v>
+        <v>230.976365534663</v>
       </c>
       <c r="C9">
-        <v>7.4694418935904</v>
+        <v>7.49544779176631</v>
       </c>
       <c r="D9">
-        <v>1.22845416907673</v>
+        <v>1.28363783298536</v>
       </c>
       <c r="E9">
-        <v>2.10846483086805</v>
+        <v>2.25971182762053</v>
       </c>
       <c r="F9">
-        <v>0.365369058213236</v>
+        <v>0.423369050483877</v>
       </c>
       <c r="G9">
-        <v>14.3267867181122</v>
+        <v>13.8966889595476</v>
       </c>
       <c r="H9">
-        <v>1.65798509362655</v>
+        <v>1.73036652013502</v>
       </c>
       <c r="I9">
-        <v>0.985613864085404</v>
+        <v>0.715560735554168</v>
       </c>
       <c r="J9">
-        <v>2.60573737078223</v>
+        <v>2.91366237510628</v>
       </c>
       <c r="K9">
-        <v>0.300082327534883</v>
+        <v>0.336900977703391</v>
       </c>
       <c r="L9">
-        <v>2.28443623483983</v>
+        <v>1.9737489108972</v>
       </c>
       <c r="M9">
-        <v>2.70923579681186</v>
+        <v>2.75067898459757</v>
       </c>
       <c r="N9">
-        <v>1.56210571633704</v>
+        <v>1.82360075637501</v>
       </c>
       <c r="O9">
-        <v>311.080695229897</v>
+        <v>309.835444954311</v>
       </c>
       <c r="P9">
-        <v>3.42262413722326</v>
+        <v>3.67845330023105</v>
       </c>
     </row>
     <row r="10">
@@ -862,49 +862,49 @@
         </is>
       </c>
       <c r="B10">
-        <v>5531.80247974996</v>
+        <v>5543.27761841114</v>
       </c>
       <c r="C10">
-        <v>40.4513486021888</v>
+        <v>46.2300251665249</v>
       </c>
       <c r="D10">
-        <v>8.1153441658484</v>
+        <v>7.39713399194896</v>
       </c>
       <c r="E10">
-        <v>43.4421866788596</v>
+        <v>42.1955960644524</v>
       </c>
       <c r="F10">
-        <v>6.80458068717285</v>
+        <v>6.08665882132712</v>
       </c>
       <c r="G10">
-        <v>18.3262469728547</v>
+        <v>20.5016787672685</v>
       </c>
       <c r="H10">
-        <v>7.54098486845601</v>
+        <v>8.110164879526179</v>
       </c>
       <c r="I10">
-        <v>14.9530907519309</v>
+        <v>14.4309580994563</v>
       </c>
       <c r="J10">
-        <v>43.3406168508875</v>
+        <v>42.7857647727633</v>
       </c>
       <c r="K10">
-        <v>6.66824415264899</v>
+        <v>5.59049219589735</v>
       </c>
       <c r="L10">
-        <v>52.9399411669949</v>
+        <v>54.1980005267723</v>
       </c>
       <c r="M10">
-        <v>70.7236487547889</v>
+        <v>74.3290922309648</v>
       </c>
       <c r="N10">
-        <v>73.3290362303371</v>
+        <v>69.2660380054709</v>
       </c>
       <c r="O10">
-        <v>6549.99283332026</v>
+        <v>6474.70837400353</v>
       </c>
       <c r="P10">
-        <v>51.4595370270796</v>
+        <v>48.3996300060209</v>
       </c>
     </row>
     <row r="11">
@@ -914,49 +914,49 @@
         </is>
       </c>
       <c r="B11">
-        <v>2450.47238057396</v>
+        <v>2469.32038782674</v>
       </c>
       <c r="C11">
-        <v>72.7525658970625</v>
+        <v>71.3027940117027</v>
       </c>
       <c r="D11">
-        <v>70.2243677043836</v>
+        <v>70.61992675001559</v>
       </c>
       <c r="E11">
-        <v>62.0842617123995</v>
+        <v>62.6268217242364</v>
       </c>
       <c r="F11">
-        <v>9.24899547838857</v>
+        <v>10.1352437967885</v>
       </c>
       <c r="G11">
-        <v>20.3030507553167</v>
+        <v>21.5530837129182</v>
       </c>
       <c r="H11">
-        <v>18.644036993836</v>
+        <v>19.4084552029032</v>
       </c>
       <c r="I11">
-        <v>15.8922094488648</v>
+        <v>13.1488852641904</v>
       </c>
       <c r="J11">
-        <v>38.5115496650914</v>
+        <v>36.5789409810755</v>
       </c>
       <c r="K11">
-        <v>5.6700854627615</v>
+        <v>6.66795397191302</v>
       </c>
       <c r="L11">
-        <v>27.5430987059233</v>
+        <v>28.5415382209338</v>
       </c>
       <c r="M11">
-        <v>31.4529642215211</v>
+        <v>32.7109144182723</v>
       </c>
       <c r="N11">
-        <v>61.0840629672374</v>
+        <v>58.8682985263475</v>
       </c>
       <c r="O11">
-        <v>3012.98119577927</v>
+        <v>3021.84588860991</v>
       </c>
       <c r="P11">
-        <v>45.654902271685</v>
+        <v>43.3775219231684</v>
       </c>
     </row>
     <row r="12">
@@ -966,49 +966,49 @@
         </is>
       </c>
       <c r="B12">
-        <v>333.426760280165</v>
+        <v>334.419419365855</v>
       </c>
       <c r="C12">
-        <v>5.25453804352066</v>
+        <v>5.10636479731404</v>
       </c>
       <c r="D12">
-        <v>0.6072554040984221</v>
+        <v>0.439073803797114</v>
       </c>
       <c r="E12">
-        <v>1.29887878799334</v>
+        <v>1.18488750984766</v>
       </c>
       <c r="F12">
-        <v>0.296351135057407</v>
+        <v>0.306948961351453</v>
       </c>
       <c r="G12">
-        <v>0.33098721253947</v>
+        <v>0.309997262808709</v>
       </c>
       <c r="H12">
-        <v>0.303708337553094</v>
+        <v>0.210206675521779</v>
       </c>
       <c r="I12">
-        <v>0.63301123299333</v>
+        <v>0.650702894663353</v>
       </c>
       <c r="J12">
-        <v>1.6636581182542</v>
+        <v>1.74657928290096</v>
       </c>
       <c r="K12">
-        <v>0.0530079623395234</v>
+        <v>0.133652453976966</v>
       </c>
       <c r="L12">
-        <v>0.0303741329747293</v>
+        <v>0.0436642822700003</v>
       </c>
       <c r="M12">
-        <v>2.32933826364351</v>
+        <v>2.34498710057458</v>
       </c>
       <c r="N12">
-        <v>4.30588894410354</v>
+        <v>4.20584176687066</v>
       </c>
       <c r="O12">
-        <v>449.439158325892</v>
+        <v>446.52652974215</v>
       </c>
       <c r="P12">
-        <v>12.7095464871354</v>
+        <v>13.1356026644712</v>
       </c>
     </row>
     <row r="13">
@@ -1018,49 +1018,49 @@
         </is>
       </c>
       <c r="B13">
-        <v>353.763323351648</v>
+        <v>357.61651466709</v>
       </c>
       <c r="C13">
-        <v>20.3335995086675</v>
+        <v>20.1557493948706</v>
       </c>
       <c r="D13">
-        <v>0.110689341353077</v>
+        <v>0.297074833947582</v>
       </c>
       <c r="E13">
-        <v>8.15890914999247</v>
+        <v>7.93988067580687</v>
       </c>
       <c r="F13">
-        <v>3.7290067049027</v>
+        <v>3.39291374204854</v>
       </c>
       <c r="G13">
-        <v>6.77400000122935</v>
+        <v>7.5226800787984</v>
       </c>
       <c r="H13">
-        <v>1.14489865224506</v>
+        <v>1.20571177865189</v>
       </c>
       <c r="I13">
-        <v>2.37958556992647</v>
+        <v>2.16980178029172</v>
       </c>
       <c r="J13">
-        <v>3.67589389799614</v>
+        <v>3.65762290540621</v>
       </c>
       <c r="K13">
-        <v>3.28823230788732</v>
+        <v>3.23343992980233</v>
       </c>
       <c r="L13">
-        <v>16.5776788091266</v>
+        <v>17.5618302386376</v>
       </c>
       <c r="M13">
-        <v>2.01800561209779</v>
+        <v>1.92371726580472</v>
       </c>
       <c r="N13">
-        <v>3.26769356557321</v>
+        <v>3.2745851781705</v>
       </c>
       <c r="O13">
-        <v>490.796248398022</v>
+        <v>489.956686649296</v>
       </c>
       <c r="P13">
-        <v>34.1294097723027</v>
+        <v>34.8871746533664</v>
       </c>
     </row>
     <row r="14">
@@ -1070,49 +1070,49 @@
         </is>
       </c>
       <c r="B14">
-        <v>3264.1386917514</v>
+        <v>3275.19960306018</v>
       </c>
       <c r="C14">
-        <v>117.351766211451</v>
+        <v>110.871216761746</v>
       </c>
       <c r="D14">
-        <v>10.9701081801421</v>
+        <v>9.85443171954997</v>
       </c>
       <c r="E14">
-        <v>61.3607417255813</v>
+        <v>64.10856272404369</v>
       </c>
       <c r="F14">
-        <v>14.4024801534423</v>
+        <v>15.6339828084916</v>
       </c>
       <c r="G14">
-        <v>68.5132978701516</v>
+        <v>64.910749511866</v>
       </c>
       <c r="H14">
-        <v>37.0828092221724</v>
+        <v>37.4878038296437</v>
       </c>
       <c r="I14">
-        <v>25.0323866971925</v>
+        <v>25.5091333669479</v>
       </c>
       <c r="J14">
-        <v>108.620109845461</v>
+        <v>108.020909910168</v>
       </c>
       <c r="K14">
-        <v>53.7345059551462</v>
+        <v>59.1525751611575</v>
       </c>
       <c r="L14">
-        <v>63.0501774073261</v>
+        <v>63.8937496443867</v>
       </c>
       <c r="M14">
-        <v>57.8979864797514</v>
+        <v>59.770278077988</v>
       </c>
       <c r="N14">
-        <v>50.1317565332494</v>
+        <v>55.0121539830637</v>
       </c>
       <c r="O14">
-        <v>4366.5847785427</v>
+        <v>4345.33758306378</v>
       </c>
       <c r="P14">
-        <v>68.43000659949639</v>
+        <v>64.818933047429</v>
       </c>
     </row>
     <row r="15">
@@ -1122,49 +1122,49 @@
         </is>
       </c>
       <c r="B15">
-        <v>1653.01239800183</v>
+        <v>1667.50051788559</v>
       </c>
       <c r="C15">
-        <v>44.4461407566441</v>
+        <v>45.4706368235908</v>
       </c>
       <c r="D15">
-        <v>5.90857705147336</v>
+        <v>5.4934459110426</v>
       </c>
       <c r="E15">
-        <v>49.2572872931382</v>
+        <v>49.4533469864209</v>
       </c>
       <c r="F15">
-        <v>12.6761609522066</v>
+        <v>11.2554688141781</v>
       </c>
       <c r="G15">
-        <v>52.3361843242127</v>
+        <v>52.8288747156311</v>
       </c>
       <c r="H15">
-        <v>32.9477976140669</v>
+        <v>33.0099751335115</v>
       </c>
       <c r="I15">
-        <v>11.0461393650535</v>
+        <v>11.567853408656</v>
       </c>
       <c r="J15">
-        <v>102.289779971644</v>
+        <v>104.129835150101</v>
       </c>
       <c r="K15">
-        <v>32.3587582664964</v>
+        <v>31.1231585663472</v>
       </c>
       <c r="L15">
-        <v>30.515060283007</v>
+        <v>31.3234342467916</v>
       </c>
       <c r="M15">
-        <v>119.790394573027</v>
+        <v>119.402398998316</v>
       </c>
       <c r="N15">
-        <v>80.5481896440497</v>
+        <v>77.7323105291742</v>
       </c>
       <c r="O15">
-        <v>1997.23513960579</v>
+        <v>1981.00030856764</v>
       </c>
       <c r="P15">
-        <v>39.0094040001242</v>
+        <v>40.6436293502002</v>
       </c>
     </row>
     <row r="16">
@@ -1174,49 +1174,49 @@
         </is>
       </c>
       <c r="B16">
-        <v>658.795170326929</v>
+        <v>662.748526768068</v>
       </c>
       <c r="C16">
-        <v>58.2204297102523</v>
+        <v>61.8691419308092</v>
       </c>
       <c r="D16">
-        <v>3.11547157160014</v>
+        <v>3.57526213304848</v>
       </c>
       <c r="E16">
-        <v>24.6134007332382</v>
+        <v>24.0185959235295</v>
       </c>
       <c r="F16">
-        <v>1.96909960106007</v>
+        <v>1.94089462961456</v>
       </c>
       <c r="G16">
-        <v>10.1886881930447</v>
+        <v>10.9123478022637</v>
       </c>
       <c r="H16">
-        <v>12.8755870512554</v>
+        <v>11.8655187941218</v>
       </c>
       <c r="I16">
-        <v>4.08776149709513</v>
+        <v>4.08463767658148</v>
       </c>
       <c r="J16">
-        <v>31.1117243903115</v>
+        <v>32.7001210265214</v>
       </c>
       <c r="K16">
-        <v>35.9469288109472</v>
+        <v>36.4076381074634</v>
       </c>
       <c r="L16">
-        <v>13.0057989033737</v>
+        <v>13.0989375573857</v>
       </c>
       <c r="M16">
-        <v>19.5109029813354</v>
+        <v>18.897979242503</v>
       </c>
       <c r="N16">
-        <v>27.4739211979289</v>
+        <v>27.4246540201524</v>
       </c>
       <c r="O16">
-        <v>1074.87611473413</v>
+        <v>1073.0096744313</v>
       </c>
       <c r="P16">
-        <v>75.07477637916389</v>
+        <v>74.9885389162513</v>
       </c>
     </row>
     <row r="17">
@@ -1226,49 +1226,49 @@
         </is>
       </c>
       <c r="B17">
-        <v>624.198797269003</v>
+        <v>622.265715121706</v>
       </c>
       <c r="C17">
-        <v>22.5371032592128</v>
+        <v>21.8868064649217</v>
       </c>
       <c r="D17">
-        <v>1.72580608107268</v>
+        <v>1.73414361968273</v>
       </c>
       <c r="E17">
-        <v>14.191534773293</v>
+        <v>15.8407650422239</v>
       </c>
       <c r="F17">
-        <v>10.7399877548702</v>
+        <v>10.6746553963302</v>
       </c>
       <c r="G17">
-        <v>14.8127357076154</v>
+        <v>12.248415342189</v>
       </c>
       <c r="H17">
-        <v>11.0174817453818</v>
+        <v>10.6518016856336</v>
       </c>
       <c r="I17">
-        <v>5.23384236656868</v>
+        <v>5.09343620459875</v>
       </c>
       <c r="J17">
-        <v>14.9156497764941</v>
+        <v>16.2575199226062</v>
       </c>
       <c r="K17">
-        <v>8.67991769536413</v>
+        <v>8.690498228334491</v>
       </c>
       <c r="L17">
-        <v>7.21926590412968</v>
+        <v>8.581882737030639</v>
       </c>
       <c r="M17">
-        <v>57.9843395291935</v>
+        <v>58.1860152088439</v>
       </c>
       <c r="N17">
-        <v>6.47820456175227</v>
+        <v>7.53527069168536</v>
       </c>
       <c r="O17">
-        <v>978.738699684252</v>
+        <v>980.082856698289</v>
       </c>
       <c r="P17">
-        <v>41.7991014618687</v>
+        <v>41.7732727118505</v>
       </c>
     </row>
     <row r="18">
@@ -1278,49 +1278,49 @@
         </is>
       </c>
       <c r="B18">
-        <v>1282.30046316939</v>
+        <v>1294.08233686663</v>
       </c>
       <c r="C18">
-        <v>20.0992366127685</v>
+        <v>20.4462467068469</v>
       </c>
       <c r="D18">
-        <v>5.28823411483312</v>
+        <v>4.16298259584037</v>
       </c>
       <c r="E18">
-        <v>27.8604197027784</v>
+        <v>26.4982740663495</v>
       </c>
       <c r="F18">
-        <v>36.1591217592095</v>
+        <v>36.0424901724841</v>
       </c>
       <c r="G18">
-        <v>12.1827434477084</v>
+        <v>11.5140332620789</v>
       </c>
       <c r="H18">
-        <v>6.47787141855757</v>
+        <v>5.99990003417943</v>
       </c>
       <c r="I18">
-        <v>7.68236113678693</v>
+        <v>7.45545380498931</v>
       </c>
       <c r="J18">
-        <v>12.2076416698816</v>
+        <v>14.1448249203191</v>
       </c>
       <c r="K18">
-        <v>6.55772453842491</v>
+        <v>6.82472957002235</v>
       </c>
       <c r="L18">
-        <v>18.361087463726</v>
+        <v>18.384556357582</v>
       </c>
       <c r="M18">
-        <v>54.6976642634967</v>
+        <v>53.0262560519561</v>
       </c>
       <c r="N18">
-        <v>20.4425966472803</v>
+        <v>19.7971382675925</v>
       </c>
       <c r="O18">
-        <v>1365.14762254245</v>
+        <v>1361.99743514243</v>
       </c>
       <c r="P18">
-        <v>49.0535951787426</v>
+        <v>48.2963922708372</v>
       </c>
     </row>
     <row r="19">
@@ -1330,49 +1330,49 @@
         </is>
       </c>
       <c r="B19">
-        <v>1301.75523632085</v>
+        <v>1299.5905652645</v>
       </c>
       <c r="C19">
-        <v>30.5366564973938</v>
+        <v>30.4978022416303</v>
       </c>
       <c r="D19">
-        <v>1.16359496350089</v>
+        <v>1.11323175700256</v>
       </c>
       <c r="E19">
-        <v>23.0299539658913</v>
+        <v>23.548861637173</v>
       </c>
       <c r="F19">
-        <v>69.09071347306499</v>
+        <v>70.57783464897941</v>
       </c>
       <c r="G19">
-        <v>29.0628863616276</v>
+        <v>28.8451176166515</v>
       </c>
       <c r="H19">
-        <v>4.22302856060057</v>
+        <v>4.85921844738215</v>
       </c>
       <c r="I19">
-        <v>7.17707937032721</v>
+        <v>7.13863279784011</v>
       </c>
       <c r="J19">
-        <v>20.6547682408797</v>
+        <v>17.910739739521</v>
       </c>
       <c r="K19">
-        <v>4.84245761401831</v>
+        <v>3.79599367142708</v>
       </c>
       <c r="L19">
-        <v>3.66480419921946</v>
+        <v>4.26455014267005</v>
       </c>
       <c r="M19">
-        <v>8.89976618499874</v>
+        <v>11.3990245988493</v>
       </c>
       <c r="N19">
-        <v>9.46642505871119</v>
+        <v>9.0382257840297</v>
       </c>
       <c r="O19">
-        <v>1368.13885722111</v>
+        <v>1357.12359026058</v>
       </c>
       <c r="P19">
-        <v>24.5883115421182</v>
+        <v>25.950337493281</v>
       </c>
     </row>
     <row r="20">
@@ -1382,49 +1382,49 @@
         </is>
       </c>
       <c r="B20">
-        <v>371.761032577241</v>
+        <v>369.849887162057</v>
       </c>
       <c r="C20">
-        <v>5.49863132325535</v>
+        <v>5.86653534858233</v>
       </c>
       <c r="D20">
-        <v>4.56475675949259</v>
+        <v>4.54492306292129</v>
       </c>
       <c r="E20">
-        <v>22.452072728774</v>
+        <v>22.3670049797302</v>
       </c>
       <c r="F20">
-        <v>0.649039052108526</v>
+        <v>0.614832739790129</v>
       </c>
       <c r="G20">
-        <v>3.01435889765025</v>
+        <v>2.83614669862371</v>
       </c>
       <c r="H20">
-        <v>1.30851050027723</v>
+        <v>1.40873624953505</v>
       </c>
       <c r="I20">
-        <v>2.2009366697271</v>
+        <v>1.97648775565527</v>
       </c>
       <c r="J20">
-        <v>5.60038616204313</v>
+        <v>5.61578657285327</v>
       </c>
       <c r="K20">
-        <v>0.736732149533147</v>
+        <v>0.787050963465461</v>
       </c>
       <c r="L20">
-        <v>4.85900032100617</v>
+        <v>4.77119406419686</v>
       </c>
       <c r="M20">
-        <v>10.7259778686057</v>
+        <v>11.2914944245628</v>
       </c>
       <c r="N20">
-        <v>5.34299698851455</v>
+        <v>5.21676702661136</v>
       </c>
       <c r="O20">
-        <v>482.718285959646</v>
+        <v>479.761315984391</v>
       </c>
       <c r="P20">
-        <v>15.7120010862373</v>
+        <v>15.6124744428192</v>
       </c>
     </row>
     <row r="21">
@@ -1434,49 +1434,49 @@
         </is>
       </c>
       <c r="B21">
-        <v>1439.48678292102</v>
+        <v>1439.04036576044</v>
       </c>
       <c r="C21">
-        <v>11.3125426350967</v>
+        <v>11.7809265157655</v>
       </c>
       <c r="D21">
-        <v>0.76494612749514</v>
+        <v>0.545281366471309</v>
       </c>
       <c r="E21">
-        <v>15.0355307211989</v>
+        <v>16.2769704611072</v>
       </c>
       <c r="F21">
-        <v>2.01415788030255</v>
+        <v>2.92674402573778</v>
       </c>
       <c r="G21">
-        <v>13.7955239424593</v>
+        <v>15.0287432324633</v>
       </c>
       <c r="H21">
-        <v>2.74853137267403</v>
+        <v>2.86989019596353</v>
       </c>
       <c r="I21">
-        <v>7.55756164503851</v>
+        <v>7.86254089473712</v>
       </c>
       <c r="J21">
-        <v>17.2751985155562</v>
+        <v>16.3843849005724</v>
       </c>
       <c r="K21">
-        <v>3.17560911397976</v>
+        <v>3.1572750727917</v>
       </c>
       <c r="L21">
-        <v>17.0633399774076</v>
+        <v>18.2920342090563</v>
       </c>
       <c r="M21">
-        <v>15.0546787652046</v>
+        <v>15.7925460338111</v>
       </c>
       <c r="N21">
-        <v>15.6471473652067</v>
+        <v>14.0015393357213</v>
       </c>
       <c r="O21">
-        <v>1988.22104645266</v>
+        <v>1965.48805392146</v>
       </c>
       <c r="P21">
-        <v>15.1397102506166</v>
+        <v>14.7776799752571</v>
       </c>
     </row>
     <row r="22">
@@ -1486,49 +1486,49 @@
         </is>
       </c>
       <c r="B22">
-        <v>1656.91087257453</v>
+        <v>1661.90890993183</v>
       </c>
       <c r="C22">
-        <v>22.4739328504616</v>
+        <v>22.0379972046698</v>
       </c>
       <c r="D22">
-        <v>5.39670288786471</v>
+        <v>6.05991874151301</v>
       </c>
       <c r="E22">
-        <v>21.1966070414643</v>
+        <v>21.4972867617324</v>
       </c>
       <c r="F22">
-        <v>2.62670091964568</v>
+        <v>2.57751284383365</v>
       </c>
       <c r="G22">
-        <v>21.6498875707015</v>
+        <v>21.5647197545784</v>
       </c>
       <c r="H22">
-        <v>9.91920536900752</v>
+        <v>9.900363362251319</v>
       </c>
       <c r="I22">
-        <v>1.74818160439937</v>
+        <v>4.17513832055791</v>
       </c>
       <c r="J22">
-        <v>24.8784560059064</v>
+        <v>26.2867420627094</v>
       </c>
       <c r="K22">
-        <v>3.5620884299044</v>
+        <v>3.41729870738571</v>
       </c>
       <c r="L22">
-        <v>62.9828810963454</v>
+        <v>63.4887284150542</v>
       </c>
       <c r="M22">
-        <v>17.4773614491203</v>
+        <v>17.4534877377949</v>
       </c>
       <c r="N22">
-        <v>42.2880060663303</v>
+        <v>43.9213363267729</v>
       </c>
       <c r="O22">
-        <v>2399.46548880972</v>
+        <v>2393.99389124003</v>
       </c>
       <c r="P22">
-        <v>12.4220975997608</v>
+        <v>13.4683292256691</v>
       </c>
     </row>
     <row r="23">
@@ -1538,49 +1538,49 @@
         </is>
       </c>
       <c r="B23">
-        <v>2940.62026028114</v>
+        <v>2906.43478890128</v>
       </c>
       <c r="C23">
-        <v>36.4755565491394</v>
+        <v>34.9764408051144</v>
       </c>
       <c r="D23">
-        <v>4.58320390742343</v>
+        <v>4.99014204031785</v>
       </c>
       <c r="E23">
-        <v>36.7878175659615</v>
+        <v>37.1040570038737</v>
       </c>
       <c r="F23">
-        <v>7.21159510497295</v>
+        <v>8.193994910085321</v>
       </c>
       <c r="G23">
-        <v>42.9521809655065</v>
+        <v>43.7008277903221</v>
       </c>
       <c r="H23">
-        <v>43.7430549390164</v>
+        <v>40.8299952099024</v>
       </c>
       <c r="I23">
-        <v>20.3622870511275</v>
+        <v>19.1018282077495</v>
       </c>
       <c r="J23">
-        <v>68.9158642424138</v>
+        <v>69.8997596934354</v>
       </c>
       <c r="K23">
-        <v>67.92309427787259</v>
+        <v>63.84039807623</v>
       </c>
       <c r="L23">
-        <v>37.6734644332232</v>
+        <v>32.0249004173631</v>
       </c>
       <c r="M23">
-        <v>386.653367176863</v>
+        <v>394.11044036486</v>
       </c>
       <c r="N23">
-        <v>74.3285627448266</v>
+        <v>76.43485630091411</v>
       </c>
       <c r="O23">
-        <v>2996.66883206583</v>
+        <v>3014.64293072289</v>
       </c>
       <c r="P23">
-        <v>47.1175611568964</v>
+        <v>47.5553467252232</v>
       </c>
     </row>
     <row r="24">
@@ -1590,49 +1590,49 @@
         </is>
       </c>
       <c r="B24">
-        <v>1129.81329492862</v>
+        <v>1130.83549364652</v>
       </c>
       <c r="C24">
-        <v>40.0970185952577</v>
+        <v>38.2475043237623</v>
       </c>
       <c r="D24">
-        <v>7.33716262327093</v>
+        <v>7.87810725583951</v>
       </c>
       <c r="E24">
-        <v>49.920296432366</v>
+        <v>49.9201517589999</v>
       </c>
       <c r="F24">
-        <v>6.29541379795197</v>
+        <v>6.88811862908443</v>
       </c>
       <c r="G24">
-        <v>22.1866821372094</v>
+        <v>22.4630531541745</v>
       </c>
       <c r="H24">
-        <v>15.8356049108676</v>
+        <v>13.7071554199532</v>
       </c>
       <c r="I24">
-        <v>10.7806287907145</v>
+        <v>10.4829058607765</v>
       </c>
       <c r="J24">
-        <v>28.740847722812</v>
+        <v>31.4659095547657</v>
       </c>
       <c r="K24">
-        <v>12.8448899367882</v>
+        <v>13.7254549770405</v>
       </c>
       <c r="L24">
-        <v>55.3131579768884</v>
+        <v>54.5474082041143</v>
       </c>
       <c r="M24">
-        <v>13.376002914762</v>
+        <v>14.2686066256449</v>
       </c>
       <c r="N24">
-        <v>59.6673149029325</v>
+        <v>58.2807372011106</v>
       </c>
       <c r="O24">
-        <v>1925.017506368</v>
+        <v>1914.8787371056</v>
       </c>
       <c r="P24">
-        <v>60.2578917067018</v>
+        <v>62.5391970500161</v>
       </c>
     </row>
     <row r="25">
@@ -1642,49 +1642,49 @@
         </is>
       </c>
       <c r="B25">
-        <v>946.423293374121</v>
+        <v>936.589035134807</v>
       </c>
       <c r="C25">
-        <v>19.7935903772316</v>
+        <v>23.1314461589554</v>
       </c>
       <c r="D25">
-        <v>10.4508136191615</v>
+        <v>10.0938584468412</v>
       </c>
       <c r="E25">
-        <v>35.6063290150821</v>
+        <v>34.7973354741167</v>
       </c>
       <c r="F25">
-        <v>19.8688822647215</v>
+        <v>17.0094632189596</v>
       </c>
       <c r="G25">
-        <v>7.06827123420099</v>
+        <v>8.043162678635939</v>
       </c>
       <c r="H25">
-        <v>4.71181561345383</v>
+        <v>4.45152265121995</v>
       </c>
       <c r="I25">
-        <v>0.995223012210182</v>
+        <v>1.85485446636522</v>
       </c>
       <c r="J25">
-        <v>8.201809430975541</v>
+        <v>8.61088333421525</v>
       </c>
       <c r="K25">
-        <v>5.71496596914763</v>
+        <v>6.04266383945783</v>
       </c>
       <c r="L25">
-        <v>6.64869351087587</v>
+        <v>6.85434184664725</v>
       </c>
       <c r="M25">
-        <v>32.71273062815</v>
+        <v>31.7726732451216</v>
       </c>
       <c r="N25">
-        <v>41.3034003962942</v>
+        <v>38.5589677178359</v>
       </c>
       <c r="O25">
-        <v>727.278095398487</v>
+        <v>741.018450356844</v>
       </c>
       <c r="P25">
-        <v>43.4227795729296</v>
+        <v>40.7272914929216</v>
       </c>
     </row>
     <row r="26">
@@ -1694,49 +1694,49 @@
         </is>
       </c>
       <c r="B26">
-        <v>1527.31960938236</v>
+        <v>1528.19347142632</v>
       </c>
       <c r="C26">
-        <v>40.9485500810474</v>
+        <v>40.6410558460433</v>
       </c>
       <c r="D26">
-        <v>3.84895309444844</v>
+        <v>3.89393519724326</v>
       </c>
       <c r="E26">
-        <v>49.5087861848174</v>
+        <v>45.5377211350369</v>
       </c>
       <c r="F26">
-        <v>8.594126993524339</v>
+        <v>9.55538515068306</v>
       </c>
       <c r="G26">
-        <v>26.1271478596156</v>
+        <v>24.2783881314504</v>
       </c>
       <c r="H26">
-        <v>10.9180597993233</v>
+        <v>10.5287728784736</v>
       </c>
       <c r="I26">
-        <v>18.6931083965737</v>
+        <v>20.1505762599101</v>
       </c>
       <c r="J26">
-        <v>32.9861860229608</v>
+        <v>30.9850978141778</v>
       </c>
       <c r="K26">
-        <v>14.8345903819332</v>
+        <v>14.5312851228617</v>
       </c>
       <c r="L26">
-        <v>27.5080234325015</v>
+        <v>28.5235473229289</v>
       </c>
       <c r="M26">
-        <v>42.5241421821469</v>
+        <v>41.6533851545622</v>
       </c>
       <c r="N26">
-        <v>32.6244362181298</v>
+        <v>30.2341099311544</v>
       </c>
       <c r="O26">
-        <v>2066.35531322303</v>
+        <v>2073.13153631437</v>
       </c>
       <c r="P26">
-        <v>36.5896158636339</v>
+        <v>37.6785069545022</v>
       </c>
     </row>
     <row r="27">
@@ -1746,49 +1746,49 @@
         </is>
       </c>
       <c r="B27">
-        <v>253.148861256601</v>
+        <v>254.267716245006</v>
       </c>
       <c r="C27">
-        <v>2.61540498585236</v>
+        <v>2.55787730276166</v>
       </c>
       <c r="D27">
-        <v>0.383806274855895</v>
+        <v>0.585853158017329</v>
       </c>
       <c r="E27">
-        <v>6.46145005131075</v>
+        <v>6.62523191690074</v>
       </c>
       <c r="F27">
-        <v>4.79085101692333</v>
+        <v>4.78227411481969</v>
       </c>
       <c r="G27">
-        <v>0.670622472899432</v>
+        <v>0.548604652497389</v>
       </c>
       <c r="H27">
-        <v>0.07487806640472131</v>
+        <v>0.0640064185308839</v>
       </c>
       <c r="I27">
-        <v>1.10178602424095</v>
+        <v>1.12194032699392</v>
       </c>
       <c r="J27">
-        <v>2.33135226956649</v>
+        <v>2.25627511941481</v>
       </c>
       <c r="K27">
-        <v>0.461466991883986</v>
+        <v>0.46316624404578</v>
       </c>
       <c r="L27">
-        <v>0.956926768812391</v>
+        <v>1.04504429562823</v>
       </c>
       <c r="M27">
-        <v>0.260384940161079</v>
+        <v>0.235971205840687</v>
       </c>
       <c r="N27">
-        <v>2.63290401120736</v>
+        <v>2.53555498352058</v>
       </c>
       <c r="O27">
-        <v>339.216697658538</v>
+        <v>336.287198583843</v>
       </c>
       <c r="P27">
-        <v>36.7212273297304</v>
+        <v>37.0477361912509</v>
       </c>
     </row>
     <row r="28">
@@ -1798,49 +1798,49 @@
         </is>
       </c>
       <c r="B28">
-        <v>387.481875606228</v>
+        <v>386.795436543062</v>
       </c>
       <c r="C28">
-        <v>29.3448119876878</v>
+        <v>29.1648894151049</v>
       </c>
       <c r="D28">
-        <v>1.05971239678069</v>
+        <v>1.20493294769999</v>
       </c>
       <c r="E28">
-        <v>2.55309181822889</v>
+        <v>3.48716728112812</v>
       </c>
       <c r="F28">
-        <v>0.0322503660741502</v>
+        <v>0.224218796306402</v>
       </c>
       <c r="G28">
-        <v>4.03048527533729</v>
+        <v>4.30970853148052</v>
       </c>
       <c r="H28">
-        <v>5.45334575665947</v>
+        <v>5.4263372155671</v>
       </c>
       <c r="I28">
-        <v>4.05943180983489</v>
+        <v>3.96461622098283</v>
       </c>
       <c r="J28">
-        <v>15.4076610033069</v>
+        <v>15.7189980419388</v>
       </c>
       <c r="K28">
-        <v>10.5483087987878</v>
+        <v>9.30375476769879</v>
       </c>
       <c r="L28">
-        <v>9.8832035326419</v>
+        <v>10.3613041289025</v>
       </c>
       <c r="M28">
-        <v>7.94626968680343</v>
+        <v>7.70807512123851</v>
       </c>
       <c r="N28">
-        <v>8.23917567253023</v>
+        <v>8.22122879805463</v>
       </c>
       <c r="O28">
-        <v>645.940409730768</v>
+        <v>643.438640212999</v>
       </c>
       <c r="P28">
-        <v>56.979272641146</v>
+        <v>59.0694279994902</v>
       </c>
     </row>
     <row r="29">
@@ -1850,49 +1850,49 @@
         </is>
       </c>
       <c r="B29">
-        <v>597.851627172922</v>
+        <v>598.261328589248</v>
       </c>
       <c r="C29">
-        <v>1.88581882226888</v>
+        <v>2.40669639030678</v>
       </c>
       <c r="D29">
-        <v>2.59614501589277</v>
+        <v>2.44199732717323</v>
       </c>
       <c r="E29">
-        <v>4.72809194812928</v>
+        <v>4.64833314778162</v>
       </c>
       <c r="F29">
-        <v>20.3723243064516</v>
+        <v>20.0092309941875</v>
       </c>
       <c r="G29">
-        <v>2.38216139034296</v>
+        <v>2.73066686323968</v>
       </c>
       <c r="H29">
-        <v>0.589716970830285</v>
+        <v>0.989227802757188</v>
       </c>
       <c r="I29">
-        <v>1.17090364815992</v>
+        <v>1.01859436676662</v>
       </c>
       <c r="J29">
-        <v>2.87678790468752</v>
+        <v>2.81191852710449</v>
       </c>
       <c r="K29">
-        <v>2.93979915760575</v>
+        <v>2.49857973314252</v>
       </c>
       <c r="L29">
-        <v>1.90880468140578</v>
+        <v>1.91959589095974</v>
       </c>
       <c r="M29">
-        <v>3.56940440878478</v>
+        <v>3.33214665165574</v>
       </c>
       <c r="N29">
-        <v>8.87245143580064</v>
+        <v>8.717159601728961</v>
       </c>
       <c r="O29">
-        <v>927.592668025107</v>
+        <v>932.249857613381</v>
       </c>
       <c r="P29">
-        <v>3.02678020991615</v>
+        <v>2.94596315340462</v>
       </c>
     </row>
     <row r="30">
@@ -1902,49 +1902,49 @@
         </is>
       </c>
       <c r="B30">
-        <v>281.907427328712</v>
+        <v>282.872067843103</v>
       </c>
       <c r="C30">
-        <v>4.18664482884292</v>
+        <v>4.19748734896328</v>
       </c>
       <c r="D30">
-        <v>3.21169885320693</v>
+        <v>2.73822404743534</v>
       </c>
       <c r="E30">
-        <v>6.97499927830513</v>
+        <v>7.20387885450203</v>
       </c>
       <c r="F30">
-        <v>0.260268369333248</v>
+        <v>0.265033482629734</v>
       </c>
       <c r="G30">
-        <v>5.44800585180034</v>
+        <v>5.26822979510225</v>
       </c>
       <c r="H30">
-        <v>1.99442199223819</v>
+        <v>2.30553661718485</v>
       </c>
       <c r="I30">
-        <v>1.57352102509781</v>
+        <v>1.72071292634843</v>
       </c>
       <c r="J30">
-        <v>14.536439902384</v>
+        <v>13.8742437934368</v>
       </c>
       <c r="K30">
-        <v>3.53346735791069</v>
+        <v>3.12948465280922</v>
       </c>
       <c r="L30">
-        <v>31.1408347733768</v>
+        <v>32.1232059116378</v>
       </c>
       <c r="M30">
-        <v>6.34820290832776</v>
+        <v>6.34326380828334</v>
       </c>
       <c r="N30">
-        <v>12.9695870661455</v>
+        <v>12.735043149846</v>
       </c>
       <c r="O30">
-        <v>482.003537642572</v>
+        <v>482.408749131059</v>
       </c>
       <c r="P30">
-        <v>3.3790166871861</v>
+        <v>3.56606015653296</v>
       </c>
     </row>
     <row r="31">
@@ -1954,49 +1954,49 @@
         </is>
       </c>
       <c r="B31">
-        <v>2295.46208009967</v>
+        <v>2293.96050840654</v>
       </c>
       <c r="C31">
-        <v>41.6075674247448</v>
+        <v>44.4210446716967</v>
       </c>
       <c r="D31">
-        <v>3.32941053147479</v>
+        <v>3.99685870164036</v>
       </c>
       <c r="E31">
-        <v>23.4478923858213</v>
+        <v>25.3585195470997</v>
       </c>
       <c r="F31">
-        <v>3.9639807788017</v>
+        <v>2.96589170988242</v>
       </c>
       <c r="G31">
-        <v>103.84327041164</v>
+        <v>101.292128587227</v>
       </c>
       <c r="H31">
-        <v>6.90998049357632</v>
+        <v>6.00614214951418</v>
       </c>
       <c r="I31">
-        <v>8.55659079261002</v>
+        <v>9.162720541950801</v>
       </c>
       <c r="J31">
-        <v>21.0985669806411</v>
+        <v>21.3305804526722</v>
       </c>
       <c r="K31">
-        <v>5.70678020315075</v>
+        <v>6.0053274323567</v>
       </c>
       <c r="L31">
-        <v>43.6108481803398</v>
+        <v>42.6607953635187</v>
       </c>
       <c r="M31">
-        <v>15.1569592198049</v>
+        <v>16.1302003201121</v>
       </c>
       <c r="N31">
-        <v>52.4920148814718</v>
+        <v>49.0900509655626</v>
       </c>
       <c r="O31">
-        <v>3007.0989100508</v>
+        <v>2987.26499887418</v>
       </c>
       <c r="P31">
-        <v>15.5065293402566</v>
+        <v>15.7040815630549</v>
       </c>
     </row>
     <row r="32">
@@ -2006,49 +2006,49 @@
         </is>
       </c>
       <c r="B32">
-        <v>579.57098482701</v>
+        <v>572.677335931823</v>
       </c>
       <c r="C32">
-        <v>1.99110825490799</v>
+        <v>2.31979572079196</v>
       </c>
       <c r="D32">
-        <v>1.14197904517455</v>
+        <v>1.14670494991508</v>
       </c>
       <c r="E32">
-        <v>2.03973336377435</v>
+        <v>2.29908667966075</v>
       </c>
       <c r="F32">
-        <v>19.2886828915213</v>
+        <v>18.8930458671405</v>
       </c>
       <c r="G32">
-        <v>3.20147474724328</v>
+        <v>3.04498024784588</v>
       </c>
       <c r="H32">
-        <v>0.223663484524189</v>
+        <v>0.188603704037866</v>
       </c>
       <c r="I32">
-        <v>1.29357013933165</v>
+        <v>1.38267169068788</v>
       </c>
       <c r="J32">
-        <v>3.96471129080978</v>
+        <v>3.31578889868018</v>
       </c>
       <c r="K32">
-        <v>0.8137710805956721</v>
+        <v>0.8138194066172461</v>
       </c>
       <c r="L32">
-        <v>4.23490957247832</v>
+        <v>4.79785834489579</v>
       </c>
       <c r="M32">
-        <v>6.75262009326466</v>
+        <v>5.61842874719738</v>
       </c>
       <c r="N32">
-        <v>11.0868134418858</v>
+        <v>11.1032882830499</v>
       </c>
       <c r="O32">
-        <v>628.429828063949</v>
+        <v>638.315176125247</v>
       </c>
       <c r="P32">
-        <v>14.8120165483586</v>
+        <v>14.3902444164067</v>
       </c>
     </row>
     <row r="33">
@@ -2058,49 +2058,49 @@
         </is>
       </c>
       <c r="B33">
-        <v>5724.56955227594</v>
+        <v>5696.1488176767</v>
       </c>
       <c r="C33">
-        <v>58.687128619828</v>
+        <v>58.20654814919</v>
       </c>
       <c r="D33">
-        <v>4.83834867813963</v>
+        <v>7.2860989750474</v>
       </c>
       <c r="E33">
-        <v>51.9337135450959</v>
+        <v>50.0581078502004</v>
       </c>
       <c r="F33">
-        <v>8.29014350395425</v>
+        <v>7.25208867196722</v>
       </c>
       <c r="G33">
-        <v>46.9332005415267</v>
+        <v>48.6423392918222</v>
       </c>
       <c r="H33">
-        <v>22.3053981852033</v>
+        <v>21.8445636259679</v>
       </c>
       <c r="I33">
-        <v>16.6142284891335</v>
+        <v>16.424136669918</v>
       </c>
       <c r="J33">
-        <v>58.9150489197755</v>
+        <v>61.8714057747738</v>
       </c>
       <c r="K33">
-        <v>34.5156271047547</v>
+        <v>38.9907353287706</v>
       </c>
       <c r="L33">
-        <v>72.1843101335289</v>
+        <v>74.22132236587331</v>
       </c>
       <c r="M33">
-        <v>33.9867189216303</v>
+        <v>35.1904247938289</v>
       </c>
       <c r="N33">
-        <v>95.2189255550574</v>
+        <v>99.8738512408101</v>
       </c>
       <c r="O33">
-        <v>6351.57930164387</v>
+        <v>6361.70907057855</v>
       </c>
       <c r="P33">
-        <v>57.6599697722854</v>
+        <v>58.2909709831323</v>
       </c>
     </row>
     <row r="34">
@@ -2110,49 +2110,49 @@
         </is>
       </c>
       <c r="B34">
-        <v>2486.98230066281</v>
+        <v>2496.55585690286</v>
       </c>
       <c r="C34">
-        <v>49.8091872523452</v>
+        <v>50.1627085158462</v>
       </c>
       <c r="D34">
-        <v>38.9129903969411</v>
+        <v>41.4720932729431</v>
       </c>
       <c r="E34">
-        <v>39.4487469046228</v>
+        <v>41.2430284782626</v>
       </c>
       <c r="F34">
-        <v>1.91587638195246</v>
+        <v>2.12422903961811</v>
       </c>
       <c r="G34">
-        <v>42.2825532147816</v>
+        <v>41.0308351354915</v>
       </c>
       <c r="H34">
-        <v>23.968494476051</v>
+        <v>23.1506002435836</v>
       </c>
       <c r="I34">
-        <v>11.4502720946873</v>
+        <v>10.6724933827663</v>
       </c>
       <c r="J34">
-        <v>33.7335848414826</v>
+        <v>36.2953943732801</v>
       </c>
       <c r="K34">
-        <v>9.37292482178931</v>
+        <v>8.97562275218557</v>
       </c>
       <c r="L34">
-        <v>69.7030500422651</v>
+        <v>70.4854830648883</v>
       </c>
       <c r="M34">
-        <v>37.6712775123565</v>
+        <v>33.4184446063426</v>
       </c>
       <c r="N34">
-        <v>97.55426662347109</v>
+        <v>96.446832617494</v>
       </c>
       <c r="O34">
-        <v>2962.22857751705</v>
+        <v>2977.78549136314</v>
       </c>
       <c r="P34">
-        <v>51.2906698449073</v>
+        <v>48.8008211915467</v>
       </c>
     </row>
     <row r="35">
@@ -2162,49 +2162,49 @@
         </is>
       </c>
       <c r="B35">
-        <v>142.280706883058</v>
+        <v>141.811607581361</v>
       </c>
       <c r="C35">
-        <v>5.5169474877459</v>
+        <v>5.51512849783115</v>
       </c>
       <c r="D35">
-        <v>0.474180337493798</v>
+        <v>0.441636736344058</v>
       </c>
       <c r="E35">
-        <v>2.78000595122095</v>
+        <v>2.95383662463913</v>
       </c>
       <c r="F35">
-        <v>2.8067784637324</v>
+        <v>3.04549134773876</v>
       </c>
       <c r="G35">
-        <v>0.722161648427198</v>
+        <v>0.5043912287876871</v>
       </c>
       <c r="H35">
-        <v>0.936398888988157</v>
+        <v>0.70799374766893</v>
       </c>
       <c r="I35">
-        <v>1.16006084744225</v>
+        <v>1.05187780904084</v>
       </c>
       <c r="J35">
-        <v>1.82236769866259</v>
+        <v>1.93003904202486</v>
       </c>
       <c r="K35">
-        <v>2.5949150578722</v>
+        <v>2.87072847086288</v>
       </c>
       <c r="L35">
-        <v>2.49378859296906</v>
+        <v>2.75590784237472</v>
       </c>
       <c r="M35">
-        <v>3.51995668902254</v>
+        <v>3.23786130351114</v>
       </c>
       <c r="N35">
-        <v>3.28578256925963</v>
+        <v>3.3654420177577</v>
       </c>
       <c r="O35">
-        <v>242.519509282284</v>
+        <v>241.776461233793</v>
       </c>
       <c r="P35">
-        <v>34.7876667773318</v>
+        <v>34.8552358106507</v>
       </c>
     </row>
     <row r="36">
@@ -2214,49 +2214,49 @@
         </is>
       </c>
       <c r="B36">
-        <v>3216.22113492105</v>
+        <v>3208.38333865186</v>
       </c>
       <c r="C36">
-        <v>76.47971569225059</v>
+        <v>77.33974015442649</v>
       </c>
       <c r="D36">
-        <v>6.08123742832823</v>
+        <v>7.02897540968578</v>
       </c>
       <c r="E36">
-        <v>110.224344979982</v>
+        <v>106.966501075565</v>
       </c>
       <c r="F36">
-        <v>15.713499106162</v>
+        <v>15.5794062342229</v>
       </c>
       <c r="G36">
-        <v>75.1517683421164</v>
+        <v>74.92387562345979</v>
       </c>
       <c r="H36">
-        <v>63.0579635168603</v>
+        <v>61.3623507949454</v>
       </c>
       <c r="I36">
-        <v>26.4632323786099</v>
+        <v>26.7356583518258</v>
       </c>
       <c r="J36">
-        <v>178.691568886176</v>
+        <v>175.311326027993</v>
       </c>
       <c r="K36">
-        <v>48.3992476140951</v>
+        <v>47.1912486815592</v>
       </c>
       <c r="L36">
-        <v>51.0953091526881</v>
+        <v>49.2145825003025</v>
       </c>
       <c r="M36">
-        <v>142.197869198475</v>
+        <v>145.697928599039</v>
       </c>
       <c r="N36">
-        <v>103.500355397167</v>
+        <v>101.91124058978</v>
       </c>
       <c r="O36">
-        <v>3736.68059143884</v>
+        <v>3758.18435650896</v>
       </c>
       <c r="P36">
-        <v>60.9703240699734</v>
+        <v>59.393579798064</v>
       </c>
     </row>
     <row r="37">
@@ -2266,49 +2266,49 @@
         </is>
       </c>
       <c r="B37">
-        <v>1081.10235973639</v>
+        <v>1084.24464756524</v>
       </c>
       <c r="C37">
-        <v>11.6558967697842</v>
+        <v>12.3988807039946</v>
       </c>
       <c r="D37">
-        <v>2.36250490727634</v>
+        <v>2.87164687017172</v>
       </c>
       <c r="E37">
-        <v>16.4151911671104</v>
+        <v>16.977388830755</v>
       </c>
       <c r="F37">
-        <v>40.8361833735818</v>
+        <v>40.689486245808</v>
       </c>
       <c r="G37">
-        <v>4.3885163838344</v>
+        <v>5.06312600880785</v>
       </c>
       <c r="H37">
-        <v>21.1475344275233</v>
+        <v>21.9213420544129</v>
       </c>
       <c r="I37">
-        <v>8.043854618939299</v>
+        <v>7.0199102910863</v>
       </c>
       <c r="J37">
-        <v>31.6996456242171</v>
+        <v>32.6662988105677</v>
       </c>
       <c r="K37">
-        <v>6.07716012631938</v>
+        <v>5.8922935733165</v>
       </c>
       <c r="L37">
-        <v>16.2946156909795</v>
+        <v>15.1036568608202</v>
       </c>
       <c r="M37">
-        <v>20.1636896305338</v>
+        <v>21.2250196997575</v>
       </c>
       <c r="N37">
-        <v>18.1110998703281</v>
+        <v>19.4766216487437</v>
       </c>
       <c r="O37">
-        <v>1120.81871869087</v>
+        <v>1124.54735784187</v>
       </c>
       <c r="P37">
-        <v>47.3749827650665</v>
+        <v>44.3455430809592</v>
       </c>
     </row>
     <row r="38">
@@ -2318,49 +2318,49 @@
         </is>
       </c>
       <c r="B38">
-        <v>1076.71788303173</v>
+        <v>1069.18258650375</v>
       </c>
       <c r="C38">
-        <v>20.181571199801</v>
+        <v>21.0956066642371</v>
       </c>
       <c r="D38">
-        <v>3.45765192666822</v>
+        <v>3.80522418859915</v>
       </c>
       <c r="E38">
-        <v>40.5745167053701</v>
+        <v>39.929933713937</v>
       </c>
       <c r="F38">
-        <v>0.352597148132749</v>
+        <v>0.911671480920065</v>
       </c>
       <c r="G38">
-        <v>9.073439316634421</v>
+        <v>8.687922960586009</v>
       </c>
       <c r="H38">
-        <v>1.060295428604</v>
+        <v>0.893739467747683</v>
       </c>
       <c r="I38">
-        <v>3.97500993173062</v>
+        <v>3.47791366305652</v>
       </c>
       <c r="J38">
-        <v>22.4907576344816</v>
+        <v>22.4724916624542</v>
       </c>
       <c r="K38">
-        <v>2.50541883771047</v>
+        <v>2.70493594365361</v>
       </c>
       <c r="L38">
-        <v>84.27554552012531</v>
+        <v>82.51590832326311</v>
       </c>
       <c r="M38">
-        <v>17.2887545820272</v>
+        <v>16.8619201750262</v>
       </c>
       <c r="N38">
-        <v>45.111129496704</v>
+        <v>47.2377247203233</v>
       </c>
       <c r="O38">
-        <v>1239.56611476724</v>
+        <v>1244.70390760767</v>
       </c>
       <c r="P38">
-        <v>42.8354937577218</v>
+        <v>40.3857249785599</v>
       </c>
     </row>
     <row r="39">
@@ -2370,49 +2370,49 @@
         </is>
       </c>
       <c r="B39">
-        <v>3545.52477518021</v>
+        <v>3557.1840023696</v>
       </c>
       <c r="C39">
-        <v>79.32557700657971</v>
+        <v>77.9400424084058</v>
       </c>
       <c r="D39">
-        <v>24.4582282113564</v>
+        <v>25.9224010881987</v>
       </c>
       <c r="E39">
-        <v>97.3655707846283</v>
+        <v>103.056087728427</v>
       </c>
       <c r="F39">
-        <v>29.5106005855449</v>
+        <v>28.0930696483384</v>
       </c>
       <c r="G39">
-        <v>94.1564754879537</v>
+        <v>99.89377540542731</v>
       </c>
       <c r="H39">
-        <v>39.8729087849505</v>
+        <v>37.7280669495954</v>
       </c>
       <c r="I39">
-        <v>17.4660020759642</v>
+        <v>18.1285278444126</v>
       </c>
       <c r="J39">
-        <v>141.786340856664</v>
+        <v>138.714162306614</v>
       </c>
       <c r="K39">
-        <v>29.3905338685063</v>
+        <v>31.0393206893655</v>
       </c>
       <c r="L39">
-        <v>97.9211087726128</v>
+        <v>96.1732923258818</v>
       </c>
       <c r="M39">
-        <v>50.6493897457756</v>
+        <v>52.2417041873228</v>
       </c>
       <c r="N39">
-        <v>102.992515378475</v>
+        <v>100.704081076767</v>
       </c>
       <c r="O39">
-        <v>4365.49507611622</v>
+        <v>4362.77053147144</v>
       </c>
       <c r="P39">
-        <v>71.4678840829708</v>
+        <v>70.9771183069944</v>
       </c>
     </row>
     <row r="40">
@@ -2422,49 +2422,49 @@
         </is>
       </c>
       <c r="B40">
-        <v>282.293767273087</v>
+        <v>281.902490117816</v>
       </c>
       <c r="C40">
-        <v>2.21557794847214</v>
+        <v>2.31163927784182</v>
       </c>
       <c r="D40">
-        <v>5.50466526818738</v>
+        <v>5.21113382726705</v>
       </c>
       <c r="E40">
-        <v>3.24263779870895</v>
+        <v>3.46682654442246</v>
       </c>
       <c r="F40">
-        <v>0.336162737251909</v>
+        <v>0.240736663669375</v>
       </c>
       <c r="G40">
-        <v>4.43652836937122</v>
+        <v>4.29630832032742</v>
       </c>
       <c r="H40">
-        <v>3.66356388978687</v>
+        <v>3.4695730075807</v>
       </c>
       <c r="I40">
-        <v>2.39770183934687</v>
+        <v>2.52958668792358</v>
       </c>
       <c r="J40">
-        <v>8.56266985096662</v>
+        <v>8.273938758018041</v>
       </c>
       <c r="K40">
-        <v>1.49340278915726</v>
+        <v>1.2969221766786</v>
       </c>
       <c r="L40">
-        <v>7.7541831361039</v>
+        <v>7.92929010850035</v>
       </c>
       <c r="M40">
-        <v>4.75183926840344</v>
+        <v>4.82194084965995</v>
       </c>
       <c r="N40">
-        <v>16.3217231289887</v>
+        <v>15.7687349808689</v>
       </c>
       <c r="O40">
-        <v>376.14372303666</v>
+        <v>375.319480972123</v>
       </c>
       <c r="P40">
-        <v>4.06238317106674</v>
+        <v>4.10730910137434</v>
       </c>
     </row>
     <row r="41">
@@ -2474,49 +2474,49 @@
         </is>
       </c>
       <c r="B41">
-        <v>1377.47326410069</v>
+        <v>1384.59847214288</v>
       </c>
       <c r="C41">
-        <v>17.2035196084533</v>
+        <v>18.5839549490068</v>
       </c>
       <c r="D41">
-        <v>33.8015511339349</v>
+        <v>36.0198324625378</v>
       </c>
       <c r="E41">
-        <v>21.4325604996949</v>
+        <v>23.4700603890563</v>
       </c>
       <c r="F41">
-        <v>1.28925294414452</v>
+        <v>1.43633539307547</v>
       </c>
       <c r="G41">
-        <v>21.6105870719698</v>
+        <v>22.2893812607257</v>
       </c>
       <c r="H41">
-        <v>17.0183912688878</v>
+        <v>16.1892522566809</v>
       </c>
       <c r="I41">
-        <v>10.3549476582568</v>
+        <v>10.4795194505013</v>
       </c>
       <c r="J41">
-        <v>36.9277018371521</v>
+        <v>34.6516699357765</v>
       </c>
       <c r="K41">
-        <v>7.36739691340684</v>
+        <v>6.48354962493713</v>
       </c>
       <c r="L41">
-        <v>24.085178713339</v>
+        <v>23.5209952436196</v>
       </c>
       <c r="M41">
-        <v>25.4691028237048</v>
+        <v>26.2144518761467</v>
       </c>
       <c r="N41">
-        <v>20.1444728260792</v>
+        <v>18.7070466529219</v>
       </c>
       <c r="O41">
-        <v>1338.16464524211</v>
+        <v>1340.2739687705</v>
       </c>
       <c r="P41">
-        <v>18.0550862330204</v>
+        <v>16.6668864908997</v>
       </c>
     </row>
     <row r="42">
@@ -2526,49 +2526,49 @@
         </is>
       </c>
       <c r="B42">
-        <v>157.400033874571</v>
+        <v>159.292697128515</v>
       </c>
       <c r="C42">
-        <v>5.69268649970342</v>
+        <v>5.48991253326821</v>
       </c>
       <c r="D42">
-        <v>1.37003262788005</v>
+        <v>1.29548635071536</v>
       </c>
       <c r="E42">
-        <v>3.48300417611659</v>
+        <v>3.95695579382052</v>
       </c>
       <c r="F42">
-        <v>2.12433562783457</v>
+        <v>1.83068582341116</v>
       </c>
       <c r="G42">
-        <v>1.30181790850485</v>
+        <v>1.36176484452374</v>
       </c>
       <c r="H42">
-        <v>1.73462386619256</v>
+        <v>1.88434622372273</v>
       </c>
       <c r="I42">
-        <v>1.86993287212615</v>
+        <v>1.94180038653247</v>
       </c>
       <c r="J42">
-        <v>4.47483163024275</v>
+        <v>4.47322033364097</v>
       </c>
       <c r="K42">
-        <v>2.9991405769126</v>
+        <v>3.02085464170893</v>
       </c>
       <c r="L42">
-        <v>3.86257137711035</v>
+        <v>4.20558517943419</v>
       </c>
       <c r="M42">
-        <v>2.11111371740068</v>
+        <v>2.59128380940501</v>
       </c>
       <c r="N42">
-        <v>7.6312634354007</v>
+        <v>7.47923047310124</v>
       </c>
       <c r="O42">
-        <v>266.033314333237</v>
+        <v>267.655821096282</v>
       </c>
       <c r="P42">
-        <v>43.9119849833752</v>
+        <v>44.0767648425445</v>
       </c>
     </row>
     <row r="43">
@@ -2578,49 +2578,49 @@
         </is>
       </c>
       <c r="B43">
-        <v>1864.46552945275</v>
+        <v>1864.9587165035</v>
       </c>
       <c r="C43">
-        <v>32.3276357061023</v>
+        <v>33.4903203449617</v>
       </c>
       <c r="D43">
-        <v>16.0312004003623</v>
+        <v>14.1540353588172</v>
       </c>
       <c r="E43">
-        <v>58.7374661952012</v>
+        <v>61.5547809723325</v>
       </c>
       <c r="F43">
-        <v>9.611802618269669</v>
+        <v>10.6319975613442</v>
       </c>
       <c r="G43">
-        <v>30.7747262793354</v>
+        <v>30.5005757300899</v>
       </c>
       <c r="H43">
-        <v>35.9508212761136</v>
+        <v>31.5276979502632</v>
       </c>
       <c r="I43">
-        <v>2.77720240969954</v>
+        <v>3.24761088725001</v>
       </c>
       <c r="J43">
-        <v>49.0462002941736</v>
+        <v>47.825738761996</v>
       </c>
       <c r="K43">
-        <v>4.33846120849513</v>
+        <v>5.71550416986839</v>
       </c>
       <c r="L43">
-        <v>33.0505163415622</v>
+        <v>31.3144040920873</v>
       </c>
       <c r="M43">
-        <v>72.4241397040973</v>
+        <v>69.8065297568884</v>
       </c>
       <c r="N43">
-        <v>50.7459647677299</v>
+        <v>51.7391119989959</v>
       </c>
       <c r="O43">
-        <v>1933.63049618518</v>
+        <v>1934.96108560973</v>
       </c>
       <c r="P43">
-        <v>34.9501425843448</v>
+        <v>35.5114978808122</v>
       </c>
     </row>
     <row r="44">
@@ -2630,49 +2630,49 @@
         </is>
       </c>
       <c r="B44">
-        <v>5755.19029953001</v>
+        <v>5794.92491917322</v>
       </c>
       <c r="C44">
-        <v>121.575753848218</v>
+        <v>127.918354583275</v>
       </c>
       <c r="D44">
-        <v>14.6816977341665</v>
+        <v>15.3519099621619</v>
       </c>
       <c r="E44">
-        <v>64.38154646155741</v>
+        <v>63.2226922882044</v>
       </c>
       <c r="F44">
-        <v>244.733251566488</v>
+        <v>243.670795986129</v>
       </c>
       <c r="G44">
-        <v>117.913488422551</v>
+        <v>112.190784503996</v>
       </c>
       <c r="H44">
-        <v>24.1036589947408</v>
+        <v>26.6725681952199</v>
       </c>
       <c r="I44">
-        <v>43.4403882625467</v>
+        <v>41.4937763699822</v>
       </c>
       <c r="J44">
-        <v>102.986761328696</v>
+        <v>102.193463671204</v>
       </c>
       <c r="K44">
-        <v>23.100603025979</v>
+        <v>22.3997777027348</v>
       </c>
       <c r="L44">
-        <v>160.691518545687</v>
+        <v>153.515570809262</v>
       </c>
       <c r="M44">
-        <v>83.08795539670891</v>
+        <v>79.9967005913846</v>
       </c>
       <c r="N44">
-        <v>93.56605558974709</v>
+        <v>88.4402019879861</v>
       </c>
       <c r="O44">
-        <v>7683.56308167008</v>
+        <v>7708.88868718589</v>
       </c>
       <c r="P44">
-        <v>149.125432561684</v>
+        <v>153.190579813922</v>
       </c>
     </row>
     <row r="45">
@@ -2682,49 +2682,49 @@
         </is>
       </c>
       <c r="B45">
-        <v>492.210076319566</v>
+        <v>502.689921066249</v>
       </c>
       <c r="C45">
-        <v>14.6386658017863</v>
+        <v>14.8452130986631</v>
       </c>
       <c r="D45">
-        <v>1.28959184382836</v>
+        <v>1.19413998769814</v>
       </c>
       <c r="E45">
-        <v>7.26624261435099</v>
+        <v>7.47604013062243</v>
       </c>
       <c r="F45">
-        <v>22.7932815287515</v>
+        <v>22.9988635670662</v>
       </c>
       <c r="G45">
-        <v>7.02861565682602</v>
+        <v>6.57826222822734</v>
       </c>
       <c r="H45">
-        <v>1.13567280445375</v>
+        <v>1.32178156732786</v>
       </c>
       <c r="I45">
-        <v>2.67202896102204</v>
+        <v>2.58731505104366</v>
       </c>
       <c r="J45">
-        <v>20.9969766837023</v>
+        <v>21.3424273327888</v>
       </c>
       <c r="K45">
-        <v>2.17320858133537</v>
+        <v>2.2464345435382</v>
       </c>
       <c r="L45">
-        <v>14.051726634945</v>
+        <v>14.3720352957836</v>
       </c>
       <c r="M45">
-        <v>13.6124365463718</v>
+        <v>13.792786328836</v>
       </c>
       <c r="N45">
-        <v>29.158206502354</v>
+        <v>29.0951645153837</v>
       </c>
       <c r="O45">
-        <v>869.825746998351</v>
+        <v>872.767572172328</v>
       </c>
       <c r="P45">
-        <v>11.5391582897483</v>
+        <v>10.4691184134035</v>
       </c>
     </row>
     <row r="46">
@@ -2734,49 +2734,49 @@
         </is>
       </c>
       <c r="B46">
-        <v>136.629862449552</v>
+        <v>137.69633650726</v>
       </c>
       <c r="C46">
-        <v>3.04706970558669</v>
+        <v>3.21880418727534</v>
       </c>
       <c r="D46">
-        <v>0.637308424565697</v>
+        <v>0.560619754680921</v>
       </c>
       <c r="E46">
-        <v>3.85432244924475</v>
+        <v>3.82547302324071</v>
       </c>
       <c r="F46">
-        <v>0.676405806092284</v>
+        <v>0.717480006001064</v>
       </c>
       <c r="G46">
-        <v>1.05703889625149</v>
+        <v>1.28711339718926</v>
       </c>
       <c r="H46">
-        <v>0.61069444069715</v>
+        <v>0.533121156812879</v>
       </c>
       <c r="I46">
-        <v>1.99554385235274</v>
+        <v>2.03702101912366</v>
       </c>
       <c r="J46">
-        <v>3.71494614464596</v>
+        <v>3.59471540343581</v>
       </c>
       <c r="K46">
-        <v>0.870184510241848</v>
+        <v>0.866014274620261</v>
       </c>
       <c r="L46">
-        <v>9.691586494967821</v>
+        <v>9.470379883210629</v>
       </c>
       <c r="M46">
-        <v>2.34112158240385</v>
+        <v>2.34654555406643</v>
       </c>
       <c r="N46">
-        <v>4.83700860931951</v>
+        <v>5.38794499229192</v>
       </c>
       <c r="O46">
-        <v>239.405964558835</v>
+        <v>239.586532811627</v>
       </c>
       <c r="P46">
-        <v>8.17445302617295</v>
+        <v>8.04356543614055</v>
       </c>
     </row>
     <row r="47">
@@ -2786,49 +2786,49 @@
         </is>
       </c>
       <c r="B47">
-        <v>1907.56522575403</v>
+        <v>1896.97783923737</v>
       </c>
       <c r="C47">
-        <v>44.3117721923893</v>
+        <v>45.4835305538684</v>
       </c>
       <c r="D47">
-        <v>11.7346921823645</v>
+        <v>11.8503278593096</v>
       </c>
       <c r="E47">
-        <v>35.4679129980987</v>
+        <v>37.5306782935796</v>
       </c>
       <c r="F47">
-        <v>1.46517551224469</v>
+        <v>1.64953236623603</v>
       </c>
       <c r="G47">
-        <v>24.0064046638585</v>
+        <v>27.1352773515552</v>
       </c>
       <c r="H47">
-        <v>10.2612413990937</v>
+        <v>10.1394374617137</v>
       </c>
       <c r="I47">
-        <v>9.45272199554762</v>
+        <v>8.75718497020816</v>
       </c>
       <c r="J47">
-        <v>23.5753849599436</v>
+        <v>25.3284767783225</v>
       </c>
       <c r="K47">
-        <v>4.53504615886829</v>
+        <v>4.1202028872145</v>
       </c>
       <c r="L47">
-        <v>18.3416516641234</v>
+        <v>19.3075607366649</v>
       </c>
       <c r="M47">
-        <v>56.2933612734295</v>
+        <v>54.5712030689285</v>
       </c>
       <c r="N47">
-        <v>23.8997644230201</v>
+        <v>23.0049034096253</v>
       </c>
       <c r="O47">
-        <v>2725.26439820822</v>
+        <v>2731.58904075733</v>
       </c>
       <c r="P47">
-        <v>24.1480586400885</v>
+        <v>25.8768702378877</v>
       </c>
     </row>
     <row r="48">
@@ -2838,49 +2838,49 @@
         </is>
       </c>
       <c r="B48">
-        <v>1627.59729662623</v>
+        <v>1627.2206621279</v>
       </c>
       <c r="C48">
-        <v>31.6627813199045</v>
+        <v>30.7446622514829</v>
       </c>
       <c r="D48">
-        <v>5.07015240846265</v>
+        <v>5.53934705089001</v>
       </c>
       <c r="E48">
-        <v>48.3234286161856</v>
+        <v>51.8001288755272</v>
       </c>
       <c r="F48">
-        <v>10.2000693957513</v>
+        <v>10.0030148727055</v>
       </c>
       <c r="G48">
-        <v>6.40509591752478</v>
+        <v>5.98611246718963</v>
       </c>
       <c r="H48">
-        <v>10.9539442026975</v>
+        <v>10.5969581462446</v>
       </c>
       <c r="I48">
-        <v>7.87850762627417</v>
+        <v>7.3124685398506</v>
       </c>
       <c r="J48">
-        <v>29.6101825423</v>
+        <v>31.687399971399</v>
       </c>
       <c r="K48">
-        <v>5.26663635317329</v>
+        <v>7.22128971647709</v>
       </c>
       <c r="L48">
-        <v>38.031974833003</v>
+        <v>37.6930052225455</v>
       </c>
       <c r="M48">
-        <v>115.74976586854</v>
+        <v>119.741528196184</v>
       </c>
       <c r="N48">
-        <v>41.3203021594734</v>
+        <v>36.7516393432533</v>
       </c>
       <c r="O48">
-        <v>2203.07190395101</v>
+        <v>2210.7248059545</v>
       </c>
       <c r="P48">
-        <v>84.58802811604851</v>
+        <v>80.69585873871981</v>
       </c>
     </row>
     <row r="49">
@@ -2890,49 +2890,49 @@
         </is>
       </c>
       <c r="B49">
-        <v>721.09329332343</v>
+        <v>722.531865117936</v>
       </c>
       <c r="C49">
-        <v>2.52890500840568</v>
+        <v>2.81024575861037</v>
       </c>
       <c r="D49">
-        <v>0.223824004952501</v>
+        <v>0.277751413589926</v>
       </c>
       <c r="E49">
-        <v>16.4101977745438</v>
+        <v>15.7666580846567</v>
       </c>
       <c r="F49">
-        <v>24.3811613361575</v>
+        <v>25.0437470832938</v>
       </c>
       <c r="G49">
-        <v>11.9234311634122</v>
+        <v>11.6527478811597</v>
       </c>
       <c r="H49">
-        <v>1.3511356908911</v>
+        <v>2.37091287114039</v>
       </c>
       <c r="I49">
-        <v>1.50664237813535</v>
+        <v>1.66478184232175</v>
       </c>
       <c r="J49">
-        <v>14.0976090529192</v>
+        <v>14.5806929691768</v>
       </c>
       <c r="K49">
-        <v>2.37816455905403</v>
+        <v>1.94347367401097</v>
       </c>
       <c r="L49">
-        <v>1.46684289491744</v>
+        <v>1.54065496935231</v>
       </c>
       <c r="M49">
-        <v>3.22001756762359</v>
+        <v>3.1237112601399</v>
       </c>
       <c r="N49">
-        <v>6.17961185620158</v>
+        <v>6.55031193593975</v>
       </c>
       <c r="O49">
-        <v>518.267829729621</v>
+        <v>516.647741799349</v>
       </c>
       <c r="P49">
-        <v>7.05073854247349</v>
+        <v>7.5579170030244</v>
       </c>
     </row>
     <row r="50">
@@ -2942,49 +2942,49 @@
         </is>
       </c>
       <c r="B50">
-        <v>1291.55957530461</v>
+        <v>1284.46345208731</v>
       </c>
       <c r="C50">
-        <v>51.7961556686378</v>
+        <v>53.2130724326423</v>
       </c>
       <c r="D50">
-        <v>5.32149985146759</v>
+        <v>5.67561051706375</v>
       </c>
       <c r="E50">
-        <v>112.372672932369</v>
+        <v>112.154506087408</v>
       </c>
       <c r="F50">
-        <v>1.92458436293497</v>
+        <v>2.02157253912007</v>
       </c>
       <c r="G50">
-        <v>29.0081368251285</v>
+        <v>30.1806058470195</v>
       </c>
       <c r="H50">
-        <v>44.5342295595699</v>
+        <v>40.3898933999156</v>
       </c>
       <c r="I50">
-        <v>8.93519600169328</v>
+        <v>9.14969592755468</v>
       </c>
       <c r="J50">
-        <v>68.48219458706539</v>
+        <v>69.06490123897881</v>
       </c>
       <c r="K50">
-        <v>32.5503188496737</v>
+        <v>33.8836659871301</v>
       </c>
       <c r="L50">
-        <v>67.7485739762913</v>
+        <v>68.291992713486</v>
       </c>
       <c r="M50">
-        <v>52.1715438931209</v>
+        <v>52.2838343866893</v>
       </c>
       <c r="N50">
-        <v>52.0279719364843</v>
+        <v>50.1263216404402</v>
       </c>
       <c r="O50">
-        <v>1925.11595839852</v>
+        <v>1923.23955933186</v>
       </c>
       <c r="P50">
-        <v>74.0161301053537</v>
+        <v>73.2560576298024</v>
       </c>
     </row>
     <row r="51">
@@ -2994,49 +2994,49 @@
         </is>
       </c>
       <c r="B51">
-        <v>118.064832211899</v>
+        <v>117.452195762858</v>
       </c>
       <c r="C51">
-        <v>1.0941249494922</v>
+        <v>1.18373058589676</v>
       </c>
       <c r="D51">
-        <v>0.0153085482526281</v>
+        <v>0.0109592695784721</v>
       </c>
       <c r="E51">
-        <v>1.26320442911774</v>
+        <v>1.44364184409691</v>
       </c>
       <c r="F51">
-        <v>27.329290782671</v>
+        <v>26.4905363435734</v>
       </c>
       <c r="G51">
-        <v>1.26628126414645</v>
+        <v>1.16533307337963</v>
       </c>
       <c r="H51">
-        <v>0.242970951875705</v>
+        <v>0.204617733933219</v>
       </c>
       <c r="I51">
-        <v>0.970222120978385</v>
+        <v>0.989656087371963</v>
       </c>
       <c r="J51">
-        <v>1.55111600457028</v>
+        <v>1.21871834700172</v>
       </c>
       <c r="K51">
-        <v>0.823962553399639</v>
+        <v>0.740765745579528</v>
       </c>
       <c r="L51">
-        <v>0.450523872789615</v>
+        <v>0.508408347415041</v>
       </c>
       <c r="M51">
-        <v>0.62651069236464</v>
+        <v>0.53499131747034</v>
       </c>
       <c r="N51">
-        <v>0.630674473548278</v>
+        <v>0.732737620500904</v>
       </c>
       <c r="O51">
-        <v>169.805458167309</v>
+        <v>171.518859886783</v>
       </c>
       <c r="P51">
-        <v>18.8572583046602</v>
+        <v>18.608905383742</v>
       </c>
     </row>
     <row r="52">

--- a/1-Data-Codes/2-Final_Data/L_2007.xlsx
+++ b/1-Data-Codes/2-Final_Data/L_2007.xlsx
@@ -446,49 +446,49 @@
         </is>
       </c>
       <c r="B2">
-        <v>1472.52373334082</v>
+        <v>1265.19188806638</v>
       </c>
       <c r="C2">
-        <v>21.508208880604</v>
+        <v>19.5230738659889</v>
       </c>
       <c r="D2">
-        <v>15.8266955394579</v>
+        <v>24.8965058148587</v>
       </c>
       <c r="E2">
-        <v>45.0320679028215</v>
+        <v>42.1143393865955</v>
       </c>
       <c r="F2">
-        <v>22.2686988631869</v>
+        <v>25.9682809946826</v>
       </c>
       <c r="G2">
-        <v>17.9190236904244</v>
+        <v>17.6987130411655</v>
       </c>
       <c r="H2">
-        <v>6.33972029101284</v>
+        <v>7.52358125342539</v>
       </c>
       <c r="I2">
-        <v>16.715601968173</v>
+        <v>16.8906299500688</v>
       </c>
       <c r="J2">
-        <v>66.6936716753374</v>
+        <v>73.0964595131597</v>
       </c>
       <c r="K2">
-        <v>8.706361196297531</v>
+        <v>17.1566015444</v>
       </c>
       <c r="L2">
-        <v>51.0774442374564</v>
+        <v>50.0159614419835</v>
       </c>
       <c r="M2">
-        <v>41.5004522588761</v>
+        <v>51.2919887347506</v>
       </c>
       <c r="N2">
-        <v>27.0280488428567</v>
+        <v>30.9802304128516</v>
       </c>
       <c r="O2">
-        <v>1388.92732031557</v>
+        <v>1565.37439383224</v>
       </c>
       <c r="P2">
-        <v>23.608813108909</v>
+        <v>23.1271661138152</v>
       </c>
     </row>
     <row r="3">
@@ -498,49 +498,49 @@
         </is>
       </c>
       <c r="B3">
-        <v>117.55866107969</v>
+        <v>92.24720629513919</v>
       </c>
       <c r="C3">
-        <v>0.6846824559608919</v>
+        <v>0.825725896282257</v>
       </c>
       <c r="D3">
-        <v>0.196856035118079</v>
+        <v>0.245954424706983</v>
       </c>
       <c r="E3">
-        <v>0.799948161243904</v>
+        <v>0.89381063996328</v>
       </c>
       <c r="F3">
-        <v>8.325868556802631</v>
+        <v>9.496680080714411</v>
       </c>
       <c r="G3">
-        <v>0.226234181232078</v>
+        <v>0.26076713005032</v>
       </c>
       <c r="H3">
-        <v>0.188767885662239</v>
+        <v>0.256640000174484</v>
       </c>
       <c r="I3">
-        <v>0.355466755535984</v>
+        <v>0.471082500806549</v>
       </c>
       <c r="J3">
-        <v>0.139794983192484</v>
+        <v>0.167846233400921</v>
       </c>
       <c r="K3">
-        <v>0.203955976334508</v>
+        <v>0.248149320472363</v>
       </c>
       <c r="L3">
-        <v>0.29079642873259</v>
+        <v>0.289567414523512</v>
       </c>
       <c r="M3">
-        <v>0.173180094688748</v>
+        <v>0.137898160751271</v>
       </c>
       <c r="N3">
-        <v>0.467450845414718</v>
+        <v>0.597838922692303</v>
       </c>
       <c r="O3">
-        <v>191.761436681695</v>
+        <v>215.641475569342</v>
       </c>
       <c r="P3">
-        <v>6.2253651593591</v>
+        <v>6.79942086285639</v>
       </c>
     </row>
     <row r="4">
@@ -550,49 +550,49 @@
         </is>
       </c>
       <c r="B4">
-        <v>1724.40619702864</v>
+        <v>1338.02815459366</v>
       </c>
       <c r="C4">
-        <v>14.1538981431182</v>
+        <v>17.2389217236356</v>
       </c>
       <c r="D4">
-        <v>3.12410430270728</v>
+        <v>1.31036704145421</v>
       </c>
       <c r="E4">
-        <v>16.7529159212947</v>
+        <v>22.5293566995023</v>
       </c>
       <c r="F4">
-        <v>16.1085116315918</v>
+        <v>15.4208506455115</v>
       </c>
       <c r="G4">
-        <v>4.17124606985893</v>
+        <v>4.88831805164756</v>
       </c>
       <c r="H4">
-        <v>2.40379448827479</v>
+        <v>1.52494627107692</v>
       </c>
       <c r="I4">
-        <v>7.28513333328538</v>
+        <v>6.13955119879419</v>
       </c>
       <c r="J4">
-        <v>24.8464332086248</v>
+        <v>32.6401882409339</v>
       </c>
       <c r="K4">
-        <v>4.23467715422141</v>
+        <v>5.95639148882864</v>
       </c>
       <c r="L4">
-        <v>56.0679780388115</v>
+        <v>64.8256472341394</v>
       </c>
       <c r="M4">
-        <v>41.4564323942729</v>
+        <v>48.3047381838079</v>
       </c>
       <c r="N4">
-        <v>28.6053699571399</v>
+        <v>44.7539330598414</v>
       </c>
       <c r="O4">
-        <v>2066.37065319602</v>
+        <v>2410.03944648309</v>
       </c>
       <c r="P4">
-        <v>23.8022127919025</v>
+        <v>18.2958239531816</v>
       </c>
     </row>
     <row r="5">
@@ -602,49 +602,49 @@
         </is>
       </c>
       <c r="B5">
-        <v>891.686357044946</v>
+        <v>734.026214685494</v>
       </c>
       <c r="C5">
-        <v>36.2785258695585</v>
+        <v>43.8031266829817</v>
       </c>
       <c r="D5">
-        <v>9.452579752540959</v>
+        <v>11.5966362372187</v>
       </c>
       <c r="E5">
-        <v>17.5160047261624</v>
+        <v>18.8473675907502</v>
       </c>
       <c r="F5">
-        <v>6.34496766267374</v>
+        <v>6.35983999430709</v>
       </c>
       <c r="G5">
-        <v>3.83970262589135</v>
+        <v>5.16551520286114</v>
       </c>
       <c r="H5">
-        <v>10.5826752603439</v>
+        <v>12.2261321606877</v>
       </c>
       <c r="I5">
-        <v>6.72383796779015</v>
+        <v>5.41060232343599</v>
       </c>
       <c r="J5">
-        <v>24.1995238343135</v>
+        <v>26.1385161980652</v>
       </c>
       <c r="K5">
-        <v>2.889023808704</v>
+        <v>3.33723421043311</v>
       </c>
       <c r="L5">
-        <v>7.82823829979479</v>
+        <v>10.0226759538663</v>
       </c>
       <c r="M5">
-        <v>10.294349254883</v>
+        <v>14.9524647939348</v>
       </c>
       <c r="N5">
-        <v>24.2194057704773</v>
+        <v>29.82410931285</v>
       </c>
       <c r="O5">
-        <v>884.300271374345</v>
+        <v>1032.17374043971</v>
       </c>
       <c r="P5">
-        <v>34.332342635607</v>
+        <v>44.7315329201175</v>
       </c>
     </row>
     <row r="6">
@@ -654,49 +654,49 @@
         </is>
       </c>
       <c r="B6">
-        <v>9372.1368314057</v>
+        <v>7293.28918243766</v>
       </c>
       <c r="C6">
-        <v>171.517885068997</v>
+        <v>222.683539278398</v>
       </c>
       <c r="D6">
-        <v>25.9638027464269</v>
+        <v>37.4032218811549</v>
       </c>
       <c r="E6">
-        <v>133.316163241211</v>
+        <v>156.697991889115</v>
       </c>
       <c r="F6">
-        <v>38.2881799435417</v>
+        <v>49.1154444245694</v>
       </c>
       <c r="G6">
-        <v>83.2624992895682</v>
+        <v>106.997269781277</v>
       </c>
       <c r="H6">
-        <v>31.6472431606354</v>
+        <v>44.252212388571</v>
       </c>
       <c r="I6">
-        <v>29.6996469404559</v>
+        <v>37.0527103346309</v>
       </c>
       <c r="J6">
-        <v>111.553973605005</v>
+        <v>136.603430725032</v>
       </c>
       <c r="K6">
-        <v>31.4918730378809</v>
+        <v>41.7658359211694</v>
       </c>
       <c r="L6">
-        <v>332.063271237257</v>
+        <v>418.931947519061</v>
       </c>
       <c r="M6">
-        <v>206.49687565598</v>
+        <v>241.744247548972</v>
       </c>
       <c r="N6">
-        <v>211.177400818721</v>
+        <v>272.400242839872</v>
       </c>
       <c r="O6">
-        <v>11744.3095310174</v>
+        <v>13344.721913605</v>
       </c>
       <c r="P6">
-        <v>230.609932188818</v>
+        <v>295.078813232287</v>
       </c>
     </row>
     <row r="7">
@@ -706,49 +706,49 @@
         </is>
       </c>
       <c r="B7">
-        <v>1033.27952211848</v>
+        <v>786.043637277369</v>
       </c>
       <c r="C7">
-        <v>41.0001290209668</v>
+        <v>46.8757129982673</v>
       </c>
       <c r="D7">
-        <v>3.29189149330016</v>
+        <v>4.40612368183762</v>
       </c>
       <c r="E7">
-        <v>15.3270218492435</v>
+        <v>17.4133193722569</v>
       </c>
       <c r="F7">
-        <v>28.2757622612906</v>
+        <v>28.1939516684549</v>
       </c>
       <c r="G7">
-        <v>13.4748939086336</v>
+        <v>17.2962900459116</v>
       </c>
       <c r="H7">
-        <v>3.76118520113289</v>
+        <v>2.62884288242593</v>
       </c>
       <c r="I7">
-        <v>7.93953590586024</v>
+        <v>10.2344932391525</v>
       </c>
       <c r="J7">
-        <v>15.1719500150955</v>
+        <v>16.4774387065623</v>
       </c>
       <c r="K7">
-        <v>6.07538946331366</v>
+        <v>6.48919985104636</v>
       </c>
       <c r="L7">
-        <v>33.2970167603418</v>
+        <v>43.1360357189899</v>
       </c>
       <c r="M7">
-        <v>12.3184893572776</v>
+        <v>16.2856590325802</v>
       </c>
       <c r="N7">
-        <v>18.599613801594</v>
+        <v>21.1213793917653</v>
       </c>
       <c r="O7">
-        <v>1837.34909107039</v>
+        <v>2052.44030668923</v>
       </c>
       <c r="P7">
-        <v>31.8244461843294</v>
+        <v>35.6248627832231</v>
       </c>
     </row>
     <row r="8">
@@ -758,49 +758,49 @@
         </is>
       </c>
       <c r="B8">
-        <v>831.986816912414</v>
+        <v>633.28065261315</v>
       </c>
       <c r="C8">
-        <v>8.447071234175001</v>
+        <v>11.0505413383604</v>
       </c>
       <c r="D8">
-        <v>1.95902587600505</v>
+        <v>2.64220108958177</v>
       </c>
       <c r="E8">
-        <v>19.2222659044955</v>
+        <v>23.6741934070416</v>
       </c>
       <c r="F8">
-        <v>1.8056344790275</v>
+        <v>2.32530143353789</v>
       </c>
       <c r="G8">
-        <v>16.2897026354677</v>
+        <v>21.3689774007804</v>
       </c>
       <c r="H8">
-        <v>6.51033949824633</v>
+        <v>7.90595635053175</v>
       </c>
       <c r="I8">
-        <v>6.35398545471246</v>
+        <v>7.45163050031043</v>
       </c>
       <c r="J8">
-        <v>29.8925511010512</v>
+        <v>40.093979866891</v>
       </c>
       <c r="K8">
-        <v>8.14181483461932</v>
+        <v>9.685980013784739</v>
       </c>
       <c r="L8">
-        <v>24.3948859462596</v>
+        <v>31.8333815202056</v>
       </c>
       <c r="M8">
-        <v>38.397960364285</v>
+        <v>48.1194202762569</v>
       </c>
       <c r="N8">
-        <v>23.3926450185465</v>
+        <v>29.5038300911018</v>
       </c>
       <c r="O8">
-        <v>1299.92415127189</v>
+        <v>1446.54559355933</v>
       </c>
       <c r="P8">
-        <v>6.77411148487722</v>
+        <v>7.54386272498583</v>
       </c>
     </row>
     <row r="9">
@@ -810,49 +810,49 @@
         </is>
       </c>
       <c r="B9">
-        <v>230.976365534663</v>
+        <v>166.657213179778</v>
       </c>
       <c r="C9">
-        <v>7.49544779176631</v>
+        <v>9.64261518711792</v>
       </c>
       <c r="D9">
-        <v>1.28363783298536</v>
+        <v>2.17230954105549</v>
       </c>
       <c r="E9">
-        <v>2.25971182762053</v>
+        <v>3.30693535767658</v>
       </c>
       <c r="F9">
-        <v>0.423369050483877</v>
+        <v>0.432091352156852</v>
       </c>
       <c r="G9">
-        <v>13.8966889595476</v>
+        <v>17.5934587234142</v>
       </c>
       <c r="H9">
-        <v>1.73036652013502</v>
+        <v>1.90366162980625</v>
       </c>
       <c r="I9">
-        <v>0.715560735554168</v>
+        <v>0.891773798583235</v>
       </c>
       <c r="J9">
-        <v>2.91366237510628</v>
+        <v>4.12660160198177</v>
       </c>
       <c r="K9">
-        <v>0.336900977703391</v>
+        <v>0.472236283765681</v>
       </c>
       <c r="L9">
-        <v>1.9737489108972</v>
+        <v>2.55667339148854</v>
       </c>
       <c r="M9">
-        <v>2.75067898459757</v>
+        <v>3.28648598153877</v>
       </c>
       <c r="N9">
-        <v>1.82360075637501</v>
+        <v>2.57304064110942</v>
       </c>
       <c r="O9">
-        <v>309.835444954311</v>
+        <v>359.220066509718</v>
       </c>
       <c r="P9">
-        <v>3.67845330023105</v>
+        <v>5.39281274358364</v>
       </c>
     </row>
     <row r="10">
@@ -862,49 +862,49 @@
         </is>
       </c>
       <c r="B10">
-        <v>5543.27761841114</v>
+        <v>3946.8192246948</v>
       </c>
       <c r="C10">
-        <v>46.2300251665249</v>
+        <v>60.6271172032622</v>
       </c>
       <c r="D10">
-        <v>7.39713399194896</v>
+        <v>8.963376738012711</v>
       </c>
       <c r="E10">
-        <v>42.1955960644524</v>
+        <v>61.0541363422772</v>
       </c>
       <c r="F10">
-        <v>6.08665882132712</v>
+        <v>8.620278202236941</v>
       </c>
       <c r="G10">
-        <v>20.5016787672685</v>
+        <v>32.6150822067995</v>
       </c>
       <c r="H10">
-        <v>8.110164879526179</v>
+        <v>9.442366232058189</v>
       </c>
       <c r="I10">
-        <v>14.4309580994563</v>
+        <v>11.1847288797732</v>
       </c>
       <c r="J10">
-        <v>42.7857647727633</v>
+        <v>54.6383123124544</v>
       </c>
       <c r="K10">
-        <v>5.59049219589735</v>
+        <v>7.79700659861391</v>
       </c>
       <c r="L10">
-        <v>54.1980005267723</v>
+        <v>69.01690345868791</v>
       </c>
       <c r="M10">
-        <v>74.3290922309648</v>
+        <v>95.4697141527479</v>
       </c>
       <c r="N10">
-        <v>69.2660380054709</v>
+        <v>93.07182944852499</v>
       </c>
       <c r="O10">
-        <v>6474.70837400353</v>
+        <v>7864.5114701719</v>
       </c>
       <c r="P10">
-        <v>48.3996300060209</v>
+        <v>54.3999924413355</v>
       </c>
     </row>
     <row r="11">
@@ -914,49 +914,49 @@
         </is>
       </c>
       <c r="B11">
-        <v>2469.32038782674</v>
+        <v>2056.12333567899</v>
       </c>
       <c r="C11">
-        <v>71.3027940117027</v>
+        <v>82.0929383870435</v>
       </c>
       <c r="D11">
-        <v>70.61992675001559</v>
+        <v>78.5524429721918</v>
       </c>
       <c r="E11">
-        <v>62.6268217242364</v>
+        <v>76.1214199187225</v>
       </c>
       <c r="F11">
-        <v>10.1352437967885</v>
+        <v>12.5816142566596</v>
       </c>
       <c r="G11">
-        <v>21.5530837129182</v>
+        <v>19.9500070830134</v>
       </c>
       <c r="H11">
-        <v>19.4084552029032</v>
+        <v>24.3054343201662</v>
       </c>
       <c r="I11">
-        <v>13.1488852641904</v>
+        <v>15.633514945832</v>
       </c>
       <c r="J11">
-        <v>36.5789409810755</v>
+        <v>38.874360406455</v>
       </c>
       <c r="K11">
-        <v>6.66795397191302</v>
+        <v>8.85605960079711</v>
       </c>
       <c r="L11">
-        <v>28.5415382209338</v>
+        <v>38.8874817249003</v>
       </c>
       <c r="M11">
-        <v>32.7109144182723</v>
+        <v>38.8394283693765</v>
       </c>
       <c r="N11">
-        <v>58.8682985263475</v>
+        <v>58.6097272440932</v>
       </c>
       <c r="O11">
-        <v>3021.84588860991</v>
+        <v>3425.58928098494</v>
       </c>
       <c r="P11">
-        <v>43.3775219231684</v>
+        <v>42.269113885966</v>
       </c>
     </row>
     <row r="12">
@@ -966,49 +966,49 @@
         </is>
       </c>
       <c r="B12">
-        <v>334.419419365855</v>
+        <v>220.641870643872</v>
       </c>
       <c r="C12">
-        <v>5.10636479731404</v>
+        <v>6.5573442530313</v>
       </c>
       <c r="D12">
-        <v>0.439073803797114</v>
+        <v>0.433718107945556</v>
       </c>
       <c r="E12">
-        <v>1.18488750984766</v>
+        <v>1.83859652208105</v>
       </c>
       <c r="F12">
-        <v>0.306948961351453</v>
+        <v>0.503940631749193</v>
       </c>
       <c r="G12">
-        <v>0.309997262808709</v>
+        <v>0.456120636319843</v>
       </c>
       <c r="H12">
-        <v>0.210206675521779</v>
+        <v>0.305145886261154</v>
       </c>
       <c r="I12">
-        <v>0.650702894663353</v>
+        <v>0.5722260104929781</v>
       </c>
       <c r="J12">
-        <v>1.74657928290096</v>
+        <v>1.89291540741799</v>
       </c>
       <c r="K12">
-        <v>0.133652453976966</v>
+        <v>0.00406983387021585</v>
       </c>
       <c r="L12">
-        <v>0.0436642822700003</v>
+        <v>0.0152416704123557</v>
       </c>
       <c r="M12">
-        <v>2.34498710057458</v>
+        <v>2.83984160997121</v>
       </c>
       <c r="N12">
-        <v>4.20584176687066</v>
+        <v>5.66197685433625</v>
       </c>
       <c r="O12">
-        <v>446.52652974215</v>
+        <v>544.702260566214</v>
       </c>
       <c r="P12">
-        <v>13.1356026644712</v>
+        <v>16.3996342179816</v>
       </c>
     </row>
     <row r="13">
@@ -1018,49 +1018,49 @@
         </is>
       </c>
       <c r="B13">
-        <v>357.61651466709</v>
+        <v>251.772658011621</v>
       </c>
       <c r="C13">
-        <v>20.1557493948706</v>
+        <v>22.798499339883</v>
       </c>
       <c r="D13">
-        <v>0.297074833947582</v>
+        <v>0.404532871690444</v>
       </c>
       <c r="E13">
-        <v>7.93988067580687</v>
+        <v>9.75626170862428</v>
       </c>
       <c r="F13">
-        <v>3.39291374204854</v>
+        <v>2.78629539735977</v>
       </c>
       <c r="G13">
-        <v>7.5226800787984</v>
+        <v>8.515245888940269</v>
       </c>
       <c r="H13">
-        <v>1.20571177865189</v>
+        <v>1.57769783339581</v>
       </c>
       <c r="I13">
-        <v>2.16980178029172</v>
+        <v>2.56538022158315</v>
       </c>
       <c r="J13">
-        <v>3.65762290540621</v>
+        <v>4.89197486202267</v>
       </c>
       <c r="K13">
-        <v>3.23343992980233</v>
+        <v>4.31233546154401</v>
       </c>
       <c r="L13">
-        <v>17.5618302386376</v>
+        <v>20.6003784038551</v>
       </c>
       <c r="M13">
-        <v>1.92371726580472</v>
+        <v>2.2711827374124</v>
       </c>
       <c r="N13">
-        <v>3.2745851781705</v>
+        <v>3.14400580693831</v>
       </c>
       <c r="O13">
-        <v>489.956686649296</v>
+        <v>564.241287900988</v>
       </c>
       <c r="P13">
-        <v>34.8871746533664</v>
+        <v>42.9770799874146</v>
       </c>
     </row>
     <row r="14">
@@ -1070,49 +1070,49 @@
         </is>
       </c>
       <c r="B14">
-        <v>3275.19960306018</v>
+        <v>2484.53279318807</v>
       </c>
       <c r="C14">
-        <v>110.871216761746</v>
+        <v>125.453756444735</v>
       </c>
       <c r="D14">
-        <v>9.85443171954997</v>
+        <v>10.0382561388899</v>
       </c>
       <c r="E14">
-        <v>64.10856272404369</v>
+        <v>80.5878768129287</v>
       </c>
       <c r="F14">
-        <v>15.6339828084916</v>
+        <v>20.6814248361537</v>
       </c>
       <c r="G14">
-        <v>64.910749511866</v>
+        <v>81.63601059689511</v>
       </c>
       <c r="H14">
-        <v>37.4878038296437</v>
+        <v>40.0699269473659</v>
       </c>
       <c r="I14">
-        <v>25.5091333669479</v>
+        <v>27.4229840281262</v>
       </c>
       <c r="J14">
-        <v>108.020909910168</v>
+        <v>140.254217276555</v>
       </c>
       <c r="K14">
-        <v>59.1525751611575</v>
+        <v>75.616804429666</v>
       </c>
       <c r="L14">
-        <v>63.8937496443867</v>
+        <v>83.9724422346716</v>
       </c>
       <c r="M14">
-        <v>59.770278077988</v>
+        <v>67.87600110826661</v>
       </c>
       <c r="N14">
-        <v>55.0121539830637</v>
+        <v>69.6296839472397</v>
       </c>
       <c r="O14">
-        <v>4345.33758306378</v>
+        <v>5026.0740611019</v>
       </c>
       <c r="P14">
-        <v>64.818933047429</v>
+        <v>66.7268033400601</v>
       </c>
     </row>
     <row r="15">
@@ -1122,49 +1122,49 @@
         </is>
       </c>
       <c r="B15">
-        <v>1667.50051788559</v>
+        <v>1241.88126692321</v>
       </c>
       <c r="C15">
-        <v>45.4706368235908</v>
+        <v>56.1060552913194</v>
       </c>
       <c r="D15">
-        <v>5.4934459110426</v>
+        <v>7.11118030217225</v>
       </c>
       <c r="E15">
-        <v>49.4533469864209</v>
+        <v>61.8212827035244</v>
       </c>
       <c r="F15">
-        <v>11.2554688141781</v>
+        <v>17.8629650193943</v>
       </c>
       <c r="G15">
-        <v>52.8288747156311</v>
+        <v>63.961732649565</v>
       </c>
       <c r="H15">
-        <v>33.0099751335115</v>
+        <v>39.2767121975169</v>
       </c>
       <c r="I15">
-        <v>11.567853408656</v>
+        <v>15.0703557669534</v>
       </c>
       <c r="J15">
-        <v>104.129835150101</v>
+        <v>128.626260943518</v>
       </c>
       <c r="K15">
-        <v>31.1231585663472</v>
+        <v>37.1682596927871</v>
       </c>
       <c r="L15">
-        <v>31.3234342467916</v>
+        <v>41.5595030959419</v>
       </c>
       <c r="M15">
-        <v>119.402398998316</v>
+        <v>144.889297850103</v>
       </c>
       <c r="N15">
-        <v>77.7323105291742</v>
+        <v>86.974056763146</v>
       </c>
       <c r="O15">
-        <v>1981.00030856764</v>
+        <v>2262.5631376072</v>
       </c>
       <c r="P15">
-        <v>40.6436293502002</v>
+        <v>50.2422268681332</v>
       </c>
     </row>
     <row r="16">
@@ -1174,49 +1174,49 @@
         </is>
       </c>
       <c r="B16">
-        <v>662.748526768068</v>
+        <v>435.68323513563</v>
       </c>
       <c r="C16">
-        <v>61.8691419308092</v>
+        <v>78.75755421420099</v>
       </c>
       <c r="D16">
-        <v>3.57526213304848</v>
+        <v>3.39245918417927</v>
       </c>
       <c r="E16">
-        <v>24.0185959235295</v>
+        <v>28.0230339320921</v>
       </c>
       <c r="F16">
-        <v>1.94089462961456</v>
+        <v>1.47507265304402</v>
       </c>
       <c r="G16">
-        <v>10.9123478022637</v>
+        <v>13.7114382704049</v>
       </c>
       <c r="H16">
-        <v>11.8655187941218</v>
+        <v>12.0063252668178</v>
       </c>
       <c r="I16">
-        <v>4.08463767658148</v>
+        <v>3.65952266115104</v>
       </c>
       <c r="J16">
-        <v>32.7001210265214</v>
+        <v>36.8122455437279</v>
       </c>
       <c r="K16">
-        <v>36.4076381074634</v>
+        <v>44.6046671349402</v>
       </c>
       <c r="L16">
-        <v>13.0989375573857</v>
+        <v>15.371471233712</v>
       </c>
       <c r="M16">
-        <v>18.897979242503</v>
+        <v>22.9833874386912</v>
       </c>
       <c r="N16">
-        <v>27.4246540201524</v>
+        <v>32.2813455563031</v>
       </c>
       <c r="O16">
-        <v>1073.0096744313</v>
+        <v>1226.96906754125</v>
       </c>
       <c r="P16">
-        <v>74.9885389162513</v>
+        <v>89.4241241760233</v>
       </c>
     </row>
     <row r="17">
@@ -1226,49 +1226,49 @@
         </is>
       </c>
       <c r="B17">
-        <v>622.265715121706</v>
+        <v>439.362621626694</v>
       </c>
       <c r="C17">
-        <v>21.8868064649217</v>
+        <v>23.6528043504564</v>
       </c>
       <c r="D17">
-        <v>1.73414361968273</v>
+        <v>1.11183347394849</v>
       </c>
       <c r="E17">
-        <v>15.8407650422239</v>
+        <v>19.5572096517741</v>
       </c>
       <c r="F17">
-        <v>10.6746553963302</v>
+        <v>14.0993764207482</v>
       </c>
       <c r="G17">
-        <v>12.248415342189</v>
+        <v>14.4715955941866</v>
       </c>
       <c r="H17">
-        <v>10.6518016856336</v>
+        <v>13.6489670581608</v>
       </c>
       <c r="I17">
-        <v>5.09343620459875</v>
+        <v>4.15764578311465</v>
       </c>
       <c r="J17">
-        <v>16.2575199226062</v>
+        <v>19.3323719940165</v>
       </c>
       <c r="K17">
-        <v>8.690498228334491</v>
+        <v>9.7991681886409</v>
       </c>
       <c r="L17">
-        <v>8.581882737030639</v>
+        <v>11.1984167532333</v>
       </c>
       <c r="M17">
-        <v>58.1860152088439</v>
+        <v>74.2938500687673</v>
       </c>
       <c r="N17">
-        <v>7.53527069168536</v>
+        <v>9.352207911619381</v>
       </c>
       <c r="O17">
-        <v>980.082856698289</v>
+        <v>1100.47333972806</v>
       </c>
       <c r="P17">
-        <v>41.7732727118505</v>
+        <v>38.1261391212946</v>
       </c>
     </row>
     <row r="18">
@@ -1278,49 +1278,49 @@
         </is>
       </c>
       <c r="B18">
-        <v>1294.08233686663</v>
+        <v>1072.70349763026</v>
       </c>
       <c r="C18">
-        <v>20.4462467068469</v>
+        <v>27.5457034244108</v>
       </c>
       <c r="D18">
-        <v>4.16298259584037</v>
+        <v>5.60391297763702</v>
       </c>
       <c r="E18">
-        <v>26.4982740663495</v>
+        <v>32.8963963532833</v>
       </c>
       <c r="F18">
-        <v>36.0424901724841</v>
+        <v>41.9237292901516</v>
       </c>
       <c r="G18">
-        <v>11.5140332620789</v>
+        <v>10.640339521289</v>
       </c>
       <c r="H18">
-        <v>5.99990003417943</v>
+        <v>7.58597103755651</v>
       </c>
       <c r="I18">
-        <v>7.45545380498931</v>
+        <v>8.735771197953611</v>
       </c>
       <c r="J18">
-        <v>14.1448249203191</v>
+        <v>18.2789177509676</v>
       </c>
       <c r="K18">
-        <v>6.82472957002235</v>
+        <v>7.86129263976477</v>
       </c>
       <c r="L18">
-        <v>18.384556357582</v>
+        <v>23.684675028599</v>
       </c>
       <c r="M18">
-        <v>53.0262560519561</v>
+        <v>57.4454450503714</v>
       </c>
       <c r="N18">
-        <v>19.7971382675925</v>
+        <v>24.9532109080161</v>
       </c>
       <c r="O18">
-        <v>1361.99743514243</v>
+        <v>1552.6702331515</v>
       </c>
       <c r="P18">
-        <v>48.2963922708372</v>
+        <v>55.911525087532</v>
       </c>
     </row>
     <row r="19">
@@ -1330,49 +1330,49 @@
         </is>
       </c>
       <c r="B19">
-        <v>1299.5905652645</v>
+        <v>1046.32422089031</v>
       </c>
       <c r="C19">
-        <v>30.4978022416303</v>
+        <v>35.5155981665009</v>
       </c>
       <c r="D19">
-        <v>1.11323175700256</v>
+        <v>1.48359525561739</v>
       </c>
       <c r="E19">
-        <v>23.548861637173</v>
+        <v>21.4390041703022</v>
       </c>
       <c r="F19">
-        <v>70.57783464897941</v>
+        <v>92.5708723470691</v>
       </c>
       <c r="G19">
-        <v>28.8451176166515</v>
+        <v>37.3616307573711</v>
       </c>
       <c r="H19">
-        <v>4.85921844738215</v>
+        <v>6.08489048248765</v>
       </c>
       <c r="I19">
-        <v>7.13863279784011</v>
+        <v>10.1581861846804</v>
       </c>
       <c r="J19">
-        <v>17.910739739521</v>
+        <v>16.492300192502</v>
       </c>
       <c r="K19">
-        <v>3.79599367142708</v>
+        <v>5.1138254657196</v>
       </c>
       <c r="L19">
-        <v>4.26455014267005</v>
+        <v>6.05169476263542</v>
       </c>
       <c r="M19">
-        <v>11.3990245988493</v>
+        <v>15.53867816991</v>
       </c>
       <c r="N19">
-        <v>9.0382257840297</v>
+        <v>13.7130362873806</v>
       </c>
       <c r="O19">
-        <v>1357.12359026058</v>
+        <v>1550.18137196471</v>
       </c>
       <c r="P19">
-        <v>25.950337493281</v>
+        <v>40.6447427402106</v>
       </c>
     </row>
     <row r="20">
@@ -1382,49 +1382,49 @@
         </is>
       </c>
       <c r="B20">
-        <v>369.849887162057</v>
+        <v>279.920805310024</v>
       </c>
       <c r="C20">
-        <v>5.86653534858233</v>
+        <v>7.10311866258745</v>
       </c>
       <c r="D20">
-        <v>4.54492306292129</v>
+        <v>6.0680877746425</v>
       </c>
       <c r="E20">
-        <v>22.3670049797302</v>
+        <v>25.2405229343941</v>
       </c>
       <c r="F20">
-        <v>0.614832739790129</v>
+        <v>0.719798677424022</v>
       </c>
       <c r="G20">
-        <v>2.83614669862371</v>
+        <v>3.52944387280639</v>
       </c>
       <c r="H20">
-        <v>1.40873624953505</v>
+        <v>1.8039377772336</v>
       </c>
       <c r="I20">
-        <v>1.97648775565527</v>
+        <v>2.45288438215052</v>
       </c>
       <c r="J20">
-        <v>5.61578657285327</v>
+        <v>5.8760695426599</v>
       </c>
       <c r="K20">
-        <v>0.787050963465461</v>
+        <v>1.00121546226638</v>
       </c>
       <c r="L20">
-        <v>4.77119406419686</v>
+        <v>6.43194422440433</v>
       </c>
       <c r="M20">
-        <v>11.2914944245628</v>
+        <v>16.6187276278119</v>
       </c>
       <c r="N20">
-        <v>5.21676702661136</v>
+        <v>6.64210410827208</v>
       </c>
       <c r="O20">
-        <v>479.761315984391</v>
+        <v>565.025974683672</v>
       </c>
       <c r="P20">
-        <v>15.6124744428192</v>
+        <v>18.610113917851</v>
       </c>
     </row>
     <row r="21">
@@ -1434,49 +1434,49 @@
         </is>
       </c>
       <c r="B21">
-        <v>1439.04036576044</v>
+        <v>1008.10686318267</v>
       </c>
       <c r="C21">
-        <v>11.7809265157655</v>
+        <v>17.1581658671673</v>
       </c>
       <c r="D21">
-        <v>0.545281366471309</v>
+        <v>0.752619658287113</v>
       </c>
       <c r="E21">
-        <v>16.2769704611072</v>
+        <v>19.0538011237521</v>
       </c>
       <c r="F21">
-        <v>2.92674402573778</v>
+        <v>2.52553732928145</v>
       </c>
       <c r="G21">
-        <v>15.0287432324633</v>
+        <v>20.0324963482874</v>
       </c>
       <c r="H21">
-        <v>2.86989019596353</v>
+        <v>3.82893868483251</v>
       </c>
       <c r="I21">
-        <v>7.86254089473712</v>
+        <v>11.3878910206249</v>
       </c>
       <c r="J21">
-        <v>16.3843849005724</v>
+        <v>19.0831032837088</v>
       </c>
       <c r="K21">
-        <v>3.1572750727917</v>
+        <v>4.08111080328172</v>
       </c>
       <c r="L21">
-        <v>18.2920342090563</v>
+        <v>25.2225891873683</v>
       </c>
       <c r="M21">
-        <v>15.7925460338111</v>
+        <v>21.8802304803269</v>
       </c>
       <c r="N21">
-        <v>14.0015393357213</v>
+        <v>18.2376194783006</v>
       </c>
       <c r="O21">
-        <v>1965.48805392146</v>
+        <v>2318.50479550932</v>
       </c>
       <c r="P21">
-        <v>14.7776799752571</v>
+        <v>15.6867168189127</v>
       </c>
     </row>
     <row r="22">
@@ -1486,49 +1486,49 @@
         </is>
       </c>
       <c r="B22">
-        <v>1661.90890993183</v>
+        <v>1193.24810599373</v>
       </c>
       <c r="C22">
-        <v>22.0379972046698</v>
+        <v>33.1784500098347</v>
       </c>
       <c r="D22">
-        <v>6.05991874151301</v>
+        <v>8.38325149233893</v>
       </c>
       <c r="E22">
-        <v>21.4972867617324</v>
+        <v>29.822474596066</v>
       </c>
       <c r="F22">
-        <v>2.57751284383365</v>
+        <v>3.13364673609508</v>
       </c>
       <c r="G22">
-        <v>21.5647197545784</v>
+        <v>27.2758818802134</v>
       </c>
       <c r="H22">
-        <v>9.900363362251319</v>
+        <v>13.8638750942187</v>
       </c>
       <c r="I22">
-        <v>4.17513832055791</v>
+        <v>4.46138000022441</v>
       </c>
       <c r="J22">
-        <v>26.2867420627094</v>
+        <v>28.2904986562758</v>
       </c>
       <c r="K22">
-        <v>3.41729870738571</v>
+        <v>4.89746735425453</v>
       </c>
       <c r="L22">
-        <v>63.4887284150542</v>
+        <v>86.76049181290691</v>
       </c>
       <c r="M22">
-        <v>17.4534877377949</v>
+        <v>24.772820953792</v>
       </c>
       <c r="N22">
-        <v>43.9213363267729</v>
+        <v>56.7324141929283</v>
       </c>
       <c r="O22">
-        <v>2393.99389124003</v>
+        <v>2764.37838719885</v>
       </c>
       <c r="P22">
-        <v>13.4683292256691</v>
+        <v>14.2522727844876</v>
       </c>
     </row>
     <row r="23">
@@ -1538,49 +1538,49 @@
         </is>
       </c>
       <c r="B23">
-        <v>2906.43478890128</v>
+        <v>2371.5711346799</v>
       </c>
       <c r="C23">
-        <v>34.9764408051144</v>
+        <v>41.2801280674199</v>
       </c>
       <c r="D23">
-        <v>4.99014204031785</v>
+        <v>5.76392267433645</v>
       </c>
       <c r="E23">
-        <v>37.1040570038737</v>
+        <v>43.5094421849928</v>
       </c>
       <c r="F23">
-        <v>8.193994910085321</v>
+        <v>12.2418572997953</v>
       </c>
       <c r="G23">
-        <v>43.7008277903221</v>
+        <v>52.3765749992345</v>
       </c>
       <c r="H23">
-        <v>40.8299952099024</v>
+        <v>50.3133405158098</v>
       </c>
       <c r="I23">
-        <v>19.1018282077495</v>
+        <v>22.7884103147118</v>
       </c>
       <c r="J23">
-        <v>69.8997596934354</v>
+        <v>82.87647109052121</v>
       </c>
       <c r="K23">
-        <v>63.84039807623</v>
+        <v>81.9728751547925</v>
       </c>
       <c r="L23">
-        <v>32.0249004173631</v>
+        <v>37.1138377205535</v>
       </c>
       <c r="M23">
-        <v>394.11044036486</v>
+        <v>492.242869465341</v>
       </c>
       <c r="N23">
-        <v>76.43485630091411</v>
+        <v>93.5492824597942</v>
       </c>
       <c r="O23">
-        <v>3014.64293072289</v>
+        <v>3373.23178753948</v>
       </c>
       <c r="P23">
-        <v>47.5553467252232</v>
+        <v>52.8594474029948</v>
       </c>
     </row>
     <row r="24">
@@ -1590,49 +1590,49 @@
         </is>
       </c>
       <c r="B24">
-        <v>1130.83549364652</v>
+        <v>805.7250859187531</v>
       </c>
       <c r="C24">
-        <v>38.2475043237623</v>
+        <v>44.8261453420574</v>
       </c>
       <c r="D24">
-        <v>7.87810725583951</v>
+        <v>7.79261877572952</v>
       </c>
       <c r="E24">
-        <v>49.9201517589999</v>
+        <v>59.5953427215763</v>
       </c>
       <c r="F24">
-        <v>6.88811862908443</v>
+        <v>9.17947305761315</v>
       </c>
       <c r="G24">
-        <v>22.4630531541745</v>
+        <v>27.5789832201372</v>
       </c>
       <c r="H24">
-        <v>13.7071554199532</v>
+        <v>18.0565597422168</v>
       </c>
       <c r="I24">
-        <v>10.4829058607765</v>
+        <v>13.4132012012608</v>
       </c>
       <c r="J24">
-        <v>31.4659095547657</v>
+        <v>41.5975470931619</v>
       </c>
       <c r="K24">
-        <v>13.7254549770405</v>
+        <v>17.2925699319031</v>
       </c>
       <c r="L24">
-        <v>54.5474082041143</v>
+        <v>65.75786914651199</v>
       </c>
       <c r="M24">
-        <v>14.2686066256449</v>
+        <v>18.2858533278372</v>
       </c>
       <c r="N24">
-        <v>58.2807372011106</v>
+        <v>74.0055301731534</v>
       </c>
       <c r="O24">
-        <v>1914.8787371056</v>
+        <v>2157.78335237374</v>
       </c>
       <c r="P24">
-        <v>62.5391970500161</v>
+        <v>66.7716397173258</v>
       </c>
     </row>
     <row r="25">
@@ -1642,49 +1642,49 @@
         </is>
       </c>
       <c r="B25">
-        <v>936.589035134807</v>
+        <v>778.2509835539111</v>
       </c>
       <c r="C25">
-        <v>23.1314461589554</v>
+        <v>30.8416795678849</v>
       </c>
       <c r="D25">
-        <v>10.0938584468412</v>
+        <v>14.4354416807404</v>
       </c>
       <c r="E25">
-        <v>34.7973354741167</v>
+        <v>41.9540895461426</v>
       </c>
       <c r="F25">
-        <v>17.0094632189596</v>
+        <v>15.3939000151361</v>
       </c>
       <c r="G25">
-        <v>8.043162678635939</v>
+        <v>11.2307240220156</v>
       </c>
       <c r="H25">
-        <v>4.45152265121995</v>
+        <v>5.03452407539933</v>
       </c>
       <c r="I25">
-        <v>1.85485446636522</v>
+        <v>2.6843327649193</v>
       </c>
       <c r="J25">
-        <v>8.61088333421525</v>
+        <v>9.676863789606591</v>
       </c>
       <c r="K25">
-        <v>6.04266383945783</v>
+        <v>9.53022026609308</v>
       </c>
       <c r="L25">
-        <v>6.85434184664725</v>
+        <v>7.65833133838993</v>
       </c>
       <c r="M25">
-        <v>31.7726732451216</v>
+        <v>34.4161495261315</v>
       </c>
       <c r="N25">
-        <v>38.5589677178359</v>
+        <v>36.2608189359112</v>
       </c>
       <c r="O25">
-        <v>741.018450356844</v>
+        <v>856.14717505287</v>
       </c>
       <c r="P25">
-        <v>40.7272914929216</v>
+        <v>51.4183625810161</v>
       </c>
     </row>
     <row r="26">
@@ -1694,49 +1694,49 @@
         </is>
       </c>
       <c r="B26">
-        <v>1528.19347142632</v>
+        <v>1116.81235049138</v>
       </c>
       <c r="C26">
-        <v>40.6410558460433</v>
+        <v>48.1062187433202</v>
       </c>
       <c r="D26">
-        <v>3.89393519724326</v>
+        <v>3.5188567820204</v>
       </c>
       <c r="E26">
-        <v>45.5377211350369</v>
+        <v>48.6937510489294</v>
       </c>
       <c r="F26">
-        <v>9.55538515068306</v>
+        <v>11.3534370336831</v>
       </c>
       <c r="G26">
-        <v>24.2783881314504</v>
+        <v>31.6612285253566</v>
       </c>
       <c r="H26">
-        <v>10.5287728784736</v>
+        <v>12.8570582017837</v>
       </c>
       <c r="I26">
-        <v>20.1505762599101</v>
+        <v>24.0286109815804</v>
       </c>
       <c r="J26">
-        <v>30.9850978141778</v>
+        <v>38.4440523462693</v>
       </c>
       <c r="K26">
-        <v>14.5312851228617</v>
+        <v>12.2809148202187</v>
       </c>
       <c r="L26">
-        <v>28.5235473229289</v>
+        <v>31.4566588668794</v>
       </c>
       <c r="M26">
-        <v>41.6533851545622</v>
+        <v>47.6805172244226</v>
       </c>
       <c r="N26">
-        <v>30.2341099311544</v>
+        <v>31.0662320368976</v>
       </c>
       <c r="O26">
-        <v>2073.13153631437</v>
+        <v>2417.53035301314</v>
       </c>
       <c r="P26">
-        <v>37.6785069545022</v>
+        <v>41.5843461875955</v>
       </c>
     </row>
     <row r="27">
@@ -1746,49 +1746,49 @@
         </is>
       </c>
       <c r="B27">
-        <v>254.267716245006</v>
+        <v>182.430544185922</v>
       </c>
       <c r="C27">
-        <v>2.55787730276166</v>
+        <v>2.46109996021454</v>
       </c>
       <c r="D27">
-        <v>0.585853158017329</v>
+        <v>1.04945672957323</v>
       </c>
       <c r="E27">
-        <v>6.62523191690074</v>
+        <v>7.07714220212631</v>
       </c>
       <c r="F27">
-        <v>4.78227411481969</v>
+        <v>6.08869405734465</v>
       </c>
       <c r="G27">
-        <v>0.548604652497389</v>
+        <v>0.838828103394303</v>
       </c>
       <c r="H27">
-        <v>0.0640064185308839</v>
+        <v>0.107543517992619</v>
       </c>
       <c r="I27">
-        <v>1.12194032699392</v>
+        <v>2.02775790161907</v>
       </c>
       <c r="J27">
-        <v>2.25627511941481</v>
+        <v>3.16692510931833</v>
       </c>
       <c r="K27">
-        <v>0.46316624404578</v>
+        <v>0.699139087079197</v>
       </c>
       <c r="L27">
-        <v>1.04504429562823</v>
+        <v>1.64733758369761</v>
       </c>
       <c r="M27">
-        <v>0.235971205840687</v>
+        <v>0.352314234489223</v>
       </c>
       <c r="N27">
-        <v>2.53555498352058</v>
+        <v>3.02816885977858</v>
       </c>
       <c r="O27">
-        <v>336.287198583843</v>
+        <v>402.300114650825</v>
       </c>
       <c r="P27">
-        <v>37.0477361912509</v>
+        <v>44.3851883143033</v>
       </c>
     </row>
     <row r="28">
@@ -1798,49 +1798,49 @@
         </is>
       </c>
       <c r="B28">
-        <v>386.795436543062</v>
+        <v>242.56664399039</v>
       </c>
       <c r="C28">
-        <v>29.1648894151049</v>
+        <v>35.2726130700716</v>
       </c>
       <c r="D28">
-        <v>1.20493294769999</v>
+        <v>1.11117379682739</v>
       </c>
       <c r="E28">
-        <v>3.48716728112812</v>
+        <v>3.94423637731014</v>
       </c>
       <c r="F28">
-        <v>0.224218796306402</v>
+        <v>0.239631214278203</v>
       </c>
       <c r="G28">
-        <v>4.30970853148052</v>
+        <v>5.95418689964957</v>
       </c>
       <c r="H28">
-        <v>5.4263372155671</v>
+        <v>5.34697722138058</v>
       </c>
       <c r="I28">
-        <v>3.96461622098283</v>
+        <v>4.52176893339816</v>
       </c>
       <c r="J28">
-        <v>15.7189980419388</v>
+        <v>16.8261354252102</v>
       </c>
       <c r="K28">
-        <v>9.30375476769879</v>
+        <v>12.5092454058058</v>
       </c>
       <c r="L28">
-        <v>10.3613041289025</v>
+        <v>11.4787897679276</v>
       </c>
       <c r="M28">
-        <v>7.70807512123851</v>
+        <v>10.3165699841115</v>
       </c>
       <c r="N28">
-        <v>8.22122879805463</v>
+        <v>11.636334039447</v>
       </c>
       <c r="O28">
-        <v>643.438640212999</v>
+        <v>748.551133095177</v>
       </c>
       <c r="P28">
-        <v>59.0694279994902</v>
+        <v>59.4849062448194</v>
       </c>
     </row>
     <row r="29">
@@ -1850,49 +1850,49 @@
         </is>
       </c>
       <c r="B29">
-        <v>598.261328589248</v>
+        <v>449.742410243919</v>
       </c>
       <c r="C29">
-        <v>2.40669639030678</v>
+        <v>2.88817604577418</v>
       </c>
       <c r="D29">
-        <v>2.44199732717323</v>
+        <v>3.61369896536659</v>
       </c>
       <c r="E29">
-        <v>4.64833314778162</v>
+        <v>6.09534920481552</v>
       </c>
       <c r="F29">
-        <v>20.0092309941875</v>
+        <v>19.9505396450035</v>
       </c>
       <c r="G29">
-        <v>2.73066686323968</v>
+        <v>3.82603511781523</v>
       </c>
       <c r="H29">
-        <v>0.989227802757188</v>
+        <v>1.07642865331974</v>
       </c>
       <c r="I29">
-        <v>1.01859436676662</v>
+        <v>1.27199334628842</v>
       </c>
       <c r="J29">
-        <v>2.81191852710449</v>
+        <v>2.70334264348638</v>
       </c>
       <c r="K29">
-        <v>2.49857973314252</v>
+        <v>1.93601675382184</v>
       </c>
       <c r="L29">
-        <v>1.91959589095974</v>
+        <v>2.55943685761971</v>
       </c>
       <c r="M29">
-        <v>3.33214665165574</v>
+        <v>3.80497180301767</v>
       </c>
       <c r="N29">
-        <v>8.717159601728961</v>
+        <v>11.4858361147296</v>
       </c>
       <c r="O29">
-        <v>932.249857613381</v>
+        <v>1106.86874591885</v>
       </c>
       <c r="P29">
-        <v>2.94596315340462</v>
+        <v>3.95989604059966</v>
       </c>
     </row>
     <row r="30">
@@ -1902,49 +1902,49 @@
         </is>
       </c>
       <c r="B30">
-        <v>282.872067843103</v>
+        <v>193.692685970876</v>
       </c>
       <c r="C30">
-        <v>4.19748734896328</v>
+        <v>5.42458491256925</v>
       </c>
       <c r="D30">
-        <v>2.73822404743534</v>
+        <v>3.53888776743581</v>
       </c>
       <c r="E30">
-        <v>7.20387885450203</v>
+        <v>7.9593082860674</v>
       </c>
       <c r="F30">
-        <v>0.265033482629734</v>
+        <v>0.17764189177382</v>
       </c>
       <c r="G30">
-        <v>5.26822979510225</v>
+        <v>6.47243522641248</v>
       </c>
       <c r="H30">
-        <v>2.30553661718485</v>
+        <v>2.62112926587806</v>
       </c>
       <c r="I30">
-        <v>1.72071292634843</v>
+        <v>2.18194064213765</v>
       </c>
       <c r="J30">
-        <v>13.8742437934368</v>
+        <v>18.2011859659346</v>
       </c>
       <c r="K30">
-        <v>3.12948465280922</v>
+        <v>3.66579268677588</v>
       </c>
       <c r="L30">
-        <v>32.1232059116378</v>
+        <v>39.8390040323683</v>
       </c>
       <c r="M30">
-        <v>6.34326380828334</v>
+        <v>8.177112013191859</v>
       </c>
       <c r="N30">
-        <v>12.735043149846</v>
+        <v>16.6612745553608</v>
       </c>
       <c r="O30">
-        <v>482.408749131059</v>
+        <v>539.645345792249</v>
       </c>
       <c r="P30">
-        <v>3.56606015653296</v>
+        <v>4.47028640664668</v>
       </c>
     </row>
     <row r="31">
@@ -1954,49 +1954,49 @@
         </is>
       </c>
       <c r="B31">
-        <v>2293.96050840654</v>
+        <v>1613.79720309209</v>
       </c>
       <c r="C31">
-        <v>44.4210446716967</v>
+        <v>60.7347318600095</v>
       </c>
       <c r="D31">
-        <v>3.99685870164036</v>
+        <v>4.91525501160847</v>
       </c>
       <c r="E31">
-        <v>25.3585195470997</v>
+        <v>28.3023285381384</v>
       </c>
       <c r="F31">
-        <v>2.96589170988242</v>
+        <v>1.75181390346464</v>
       </c>
       <c r="G31">
-        <v>101.292128587227</v>
+        <v>132.240075533305</v>
       </c>
       <c r="H31">
-        <v>6.00614214951418</v>
+        <v>8.167439148276619</v>
       </c>
       <c r="I31">
-        <v>9.162720541950801</v>
+        <v>8.722243389355141</v>
       </c>
       <c r="J31">
-        <v>21.3305804526722</v>
+        <v>28.780747291435</v>
       </c>
       <c r="K31">
-        <v>6.0053274323567</v>
+        <v>7.14154109133413</v>
       </c>
       <c r="L31">
-        <v>42.6607953635187</v>
+        <v>60.2515706814766</v>
       </c>
       <c r="M31">
-        <v>16.1302003201121</v>
+        <v>21.217169355739</v>
       </c>
       <c r="N31">
-        <v>49.0900509655626</v>
+        <v>60.8733207744481</v>
       </c>
       <c r="O31">
-        <v>2987.26499887418</v>
+        <v>3615.45185612426</v>
       </c>
       <c r="P31">
-        <v>15.7040815630549</v>
+        <v>22.7761122025676</v>
       </c>
     </row>
     <row r="32">
@@ -2006,49 +2006,49 @@
         </is>
       </c>
       <c r="B32">
-        <v>572.677335931823</v>
+        <v>451.691750442351</v>
       </c>
       <c r="C32">
-        <v>2.31979572079196</v>
+        <v>3.11020421222892</v>
       </c>
       <c r="D32">
-        <v>1.14670494991508</v>
+        <v>2.03322237648531</v>
       </c>
       <c r="E32">
-        <v>2.29908667966075</v>
+        <v>3.56266999742931</v>
       </c>
       <c r="F32">
-        <v>18.8930458671405</v>
+        <v>24.9582888318464</v>
       </c>
       <c r="G32">
-        <v>3.04498024784588</v>
+        <v>3.48828312596384</v>
       </c>
       <c r="H32">
-        <v>0.188603704037866</v>
+        <v>0.0394713824712303</v>
       </c>
       <c r="I32">
-        <v>1.38267169068788</v>
+        <v>1.22869612568134</v>
       </c>
       <c r="J32">
-        <v>3.31578889868018</v>
+        <v>4.96054068375621</v>
       </c>
       <c r="K32">
-        <v>0.8138194066172461</v>
+        <v>1.1907194175623</v>
       </c>
       <c r="L32">
-        <v>4.79785834489579</v>
+        <v>6.83958268303371</v>
       </c>
       <c r="M32">
-        <v>5.61842874719738</v>
+        <v>7.65610490747088</v>
       </c>
       <c r="N32">
-        <v>11.1032882830499</v>
+        <v>13.2539558866562</v>
       </c>
       <c r="O32">
-        <v>638.315176125247</v>
+        <v>750.1602575767701</v>
       </c>
       <c r="P32">
-        <v>14.3902444164067</v>
+        <v>13.3727329348829</v>
       </c>
     </row>
     <row r="33">
@@ -2058,49 +2058,49 @@
         </is>
       </c>
       <c r="B33">
-        <v>5696.1488176767</v>
+        <v>4257.7341216528</v>
       </c>
       <c r="C33">
-        <v>58.20654814919</v>
+        <v>75.89631230816271</v>
       </c>
       <c r="D33">
-        <v>7.2860989750474</v>
+        <v>9.41139696226195</v>
       </c>
       <c r="E33">
-        <v>50.0581078502004</v>
+        <v>65.54806197871891</v>
       </c>
       <c r="F33">
-        <v>7.25208867196722</v>
+        <v>8.03932931335955</v>
       </c>
       <c r="G33">
-        <v>48.6423392918222</v>
+        <v>63.051261874046</v>
       </c>
       <c r="H33">
-        <v>21.8445636259679</v>
+        <v>28.0237842272299</v>
       </c>
       <c r="I33">
-        <v>16.424136669918</v>
+        <v>19.9392318361735</v>
       </c>
       <c r="J33">
-        <v>61.8714057747738</v>
+        <v>85.9281423821696</v>
       </c>
       <c r="K33">
-        <v>38.9907353287706</v>
+        <v>51.796861277056</v>
       </c>
       <c r="L33">
-        <v>74.22132236587331</v>
+        <v>95.4248307259336</v>
       </c>
       <c r="M33">
-        <v>35.1904247938289</v>
+        <v>45.8355827971476</v>
       </c>
       <c r="N33">
-        <v>99.8738512408101</v>
+        <v>127.015335164392</v>
       </c>
       <c r="O33">
-        <v>6361.70907057855</v>
+        <v>7614.84530393779</v>
       </c>
       <c r="P33">
-        <v>58.2909709831323</v>
+        <v>49.0579104579411</v>
       </c>
     </row>
     <row r="34">
@@ -2110,49 +2110,49 @@
         </is>
       </c>
       <c r="B34">
-        <v>2496.55585690286</v>
+        <v>1967.17123968161</v>
       </c>
       <c r="C34">
-        <v>50.1627085158462</v>
+        <v>59.5834050192113</v>
       </c>
       <c r="D34">
-        <v>41.4720932729431</v>
+        <v>54.4457467292149</v>
       </c>
       <c r="E34">
-        <v>41.2430284782626</v>
+        <v>57.7574428975988</v>
       </c>
       <c r="F34">
-        <v>2.12422903961811</v>
+        <v>2.24837323456293</v>
       </c>
       <c r="G34">
-        <v>41.0308351354915</v>
+        <v>49.4280996003261</v>
       </c>
       <c r="H34">
-        <v>23.1506002435836</v>
+        <v>32.4162905047847</v>
       </c>
       <c r="I34">
-        <v>10.6724933827663</v>
+        <v>15.0472993945718</v>
       </c>
       <c r="J34">
-        <v>36.2953943732801</v>
+        <v>45.6266229647348</v>
       </c>
       <c r="K34">
-        <v>8.97562275218557</v>
+        <v>11.3937100366014</v>
       </c>
       <c r="L34">
-        <v>70.4854830648883</v>
+        <v>89.8177970760398</v>
       </c>
       <c r="M34">
-        <v>33.4184446063426</v>
+        <v>39.2585531080857</v>
       </c>
       <c r="N34">
-        <v>96.446832617494</v>
+        <v>124.401887394584</v>
       </c>
       <c r="O34">
-        <v>2977.78549136314</v>
+        <v>3404.98406052021</v>
       </c>
       <c r="P34">
-        <v>48.8008211915467</v>
+        <v>55.3611796145741</v>
       </c>
     </row>
     <row r="35">
@@ -2162,49 +2162,49 @@
         </is>
       </c>
       <c r="B35">
-        <v>141.811607581361</v>
+        <v>83.1856378691753</v>
       </c>
       <c r="C35">
-        <v>5.51512849783115</v>
+        <v>6.26752925756044</v>
       </c>
       <c r="D35">
-        <v>0.441636736344058</v>
+        <v>0.478205563585764</v>
       </c>
       <c r="E35">
-        <v>2.95383662463913</v>
+        <v>3.63796740314793</v>
       </c>
       <c r="F35">
-        <v>3.04549134773876</v>
+        <v>3.66421682599152</v>
       </c>
       <c r="G35">
-        <v>0.5043912287876871</v>
+        <v>0.709086886972202</v>
       </c>
       <c r="H35">
-        <v>0.70799374766893</v>
+        <v>0.870365972317193</v>
       </c>
       <c r="I35">
-        <v>1.05187780904084</v>
+        <v>0.942036179414929</v>
       </c>
       <c r="J35">
-        <v>1.93003904202486</v>
+        <v>2.0579647482568</v>
       </c>
       <c r="K35">
-        <v>2.87072847086288</v>
+        <v>3.38256859527712</v>
       </c>
       <c r="L35">
-        <v>2.75590784237472</v>
+        <v>2.81068087069457</v>
       </c>
       <c r="M35">
-        <v>3.23786130351114</v>
+        <v>3.45835834344376</v>
       </c>
       <c r="N35">
-        <v>3.3654420177577</v>
+        <v>3.17112937114686</v>
       </c>
       <c r="O35">
-        <v>241.776461233793</v>
+        <v>275.560300357568</v>
       </c>
       <c r="P35">
-        <v>34.8552358106507</v>
+        <v>36.8240646875295</v>
       </c>
     </row>
     <row r="36">
@@ -2214,49 +2214,49 @@
         </is>
       </c>
       <c r="B36">
-        <v>3208.38333865186</v>
+        <v>2524.41316799304</v>
       </c>
       <c r="C36">
-        <v>77.33974015442649</v>
+        <v>94.17299577902649</v>
       </c>
       <c r="D36">
-        <v>7.02897540968578</v>
+        <v>8.58924172164865</v>
       </c>
       <c r="E36">
-        <v>106.966501075565</v>
+        <v>131.246197338812</v>
       </c>
       <c r="F36">
-        <v>15.5794062342229</v>
+        <v>18.1533910662714</v>
       </c>
       <c r="G36">
-        <v>74.92387562345979</v>
+        <v>87.9556426154666</v>
       </c>
       <c r="H36">
-        <v>61.3623507949454</v>
+        <v>70.4895701650277</v>
       </c>
       <c r="I36">
-        <v>26.7356583518258</v>
+        <v>31.972306393982</v>
       </c>
       <c r="J36">
-        <v>175.311326027993</v>
+        <v>227.069606684494</v>
       </c>
       <c r="K36">
-        <v>47.1912486815592</v>
+        <v>60.544736217758</v>
       </c>
       <c r="L36">
-        <v>49.2145825003025</v>
+        <v>58.9884524969359</v>
       </c>
       <c r="M36">
-        <v>145.697928599039</v>
+        <v>168.777688197801</v>
       </c>
       <c r="N36">
-        <v>101.91124058978</v>
+        <v>121.566042624733</v>
       </c>
       <c r="O36">
-        <v>3758.18435650896</v>
+        <v>4238.97834916256</v>
       </c>
       <c r="P36">
-        <v>59.393579798064</v>
+        <v>75.8636734715205</v>
       </c>
     </row>
     <row r="37">
@@ -2266,49 +2266,49 @@
         </is>
       </c>
       <c r="B37">
-        <v>1084.24464756524</v>
+        <v>853.814549651258</v>
       </c>
       <c r="C37">
-        <v>12.3988807039946</v>
+        <v>15.6148771497255</v>
       </c>
       <c r="D37">
-        <v>2.87164687017172</v>
+        <v>2.74862562108786</v>
       </c>
       <c r="E37">
-        <v>16.977388830755</v>
+        <v>18.8406765642693</v>
       </c>
       <c r="F37">
-        <v>40.689486245808</v>
+        <v>44.3865382070159</v>
       </c>
       <c r="G37">
-        <v>5.06312600880785</v>
+        <v>5.99205768484102</v>
       </c>
       <c r="H37">
-        <v>21.9213420544129</v>
+        <v>28.0457959773273</v>
       </c>
       <c r="I37">
-        <v>7.0199102910863</v>
+        <v>7.13639742533693</v>
       </c>
       <c r="J37">
-        <v>32.6662988105677</v>
+        <v>35.2351218320435</v>
       </c>
       <c r="K37">
-        <v>5.8922935733165</v>
+        <v>7.7213124462551</v>
       </c>
       <c r="L37">
-        <v>15.1036568608202</v>
+        <v>20.9851945062742</v>
       </c>
       <c r="M37">
-        <v>21.2250196997575</v>
+        <v>26.7494930949056</v>
       </c>
       <c r="N37">
-        <v>19.4766216487437</v>
+        <v>22.9882923843597</v>
       </c>
       <c r="O37">
-        <v>1124.54735784187</v>
+        <v>1312.31326253882</v>
       </c>
       <c r="P37">
-        <v>44.3455430809592</v>
+        <v>49.4787305170092</v>
       </c>
     </row>
     <row r="38">
@@ -2318,49 +2318,49 @@
         </is>
       </c>
       <c r="B38">
-        <v>1069.18258650375</v>
+        <v>782.382342521328</v>
       </c>
       <c r="C38">
-        <v>21.0956066642371</v>
+        <v>23.5567404485899</v>
       </c>
       <c r="D38">
-        <v>3.80522418859915</v>
+        <v>3.86929258761145</v>
       </c>
       <c r="E38">
-        <v>39.929933713937</v>
+        <v>45.314963733518</v>
       </c>
       <c r="F38">
-        <v>0.911671480920065</v>
+        <v>1.19241680497036</v>
       </c>
       <c r="G38">
-        <v>8.687922960586009</v>
+        <v>10.5855258820262</v>
       </c>
       <c r="H38">
-        <v>0.893739467747683</v>
+        <v>1.04481794873037</v>
       </c>
       <c r="I38">
-        <v>3.47791366305652</v>
+        <v>4.19792372619404</v>
       </c>
       <c r="J38">
-        <v>22.4724916624542</v>
+        <v>28.296271913257</v>
       </c>
       <c r="K38">
-        <v>2.70493594365361</v>
+        <v>3.84920006829397</v>
       </c>
       <c r="L38">
-        <v>82.51590832326311</v>
+        <v>96.89769530371051</v>
       </c>
       <c r="M38">
-        <v>16.8619201750262</v>
+        <v>22.229040540839</v>
       </c>
       <c r="N38">
-        <v>47.2377247203233</v>
+        <v>58.2800566310291</v>
       </c>
       <c r="O38">
-        <v>1244.70390760767</v>
+        <v>1492.43158160405</v>
       </c>
       <c r="P38">
-        <v>40.3857249785599</v>
+        <v>57.9249204141502</v>
       </c>
     </row>
     <row r="39">
@@ -2370,49 +2370,49 @@
         </is>
       </c>
       <c r="B39">
-        <v>3557.1840023696</v>
+        <v>2639.71441529712</v>
       </c>
       <c r="C39">
-        <v>77.9400424084058</v>
+        <v>90.02833350923</v>
       </c>
       <c r="D39">
-        <v>25.9224010881987</v>
+        <v>24.7133961533943</v>
       </c>
       <c r="E39">
-        <v>103.056087728427</v>
+        <v>118.69491924585</v>
       </c>
       <c r="F39">
-        <v>28.0930696483384</v>
+        <v>34.3582095243122</v>
       </c>
       <c r="G39">
-        <v>99.89377540542731</v>
+        <v>122.272090657832</v>
       </c>
       <c r="H39">
-        <v>37.7280669495954</v>
+        <v>53.0193355776885</v>
       </c>
       <c r="I39">
-        <v>18.1285278444126</v>
+        <v>20.920142248321</v>
       </c>
       <c r="J39">
-        <v>138.714162306614</v>
+        <v>174.70258105247</v>
       </c>
       <c r="K39">
-        <v>31.0393206893655</v>
+        <v>35.163727028155</v>
       </c>
       <c r="L39">
-        <v>96.1732923258818</v>
+        <v>126.454523387153</v>
       </c>
       <c r="M39">
-        <v>52.2417041873228</v>
+        <v>71.7289300799399</v>
       </c>
       <c r="N39">
-        <v>100.704081076767</v>
+        <v>118.902041252134</v>
       </c>
       <c r="O39">
-        <v>4362.77053147144</v>
+        <v>5053.82471301126</v>
       </c>
       <c r="P39">
-        <v>70.9771183069944</v>
+        <v>79.1609628169731</v>
       </c>
     </row>
     <row r="40">
@@ -2422,49 +2422,49 @@
         </is>
       </c>
       <c r="B40">
-        <v>281.902490117816</v>
+        <v>209.081912037663</v>
       </c>
       <c r="C40">
-        <v>2.31163927784182</v>
+        <v>1.71160747133433</v>
       </c>
       <c r="D40">
-        <v>5.21113382726705</v>
+        <v>7.14628332592667</v>
       </c>
       <c r="E40">
-        <v>3.46682654442246</v>
+        <v>3.7646922237533</v>
       </c>
       <c r="F40">
-        <v>0.240736663669375</v>
+        <v>0.175987715091826</v>
       </c>
       <c r="G40">
-        <v>4.29630832032742</v>
+        <v>5.33984669970945</v>
       </c>
       <c r="H40">
-        <v>3.4695730075807</v>
+        <v>3.93802608272861</v>
       </c>
       <c r="I40">
-        <v>2.52958668792358</v>
+        <v>3.28827377659862</v>
       </c>
       <c r="J40">
-        <v>8.273938758018041</v>
+        <v>10.1554322588467</v>
       </c>
       <c r="K40">
-        <v>1.2969221766786</v>
+        <v>1.57799917826687</v>
       </c>
       <c r="L40">
-        <v>7.92929010850035</v>
+        <v>10.1452135681779</v>
       </c>
       <c r="M40">
-        <v>4.82194084965995</v>
+        <v>5.32125603265315</v>
       </c>
       <c r="N40">
-        <v>15.7687349808689</v>
+        <v>19.7912442996168</v>
       </c>
       <c r="O40">
-        <v>375.319480972123</v>
+        <v>416.78561127266</v>
       </c>
       <c r="P40">
-        <v>4.10730910137434</v>
+        <v>6.484406391129</v>
       </c>
     </row>
     <row r="41">
@@ -2474,49 +2474,49 @@
         </is>
       </c>
       <c r="B41">
-        <v>1384.59847214288</v>
+        <v>1108.05681436085</v>
       </c>
       <c r="C41">
-        <v>18.5839549490068</v>
+        <v>21.1980338348965</v>
       </c>
       <c r="D41">
-        <v>36.0198324625378</v>
+        <v>45.0797367869045</v>
       </c>
       <c r="E41">
-        <v>23.4700603890563</v>
+        <v>29.321888667963</v>
       </c>
       <c r="F41">
-        <v>1.43633539307547</v>
+        <v>1.98221314204784</v>
       </c>
       <c r="G41">
-        <v>22.2893812607257</v>
+        <v>26.0094080291742</v>
       </c>
       <c r="H41">
-        <v>16.1892522566809</v>
+        <v>19.7227242703869</v>
       </c>
       <c r="I41">
-        <v>10.4795194505013</v>
+        <v>11.3394201497694</v>
       </c>
       <c r="J41">
-        <v>34.6516699357765</v>
+        <v>41.2961110383388</v>
       </c>
       <c r="K41">
-        <v>6.48354962493713</v>
+        <v>8.353786731721179</v>
       </c>
       <c r="L41">
-        <v>23.5209952436196</v>
+        <v>28.6757407887752</v>
       </c>
       <c r="M41">
-        <v>26.2144518761467</v>
+        <v>32.0275013956479</v>
       </c>
       <c r="N41">
-        <v>18.7070466529219</v>
+        <v>22.1195566927457</v>
       </c>
       <c r="O41">
-        <v>1340.2739687705</v>
+        <v>1561.44790087417</v>
       </c>
       <c r="P41">
-        <v>16.6668864908997</v>
+        <v>17.9583043644526</v>
       </c>
     </row>
     <row r="42">
@@ -2526,49 +2526,49 @@
         </is>
       </c>
       <c r="B42">
-        <v>159.292697128515</v>
+        <v>100.334962717061</v>
       </c>
       <c r="C42">
-        <v>5.48991253326821</v>
+        <v>7.6966501066763</v>
       </c>
       <c r="D42">
-        <v>1.29548635071536</v>
+        <v>2.06678570700025</v>
       </c>
       <c r="E42">
-        <v>3.95695579382052</v>
+        <v>5.37182059914428</v>
       </c>
       <c r="F42">
-        <v>1.83068582341116</v>
+        <v>2.23205057376868</v>
       </c>
       <c r="G42">
-        <v>1.36176484452374</v>
+        <v>1.75358531830061</v>
       </c>
       <c r="H42">
-        <v>1.88434622372273</v>
+        <v>2.15639161211852</v>
       </c>
       <c r="I42">
-        <v>1.94180038653247</v>
+        <v>2.29841401226103</v>
       </c>
       <c r="J42">
-        <v>4.47322033364097</v>
+        <v>6.24569747812405</v>
       </c>
       <c r="K42">
-        <v>3.02085464170893</v>
+        <v>4.03296880232236</v>
       </c>
       <c r="L42">
-        <v>4.20558517943419</v>
+        <v>5.01282859994637</v>
       </c>
       <c r="M42">
-        <v>2.59128380940501</v>
+        <v>3.20327896332738</v>
       </c>
       <c r="N42">
-        <v>7.47923047310124</v>
+        <v>9.1791820630405</v>
       </c>
       <c r="O42">
-        <v>267.655821096282</v>
+        <v>316.117603078309</v>
       </c>
       <c r="P42">
-        <v>44.0767648425445</v>
+        <v>48.0300989663362</v>
       </c>
     </row>
     <row r="43">
@@ -2578,49 +2578,49 @@
         </is>
       </c>
       <c r="B43">
-        <v>1864.9587165035</v>
+        <v>1557.78111739197</v>
       </c>
       <c r="C43">
-        <v>33.4903203449617</v>
+        <v>39.3294140479902</v>
       </c>
       <c r="D43">
-        <v>14.1540353588172</v>
+        <v>17.6838841903155</v>
       </c>
       <c r="E43">
-        <v>61.5547809723325</v>
+        <v>68.7241575785402</v>
       </c>
       <c r="F43">
-        <v>10.6319975613442</v>
+        <v>11.1248237294487</v>
       </c>
       <c r="G43">
-        <v>30.5005757300899</v>
+        <v>31.2522490719477</v>
       </c>
       <c r="H43">
-        <v>31.5276979502632</v>
+        <v>33.2303213092452</v>
       </c>
       <c r="I43">
-        <v>3.24761088725001</v>
+        <v>3.59894153196611</v>
       </c>
       <c r="J43">
-        <v>47.825738761996</v>
+        <v>61.6662383069978</v>
       </c>
       <c r="K43">
-        <v>5.71550416986839</v>
+        <v>5.48037266326473</v>
       </c>
       <c r="L43">
-        <v>31.3144040920873</v>
+        <v>27.6588870625489</v>
       </c>
       <c r="M43">
-        <v>69.8065297568884</v>
+        <v>72.7990385662989</v>
       </c>
       <c r="N43">
-        <v>51.7391119989959</v>
+        <v>63.4474566474143</v>
       </c>
       <c r="O43">
-        <v>1934.96108560973</v>
+        <v>2231.64974890708</v>
       </c>
       <c r="P43">
-        <v>35.5114978808122</v>
+        <v>54.1185557561999</v>
       </c>
     </row>
     <row r="44">
@@ -2630,49 +2630,49 @@
         </is>
       </c>
       <c r="B44">
-        <v>5794.92491917322</v>
+        <v>4630.80460000292</v>
       </c>
       <c r="C44">
-        <v>127.918354583275</v>
+        <v>157.875507439465</v>
       </c>
       <c r="D44">
-        <v>15.3519099621619</v>
+        <v>15.8946680846832</v>
       </c>
       <c r="E44">
-        <v>63.2226922882044</v>
+        <v>81.7922247703824</v>
       </c>
       <c r="F44">
-        <v>243.670795986129</v>
+        <v>295.200303108465</v>
       </c>
       <c r="G44">
-        <v>112.190784503996</v>
+        <v>140.859679023756</v>
       </c>
       <c r="H44">
-        <v>26.6725681952199</v>
+        <v>30.9480278488656</v>
       </c>
       <c r="I44">
-        <v>41.4937763699822</v>
+        <v>48.9751576228552</v>
       </c>
       <c r="J44">
-        <v>102.193463671204</v>
+        <v>128.006600427166</v>
       </c>
       <c r="K44">
-        <v>22.3997777027348</v>
+        <v>28.0475134479716</v>
       </c>
       <c r="L44">
-        <v>153.515570809262</v>
+        <v>190.13792115678</v>
       </c>
       <c r="M44">
-        <v>79.9967005913846</v>
+        <v>95.1431906331015</v>
       </c>
       <c r="N44">
-        <v>88.4402019879861</v>
+        <v>102.547767437823</v>
       </c>
       <c r="O44">
-        <v>7708.88868718589</v>
+        <v>8701.900852330669</v>
       </c>
       <c r="P44">
-        <v>153.190579813922</v>
+        <v>149.173377311028</v>
       </c>
     </row>
     <row r="45">
@@ -2682,49 +2682,49 @@
         </is>
       </c>
       <c r="B45">
-        <v>502.689921066249</v>
+        <v>380.897931134896</v>
       </c>
       <c r="C45">
-        <v>14.8452130986631</v>
+        <v>16.8482961681119</v>
       </c>
       <c r="D45">
-        <v>1.19413998769814</v>
+        <v>0.719693383543529</v>
       </c>
       <c r="E45">
-        <v>7.47604013062243</v>
+        <v>9.144783001835391</v>
       </c>
       <c r="F45">
-        <v>22.9988635670662</v>
+        <v>23.8505263188195</v>
       </c>
       <c r="G45">
-        <v>6.57826222822734</v>
+        <v>7.59139659600671</v>
       </c>
       <c r="H45">
-        <v>1.32178156732786</v>
+        <v>1.69935580461682</v>
       </c>
       <c r="I45">
-        <v>2.58731505104366</v>
+        <v>2.22018641949435</v>
       </c>
       <c r="J45">
-        <v>21.3424273327888</v>
+        <v>20.2778352613071</v>
       </c>
       <c r="K45">
-        <v>2.2464345435382</v>
+        <v>2.39563593632681</v>
       </c>
       <c r="L45">
-        <v>14.3720352957836</v>
+        <v>15.0924100639017</v>
       </c>
       <c r="M45">
-        <v>13.792786328836</v>
+        <v>14.0218727189624</v>
       </c>
       <c r="N45">
-        <v>29.0951645153837</v>
+        <v>30.9608358661383</v>
       </c>
       <c r="O45">
-        <v>872.767572172328</v>
+        <v>930.057714594477</v>
       </c>
       <c r="P45">
-        <v>10.4691184134035</v>
+        <v>15.4564687397241</v>
       </c>
     </row>
     <row r="46">
@@ -2734,49 +2734,49 @@
         </is>
       </c>
       <c r="B46">
-        <v>137.69633650726</v>
+        <v>92.8242482463604</v>
       </c>
       <c r="C46">
-        <v>3.21880418727534</v>
+        <v>3.46221823874225</v>
       </c>
       <c r="D46">
-        <v>0.560619754680921</v>
+        <v>0.490390597619161</v>
       </c>
       <c r="E46">
-        <v>3.82547302324071</v>
+        <v>4.87023670075777</v>
       </c>
       <c r="F46">
-        <v>0.717480006001064</v>
+        <v>0.9575192872510711</v>
       </c>
       <c r="G46">
-        <v>1.28711339718926</v>
+        <v>1.21844818728923</v>
       </c>
       <c r="H46">
-        <v>0.533121156812879</v>
+        <v>0.589695661294544</v>
       </c>
       <c r="I46">
-        <v>2.03702101912366</v>
+        <v>2.05785074958883</v>
       </c>
       <c r="J46">
-        <v>3.59471540343581</v>
+        <v>4.46127401714595</v>
       </c>
       <c r="K46">
-        <v>0.866014274620261</v>
+        <v>0.789372903391886</v>
       </c>
       <c r="L46">
-        <v>9.470379883210629</v>
+        <v>12.7321279451856</v>
       </c>
       <c r="M46">
-        <v>2.34654555406643</v>
+        <v>2.95228686305097</v>
       </c>
       <c r="N46">
-        <v>5.38794499229192</v>
+        <v>7.06022116825721</v>
       </c>
       <c r="O46">
-        <v>239.586532811627</v>
+        <v>277.674599842955</v>
       </c>
       <c r="P46">
-        <v>8.04356543614055</v>
+        <v>7.9469152757934</v>
       </c>
     </row>
     <row r="47">
@@ -2786,49 +2786,49 @@
         </is>
       </c>
       <c r="B47">
-        <v>1896.97783923737</v>
+        <v>1461.93362732674</v>
       </c>
       <c r="C47">
-        <v>45.4835305538684</v>
+        <v>48.3794819756052</v>
       </c>
       <c r="D47">
-        <v>11.8503278593096</v>
+        <v>11.4171658459211</v>
       </c>
       <c r="E47">
-        <v>37.5306782935796</v>
+        <v>42.2961384471891</v>
       </c>
       <c r="F47">
-        <v>1.64953236623603</v>
+        <v>1.68402313769686</v>
       </c>
       <c r="G47">
-        <v>27.1352773515552</v>
+        <v>26.2561063202569</v>
       </c>
       <c r="H47">
-        <v>10.1394374617137</v>
+        <v>13.6155023761197</v>
       </c>
       <c r="I47">
-        <v>8.75718497020816</v>
+        <v>9.459962764131211</v>
       </c>
       <c r="J47">
-        <v>25.3284767783225</v>
+        <v>24.8433655779614</v>
       </c>
       <c r="K47">
-        <v>4.1202028872145</v>
+        <v>4.21804837862822</v>
       </c>
       <c r="L47">
-        <v>19.3075607366649</v>
+        <v>25.8235353150952</v>
       </c>
       <c r="M47">
-        <v>54.5712030689285</v>
+        <v>63.9107727728689</v>
       </c>
       <c r="N47">
-        <v>23.0049034096253</v>
+        <v>25.2003149312896</v>
       </c>
       <c r="O47">
-        <v>2731.58904075733</v>
+        <v>3102.97026458738</v>
       </c>
       <c r="P47">
-        <v>25.8768702378877</v>
+        <v>32.5637729517151</v>
       </c>
     </row>
     <row r="48">
@@ -2838,49 +2838,49 @@
         </is>
       </c>
       <c r="B48">
-        <v>1627.2206621279</v>
+        <v>1207.81688079542</v>
       </c>
       <c r="C48">
-        <v>30.7446622514829</v>
+        <v>33.9559084089822</v>
       </c>
       <c r="D48">
-        <v>5.53934705089001</v>
+        <v>7.25291929084812</v>
       </c>
       <c r="E48">
-        <v>51.8001288755272</v>
+        <v>64.76660402965059</v>
       </c>
       <c r="F48">
-        <v>10.0030148727055</v>
+        <v>13.7514534147565</v>
       </c>
       <c r="G48">
-        <v>5.98611246718963</v>
+        <v>7.94018772623431</v>
       </c>
       <c r="H48">
-        <v>10.5969581462446</v>
+        <v>12.333516120031</v>
       </c>
       <c r="I48">
-        <v>7.3124685398506</v>
+        <v>6.9689043808511</v>
       </c>
       <c r="J48">
-        <v>31.687399971399</v>
+        <v>38.6082645029881</v>
       </c>
       <c r="K48">
-        <v>7.22128971647709</v>
+        <v>9.594405193308671</v>
       </c>
       <c r="L48">
-        <v>37.6930052225455</v>
+        <v>49.4974666197903</v>
       </c>
       <c r="M48">
-        <v>119.741528196184</v>
+        <v>151.46839909667</v>
       </c>
       <c r="N48">
-        <v>36.7516393432533</v>
+        <v>44.6822090152209</v>
       </c>
       <c r="O48">
-        <v>2210.7248059545</v>
+        <v>2560.92410741427</v>
       </c>
       <c r="P48">
-        <v>80.69585873871981</v>
+        <v>98.9164429455913</v>
       </c>
     </row>
     <row r="49">
@@ -2890,49 +2890,49 @@
         </is>
       </c>
       <c r="B49">
-        <v>722.531865117936</v>
+        <v>636.683425097258</v>
       </c>
       <c r="C49">
-        <v>2.81024575861037</v>
+        <v>3.88656078854941</v>
       </c>
       <c r="D49">
-        <v>0.277751413589926</v>
+        <v>0.121459452448162</v>
       </c>
       <c r="E49">
-        <v>15.7666580846567</v>
+        <v>18.9185597907385</v>
       </c>
       <c r="F49">
-        <v>25.0437470832938</v>
+        <v>26.6860164481316</v>
       </c>
       <c r="G49">
-        <v>11.6527478811597</v>
+        <v>13.2672943711056</v>
       </c>
       <c r="H49">
-        <v>2.37091287114039</v>
+        <v>2.89094765853953</v>
       </c>
       <c r="I49">
-        <v>1.66478184232175</v>
+        <v>2.40772639039376</v>
       </c>
       <c r="J49">
-        <v>14.5806929691768</v>
+        <v>17.4294215832268</v>
       </c>
       <c r="K49">
-        <v>1.94347367401097</v>
+        <v>1.90414497511413</v>
       </c>
       <c r="L49">
-        <v>1.54065496935231</v>
+        <v>1.86885325460075</v>
       </c>
       <c r="M49">
-        <v>3.1237112601399</v>
+        <v>4.36521087395285</v>
       </c>
       <c r="N49">
-        <v>6.55031193593975</v>
+        <v>8.43292859501778</v>
       </c>
       <c r="O49">
-        <v>516.647741799349</v>
+        <v>592.103433012548</v>
       </c>
       <c r="P49">
-        <v>7.5579170030244</v>
+        <v>11.0703425577486</v>
       </c>
     </row>
     <row r="50">
@@ -2942,49 +2942,49 @@
         </is>
       </c>
       <c r="B50">
-        <v>1284.46345208731</v>
+        <v>878.520185844392</v>
       </c>
       <c r="C50">
-        <v>53.2130724326423</v>
+        <v>61.1805753530096</v>
       </c>
       <c r="D50">
-        <v>5.67561051706375</v>
+        <v>6.82327695587836</v>
       </c>
       <c r="E50">
-        <v>112.154506087408</v>
+        <v>129.926249962602</v>
       </c>
       <c r="F50">
-        <v>2.02157253912007</v>
+        <v>2.74341545571481</v>
       </c>
       <c r="G50">
-        <v>30.1806058470195</v>
+        <v>35.8866701225575</v>
       </c>
       <c r="H50">
-        <v>40.3898933999156</v>
+        <v>43.5747960882535</v>
       </c>
       <c r="I50">
-        <v>9.14969592755468</v>
+        <v>11.5915533738263</v>
       </c>
       <c r="J50">
-        <v>69.06490123897881</v>
+        <v>76.6762396146803</v>
       </c>
       <c r="K50">
-        <v>33.8836659871301</v>
+        <v>40.7647429095405</v>
       </c>
       <c r="L50">
-        <v>68.291992713486</v>
+        <v>85.077163072899</v>
       </c>
       <c r="M50">
-        <v>52.2838343866893</v>
+        <v>61.5362360467977</v>
       </c>
       <c r="N50">
-        <v>50.1263216404402</v>
+        <v>59.0049376438967</v>
       </c>
       <c r="O50">
-        <v>1923.23955933186</v>
+        <v>2238.56668972713</v>
       </c>
       <c r="P50">
-        <v>73.2560576298024</v>
+        <v>83.0769481956994</v>
       </c>
     </row>
     <row r="51">
@@ -2994,49 +2994,49 @@
         </is>
       </c>
       <c r="B51">
-        <v>117.452195762858</v>
+        <v>82.14961620056221</v>
       </c>
       <c r="C51">
-        <v>1.18373058589676</v>
+        <v>1.55984440600004</v>
       </c>
       <c r="D51">
-        <v>0.0109592695784721</v>
+        <v>0.0138082232626132</v>
       </c>
       <c r="E51">
-        <v>1.44364184409691</v>
+        <v>1.14937237735496</v>
       </c>
       <c r="F51">
-        <v>26.4905363435734</v>
+        <v>29.4547021829857</v>
       </c>
       <c r="G51">
-        <v>1.16533307337963</v>
+        <v>1.4767360057622</v>
       </c>
       <c r="H51">
-        <v>0.204617733933219</v>
+        <v>0.187285523684113</v>
       </c>
       <c r="I51">
-        <v>0.989656087371963</v>
+        <v>1.32477005475867</v>
       </c>
       <c r="J51">
-        <v>1.21871834700172</v>
+        <v>1.20640675540706</v>
       </c>
       <c r="K51">
-        <v>0.740765745579528</v>
+        <v>0.9288990759924181</v>
       </c>
       <c r="L51">
-        <v>0.508408347415041</v>
+        <v>0.648621620417198</v>
       </c>
       <c r="M51">
-        <v>0.53499131747034</v>
+        <v>0.42788448951425</v>
       </c>
       <c r="N51">
-        <v>0.732737620500904</v>
+        <v>0.989689159213018</v>
       </c>
       <c r="O51">
-        <v>171.518859886783</v>
+        <v>203.531488757269</v>
       </c>
       <c r="P51">
-        <v>18.608905383742</v>
+        <v>18.4825204267482</v>
       </c>
     </row>
     <row r="52">

--- a/1-Data-Codes/2-Final_Data/L_2007.xlsx
+++ b/1-Data-Codes/2-Final_Data/L_2007.xlsx
@@ -446,49 +446,49 @@
         </is>
       </c>
       <c r="B2">
-        <v>1265.19188806638</v>
+        <v>1266.62025626345</v>
       </c>
       <c r="C2">
-        <v>19.5230738659889</v>
+        <v>19.7166307556622</v>
       </c>
       <c r="D2">
-        <v>24.8965058148587</v>
+        <v>25.4851195503442</v>
       </c>
       <c r="E2">
-        <v>42.1143393865955</v>
+        <v>43.1244582127404</v>
       </c>
       <c r="F2">
-        <v>25.9682809946826</v>
+        <v>26.2095202381876</v>
       </c>
       <c r="G2">
-        <v>17.6987130411655</v>
+        <v>17.7127468708121</v>
       </c>
       <c r="H2">
-        <v>7.52358125342539</v>
+        <v>7.6365772390676</v>
       </c>
       <c r="I2">
-        <v>16.8906299500688</v>
+        <v>17.0240509546817</v>
       </c>
       <c r="J2">
-        <v>73.0964595131597</v>
+        <v>73.3808840997</v>
       </c>
       <c r="K2">
-        <v>17.1566015444</v>
+        <v>17.2122408591285</v>
       </c>
       <c r="L2">
-        <v>50.0159614419835</v>
+        <v>50.0756133333544</v>
       </c>
       <c r="M2">
-        <v>51.2919887347506</v>
+        <v>51.304254197228</v>
       </c>
       <c r="N2">
-        <v>30.9802304128516</v>
+        <v>31.1044851159453</v>
       </c>
       <c r="O2">
-        <v>1565.37439383224</v>
+        <v>1561.96236551672</v>
       </c>
       <c r="P2">
-        <v>23.1271661138152</v>
+        <v>23.5419729615231</v>
       </c>
     </row>
     <row r="3">
@@ -498,49 +498,49 @@
         </is>
       </c>
       <c r="B3">
-        <v>92.24720629513919</v>
+        <v>92.39649210454761</v>
       </c>
       <c r="C3">
-        <v>0.825725896282257</v>
+        <v>0.827773842482785</v>
       </c>
       <c r="D3">
-        <v>0.245954424706983</v>
+        <v>0.248672836250369</v>
       </c>
       <c r="E3">
-        <v>0.89381063996328</v>
+        <v>0.914428379390553</v>
       </c>
       <c r="F3">
-        <v>9.496680080714411</v>
+        <v>9.445052506200479</v>
       </c>
       <c r="G3">
-        <v>0.26076713005032</v>
+        <v>0.254182344448116</v>
       </c>
       <c r="H3">
-        <v>0.256640000174484</v>
+        <v>0.256756814756227</v>
       </c>
       <c r="I3">
-        <v>0.471082500806549</v>
+        <v>0.473450484173394</v>
       </c>
       <c r="J3">
-        <v>0.167846233400921</v>
+        <v>0.167753302095226</v>
       </c>
       <c r="K3">
-        <v>0.248149320472363</v>
+        <v>0.24669460715994</v>
       </c>
       <c r="L3">
-        <v>0.289567414523512</v>
+        <v>0.289546098037997</v>
       </c>
       <c r="M3">
-        <v>0.137898160751271</v>
+        <v>0.137734365210501</v>
       </c>
       <c r="N3">
-        <v>0.597838922692303</v>
+        <v>0.597863308987914</v>
       </c>
       <c r="O3">
-        <v>215.641475569342</v>
+        <v>215.591881820765</v>
       </c>
       <c r="P3">
-        <v>6.79942086285639</v>
+        <v>7.05468466622004</v>
       </c>
     </row>
     <row r="4">
@@ -550,49 +550,49 @@
         </is>
       </c>
       <c r="B4">
-        <v>1338.02815459366</v>
+        <v>1337.566276293</v>
       </c>
       <c r="C4">
-        <v>17.2389217236356</v>
+        <v>17.2330304670809</v>
       </c>
       <c r="D4">
-        <v>1.31036704145421</v>
+        <v>1.3082698234632</v>
       </c>
       <c r="E4">
-        <v>22.5293566995023</v>
+        <v>22.4999228238476</v>
       </c>
       <c r="F4">
-        <v>15.4208506455115</v>
+        <v>15.6004793488252</v>
       </c>
       <c r="G4">
-        <v>4.88831805164756</v>
+        <v>4.84756284469236</v>
       </c>
       <c r="H4">
-        <v>1.52494627107692</v>
+        <v>1.51970982494073</v>
       </c>
       <c r="I4">
-        <v>6.13955119879419</v>
+        <v>6.11767738834036</v>
       </c>
       <c r="J4">
-        <v>32.6401882409339</v>
+        <v>32.8266980481002</v>
       </c>
       <c r="K4">
-        <v>5.95639148882864</v>
+        <v>5.94543338216024</v>
       </c>
       <c r="L4">
-        <v>64.8256472341394</v>
+        <v>64.4145316551227</v>
       </c>
       <c r="M4">
-        <v>48.3047381838079</v>
+        <v>48.1089508617143</v>
       </c>
       <c r="N4">
-        <v>44.7539330598414</v>
+        <v>44.6504152005139</v>
       </c>
       <c r="O4">
-        <v>2410.03944648309</v>
+        <v>2406.68020200749</v>
       </c>
       <c r="P4">
-        <v>18.2958239531816</v>
+        <v>18.7214488245119</v>
       </c>
     </row>
     <row r="5">
@@ -602,49 +602,49 @@
         </is>
       </c>
       <c r="B5">
-        <v>734.026214685494</v>
+        <v>735.736335513497</v>
       </c>
       <c r="C5">
-        <v>43.8031266829817</v>
+        <v>44.4745116344477</v>
       </c>
       <c r="D5">
-        <v>11.5966362372187</v>
+        <v>11.9997692554543</v>
       </c>
       <c r="E5">
-        <v>18.8473675907502</v>
+        <v>19.4404991213269</v>
       </c>
       <c r="F5">
-        <v>6.35983999430709</v>
+        <v>6.40998249143087</v>
       </c>
       <c r="G5">
-        <v>5.16551520286114</v>
+        <v>5.17221558385521</v>
       </c>
       <c r="H5">
-        <v>12.2261321606877</v>
+        <v>12.3433794345404</v>
       </c>
       <c r="I5">
-        <v>5.41060232343599</v>
+        <v>5.4461064237699</v>
       </c>
       <c r="J5">
-        <v>26.1385161980652</v>
+        <v>26.4062243107101</v>
       </c>
       <c r="K5">
-        <v>3.33723421043311</v>
+        <v>3.37195476785386</v>
       </c>
       <c r="L5">
-        <v>10.0226759538663</v>
+        <v>10.1217805167288</v>
       </c>
       <c r="M5">
-        <v>14.9524647939348</v>
+        <v>15.0936061072721</v>
       </c>
       <c r="N5">
-        <v>29.82410931285</v>
+        <v>30.3527225288868</v>
       </c>
       <c r="O5">
-        <v>1032.17374043971</v>
+        <v>1027.91155274485</v>
       </c>
       <c r="P5">
-        <v>44.7315329201175</v>
+        <v>46.4522389090173</v>
       </c>
     </row>
     <row r="6">
@@ -654,49 +654,49 @@
         </is>
       </c>
       <c r="B6">
-        <v>7293.28918243766</v>
+        <v>7295.71222327317</v>
       </c>
       <c r="C6">
-        <v>222.683539278398</v>
+        <v>223.337208309195</v>
       </c>
       <c r="D6">
-        <v>37.4032218811549</v>
+        <v>37.3746964998003</v>
       </c>
       <c r="E6">
-        <v>156.697991889115</v>
+        <v>156.767765443517</v>
       </c>
       <c r="F6">
-        <v>49.1154444245694</v>
+        <v>49.1342610421835</v>
       </c>
       <c r="G6">
-        <v>106.997269781277</v>
+        <v>106.951805661846</v>
       </c>
       <c r="H6">
-        <v>44.252212388571</v>
+        <v>44.2224125692007</v>
       </c>
       <c r="I6">
-        <v>37.0527103346309</v>
+        <v>37.0319617838793</v>
       </c>
       <c r="J6">
-        <v>136.603430725032</v>
+        <v>136.502994199937</v>
       </c>
       <c r="K6">
-        <v>41.7658359211694</v>
+        <v>41.7702053341378</v>
       </c>
       <c r="L6">
-        <v>418.931947519061</v>
+        <v>418.318994116779</v>
       </c>
       <c r="M6">
-        <v>241.744247548972</v>
+        <v>241.412486613628</v>
       </c>
       <c r="N6">
-        <v>272.400242839872</v>
+        <v>272.215508806797</v>
       </c>
       <c r="O6">
-        <v>13344.721913605</v>
+        <v>13336.7010788352</v>
       </c>
       <c r="P6">
-        <v>295.078813232287</v>
+        <v>300.144998586043</v>
       </c>
     </row>
     <row r="7">
@@ -706,49 +706,49 @@
         </is>
       </c>
       <c r="B7">
-        <v>786.043637277369</v>
+        <v>785.792143937242</v>
       </c>
       <c r="C7">
-        <v>46.8757129982673</v>
+        <v>47.2311872240199</v>
       </c>
       <c r="D7">
-        <v>4.40612368183762</v>
+        <v>4.3937714292959</v>
       </c>
       <c r="E7">
-        <v>17.4133193722569</v>
+        <v>17.3523763083801</v>
       </c>
       <c r="F7">
-        <v>28.1939516684549</v>
+        <v>28.5223344984728</v>
       </c>
       <c r="G7">
-        <v>17.2962900459116</v>
+        <v>17.2103378879</v>
       </c>
       <c r="H7">
-        <v>2.62884288242593</v>
+        <v>2.62106531285432</v>
       </c>
       <c r="I7">
-        <v>10.2344932391525</v>
+        <v>10.2975419937832</v>
       </c>
       <c r="J7">
-        <v>16.4774387065623</v>
+        <v>16.4225179629871</v>
       </c>
       <c r="K7">
-        <v>6.48919985104636</v>
+        <v>6.47372114027964</v>
       </c>
       <c r="L7">
-        <v>43.1360357189899</v>
+        <v>42.9093284144496</v>
       </c>
       <c r="M7">
-        <v>16.2856590325802</v>
+        <v>16.2087744483411</v>
       </c>
       <c r="N7">
-        <v>21.1213793917653</v>
+        <v>21.0306031368103</v>
       </c>
       <c r="O7">
-        <v>2052.44030668923</v>
+        <v>2048.10997410509</v>
       </c>
       <c r="P7">
-        <v>35.6248627832231</v>
+        <v>36.767984761756</v>
       </c>
     </row>
     <row r="8">
@@ -758,49 +758,49 @@
         </is>
       </c>
       <c r="B8">
-        <v>633.28065261315</v>
+        <v>633.20086436042</v>
       </c>
       <c r="C8">
-        <v>11.0505413383604</v>
+        <v>11.0592728512083</v>
       </c>
       <c r="D8">
-        <v>2.64220108958177</v>
+        <v>2.64036416727277</v>
       </c>
       <c r="E8">
-        <v>23.6741934070416</v>
+        <v>23.6912126861719</v>
       </c>
       <c r="F8">
-        <v>2.32530143353789</v>
+        <v>2.32576421906494</v>
       </c>
       <c r="G8">
-        <v>21.3689774007804</v>
+        <v>21.3434719165783</v>
       </c>
       <c r="H8">
-        <v>7.90595635053175</v>
+        <v>7.90267203533239</v>
       </c>
       <c r="I8">
-        <v>7.45163050031043</v>
+        <v>7.45579164111487</v>
       </c>
       <c r="J8">
-        <v>40.093979866891</v>
+        <v>40.0884383709968</v>
       </c>
       <c r="K8">
-        <v>9.685980013784739</v>
+        <v>9.686890097889441</v>
       </c>
       <c r="L8">
-        <v>31.8333815202056</v>
+        <v>31.8221049663115</v>
       </c>
       <c r="M8">
-        <v>48.1194202762569</v>
+        <v>48.1543508350745</v>
       </c>
       <c r="N8">
-        <v>29.5038300911018</v>
+        <v>29.5045345656522</v>
       </c>
       <c r="O8">
-        <v>1446.54559355933</v>
+        <v>1446.23031656648</v>
       </c>
       <c r="P8">
-        <v>7.54386272498583</v>
+        <v>7.5655101452226</v>
       </c>
     </row>
     <row r="9">
@@ -810,49 +810,49 @@
         </is>
       </c>
       <c r="B9">
-        <v>166.657213179778</v>
+        <v>166.592758213391</v>
       </c>
       <c r="C9">
-        <v>9.64261518711792</v>
+        <v>9.71367877790836</v>
       </c>
       <c r="D9">
-        <v>2.17230954105549</v>
+        <v>2.16920817876264</v>
       </c>
       <c r="E9">
-        <v>3.30693535767658</v>
+        <v>3.30738026385504</v>
       </c>
       <c r="F9">
-        <v>0.432091352156852</v>
+        <v>0.432255734284301</v>
       </c>
       <c r="G9">
-        <v>17.5934587234142</v>
+        <v>17.4658765756573</v>
       </c>
       <c r="H9">
-        <v>1.90366162980625</v>
+        <v>1.89915082579533</v>
       </c>
       <c r="I9">
-        <v>0.891773798583235</v>
+        <v>0.891533520641989</v>
       </c>
       <c r="J9">
-        <v>4.12660160198177</v>
+        <v>4.12408131799662</v>
       </c>
       <c r="K9">
-        <v>0.472236283765681</v>
+        <v>0.472109234462163</v>
       </c>
       <c r="L9">
-        <v>2.55667339148854</v>
+        <v>2.54714635522458</v>
       </c>
       <c r="M9">
-        <v>3.28648598153877</v>
+        <v>3.21584853663365</v>
       </c>
       <c r="N9">
-        <v>2.57304064110942</v>
+        <v>2.58081055552372</v>
       </c>
       <c r="O9">
-        <v>359.220066509718</v>
+        <v>359.254531601391</v>
       </c>
       <c r="P9">
-        <v>5.39281274358364</v>
+        <v>5.4818361358685</v>
       </c>
     </row>
     <row r="10">
@@ -862,49 +862,49 @@
         </is>
       </c>
       <c r="B10">
-        <v>3946.8192246948</v>
+        <v>3945.86555181454</v>
       </c>
       <c r="C10">
-        <v>60.6271172032622</v>
+        <v>60.8189687863869</v>
       </c>
       <c r="D10">
-        <v>8.963376738012711</v>
+        <v>8.96178820788046</v>
       </c>
       <c r="E10">
-        <v>61.0541363422772</v>
+        <v>61.0603497026461</v>
       </c>
       <c r="F10">
-        <v>8.620278202236941</v>
+        <v>8.634223169781359</v>
       </c>
       <c r="G10">
-        <v>32.6150822067995</v>
+        <v>32.6357844862334</v>
       </c>
       <c r="H10">
-        <v>9.442366232058189</v>
+        <v>9.44384430777175</v>
       </c>
       <c r="I10">
-        <v>11.1847288797732</v>
+        <v>11.1925339569655</v>
       </c>
       <c r="J10">
-        <v>54.6383123124544</v>
+        <v>54.6516846990666</v>
       </c>
       <c r="K10">
-        <v>7.79700659861391</v>
+        <v>7.79313217167902</v>
       </c>
       <c r="L10">
-        <v>69.01690345868791</v>
+        <v>68.9890933564264</v>
       </c>
       <c r="M10">
-        <v>95.4697141527479</v>
+        <v>95.4869651564685</v>
       </c>
       <c r="N10">
-        <v>93.07182944852499</v>
+        <v>93.06461440338271</v>
       </c>
       <c r="O10">
-        <v>7864.5114701719</v>
+        <v>7859.79829295129</v>
       </c>
       <c r="P10">
-        <v>54.3999924413355</v>
+        <v>54.6110338008811</v>
       </c>
     </row>
     <row r="11">
@@ -914,49 +914,49 @@
         </is>
       </c>
       <c r="B11">
-        <v>2056.12333567899</v>
+        <v>2056.11450678211</v>
       </c>
       <c r="C11">
-        <v>82.0929383870435</v>
+        <v>82.4211498149228</v>
       </c>
       <c r="D11">
-        <v>78.5524429721918</v>
+        <v>81.0597303740288</v>
       </c>
       <c r="E11">
-        <v>76.1214199187225</v>
+        <v>76.4199420466381</v>
       </c>
       <c r="F11">
-        <v>12.5816142566596</v>
+        <v>12.5982840565346</v>
       </c>
       <c r="G11">
-        <v>19.9500070830134</v>
+        <v>20.0449716051796</v>
       </c>
       <c r="H11">
-        <v>24.3054343201662</v>
+        <v>24.5200002773916</v>
       </c>
       <c r="I11">
-        <v>15.633514945832</v>
+        <v>15.6227401438976</v>
       </c>
       <c r="J11">
-        <v>38.874360406455</v>
+        <v>38.9605093781618</v>
       </c>
       <c r="K11">
-        <v>8.85605960079711</v>
+        <v>8.86077835014471</v>
       </c>
       <c r="L11">
-        <v>38.8874817249003</v>
+        <v>38.8440310863859</v>
       </c>
       <c r="M11">
-        <v>38.8394283693765</v>
+        <v>39.0353796870871</v>
       </c>
       <c r="N11">
-        <v>58.6097272440932</v>
+        <v>58.758803587376</v>
       </c>
       <c r="O11">
-        <v>3425.58928098494</v>
+        <v>3421.44837184013</v>
       </c>
       <c r="P11">
-        <v>42.269113885966</v>
+        <v>42.6683270466295</v>
       </c>
     </row>
     <row r="12">
@@ -966,49 +966,49 @@
         </is>
       </c>
       <c r="B12">
-        <v>220.641870643872</v>
+        <v>220.629177524293</v>
       </c>
       <c r="C12">
-        <v>6.5573442530313</v>
+        <v>6.61643476485117</v>
       </c>
       <c r="D12">
-        <v>0.433718107945556</v>
+        <v>0.433469969156187</v>
       </c>
       <c r="E12">
-        <v>1.83859652208105</v>
+        <v>1.83707634272784</v>
       </c>
       <c r="F12">
-        <v>0.503940631749193</v>
+        <v>0.504131426444674</v>
       </c>
       <c r="G12">
-        <v>0.456120636319843</v>
+        <v>0.455834436630316</v>
       </c>
       <c r="H12">
-        <v>0.305145886261154</v>
+        <v>0.304971315990177</v>
       </c>
       <c r="I12">
-        <v>0.5722260104929781</v>
+        <v>0.571847616328659</v>
       </c>
       <c r="J12">
-        <v>1.89291540741799</v>
+        <v>1.88982706856706</v>
       </c>
       <c r="K12">
-        <v>0.00406983387021585</v>
+        <v>0.00406693136696983</v>
       </c>
       <c r="L12">
-        <v>0.0152416704123557</v>
+        <v>0.0151901699242289</v>
       </c>
       <c r="M12">
-        <v>2.83984160997121</v>
+        <v>2.8248736313667</v>
       </c>
       <c r="N12">
-        <v>5.66197685433625</v>
+        <v>5.65793127805758</v>
       </c>
       <c r="O12">
-        <v>544.702260566214</v>
+        <v>544.51975508625</v>
       </c>
       <c r="P12">
-        <v>16.3996342179816</v>
+        <v>16.6698497049546</v>
       </c>
     </row>
     <row r="13">
@@ -1018,49 +1018,49 @@
         </is>
       </c>
       <c r="B13">
-        <v>251.772658011621</v>
+        <v>252.636077387801</v>
       </c>
       <c r="C13">
-        <v>22.798499339883</v>
+        <v>23.2067968541677</v>
       </c>
       <c r="D13">
-        <v>0.404532871690444</v>
+        <v>0.40275492554968</v>
       </c>
       <c r="E13">
-        <v>9.75626170862428</v>
+        <v>9.8234376209309</v>
       </c>
       <c r="F13">
-        <v>2.78629539735977</v>
+        <v>2.86503094942191</v>
       </c>
       <c r="G13">
-        <v>8.515245888940269</v>
+        <v>8.59090385235608</v>
       </c>
       <c r="H13">
-        <v>1.57769783339581</v>
+        <v>1.59663077171601</v>
       </c>
       <c r="I13">
-        <v>2.56538022158315</v>
+        <v>2.56027765532176</v>
       </c>
       <c r="J13">
-        <v>4.89197486202267</v>
+        <v>4.93479000522634</v>
       </c>
       <c r="K13">
-        <v>4.31233546154401</v>
+        <v>4.3393339046238</v>
       </c>
       <c r="L13">
-        <v>20.6003784038551</v>
+        <v>19.9851024805289</v>
       </c>
       <c r="M13">
-        <v>2.2711827374124</v>
+        <v>2.24613002832744</v>
       </c>
       <c r="N13">
-        <v>3.14400580693831</v>
+        <v>3.13148355417333</v>
       </c>
       <c r="O13">
-        <v>564.241287900988</v>
+        <v>562.429613448872</v>
       </c>
       <c r="P13">
-        <v>42.9770799874146</v>
+        <v>45.3200363358721</v>
       </c>
     </row>
     <row r="14">
@@ -1070,49 +1070,49 @@
         </is>
       </c>
       <c r="B14">
-        <v>2484.53279318807</v>
+        <v>2483.58992289861</v>
       </c>
       <c r="C14">
-        <v>125.453756444735</v>
+        <v>125.739415646984</v>
       </c>
       <c r="D14">
-        <v>10.0382561388899</v>
+        <v>10.0691843120756</v>
       </c>
       <c r="E14">
-        <v>80.5878768129287</v>
+        <v>80.7721325674444</v>
       </c>
       <c r="F14">
-        <v>20.6814248361537</v>
+        <v>20.7090945205255</v>
       </c>
       <c r="G14">
-        <v>81.63601059689511</v>
+        <v>81.7439080141</v>
       </c>
       <c r="H14">
-        <v>40.0699269473659</v>
+        <v>40.3175786437366</v>
       </c>
       <c r="I14">
-        <v>27.4229840281262</v>
+        <v>27.5078305137624</v>
       </c>
       <c r="J14">
-        <v>140.254217276555</v>
+        <v>141.093113727383</v>
       </c>
       <c r="K14">
-        <v>75.616804429666</v>
+        <v>76.52002840738921</v>
       </c>
       <c r="L14">
-        <v>83.9724422346716</v>
+        <v>83.93399592701201</v>
       </c>
       <c r="M14">
-        <v>67.87600110826661</v>
+        <v>68.3328474396553</v>
       </c>
       <c r="N14">
-        <v>69.6296839472397</v>
+        <v>69.85034571564471</v>
       </c>
       <c r="O14">
-        <v>5026.0740611019</v>
+        <v>5017.6338979648</v>
       </c>
       <c r="P14">
-        <v>66.7268033400601</v>
+        <v>70.3523250833213</v>
       </c>
     </row>
     <row r="15">
@@ -1122,49 +1122,49 @@
         </is>
       </c>
       <c r="B15">
-        <v>1241.88126692321</v>
+        <v>1242.19647849523</v>
       </c>
       <c r="C15">
-        <v>56.1060552913194</v>
+        <v>56.1887245715753</v>
       </c>
       <c r="D15">
-        <v>7.11118030217225</v>
+        <v>7.15129712307946</v>
       </c>
       <c r="E15">
-        <v>61.8212827035244</v>
+        <v>62.2747942907377</v>
       </c>
       <c r="F15">
-        <v>17.8629650193943</v>
+        <v>18.1371866554205</v>
       </c>
       <c r="G15">
-        <v>63.961732649565</v>
+        <v>64.06431113068589</v>
       </c>
       <c r="H15">
-        <v>39.2767121975169</v>
+        <v>39.6020104528561</v>
       </c>
       <c r="I15">
-        <v>15.0703557669534</v>
+        <v>15.2134322490372</v>
       </c>
       <c r="J15">
-        <v>128.626260943518</v>
+        <v>129.966704327021</v>
       </c>
       <c r="K15">
-        <v>37.1682596927871</v>
+        <v>37.5234944307301</v>
       </c>
       <c r="L15">
-        <v>41.5595030959419</v>
+        <v>41.8113392351552</v>
       </c>
       <c r="M15">
-        <v>144.889297850103</v>
+        <v>146.716729481614</v>
       </c>
       <c r="N15">
-        <v>86.974056763146</v>
+        <v>88.04661537705159</v>
       </c>
       <c r="O15">
-        <v>2262.5631376072</v>
+        <v>2257.42047669375</v>
       </c>
       <c r="P15">
-        <v>50.2422268681332</v>
+        <v>50.5724833471281</v>
       </c>
     </row>
     <row r="16">
@@ -1174,49 +1174,49 @@
         </is>
       </c>
       <c r="B16">
-        <v>435.68323513563</v>
+        <v>435.335012766678</v>
       </c>
       <c r="C16">
-        <v>78.75755421420099</v>
+        <v>79.2093097819493</v>
       </c>
       <c r="D16">
-        <v>3.39245918417927</v>
+        <v>3.42249336886847</v>
       </c>
       <c r="E16">
-        <v>28.0230339320921</v>
+        <v>28.2557630780002</v>
       </c>
       <c r="F16">
-        <v>1.47507265304402</v>
+        <v>1.57385702800816</v>
       </c>
       <c r="G16">
-        <v>13.7114382704049</v>
+        <v>13.7318048744816</v>
       </c>
       <c r="H16">
-        <v>12.0063252668178</v>
+        <v>12.1752904147921</v>
       </c>
       <c r="I16">
-        <v>3.65952266115104</v>
+        <v>3.72750149635512</v>
       </c>
       <c r="J16">
-        <v>36.8122455437279</v>
+        <v>37.3360188169889</v>
       </c>
       <c r="K16">
-        <v>44.6046671349402</v>
+        <v>45.3940704241898</v>
       </c>
       <c r="L16">
-        <v>15.371471233712</v>
+        <v>15.4114590654818</v>
       </c>
       <c r="M16">
-        <v>22.9833874386912</v>
+        <v>23.2893661658435</v>
       </c>
       <c r="N16">
-        <v>32.2813455563031</v>
+        <v>32.4517631181721</v>
       </c>
       <c r="O16">
-        <v>1226.96906754125</v>
+        <v>1221.06943789878</v>
       </c>
       <c r="P16">
-        <v>89.4241241760233</v>
+        <v>94.5730495407924</v>
       </c>
     </row>
     <row r="17">
@@ -1226,49 +1226,49 @@
         </is>
       </c>
       <c r="B17">
-        <v>439.362621626694</v>
+        <v>439.026241157178</v>
       </c>
       <c r="C17">
-        <v>23.6528043504564</v>
+        <v>23.5726116423873</v>
       </c>
       <c r="D17">
-        <v>1.11183347394849</v>
+        <v>1.09797145049281</v>
       </c>
       <c r="E17">
-        <v>19.5572096517741</v>
+        <v>19.5924430262998</v>
       </c>
       <c r="F17">
-        <v>14.0993764207482</v>
+        <v>14.4340732523093</v>
       </c>
       <c r="G17">
-        <v>14.4715955941866</v>
+        <v>14.6488893687419</v>
       </c>
       <c r="H17">
-        <v>13.6489670581608</v>
+        <v>13.8517067896922</v>
       </c>
       <c r="I17">
-        <v>4.15764578311465</v>
+        <v>4.16557861463924</v>
       </c>
       <c r="J17">
-        <v>19.3323719940165</v>
+        <v>19.4396390475327</v>
       </c>
       <c r="K17">
-        <v>9.7991681886409</v>
+        <v>9.8286131512822</v>
       </c>
       <c r="L17">
-        <v>11.1984167532333</v>
+        <v>11.1314909495127</v>
       </c>
       <c r="M17">
-        <v>74.2938500687673</v>
+        <v>72.83678912859079</v>
       </c>
       <c r="N17">
-        <v>9.352207911619381</v>
+        <v>9.343204830459319</v>
       </c>
       <c r="O17">
-        <v>1100.47333972806</v>
+        <v>1097.77457951858</v>
       </c>
       <c r="P17">
-        <v>38.1261391212946</v>
+        <v>42.8521425648789</v>
       </c>
     </row>
     <row r="18">
@@ -1278,49 +1278,49 @@
         </is>
       </c>
       <c r="B18">
-        <v>1072.70349763026</v>
+        <v>1072.97224215995</v>
       </c>
       <c r="C18">
-        <v>27.5457034244108</v>
+        <v>27.6002920613412</v>
       </c>
       <c r="D18">
-        <v>5.60391297763702</v>
+        <v>5.60501708120561</v>
       </c>
       <c r="E18">
-        <v>32.8963963532833</v>
+        <v>32.8963294922751</v>
       </c>
       <c r="F18">
-        <v>41.9237292901516</v>
+        <v>42.4007105209859</v>
       </c>
       <c r="G18">
-        <v>10.640339521289</v>
+        <v>10.6413139772912</v>
       </c>
       <c r="H18">
-        <v>7.58597103755651</v>
+        <v>7.58128370012052</v>
       </c>
       <c r="I18">
-        <v>8.735771197953611</v>
+        <v>8.78510873575504</v>
       </c>
       <c r="J18">
-        <v>18.2789177509676</v>
+        <v>18.2815487959254</v>
       </c>
       <c r="K18">
-        <v>7.86129263976477</v>
+        <v>7.86062247505887</v>
       </c>
       <c r="L18">
-        <v>23.684675028599</v>
+        <v>23.6615295995934</v>
       </c>
       <c r="M18">
-        <v>57.4454450503714</v>
+        <v>57.4127930619281</v>
       </c>
       <c r="N18">
-        <v>24.9532109080161</v>
+        <v>24.9299176122037</v>
       </c>
       <c r="O18">
-        <v>1552.6702331515</v>
+        <v>1552.14709644748</v>
       </c>
       <c r="P18">
-        <v>55.911525087532</v>
+        <v>56.1086065122893</v>
       </c>
     </row>
     <row r="19">
@@ -1330,49 +1330,49 @@
         </is>
       </c>
       <c r="B19">
-        <v>1046.32422089031</v>
+        <v>1045.71949708504</v>
       </c>
       <c r="C19">
-        <v>35.5155981665009</v>
+        <v>35.6627102465621</v>
       </c>
       <c r="D19">
-        <v>1.48359525561739</v>
+        <v>1.48802298211232</v>
       </c>
       <c r="E19">
-        <v>21.4390041703022</v>
+        <v>22.550422162073</v>
       </c>
       <c r="F19">
-        <v>92.5708723470691</v>
+        <v>92.58814607773761</v>
       </c>
       <c r="G19">
-        <v>37.3616307573711</v>
+        <v>37.3893416376878</v>
       </c>
       <c r="H19">
-        <v>6.08489048248765</v>
+        <v>6.08365446695299</v>
       </c>
       <c r="I19">
-        <v>10.1581861846804</v>
+        <v>10.1607160409933</v>
       </c>
       <c r="J19">
-        <v>16.492300192502</v>
+        <v>16.5393036964596</v>
       </c>
       <c r="K19">
-        <v>5.1138254657196</v>
+        <v>5.14345292093927</v>
       </c>
       <c r="L19">
-        <v>6.05169476263542</v>
+        <v>6.04083734418266</v>
       </c>
       <c r="M19">
-        <v>15.53867816991</v>
+        <v>15.4645062771331</v>
       </c>
       <c r="N19">
-        <v>13.7130362873806</v>
+        <v>13.7122804640224</v>
       </c>
       <c r="O19">
-        <v>1550.18137196471</v>
+        <v>1547.63925189762</v>
       </c>
       <c r="P19">
-        <v>40.6447427402106</v>
+        <v>41.9335311014108</v>
       </c>
     </row>
     <row r="20">
@@ -1382,49 +1382,49 @@
         </is>
       </c>
       <c r="B20">
-        <v>279.920805310024</v>
+        <v>280.848503526195</v>
       </c>
       <c r="C20">
-        <v>7.10311866258745</v>
+        <v>7.10166000937002</v>
       </c>
       <c r="D20">
-        <v>6.0680877746425</v>
+        <v>6.17668054530981</v>
       </c>
       <c r="E20">
-        <v>25.2405229343941</v>
+        <v>26.2344473887934</v>
       </c>
       <c r="F20">
-        <v>0.719798677424022</v>
+        <v>0.7205382669581451</v>
       </c>
       <c r="G20">
-        <v>3.52944387280639</v>
+        <v>3.5591943481448</v>
       </c>
       <c r="H20">
-        <v>1.8039377772336</v>
+        <v>1.82059881946901</v>
       </c>
       <c r="I20">
-        <v>2.45288438215052</v>
+        <v>2.44590378054943</v>
       </c>
       <c r="J20">
-        <v>5.8760695426599</v>
+        <v>5.80731027241172</v>
       </c>
       <c r="K20">
-        <v>1.00121546226638</v>
+        <v>1.00481376067698</v>
       </c>
       <c r="L20">
-        <v>6.43194422440433</v>
+        <v>6.36603620545243</v>
       </c>
       <c r="M20">
-        <v>16.6187276278119</v>
+        <v>15.7697606456381</v>
       </c>
       <c r="N20">
-        <v>6.64210410827208</v>
+        <v>6.73305679337471</v>
       </c>
       <c r="O20">
-        <v>565.025974683672</v>
+        <v>564.213492212975</v>
       </c>
       <c r="P20">
-        <v>18.610113917851</v>
+        <v>19.1297718328918</v>
       </c>
     </row>
     <row r="21">
@@ -1434,49 +1434,49 @@
         </is>
       </c>
       <c r="B21">
-        <v>1008.10686318267</v>
+        <v>1007.76488755318</v>
       </c>
       <c r="C21">
-        <v>17.1581658671673</v>
+        <v>17.2332451331009</v>
       </c>
       <c r="D21">
-        <v>0.752619658287113</v>
+        <v>0.7527401701868141</v>
       </c>
       <c r="E21">
-        <v>19.0538011237521</v>
+        <v>19.0846566580689</v>
       </c>
       <c r="F21">
-        <v>2.52553732928145</v>
+        <v>2.53143347403299</v>
       </c>
       <c r="G21">
-        <v>20.0324963482874</v>
+        <v>20.0299414346923</v>
       </c>
       <c r="H21">
-        <v>3.82893868483251</v>
+        <v>3.83502801859154</v>
       </c>
       <c r="I21">
-        <v>11.3878910206249</v>
+        <v>11.396567925585</v>
       </c>
       <c r="J21">
-        <v>19.0831032837088</v>
+        <v>19.1286784304242</v>
       </c>
       <c r="K21">
-        <v>4.08111080328172</v>
+        <v>4.08724959543619</v>
       </c>
       <c r="L21">
-        <v>25.2225891873683</v>
+        <v>25.2127659180062</v>
       </c>
       <c r="M21">
-        <v>21.8802304803269</v>
+        <v>21.8749233840108</v>
       </c>
       <c r="N21">
-        <v>18.2376194783006</v>
+        <v>18.2327499612019</v>
       </c>
       <c r="O21">
-        <v>2318.50479550932</v>
+        <v>2316.62617166401</v>
       </c>
       <c r="P21">
-        <v>15.6867168189127</v>
+        <v>15.8706128326379</v>
       </c>
     </row>
     <row r="22">
@@ -1486,49 +1486,49 @@
         </is>
       </c>
       <c r="B22">
-        <v>1193.24810599373</v>
+        <v>1193.13036144456</v>
       </c>
       <c r="C22">
-        <v>33.1784500098347</v>
+        <v>33.2190468603606</v>
       </c>
       <c r="D22">
-        <v>8.38325149233893</v>
+        <v>8.390807680306411</v>
       </c>
       <c r="E22">
-        <v>29.822474596066</v>
+        <v>29.9367391130837</v>
       </c>
       <c r="F22">
-        <v>3.13364673609508</v>
+        <v>3.13907251768968</v>
       </c>
       <c r="G22">
-        <v>27.2758818802134</v>
+        <v>27.2769942247551</v>
       </c>
       <c r="H22">
-        <v>13.8638750942187</v>
+        <v>13.8848188357572</v>
       </c>
       <c r="I22">
-        <v>4.46138000022441</v>
+        <v>4.46422812280005</v>
       </c>
       <c r="J22">
-        <v>28.2904986562758</v>
+        <v>28.3936756299974</v>
       </c>
       <c r="K22">
-        <v>4.89746735425453</v>
+        <v>4.89643482891485</v>
       </c>
       <c r="L22">
-        <v>86.76049181290691</v>
+        <v>86.70345087073071</v>
       </c>
       <c r="M22">
-        <v>24.772820953792</v>
+        <v>24.7622862928</v>
       </c>
       <c r="N22">
-        <v>56.7324141929283</v>
+        <v>56.8512858231048</v>
       </c>
       <c r="O22">
-        <v>2764.37838719885</v>
+        <v>2762.97672145173</v>
       </c>
       <c r="P22">
-        <v>14.2522727844876</v>
+        <v>14.3827095311221</v>
       </c>
     </row>
     <row r="23">
@@ -1538,49 +1538,49 @@
         </is>
       </c>
       <c r="B23">
-        <v>2371.5711346799</v>
+        <v>2372.78423087471</v>
       </c>
       <c r="C23">
-        <v>41.2801280674199</v>
+        <v>41.4829303623275</v>
       </c>
       <c r="D23">
-        <v>5.76392267433645</v>
+        <v>5.77153695802668</v>
       </c>
       <c r="E23">
-        <v>43.5094421849928</v>
+        <v>43.7633164227231</v>
       </c>
       <c r="F23">
-        <v>12.2418572997953</v>
+        <v>12.5868576135541</v>
       </c>
       <c r="G23">
-        <v>52.3765749992345</v>
+        <v>52.2375234835794</v>
       </c>
       <c r="H23">
-        <v>50.3133405158098</v>
+        <v>50.229653739689</v>
       </c>
       <c r="I23">
-        <v>22.7884103147118</v>
+        <v>22.8567471367343</v>
       </c>
       <c r="J23">
-        <v>82.87647109052121</v>
+        <v>82.61467310768749</v>
       </c>
       <c r="K23">
-        <v>81.9728751547925</v>
+        <v>81.7308484023406</v>
       </c>
       <c r="L23">
-        <v>37.1138377205535</v>
+        <v>37.025694901636</v>
       </c>
       <c r="M23">
-        <v>492.242869465341</v>
+        <v>488.435950187317</v>
       </c>
       <c r="N23">
-        <v>93.5492824597942</v>
+        <v>93.37209444679721</v>
       </c>
       <c r="O23">
-        <v>3373.23178753948</v>
+        <v>3370.42108101041</v>
       </c>
       <c r="P23">
-        <v>52.8594474029948</v>
+        <v>55.1059621158072</v>
       </c>
     </row>
     <row r="24">
@@ -1590,49 +1590,49 @@
         </is>
       </c>
       <c r="B24">
-        <v>805.7250859187531</v>
+        <v>805.225823526569</v>
       </c>
       <c r="C24">
-        <v>44.8261453420574</v>
+        <v>45.9846069507428</v>
       </c>
       <c r="D24">
-        <v>7.79261877572952</v>
+        <v>7.9911626802666</v>
       </c>
       <c r="E24">
-        <v>59.5953427215763</v>
+        <v>59.2404555212571</v>
       </c>
       <c r="F24">
-        <v>9.17947305761315</v>
+        <v>9.26648223369809</v>
       </c>
       <c r="G24">
-        <v>27.5789832201372</v>
+        <v>27.4696213954701</v>
       </c>
       <c r="H24">
-        <v>18.0565597422168</v>
+        <v>18.1580611220264</v>
       </c>
       <c r="I24">
-        <v>13.4132012012608</v>
+        <v>13.3769557597891</v>
       </c>
       <c r="J24">
-        <v>41.5975470931619</v>
+        <v>41.7266755079574</v>
       </c>
       <c r="K24">
-        <v>17.2925699319031</v>
+        <v>17.2985705382709</v>
       </c>
       <c r="L24">
-        <v>65.75786914651199</v>
+        <v>65.02592084190771</v>
       </c>
       <c r="M24">
-        <v>18.2858533278372</v>
+        <v>18.2496592318976</v>
       </c>
       <c r="N24">
-        <v>74.0055301731534</v>
+        <v>73.5841242741419</v>
       </c>
       <c r="O24">
-        <v>2157.78335237374</v>
+        <v>2145.06061123786</v>
       </c>
       <c r="P24">
-        <v>66.7716397173258</v>
+        <v>79.33348183419859</v>
       </c>
     </row>
     <row r="25">
@@ -1642,49 +1642,49 @@
         </is>
       </c>
       <c r="B25">
-        <v>778.2509835539111</v>
+        <v>778.261018637356</v>
       </c>
       <c r="C25">
-        <v>30.8416795678849</v>
+        <v>31.3081497906613</v>
       </c>
       <c r="D25">
-        <v>14.4354416807404</v>
+        <v>15.0019107886192</v>
       </c>
       <c r="E25">
-        <v>41.9540895461426</v>
+        <v>42.6883466499998</v>
       </c>
       <c r="F25">
-        <v>15.3939000151361</v>
+        <v>15.4931109971973</v>
       </c>
       <c r="G25">
-        <v>11.2307240220156</v>
+        <v>11.4043618105283</v>
       </c>
       <c r="H25">
-        <v>5.03452407539933</v>
+        <v>5.1588593591588</v>
       </c>
       <c r="I25">
-        <v>2.6843327649193</v>
+        <v>2.75713785371695</v>
       </c>
       <c r="J25">
-        <v>9.676863789606591</v>
+        <v>9.822163781274281</v>
       </c>
       <c r="K25">
-        <v>9.53022026609308</v>
+        <v>9.593273194190241</v>
       </c>
       <c r="L25">
-        <v>7.65833133838993</v>
+        <v>7.74183111409859</v>
       </c>
       <c r="M25">
-        <v>34.4161495261315</v>
+        <v>34.5614996769718</v>
       </c>
       <c r="N25">
-        <v>36.2608189359112</v>
+        <v>37.236720948626</v>
       </c>
       <c r="O25">
-        <v>856.14717505287</v>
+        <v>853.169750680286</v>
       </c>
       <c r="P25">
-        <v>51.4183625810161</v>
+        <v>52.3970620215288</v>
       </c>
     </row>
     <row r="26">
@@ -1694,49 +1694,49 @@
         </is>
       </c>
       <c r="B26">
-        <v>1116.81235049138</v>
+        <v>1116.51633487475</v>
       </c>
       <c r="C26">
-        <v>48.1062187433202</v>
+        <v>48.8986797302371</v>
       </c>
       <c r="D26">
-        <v>3.5188567820204</v>
+        <v>3.53693462683344</v>
       </c>
       <c r="E26">
-        <v>48.6937510489294</v>
+        <v>49.3898005280927</v>
       </c>
       <c r="F26">
-        <v>11.3534370336831</v>
+        <v>11.5718335950543</v>
       </c>
       <c r="G26">
-        <v>31.6612285253566</v>
+        <v>31.6392541461588</v>
       </c>
       <c r="H26">
-        <v>12.8570582017837</v>
+        <v>12.9458953251485</v>
       </c>
       <c r="I26">
-        <v>24.0286109815804</v>
+        <v>24.2533783586349</v>
       </c>
       <c r="J26">
-        <v>38.4440523462693</v>
+        <v>38.517108369468</v>
       </c>
       <c r="K26">
-        <v>12.2809148202187</v>
+        <v>12.3029855033803</v>
       </c>
       <c r="L26">
-        <v>31.4566588668794</v>
+        <v>31.5971936119632</v>
       </c>
       <c r="M26">
-        <v>47.6805172244226</v>
+        <v>47.8900095696623</v>
       </c>
       <c r="N26">
-        <v>31.0662320368976</v>
+        <v>31.1118514482938</v>
       </c>
       <c r="O26">
-        <v>2417.53035301314</v>
+        <v>2410.30338833914</v>
       </c>
       <c r="P26">
-        <v>41.5843461875955</v>
+        <v>44.7650895846418</v>
       </c>
     </row>
     <row r="27">
@@ -1746,49 +1746,49 @@
         </is>
       </c>
       <c r="B27">
-        <v>182.430544185922</v>
+        <v>182.592158447705</v>
       </c>
       <c r="C27">
-        <v>2.46109996021454</v>
+        <v>2.52509586521614</v>
       </c>
       <c r="D27">
-        <v>1.04945672957323</v>
+        <v>1.06517724161811</v>
       </c>
       <c r="E27">
-        <v>7.07714220212631</v>
+        <v>7.15921287541261</v>
       </c>
       <c r="F27">
-        <v>6.08869405734465</v>
+        <v>6.14911695926298</v>
       </c>
       <c r="G27">
-        <v>0.838828103394303</v>
+        <v>0.834809933093933</v>
       </c>
       <c r="H27">
-        <v>0.107543517992619</v>
+        <v>0.106495598822637</v>
       </c>
       <c r="I27">
-        <v>2.02775790161907</v>
+        <v>2.0459080000661</v>
       </c>
       <c r="J27">
-        <v>3.16692510931833</v>
+        <v>3.17655146309567</v>
       </c>
       <c r="K27">
-        <v>0.699139087079197</v>
+        <v>0.690122012957374</v>
       </c>
       <c r="L27">
-        <v>1.64733758369761</v>
+        <v>1.6227064053211</v>
       </c>
       <c r="M27">
-        <v>0.352314234489223</v>
+        <v>0.349303590941667</v>
       </c>
       <c r="N27">
-        <v>3.02816885977858</v>
+        <v>3.01876176237988</v>
       </c>
       <c r="O27">
-        <v>402.300114650825</v>
+        <v>400.122622595319</v>
       </c>
       <c r="P27">
-        <v>44.3851883143033</v>
+        <v>48.2051676406661</v>
       </c>
     </row>
     <row r="28">
@@ -1798,49 +1798,49 @@
         </is>
       </c>
       <c r="B28">
-        <v>242.56664399039</v>
+        <v>241.822876848092</v>
       </c>
       <c r="C28">
-        <v>35.2726130700716</v>
+        <v>35.3203302681261</v>
       </c>
       <c r="D28">
-        <v>1.11117379682739</v>
+        <v>1.09879479452508</v>
       </c>
       <c r="E28">
-        <v>3.94423637731014</v>
+        <v>3.90431288201161</v>
       </c>
       <c r="F28">
-        <v>0.239631214278203</v>
+        <v>0.235920335761727</v>
       </c>
       <c r="G28">
-        <v>5.95418689964957</v>
+        <v>5.89029901732766</v>
       </c>
       <c r="H28">
-        <v>5.34697722138058</v>
+        <v>5.44223326977414</v>
       </c>
       <c r="I28">
-        <v>4.52176893339816</v>
+        <v>4.44033705537362</v>
       </c>
       <c r="J28">
-        <v>16.8261354252102</v>
+        <v>17.2514903453789</v>
       </c>
       <c r="K28">
-        <v>12.5092454058058</v>
+        <v>12.6262853707727</v>
       </c>
       <c r="L28">
-        <v>11.4787897679276</v>
+        <v>11.2400369646717</v>
       </c>
       <c r="M28">
-        <v>10.3165699841115</v>
+        <v>10.3446997376114</v>
       </c>
       <c r="N28">
-        <v>11.636334039447</v>
+        <v>11.4879374322846</v>
       </c>
       <c r="O28">
-        <v>748.551133095177</v>
+        <v>738.758495510555</v>
       </c>
       <c r="P28">
-        <v>59.4849062448194</v>
+        <v>73.3719477507603</v>
       </c>
     </row>
     <row r="29">
@@ -1850,49 +1850,49 @@
         </is>
       </c>
       <c r="B29">
-        <v>449.742410243919</v>
+        <v>449.289603306613</v>
       </c>
       <c r="C29">
-        <v>2.88817604577418</v>
+        <v>2.90878855974204</v>
       </c>
       <c r="D29">
-        <v>3.61369896536659</v>
+        <v>3.60666076098594</v>
       </c>
       <c r="E29">
-        <v>6.09534920481552</v>
+        <v>6.08148476704701</v>
       </c>
       <c r="F29">
-        <v>19.9505396450035</v>
+        <v>21.7311082746252</v>
       </c>
       <c r="G29">
-        <v>3.82603511781523</v>
+        <v>3.81524346475122</v>
       </c>
       <c r="H29">
-        <v>1.07642865331974</v>
+        <v>1.07312850203352</v>
       </c>
       <c r="I29">
-        <v>1.27199334628842</v>
+        <v>1.33422851526531</v>
       </c>
       <c r="J29">
-        <v>2.70334264348638</v>
+        <v>2.69643872965</v>
       </c>
       <c r="K29">
-        <v>1.93601675382184</v>
+        <v>1.9306492113025</v>
       </c>
       <c r="L29">
-        <v>2.55943685761971</v>
+        <v>2.55124772587354</v>
       </c>
       <c r="M29">
-        <v>3.80497180301767</v>
+        <v>3.7934932539458</v>
       </c>
       <c r="N29">
-        <v>11.4858361147296</v>
+        <v>11.4574919032269</v>
       </c>
       <c r="O29">
-        <v>1106.86874591885</v>
+        <v>1104.49211457725</v>
       </c>
       <c r="P29">
-        <v>3.95989604059966</v>
+        <v>4.10356013070441</v>
       </c>
     </row>
     <row r="30">
@@ -1902,49 +1902,49 @@
         </is>
       </c>
       <c r="B30">
-        <v>193.692685970876</v>
+        <v>193.616541781704</v>
       </c>
       <c r="C30">
-        <v>5.42458491256925</v>
+        <v>5.42179832373644</v>
       </c>
       <c r="D30">
-        <v>3.53888776743581</v>
+        <v>3.54032864440605</v>
       </c>
       <c r="E30">
-        <v>7.9593082860674</v>
+        <v>8.02384317647812</v>
       </c>
       <c r="F30">
-        <v>0.17764189177382</v>
+        <v>0.17773668802834</v>
       </c>
       <c r="G30">
-        <v>6.47243522641248</v>
+        <v>6.45987341304231</v>
       </c>
       <c r="H30">
-        <v>2.62112926587806</v>
+        <v>2.61269591610571</v>
       </c>
       <c r="I30">
-        <v>2.18194064213765</v>
+        <v>2.17834782241781</v>
       </c>
       <c r="J30">
-        <v>18.2011859659346</v>
+        <v>18.1273225652358</v>
       </c>
       <c r="K30">
-        <v>3.66579268677588</v>
+        <v>3.64457007555186</v>
       </c>
       <c r="L30">
-        <v>39.8390040323683</v>
+        <v>39.5128592731548</v>
       </c>
       <c r="M30">
-        <v>8.177112013191859</v>
+        <v>8.12024068155293</v>
       </c>
       <c r="N30">
-        <v>16.6612745553608</v>
+        <v>16.6251236160915</v>
       </c>
       <c r="O30">
-        <v>539.645345792249</v>
+        <v>539.473224536292</v>
       </c>
       <c r="P30">
-        <v>4.47028640664668</v>
+        <v>4.58559962202547</v>
       </c>
     </row>
     <row r="31">
@@ -1954,49 +1954,49 @@
         </is>
       </c>
       <c r="B31">
-        <v>1613.79720309209</v>
+        <v>1613.47167105383</v>
       </c>
       <c r="C31">
-        <v>60.7347318600095</v>
+        <v>60.7644157025294</v>
       </c>
       <c r="D31">
-        <v>4.91525501160847</v>
+        <v>4.91281659504671</v>
       </c>
       <c r="E31">
-        <v>28.3023285381384</v>
+        <v>28.3063921181566</v>
       </c>
       <c r="F31">
-        <v>1.75181390346464</v>
+        <v>1.75114973811672</v>
       </c>
       <c r="G31">
-        <v>132.240075533305</v>
+        <v>132.226305986638</v>
       </c>
       <c r="H31">
-        <v>8.167439148276619</v>
+        <v>8.170017170885091</v>
       </c>
       <c r="I31">
-        <v>8.722243389355141</v>
+        <v>8.75465662299643</v>
       </c>
       <c r="J31">
-        <v>28.780747291435</v>
+        <v>28.7820126031029</v>
       </c>
       <c r="K31">
-        <v>7.14154109133413</v>
+        <v>7.14004505458064</v>
       </c>
       <c r="L31">
-        <v>60.2515706814766</v>
+        <v>60.2182528366705</v>
       </c>
       <c r="M31">
-        <v>21.217169355739</v>
+        <v>21.2088220563722</v>
       </c>
       <c r="N31">
-        <v>60.8733207744481</v>
+        <v>60.8714861355596</v>
       </c>
       <c r="O31">
-        <v>3615.45185612426</v>
+        <v>3613.83879356636</v>
       </c>
       <c r="P31">
-        <v>22.7761122025676</v>
+        <v>23.072600078944</v>
       </c>
     </row>
     <row r="32">
@@ -2006,49 +2006,49 @@
         </is>
       </c>
       <c r="B32">
-        <v>451.691750442351</v>
+        <v>451.924500362627</v>
       </c>
       <c r="C32">
-        <v>3.11020421222892</v>
+        <v>3.11685699068579</v>
       </c>
       <c r="D32">
-        <v>2.03322237648531</v>
+        <v>2.03362216465378</v>
       </c>
       <c r="E32">
-        <v>3.56266999742931</v>
+        <v>3.59508239647944</v>
       </c>
       <c r="F32">
-        <v>24.9582888318464</v>
+        <v>25.2595864676044</v>
       </c>
       <c r="G32">
-        <v>3.48828312596384</v>
+        <v>3.49321540575259</v>
       </c>
       <c r="H32">
-        <v>0.0394713824712303</v>
+        <v>0.0396880478622093</v>
       </c>
       <c r="I32">
-        <v>1.22869612568134</v>
+        <v>1.22768136570458</v>
       </c>
       <c r="J32">
-        <v>4.96054068375621</v>
+        <v>4.94908566634242</v>
       </c>
       <c r="K32">
-        <v>1.1907194175623</v>
+        <v>1.18006754274712</v>
       </c>
       <c r="L32">
-        <v>6.83958268303371</v>
+        <v>6.76856358370709</v>
       </c>
       <c r="M32">
-        <v>7.65610490747088</v>
+        <v>7.63488762633816</v>
       </c>
       <c r="N32">
-        <v>13.2539558866562</v>
+        <v>13.2428719518158</v>
       </c>
       <c r="O32">
-        <v>750.1602575767701</v>
+        <v>749.795451429242</v>
       </c>
       <c r="P32">
-        <v>13.3727329348829</v>
+        <v>14.2874254959266</v>
       </c>
     </row>
     <row r="33">
@@ -2058,49 +2058,49 @@
         </is>
       </c>
       <c r="B33">
-        <v>4257.7341216528</v>
+        <v>4254.79630452993</v>
       </c>
       <c r="C33">
-        <v>75.89631230816271</v>
+        <v>76.2488519313932</v>
       </c>
       <c r="D33">
-        <v>9.41139696226195</v>
+        <v>9.39240669565555</v>
       </c>
       <c r="E33">
-        <v>65.54806197871891</v>
+        <v>65.9033279644752</v>
       </c>
       <c r="F33">
-        <v>8.03932931335955</v>
+        <v>8.02662808902004</v>
       </c>
       <c r="G33">
-        <v>63.051261874046</v>
+        <v>63.4413033292603</v>
       </c>
       <c r="H33">
-        <v>28.0237842272299</v>
+        <v>28.2796609579408</v>
       </c>
       <c r="I33">
-        <v>19.9392318361735</v>
+        <v>19.9876436897875</v>
       </c>
       <c r="J33">
-        <v>85.9281423821696</v>
+        <v>87.09507859558759</v>
       </c>
       <c r="K33">
-        <v>51.796861277056</v>
+        <v>52.5874603782643</v>
       </c>
       <c r="L33">
-        <v>95.4248307259336</v>
+        <v>96.3926014159933</v>
       </c>
       <c r="M33">
-        <v>45.8355827971476</v>
+        <v>46.6327948113079</v>
       </c>
       <c r="N33">
-        <v>127.015335164392</v>
+        <v>127.756389326265</v>
       </c>
       <c r="O33">
-        <v>7614.84530393779</v>
+        <v>7601.28804416745</v>
       </c>
       <c r="P33">
-        <v>49.0579104579411</v>
+        <v>53.4566408895837</v>
       </c>
     </row>
     <row r="34">
@@ -2110,49 +2110,49 @@
         </is>
       </c>
       <c r="B34">
-        <v>1967.17123968161</v>
+        <v>1968.33337122995</v>
       </c>
       <c r="C34">
-        <v>59.5834050192113</v>
+        <v>59.7314948740752</v>
       </c>
       <c r="D34">
-        <v>54.4457467292149</v>
+        <v>55.0495564110976</v>
       </c>
       <c r="E34">
-        <v>57.7574428975988</v>
+        <v>57.9092763514416</v>
       </c>
       <c r="F34">
-        <v>2.24837323456293</v>
+        <v>2.25005302613707</v>
       </c>
       <c r="G34">
-        <v>49.4280996003261</v>
+        <v>49.4559985275795</v>
       </c>
       <c r="H34">
-        <v>32.4162905047847</v>
+        <v>32.4445710889205</v>
       </c>
       <c r="I34">
-        <v>15.0472993945718</v>
+        <v>15.0880019074384</v>
       </c>
       <c r="J34">
-        <v>45.6266229647348</v>
+        <v>45.8149111121173</v>
       </c>
       <c r="K34">
-        <v>11.3937100366014</v>
+        <v>11.4105791844098</v>
       </c>
       <c r="L34">
-        <v>89.8177970760398</v>
+        <v>90.0038127576794</v>
       </c>
       <c r="M34">
-        <v>39.2585531080857</v>
+        <v>39.2411752682667</v>
       </c>
       <c r="N34">
-        <v>124.401887394584</v>
+        <v>125.051890608662</v>
       </c>
       <c r="O34">
-        <v>3404.98406052021</v>
+        <v>3403.13710588334</v>
       </c>
       <c r="P34">
-        <v>55.3611796145741</v>
+        <v>56.0503655157777</v>
       </c>
     </row>
     <row r="35">
@@ -2162,49 +2162,49 @@
         </is>
       </c>
       <c r="B35">
-        <v>83.1856378691753</v>
+        <v>83.6683705830596</v>
       </c>
       <c r="C35">
-        <v>6.26752925756044</v>
+        <v>6.26472341168065</v>
       </c>
       <c r="D35">
-        <v>0.478205563585764</v>
+        <v>0.475031711029034</v>
       </c>
       <c r="E35">
-        <v>3.63796740314793</v>
+        <v>3.57509926570671</v>
       </c>
       <c r="F35">
-        <v>3.66421682599152</v>
+        <v>3.83024698675573</v>
       </c>
       <c r="G35">
-        <v>0.709086886972202</v>
+        <v>0.693256597661833</v>
       </c>
       <c r="H35">
-        <v>0.870365972317193</v>
+        <v>0.855260465854499</v>
       </c>
       <c r="I35">
-        <v>0.942036179414929</v>
+        <v>0.937991999288507</v>
       </c>
       <c r="J35">
-        <v>2.0579647482568</v>
+        <v>2.02819522755372</v>
       </c>
       <c r="K35">
-        <v>3.38256859527712</v>
+        <v>3.3496612458652</v>
       </c>
       <c r="L35">
-        <v>2.81068087069457</v>
+        <v>2.7420233408452</v>
       </c>
       <c r="M35">
-        <v>3.45835834344376</v>
+        <v>3.39242323827366</v>
       </c>
       <c r="N35">
-        <v>3.17112937114686</v>
+        <v>3.10871040166375</v>
       </c>
       <c r="O35">
-        <v>275.560300357568</v>
+        <v>271.881695382544</v>
       </c>
       <c r="P35">
-        <v>36.8240646875295</v>
+        <v>42.2018495192409</v>
       </c>
     </row>
     <row r="36">
@@ -2214,49 +2214,49 @@
         </is>
       </c>
       <c r="B36">
-        <v>2524.41316799304</v>
+        <v>2524.79362192316</v>
       </c>
       <c r="C36">
-        <v>94.17299577902649</v>
+        <v>94.3484629130308</v>
       </c>
       <c r="D36">
-        <v>8.58924172164865</v>
+        <v>8.633577043337811</v>
       </c>
       <c r="E36">
-        <v>131.246197338812</v>
+        <v>131.772364305974</v>
       </c>
       <c r="F36">
-        <v>18.1533910662714</v>
+        <v>18.2597317501508</v>
       </c>
       <c r="G36">
-        <v>87.9556426154666</v>
+        <v>88.2540670517414</v>
       </c>
       <c r="H36">
-        <v>70.4895701650277</v>
+        <v>71.2289284722654</v>
       </c>
       <c r="I36">
-        <v>31.972306393982</v>
+        <v>32.1386113741625</v>
       </c>
       <c r="J36">
-        <v>227.069606684494</v>
+        <v>228.911819095804</v>
       </c>
       <c r="K36">
-        <v>60.544736217758</v>
+        <v>61.0227091148349</v>
       </c>
       <c r="L36">
-        <v>58.9884524969359</v>
+        <v>59.2210145621401</v>
       </c>
       <c r="M36">
-        <v>168.777688197801</v>
+        <v>170.360941956873</v>
       </c>
       <c r="N36">
-        <v>121.566042624733</v>
+        <v>122.13409064918</v>
       </c>
       <c r="O36">
-        <v>4238.97834916256</v>
+        <v>4232.22759828861</v>
       </c>
       <c r="P36">
-        <v>75.8636734715205</v>
+        <v>76.43128921230699</v>
       </c>
     </row>
     <row r="37">
@@ -2266,49 +2266,49 @@
         </is>
       </c>
       <c r="B37">
-        <v>853.814549651258</v>
+        <v>855.775432428111</v>
       </c>
       <c r="C37">
-        <v>15.6148771497255</v>
+        <v>15.8067720334225</v>
       </c>
       <c r="D37">
-        <v>2.74862562108786</v>
+        <v>2.75543352968623</v>
       </c>
       <c r="E37">
-        <v>18.8406765642693</v>
+        <v>18.96070627385</v>
       </c>
       <c r="F37">
-        <v>44.3865382070159</v>
+        <v>44.6296085423662</v>
       </c>
       <c r="G37">
-        <v>5.99205768484102</v>
+        <v>5.96245620104791</v>
       </c>
       <c r="H37">
-        <v>28.0457959773273</v>
+        <v>28.3697803426189</v>
       </c>
       <c r="I37">
-        <v>7.13639742533693</v>
+        <v>7.20290516437051</v>
       </c>
       <c r="J37">
-        <v>35.2351218320435</v>
+        <v>35.3703187215416</v>
       </c>
       <c r="K37">
-        <v>7.7213124462551</v>
+        <v>7.74227698494153</v>
       </c>
       <c r="L37">
-        <v>20.9851945062742</v>
+        <v>20.9782890697549</v>
       </c>
       <c r="M37">
-        <v>26.7494930949056</v>
+        <v>26.6993576216244</v>
       </c>
       <c r="N37">
-        <v>22.9882923843597</v>
+        <v>23.0078489736612</v>
       </c>
       <c r="O37">
-        <v>1312.31326253882</v>
+        <v>1309.00399177652</v>
       </c>
       <c r="P37">
-        <v>49.4787305170092</v>
+        <v>51.3224960490988</v>
       </c>
     </row>
     <row r="38">
@@ -2318,49 +2318,49 @@
         </is>
       </c>
       <c r="B38">
-        <v>782.382342521328</v>
+        <v>782.978864869546</v>
       </c>
       <c r="C38">
-        <v>23.5567404485899</v>
+        <v>23.8514115533435</v>
       </c>
       <c r="D38">
-        <v>3.86929258761145</v>
+        <v>3.85447132940739</v>
       </c>
       <c r="E38">
-        <v>45.314963733518</v>
+        <v>45.7606724545561</v>
       </c>
       <c r="F38">
-        <v>1.19241680497036</v>
+        <v>1.19122385618412</v>
       </c>
       <c r="G38">
-        <v>10.5855258820262</v>
+        <v>10.5630986087678</v>
       </c>
       <c r="H38">
-        <v>1.04481794873037</v>
+        <v>1.04327175573004</v>
       </c>
       <c r="I38">
-        <v>4.19792372619404</v>
+        <v>4.18237805944184</v>
       </c>
       <c r="J38">
-        <v>28.296271913257</v>
+        <v>28.28201073954</v>
       </c>
       <c r="K38">
-        <v>3.84920006829397</v>
+        <v>3.84829408303022</v>
       </c>
       <c r="L38">
-        <v>96.89769530371051</v>
+        <v>95.5282688635414</v>
       </c>
       <c r="M38">
-        <v>22.229040540839</v>
+        <v>22.208846244472</v>
       </c>
       <c r="N38">
-        <v>58.2800566310291</v>
+        <v>58.275831572984</v>
       </c>
       <c r="O38">
-        <v>1492.43158160405</v>
+        <v>1491.59351874063</v>
       </c>
       <c r="P38">
-        <v>57.9249204141502</v>
+        <v>59.6410851709843</v>
       </c>
     </row>
     <row r="39">
@@ -2370,49 +2370,49 @@
         </is>
       </c>
       <c r="B39">
-        <v>2639.71441529712</v>
+        <v>2640.82682024579</v>
       </c>
       <c r="C39">
-        <v>90.02833350923</v>
+        <v>90.3437878933378</v>
       </c>
       <c r="D39">
-        <v>24.7133961533943</v>
+        <v>25.2287314922628</v>
       </c>
       <c r="E39">
-        <v>118.69491924585</v>
+        <v>120.670797148306</v>
       </c>
       <c r="F39">
-        <v>34.3582095243122</v>
+        <v>34.8730235881127</v>
       </c>
       <c r="G39">
-        <v>122.272090657832</v>
+        <v>122.34868198945</v>
       </c>
       <c r="H39">
-        <v>53.0193355776885</v>
+        <v>53.6727852474226</v>
       </c>
       <c r="I39">
-        <v>20.920142248321</v>
+        <v>21.1047282141459</v>
       </c>
       <c r="J39">
-        <v>174.70258105247</v>
+        <v>177.387036710532</v>
       </c>
       <c r="K39">
-        <v>35.163727028155</v>
+        <v>35.8266634264069</v>
       </c>
       <c r="L39">
-        <v>126.454523387153</v>
+        <v>127.017260798006</v>
       </c>
       <c r="M39">
-        <v>71.7289300799399</v>
+        <v>72.3432800446009</v>
       </c>
       <c r="N39">
-        <v>118.902041252134</v>
+        <v>120.269988056656</v>
       </c>
       <c r="O39">
-        <v>5053.82471301126</v>
+        <v>5041.66708796847</v>
       </c>
       <c r="P39">
-        <v>79.1609628169731</v>
+        <v>81.6926713434241</v>
       </c>
     </row>
     <row r="40">
@@ -2422,49 +2422,49 @@
         </is>
       </c>
       <c r="B40">
-        <v>209.081912037663</v>
+        <v>209.04917641361</v>
       </c>
       <c r="C40">
-        <v>1.71160747133433</v>
+        <v>1.71140509891114</v>
       </c>
       <c r="D40">
-        <v>7.14628332592667</v>
+        <v>7.15339672997788</v>
       </c>
       <c r="E40">
-        <v>3.7646922237533</v>
+        <v>3.7646658405667</v>
       </c>
       <c r="F40">
-        <v>0.175987715091826</v>
+        <v>0.175944250940385</v>
       </c>
       <c r="G40">
-        <v>5.33984669970945</v>
+        <v>5.35304071397406</v>
       </c>
       <c r="H40">
-        <v>3.93802608272861</v>
+        <v>3.95169662594086</v>
       </c>
       <c r="I40">
-        <v>3.28827377659862</v>
+        <v>3.2878246531145</v>
       </c>
       <c r="J40">
-        <v>10.1554322588467</v>
+        <v>10.1564347623743</v>
       </c>
       <c r="K40">
-        <v>1.57799917826687</v>
+        <v>1.57848293827154</v>
       </c>
       <c r="L40">
-        <v>10.1452135681779</v>
+        <v>10.1431913238701</v>
       </c>
       <c r="M40">
-        <v>5.32125603265315</v>
+        <v>5.32001073494888</v>
       </c>
       <c r="N40">
-        <v>19.7912442996168</v>
+        <v>19.7908776031913</v>
       </c>
       <c r="O40">
-        <v>416.78561127266</v>
+        <v>416.699553090847</v>
       </c>
       <c r="P40">
-        <v>6.484406391129</v>
+        <v>6.50323813695615</v>
       </c>
     </row>
     <row r="41">
@@ -2474,49 +2474,49 @@
         </is>
       </c>
       <c r="B41">
-        <v>1108.05681436085</v>
+        <v>1108.54997735183</v>
       </c>
       <c r="C41">
-        <v>21.1980338348965</v>
+        <v>21.2920501677698</v>
       </c>
       <c r="D41">
-        <v>45.0797367869045</v>
+        <v>46.3073764006314</v>
       </c>
       <c r="E41">
-        <v>29.321888667963</v>
+        <v>29.4746445299755</v>
       </c>
       <c r="F41">
-        <v>1.98221314204784</v>
+        <v>1.97806121547533</v>
       </c>
       <c r="G41">
-        <v>26.0094080291742</v>
+        <v>26.167714119536</v>
       </c>
       <c r="H41">
-        <v>19.7227242703869</v>
+        <v>19.9029941703717</v>
       </c>
       <c r="I41">
-        <v>11.3394201497694</v>
+        <v>11.4695266353522</v>
       </c>
       <c r="J41">
-        <v>41.2961110383388</v>
+        <v>41.478133247303</v>
       </c>
       <c r="K41">
-        <v>8.353786731721179</v>
+        <v>8.373087796208271</v>
       </c>
       <c r="L41">
-        <v>28.6757407887752</v>
+        <v>28.6508297466455</v>
       </c>
       <c r="M41">
-        <v>32.0275013956479</v>
+        <v>32.2252159545044</v>
       </c>
       <c r="N41">
-        <v>22.1195566927457</v>
+        <v>22.1867251369187</v>
       </c>
       <c r="O41">
-        <v>1561.44790087417</v>
+        <v>1559.03118652952</v>
       </c>
       <c r="P41">
-        <v>17.9583043644526</v>
+        <v>18.1112483799154</v>
       </c>
     </row>
     <row r="42">
@@ -2526,49 +2526,49 @@
         </is>
       </c>
       <c r="B42">
-        <v>100.334962717061</v>
+        <v>100.06099068961</v>
       </c>
       <c r="C42">
-        <v>7.6966501066763</v>
+        <v>7.72743528297863</v>
       </c>
       <c r="D42">
-        <v>2.06678570700025</v>
+        <v>2.02894077989617</v>
       </c>
       <c r="E42">
-        <v>5.37182059914428</v>
+        <v>5.2502606335939</v>
       </c>
       <c r="F42">
-        <v>2.23205057376868</v>
+        <v>2.19137908157066</v>
       </c>
       <c r="G42">
-        <v>1.75358531830061</v>
+        <v>1.76259243109168</v>
       </c>
       <c r="H42">
-        <v>2.15639161211852</v>
+        <v>2.10056748385623</v>
       </c>
       <c r="I42">
-        <v>2.29841401226103</v>
+        <v>2.25412402569579</v>
       </c>
       <c r="J42">
-        <v>6.24569747812405</v>
+        <v>6.2327157969698</v>
       </c>
       <c r="K42">
-        <v>4.03296880232236</v>
+        <v>4.08481443091075</v>
       </c>
       <c r="L42">
-        <v>5.01282859994637</v>
+        <v>4.83334799768962</v>
       </c>
       <c r="M42">
-        <v>3.20327896332738</v>
+        <v>3.19122077438239</v>
       </c>
       <c r="N42">
-        <v>9.1791820630405</v>
+        <v>9.06457771229614</v>
       </c>
       <c r="O42">
-        <v>316.117603078309</v>
+        <v>312.106004078011</v>
       </c>
       <c r="P42">
-        <v>48.0300989663362</v>
+        <v>55.1558074219238</v>
       </c>
     </row>
     <row r="43">
@@ -2578,49 +2578,49 @@
         </is>
       </c>
       <c r="B43">
-        <v>1557.78111739197</v>
+        <v>1558.10542282075</v>
       </c>
       <c r="C43">
-        <v>39.3294140479902</v>
+        <v>39.2102076418173</v>
       </c>
       <c r="D43">
-        <v>17.6838841903155</v>
+        <v>17.9651942192539</v>
       </c>
       <c r="E43">
-        <v>68.7241575785402</v>
+        <v>68.9411730487822</v>
       </c>
       <c r="F43">
-        <v>11.1248237294487</v>
+        <v>11.2383555612597</v>
       </c>
       <c r="G43">
-        <v>31.2522490719477</v>
+        <v>31.4973862370865</v>
       </c>
       <c r="H43">
-        <v>33.2303213092452</v>
+        <v>33.6005998566993</v>
       </c>
       <c r="I43">
-        <v>3.59894153196611</v>
+        <v>3.69521714938571</v>
       </c>
       <c r="J43">
-        <v>61.6662383069978</v>
+        <v>62.5352349982027</v>
       </c>
       <c r="K43">
-        <v>5.48037266326473</v>
+        <v>5.58881544490534</v>
       </c>
       <c r="L43">
-        <v>27.6588870625489</v>
+        <v>27.9082230190028</v>
       </c>
       <c r="M43">
-        <v>72.7990385662989</v>
+        <v>74.1847209001822</v>
       </c>
       <c r="N43">
-        <v>63.4474566474143</v>
+        <v>63.8627361081032</v>
       </c>
       <c r="O43">
-        <v>2231.64974890708</v>
+        <v>2226.88641188305</v>
       </c>
       <c r="P43">
-        <v>54.1185557561999</v>
+        <v>54.5559898973077</v>
       </c>
     </row>
     <row r="44">
@@ -2630,49 +2630,49 @@
         </is>
       </c>
       <c r="B44">
-        <v>4630.80460000292</v>
+        <v>4634.95149949148</v>
       </c>
       <c r="C44">
-        <v>157.875507439465</v>
+        <v>159.623154292329</v>
       </c>
       <c r="D44">
-        <v>15.8946680846832</v>
+        <v>15.9266675110198</v>
       </c>
       <c r="E44">
-        <v>81.7922247703824</v>
+        <v>81.8826203224187</v>
       </c>
       <c r="F44">
-        <v>295.200303108465</v>
+        <v>295.692975741733</v>
       </c>
       <c r="G44">
-        <v>140.859679023756</v>
+        <v>140.851460337163</v>
       </c>
       <c r="H44">
-        <v>30.9480278488656</v>
+        <v>30.987633365811</v>
       </c>
       <c r="I44">
-        <v>48.9751576228552</v>
+        <v>49.0227597586141</v>
       </c>
       <c r="J44">
-        <v>128.006600427166</v>
+        <v>128.137316127807</v>
       </c>
       <c r="K44">
-        <v>28.0475134479716</v>
+        <v>28.0763594487776</v>
       </c>
       <c r="L44">
-        <v>190.13792115678</v>
+        <v>189.36164974104</v>
       </c>
       <c r="M44">
-        <v>95.1431906331015</v>
+        <v>95.0779128837045</v>
       </c>
       <c r="N44">
-        <v>102.547767437823</v>
+        <v>102.470321057877</v>
       </c>
       <c r="O44">
-        <v>8701.900852330669</v>
+        <v>8692.07843443086</v>
       </c>
       <c r="P44">
-        <v>149.173377311028</v>
+        <v>153.897712465008</v>
       </c>
     </row>
     <row r="45">
@@ -2682,49 +2682,49 @@
         </is>
       </c>
       <c r="B45">
-        <v>380.897931134896</v>
+        <v>381.735239775165</v>
       </c>
       <c r="C45">
-        <v>16.8482961681119</v>
+        <v>16.9431921752003</v>
       </c>
       <c r="D45">
-        <v>0.719693383543529</v>
+        <v>0.714651626175716</v>
       </c>
       <c r="E45">
-        <v>9.144783001835391</v>
+        <v>9.091749184345151</v>
       </c>
       <c r="F45">
-        <v>23.8505263188195</v>
+        <v>24.7463684294211</v>
       </c>
       <c r="G45">
-        <v>7.59139659600671</v>
+        <v>7.57459586239072</v>
       </c>
       <c r="H45">
-        <v>1.69935580461682</v>
+        <v>1.69817230136636</v>
       </c>
       <c r="I45">
-        <v>2.22018641949435</v>
+        <v>2.25726001155994</v>
       </c>
       <c r="J45">
-        <v>20.2778352613071</v>
+        <v>20.296738050066</v>
       </c>
       <c r="K45">
-        <v>2.39563593632681</v>
+        <v>2.38798386158581</v>
       </c>
       <c r="L45">
-        <v>15.0924100639017</v>
+        <v>15.0118165101157</v>
       </c>
       <c r="M45">
-        <v>14.0218727189624</v>
+        <v>13.9759997480347</v>
       </c>
       <c r="N45">
-        <v>30.9608358661383</v>
+        <v>30.8192948656171</v>
       </c>
       <c r="O45">
-        <v>930.057714594477</v>
+        <v>927.58016494032</v>
       </c>
       <c r="P45">
-        <v>15.4564687397241</v>
+        <v>16.3017652532013</v>
       </c>
     </row>
     <row r="46">
@@ -2734,49 +2734,49 @@
         </is>
       </c>
       <c r="B46">
-        <v>92.8242482463604</v>
+        <v>92.95955582944571</v>
       </c>
       <c r="C46">
-        <v>3.46221823874225</v>
+        <v>3.51301404947169</v>
       </c>
       <c r="D46">
-        <v>0.490390597619161</v>
+        <v>0.492439784347996</v>
       </c>
       <c r="E46">
-        <v>4.87023670075777</v>
+        <v>4.8975322864119</v>
       </c>
       <c r="F46">
-        <v>0.9575192872510711</v>
+        <v>0.957682730136779</v>
       </c>
       <c r="G46">
-        <v>1.21844818728923</v>
+        <v>1.20876695264074</v>
       </c>
       <c r="H46">
-        <v>0.589695661294544</v>
+        <v>0.588799560607749</v>
       </c>
       <c r="I46">
-        <v>2.05785074958883</v>
+        <v>2.04872360517486</v>
       </c>
       <c r="J46">
-        <v>4.46127401714595</v>
+        <v>4.4292852119509</v>
       </c>
       <c r="K46">
-        <v>0.789372903391886</v>
+        <v>0.778697739597441</v>
       </c>
       <c r="L46">
-        <v>12.7321279451856</v>
+        <v>12.2054460536333</v>
       </c>
       <c r="M46">
-        <v>2.95228686305097</v>
+        <v>2.88983669587497</v>
       </c>
       <c r="N46">
-        <v>7.06022116825721</v>
+        <v>7.02634560823831</v>
       </c>
       <c r="O46">
-        <v>277.674599842955</v>
+        <v>277.880243573001</v>
       </c>
       <c r="P46">
-        <v>7.9469152757934</v>
+        <v>8.45848443970646</v>
       </c>
     </row>
     <row r="47">
@@ -2786,49 +2786,49 @@
         </is>
       </c>
       <c r="B47">
-        <v>1461.93362732674</v>
+        <v>1462.57403958754</v>
       </c>
       <c r="C47">
-        <v>48.3794819756052</v>
+        <v>48.9055959974198</v>
       </c>
       <c r="D47">
-        <v>11.4171658459211</v>
+        <v>11.715607297171</v>
       </c>
       <c r="E47">
-        <v>42.2961384471891</v>
+        <v>42.5734884823791</v>
       </c>
       <c r="F47">
-        <v>1.68402313769686</v>
+        <v>1.71356482585558</v>
       </c>
       <c r="G47">
-        <v>26.2561063202569</v>
+        <v>26.4601817619235</v>
       </c>
       <c r="H47">
-        <v>13.6155023761197</v>
+        <v>13.7541655869003</v>
       </c>
       <c r="I47">
-        <v>9.459962764131211</v>
+        <v>9.49750498269872</v>
       </c>
       <c r="J47">
-        <v>24.8433655779614</v>
+        <v>24.9597125808651</v>
       </c>
       <c r="K47">
-        <v>4.21804837862822</v>
+        <v>4.21131291934012</v>
       </c>
       <c r="L47">
-        <v>25.8235353150952</v>
+        <v>25.824708946434</v>
       </c>
       <c r="M47">
-        <v>63.9107727728689</v>
+        <v>63.7220296156725</v>
       </c>
       <c r="N47">
-        <v>25.2003149312896</v>
+        <v>25.2012222157979</v>
       </c>
       <c r="O47">
-        <v>3102.97026458738</v>
+        <v>3098.88287494634</v>
       </c>
       <c r="P47">
-        <v>32.5637729517151</v>
+        <v>33.2619774113825</v>
       </c>
     </row>
     <row r="48">
@@ -2838,49 +2838,49 @@
         </is>
       </c>
       <c r="B48">
-        <v>1207.81688079542</v>
+        <v>1209.16667728034</v>
       </c>
       <c r="C48">
-        <v>33.9559084089822</v>
+        <v>34.0461822641815</v>
       </c>
       <c r="D48">
-        <v>7.25291929084812</v>
+        <v>7.24596587310374</v>
       </c>
       <c r="E48">
-        <v>64.76660402965059</v>
+        <v>65.60660703542661</v>
       </c>
       <c r="F48">
-        <v>13.7514534147565</v>
+        <v>13.8465341354061</v>
       </c>
       <c r="G48">
-        <v>7.94018772623431</v>
+        <v>7.89650760599287</v>
       </c>
       <c r="H48">
-        <v>12.333516120031</v>
+        <v>12.3094890586023</v>
       </c>
       <c r="I48">
-        <v>6.9689043808511</v>
+        <v>7.00953723576733</v>
       </c>
       <c r="J48">
-        <v>38.6082645029881</v>
+        <v>38.4703862536852</v>
       </c>
       <c r="K48">
-        <v>9.594405193308671</v>
+        <v>9.565638669300951</v>
       </c>
       <c r="L48">
-        <v>49.4974666197903</v>
+        <v>49.3383271806713</v>
       </c>
       <c r="M48">
-        <v>151.46839909667</v>
+        <v>148.442988505314</v>
       </c>
       <c r="N48">
-        <v>44.6822090152209</v>
+        <v>44.6544494782511</v>
       </c>
       <c r="O48">
-        <v>2560.92410741427</v>
+        <v>2560.02931983094</v>
       </c>
       <c r="P48">
-        <v>98.9164429455913</v>
+        <v>100.91327309929</v>
       </c>
     </row>
     <row r="49">
@@ -2890,49 +2890,49 @@
         </is>
       </c>
       <c r="B49">
-        <v>636.683425097258</v>
+        <v>636.846802573769</v>
       </c>
       <c r="C49">
-        <v>3.88656078854941</v>
+        <v>3.89279178087216</v>
       </c>
       <c r="D49">
-        <v>0.121459452448162</v>
+        <v>0.122488477458468</v>
       </c>
       <c r="E49">
-        <v>18.9185597907385</v>
+        <v>18.9542263166637</v>
       </c>
       <c r="F49">
-        <v>26.6860164481316</v>
+        <v>26.9561696869072</v>
       </c>
       <c r="G49">
-        <v>13.2672943711056</v>
+        <v>13.1906947773529</v>
       </c>
       <c r="H49">
-        <v>2.89094765853953</v>
+        <v>2.88424733163697</v>
       </c>
       <c r="I49">
-        <v>2.40772639039376</v>
+        <v>2.38676442827096</v>
       </c>
       <c r="J49">
-        <v>17.4294215832268</v>
+        <v>17.3236360179877</v>
       </c>
       <c r="K49">
-        <v>1.90414497511413</v>
+        <v>1.89932412590607</v>
       </c>
       <c r="L49">
-        <v>1.86885325460075</v>
+        <v>1.86541766052096</v>
       </c>
       <c r="M49">
-        <v>4.36521087395285</v>
+        <v>4.36019470556936</v>
       </c>
       <c r="N49">
-        <v>8.43292859501778</v>
+        <v>8.43264453862712</v>
       </c>
       <c r="O49">
-        <v>592.103433012548</v>
+        <v>592.1231345174371</v>
       </c>
       <c r="P49">
-        <v>11.0703425577486</v>
+        <v>11.0943758609348</v>
       </c>
     </row>
     <row r="50">
@@ -2942,49 +2942,49 @@
         </is>
       </c>
       <c r="B50">
-        <v>878.520185844392</v>
+        <v>879.712906269736</v>
       </c>
       <c r="C50">
-        <v>61.1805753530096</v>
+        <v>62.4270615784599</v>
       </c>
       <c r="D50">
-        <v>6.82327695587836</v>
+        <v>6.87707366195877</v>
       </c>
       <c r="E50">
-        <v>129.926249962602</v>
+        <v>130.300024337187</v>
       </c>
       <c r="F50">
-        <v>2.74341545571481</v>
+        <v>2.72724765394286</v>
       </c>
       <c r="G50">
-        <v>35.8866701225575</v>
+        <v>35.7464587688635</v>
       </c>
       <c r="H50">
-        <v>43.5747960882535</v>
+        <v>43.5509643241192</v>
       </c>
       <c r="I50">
-        <v>11.5915533738263</v>
+        <v>11.579500464849</v>
       </c>
       <c r="J50">
-        <v>76.6762396146803</v>
+        <v>76.66647856257021</v>
       </c>
       <c r="K50">
-        <v>40.7647429095405</v>
+        <v>40.7455233969703</v>
       </c>
       <c r="L50">
-        <v>85.077163072899</v>
+        <v>84.7094234794646</v>
       </c>
       <c r="M50">
-        <v>61.5362360467977</v>
+        <v>61.3322530698746</v>
       </c>
       <c r="N50">
-        <v>59.0049376438967</v>
+        <v>58.8761358912627</v>
       </c>
       <c r="O50">
-        <v>2238.56668972713</v>
+        <v>2228.33209919813</v>
       </c>
       <c r="P50">
-        <v>83.0769481956994</v>
+        <v>93.5595209998578</v>
       </c>
     </row>
     <row r="51">
@@ -2994,49 +2994,49 @@
         </is>
       </c>
       <c r="B51">
-        <v>82.14961620056221</v>
+        <v>82.2159065871618</v>
       </c>
       <c r="C51">
-        <v>1.55984440600004</v>
+        <v>1.55894389302151</v>
       </c>
       <c r="D51">
-        <v>0.0138082232626132</v>
+        <v>0.0139400256903082</v>
       </c>
       <c r="E51">
-        <v>1.14937237735496</v>
+        <v>1.14811643674063</v>
       </c>
       <c r="F51">
-        <v>29.4547021829857</v>
+        <v>29.9570029837863</v>
       </c>
       <c r="G51">
-        <v>1.4767360057622</v>
+        <v>1.49618565925013</v>
       </c>
       <c r="H51">
-        <v>0.187285523684113</v>
+        <v>0.186566447385486</v>
       </c>
       <c r="I51">
-        <v>1.32477005475867</v>
+        <v>1.32259231215337</v>
       </c>
       <c r="J51">
-        <v>1.20640675540706</v>
+        <v>1.20402739518306</v>
       </c>
       <c r="K51">
-        <v>0.9288990759924181</v>
+        <v>0.9336343397622801</v>
       </c>
       <c r="L51">
-        <v>0.648621620417198</v>
+        <v>0.649992809529202</v>
       </c>
       <c r="M51">
-        <v>0.42788448951425</v>
+        <v>0.428292884116637</v>
       </c>
       <c r="N51">
-        <v>0.989689159213018</v>
+        <v>0.986958420276239</v>
       </c>
       <c r="O51">
-        <v>203.531488757269</v>
+        <v>203.187346965318</v>
       </c>
       <c r="P51">
-        <v>18.4825204267482</v>
+        <v>19.8693048177796</v>
       </c>
     </row>
     <row r="52">

--- a/1-Data-Codes/2-Final_Data/L_2007.xlsx
+++ b/1-Data-Codes/2-Final_Data/L_2007.xlsx
@@ -498,7 +498,7 @@
         </is>
       </c>
       <c r="B3">
-        <v>92.39649210454761</v>
+        <v>92.3964921045476</v>
       </c>
       <c r="C3">
         <v>0.827773842482785</v>
@@ -892,7 +892,7 @@
         <v>7.79313217167902</v>
       </c>
       <c r="L10">
-        <v>68.9890933564264</v>
+        <v>68.98909335642639</v>
       </c>
       <c r="M10">
         <v>95.4869651564685</v>
@@ -941,7 +941,7 @@
         <v>38.9605093781618</v>
       </c>
       <c r="K11">
-        <v>8.86077835014471</v>
+        <v>8.860778350144709</v>
       </c>
       <c r="L11">
         <v>38.8440310863859</v>
@@ -1097,7 +1097,7 @@
         <v>141.093113727383</v>
       </c>
       <c r="K14">
-        <v>76.52002840738921</v>
+        <v>76.5200284073892</v>
       </c>
       <c r="L14">
         <v>83.93399592701201</v>
@@ -1342,7 +1342,7 @@
         <v>22.550422162073</v>
       </c>
       <c r="F19">
-        <v>92.58814607773761</v>
+        <v>92.5881460777376</v>
       </c>
       <c r="G19">
         <v>37.3893416376878</v>
@@ -1394,7 +1394,7 @@
         <v>26.2344473887934</v>
       </c>
       <c r="F20">
-        <v>0.7205382669581451</v>
+        <v>0.720538266958145</v>
       </c>
       <c r="G20">
         <v>3.5591943481448</v>
@@ -2232,7 +2232,7 @@
         <v>88.2540670517414</v>
       </c>
       <c r="H36">
-        <v>71.2289284722654</v>
+        <v>71.22892847226539</v>
       </c>
       <c r="I36">
         <v>32.1386113741625</v>
@@ -2669,7 +2669,7 @@
         <v>102.470321057877</v>
       </c>
       <c r="O44">
-        <v>8692.07843443086</v>
+        <v>8692.078434430859</v>
       </c>
       <c r="P44">
         <v>153.897712465008</v>
@@ -2721,7 +2721,7 @@
         <v>30.8192948656171</v>
       </c>
       <c r="O45">
-        <v>927.58016494032</v>
+        <v>927.5801649403199</v>
       </c>
       <c r="P45">
         <v>16.3017652532013</v>
@@ -2734,7 +2734,7 @@
         </is>
       </c>
       <c r="B46">
-        <v>92.95955582944571</v>
+        <v>92.9595558294457</v>
       </c>
       <c r="C46">
         <v>3.51301404947169</v>
@@ -3413,7 +3413,7 @@
         <v>168.852633011071</v>
       </c>
       <c r="C59">
-        <v>9.830014764465521</v>
+        <v>9.83001476446552</v>
       </c>
       <c r="D59">
         <v>2.20327917134572</v>
@@ -3483,7 +3483,7 @@
         <v>82.31143578380799</v>
       </c>
       <c r="I60">
-        <v>70.2287270939373</v>
+        <v>70.22872709393729</v>
       </c>
       <c r="J60">
         <v>224.618688768285</v>
@@ -4165,7 +4165,7 @@
         <v>855.482342815252</v>
       </c>
       <c r="K73">
-        <v>599.7545556650121</v>
+        <v>599.754555665012</v>
       </c>
       <c r="L73">
         <v>450.847446904887</v>
@@ -4312,7 +4312,7 @@
         <v>5.80559997130091</v>
       </c>
       <c r="H76">
-        <v>8.582191261923081</v>
+        <v>8.58219126192308</v>
       </c>
       <c r="I76">
         <v>8.666330391941941</v>
@@ -4327,7 +4327,7 @@
         <v>9.59186082214933</v>
       </c>
       <c r="M76">
-        <v>8.9187477819985</v>
+        <v>8.918747781998499</v>
       </c>
       <c r="N76">
         <v>27.597634646184</v>
@@ -4413,7 +4413,7 @@
         <v>13.5464532360113</v>
       </c>
       <c r="G78">
-        <v>64.1874894982867</v>
+        <v>64.18748949828669</v>
       </c>
       <c r="H78">
         <v>32.8548460702156</v>
@@ -4679,7 +4679,7 @@
         <v>289.78722217291</v>
       </c>
       <c r="I83">
-        <v>698.6288283472291</v>
+        <v>698.628828347229</v>
       </c>
       <c r="J83">
         <v>1179.25249205744</v>
@@ -4762,7 +4762,7 @@
         </is>
       </c>
       <c r="B85">
-        <v>595.3780408211831</v>
+        <v>595.378040821183</v>
       </c>
       <c r="C85">
         <v>17.8939861590844</v>
@@ -4905,7 +4905,7 @@
         <v>250.269700458883</v>
       </c>
       <c r="O87">
-        <v>8946.712777532021</v>
+        <v>8946.71277753202</v>
       </c>
       <c r="P87">
         <v>4716.44400789053</v>
